--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Orders.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Orders.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack/OPG/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF52944D-61BD-BF4F-A838-BFD2DDD9CD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="26004"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19260" yWindow="12740" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="6" r:id="rId1"/>
@@ -21,14 +15,19 @@
     <sheet name="order_subtype_lookup" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cases!$A$1:$Q$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cases!$A$1:$Q$115</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="215">
   <si>
     <t>table_name</t>
   </si>
@@ -292,9 +291,6 @@
   </si>
   <si>
     <t>paymentbycheque</t>
-  </si>
-  <si>
-    <t>wouldliketoapplyforfeeremission</t>
   </si>
   <si>
     <t>haveappliedforfeeremission</t>
@@ -681,8 +677,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1110,14 +1106,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9CE832-EC01-244E-8F8D-CFC70DCA6FD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.83203125" customWidth="1"/>
@@ -1126,28 +1122,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="29" customFormat="1">
       <c r="A1" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="G1" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>210</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="29" customFormat="1">
@@ -1161,47 +1157,52 @@
         <v>17</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>60</v>
       </c>
       <c r="G2" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2" s="29" t="s">
         <v>214</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="29" customFormat="1">
       <c r="A3" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
@@ -1220,7 +1221,7 @@
     <col min="17" max="17" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15">
+    <row r="1" spans="1:17" ht="14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1273,7 +1274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="409.6">
+    <row r="2" spans="1:17" ht="364">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1301,7 +1302,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15">
+    <row r="3" spans="1:17" ht="14">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1326,7 +1327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15">
+    <row r="4" spans="1:17" ht="14">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1351,7 +1352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15">
+    <row r="5" spans="1:17" ht="14">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1376,7 +1377,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15">
+    <row r="6" spans="1:17" ht="14">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1404,7 +1405,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15">
+    <row r="7" spans="1:17" ht="14">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1426,7 +1427,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15">
+    <row r="8" spans="1:17" ht="14">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1451,7 +1452,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15">
+    <row r="9" spans="1:17" ht="14">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1473,7 +1474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15">
+    <row r="10" spans="1:17" ht="14">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1498,7 +1499,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15">
+    <row r="11" spans="1:17" ht="14">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1532,7 +1533,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15">
+    <row r="12" spans="1:17" ht="14">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15">
+    <row r="13" spans="1:17" ht="14">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1576,7 +1577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15">
+    <row r="14" spans="1:17" ht="14">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1598,7 +1599,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15">
+    <row r="15" spans="1:17" ht="14">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1620,7 +1621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15">
+    <row r="16" spans="1:17" ht="14">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1642,7 +1643,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15">
+    <row r="17" spans="1:17" ht="14">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1667,7 +1668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15">
+    <row r="18" spans="1:17" ht="14">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1692,7 +1693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15">
+    <row r="19" spans="1:17" ht="14">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1717,7 +1718,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15">
+    <row r="20" spans="1:17" ht="14">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -2483,17 +2484,15 @@
         <v>89</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E52" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="M52" s="10">
-        <v>0</v>
-      </c>
+      <c r="M52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15.75" customHeight="1">
@@ -2639,15 +2638,17 @@
         <v>96</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E59" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="M59" s="4"/>
+      <c r="M59" s="8" t="b">
+        <v>0</v>
+      </c>
       <c r="O59" s="4"/>
       <c r="P59" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="15.75" customHeight="1">
@@ -2685,17 +2686,15 @@
         <v>98</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E61" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="M61" s="8" t="b">
-        <v>0</v>
-      </c>
+      <c r="M61" s="4"/>
       <c r="O61" s="4"/>
       <c r="P61" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="15.75" customHeight="1">
@@ -2709,7 +2708,7 @@
         <v>99</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E62" s="2" t="b">
         <v>0</v>
@@ -2753,7 +2752,7 @@
         <v>101</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E64" s="2" t="b">
         <v>0</v>
@@ -2775,15 +2774,17 @@
         <v>102</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E65" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="M65" s="4"/>
+      <c r="M65" s="10">
+        <v>0</v>
+      </c>
       <c r="O65" s="4"/>
       <c r="P65" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="15.75" customHeight="1">
@@ -2827,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" s="4"/>
       <c r="P67" s="4" t="s">
@@ -2893,17 +2894,15 @@
         <v>107</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E70" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="M70" s="10">
-        <v>1</v>
-      </c>
+      <c r="M70" s="4"/>
       <c r="O70" s="4"/>
       <c r="P70" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="15.75" customHeight="1">
@@ -2917,7 +2916,7 @@
         <v>108</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E71" s="2" t="b">
         <v>0</v>
@@ -2944,10 +2943,12 @@
       <c r="E72" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="M72" s="4"/>
+      <c r="M72" s="8" t="b">
+        <v>0</v>
+      </c>
       <c r="O72" s="4"/>
       <c r="P72" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="15.75" customHeight="1">
@@ -2961,17 +2962,15 @@
         <v>110</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E73" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="M73" s="8" t="b">
-        <v>0</v>
-      </c>
+      <c r="M73" s="4"/>
       <c r="O73" s="4"/>
       <c r="P73" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="15.75" customHeight="1">
@@ -2985,15 +2984,17 @@
         <v>111</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E74" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="M74" s="4"/>
+      <c r="M74" s="10">
+        <v>1</v>
+      </c>
       <c r="O74" s="4"/>
       <c r="P74" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="15.75" customHeight="1">
@@ -3007,17 +3008,15 @@
         <v>112</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E75" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="M75" s="10">
-        <v>1</v>
-      </c>
+      <c r="M75" s="4"/>
       <c r="O75" s="4"/>
       <c r="P75" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="15.75" customHeight="1">
@@ -3053,7 +3052,7 @@
         <v>114</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E77" s="2" t="b">
         <v>0</v>
@@ -3075,7 +3074,7 @@
         <v>115</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E78" s="2" t="b">
         <v>0</v>
@@ -3097,15 +3096,17 @@
         <v>116</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E79" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="M79" s="4"/>
+      <c r="M79" s="10">
+        <v>1</v>
+      </c>
       <c r="O79" s="4"/>
       <c r="P79" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="15.75" customHeight="1">
@@ -3119,17 +3120,15 @@
         <v>117</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E80" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="M80" s="10">
-        <v>1</v>
-      </c>
+      <c r="M80" s="4"/>
       <c r="O80" s="4"/>
       <c r="P80" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="15.75" customHeight="1">
@@ -3143,15 +3142,17 @@
         <v>118</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E81" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="M81" s="4"/>
+      <c r="M81" s="8" t="b">
+        <v>0</v>
+      </c>
       <c r="O81" s="4"/>
       <c r="P81" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="15.75" customHeight="1">
@@ -3213,17 +3214,15 @@
         <v>121</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E84" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="M84" s="8" t="b">
-        <v>0</v>
-      </c>
+      <c r="N84" s="4"/>
       <c r="O84" s="4"/>
       <c r="P84" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="15.75" customHeight="1">
@@ -3237,7 +3236,7 @@
         <v>122</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E85" s="2" t="b">
         <v>0</v>
@@ -3259,7 +3258,7 @@
         <v>123</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E86" s="2" t="b">
         <v>0</v>
@@ -3303,7 +3302,7 @@
         <v>125</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E88" s="2" t="b">
         <v>0</v>
@@ -3325,7 +3324,7 @@
         <v>126</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E89" s="2" t="b">
         <v>0</v>
@@ -3352,10 +3351,19 @@
       <c r="E90" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="H90" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
       <c r="P90" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="15.75" customHeight="1">
@@ -3366,7 +3374,7 @@
         <v>17</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>42</v>
@@ -3378,10 +3386,10 @@
         <v>36</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
@@ -3397,10 +3405,10 @@
         <v>17</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E92" s="2" t="b">
         <v>0</v>
@@ -3409,14 +3417,18 @@
         <v>36</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="K92" s="2"/>
+      <c r="L92" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
-      <c r="P92" s="4" t="s">
+      <c r="P92" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3428,31 +3440,18 @@
         <v>17</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E93" s="2" t="b">
         <v>0</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I93" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K93" s="2"/>
-      <c r="L93" s="12" t="s">
-        <v>137</v>
       </c>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
-      <c r="P93" s="13" t="s">
-        <v>21</v>
+      <c r="P93" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="15.75" customHeight="1">
@@ -3466,7 +3465,7 @@
         <v>138</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="E94" s="2" t="b">
         <v>0</v>
@@ -3485,18 +3484,33 @@
         <v>17</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="E95" s="2" t="b">
         <v>0</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I95" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
       <c r="P95" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="Q95" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="15.75" customHeight="1">
@@ -3507,33 +3521,18 @@
         <v>17</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E96" s="2" t="b">
         <v>0</v>
-      </c>
-      <c r="H96" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I96" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="K96" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
       <c r="P96" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q96" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="15.75" customHeight="1">
@@ -3544,18 +3543,27 @@
         <v>17</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E97" s="2" t="b">
         <v>0</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I97" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
       <c r="P97" s="4" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="15.75" customHeight="1">
@@ -3566,27 +3574,18 @@
         <v>17</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E98" s="2" t="b">
         <v>0</v>
-      </c>
-      <c r="H98" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I98" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
       <c r="P98" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="15.75" customHeight="1">
@@ -3600,10 +3599,13 @@
         <v>151</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E99" s="2" t="b">
         <v>0</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
@@ -3627,9 +3629,6 @@
       <c r="E100" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G100" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
       <c r="P100" s="4" t="s">
@@ -3647,7 +3646,7 @@
         <v>153</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E101" s="2" t="b">
         <v>0</v>
@@ -3713,15 +3712,24 @@
         <v>156</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E104" s="2" t="b">
         <v>0</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I104" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
       <c r="P104" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="15.75" customHeight="1">
@@ -3732,27 +3740,18 @@
         <v>17</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E105" s="2" t="b">
         <v>0</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I105" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="J105" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
       <c r="P105" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="15.75" customHeight="1">
@@ -3832,15 +3831,24 @@
         <v>163</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E109" s="2" t="b">
         <v>0</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I109" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
       <c r="P109" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="1:16" ht="15.75" customHeight="1">
@@ -3851,27 +3859,18 @@
         <v>17</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E110" s="2" t="b">
         <v>0</v>
-      </c>
-      <c r="H110" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I110" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
       <c r="P110" s="4" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="15.75" customHeight="1">
@@ -3889,11 +3888,23 @@
       </c>
       <c r="E111" s="2" t="b">
         <v>0</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
       <c r="P111" s="4" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" spans="1:16" ht="15.75" customHeight="1">
@@ -3904,30 +3915,18 @@
         <v>17</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E112" s="2" t="b">
         <v>0</v>
-      </c>
-      <c r="H112" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I112" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L112" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
       <c r="P112" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" spans="1:16" ht="15.75" customHeight="1">
@@ -3941,15 +3940,17 @@
         <v>170</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E113" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="N113" s="4"/>
-      <c r="O113" s="4"/>
+      <c r="N113" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O113" s="5"/>
       <c r="P113" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" spans="1:16" ht="15.75" customHeight="1">
@@ -3968,10 +3969,17 @@
       <c r="E114" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="N114" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O114" s="5"/>
+      <c r="H114" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I114" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
       <c r="P114" s="4" t="s">
         <v>21</v>
       </c>
@@ -3984,50 +3992,23 @@
         <v>17</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E115" s="2" t="b">
         <v>0</v>
-      </c>
-      <c r="H115" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I115" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="J115" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
       <c r="P115" s="4" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A116" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N116" s="4"/>
+      <c r="B116" s="4"/>
       <c r="O116" s="4"/>
-      <c r="P116" s="4" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="117" spans="1:16" ht="15.75" customHeight="1">
       <c r="B117" s="4"/>
@@ -4825,703 +4806,704 @@
       <c r="B315" s="4"/>
       <c r="O315" s="4"/>
     </row>
-    <row r="316" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B316" s="4"/>
-      <c r="O316" s="4"/>
-    </row>
-    <row r="317" spans="2:15" ht="13"/>
-    <row r="318" spans="2:15" ht="13"/>
-    <row r="319" spans="2:15" ht="13"/>
-    <row r="320" spans="2:15" ht="13"/>
-    <row r="321" ht="13"/>
-    <row r="322" ht="13"/>
-    <row r="323" ht="13"/>
-    <row r="324" ht="13"/>
-    <row r="325" ht="13"/>
-    <row r="326" ht="13"/>
-    <row r="327" ht="13"/>
-    <row r="328" ht="13"/>
-    <row r="329" ht="13"/>
-    <row r="330" ht="13"/>
-    <row r="331" ht="13"/>
-    <row r="332" ht="13"/>
-    <row r="333" ht="13"/>
-    <row r="334" ht="13"/>
-    <row r="335" ht="13"/>
-    <row r="336" ht="13"/>
-    <row r="337" ht="13"/>
-    <row r="338" ht="13"/>
-    <row r="339" ht="13"/>
-    <row r="340" ht="13"/>
-    <row r="341" ht="13"/>
-    <row r="342" ht="13"/>
-    <row r="343" ht="13"/>
-    <row r="344" ht="13"/>
-    <row r="345" ht="13"/>
-    <row r="346" ht="13"/>
-    <row r="347" ht="13"/>
-    <row r="348" ht="13"/>
-    <row r="349" ht="13"/>
-    <row r="350" ht="13"/>
-    <row r="351" ht="13"/>
-    <row r="352" ht="13"/>
-    <row r="353" ht="13"/>
-    <row r="354" ht="13"/>
-    <row r="355" ht="13"/>
-    <row r="356" ht="13"/>
-    <row r="357" ht="13"/>
-    <row r="358" ht="13"/>
-    <row r="359" ht="13"/>
-    <row r="360" ht="13"/>
-    <row r="361" ht="13"/>
-    <row r="362" ht="13"/>
-    <row r="363" ht="13"/>
-    <row r="364" ht="13"/>
-    <row r="365" ht="13"/>
-    <row r="366" ht="13"/>
-    <row r="367" ht="13"/>
-    <row r="368" ht="13"/>
-    <row r="369" ht="13"/>
-    <row r="370" ht="13"/>
-    <row r="371" ht="13"/>
-    <row r="372" ht="13"/>
-    <row r="373" ht="13"/>
-    <row r="374" ht="13"/>
-    <row r="375" ht="13"/>
-    <row r="376" ht="13"/>
-    <row r="377" ht="13"/>
-    <row r="378" ht="13"/>
-    <row r="379" ht="13"/>
-    <row r="380" ht="13"/>
-    <row r="381" ht="13"/>
-    <row r="382" ht="13"/>
-    <row r="383" ht="13"/>
-    <row r="384" ht="13"/>
-    <row r="385" ht="13"/>
-    <row r="386" ht="13"/>
-    <row r="387" ht="13"/>
-    <row r="388" ht="13"/>
-    <row r="389" ht="13"/>
-    <row r="390" ht="13"/>
-    <row r="391" ht="13"/>
-    <row r="392" ht="13"/>
-    <row r="393" ht="13"/>
-    <row r="394" ht="13"/>
-    <row r="395" ht="13"/>
-    <row r="396" ht="13"/>
-    <row r="397" ht="13"/>
-    <row r="398" ht="13"/>
-    <row r="399" ht="13"/>
-    <row r="400" ht="13"/>
-    <row r="401" ht="13"/>
-    <row r="402" ht="13"/>
-    <row r="403" ht="13"/>
-    <row r="404" ht="13"/>
-    <row r="405" ht="13"/>
-    <row r="406" ht="13"/>
-    <row r="407" ht="13"/>
-    <row r="408" ht="13"/>
-    <row r="409" ht="13"/>
-    <row r="410" ht="13"/>
-    <row r="411" ht="13"/>
-    <row r="412" ht="13"/>
-    <row r="413" ht="13"/>
-    <row r="414" ht="13"/>
-    <row r="415" ht="13"/>
-    <row r="416" ht="13"/>
-    <row r="417" ht="13"/>
-    <row r="418" ht="13"/>
-    <row r="419" ht="13"/>
-    <row r="420" ht="13"/>
-    <row r="421" ht="13"/>
-    <row r="422" ht="13"/>
-    <row r="423" ht="13"/>
-    <row r="424" ht="13"/>
-    <row r="425" ht="13"/>
-    <row r="426" ht="13"/>
-    <row r="427" ht="13"/>
-    <row r="428" ht="13"/>
-    <row r="429" ht="13"/>
-    <row r="430" ht="13"/>
-    <row r="431" ht="13"/>
-    <row r="432" ht="13"/>
-    <row r="433" ht="13"/>
-    <row r="434" ht="13"/>
-    <row r="435" ht="13"/>
-    <row r="436" ht="13"/>
-    <row r="437" ht="13"/>
-    <row r="438" ht="13"/>
-    <row r="439" ht="13"/>
-    <row r="440" ht="13"/>
-    <row r="441" ht="13"/>
-    <row r="442" ht="13"/>
-    <row r="443" ht="13"/>
-    <row r="444" ht="13"/>
-    <row r="445" ht="13"/>
-    <row r="446" ht="13"/>
-    <row r="447" ht="13"/>
-    <row r="448" ht="13"/>
-    <row r="449" ht="13"/>
-    <row r="450" ht="13"/>
-    <row r="451" ht="13"/>
-    <row r="452" ht="13"/>
-    <row r="453" ht="13"/>
-    <row r="454" ht="13"/>
-    <row r="455" ht="13"/>
-    <row r="456" ht="13"/>
-    <row r="457" ht="13"/>
-    <row r="458" ht="13"/>
-    <row r="459" ht="13"/>
-    <row r="460" ht="13"/>
-    <row r="461" ht="13"/>
-    <row r="462" ht="13"/>
-    <row r="463" ht="13"/>
-    <row r="464" ht="13"/>
-    <row r="465" ht="13"/>
-    <row r="466" ht="13"/>
-    <row r="467" ht="13"/>
-    <row r="468" ht="13"/>
-    <row r="469" ht="13"/>
-    <row r="470" ht="13"/>
-    <row r="471" ht="13"/>
-    <row r="472" ht="13"/>
-    <row r="473" ht="13"/>
-    <row r="474" ht="13"/>
-    <row r="475" ht="13"/>
-    <row r="476" ht="13"/>
-    <row r="477" ht="13"/>
-    <row r="478" ht="13"/>
-    <row r="479" ht="13"/>
-    <row r="480" ht="13"/>
-    <row r="481" ht="13"/>
-    <row r="482" ht="13"/>
-    <row r="483" ht="13"/>
-    <row r="484" ht="13"/>
-    <row r="485" ht="13"/>
-    <row r="486" ht="13"/>
-    <row r="487" ht="13"/>
-    <row r="488" ht="13"/>
-    <row r="489" ht="13"/>
-    <row r="490" ht="13"/>
-    <row r="491" ht="13"/>
-    <row r="492" ht="13"/>
-    <row r="493" ht="13"/>
-    <row r="494" ht="13"/>
-    <row r="495" ht="13"/>
-    <row r="496" ht="13"/>
-    <row r="497" ht="13"/>
-    <row r="498" ht="13"/>
-    <row r="499" ht="13"/>
-    <row r="500" ht="13"/>
-    <row r="501" ht="13"/>
-    <row r="502" ht="13"/>
-    <row r="503" ht="13"/>
-    <row r="504" ht="13"/>
-    <row r="505" ht="13"/>
-    <row r="506" ht="13"/>
-    <row r="507" ht="13"/>
-    <row r="508" ht="13"/>
-    <row r="509" ht="13"/>
-    <row r="510" ht="13"/>
-    <row r="511" ht="13"/>
-    <row r="512" ht="13"/>
-    <row r="513" ht="13"/>
-    <row r="514" ht="13"/>
-    <row r="515" ht="13"/>
-    <row r="516" ht="13"/>
-    <row r="517" ht="13"/>
-    <row r="518" ht="13"/>
-    <row r="519" ht="13"/>
-    <row r="520" ht="13"/>
-    <row r="521" ht="13"/>
-    <row r="522" ht="13"/>
-    <row r="523" ht="13"/>
-    <row r="524" ht="13"/>
-    <row r="525" ht="13"/>
-    <row r="526" ht="13"/>
-    <row r="527" ht="13"/>
-    <row r="528" ht="13"/>
-    <row r="529" ht="13"/>
-    <row r="530" ht="13"/>
-    <row r="531" ht="13"/>
-    <row r="532" ht="13"/>
-    <row r="533" ht="13"/>
-    <row r="534" ht="13"/>
-    <row r="535" ht="13"/>
-    <row r="536" ht="13"/>
-    <row r="537" ht="13"/>
-    <row r="538" ht="13"/>
-    <row r="539" ht="13"/>
-    <row r="540" ht="13"/>
-    <row r="541" ht="13"/>
-    <row r="542" ht="13"/>
-    <row r="543" ht="13"/>
-    <row r="544" ht="13"/>
-    <row r="545" ht="13"/>
-    <row r="546" ht="13"/>
-    <row r="547" ht="13"/>
-    <row r="548" ht="13"/>
-    <row r="549" ht="13"/>
-    <row r="550" ht="13"/>
-    <row r="551" ht="13"/>
-    <row r="552" ht="13"/>
-    <row r="553" ht="13"/>
-    <row r="554" ht="13"/>
-    <row r="555" ht="13"/>
-    <row r="556" ht="13"/>
-    <row r="557" ht="13"/>
-    <row r="558" ht="13"/>
-    <row r="559" ht="13"/>
-    <row r="560" ht="13"/>
-    <row r="561" ht="13"/>
-    <row r="562" ht="13"/>
-    <row r="563" ht="13"/>
-    <row r="564" ht="13"/>
-    <row r="565" ht="13"/>
-    <row r="566" ht="13"/>
-    <row r="567" ht="13"/>
-    <row r="568" ht="13"/>
-    <row r="569" ht="13"/>
-    <row r="570" ht="13"/>
-    <row r="571" ht="13"/>
-    <row r="572" ht="13"/>
-    <row r="573" ht="13"/>
-    <row r="574" ht="13"/>
-    <row r="575" ht="13"/>
-    <row r="576" ht="13"/>
-    <row r="577" ht="13"/>
-    <row r="578" ht="13"/>
-    <row r="579" ht="13"/>
-    <row r="580" ht="13"/>
-    <row r="581" ht="13"/>
-    <row r="582" ht="13"/>
-    <row r="583" ht="13"/>
-    <row r="584" ht="13"/>
-    <row r="585" ht="13"/>
-    <row r="586" ht="13"/>
-    <row r="587" ht="13"/>
-    <row r="588" ht="13"/>
-    <row r="589" ht="13"/>
-    <row r="590" ht="13"/>
-    <row r="591" ht="13"/>
-    <row r="592" ht="13"/>
-    <row r="593" ht="13"/>
-    <row r="594" ht="13"/>
-    <row r="595" ht="13"/>
-    <row r="596" ht="13"/>
-    <row r="597" ht="13"/>
-    <row r="598" ht="13"/>
-    <row r="599" ht="13"/>
-    <row r="600" ht="13"/>
-    <row r="601" ht="13"/>
-    <row r="602" ht="13"/>
-    <row r="603" ht="13"/>
-    <row r="604" ht="13"/>
-    <row r="605" ht="13"/>
-    <row r="606" ht="13"/>
-    <row r="607" ht="13"/>
-    <row r="608" ht="13"/>
-    <row r="609" ht="13"/>
-    <row r="610" ht="13"/>
-    <row r="611" ht="13"/>
-    <row r="612" ht="13"/>
-    <row r="613" ht="13"/>
-    <row r="614" ht="13"/>
-    <row r="615" ht="13"/>
-    <row r="616" ht="13"/>
-    <row r="617" ht="13"/>
-    <row r="618" ht="13"/>
-    <row r="619" ht="13"/>
-    <row r="620" ht="13"/>
-    <row r="621" ht="13"/>
-    <row r="622" ht="13"/>
-    <row r="623" ht="13"/>
-    <row r="624" ht="13"/>
-    <row r="625" ht="13"/>
-    <row r="626" ht="13"/>
-    <row r="627" ht="13"/>
-    <row r="628" ht="13"/>
-    <row r="629" ht="13"/>
-    <row r="630" ht="13"/>
-    <row r="631" ht="13"/>
-    <row r="632" ht="13"/>
-    <row r="633" ht="13"/>
-    <row r="634" ht="13"/>
-    <row r="635" ht="13"/>
-    <row r="636" ht="13"/>
-    <row r="637" ht="13"/>
-    <row r="638" ht="13"/>
-    <row r="639" ht="13"/>
-    <row r="640" ht="13"/>
-    <row r="641" ht="13"/>
-    <row r="642" ht="13"/>
-    <row r="643" ht="13"/>
-    <row r="644" ht="13"/>
-    <row r="645" ht="13"/>
-    <row r="646" ht="13"/>
-    <row r="647" ht="13"/>
-    <row r="648" ht="13"/>
-    <row r="649" ht="13"/>
-    <row r="650" ht="13"/>
-    <row r="651" ht="13"/>
-    <row r="652" ht="13"/>
-    <row r="653" ht="13"/>
-    <row r="654" ht="13"/>
-    <row r="655" ht="13"/>
-    <row r="656" ht="13"/>
-    <row r="657" ht="13"/>
-    <row r="658" ht="13"/>
-    <row r="659" ht="13"/>
-    <row r="660" ht="13"/>
-    <row r="661" ht="13"/>
-    <row r="662" ht="13"/>
-    <row r="663" ht="13"/>
-    <row r="664" ht="13"/>
-    <row r="665" ht="13"/>
-    <row r="666" ht="13"/>
-    <row r="667" ht="13"/>
-    <row r="668" ht="13"/>
-    <row r="669" ht="13"/>
-    <row r="670" ht="13"/>
-    <row r="671" ht="13"/>
-    <row r="672" ht="13"/>
-    <row r="673" ht="13"/>
-    <row r="674" ht="13"/>
-    <row r="675" ht="13"/>
-    <row r="676" ht="13"/>
-    <row r="677" ht="13"/>
-    <row r="678" ht="13"/>
-    <row r="679" ht="13"/>
-    <row r="680" ht="13"/>
-    <row r="681" ht="13"/>
-    <row r="682" ht="13"/>
-    <row r="683" ht="13"/>
-    <row r="684" ht="13"/>
-    <row r="685" ht="13"/>
-    <row r="686" ht="13"/>
-    <row r="687" ht="13"/>
-    <row r="688" ht="13"/>
-    <row r="689" ht="13"/>
-    <row r="690" ht="13"/>
-    <row r="691" ht="13"/>
-    <row r="692" ht="13"/>
-    <row r="693" ht="13"/>
-    <row r="694" ht="13"/>
-    <row r="695" ht="13"/>
-    <row r="696" ht="13"/>
-    <row r="697" ht="13"/>
-    <row r="698" ht="13"/>
-    <row r="699" ht="13"/>
-    <row r="700" ht="13"/>
-    <row r="701" ht="13"/>
-    <row r="702" ht="13"/>
-    <row r="703" ht="13"/>
-    <row r="704" ht="13"/>
-    <row r="705" ht="13"/>
-    <row r="706" ht="13"/>
-    <row r="707" ht="13"/>
-    <row r="708" ht="13"/>
-    <row r="709" ht="13"/>
-    <row r="710" ht="13"/>
-    <row r="711" ht="13"/>
-    <row r="712" ht="13"/>
-    <row r="713" ht="13"/>
-    <row r="714" ht="13"/>
-    <row r="715" ht="13"/>
-    <row r="716" ht="13"/>
-    <row r="717" ht="13"/>
-    <row r="718" ht="13"/>
-    <row r="719" ht="13"/>
-    <row r="720" ht="13"/>
-    <row r="721" ht="13"/>
-    <row r="722" ht="13"/>
-    <row r="723" ht="13"/>
-    <row r="724" ht="13"/>
-    <row r="725" ht="13"/>
-    <row r="726" ht="13"/>
-    <row r="727" ht="13"/>
-    <row r="728" ht="13"/>
-    <row r="729" ht="13"/>
-    <row r="730" ht="13"/>
-    <row r="731" ht="13"/>
-    <row r="732" ht="13"/>
-    <row r="733" ht="13"/>
-    <row r="734" ht="13"/>
-    <row r="735" ht="13"/>
-    <row r="736" ht="13"/>
-    <row r="737" ht="13"/>
-    <row r="738" ht="13"/>
-    <row r="739" ht="13"/>
-    <row r="740" ht="13"/>
-    <row r="741" ht="13"/>
-    <row r="742" ht="13"/>
-    <row r="743" ht="13"/>
-    <row r="744" ht="13"/>
-    <row r="745" ht="13"/>
-    <row r="746" ht="13"/>
-    <row r="747" ht="13"/>
-    <row r="748" ht="13"/>
-    <row r="749" ht="13"/>
-    <row r="750" ht="13"/>
-    <row r="751" ht="13"/>
-    <row r="752" ht="13"/>
-    <row r="753" ht="13"/>
-    <row r="754" ht="13"/>
-    <row r="755" ht="13"/>
-    <row r="756" ht="13"/>
-    <row r="757" ht="13"/>
-    <row r="758" ht="13"/>
-    <row r="759" ht="13"/>
-    <row r="760" ht="13"/>
-    <row r="761" ht="13"/>
-    <row r="762" ht="13"/>
-    <row r="763" ht="13"/>
-    <row r="764" ht="13"/>
-    <row r="765" ht="13"/>
-    <row r="766" ht="13"/>
-    <row r="767" ht="13"/>
-    <row r="768" ht="13"/>
-    <row r="769" ht="13"/>
-    <row r="770" ht="13"/>
-    <row r="771" ht="13"/>
-    <row r="772" ht="13"/>
-    <row r="773" ht="13"/>
-    <row r="774" ht="13"/>
-    <row r="775" ht="13"/>
-    <row r="776" ht="13"/>
-    <row r="777" ht="13"/>
-    <row r="778" ht="13"/>
-    <row r="779" ht="13"/>
-    <row r="780" ht="13"/>
-    <row r="781" ht="13"/>
-    <row r="782" ht="13"/>
-    <row r="783" ht="13"/>
-    <row r="784" ht="13"/>
-    <row r="785" ht="13"/>
-    <row r="786" ht="13"/>
-    <row r="787" ht="13"/>
-    <row r="788" ht="13"/>
-    <row r="789" ht="13"/>
-    <row r="790" ht="13"/>
-    <row r="791" ht="13"/>
-    <row r="792" ht="13"/>
-    <row r="793" ht="13"/>
-    <row r="794" ht="13"/>
-    <row r="795" ht="13"/>
-    <row r="796" ht="13"/>
-    <row r="797" ht="13"/>
-    <row r="798" ht="13"/>
-    <row r="799" ht="13"/>
-    <row r="800" ht="13"/>
-    <row r="801" ht="13"/>
-    <row r="802" ht="13"/>
-    <row r="803" ht="13"/>
-    <row r="804" ht="13"/>
-    <row r="805" ht="13"/>
-    <row r="806" ht="13"/>
-    <row r="807" ht="13"/>
-    <row r="808" ht="13"/>
-    <row r="809" ht="13"/>
-    <row r="810" ht="13"/>
-    <row r="811" ht="13"/>
-    <row r="812" ht="13"/>
-    <row r="813" ht="13"/>
-    <row r="814" ht="13"/>
-    <row r="815" ht="13"/>
-    <row r="816" ht="13"/>
-    <row r="817" ht="13"/>
-    <row r="818" ht="13"/>
-    <row r="819" ht="13"/>
-    <row r="820" ht="13"/>
-    <row r="821" ht="13"/>
-    <row r="822" ht="13"/>
-    <row r="823" ht="13"/>
-    <row r="824" ht="13"/>
-    <row r="825" ht="13"/>
-    <row r="826" ht="13"/>
-    <row r="827" ht="13"/>
-    <row r="828" ht="13"/>
-    <row r="829" ht="13"/>
-    <row r="830" ht="13"/>
-    <row r="831" ht="13"/>
-    <row r="832" ht="13"/>
-    <row r="833" ht="13"/>
-    <row r="834" ht="13"/>
-    <row r="835" ht="13"/>
-    <row r="836" ht="13"/>
-    <row r="837" ht="13"/>
-    <row r="838" ht="13"/>
-    <row r="839" ht="13"/>
-    <row r="840" ht="13"/>
-    <row r="841" ht="13"/>
-    <row r="842" ht="13"/>
-    <row r="843" ht="13"/>
-    <row r="844" ht="13"/>
-    <row r="845" ht="13"/>
-    <row r="846" ht="13"/>
-    <row r="847" ht="13"/>
-    <row r="848" ht="13"/>
-    <row r="849" ht="13"/>
-    <row r="850" ht="13"/>
-    <row r="851" ht="13"/>
-    <row r="852" ht="13"/>
-    <row r="853" ht="13"/>
-    <row r="854" ht="13"/>
-    <row r="855" ht="13"/>
-    <row r="856" ht="13"/>
-    <row r="857" ht="13"/>
-    <row r="858" ht="13"/>
-    <row r="859" ht="13"/>
-    <row r="860" ht="13"/>
-    <row r="861" ht="13"/>
-    <row r="862" ht="13"/>
-    <row r="863" ht="13"/>
-    <row r="864" ht="13"/>
-    <row r="865" ht="13"/>
-    <row r="866" ht="13"/>
-    <row r="867" ht="13"/>
-    <row r="868" ht="13"/>
-    <row r="869" ht="13"/>
-    <row r="870" ht="13"/>
-    <row r="871" ht="13"/>
-    <row r="872" ht="13"/>
-    <row r="873" ht="13"/>
-    <row r="874" ht="13"/>
-    <row r="875" ht="13"/>
-    <row r="876" ht="13"/>
-    <row r="877" ht="13"/>
-    <row r="878" ht="13"/>
-    <row r="879" ht="13"/>
-    <row r="880" ht="13"/>
-    <row r="881" ht="13"/>
-    <row r="882" ht="13"/>
-    <row r="883" ht="13"/>
-    <row r="884" ht="13"/>
-    <row r="885" ht="13"/>
-    <row r="886" ht="13"/>
-    <row r="887" ht="13"/>
-    <row r="888" ht="13"/>
-    <row r="889" ht="13"/>
-    <row r="890" ht="13"/>
-    <row r="891" ht="13"/>
-    <row r="892" ht="13"/>
-    <row r="893" ht="13"/>
-    <row r="894" ht="13"/>
-    <row r="895" ht="13"/>
-    <row r="896" ht="13"/>
-    <row r="897" ht="13"/>
-    <row r="898" ht="13"/>
-    <row r="899" ht="13"/>
-    <row r="900" ht="13"/>
-    <row r="901" ht="13"/>
-    <row r="902" ht="13"/>
-    <row r="903" ht="13"/>
-    <row r="904" ht="13"/>
-    <row r="905" ht="13"/>
-    <row r="906" ht="13"/>
-    <row r="907" ht="13"/>
-    <row r="908" ht="13"/>
-    <row r="909" ht="13"/>
-    <row r="910" ht="13"/>
-    <row r="911" ht="13"/>
-    <row r="912" ht="13"/>
-    <row r="913" ht="13"/>
-    <row r="914" ht="13"/>
-    <row r="915" ht="13"/>
-    <row r="916" ht="13"/>
-    <row r="917" ht="13"/>
-    <row r="918" ht="13"/>
-    <row r="919" ht="13"/>
-    <row r="920" ht="13"/>
-    <row r="921" ht="13"/>
-    <row r="922" ht="13"/>
-    <row r="923" ht="13"/>
-    <row r="924" ht="13"/>
-    <row r="925" ht="13"/>
-    <row r="926" ht="13"/>
-    <row r="927" ht="13"/>
-    <row r="928" ht="13"/>
-    <row r="929" ht="13"/>
-    <row r="930" ht="13"/>
-    <row r="931" ht="13"/>
-    <row r="932" ht="13"/>
-    <row r="933" ht="13"/>
-    <row r="934" ht="13"/>
-    <row r="935" ht="13"/>
-    <row r="936" ht="13"/>
-    <row r="937" ht="13"/>
-    <row r="938" ht="13"/>
-    <row r="939" ht="13"/>
-    <row r="940" ht="13"/>
-    <row r="941" ht="13"/>
-    <row r="942" ht="13"/>
-    <row r="943" ht="13"/>
-    <row r="944" ht="13"/>
-    <row r="945" ht="13"/>
-    <row r="946" ht="13"/>
-    <row r="947" ht="13"/>
-    <row r="948" ht="13"/>
-    <row r="949" ht="13"/>
-    <row r="950" ht="13"/>
-    <row r="951" ht="13"/>
-    <row r="952" ht="13"/>
-    <row r="953" ht="13"/>
-    <row r="954" ht="13"/>
-    <row r="955" ht="13"/>
-    <row r="956" ht="13"/>
-    <row r="957" ht="13"/>
-    <row r="958" ht="13"/>
-    <row r="959" ht="13"/>
-    <row r="960" ht="13"/>
-    <row r="961" ht="13"/>
-    <row r="962" ht="13"/>
-    <row r="963" ht="13"/>
-    <row r="964" ht="13"/>
-    <row r="965" ht="13"/>
-    <row r="966" ht="13"/>
-    <row r="967" ht="13"/>
-    <row r="968" ht="13"/>
-    <row r="969" ht="13"/>
-    <row r="970" ht="13"/>
-    <row r="971" ht="13"/>
-    <row r="972" ht="13"/>
-    <row r="973" ht="13"/>
-    <row r="974" ht="13"/>
-    <row r="975" ht="13"/>
-    <row r="976" ht="13"/>
-    <row r="977" ht="13"/>
-    <row r="978" ht="13"/>
-    <row r="979" ht="13"/>
-    <row r="980" ht="13"/>
-    <row r="981" ht="13"/>
-    <row r="982" ht="13"/>
-    <row r="983" ht="13"/>
-    <row r="984" ht="13"/>
-    <row r="985" ht="13"/>
-    <row r="986" ht="13"/>
-    <row r="987" ht="13"/>
-    <row r="988" ht="13"/>
-    <row r="989" ht="13"/>
-    <row r="990" ht="13"/>
-    <row r="991" ht="13"/>
-    <row r="992" ht="13"/>
-    <row r="993" ht="13"/>
-    <row r="994" ht="13"/>
-    <row r="995" ht="13"/>
-    <row r="996" ht="13"/>
-    <row r="997" ht="13"/>
-    <row r="998" ht="13"/>
-    <row r="999" ht="13"/>
-    <row r="1000" ht="13"/>
+    <row r="316" spans="2:15" ht="12"/>
+    <row r="317" spans="2:15" ht="12"/>
+    <row r="318" spans="2:15" ht="12"/>
+    <row r="319" spans="2:15" ht="12"/>
+    <row r="320" spans="2:15" ht="12"/>
+    <row r="321" ht="12"/>
+    <row r="322" ht="12"/>
+    <row r="323" ht="12"/>
+    <row r="324" ht="12"/>
+    <row r="325" ht="12"/>
+    <row r="326" ht="12"/>
+    <row r="327" ht="12"/>
+    <row r="328" ht="12"/>
+    <row r="329" ht="12"/>
+    <row r="330" ht="12"/>
+    <row r="331" ht="12"/>
+    <row r="332" ht="12"/>
+    <row r="333" ht="12"/>
+    <row r="334" ht="12"/>
+    <row r="335" ht="12"/>
+    <row r="336" ht="12"/>
+    <row r="337" ht="12"/>
+    <row r="338" ht="12"/>
+    <row r="339" ht="12"/>
+    <row r="340" ht="12"/>
+    <row r="341" ht="12"/>
+    <row r="342" ht="12"/>
+    <row r="343" ht="12"/>
+    <row r="344" ht="12"/>
+    <row r="345" ht="12"/>
+    <row r="346" ht="12"/>
+    <row r="347" ht="12"/>
+    <row r="348" ht="12"/>
+    <row r="349" ht="12"/>
+    <row r="350" ht="12"/>
+    <row r="351" ht="12"/>
+    <row r="352" ht="12"/>
+    <row r="353" ht="12"/>
+    <row r="354" ht="12"/>
+    <row r="355" ht="12"/>
+    <row r="356" ht="12"/>
+    <row r="357" ht="12"/>
+    <row r="358" ht="12"/>
+    <row r="359" ht="12"/>
+    <row r="360" ht="12"/>
+    <row r="361" ht="12"/>
+    <row r="362" ht="12"/>
+    <row r="363" ht="12"/>
+    <row r="364" ht="12"/>
+    <row r="365" ht="12"/>
+    <row r="366" ht="12"/>
+    <row r="367" ht="12"/>
+    <row r="368" ht="12"/>
+    <row r="369" ht="12"/>
+    <row r="370" ht="12"/>
+    <row r="371" ht="12"/>
+    <row r="372" ht="12"/>
+    <row r="373" ht="12"/>
+    <row r="374" ht="12"/>
+    <row r="375" ht="12"/>
+    <row r="376" ht="12"/>
+    <row r="377" ht="12"/>
+    <row r="378" ht="12"/>
+    <row r="379" ht="12"/>
+    <row r="380" ht="12"/>
+    <row r="381" ht="12"/>
+    <row r="382" ht="12"/>
+    <row r="383" ht="12"/>
+    <row r="384" ht="12"/>
+    <row r="385" ht="12"/>
+    <row r="386" ht="12"/>
+    <row r="387" ht="12"/>
+    <row r="388" ht="12"/>
+    <row r="389" ht="12"/>
+    <row r="390" ht="12"/>
+    <row r="391" ht="12"/>
+    <row r="392" ht="12"/>
+    <row r="393" ht="12"/>
+    <row r="394" ht="12"/>
+    <row r="395" ht="12"/>
+    <row r="396" ht="12"/>
+    <row r="397" ht="12"/>
+    <row r="398" ht="12"/>
+    <row r="399" ht="12"/>
+    <row r="400" ht="12"/>
+    <row r="401" ht="12"/>
+    <row r="402" ht="12"/>
+    <row r="403" ht="12"/>
+    <row r="404" ht="12"/>
+    <row r="405" ht="12"/>
+    <row r="406" ht="12"/>
+    <row r="407" ht="12"/>
+    <row r="408" ht="12"/>
+    <row r="409" ht="12"/>
+    <row r="410" ht="12"/>
+    <row r="411" ht="12"/>
+    <row r="412" ht="12"/>
+    <row r="413" ht="12"/>
+    <row r="414" ht="12"/>
+    <row r="415" ht="12"/>
+    <row r="416" ht="12"/>
+    <row r="417" ht="12"/>
+    <row r="418" ht="12"/>
+    <row r="419" ht="12"/>
+    <row r="420" ht="12"/>
+    <row r="421" ht="12"/>
+    <row r="422" ht="12"/>
+    <row r="423" ht="12"/>
+    <row r="424" ht="12"/>
+    <row r="425" ht="12"/>
+    <row r="426" ht="12"/>
+    <row r="427" ht="12"/>
+    <row r="428" ht="12"/>
+    <row r="429" ht="12"/>
+    <row r="430" ht="12"/>
+    <row r="431" ht="12"/>
+    <row r="432" ht="12"/>
+    <row r="433" ht="12"/>
+    <row r="434" ht="12"/>
+    <row r="435" ht="12"/>
+    <row r="436" ht="12"/>
+    <row r="437" ht="12"/>
+    <row r="438" ht="12"/>
+    <row r="439" ht="12"/>
+    <row r="440" ht="12"/>
+    <row r="441" ht="12"/>
+    <row r="442" ht="12"/>
+    <row r="443" ht="12"/>
+    <row r="444" ht="12"/>
+    <row r="445" ht="12"/>
+    <row r="446" ht="12"/>
+    <row r="447" ht="12"/>
+    <row r="448" ht="12"/>
+    <row r="449" ht="12"/>
+    <row r="450" ht="12"/>
+    <row r="451" ht="12"/>
+    <row r="452" ht="12"/>
+    <row r="453" ht="12"/>
+    <row r="454" ht="12"/>
+    <row r="455" ht="12"/>
+    <row r="456" ht="12"/>
+    <row r="457" ht="12"/>
+    <row r="458" ht="12"/>
+    <row r="459" ht="12"/>
+    <row r="460" ht="12"/>
+    <row r="461" ht="12"/>
+    <row r="462" ht="12"/>
+    <row r="463" ht="12"/>
+    <row r="464" ht="12"/>
+    <row r="465" ht="12"/>
+    <row r="466" ht="12"/>
+    <row r="467" ht="12"/>
+    <row r="468" ht="12"/>
+    <row r="469" ht="12"/>
+    <row r="470" ht="12"/>
+    <row r="471" ht="12"/>
+    <row r="472" ht="12"/>
+    <row r="473" ht="12"/>
+    <row r="474" ht="12"/>
+    <row r="475" ht="12"/>
+    <row r="476" ht="12"/>
+    <row r="477" ht="12"/>
+    <row r="478" ht="12"/>
+    <row r="479" ht="12"/>
+    <row r="480" ht="12"/>
+    <row r="481" ht="12"/>
+    <row r="482" ht="12"/>
+    <row r="483" ht="12"/>
+    <row r="484" ht="12"/>
+    <row r="485" ht="12"/>
+    <row r="486" ht="12"/>
+    <row r="487" ht="12"/>
+    <row r="488" ht="12"/>
+    <row r="489" ht="12"/>
+    <row r="490" ht="12"/>
+    <row r="491" ht="12"/>
+    <row r="492" ht="12"/>
+    <row r="493" ht="12"/>
+    <row r="494" ht="12"/>
+    <row r="495" ht="12"/>
+    <row r="496" ht="12"/>
+    <row r="497" ht="12"/>
+    <row r="498" ht="12"/>
+    <row r="499" ht="12"/>
+    <row r="500" ht="12"/>
+    <row r="501" ht="12"/>
+    <row r="502" ht="12"/>
+    <row r="503" ht="12"/>
+    <row r="504" ht="12"/>
+    <row r="505" ht="12"/>
+    <row r="506" ht="12"/>
+    <row r="507" ht="12"/>
+    <row r="508" ht="12"/>
+    <row r="509" ht="12"/>
+    <row r="510" ht="12"/>
+    <row r="511" ht="12"/>
+    <row r="512" ht="12"/>
+    <row r="513" ht="12"/>
+    <row r="514" ht="12"/>
+    <row r="515" ht="12"/>
+    <row r="516" ht="12"/>
+    <row r="517" ht="12"/>
+    <row r="518" ht="12"/>
+    <row r="519" ht="12"/>
+    <row r="520" ht="12"/>
+    <row r="521" ht="12"/>
+    <row r="522" ht="12"/>
+    <row r="523" ht="12"/>
+    <row r="524" ht="12"/>
+    <row r="525" ht="12"/>
+    <row r="526" ht="12"/>
+    <row r="527" ht="12"/>
+    <row r="528" ht="12"/>
+    <row r="529" ht="12"/>
+    <row r="530" ht="12"/>
+    <row r="531" ht="12"/>
+    <row r="532" ht="12"/>
+    <row r="533" ht="12"/>
+    <row r="534" ht="12"/>
+    <row r="535" ht="12"/>
+    <row r="536" ht="12"/>
+    <row r="537" ht="12"/>
+    <row r="538" ht="12"/>
+    <row r="539" ht="12"/>
+    <row r="540" ht="12"/>
+    <row r="541" ht="12"/>
+    <row r="542" ht="12"/>
+    <row r="543" ht="12"/>
+    <row r="544" ht="12"/>
+    <row r="545" ht="12"/>
+    <row r="546" ht="12"/>
+    <row r="547" ht="12"/>
+    <row r="548" ht="12"/>
+    <row r="549" ht="12"/>
+    <row r="550" ht="12"/>
+    <row r="551" ht="12"/>
+    <row r="552" ht="12"/>
+    <row r="553" ht="12"/>
+    <row r="554" ht="12"/>
+    <row r="555" ht="12"/>
+    <row r="556" ht="12"/>
+    <row r="557" ht="12"/>
+    <row r="558" ht="12"/>
+    <row r="559" ht="12"/>
+    <row r="560" ht="12"/>
+    <row r="561" ht="12"/>
+    <row r="562" ht="12"/>
+    <row r="563" ht="12"/>
+    <row r="564" ht="12"/>
+    <row r="565" ht="12"/>
+    <row r="566" ht="12"/>
+    <row r="567" ht="12"/>
+    <row r="568" ht="12"/>
+    <row r="569" ht="12"/>
+    <row r="570" ht="12"/>
+    <row r="571" ht="12"/>
+    <row r="572" ht="12"/>
+    <row r="573" ht="12"/>
+    <row r="574" ht="12"/>
+    <row r="575" ht="12"/>
+    <row r="576" ht="12"/>
+    <row r="577" ht="12"/>
+    <row r="578" ht="12"/>
+    <row r="579" ht="12"/>
+    <row r="580" ht="12"/>
+    <row r="581" ht="12"/>
+    <row r="582" ht="12"/>
+    <row r="583" ht="12"/>
+    <row r="584" ht="12"/>
+    <row r="585" ht="12"/>
+    <row r="586" ht="12"/>
+    <row r="587" ht="12"/>
+    <row r="588" ht="12"/>
+    <row r="589" ht="12"/>
+    <row r="590" ht="12"/>
+    <row r="591" ht="12"/>
+    <row r="592" ht="12"/>
+    <row r="593" ht="12"/>
+    <row r="594" ht="12"/>
+    <row r="595" ht="12"/>
+    <row r="596" ht="12"/>
+    <row r="597" ht="12"/>
+    <row r="598" ht="12"/>
+    <row r="599" ht="12"/>
+    <row r="600" ht="12"/>
+    <row r="601" ht="12"/>
+    <row r="602" ht="12"/>
+    <row r="603" ht="12"/>
+    <row r="604" ht="12"/>
+    <row r="605" ht="12"/>
+    <row r="606" ht="12"/>
+    <row r="607" ht="12"/>
+    <row r="608" ht="12"/>
+    <row r="609" ht="12"/>
+    <row r="610" ht="12"/>
+    <row r="611" ht="12"/>
+    <row r="612" ht="12"/>
+    <row r="613" ht="12"/>
+    <row r="614" ht="12"/>
+    <row r="615" ht="12"/>
+    <row r="616" ht="12"/>
+    <row r="617" ht="12"/>
+    <row r="618" ht="12"/>
+    <row r="619" ht="12"/>
+    <row r="620" ht="12"/>
+    <row r="621" ht="12"/>
+    <row r="622" ht="12"/>
+    <row r="623" ht="12"/>
+    <row r="624" ht="12"/>
+    <row r="625" ht="12"/>
+    <row r="626" ht="12"/>
+    <row r="627" ht="12"/>
+    <row r="628" ht="12"/>
+    <row r="629" ht="12"/>
+    <row r="630" ht="12"/>
+    <row r="631" ht="12"/>
+    <row r="632" ht="12"/>
+    <row r="633" ht="12"/>
+    <row r="634" ht="12"/>
+    <row r="635" ht="12"/>
+    <row r="636" ht="12"/>
+    <row r="637" ht="12"/>
+    <row r="638" ht="12"/>
+    <row r="639" ht="12"/>
+    <row r="640" ht="12"/>
+    <row r="641" ht="12"/>
+    <row r="642" ht="12"/>
+    <row r="643" ht="12"/>
+    <row r="644" ht="12"/>
+    <row r="645" ht="12"/>
+    <row r="646" ht="12"/>
+    <row r="647" ht="12"/>
+    <row r="648" ht="12"/>
+    <row r="649" ht="12"/>
+    <row r="650" ht="12"/>
+    <row r="651" ht="12"/>
+    <row r="652" ht="12"/>
+    <row r="653" ht="12"/>
+    <row r="654" ht="12"/>
+    <row r="655" ht="12"/>
+    <row r="656" ht="12"/>
+    <row r="657" ht="12"/>
+    <row r="658" ht="12"/>
+    <row r="659" ht="12"/>
+    <row r="660" ht="12"/>
+    <row r="661" ht="12"/>
+    <row r="662" ht="12"/>
+    <row r="663" ht="12"/>
+    <row r="664" ht="12"/>
+    <row r="665" ht="12"/>
+    <row r="666" ht="12"/>
+    <row r="667" ht="12"/>
+    <row r="668" ht="12"/>
+    <row r="669" ht="12"/>
+    <row r="670" ht="12"/>
+    <row r="671" ht="12"/>
+    <row r="672" ht="12"/>
+    <row r="673" ht="12"/>
+    <row r="674" ht="12"/>
+    <row r="675" ht="12"/>
+    <row r="676" ht="12"/>
+    <row r="677" ht="12"/>
+    <row r="678" ht="12"/>
+    <row r="679" ht="12"/>
+    <row r="680" ht="12"/>
+    <row r="681" ht="12"/>
+    <row r="682" ht="12"/>
+    <row r="683" ht="12"/>
+    <row r="684" ht="12"/>
+    <row r="685" ht="12"/>
+    <row r="686" ht="12"/>
+    <row r="687" ht="12"/>
+    <row r="688" ht="12"/>
+    <row r="689" ht="12"/>
+    <row r="690" ht="12"/>
+    <row r="691" ht="12"/>
+    <row r="692" ht="12"/>
+    <row r="693" ht="12"/>
+    <row r="694" ht="12"/>
+    <row r="695" ht="12"/>
+    <row r="696" ht="12"/>
+    <row r="697" ht="12"/>
+    <row r="698" ht="12"/>
+    <row r="699" ht="12"/>
+    <row r="700" ht="12"/>
+    <row r="701" ht="12"/>
+    <row r="702" ht="12"/>
+    <row r="703" ht="12"/>
+    <row r="704" ht="12"/>
+    <row r="705" ht="12"/>
+    <row r="706" ht="12"/>
+    <row r="707" ht="12"/>
+    <row r="708" ht="12"/>
+    <row r="709" ht="12"/>
+    <row r="710" ht="12"/>
+    <row r="711" ht="12"/>
+    <row r="712" ht="12"/>
+    <row r="713" ht="12"/>
+    <row r="714" ht="12"/>
+    <row r="715" ht="12"/>
+    <row r="716" ht="12"/>
+    <row r="717" ht="12"/>
+    <row r="718" ht="12"/>
+    <row r="719" ht="12"/>
+    <row r="720" ht="12"/>
+    <row r="721" ht="12"/>
+    <row r="722" ht="12"/>
+    <row r="723" ht="12"/>
+    <row r="724" ht="12"/>
+    <row r="725" ht="12"/>
+    <row r="726" ht="12"/>
+    <row r="727" ht="12"/>
+    <row r="728" ht="12"/>
+    <row r="729" ht="12"/>
+    <row r="730" ht="12"/>
+    <row r="731" ht="12"/>
+    <row r="732" ht="12"/>
+    <row r="733" ht="12"/>
+    <row r="734" ht="12"/>
+    <row r="735" ht="12"/>
+    <row r="736" ht="12"/>
+    <row r="737" ht="12"/>
+    <row r="738" ht="12"/>
+    <row r="739" ht="12"/>
+    <row r="740" ht="12"/>
+    <row r="741" ht="12"/>
+    <row r="742" ht="12"/>
+    <row r="743" ht="12"/>
+    <row r="744" ht="12"/>
+    <row r="745" ht="12"/>
+    <row r="746" ht="12"/>
+    <row r="747" ht="12"/>
+    <row r="748" ht="12"/>
+    <row r="749" ht="12"/>
+    <row r="750" ht="12"/>
+    <row r="751" ht="12"/>
+    <row r="752" ht="12"/>
+    <row r="753" ht="12"/>
+    <row r="754" ht="12"/>
+    <row r="755" ht="12"/>
+    <row r="756" ht="12"/>
+    <row r="757" ht="12"/>
+    <row r="758" ht="12"/>
+    <row r="759" ht="12"/>
+    <row r="760" ht="12"/>
+    <row r="761" ht="12"/>
+    <row r="762" ht="12"/>
+    <row r="763" ht="12"/>
+    <row r="764" ht="12"/>
+    <row r="765" ht="12"/>
+    <row r="766" ht="12"/>
+    <row r="767" ht="12"/>
+    <row r="768" ht="12"/>
+    <row r="769" ht="12"/>
+    <row r="770" ht="12"/>
+    <row r="771" ht="12"/>
+    <row r="772" ht="12"/>
+    <row r="773" ht="12"/>
+    <row r="774" ht="12"/>
+    <row r="775" ht="12"/>
+    <row r="776" ht="12"/>
+    <row r="777" ht="12"/>
+    <row r="778" ht="12"/>
+    <row r="779" ht="12"/>
+    <row r="780" ht="12"/>
+    <row r="781" ht="12"/>
+    <row r="782" ht="12"/>
+    <row r="783" ht="12"/>
+    <row r="784" ht="12"/>
+    <row r="785" ht="12"/>
+    <row r="786" ht="12"/>
+    <row r="787" ht="12"/>
+    <row r="788" ht="12"/>
+    <row r="789" ht="12"/>
+    <row r="790" ht="12"/>
+    <row r="791" ht="12"/>
+    <row r="792" ht="12"/>
+    <row r="793" ht="12"/>
+    <row r="794" ht="12"/>
+    <row r="795" ht="12"/>
+    <row r="796" ht="12"/>
+    <row r="797" ht="12"/>
+    <row r="798" ht="12"/>
+    <row r="799" ht="12"/>
+    <row r="800" ht="12"/>
+    <row r="801" ht="12"/>
+    <row r="802" ht="12"/>
+    <row r="803" ht="12"/>
+    <row r="804" ht="12"/>
+    <row r="805" ht="12"/>
+    <row r="806" ht="12"/>
+    <row r="807" ht="12"/>
+    <row r="808" ht="12"/>
+    <row r="809" ht="12"/>
+    <row r="810" ht="12"/>
+    <row r="811" ht="12"/>
+    <row r="812" ht="12"/>
+    <row r="813" ht="12"/>
+    <row r="814" ht="12"/>
+    <row r="815" ht="12"/>
+    <row r="816" ht="12"/>
+    <row r="817" ht="12"/>
+    <row r="818" ht="12"/>
+    <row r="819" ht="12"/>
+    <row r="820" ht="12"/>
+    <row r="821" ht="12"/>
+    <row r="822" ht="12"/>
+    <row r="823" ht="12"/>
+    <row r="824" ht="12"/>
+    <row r="825" ht="12"/>
+    <row r="826" ht="12"/>
+    <row r="827" ht="12"/>
+    <row r="828" ht="12"/>
+    <row r="829" ht="12"/>
+    <row r="830" ht="12"/>
+    <row r="831" ht="12"/>
+    <row r="832" ht="12"/>
+    <row r="833" ht="12"/>
+    <row r="834" ht="12"/>
+    <row r="835" ht="12"/>
+    <row r="836" ht="12"/>
+    <row r="837" ht="12"/>
+    <row r="838" ht="12"/>
+    <row r="839" ht="12"/>
+    <row r="840" ht="12"/>
+    <row r="841" ht="12"/>
+    <row r="842" ht="12"/>
+    <row r="843" ht="12"/>
+    <row r="844" ht="12"/>
+    <row r="845" ht="12"/>
+    <row r="846" ht="12"/>
+    <row r="847" ht="12"/>
+    <row r="848" ht="12"/>
+    <row r="849" ht="12"/>
+    <row r="850" ht="12"/>
+    <row r="851" ht="12"/>
+    <row r="852" ht="12"/>
+    <row r="853" ht="12"/>
+    <row r="854" ht="12"/>
+    <row r="855" ht="12"/>
+    <row r="856" ht="12"/>
+    <row r="857" ht="12"/>
+    <row r="858" ht="12"/>
+    <row r="859" ht="12"/>
+    <row r="860" ht="12"/>
+    <row r="861" ht="12"/>
+    <row r="862" ht="12"/>
+    <row r="863" ht="12"/>
+    <row r="864" ht="12"/>
+    <row r="865" ht="12"/>
+    <row r="866" ht="12"/>
+    <row r="867" ht="12"/>
+    <row r="868" ht="12"/>
+    <row r="869" ht="12"/>
+    <row r="870" ht="12"/>
+    <row r="871" ht="12"/>
+    <row r="872" ht="12"/>
+    <row r="873" ht="12"/>
+    <row r="874" ht="12"/>
+    <row r="875" ht="12"/>
+    <row r="876" ht="12"/>
+    <row r="877" ht="12"/>
+    <row r="878" ht="12"/>
+    <row r="879" ht="12"/>
+    <row r="880" ht="12"/>
+    <row r="881" ht="12"/>
+    <row r="882" ht="12"/>
+    <row r="883" ht="12"/>
+    <row r="884" ht="12"/>
+    <row r="885" ht="12"/>
+    <row r="886" ht="12"/>
+    <row r="887" ht="12"/>
+    <row r="888" ht="12"/>
+    <row r="889" ht="12"/>
+    <row r="890" ht="12"/>
+    <row r="891" ht="12"/>
+    <row r="892" ht="12"/>
+    <row r="893" ht="12"/>
+    <row r="894" ht="12"/>
+    <row r="895" ht="12"/>
+    <row r="896" ht="12"/>
+    <row r="897" ht="12"/>
+    <row r="898" ht="12"/>
+    <row r="899" ht="12"/>
+    <row r="900" ht="12"/>
+    <row r="901" ht="12"/>
+    <row r="902" ht="12"/>
+    <row r="903" ht="12"/>
+    <row r="904" ht="12"/>
+    <row r="905" ht="12"/>
+    <row r="906" ht="12"/>
+    <row r="907" ht="12"/>
+    <row r="908" ht="12"/>
+    <row r="909" ht="12"/>
+    <row r="910" ht="12"/>
+    <row r="911" ht="12"/>
+    <row r="912" ht="12"/>
+    <row r="913" ht="12"/>
+    <row r="914" ht="12"/>
+    <row r="915" ht="12"/>
+    <row r="916" ht="12"/>
+    <row r="917" ht="12"/>
+    <row r="918" ht="12"/>
+    <row r="919" ht="12"/>
+    <row r="920" ht="12"/>
+    <row r="921" ht="12"/>
+    <row r="922" ht="12"/>
+    <row r="923" ht="12"/>
+    <row r="924" ht="12"/>
+    <row r="925" ht="12"/>
+    <row r="926" ht="12"/>
+    <row r="927" ht="12"/>
+    <row r="928" ht="12"/>
+    <row r="929" ht="12"/>
+    <row r="930" ht="12"/>
+    <row r="931" ht="12"/>
+    <row r="932" ht="12"/>
+    <row r="933" ht="12"/>
+    <row r="934" ht="12"/>
+    <row r="935" ht="12"/>
+    <row r="936" ht="12"/>
+    <row r="937" ht="12"/>
+    <row r="938" ht="12"/>
+    <row r="939" ht="12"/>
+    <row r="940" ht="12"/>
+    <row r="941" ht="12"/>
+    <row r="942" ht="12"/>
+    <row r="943" ht="12"/>
+    <row r="944" ht="12"/>
+    <row r="945" ht="12"/>
+    <row r="946" ht="12"/>
+    <row r="947" ht="12"/>
+    <row r="948" ht="12"/>
+    <row r="949" ht="12"/>
+    <row r="950" ht="12"/>
+    <row r="951" ht="12"/>
+    <row r="952" ht="12"/>
+    <row r="953" ht="12"/>
+    <row r="954" ht="12"/>
+    <row r="955" ht="12"/>
+    <row r="956" ht="12"/>
+    <row r="957" ht="12"/>
+    <row r="958" ht="12"/>
+    <row r="959" ht="12"/>
+    <row r="960" ht="12"/>
+    <row r="961" ht="12"/>
+    <row r="962" ht="12"/>
+    <row r="963" ht="12"/>
+    <row r="964" ht="12"/>
+    <row r="965" ht="12"/>
+    <row r="966" ht="12"/>
+    <row r="967" ht="12"/>
+    <row r="968" ht="12"/>
+    <row r="969" ht="12"/>
+    <row r="970" ht="12"/>
+    <row r="971" ht="12"/>
+    <row r="972" ht="12"/>
+    <row r="973" ht="12"/>
+    <row r="974" ht="12"/>
+    <row r="975" ht="12"/>
+    <row r="976" ht="12"/>
+    <row r="977" ht="12"/>
+    <row r="978" ht="12"/>
+    <row r="979" ht="12"/>
+    <row r="980" ht="12"/>
+    <row r="981" ht="12"/>
+    <row r="982" ht="12"/>
+    <row r="983" ht="12"/>
+    <row r="984" ht="12"/>
+    <row r="985" ht="12"/>
+    <row r="986" ht="12"/>
+    <row r="987" ht="12"/>
+    <row r="988" ht="12"/>
+    <row r="989" ht="12"/>
+    <row r="990" ht="12"/>
+    <row r="991" ht="12"/>
+    <row r="992" ht="12"/>
+    <row r="993" ht="12"/>
+    <row r="994" ht="12"/>
+    <row r="995" ht="12"/>
+    <row r="996" ht="12"/>
+    <row r="997" ht="12"/>
+    <row r="998" ht="12"/>
+    <row r="999" ht="12"/>
   </sheetData>
-  <autoFilter ref="A1:Q116" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Q115"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5529,7 +5511,7 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
@@ -5546,7 +5528,7 @@
     <col min="16" max="16" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15">
+    <row r="1" spans="1:16" ht="14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5596,15 +5578,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15">
+    <row r="2" spans="1:16" ht="14">
       <c r="A2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -5616,21 +5598,21 @@
         <v>27</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15">
+    <row r="3" spans="1:16" ht="14">
       <c r="A3" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -5639,64 +5621,64 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="14">
+    </row>
+    <row r="4" spans="1:16" ht="13">
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:16" ht="14">
+    <row r="5" spans="1:16" ht="13">
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:16" ht="14">
+    <row r="6" spans="1:16" ht="13">
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:16" ht="14">
+    <row r="7" spans="1:16" ht="13">
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:16" ht="14">
+    <row r="8" spans="1:16" ht="13">
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:16" ht="14">
+    <row r="9" spans="1:16" ht="13">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:16" ht="14">
+    <row r="10" spans="1:16" ht="13">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:16" ht="14">
+    <row r="11" spans="1:16" ht="13">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:16" ht="14">
+    <row r="12" spans="1:16" ht="13">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:16" ht="14">
+    <row r="13" spans="1:16" ht="13">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:16" ht="14">
+    <row r="14" spans="1:16" ht="13">
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:16" ht="14">
+    <row r="15" spans="1:16" ht="13">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:16" ht="14">
+    <row r="16" spans="1:16" ht="13">
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="2:2" ht="14">
+    <row r="17" spans="2:2" ht="13">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:2" ht="14">
+    <row r="18" spans="2:2" ht="13">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="2:2" ht="14">
+    <row r="19" spans="2:2" ht="13">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:2" ht="14">
+    <row r="20" spans="2:2" ht="13">
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="2:2" ht="15.75" customHeight="1">
@@ -6299,802 +6281,807 @@
     <row r="220" spans="2:2" ht="15.75" customHeight="1">
       <c r="B220" s="4"/>
     </row>
-    <row r="221" spans="2:2" ht="13"/>
-    <row r="222" spans="2:2" ht="13"/>
-    <row r="223" spans="2:2" ht="13"/>
-    <row r="224" spans="2:2" ht="13"/>
-    <row r="225" ht="13"/>
-    <row r="226" ht="13"/>
-    <row r="227" ht="13"/>
-    <row r="228" ht="13"/>
-    <row r="229" ht="13"/>
-    <row r="230" ht="13"/>
-    <row r="231" ht="13"/>
-    <row r="232" ht="13"/>
-    <row r="233" ht="13"/>
-    <row r="234" ht="13"/>
-    <row r="235" ht="13"/>
-    <row r="236" ht="13"/>
-    <row r="237" ht="13"/>
-    <row r="238" ht="13"/>
-    <row r="239" ht="13"/>
-    <row r="240" ht="13"/>
-    <row r="241" ht="13"/>
-    <row r="242" ht="13"/>
-    <row r="243" ht="13"/>
-    <row r="244" ht="13"/>
-    <row r="245" ht="13"/>
-    <row r="246" ht="13"/>
-    <row r="247" ht="13"/>
-    <row r="248" ht="13"/>
-    <row r="249" ht="13"/>
-    <row r="250" ht="13"/>
-    <row r="251" ht="13"/>
-    <row r="252" ht="13"/>
-    <row r="253" ht="13"/>
-    <row r="254" ht="13"/>
-    <row r="255" ht="13"/>
-    <row r="256" ht="13"/>
-    <row r="257" ht="13"/>
-    <row r="258" ht="13"/>
-    <row r="259" ht="13"/>
-    <row r="260" ht="13"/>
-    <row r="261" ht="13"/>
-    <row r="262" ht="13"/>
-    <row r="263" ht="13"/>
-    <row r="264" ht="13"/>
-    <row r="265" ht="13"/>
-    <row r="266" ht="13"/>
-    <row r="267" ht="13"/>
-    <row r="268" ht="13"/>
-    <row r="269" ht="13"/>
-    <row r="270" ht="13"/>
-    <row r="271" ht="13"/>
-    <row r="272" ht="13"/>
-    <row r="273" ht="13"/>
-    <row r="274" ht="13"/>
-    <row r="275" ht="13"/>
-    <row r="276" ht="13"/>
-    <row r="277" ht="13"/>
-    <row r="278" ht="13"/>
-    <row r="279" ht="13"/>
-    <row r="280" ht="13"/>
-    <row r="281" ht="13"/>
-    <row r="282" ht="13"/>
-    <row r="283" ht="13"/>
-    <row r="284" ht="13"/>
-    <row r="285" ht="13"/>
-    <row r="286" ht="13"/>
-    <row r="287" ht="13"/>
-    <row r="288" ht="13"/>
-    <row r="289" ht="13"/>
-    <row r="290" ht="13"/>
-    <row r="291" ht="13"/>
-    <row r="292" ht="13"/>
-    <row r="293" ht="13"/>
-    <row r="294" ht="13"/>
-    <row r="295" ht="13"/>
-    <row r="296" ht="13"/>
-    <row r="297" ht="13"/>
-    <row r="298" ht="13"/>
-    <row r="299" ht="13"/>
-    <row r="300" ht="13"/>
-    <row r="301" ht="13"/>
-    <row r="302" ht="13"/>
-    <row r="303" ht="13"/>
-    <row r="304" ht="13"/>
-    <row r="305" ht="13"/>
-    <row r="306" ht="13"/>
-    <row r="307" ht="13"/>
-    <row r="308" ht="13"/>
-    <row r="309" ht="13"/>
-    <row r="310" ht="13"/>
-    <row r="311" ht="13"/>
-    <row r="312" ht="13"/>
-    <row r="313" ht="13"/>
-    <row r="314" ht="13"/>
-    <row r="315" ht="13"/>
-    <row r="316" ht="13"/>
-    <row r="317" ht="13"/>
-    <row r="318" ht="13"/>
-    <row r="319" ht="13"/>
-    <row r="320" ht="13"/>
-    <row r="321" ht="13"/>
-    <row r="322" ht="13"/>
-    <row r="323" ht="13"/>
-    <row r="324" ht="13"/>
-    <row r="325" ht="13"/>
-    <row r="326" ht="13"/>
-    <row r="327" ht="13"/>
-    <row r="328" ht="13"/>
-    <row r="329" ht="13"/>
-    <row r="330" ht="13"/>
-    <row r="331" ht="13"/>
-    <row r="332" ht="13"/>
-    <row r="333" ht="13"/>
-    <row r="334" ht="13"/>
-    <row r="335" ht="13"/>
-    <row r="336" ht="13"/>
-    <row r="337" ht="13"/>
-    <row r="338" ht="13"/>
-    <row r="339" ht="13"/>
-    <row r="340" ht="13"/>
-    <row r="341" ht="13"/>
-    <row r="342" ht="13"/>
-    <row r="343" ht="13"/>
-    <row r="344" ht="13"/>
-    <row r="345" ht="13"/>
-    <row r="346" ht="13"/>
-    <row r="347" ht="13"/>
-    <row r="348" ht="13"/>
-    <row r="349" ht="13"/>
-    <row r="350" ht="13"/>
-    <row r="351" ht="13"/>
-    <row r="352" ht="13"/>
-    <row r="353" ht="13"/>
-    <row r="354" ht="13"/>
-    <row r="355" ht="13"/>
-    <row r="356" ht="13"/>
-    <row r="357" ht="13"/>
-    <row r="358" ht="13"/>
-    <row r="359" ht="13"/>
-    <row r="360" ht="13"/>
-    <row r="361" ht="13"/>
-    <row r="362" ht="13"/>
-    <row r="363" ht="13"/>
-    <row r="364" ht="13"/>
-    <row r="365" ht="13"/>
-    <row r="366" ht="13"/>
-    <row r="367" ht="13"/>
-    <row r="368" ht="13"/>
-    <row r="369" ht="13"/>
-    <row r="370" ht="13"/>
-    <row r="371" ht="13"/>
-    <row r="372" ht="13"/>
-    <row r="373" ht="13"/>
-    <row r="374" ht="13"/>
-    <row r="375" ht="13"/>
-    <row r="376" ht="13"/>
-    <row r="377" ht="13"/>
-    <row r="378" ht="13"/>
-    <row r="379" ht="13"/>
-    <row r="380" ht="13"/>
-    <row r="381" ht="13"/>
-    <row r="382" ht="13"/>
-    <row r="383" ht="13"/>
-    <row r="384" ht="13"/>
-    <row r="385" ht="13"/>
-    <row r="386" ht="13"/>
-    <row r="387" ht="13"/>
-    <row r="388" ht="13"/>
-    <row r="389" ht="13"/>
-    <row r="390" ht="13"/>
-    <row r="391" ht="13"/>
-    <row r="392" ht="13"/>
-    <row r="393" ht="13"/>
-    <row r="394" ht="13"/>
-    <row r="395" ht="13"/>
-    <row r="396" ht="13"/>
-    <row r="397" ht="13"/>
-    <row r="398" ht="13"/>
-    <row r="399" ht="13"/>
-    <row r="400" ht="13"/>
-    <row r="401" ht="13"/>
-    <row r="402" ht="13"/>
-    <row r="403" ht="13"/>
-    <row r="404" ht="13"/>
-    <row r="405" ht="13"/>
-    <row r="406" ht="13"/>
-    <row r="407" ht="13"/>
-    <row r="408" ht="13"/>
-    <row r="409" ht="13"/>
-    <row r="410" ht="13"/>
-    <row r="411" ht="13"/>
-    <row r="412" ht="13"/>
-    <row r="413" ht="13"/>
-    <row r="414" ht="13"/>
-    <row r="415" ht="13"/>
-    <row r="416" ht="13"/>
-    <row r="417" ht="13"/>
-    <row r="418" ht="13"/>
-    <row r="419" ht="13"/>
-    <row r="420" ht="13"/>
-    <row r="421" ht="13"/>
-    <row r="422" ht="13"/>
-    <row r="423" ht="13"/>
-    <row r="424" ht="13"/>
-    <row r="425" ht="13"/>
-    <row r="426" ht="13"/>
-    <row r="427" ht="13"/>
-    <row r="428" ht="13"/>
-    <row r="429" ht="13"/>
-    <row r="430" ht="13"/>
-    <row r="431" ht="13"/>
-    <row r="432" ht="13"/>
-    <row r="433" ht="13"/>
-    <row r="434" ht="13"/>
-    <row r="435" ht="13"/>
-    <row r="436" ht="13"/>
-    <row r="437" ht="13"/>
-    <row r="438" ht="13"/>
-    <row r="439" ht="13"/>
-    <row r="440" ht="13"/>
-    <row r="441" ht="13"/>
-    <row r="442" ht="13"/>
-    <row r="443" ht="13"/>
-    <row r="444" ht="13"/>
-    <row r="445" ht="13"/>
-    <row r="446" ht="13"/>
-    <row r="447" ht="13"/>
-    <row r="448" ht="13"/>
-    <row r="449" ht="13"/>
-    <row r="450" ht="13"/>
-    <row r="451" ht="13"/>
-    <row r="452" ht="13"/>
-    <row r="453" ht="13"/>
-    <row r="454" ht="13"/>
-    <row r="455" ht="13"/>
-    <row r="456" ht="13"/>
-    <row r="457" ht="13"/>
-    <row r="458" ht="13"/>
-    <row r="459" ht="13"/>
-    <row r="460" ht="13"/>
-    <row r="461" ht="13"/>
-    <row r="462" ht="13"/>
-    <row r="463" ht="13"/>
-    <row r="464" ht="13"/>
-    <row r="465" ht="13"/>
-    <row r="466" ht="13"/>
-    <row r="467" ht="13"/>
-    <row r="468" ht="13"/>
-    <row r="469" ht="13"/>
-    <row r="470" ht="13"/>
-    <row r="471" ht="13"/>
-    <row r="472" ht="13"/>
-    <row r="473" ht="13"/>
-    <row r="474" ht="13"/>
-    <row r="475" ht="13"/>
-    <row r="476" ht="13"/>
-    <row r="477" ht="13"/>
-    <row r="478" ht="13"/>
-    <row r="479" ht="13"/>
-    <row r="480" ht="13"/>
-    <row r="481" ht="13"/>
-    <row r="482" ht="13"/>
-    <row r="483" ht="13"/>
-    <row r="484" ht="13"/>
-    <row r="485" ht="13"/>
-    <row r="486" ht="13"/>
-    <row r="487" ht="13"/>
-    <row r="488" ht="13"/>
-    <row r="489" ht="13"/>
-    <row r="490" ht="13"/>
-    <row r="491" ht="13"/>
-    <row r="492" ht="13"/>
-    <row r="493" ht="13"/>
-    <row r="494" ht="13"/>
-    <row r="495" ht="13"/>
-    <row r="496" ht="13"/>
-    <row r="497" ht="13"/>
-    <row r="498" ht="13"/>
-    <row r="499" ht="13"/>
-    <row r="500" ht="13"/>
-    <row r="501" ht="13"/>
-    <row r="502" ht="13"/>
-    <row r="503" ht="13"/>
-    <row r="504" ht="13"/>
-    <row r="505" ht="13"/>
-    <row r="506" ht="13"/>
-    <row r="507" ht="13"/>
-    <row r="508" ht="13"/>
-    <row r="509" ht="13"/>
-    <row r="510" ht="13"/>
-    <row r="511" ht="13"/>
-    <row r="512" ht="13"/>
-    <row r="513" ht="13"/>
-    <row r="514" ht="13"/>
-    <row r="515" ht="13"/>
-    <row r="516" ht="13"/>
-    <row r="517" ht="13"/>
-    <row r="518" ht="13"/>
-    <row r="519" ht="13"/>
-    <row r="520" ht="13"/>
-    <row r="521" ht="13"/>
-    <row r="522" ht="13"/>
-    <row r="523" ht="13"/>
-    <row r="524" ht="13"/>
-    <row r="525" ht="13"/>
-    <row r="526" ht="13"/>
-    <row r="527" ht="13"/>
-    <row r="528" ht="13"/>
-    <row r="529" ht="13"/>
-    <row r="530" ht="13"/>
-    <row r="531" ht="13"/>
-    <row r="532" ht="13"/>
-    <row r="533" ht="13"/>
-    <row r="534" ht="13"/>
-    <row r="535" ht="13"/>
-    <row r="536" ht="13"/>
-    <row r="537" ht="13"/>
-    <row r="538" ht="13"/>
-    <row r="539" ht="13"/>
-    <row r="540" ht="13"/>
-    <row r="541" ht="13"/>
-    <row r="542" ht="13"/>
-    <row r="543" ht="13"/>
-    <row r="544" ht="13"/>
-    <row r="545" ht="13"/>
-    <row r="546" ht="13"/>
-    <row r="547" ht="13"/>
-    <row r="548" ht="13"/>
-    <row r="549" ht="13"/>
-    <row r="550" ht="13"/>
-    <row r="551" ht="13"/>
-    <row r="552" ht="13"/>
-    <row r="553" ht="13"/>
-    <row r="554" ht="13"/>
-    <row r="555" ht="13"/>
-    <row r="556" ht="13"/>
-    <row r="557" ht="13"/>
-    <row r="558" ht="13"/>
-    <row r="559" ht="13"/>
-    <row r="560" ht="13"/>
-    <row r="561" ht="13"/>
-    <row r="562" ht="13"/>
-    <row r="563" ht="13"/>
-    <row r="564" ht="13"/>
-    <row r="565" ht="13"/>
-    <row r="566" ht="13"/>
-    <row r="567" ht="13"/>
-    <row r="568" ht="13"/>
-    <row r="569" ht="13"/>
-    <row r="570" ht="13"/>
-    <row r="571" ht="13"/>
-    <row r="572" ht="13"/>
-    <row r="573" ht="13"/>
-    <row r="574" ht="13"/>
-    <row r="575" ht="13"/>
-    <row r="576" ht="13"/>
-    <row r="577" ht="13"/>
-    <row r="578" ht="13"/>
-    <row r="579" ht="13"/>
-    <row r="580" ht="13"/>
-    <row r="581" ht="13"/>
-    <row r="582" ht="13"/>
-    <row r="583" ht="13"/>
-    <row r="584" ht="13"/>
-    <row r="585" ht="13"/>
-    <row r="586" ht="13"/>
-    <row r="587" ht="13"/>
-    <row r="588" ht="13"/>
-    <row r="589" ht="13"/>
-    <row r="590" ht="13"/>
-    <row r="591" ht="13"/>
-    <row r="592" ht="13"/>
-    <row r="593" ht="13"/>
-    <row r="594" ht="13"/>
-    <row r="595" ht="13"/>
-    <row r="596" ht="13"/>
-    <row r="597" ht="13"/>
-    <row r="598" ht="13"/>
-    <row r="599" ht="13"/>
-    <row r="600" ht="13"/>
-    <row r="601" ht="13"/>
-    <row r="602" ht="13"/>
-    <row r="603" ht="13"/>
-    <row r="604" ht="13"/>
-    <row r="605" ht="13"/>
-    <row r="606" ht="13"/>
-    <row r="607" ht="13"/>
-    <row r="608" ht="13"/>
-    <row r="609" ht="13"/>
-    <row r="610" ht="13"/>
-    <row r="611" ht="13"/>
-    <row r="612" ht="13"/>
-    <row r="613" ht="13"/>
-    <row r="614" ht="13"/>
-    <row r="615" ht="13"/>
-    <row r="616" ht="13"/>
-    <row r="617" ht="13"/>
-    <row r="618" ht="13"/>
-    <row r="619" ht="13"/>
-    <row r="620" ht="13"/>
-    <row r="621" ht="13"/>
-    <row r="622" ht="13"/>
-    <row r="623" ht="13"/>
-    <row r="624" ht="13"/>
-    <row r="625" ht="13"/>
-    <row r="626" ht="13"/>
-    <row r="627" ht="13"/>
-    <row r="628" ht="13"/>
-    <row r="629" ht="13"/>
-    <row r="630" ht="13"/>
-    <row r="631" ht="13"/>
-    <row r="632" ht="13"/>
-    <row r="633" ht="13"/>
-    <row r="634" ht="13"/>
-    <row r="635" ht="13"/>
-    <row r="636" ht="13"/>
-    <row r="637" ht="13"/>
-    <row r="638" ht="13"/>
-    <row r="639" ht="13"/>
-    <row r="640" ht="13"/>
-    <row r="641" ht="13"/>
-    <row r="642" ht="13"/>
-    <row r="643" ht="13"/>
-    <row r="644" ht="13"/>
-    <row r="645" ht="13"/>
-    <row r="646" ht="13"/>
-    <row r="647" ht="13"/>
-    <row r="648" ht="13"/>
-    <row r="649" ht="13"/>
-    <row r="650" ht="13"/>
-    <row r="651" ht="13"/>
-    <row r="652" ht="13"/>
-    <row r="653" ht="13"/>
-    <row r="654" ht="13"/>
-    <row r="655" ht="13"/>
-    <row r="656" ht="13"/>
-    <row r="657" ht="13"/>
-    <row r="658" ht="13"/>
-    <row r="659" ht="13"/>
-    <row r="660" ht="13"/>
-    <row r="661" ht="13"/>
-    <row r="662" ht="13"/>
-    <row r="663" ht="13"/>
-    <row r="664" ht="13"/>
-    <row r="665" ht="13"/>
-    <row r="666" ht="13"/>
-    <row r="667" ht="13"/>
-    <row r="668" ht="13"/>
-    <row r="669" ht="13"/>
-    <row r="670" ht="13"/>
-    <row r="671" ht="13"/>
-    <row r="672" ht="13"/>
-    <row r="673" ht="13"/>
-    <row r="674" ht="13"/>
-    <row r="675" ht="13"/>
-    <row r="676" ht="13"/>
-    <row r="677" ht="13"/>
-    <row r="678" ht="13"/>
-    <row r="679" ht="13"/>
-    <row r="680" ht="13"/>
-    <row r="681" ht="13"/>
-    <row r="682" ht="13"/>
-    <row r="683" ht="13"/>
-    <row r="684" ht="13"/>
-    <row r="685" ht="13"/>
-    <row r="686" ht="13"/>
-    <row r="687" ht="13"/>
-    <row r="688" ht="13"/>
-    <row r="689" ht="13"/>
-    <row r="690" ht="13"/>
-    <row r="691" ht="13"/>
-    <row r="692" ht="13"/>
-    <row r="693" ht="13"/>
-    <row r="694" ht="13"/>
-    <row r="695" ht="13"/>
-    <row r="696" ht="13"/>
-    <row r="697" ht="13"/>
-    <row r="698" ht="13"/>
-    <row r="699" ht="13"/>
-    <row r="700" ht="13"/>
-    <row r="701" ht="13"/>
-    <row r="702" ht="13"/>
-    <row r="703" ht="13"/>
-    <row r="704" ht="13"/>
-    <row r="705" ht="13"/>
-    <row r="706" ht="13"/>
-    <row r="707" ht="13"/>
-    <row r="708" ht="13"/>
-    <row r="709" ht="13"/>
-    <row r="710" ht="13"/>
-    <row r="711" ht="13"/>
-    <row r="712" ht="13"/>
-    <row r="713" ht="13"/>
-    <row r="714" ht="13"/>
-    <row r="715" ht="13"/>
-    <row r="716" ht="13"/>
-    <row r="717" ht="13"/>
-    <row r="718" ht="13"/>
-    <row r="719" ht="13"/>
-    <row r="720" ht="13"/>
-    <row r="721" ht="13"/>
-    <row r="722" ht="13"/>
-    <row r="723" ht="13"/>
-    <row r="724" ht="13"/>
-    <row r="725" ht="13"/>
-    <row r="726" ht="13"/>
-    <row r="727" ht="13"/>
-    <row r="728" ht="13"/>
-    <row r="729" ht="13"/>
-    <row r="730" ht="13"/>
-    <row r="731" ht="13"/>
-    <row r="732" ht="13"/>
-    <row r="733" ht="13"/>
-    <row r="734" ht="13"/>
-    <row r="735" ht="13"/>
-    <row r="736" ht="13"/>
-    <row r="737" ht="13"/>
-    <row r="738" ht="13"/>
-    <row r="739" ht="13"/>
-    <row r="740" ht="13"/>
-    <row r="741" ht="13"/>
-    <row r="742" ht="13"/>
-    <row r="743" ht="13"/>
-    <row r="744" ht="13"/>
-    <row r="745" ht="13"/>
-    <row r="746" ht="13"/>
-    <row r="747" ht="13"/>
-    <row r="748" ht="13"/>
-    <row r="749" ht="13"/>
-    <row r="750" ht="13"/>
-    <row r="751" ht="13"/>
-    <row r="752" ht="13"/>
-    <row r="753" ht="13"/>
-    <row r="754" ht="13"/>
-    <row r="755" ht="13"/>
-    <row r="756" ht="13"/>
-    <row r="757" ht="13"/>
-    <row r="758" ht="13"/>
-    <row r="759" ht="13"/>
-    <row r="760" ht="13"/>
-    <row r="761" ht="13"/>
-    <row r="762" ht="13"/>
-    <row r="763" ht="13"/>
-    <row r="764" ht="13"/>
-    <row r="765" ht="13"/>
-    <row r="766" ht="13"/>
-    <row r="767" ht="13"/>
-    <row r="768" ht="13"/>
-    <row r="769" ht="13"/>
-    <row r="770" ht="13"/>
-    <row r="771" ht="13"/>
-    <row r="772" ht="13"/>
-    <row r="773" ht="13"/>
-    <row r="774" ht="13"/>
-    <row r="775" ht="13"/>
-    <row r="776" ht="13"/>
-    <row r="777" ht="13"/>
-    <row r="778" ht="13"/>
-    <row r="779" ht="13"/>
-    <row r="780" ht="13"/>
-    <row r="781" ht="13"/>
-    <row r="782" ht="13"/>
-    <row r="783" ht="13"/>
-    <row r="784" ht="13"/>
-    <row r="785" ht="13"/>
-    <row r="786" ht="13"/>
-    <row r="787" ht="13"/>
-    <row r="788" ht="13"/>
-    <row r="789" ht="13"/>
-    <row r="790" ht="13"/>
-    <row r="791" ht="13"/>
-    <row r="792" ht="13"/>
-    <row r="793" ht="13"/>
-    <row r="794" ht="13"/>
-    <row r="795" ht="13"/>
-    <row r="796" ht="13"/>
-    <row r="797" ht="13"/>
-    <row r="798" ht="13"/>
-    <row r="799" ht="13"/>
-    <row r="800" ht="13"/>
-    <row r="801" ht="13"/>
-    <row r="802" ht="13"/>
-    <row r="803" ht="13"/>
-    <row r="804" ht="13"/>
-    <row r="805" ht="13"/>
-    <row r="806" ht="13"/>
-    <row r="807" ht="13"/>
-    <row r="808" ht="13"/>
-    <row r="809" ht="13"/>
-    <row r="810" ht="13"/>
-    <row r="811" ht="13"/>
-    <row r="812" ht="13"/>
-    <row r="813" ht="13"/>
-    <row r="814" ht="13"/>
-    <row r="815" ht="13"/>
-    <row r="816" ht="13"/>
-    <row r="817" ht="13"/>
-    <row r="818" ht="13"/>
-    <row r="819" ht="13"/>
-    <row r="820" ht="13"/>
-    <row r="821" ht="13"/>
-    <row r="822" ht="13"/>
-    <row r="823" ht="13"/>
-    <row r="824" ht="13"/>
-    <row r="825" ht="13"/>
-    <row r="826" ht="13"/>
-    <row r="827" ht="13"/>
-    <row r="828" ht="13"/>
-    <row r="829" ht="13"/>
-    <row r="830" ht="13"/>
-    <row r="831" ht="13"/>
-    <row r="832" ht="13"/>
-    <row r="833" ht="13"/>
-    <row r="834" ht="13"/>
-    <row r="835" ht="13"/>
-    <row r="836" ht="13"/>
-    <row r="837" ht="13"/>
-    <row r="838" ht="13"/>
-    <row r="839" ht="13"/>
-    <row r="840" ht="13"/>
-    <row r="841" ht="13"/>
-    <row r="842" ht="13"/>
-    <row r="843" ht="13"/>
-    <row r="844" ht="13"/>
-    <row r="845" ht="13"/>
-    <row r="846" ht="13"/>
-    <row r="847" ht="13"/>
-    <row r="848" ht="13"/>
-    <row r="849" ht="13"/>
-    <row r="850" ht="13"/>
-    <row r="851" ht="13"/>
-    <row r="852" ht="13"/>
-    <row r="853" ht="13"/>
-    <row r="854" ht="13"/>
-    <row r="855" ht="13"/>
-    <row r="856" ht="13"/>
-    <row r="857" ht="13"/>
-    <row r="858" ht="13"/>
-    <row r="859" ht="13"/>
-    <row r="860" ht="13"/>
-    <row r="861" ht="13"/>
-    <row r="862" ht="13"/>
-    <row r="863" ht="13"/>
-    <row r="864" ht="13"/>
-    <row r="865" ht="13"/>
-    <row r="866" ht="13"/>
-    <row r="867" ht="13"/>
-    <row r="868" ht="13"/>
-    <row r="869" ht="13"/>
-    <row r="870" ht="13"/>
-    <row r="871" ht="13"/>
-    <row r="872" ht="13"/>
-    <row r="873" ht="13"/>
-    <row r="874" ht="13"/>
-    <row r="875" ht="13"/>
-    <row r="876" ht="13"/>
-    <row r="877" ht="13"/>
-    <row r="878" ht="13"/>
-    <row r="879" ht="13"/>
-    <row r="880" ht="13"/>
-    <row r="881" ht="13"/>
-    <row r="882" ht="13"/>
-    <row r="883" ht="13"/>
-    <row r="884" ht="13"/>
-    <row r="885" ht="13"/>
-    <row r="886" ht="13"/>
-    <row r="887" ht="13"/>
-    <row r="888" ht="13"/>
-    <row r="889" ht="13"/>
-    <row r="890" ht="13"/>
-    <row r="891" ht="13"/>
-    <row r="892" ht="13"/>
-    <row r="893" ht="13"/>
-    <row r="894" ht="13"/>
-    <row r="895" ht="13"/>
-    <row r="896" ht="13"/>
-    <row r="897" ht="13"/>
-    <row r="898" ht="13"/>
-    <row r="899" ht="13"/>
-    <row r="900" ht="13"/>
-    <row r="901" ht="13"/>
-    <row r="902" ht="13"/>
-    <row r="903" ht="13"/>
-    <row r="904" ht="13"/>
-    <row r="905" ht="13"/>
-    <row r="906" ht="13"/>
-    <row r="907" ht="13"/>
-    <row r="908" ht="13"/>
-    <row r="909" ht="13"/>
-    <row r="910" ht="13"/>
-    <row r="911" ht="13"/>
-    <row r="912" ht="13"/>
-    <row r="913" ht="13"/>
-    <row r="914" ht="13"/>
-    <row r="915" ht="13"/>
-    <row r="916" ht="13"/>
-    <row r="917" ht="13"/>
-    <row r="918" ht="13"/>
-    <row r="919" ht="13"/>
-    <row r="920" ht="13"/>
-    <row r="921" ht="13"/>
-    <row r="922" ht="13"/>
-    <row r="923" ht="13"/>
-    <row r="924" ht="13"/>
-    <row r="925" ht="13"/>
-    <row r="926" ht="13"/>
-    <row r="927" ht="13"/>
-    <row r="928" ht="13"/>
-    <row r="929" ht="13"/>
-    <row r="930" ht="13"/>
-    <row r="931" ht="13"/>
-    <row r="932" ht="13"/>
-    <row r="933" ht="13"/>
-    <row r="934" ht="13"/>
-    <row r="935" ht="13"/>
-    <row r="936" ht="13"/>
-    <row r="937" ht="13"/>
-    <row r="938" ht="13"/>
-    <row r="939" ht="13"/>
-    <row r="940" ht="13"/>
-    <row r="941" ht="13"/>
-    <row r="942" ht="13"/>
-    <row r="943" ht="13"/>
-    <row r="944" ht="13"/>
-    <row r="945" ht="13"/>
-    <row r="946" ht="13"/>
-    <row r="947" ht="13"/>
-    <row r="948" ht="13"/>
-    <row r="949" ht="13"/>
-    <row r="950" ht="13"/>
-    <row r="951" ht="13"/>
-    <row r="952" ht="13"/>
-    <row r="953" ht="13"/>
-    <row r="954" ht="13"/>
-    <row r="955" ht="13"/>
-    <row r="956" ht="13"/>
-    <row r="957" ht="13"/>
-    <row r="958" ht="13"/>
-    <row r="959" ht="13"/>
-    <row r="960" ht="13"/>
-    <row r="961" ht="13"/>
-    <row r="962" ht="13"/>
-    <row r="963" ht="13"/>
-    <row r="964" ht="13"/>
-    <row r="965" ht="13"/>
-    <row r="966" ht="13"/>
-    <row r="967" ht="13"/>
-    <row r="968" ht="13"/>
-    <row r="969" ht="13"/>
-    <row r="970" ht="13"/>
-    <row r="971" ht="13"/>
-    <row r="972" ht="13"/>
-    <row r="973" ht="13"/>
-    <row r="974" ht="13"/>
-    <row r="975" ht="13"/>
-    <row r="976" ht="13"/>
-    <row r="977" ht="13"/>
-    <row r="978" ht="13"/>
-    <row r="979" ht="13"/>
-    <row r="980" ht="13"/>
-    <row r="981" ht="13"/>
-    <row r="982" ht="13"/>
-    <row r="983" ht="13"/>
-    <row r="984" ht="13"/>
-    <row r="985" ht="13"/>
-    <row r="986" ht="13"/>
-    <row r="987" ht="13"/>
-    <row r="988" ht="13"/>
-    <row r="989" ht="13"/>
-    <row r="990" ht="13"/>
-    <row r="991" ht="13"/>
-    <row r="992" ht="13"/>
-    <row r="993" ht="13"/>
-    <row r="994" ht="13"/>
-    <row r="995" ht="13"/>
-    <row r="996" ht="13"/>
-    <row r="997" ht="13"/>
-    <row r="998" ht="13"/>
-    <row r="999" ht="13"/>
-    <row r="1000" ht="13"/>
+    <row r="221" spans="2:2" ht="12"/>
+    <row r="222" spans="2:2" ht="12"/>
+    <row r="223" spans="2:2" ht="12"/>
+    <row r="224" spans="2:2" ht="12"/>
+    <row r="225" ht="12"/>
+    <row r="226" ht="12"/>
+    <row r="227" ht="12"/>
+    <row r="228" ht="12"/>
+    <row r="229" ht="12"/>
+    <row r="230" ht="12"/>
+    <row r="231" ht="12"/>
+    <row r="232" ht="12"/>
+    <row r="233" ht="12"/>
+    <row r="234" ht="12"/>
+    <row r="235" ht="12"/>
+    <row r="236" ht="12"/>
+    <row r="237" ht="12"/>
+    <row r="238" ht="12"/>
+    <row r="239" ht="12"/>
+    <row r="240" ht="12"/>
+    <row r="241" ht="12"/>
+    <row r="242" ht="12"/>
+    <row r="243" ht="12"/>
+    <row r="244" ht="12"/>
+    <row r="245" ht="12"/>
+    <row r="246" ht="12"/>
+    <row r="247" ht="12"/>
+    <row r="248" ht="12"/>
+    <row r="249" ht="12"/>
+    <row r="250" ht="12"/>
+    <row r="251" ht="12"/>
+    <row r="252" ht="12"/>
+    <row r="253" ht="12"/>
+    <row r="254" ht="12"/>
+    <row r="255" ht="12"/>
+    <row r="256" ht="12"/>
+    <row r="257" ht="12"/>
+    <row r="258" ht="12"/>
+    <row r="259" ht="12"/>
+    <row r="260" ht="12"/>
+    <row r="261" ht="12"/>
+    <row r="262" ht="12"/>
+    <row r="263" ht="12"/>
+    <row r="264" ht="12"/>
+    <row r="265" ht="12"/>
+    <row r="266" ht="12"/>
+    <row r="267" ht="12"/>
+    <row r="268" ht="12"/>
+    <row r="269" ht="12"/>
+    <row r="270" ht="12"/>
+    <row r="271" ht="12"/>
+    <row r="272" ht="12"/>
+    <row r="273" ht="12"/>
+    <row r="274" ht="12"/>
+    <row r="275" ht="12"/>
+    <row r="276" ht="12"/>
+    <row r="277" ht="12"/>
+    <row r="278" ht="12"/>
+    <row r="279" ht="12"/>
+    <row r="280" ht="12"/>
+    <row r="281" ht="12"/>
+    <row r="282" ht="12"/>
+    <row r="283" ht="12"/>
+    <row r="284" ht="12"/>
+    <row r="285" ht="12"/>
+    <row r="286" ht="12"/>
+    <row r="287" ht="12"/>
+    <row r="288" ht="12"/>
+    <row r="289" ht="12"/>
+    <row r="290" ht="12"/>
+    <row r="291" ht="12"/>
+    <row r="292" ht="12"/>
+    <row r="293" ht="12"/>
+    <row r="294" ht="12"/>
+    <row r="295" ht="12"/>
+    <row r="296" ht="12"/>
+    <row r="297" ht="12"/>
+    <row r="298" ht="12"/>
+    <row r="299" ht="12"/>
+    <row r="300" ht="12"/>
+    <row r="301" ht="12"/>
+    <row r="302" ht="12"/>
+    <row r="303" ht="12"/>
+    <row r="304" ht="12"/>
+    <row r="305" ht="12"/>
+    <row r="306" ht="12"/>
+    <row r="307" ht="12"/>
+    <row r="308" ht="12"/>
+    <row r="309" ht="12"/>
+    <row r="310" ht="12"/>
+    <row r="311" ht="12"/>
+    <row r="312" ht="12"/>
+    <row r="313" ht="12"/>
+    <row r="314" ht="12"/>
+    <row r="315" ht="12"/>
+    <row r="316" ht="12"/>
+    <row r="317" ht="12"/>
+    <row r="318" ht="12"/>
+    <row r="319" ht="12"/>
+    <row r="320" ht="12"/>
+    <row r="321" ht="12"/>
+    <row r="322" ht="12"/>
+    <row r="323" ht="12"/>
+    <row r="324" ht="12"/>
+    <row r="325" ht="12"/>
+    <row r="326" ht="12"/>
+    <row r="327" ht="12"/>
+    <row r="328" ht="12"/>
+    <row r="329" ht="12"/>
+    <row r="330" ht="12"/>
+    <row r="331" ht="12"/>
+    <row r="332" ht="12"/>
+    <row r="333" ht="12"/>
+    <row r="334" ht="12"/>
+    <row r="335" ht="12"/>
+    <row r="336" ht="12"/>
+    <row r="337" ht="12"/>
+    <row r="338" ht="12"/>
+    <row r="339" ht="12"/>
+    <row r="340" ht="12"/>
+    <row r="341" ht="12"/>
+    <row r="342" ht="12"/>
+    <row r="343" ht="12"/>
+    <row r="344" ht="12"/>
+    <row r="345" ht="12"/>
+    <row r="346" ht="12"/>
+    <row r="347" ht="12"/>
+    <row r="348" ht="12"/>
+    <row r="349" ht="12"/>
+    <row r="350" ht="12"/>
+    <row r="351" ht="12"/>
+    <row r="352" ht="12"/>
+    <row r="353" ht="12"/>
+    <row r="354" ht="12"/>
+    <row r="355" ht="12"/>
+    <row r="356" ht="12"/>
+    <row r="357" ht="12"/>
+    <row r="358" ht="12"/>
+    <row r="359" ht="12"/>
+    <row r="360" ht="12"/>
+    <row r="361" ht="12"/>
+    <row r="362" ht="12"/>
+    <row r="363" ht="12"/>
+    <row r="364" ht="12"/>
+    <row r="365" ht="12"/>
+    <row r="366" ht="12"/>
+    <row r="367" ht="12"/>
+    <row r="368" ht="12"/>
+    <row r="369" ht="12"/>
+    <row r="370" ht="12"/>
+    <row r="371" ht="12"/>
+    <row r="372" ht="12"/>
+    <row r="373" ht="12"/>
+    <row r="374" ht="12"/>
+    <row r="375" ht="12"/>
+    <row r="376" ht="12"/>
+    <row r="377" ht="12"/>
+    <row r="378" ht="12"/>
+    <row r="379" ht="12"/>
+    <row r="380" ht="12"/>
+    <row r="381" ht="12"/>
+    <row r="382" ht="12"/>
+    <row r="383" ht="12"/>
+    <row r="384" ht="12"/>
+    <row r="385" ht="12"/>
+    <row r="386" ht="12"/>
+    <row r="387" ht="12"/>
+    <row r="388" ht="12"/>
+    <row r="389" ht="12"/>
+    <row r="390" ht="12"/>
+    <row r="391" ht="12"/>
+    <row r="392" ht="12"/>
+    <row r="393" ht="12"/>
+    <row r="394" ht="12"/>
+    <row r="395" ht="12"/>
+    <row r="396" ht="12"/>
+    <row r="397" ht="12"/>
+    <row r="398" ht="12"/>
+    <row r="399" ht="12"/>
+    <row r="400" ht="12"/>
+    <row r="401" ht="12"/>
+    <row r="402" ht="12"/>
+    <row r="403" ht="12"/>
+    <row r="404" ht="12"/>
+    <row r="405" ht="12"/>
+    <row r="406" ht="12"/>
+    <row r="407" ht="12"/>
+    <row r="408" ht="12"/>
+    <row r="409" ht="12"/>
+    <row r="410" ht="12"/>
+    <row r="411" ht="12"/>
+    <row r="412" ht="12"/>
+    <row r="413" ht="12"/>
+    <row r="414" ht="12"/>
+    <row r="415" ht="12"/>
+    <row r="416" ht="12"/>
+    <row r="417" ht="12"/>
+    <row r="418" ht="12"/>
+    <row r="419" ht="12"/>
+    <row r="420" ht="12"/>
+    <row r="421" ht="12"/>
+    <row r="422" ht="12"/>
+    <row r="423" ht="12"/>
+    <row r="424" ht="12"/>
+    <row r="425" ht="12"/>
+    <row r="426" ht="12"/>
+    <row r="427" ht="12"/>
+    <row r="428" ht="12"/>
+    <row r="429" ht="12"/>
+    <row r="430" ht="12"/>
+    <row r="431" ht="12"/>
+    <row r="432" ht="12"/>
+    <row r="433" ht="12"/>
+    <row r="434" ht="12"/>
+    <row r="435" ht="12"/>
+    <row r="436" ht="12"/>
+    <row r="437" ht="12"/>
+    <row r="438" ht="12"/>
+    <row r="439" ht="12"/>
+    <row r="440" ht="12"/>
+    <row r="441" ht="12"/>
+    <row r="442" ht="12"/>
+    <row r="443" ht="12"/>
+    <row r="444" ht="12"/>
+    <row r="445" ht="12"/>
+    <row r="446" ht="12"/>
+    <row r="447" ht="12"/>
+    <row r="448" ht="12"/>
+    <row r="449" ht="12"/>
+    <row r="450" ht="12"/>
+    <row r="451" ht="12"/>
+    <row r="452" ht="12"/>
+    <row r="453" ht="12"/>
+    <row r="454" ht="12"/>
+    <row r="455" ht="12"/>
+    <row r="456" ht="12"/>
+    <row r="457" ht="12"/>
+    <row r="458" ht="12"/>
+    <row r="459" ht="12"/>
+    <row r="460" ht="12"/>
+    <row r="461" ht="12"/>
+    <row r="462" ht="12"/>
+    <row r="463" ht="12"/>
+    <row r="464" ht="12"/>
+    <row r="465" ht="12"/>
+    <row r="466" ht="12"/>
+    <row r="467" ht="12"/>
+    <row r="468" ht="12"/>
+    <row r="469" ht="12"/>
+    <row r="470" ht="12"/>
+    <row r="471" ht="12"/>
+    <row r="472" ht="12"/>
+    <row r="473" ht="12"/>
+    <row r="474" ht="12"/>
+    <row r="475" ht="12"/>
+    <row r="476" ht="12"/>
+    <row r="477" ht="12"/>
+    <row r="478" ht="12"/>
+    <row r="479" ht="12"/>
+    <row r="480" ht="12"/>
+    <row r="481" ht="12"/>
+    <row r="482" ht="12"/>
+    <row r="483" ht="12"/>
+    <row r="484" ht="12"/>
+    <row r="485" ht="12"/>
+    <row r="486" ht="12"/>
+    <row r="487" ht="12"/>
+    <row r="488" ht="12"/>
+    <row r="489" ht="12"/>
+    <row r="490" ht="12"/>
+    <row r="491" ht="12"/>
+    <row r="492" ht="12"/>
+    <row r="493" ht="12"/>
+    <row r="494" ht="12"/>
+    <row r="495" ht="12"/>
+    <row r="496" ht="12"/>
+    <row r="497" ht="12"/>
+    <row r="498" ht="12"/>
+    <row r="499" ht="12"/>
+    <row r="500" ht="12"/>
+    <row r="501" ht="12"/>
+    <row r="502" ht="12"/>
+    <row r="503" ht="12"/>
+    <row r="504" ht="12"/>
+    <row r="505" ht="12"/>
+    <row r="506" ht="12"/>
+    <row r="507" ht="12"/>
+    <row r="508" ht="12"/>
+    <row r="509" ht="12"/>
+    <row r="510" ht="12"/>
+    <row r="511" ht="12"/>
+    <row r="512" ht="12"/>
+    <row r="513" ht="12"/>
+    <row r="514" ht="12"/>
+    <row r="515" ht="12"/>
+    <row r="516" ht="12"/>
+    <row r="517" ht="12"/>
+    <row r="518" ht="12"/>
+    <row r="519" ht="12"/>
+    <row r="520" ht="12"/>
+    <row r="521" ht="12"/>
+    <row r="522" ht="12"/>
+    <row r="523" ht="12"/>
+    <row r="524" ht="12"/>
+    <row r="525" ht="12"/>
+    <row r="526" ht="12"/>
+    <row r="527" ht="12"/>
+    <row r="528" ht="12"/>
+    <row r="529" ht="12"/>
+    <row r="530" ht="12"/>
+    <row r="531" ht="12"/>
+    <row r="532" ht="12"/>
+    <row r="533" ht="12"/>
+    <row r="534" ht="12"/>
+    <row r="535" ht="12"/>
+    <row r="536" ht="12"/>
+    <row r="537" ht="12"/>
+    <row r="538" ht="12"/>
+    <row r="539" ht="12"/>
+    <row r="540" ht="12"/>
+    <row r="541" ht="12"/>
+    <row r="542" ht="12"/>
+    <row r="543" ht="12"/>
+    <row r="544" ht="12"/>
+    <row r="545" ht="12"/>
+    <row r="546" ht="12"/>
+    <row r="547" ht="12"/>
+    <row r="548" ht="12"/>
+    <row r="549" ht="12"/>
+    <row r="550" ht="12"/>
+    <row r="551" ht="12"/>
+    <row r="552" ht="12"/>
+    <row r="553" ht="12"/>
+    <row r="554" ht="12"/>
+    <row r="555" ht="12"/>
+    <row r="556" ht="12"/>
+    <row r="557" ht="12"/>
+    <row r="558" ht="12"/>
+    <row r="559" ht="12"/>
+    <row r="560" ht="12"/>
+    <row r="561" ht="12"/>
+    <row r="562" ht="12"/>
+    <row r="563" ht="12"/>
+    <row r="564" ht="12"/>
+    <row r="565" ht="12"/>
+    <row r="566" ht="12"/>
+    <row r="567" ht="12"/>
+    <row r="568" ht="12"/>
+    <row r="569" ht="12"/>
+    <row r="570" ht="12"/>
+    <row r="571" ht="12"/>
+    <row r="572" ht="12"/>
+    <row r="573" ht="12"/>
+    <row r="574" ht="12"/>
+    <row r="575" ht="12"/>
+    <row r="576" ht="12"/>
+    <row r="577" ht="12"/>
+    <row r="578" ht="12"/>
+    <row r="579" ht="12"/>
+    <row r="580" ht="12"/>
+    <row r="581" ht="12"/>
+    <row r="582" ht="12"/>
+    <row r="583" ht="12"/>
+    <row r="584" ht="12"/>
+    <row r="585" ht="12"/>
+    <row r="586" ht="12"/>
+    <row r="587" ht="12"/>
+    <row r="588" ht="12"/>
+    <row r="589" ht="12"/>
+    <row r="590" ht="12"/>
+    <row r="591" ht="12"/>
+    <row r="592" ht="12"/>
+    <row r="593" ht="12"/>
+    <row r="594" ht="12"/>
+    <row r="595" ht="12"/>
+    <row r="596" ht="12"/>
+    <row r="597" ht="12"/>
+    <row r="598" ht="12"/>
+    <row r="599" ht="12"/>
+    <row r="600" ht="12"/>
+    <row r="601" ht="12"/>
+    <row r="602" ht="12"/>
+    <row r="603" ht="12"/>
+    <row r="604" ht="12"/>
+    <row r="605" ht="12"/>
+    <row r="606" ht="12"/>
+    <row r="607" ht="12"/>
+    <row r="608" ht="12"/>
+    <row r="609" ht="12"/>
+    <row r="610" ht="12"/>
+    <row r="611" ht="12"/>
+    <row r="612" ht="12"/>
+    <row r="613" ht="12"/>
+    <row r="614" ht="12"/>
+    <row r="615" ht="12"/>
+    <row r="616" ht="12"/>
+    <row r="617" ht="12"/>
+    <row r="618" ht="12"/>
+    <row r="619" ht="12"/>
+    <row r="620" ht="12"/>
+    <row r="621" ht="12"/>
+    <row r="622" ht="12"/>
+    <row r="623" ht="12"/>
+    <row r="624" ht="12"/>
+    <row r="625" ht="12"/>
+    <row r="626" ht="12"/>
+    <row r="627" ht="12"/>
+    <row r="628" ht="12"/>
+    <row r="629" ht="12"/>
+    <row r="630" ht="12"/>
+    <row r="631" ht="12"/>
+    <row r="632" ht="12"/>
+    <row r="633" ht="12"/>
+    <row r="634" ht="12"/>
+    <row r="635" ht="12"/>
+    <row r="636" ht="12"/>
+    <row r="637" ht="12"/>
+    <row r="638" ht="12"/>
+    <row r="639" ht="12"/>
+    <row r="640" ht="12"/>
+    <row r="641" ht="12"/>
+    <row r="642" ht="12"/>
+    <row r="643" ht="12"/>
+    <row r="644" ht="12"/>
+    <row r="645" ht="12"/>
+    <row r="646" ht="12"/>
+    <row r="647" ht="12"/>
+    <row r="648" ht="12"/>
+    <row r="649" ht="12"/>
+    <row r="650" ht="12"/>
+    <row r="651" ht="12"/>
+    <row r="652" ht="12"/>
+    <row r="653" ht="12"/>
+    <row r="654" ht="12"/>
+    <row r="655" ht="12"/>
+    <row r="656" ht="12"/>
+    <row r="657" ht="12"/>
+    <row r="658" ht="12"/>
+    <row r="659" ht="12"/>
+    <row r="660" ht="12"/>
+    <row r="661" ht="12"/>
+    <row r="662" ht="12"/>
+    <row r="663" ht="12"/>
+    <row r="664" ht="12"/>
+    <row r="665" ht="12"/>
+    <row r="666" ht="12"/>
+    <row r="667" ht="12"/>
+    <row r="668" ht="12"/>
+    <row r="669" ht="12"/>
+    <row r="670" ht="12"/>
+    <row r="671" ht="12"/>
+    <row r="672" ht="12"/>
+    <row r="673" ht="12"/>
+    <row r="674" ht="12"/>
+    <row r="675" ht="12"/>
+    <row r="676" ht="12"/>
+    <row r="677" ht="12"/>
+    <row r="678" ht="12"/>
+    <row r="679" ht="12"/>
+    <row r="680" ht="12"/>
+    <row r="681" ht="12"/>
+    <row r="682" ht="12"/>
+    <row r="683" ht="12"/>
+    <row r="684" ht="12"/>
+    <row r="685" ht="12"/>
+    <row r="686" ht="12"/>
+    <row r="687" ht="12"/>
+    <row r="688" ht="12"/>
+    <row r="689" ht="12"/>
+    <row r="690" ht="12"/>
+    <row r="691" ht="12"/>
+    <row r="692" ht="12"/>
+    <row r="693" ht="12"/>
+    <row r="694" ht="12"/>
+    <row r="695" ht="12"/>
+    <row r="696" ht="12"/>
+    <row r="697" ht="12"/>
+    <row r="698" ht="12"/>
+    <row r="699" ht="12"/>
+    <row r="700" ht="12"/>
+    <row r="701" ht="12"/>
+    <row r="702" ht="12"/>
+    <row r="703" ht="12"/>
+    <row r="704" ht="12"/>
+    <row r="705" ht="12"/>
+    <row r="706" ht="12"/>
+    <row r="707" ht="12"/>
+    <row r="708" ht="12"/>
+    <row r="709" ht="12"/>
+    <row r="710" ht="12"/>
+    <row r="711" ht="12"/>
+    <row r="712" ht="12"/>
+    <row r="713" ht="12"/>
+    <row r="714" ht="12"/>
+    <row r="715" ht="12"/>
+    <row r="716" ht="12"/>
+    <row r="717" ht="12"/>
+    <row r="718" ht="12"/>
+    <row r="719" ht="12"/>
+    <row r="720" ht="12"/>
+    <row r="721" ht="12"/>
+    <row r="722" ht="12"/>
+    <row r="723" ht="12"/>
+    <row r="724" ht="12"/>
+    <row r="725" ht="12"/>
+    <row r="726" ht="12"/>
+    <row r="727" ht="12"/>
+    <row r="728" ht="12"/>
+    <row r="729" ht="12"/>
+    <row r="730" ht="12"/>
+    <row r="731" ht="12"/>
+    <row r="732" ht="12"/>
+    <row r="733" ht="12"/>
+    <row r="734" ht="12"/>
+    <row r="735" ht="12"/>
+    <row r="736" ht="12"/>
+    <row r="737" ht="12"/>
+    <row r="738" ht="12"/>
+    <row r="739" ht="12"/>
+    <row r="740" ht="12"/>
+    <row r="741" ht="12"/>
+    <row r="742" ht="12"/>
+    <row r="743" ht="12"/>
+    <row r="744" ht="12"/>
+    <row r="745" ht="12"/>
+    <row r="746" ht="12"/>
+    <row r="747" ht="12"/>
+    <row r="748" ht="12"/>
+    <row r="749" ht="12"/>
+    <row r="750" ht="12"/>
+    <row r="751" ht="12"/>
+    <row r="752" ht="12"/>
+    <row r="753" ht="12"/>
+    <row r="754" ht="12"/>
+    <row r="755" ht="12"/>
+    <row r="756" ht="12"/>
+    <row r="757" ht="12"/>
+    <row r="758" ht="12"/>
+    <row r="759" ht="12"/>
+    <row r="760" ht="12"/>
+    <row r="761" ht="12"/>
+    <row r="762" ht="12"/>
+    <row r="763" ht="12"/>
+    <row r="764" ht="12"/>
+    <row r="765" ht="12"/>
+    <row r="766" ht="12"/>
+    <row r="767" ht="12"/>
+    <row r="768" ht="12"/>
+    <row r="769" ht="12"/>
+    <row r="770" ht="12"/>
+    <row r="771" ht="12"/>
+    <row r="772" ht="12"/>
+    <row r="773" ht="12"/>
+    <row r="774" ht="12"/>
+    <row r="775" ht="12"/>
+    <row r="776" ht="12"/>
+    <row r="777" ht="12"/>
+    <row r="778" ht="12"/>
+    <row r="779" ht="12"/>
+    <row r="780" ht="12"/>
+    <row r="781" ht="12"/>
+    <row r="782" ht="12"/>
+    <row r="783" ht="12"/>
+    <row r="784" ht="12"/>
+    <row r="785" ht="12"/>
+    <row r="786" ht="12"/>
+    <row r="787" ht="12"/>
+    <row r="788" ht="12"/>
+    <row r="789" ht="12"/>
+    <row r="790" ht="12"/>
+    <row r="791" ht="12"/>
+    <row r="792" ht="12"/>
+    <row r="793" ht="12"/>
+    <row r="794" ht="12"/>
+    <row r="795" ht="12"/>
+    <row r="796" ht="12"/>
+    <row r="797" ht="12"/>
+    <row r="798" ht="12"/>
+    <row r="799" ht="12"/>
+    <row r="800" ht="12"/>
+    <row r="801" ht="12"/>
+    <row r="802" ht="12"/>
+    <row r="803" ht="12"/>
+    <row r="804" ht="12"/>
+    <row r="805" ht="12"/>
+    <row r="806" ht="12"/>
+    <row r="807" ht="12"/>
+    <row r="808" ht="12"/>
+    <row r="809" ht="12"/>
+    <row r="810" ht="12"/>
+    <row r="811" ht="12"/>
+    <row r="812" ht="12"/>
+    <row r="813" ht="12"/>
+    <row r="814" ht="12"/>
+    <row r="815" ht="12"/>
+    <row r="816" ht="12"/>
+    <row r="817" ht="12"/>
+    <row r="818" ht="12"/>
+    <row r="819" ht="12"/>
+    <row r="820" ht="12"/>
+    <row r="821" ht="12"/>
+    <row r="822" ht="12"/>
+    <row r="823" ht="12"/>
+    <row r="824" ht="12"/>
+    <row r="825" ht="12"/>
+    <row r="826" ht="12"/>
+    <row r="827" ht="12"/>
+    <row r="828" ht="12"/>
+    <row r="829" ht="12"/>
+    <row r="830" ht="12"/>
+    <row r="831" ht="12"/>
+    <row r="832" ht="12"/>
+    <row r="833" ht="12"/>
+    <row r="834" ht="12"/>
+    <row r="835" ht="12"/>
+    <row r="836" ht="12"/>
+    <row r="837" ht="12"/>
+    <row r="838" ht="12"/>
+    <row r="839" ht="12"/>
+    <row r="840" ht="12"/>
+    <row r="841" ht="12"/>
+    <row r="842" ht="12"/>
+    <row r="843" ht="12"/>
+    <row r="844" ht="12"/>
+    <row r="845" ht="12"/>
+    <row r="846" ht="12"/>
+    <row r="847" ht="12"/>
+    <row r="848" ht="12"/>
+    <row r="849" ht="12"/>
+    <row r="850" ht="12"/>
+    <row r="851" ht="12"/>
+    <row r="852" ht="12"/>
+    <row r="853" ht="12"/>
+    <row r="854" ht="12"/>
+    <row r="855" ht="12"/>
+    <row r="856" ht="12"/>
+    <row r="857" ht="12"/>
+    <row r="858" ht="12"/>
+    <row r="859" ht="12"/>
+    <row r="860" ht="12"/>
+    <row r="861" ht="12"/>
+    <row r="862" ht="12"/>
+    <row r="863" ht="12"/>
+    <row r="864" ht="12"/>
+    <row r="865" ht="12"/>
+    <row r="866" ht="12"/>
+    <row r="867" ht="12"/>
+    <row r="868" ht="12"/>
+    <row r="869" ht="12"/>
+    <row r="870" ht="12"/>
+    <row r="871" ht="12"/>
+    <row r="872" ht="12"/>
+    <row r="873" ht="12"/>
+    <row r="874" ht="12"/>
+    <row r="875" ht="12"/>
+    <row r="876" ht="12"/>
+    <row r="877" ht="12"/>
+    <row r="878" ht="12"/>
+    <row r="879" ht="12"/>
+    <row r="880" ht="12"/>
+    <row r="881" ht="12"/>
+    <row r="882" ht="12"/>
+    <row r="883" ht="12"/>
+    <row r="884" ht="12"/>
+    <row r="885" ht="12"/>
+    <row r="886" ht="12"/>
+    <row r="887" ht="12"/>
+    <row r="888" ht="12"/>
+    <row r="889" ht="12"/>
+    <row r="890" ht="12"/>
+    <row r="891" ht="12"/>
+    <row r="892" ht="12"/>
+    <row r="893" ht="12"/>
+    <row r="894" ht="12"/>
+    <row r="895" ht="12"/>
+    <row r="896" ht="12"/>
+    <row r="897" ht="12"/>
+    <row r="898" ht="12"/>
+    <row r="899" ht="12"/>
+    <row r="900" ht="12"/>
+    <row r="901" ht="12"/>
+    <row r="902" ht="12"/>
+    <row r="903" ht="12"/>
+    <row r="904" ht="12"/>
+    <row r="905" ht="12"/>
+    <row r="906" ht="12"/>
+    <row r="907" ht="12"/>
+    <row r="908" ht="12"/>
+    <row r="909" ht="12"/>
+    <row r="910" ht="12"/>
+    <row r="911" ht="12"/>
+    <row r="912" ht="12"/>
+    <row r="913" ht="12"/>
+    <row r="914" ht="12"/>
+    <row r="915" ht="12"/>
+    <row r="916" ht="12"/>
+    <row r="917" ht="12"/>
+    <row r="918" ht="12"/>
+    <row r="919" ht="12"/>
+    <row r="920" ht="12"/>
+    <row r="921" ht="12"/>
+    <row r="922" ht="12"/>
+    <row r="923" ht="12"/>
+    <row r="924" ht="12"/>
+    <row r="925" ht="12"/>
+    <row r="926" ht="12"/>
+    <row r="927" ht="12"/>
+    <row r="928" ht="12"/>
+    <row r="929" ht="12"/>
+    <row r="930" ht="12"/>
+    <row r="931" ht="12"/>
+    <row r="932" ht="12"/>
+    <row r="933" ht="12"/>
+    <row r="934" ht="12"/>
+    <row r="935" ht="12"/>
+    <row r="936" ht="12"/>
+    <row r="937" ht="12"/>
+    <row r="938" ht="12"/>
+    <row r="939" ht="12"/>
+    <row r="940" ht="12"/>
+    <row r="941" ht="12"/>
+    <row r="942" ht="12"/>
+    <row r="943" ht="12"/>
+    <row r="944" ht="12"/>
+    <row r="945" ht="12"/>
+    <row r="946" ht="12"/>
+    <row r="947" ht="12"/>
+    <row r="948" ht="12"/>
+    <row r="949" ht="12"/>
+    <row r="950" ht="12"/>
+    <row r="951" ht="12"/>
+    <row r="952" ht="12"/>
+    <row r="953" ht="12"/>
+    <row r="954" ht="12"/>
+    <row r="955" ht="12"/>
+    <row r="956" ht="12"/>
+    <row r="957" ht="12"/>
+    <row r="958" ht="12"/>
+    <row r="959" ht="12"/>
+    <row r="960" ht="12"/>
+    <row r="961" ht="12"/>
+    <row r="962" ht="12"/>
+    <row r="963" ht="12"/>
+    <row r="964" ht="12"/>
+    <row r="965" ht="12"/>
+    <row r="966" ht="12"/>
+    <row r="967" ht="12"/>
+    <row r="968" ht="12"/>
+    <row r="969" ht="12"/>
+    <row r="970" ht="12"/>
+    <row r="971" ht="12"/>
+    <row r="972" ht="12"/>
+    <row r="973" ht="12"/>
+    <row r="974" ht="12"/>
+    <row r="975" ht="12"/>
+    <row r="976" ht="12"/>
+    <row r="977" ht="12"/>
+    <row r="978" ht="12"/>
+    <row r="979" ht="12"/>
+    <row r="980" ht="12"/>
+    <row r="981" ht="12"/>
+    <row r="982" ht="12"/>
+    <row r="983" ht="12"/>
+    <row r="984" ht="12"/>
+    <row r="985" ht="12"/>
+    <row r="986" ht="12"/>
+    <row r="987" ht="12"/>
+    <row r="988" ht="12"/>
+    <row r="989" ht="12"/>
+    <row r="990" ht="12"/>
+    <row r="991" ht="12"/>
+    <row r="992" ht="12"/>
+    <row r="993" ht="12"/>
+    <row r="994" ht="12"/>
+    <row r="995" ht="12"/>
+    <row r="996" ht="12"/>
+    <row r="997" ht="12"/>
+    <row r="998" ht="12"/>
+    <row r="999" ht="12"/>
+    <row r="1000" ht="12"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
@@ -7104,136 +7091,136 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14">
+    </row>
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14">
+    </row>
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14">
+    </row>
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="18">
         <v>26</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="18">
         <v>40</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="18">
         <v>41</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="20">
         <v>43</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="20">
         <v>45</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="13">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="14">
+    <row r="10" spans="1:4" ht="13">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="14">
+    <row r="11" spans="1:4" ht="13">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="14">
+    <row r="12" spans="1:4" ht="13">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="14">
+    <row r="13" spans="1:4" ht="13">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="14">
+    <row r="14" spans="1:4" ht="13">
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="14">
+    <row r="15" spans="1:4" ht="13">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="14">
+    <row r="16" spans="1:4" ht="13">
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="2:2" ht="14">
+    <row r="17" spans="2:2" ht="13">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:2" ht="14">
+    <row r="18" spans="2:2" ht="13">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="2:2" ht="14">
+    <row r="19" spans="2:2" ht="13">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:2" ht="14">
+    <row r="20" spans="2:2" ht="13">
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="2:2" ht="15.75" customHeight="1">
@@ -7836,802 +7823,807 @@
     <row r="220" spans="2:2" ht="15.75" customHeight="1">
       <c r="B220" s="4"/>
     </row>
-    <row r="221" spans="2:2" ht="13"/>
-    <row r="222" spans="2:2" ht="13"/>
-    <row r="223" spans="2:2" ht="13"/>
-    <row r="224" spans="2:2" ht="13"/>
-    <row r="225" ht="13"/>
-    <row r="226" ht="13"/>
-    <row r="227" ht="13"/>
-    <row r="228" ht="13"/>
-    <row r="229" ht="13"/>
-    <row r="230" ht="13"/>
-    <row r="231" ht="13"/>
-    <row r="232" ht="13"/>
-    <row r="233" ht="13"/>
-    <row r="234" ht="13"/>
-    <row r="235" ht="13"/>
-    <row r="236" ht="13"/>
-    <row r="237" ht="13"/>
-    <row r="238" ht="13"/>
-    <row r="239" ht="13"/>
-    <row r="240" ht="13"/>
-    <row r="241" ht="13"/>
-    <row r="242" ht="13"/>
-    <row r="243" ht="13"/>
-    <row r="244" ht="13"/>
-    <row r="245" ht="13"/>
-    <row r="246" ht="13"/>
-    <row r="247" ht="13"/>
-    <row r="248" ht="13"/>
-    <row r="249" ht="13"/>
-    <row r="250" ht="13"/>
-    <row r="251" ht="13"/>
-    <row r="252" ht="13"/>
-    <row r="253" ht="13"/>
-    <row r="254" ht="13"/>
-    <row r="255" ht="13"/>
-    <row r="256" ht="13"/>
-    <row r="257" ht="13"/>
-    <row r="258" ht="13"/>
-    <row r="259" ht="13"/>
-    <row r="260" ht="13"/>
-    <row r="261" ht="13"/>
-    <row r="262" ht="13"/>
-    <row r="263" ht="13"/>
-    <row r="264" ht="13"/>
-    <row r="265" ht="13"/>
-    <row r="266" ht="13"/>
-    <row r="267" ht="13"/>
-    <row r="268" ht="13"/>
-    <row r="269" ht="13"/>
-    <row r="270" ht="13"/>
-    <row r="271" ht="13"/>
-    <row r="272" ht="13"/>
-    <row r="273" ht="13"/>
-    <row r="274" ht="13"/>
-    <row r="275" ht="13"/>
-    <row r="276" ht="13"/>
-    <row r="277" ht="13"/>
-    <row r="278" ht="13"/>
-    <row r="279" ht="13"/>
-    <row r="280" ht="13"/>
-    <row r="281" ht="13"/>
-    <row r="282" ht="13"/>
-    <row r="283" ht="13"/>
-    <row r="284" ht="13"/>
-    <row r="285" ht="13"/>
-    <row r="286" ht="13"/>
-    <row r="287" ht="13"/>
-    <row r="288" ht="13"/>
-    <row r="289" ht="13"/>
-    <row r="290" ht="13"/>
-    <row r="291" ht="13"/>
-    <row r="292" ht="13"/>
-    <row r="293" ht="13"/>
-    <row r="294" ht="13"/>
-    <row r="295" ht="13"/>
-    <row r="296" ht="13"/>
-    <row r="297" ht="13"/>
-    <row r="298" ht="13"/>
-    <row r="299" ht="13"/>
-    <row r="300" ht="13"/>
-    <row r="301" ht="13"/>
-    <row r="302" ht="13"/>
-    <row r="303" ht="13"/>
-    <row r="304" ht="13"/>
-    <row r="305" ht="13"/>
-    <row r="306" ht="13"/>
-    <row r="307" ht="13"/>
-    <row r="308" ht="13"/>
-    <row r="309" ht="13"/>
-    <row r="310" ht="13"/>
-    <row r="311" ht="13"/>
-    <row r="312" ht="13"/>
-    <row r="313" ht="13"/>
-    <row r="314" ht="13"/>
-    <row r="315" ht="13"/>
-    <row r="316" ht="13"/>
-    <row r="317" ht="13"/>
-    <row r="318" ht="13"/>
-    <row r="319" ht="13"/>
-    <row r="320" ht="13"/>
-    <row r="321" ht="13"/>
-    <row r="322" ht="13"/>
-    <row r="323" ht="13"/>
-    <row r="324" ht="13"/>
-    <row r="325" ht="13"/>
-    <row r="326" ht="13"/>
-    <row r="327" ht="13"/>
-    <row r="328" ht="13"/>
-    <row r="329" ht="13"/>
-    <row r="330" ht="13"/>
-    <row r="331" ht="13"/>
-    <row r="332" ht="13"/>
-    <row r="333" ht="13"/>
-    <row r="334" ht="13"/>
-    <row r="335" ht="13"/>
-    <row r="336" ht="13"/>
-    <row r="337" ht="13"/>
-    <row r="338" ht="13"/>
-    <row r="339" ht="13"/>
-    <row r="340" ht="13"/>
-    <row r="341" ht="13"/>
-    <row r="342" ht="13"/>
-    <row r="343" ht="13"/>
-    <row r="344" ht="13"/>
-    <row r="345" ht="13"/>
-    <row r="346" ht="13"/>
-    <row r="347" ht="13"/>
-    <row r="348" ht="13"/>
-    <row r="349" ht="13"/>
-    <row r="350" ht="13"/>
-    <row r="351" ht="13"/>
-    <row r="352" ht="13"/>
-    <row r="353" ht="13"/>
-    <row r="354" ht="13"/>
-    <row r="355" ht="13"/>
-    <row r="356" ht="13"/>
-    <row r="357" ht="13"/>
-    <row r="358" ht="13"/>
-    <row r="359" ht="13"/>
-    <row r="360" ht="13"/>
-    <row r="361" ht="13"/>
-    <row r="362" ht="13"/>
-    <row r="363" ht="13"/>
-    <row r="364" ht="13"/>
-    <row r="365" ht="13"/>
-    <row r="366" ht="13"/>
-    <row r="367" ht="13"/>
-    <row r="368" ht="13"/>
-    <row r="369" ht="13"/>
-    <row r="370" ht="13"/>
-    <row r="371" ht="13"/>
-    <row r="372" ht="13"/>
-    <row r="373" ht="13"/>
-    <row r="374" ht="13"/>
-    <row r="375" ht="13"/>
-    <row r="376" ht="13"/>
-    <row r="377" ht="13"/>
-    <row r="378" ht="13"/>
-    <row r="379" ht="13"/>
-    <row r="380" ht="13"/>
-    <row r="381" ht="13"/>
-    <row r="382" ht="13"/>
-    <row r="383" ht="13"/>
-    <row r="384" ht="13"/>
-    <row r="385" ht="13"/>
-    <row r="386" ht="13"/>
-    <row r="387" ht="13"/>
-    <row r="388" ht="13"/>
-    <row r="389" ht="13"/>
-    <row r="390" ht="13"/>
-    <row r="391" ht="13"/>
-    <row r="392" ht="13"/>
-    <row r="393" ht="13"/>
-    <row r="394" ht="13"/>
-    <row r="395" ht="13"/>
-    <row r="396" ht="13"/>
-    <row r="397" ht="13"/>
-    <row r="398" ht="13"/>
-    <row r="399" ht="13"/>
-    <row r="400" ht="13"/>
-    <row r="401" ht="13"/>
-    <row r="402" ht="13"/>
-    <row r="403" ht="13"/>
-    <row r="404" ht="13"/>
-    <row r="405" ht="13"/>
-    <row r="406" ht="13"/>
-    <row r="407" ht="13"/>
-    <row r="408" ht="13"/>
-    <row r="409" ht="13"/>
-    <row r="410" ht="13"/>
-    <row r="411" ht="13"/>
-    <row r="412" ht="13"/>
-    <row r="413" ht="13"/>
-    <row r="414" ht="13"/>
-    <row r="415" ht="13"/>
-    <row r="416" ht="13"/>
-    <row r="417" ht="13"/>
-    <row r="418" ht="13"/>
-    <row r="419" ht="13"/>
-    <row r="420" ht="13"/>
-    <row r="421" ht="13"/>
-    <row r="422" ht="13"/>
-    <row r="423" ht="13"/>
-    <row r="424" ht="13"/>
-    <row r="425" ht="13"/>
-    <row r="426" ht="13"/>
-    <row r="427" ht="13"/>
-    <row r="428" ht="13"/>
-    <row r="429" ht="13"/>
-    <row r="430" ht="13"/>
-    <row r="431" ht="13"/>
-    <row r="432" ht="13"/>
-    <row r="433" ht="13"/>
-    <row r="434" ht="13"/>
-    <row r="435" ht="13"/>
-    <row r="436" ht="13"/>
-    <row r="437" ht="13"/>
-    <row r="438" ht="13"/>
-    <row r="439" ht="13"/>
-    <row r="440" ht="13"/>
-    <row r="441" ht="13"/>
-    <row r="442" ht="13"/>
-    <row r="443" ht="13"/>
-    <row r="444" ht="13"/>
-    <row r="445" ht="13"/>
-    <row r="446" ht="13"/>
-    <row r="447" ht="13"/>
-    <row r="448" ht="13"/>
-    <row r="449" ht="13"/>
-    <row r="450" ht="13"/>
-    <row r="451" ht="13"/>
-    <row r="452" ht="13"/>
-    <row r="453" ht="13"/>
-    <row r="454" ht="13"/>
-    <row r="455" ht="13"/>
-    <row r="456" ht="13"/>
-    <row r="457" ht="13"/>
-    <row r="458" ht="13"/>
-    <row r="459" ht="13"/>
-    <row r="460" ht="13"/>
-    <row r="461" ht="13"/>
-    <row r="462" ht="13"/>
-    <row r="463" ht="13"/>
-    <row r="464" ht="13"/>
-    <row r="465" ht="13"/>
-    <row r="466" ht="13"/>
-    <row r="467" ht="13"/>
-    <row r="468" ht="13"/>
-    <row r="469" ht="13"/>
-    <row r="470" ht="13"/>
-    <row r="471" ht="13"/>
-    <row r="472" ht="13"/>
-    <row r="473" ht="13"/>
-    <row r="474" ht="13"/>
-    <row r="475" ht="13"/>
-    <row r="476" ht="13"/>
-    <row r="477" ht="13"/>
-    <row r="478" ht="13"/>
-    <row r="479" ht="13"/>
-    <row r="480" ht="13"/>
-    <row r="481" ht="13"/>
-    <row r="482" ht="13"/>
-    <row r="483" ht="13"/>
-    <row r="484" ht="13"/>
-    <row r="485" ht="13"/>
-    <row r="486" ht="13"/>
-    <row r="487" ht="13"/>
-    <row r="488" ht="13"/>
-    <row r="489" ht="13"/>
-    <row r="490" ht="13"/>
-    <row r="491" ht="13"/>
-    <row r="492" ht="13"/>
-    <row r="493" ht="13"/>
-    <row r="494" ht="13"/>
-    <row r="495" ht="13"/>
-    <row r="496" ht="13"/>
-    <row r="497" ht="13"/>
-    <row r="498" ht="13"/>
-    <row r="499" ht="13"/>
-    <row r="500" ht="13"/>
-    <row r="501" ht="13"/>
-    <row r="502" ht="13"/>
-    <row r="503" ht="13"/>
-    <row r="504" ht="13"/>
-    <row r="505" ht="13"/>
-    <row r="506" ht="13"/>
-    <row r="507" ht="13"/>
-    <row r="508" ht="13"/>
-    <row r="509" ht="13"/>
-    <row r="510" ht="13"/>
-    <row r="511" ht="13"/>
-    <row r="512" ht="13"/>
-    <row r="513" ht="13"/>
-    <row r="514" ht="13"/>
-    <row r="515" ht="13"/>
-    <row r="516" ht="13"/>
-    <row r="517" ht="13"/>
-    <row r="518" ht="13"/>
-    <row r="519" ht="13"/>
-    <row r="520" ht="13"/>
-    <row r="521" ht="13"/>
-    <row r="522" ht="13"/>
-    <row r="523" ht="13"/>
-    <row r="524" ht="13"/>
-    <row r="525" ht="13"/>
-    <row r="526" ht="13"/>
-    <row r="527" ht="13"/>
-    <row r="528" ht="13"/>
-    <row r="529" ht="13"/>
-    <row r="530" ht="13"/>
-    <row r="531" ht="13"/>
-    <row r="532" ht="13"/>
-    <row r="533" ht="13"/>
-    <row r="534" ht="13"/>
-    <row r="535" ht="13"/>
-    <row r="536" ht="13"/>
-    <row r="537" ht="13"/>
-    <row r="538" ht="13"/>
-    <row r="539" ht="13"/>
-    <row r="540" ht="13"/>
-    <row r="541" ht="13"/>
-    <row r="542" ht="13"/>
-    <row r="543" ht="13"/>
-    <row r="544" ht="13"/>
-    <row r="545" ht="13"/>
-    <row r="546" ht="13"/>
-    <row r="547" ht="13"/>
-    <row r="548" ht="13"/>
-    <row r="549" ht="13"/>
-    <row r="550" ht="13"/>
-    <row r="551" ht="13"/>
-    <row r="552" ht="13"/>
-    <row r="553" ht="13"/>
-    <row r="554" ht="13"/>
-    <row r="555" ht="13"/>
-    <row r="556" ht="13"/>
-    <row r="557" ht="13"/>
-    <row r="558" ht="13"/>
-    <row r="559" ht="13"/>
-    <row r="560" ht="13"/>
-    <row r="561" ht="13"/>
-    <row r="562" ht="13"/>
-    <row r="563" ht="13"/>
-    <row r="564" ht="13"/>
-    <row r="565" ht="13"/>
-    <row r="566" ht="13"/>
-    <row r="567" ht="13"/>
-    <row r="568" ht="13"/>
-    <row r="569" ht="13"/>
-    <row r="570" ht="13"/>
-    <row r="571" ht="13"/>
-    <row r="572" ht="13"/>
-    <row r="573" ht="13"/>
-    <row r="574" ht="13"/>
-    <row r="575" ht="13"/>
-    <row r="576" ht="13"/>
-    <row r="577" ht="13"/>
-    <row r="578" ht="13"/>
-    <row r="579" ht="13"/>
-    <row r="580" ht="13"/>
-    <row r="581" ht="13"/>
-    <row r="582" ht="13"/>
-    <row r="583" ht="13"/>
-    <row r="584" ht="13"/>
-    <row r="585" ht="13"/>
-    <row r="586" ht="13"/>
-    <row r="587" ht="13"/>
-    <row r="588" ht="13"/>
-    <row r="589" ht="13"/>
-    <row r="590" ht="13"/>
-    <row r="591" ht="13"/>
-    <row r="592" ht="13"/>
-    <row r="593" ht="13"/>
-    <row r="594" ht="13"/>
-    <row r="595" ht="13"/>
-    <row r="596" ht="13"/>
-    <row r="597" ht="13"/>
-    <row r="598" ht="13"/>
-    <row r="599" ht="13"/>
-    <row r="600" ht="13"/>
-    <row r="601" ht="13"/>
-    <row r="602" ht="13"/>
-    <row r="603" ht="13"/>
-    <row r="604" ht="13"/>
-    <row r="605" ht="13"/>
-    <row r="606" ht="13"/>
-    <row r="607" ht="13"/>
-    <row r="608" ht="13"/>
-    <row r="609" ht="13"/>
-    <row r="610" ht="13"/>
-    <row r="611" ht="13"/>
-    <row r="612" ht="13"/>
-    <row r="613" ht="13"/>
-    <row r="614" ht="13"/>
-    <row r="615" ht="13"/>
-    <row r="616" ht="13"/>
-    <row r="617" ht="13"/>
-    <row r="618" ht="13"/>
-    <row r="619" ht="13"/>
-    <row r="620" ht="13"/>
-    <row r="621" ht="13"/>
-    <row r="622" ht="13"/>
-    <row r="623" ht="13"/>
-    <row r="624" ht="13"/>
-    <row r="625" ht="13"/>
-    <row r="626" ht="13"/>
-    <row r="627" ht="13"/>
-    <row r="628" ht="13"/>
-    <row r="629" ht="13"/>
-    <row r="630" ht="13"/>
-    <row r="631" ht="13"/>
-    <row r="632" ht="13"/>
-    <row r="633" ht="13"/>
-    <row r="634" ht="13"/>
-    <row r="635" ht="13"/>
-    <row r="636" ht="13"/>
-    <row r="637" ht="13"/>
-    <row r="638" ht="13"/>
-    <row r="639" ht="13"/>
-    <row r="640" ht="13"/>
-    <row r="641" ht="13"/>
-    <row r="642" ht="13"/>
-    <row r="643" ht="13"/>
-    <row r="644" ht="13"/>
-    <row r="645" ht="13"/>
-    <row r="646" ht="13"/>
-    <row r="647" ht="13"/>
-    <row r="648" ht="13"/>
-    <row r="649" ht="13"/>
-    <row r="650" ht="13"/>
-    <row r="651" ht="13"/>
-    <row r="652" ht="13"/>
-    <row r="653" ht="13"/>
-    <row r="654" ht="13"/>
-    <row r="655" ht="13"/>
-    <row r="656" ht="13"/>
-    <row r="657" ht="13"/>
-    <row r="658" ht="13"/>
-    <row r="659" ht="13"/>
-    <row r="660" ht="13"/>
-    <row r="661" ht="13"/>
-    <row r="662" ht="13"/>
-    <row r="663" ht="13"/>
-    <row r="664" ht="13"/>
-    <row r="665" ht="13"/>
-    <row r="666" ht="13"/>
-    <row r="667" ht="13"/>
-    <row r="668" ht="13"/>
-    <row r="669" ht="13"/>
-    <row r="670" ht="13"/>
-    <row r="671" ht="13"/>
-    <row r="672" ht="13"/>
-    <row r="673" ht="13"/>
-    <row r="674" ht="13"/>
-    <row r="675" ht="13"/>
-    <row r="676" ht="13"/>
-    <row r="677" ht="13"/>
-    <row r="678" ht="13"/>
-    <row r="679" ht="13"/>
-    <row r="680" ht="13"/>
-    <row r="681" ht="13"/>
-    <row r="682" ht="13"/>
-    <row r="683" ht="13"/>
-    <row r="684" ht="13"/>
-    <row r="685" ht="13"/>
-    <row r="686" ht="13"/>
-    <row r="687" ht="13"/>
-    <row r="688" ht="13"/>
-    <row r="689" ht="13"/>
-    <row r="690" ht="13"/>
-    <row r="691" ht="13"/>
-    <row r="692" ht="13"/>
-    <row r="693" ht="13"/>
-    <row r="694" ht="13"/>
-    <row r="695" ht="13"/>
-    <row r="696" ht="13"/>
-    <row r="697" ht="13"/>
-    <row r="698" ht="13"/>
-    <row r="699" ht="13"/>
-    <row r="700" ht="13"/>
-    <row r="701" ht="13"/>
-    <row r="702" ht="13"/>
-    <row r="703" ht="13"/>
-    <row r="704" ht="13"/>
-    <row r="705" ht="13"/>
-    <row r="706" ht="13"/>
-    <row r="707" ht="13"/>
-    <row r="708" ht="13"/>
-    <row r="709" ht="13"/>
-    <row r="710" ht="13"/>
-    <row r="711" ht="13"/>
-    <row r="712" ht="13"/>
-    <row r="713" ht="13"/>
-    <row r="714" ht="13"/>
-    <row r="715" ht="13"/>
-    <row r="716" ht="13"/>
-    <row r="717" ht="13"/>
-    <row r="718" ht="13"/>
-    <row r="719" ht="13"/>
-    <row r="720" ht="13"/>
-    <row r="721" ht="13"/>
-    <row r="722" ht="13"/>
-    <row r="723" ht="13"/>
-    <row r="724" ht="13"/>
-    <row r="725" ht="13"/>
-    <row r="726" ht="13"/>
-    <row r="727" ht="13"/>
-    <row r="728" ht="13"/>
-    <row r="729" ht="13"/>
-    <row r="730" ht="13"/>
-    <row r="731" ht="13"/>
-    <row r="732" ht="13"/>
-    <row r="733" ht="13"/>
-    <row r="734" ht="13"/>
-    <row r="735" ht="13"/>
-    <row r="736" ht="13"/>
-    <row r="737" ht="13"/>
-    <row r="738" ht="13"/>
-    <row r="739" ht="13"/>
-    <row r="740" ht="13"/>
-    <row r="741" ht="13"/>
-    <row r="742" ht="13"/>
-    <row r="743" ht="13"/>
-    <row r="744" ht="13"/>
-    <row r="745" ht="13"/>
-    <row r="746" ht="13"/>
-    <row r="747" ht="13"/>
-    <row r="748" ht="13"/>
-    <row r="749" ht="13"/>
-    <row r="750" ht="13"/>
-    <row r="751" ht="13"/>
-    <row r="752" ht="13"/>
-    <row r="753" ht="13"/>
-    <row r="754" ht="13"/>
-    <row r="755" ht="13"/>
-    <row r="756" ht="13"/>
-    <row r="757" ht="13"/>
-    <row r="758" ht="13"/>
-    <row r="759" ht="13"/>
-    <row r="760" ht="13"/>
-    <row r="761" ht="13"/>
-    <row r="762" ht="13"/>
-    <row r="763" ht="13"/>
-    <row r="764" ht="13"/>
-    <row r="765" ht="13"/>
-    <row r="766" ht="13"/>
-    <row r="767" ht="13"/>
-    <row r="768" ht="13"/>
-    <row r="769" ht="13"/>
-    <row r="770" ht="13"/>
-    <row r="771" ht="13"/>
-    <row r="772" ht="13"/>
-    <row r="773" ht="13"/>
-    <row r="774" ht="13"/>
-    <row r="775" ht="13"/>
-    <row r="776" ht="13"/>
-    <row r="777" ht="13"/>
-    <row r="778" ht="13"/>
-    <row r="779" ht="13"/>
-    <row r="780" ht="13"/>
-    <row r="781" ht="13"/>
-    <row r="782" ht="13"/>
-    <row r="783" ht="13"/>
-    <row r="784" ht="13"/>
-    <row r="785" ht="13"/>
-    <row r="786" ht="13"/>
-    <row r="787" ht="13"/>
-    <row r="788" ht="13"/>
-    <row r="789" ht="13"/>
-    <row r="790" ht="13"/>
-    <row r="791" ht="13"/>
-    <row r="792" ht="13"/>
-    <row r="793" ht="13"/>
-    <row r="794" ht="13"/>
-    <row r="795" ht="13"/>
-    <row r="796" ht="13"/>
-    <row r="797" ht="13"/>
-    <row r="798" ht="13"/>
-    <row r="799" ht="13"/>
-    <row r="800" ht="13"/>
-    <row r="801" ht="13"/>
-    <row r="802" ht="13"/>
-    <row r="803" ht="13"/>
-    <row r="804" ht="13"/>
-    <row r="805" ht="13"/>
-    <row r="806" ht="13"/>
-    <row r="807" ht="13"/>
-    <row r="808" ht="13"/>
-    <row r="809" ht="13"/>
-    <row r="810" ht="13"/>
-    <row r="811" ht="13"/>
-    <row r="812" ht="13"/>
-    <row r="813" ht="13"/>
-    <row r="814" ht="13"/>
-    <row r="815" ht="13"/>
-    <row r="816" ht="13"/>
-    <row r="817" ht="13"/>
-    <row r="818" ht="13"/>
-    <row r="819" ht="13"/>
-    <row r="820" ht="13"/>
-    <row r="821" ht="13"/>
-    <row r="822" ht="13"/>
-    <row r="823" ht="13"/>
-    <row r="824" ht="13"/>
-    <row r="825" ht="13"/>
-    <row r="826" ht="13"/>
-    <row r="827" ht="13"/>
-    <row r="828" ht="13"/>
-    <row r="829" ht="13"/>
-    <row r="830" ht="13"/>
-    <row r="831" ht="13"/>
-    <row r="832" ht="13"/>
-    <row r="833" ht="13"/>
-    <row r="834" ht="13"/>
-    <row r="835" ht="13"/>
-    <row r="836" ht="13"/>
-    <row r="837" ht="13"/>
-    <row r="838" ht="13"/>
-    <row r="839" ht="13"/>
-    <row r="840" ht="13"/>
-    <row r="841" ht="13"/>
-    <row r="842" ht="13"/>
-    <row r="843" ht="13"/>
-    <row r="844" ht="13"/>
-    <row r="845" ht="13"/>
-    <row r="846" ht="13"/>
-    <row r="847" ht="13"/>
-    <row r="848" ht="13"/>
-    <row r="849" ht="13"/>
-    <row r="850" ht="13"/>
-    <row r="851" ht="13"/>
-    <row r="852" ht="13"/>
-    <row r="853" ht="13"/>
-    <row r="854" ht="13"/>
-    <row r="855" ht="13"/>
-    <row r="856" ht="13"/>
-    <row r="857" ht="13"/>
-    <row r="858" ht="13"/>
-    <row r="859" ht="13"/>
-    <row r="860" ht="13"/>
-    <row r="861" ht="13"/>
-    <row r="862" ht="13"/>
-    <row r="863" ht="13"/>
-    <row r="864" ht="13"/>
-    <row r="865" ht="13"/>
-    <row r="866" ht="13"/>
-    <row r="867" ht="13"/>
-    <row r="868" ht="13"/>
-    <row r="869" ht="13"/>
-    <row r="870" ht="13"/>
-    <row r="871" ht="13"/>
-    <row r="872" ht="13"/>
-    <row r="873" ht="13"/>
-    <row r="874" ht="13"/>
-    <row r="875" ht="13"/>
-    <row r="876" ht="13"/>
-    <row r="877" ht="13"/>
-    <row r="878" ht="13"/>
-    <row r="879" ht="13"/>
-    <row r="880" ht="13"/>
-    <row r="881" ht="13"/>
-    <row r="882" ht="13"/>
-    <row r="883" ht="13"/>
-    <row r="884" ht="13"/>
-    <row r="885" ht="13"/>
-    <row r="886" ht="13"/>
-    <row r="887" ht="13"/>
-    <row r="888" ht="13"/>
-    <row r="889" ht="13"/>
-    <row r="890" ht="13"/>
-    <row r="891" ht="13"/>
-    <row r="892" ht="13"/>
-    <row r="893" ht="13"/>
-    <row r="894" ht="13"/>
-    <row r="895" ht="13"/>
-    <row r="896" ht="13"/>
-    <row r="897" ht="13"/>
-    <row r="898" ht="13"/>
-    <row r="899" ht="13"/>
-    <row r="900" ht="13"/>
-    <row r="901" ht="13"/>
-    <row r="902" ht="13"/>
-    <row r="903" ht="13"/>
-    <row r="904" ht="13"/>
-    <row r="905" ht="13"/>
-    <row r="906" ht="13"/>
-    <row r="907" ht="13"/>
-    <row r="908" ht="13"/>
-    <row r="909" ht="13"/>
-    <row r="910" ht="13"/>
-    <row r="911" ht="13"/>
-    <row r="912" ht="13"/>
-    <row r="913" ht="13"/>
-    <row r="914" ht="13"/>
-    <row r="915" ht="13"/>
-    <row r="916" ht="13"/>
-    <row r="917" ht="13"/>
-    <row r="918" ht="13"/>
-    <row r="919" ht="13"/>
-    <row r="920" ht="13"/>
-    <row r="921" ht="13"/>
-    <row r="922" ht="13"/>
-    <row r="923" ht="13"/>
-    <row r="924" ht="13"/>
-    <row r="925" ht="13"/>
-    <row r="926" ht="13"/>
-    <row r="927" ht="13"/>
-    <row r="928" ht="13"/>
-    <row r="929" ht="13"/>
-    <row r="930" ht="13"/>
-    <row r="931" ht="13"/>
-    <row r="932" ht="13"/>
-    <row r="933" ht="13"/>
-    <row r="934" ht="13"/>
-    <row r="935" ht="13"/>
-    <row r="936" ht="13"/>
-    <row r="937" ht="13"/>
-    <row r="938" ht="13"/>
-    <row r="939" ht="13"/>
-    <row r="940" ht="13"/>
-    <row r="941" ht="13"/>
-    <row r="942" ht="13"/>
-    <row r="943" ht="13"/>
-    <row r="944" ht="13"/>
-    <row r="945" ht="13"/>
-    <row r="946" ht="13"/>
-    <row r="947" ht="13"/>
-    <row r="948" ht="13"/>
-    <row r="949" ht="13"/>
-    <row r="950" ht="13"/>
-    <row r="951" ht="13"/>
-    <row r="952" ht="13"/>
-    <row r="953" ht="13"/>
-    <row r="954" ht="13"/>
-    <row r="955" ht="13"/>
-    <row r="956" ht="13"/>
-    <row r="957" ht="13"/>
-    <row r="958" ht="13"/>
-    <row r="959" ht="13"/>
-    <row r="960" ht="13"/>
-    <row r="961" ht="13"/>
-    <row r="962" ht="13"/>
-    <row r="963" ht="13"/>
-    <row r="964" ht="13"/>
-    <row r="965" ht="13"/>
-    <row r="966" ht="13"/>
-    <row r="967" ht="13"/>
-    <row r="968" ht="13"/>
-    <row r="969" ht="13"/>
-    <row r="970" ht="13"/>
-    <row r="971" ht="13"/>
-    <row r="972" ht="13"/>
-    <row r="973" ht="13"/>
-    <row r="974" ht="13"/>
-    <row r="975" ht="13"/>
-    <row r="976" ht="13"/>
-    <row r="977" ht="13"/>
-    <row r="978" ht="13"/>
-    <row r="979" ht="13"/>
-    <row r="980" ht="13"/>
-    <row r="981" ht="13"/>
-    <row r="982" ht="13"/>
-    <row r="983" ht="13"/>
-    <row r="984" ht="13"/>
-    <row r="985" ht="13"/>
-    <row r="986" ht="13"/>
-    <row r="987" ht="13"/>
-    <row r="988" ht="13"/>
-    <row r="989" ht="13"/>
-    <row r="990" ht="13"/>
-    <row r="991" ht="13"/>
-    <row r="992" ht="13"/>
-    <row r="993" ht="13"/>
-    <row r="994" ht="13"/>
-    <row r="995" ht="13"/>
-    <row r="996" ht="13"/>
-    <row r="997" ht="13"/>
-    <row r="998" ht="13"/>
-    <row r="999" ht="13"/>
-    <row r="1000" ht="13"/>
+    <row r="221" spans="2:2" ht="12"/>
+    <row r="222" spans="2:2" ht="12"/>
+    <row r="223" spans="2:2" ht="12"/>
+    <row r="224" spans="2:2" ht="12"/>
+    <row r="225" ht="12"/>
+    <row r="226" ht="12"/>
+    <row r="227" ht="12"/>
+    <row r="228" ht="12"/>
+    <row r="229" ht="12"/>
+    <row r="230" ht="12"/>
+    <row r="231" ht="12"/>
+    <row r="232" ht="12"/>
+    <row r="233" ht="12"/>
+    <row r="234" ht="12"/>
+    <row r="235" ht="12"/>
+    <row r="236" ht="12"/>
+    <row r="237" ht="12"/>
+    <row r="238" ht="12"/>
+    <row r="239" ht="12"/>
+    <row r="240" ht="12"/>
+    <row r="241" ht="12"/>
+    <row r="242" ht="12"/>
+    <row r="243" ht="12"/>
+    <row r="244" ht="12"/>
+    <row r="245" ht="12"/>
+    <row r="246" ht="12"/>
+    <row r="247" ht="12"/>
+    <row r="248" ht="12"/>
+    <row r="249" ht="12"/>
+    <row r="250" ht="12"/>
+    <row r="251" ht="12"/>
+    <row r="252" ht="12"/>
+    <row r="253" ht="12"/>
+    <row r="254" ht="12"/>
+    <row r="255" ht="12"/>
+    <row r="256" ht="12"/>
+    <row r="257" ht="12"/>
+    <row r="258" ht="12"/>
+    <row r="259" ht="12"/>
+    <row r="260" ht="12"/>
+    <row r="261" ht="12"/>
+    <row r="262" ht="12"/>
+    <row r="263" ht="12"/>
+    <row r="264" ht="12"/>
+    <row r="265" ht="12"/>
+    <row r="266" ht="12"/>
+    <row r="267" ht="12"/>
+    <row r="268" ht="12"/>
+    <row r="269" ht="12"/>
+    <row r="270" ht="12"/>
+    <row r="271" ht="12"/>
+    <row r="272" ht="12"/>
+    <row r="273" ht="12"/>
+    <row r="274" ht="12"/>
+    <row r="275" ht="12"/>
+    <row r="276" ht="12"/>
+    <row r="277" ht="12"/>
+    <row r="278" ht="12"/>
+    <row r="279" ht="12"/>
+    <row r="280" ht="12"/>
+    <row r="281" ht="12"/>
+    <row r="282" ht="12"/>
+    <row r="283" ht="12"/>
+    <row r="284" ht="12"/>
+    <row r="285" ht="12"/>
+    <row r="286" ht="12"/>
+    <row r="287" ht="12"/>
+    <row r="288" ht="12"/>
+    <row r="289" ht="12"/>
+    <row r="290" ht="12"/>
+    <row r="291" ht="12"/>
+    <row r="292" ht="12"/>
+    <row r="293" ht="12"/>
+    <row r="294" ht="12"/>
+    <row r="295" ht="12"/>
+    <row r="296" ht="12"/>
+    <row r="297" ht="12"/>
+    <row r="298" ht="12"/>
+    <row r="299" ht="12"/>
+    <row r="300" ht="12"/>
+    <row r="301" ht="12"/>
+    <row r="302" ht="12"/>
+    <row r="303" ht="12"/>
+    <row r="304" ht="12"/>
+    <row r="305" ht="12"/>
+    <row r="306" ht="12"/>
+    <row r="307" ht="12"/>
+    <row r="308" ht="12"/>
+    <row r="309" ht="12"/>
+    <row r="310" ht="12"/>
+    <row r="311" ht="12"/>
+    <row r="312" ht="12"/>
+    <row r="313" ht="12"/>
+    <row r="314" ht="12"/>
+    <row r="315" ht="12"/>
+    <row r="316" ht="12"/>
+    <row r="317" ht="12"/>
+    <row r="318" ht="12"/>
+    <row r="319" ht="12"/>
+    <row r="320" ht="12"/>
+    <row r="321" ht="12"/>
+    <row r="322" ht="12"/>
+    <row r="323" ht="12"/>
+    <row r="324" ht="12"/>
+    <row r="325" ht="12"/>
+    <row r="326" ht="12"/>
+    <row r="327" ht="12"/>
+    <row r="328" ht="12"/>
+    <row r="329" ht="12"/>
+    <row r="330" ht="12"/>
+    <row r="331" ht="12"/>
+    <row r="332" ht="12"/>
+    <row r="333" ht="12"/>
+    <row r="334" ht="12"/>
+    <row r="335" ht="12"/>
+    <row r="336" ht="12"/>
+    <row r="337" ht="12"/>
+    <row r="338" ht="12"/>
+    <row r="339" ht="12"/>
+    <row r="340" ht="12"/>
+    <row r="341" ht="12"/>
+    <row r="342" ht="12"/>
+    <row r="343" ht="12"/>
+    <row r="344" ht="12"/>
+    <row r="345" ht="12"/>
+    <row r="346" ht="12"/>
+    <row r="347" ht="12"/>
+    <row r="348" ht="12"/>
+    <row r="349" ht="12"/>
+    <row r="350" ht="12"/>
+    <row r="351" ht="12"/>
+    <row r="352" ht="12"/>
+    <row r="353" ht="12"/>
+    <row r="354" ht="12"/>
+    <row r="355" ht="12"/>
+    <row r="356" ht="12"/>
+    <row r="357" ht="12"/>
+    <row r="358" ht="12"/>
+    <row r="359" ht="12"/>
+    <row r="360" ht="12"/>
+    <row r="361" ht="12"/>
+    <row r="362" ht="12"/>
+    <row r="363" ht="12"/>
+    <row r="364" ht="12"/>
+    <row r="365" ht="12"/>
+    <row r="366" ht="12"/>
+    <row r="367" ht="12"/>
+    <row r="368" ht="12"/>
+    <row r="369" ht="12"/>
+    <row r="370" ht="12"/>
+    <row r="371" ht="12"/>
+    <row r="372" ht="12"/>
+    <row r="373" ht="12"/>
+    <row r="374" ht="12"/>
+    <row r="375" ht="12"/>
+    <row r="376" ht="12"/>
+    <row r="377" ht="12"/>
+    <row r="378" ht="12"/>
+    <row r="379" ht="12"/>
+    <row r="380" ht="12"/>
+    <row r="381" ht="12"/>
+    <row r="382" ht="12"/>
+    <row r="383" ht="12"/>
+    <row r="384" ht="12"/>
+    <row r="385" ht="12"/>
+    <row r="386" ht="12"/>
+    <row r="387" ht="12"/>
+    <row r="388" ht="12"/>
+    <row r="389" ht="12"/>
+    <row r="390" ht="12"/>
+    <row r="391" ht="12"/>
+    <row r="392" ht="12"/>
+    <row r="393" ht="12"/>
+    <row r="394" ht="12"/>
+    <row r="395" ht="12"/>
+    <row r="396" ht="12"/>
+    <row r="397" ht="12"/>
+    <row r="398" ht="12"/>
+    <row r="399" ht="12"/>
+    <row r="400" ht="12"/>
+    <row r="401" ht="12"/>
+    <row r="402" ht="12"/>
+    <row r="403" ht="12"/>
+    <row r="404" ht="12"/>
+    <row r="405" ht="12"/>
+    <row r="406" ht="12"/>
+    <row r="407" ht="12"/>
+    <row r="408" ht="12"/>
+    <row r="409" ht="12"/>
+    <row r="410" ht="12"/>
+    <row r="411" ht="12"/>
+    <row r="412" ht="12"/>
+    <row r="413" ht="12"/>
+    <row r="414" ht="12"/>
+    <row r="415" ht="12"/>
+    <row r="416" ht="12"/>
+    <row r="417" ht="12"/>
+    <row r="418" ht="12"/>
+    <row r="419" ht="12"/>
+    <row r="420" ht="12"/>
+    <row r="421" ht="12"/>
+    <row r="422" ht="12"/>
+    <row r="423" ht="12"/>
+    <row r="424" ht="12"/>
+    <row r="425" ht="12"/>
+    <row r="426" ht="12"/>
+    <row r="427" ht="12"/>
+    <row r="428" ht="12"/>
+    <row r="429" ht="12"/>
+    <row r="430" ht="12"/>
+    <row r="431" ht="12"/>
+    <row r="432" ht="12"/>
+    <row r="433" ht="12"/>
+    <row r="434" ht="12"/>
+    <row r="435" ht="12"/>
+    <row r="436" ht="12"/>
+    <row r="437" ht="12"/>
+    <row r="438" ht="12"/>
+    <row r="439" ht="12"/>
+    <row r="440" ht="12"/>
+    <row r="441" ht="12"/>
+    <row r="442" ht="12"/>
+    <row r="443" ht="12"/>
+    <row r="444" ht="12"/>
+    <row r="445" ht="12"/>
+    <row r="446" ht="12"/>
+    <row r="447" ht="12"/>
+    <row r="448" ht="12"/>
+    <row r="449" ht="12"/>
+    <row r="450" ht="12"/>
+    <row r="451" ht="12"/>
+    <row r="452" ht="12"/>
+    <row r="453" ht="12"/>
+    <row r="454" ht="12"/>
+    <row r="455" ht="12"/>
+    <row r="456" ht="12"/>
+    <row r="457" ht="12"/>
+    <row r="458" ht="12"/>
+    <row r="459" ht="12"/>
+    <row r="460" ht="12"/>
+    <row r="461" ht="12"/>
+    <row r="462" ht="12"/>
+    <row r="463" ht="12"/>
+    <row r="464" ht="12"/>
+    <row r="465" ht="12"/>
+    <row r="466" ht="12"/>
+    <row r="467" ht="12"/>
+    <row r="468" ht="12"/>
+    <row r="469" ht="12"/>
+    <row r="470" ht="12"/>
+    <row r="471" ht="12"/>
+    <row r="472" ht="12"/>
+    <row r="473" ht="12"/>
+    <row r="474" ht="12"/>
+    <row r="475" ht="12"/>
+    <row r="476" ht="12"/>
+    <row r="477" ht="12"/>
+    <row r="478" ht="12"/>
+    <row r="479" ht="12"/>
+    <row r="480" ht="12"/>
+    <row r="481" ht="12"/>
+    <row r="482" ht="12"/>
+    <row r="483" ht="12"/>
+    <row r="484" ht="12"/>
+    <row r="485" ht="12"/>
+    <row r="486" ht="12"/>
+    <row r="487" ht="12"/>
+    <row r="488" ht="12"/>
+    <row r="489" ht="12"/>
+    <row r="490" ht="12"/>
+    <row r="491" ht="12"/>
+    <row r="492" ht="12"/>
+    <row r="493" ht="12"/>
+    <row r="494" ht="12"/>
+    <row r="495" ht="12"/>
+    <row r="496" ht="12"/>
+    <row r="497" ht="12"/>
+    <row r="498" ht="12"/>
+    <row r="499" ht="12"/>
+    <row r="500" ht="12"/>
+    <row r="501" ht="12"/>
+    <row r="502" ht="12"/>
+    <row r="503" ht="12"/>
+    <row r="504" ht="12"/>
+    <row r="505" ht="12"/>
+    <row r="506" ht="12"/>
+    <row r="507" ht="12"/>
+    <row r="508" ht="12"/>
+    <row r="509" ht="12"/>
+    <row r="510" ht="12"/>
+    <row r="511" ht="12"/>
+    <row r="512" ht="12"/>
+    <row r="513" ht="12"/>
+    <row r="514" ht="12"/>
+    <row r="515" ht="12"/>
+    <row r="516" ht="12"/>
+    <row r="517" ht="12"/>
+    <row r="518" ht="12"/>
+    <row r="519" ht="12"/>
+    <row r="520" ht="12"/>
+    <row r="521" ht="12"/>
+    <row r="522" ht="12"/>
+    <row r="523" ht="12"/>
+    <row r="524" ht="12"/>
+    <row r="525" ht="12"/>
+    <row r="526" ht="12"/>
+    <row r="527" ht="12"/>
+    <row r="528" ht="12"/>
+    <row r="529" ht="12"/>
+    <row r="530" ht="12"/>
+    <row r="531" ht="12"/>
+    <row r="532" ht="12"/>
+    <row r="533" ht="12"/>
+    <row r="534" ht="12"/>
+    <row r="535" ht="12"/>
+    <row r="536" ht="12"/>
+    <row r="537" ht="12"/>
+    <row r="538" ht="12"/>
+    <row r="539" ht="12"/>
+    <row r="540" ht="12"/>
+    <row r="541" ht="12"/>
+    <row r="542" ht="12"/>
+    <row r="543" ht="12"/>
+    <row r="544" ht="12"/>
+    <row r="545" ht="12"/>
+    <row r="546" ht="12"/>
+    <row r="547" ht="12"/>
+    <row r="548" ht="12"/>
+    <row r="549" ht="12"/>
+    <row r="550" ht="12"/>
+    <row r="551" ht="12"/>
+    <row r="552" ht="12"/>
+    <row r="553" ht="12"/>
+    <row r="554" ht="12"/>
+    <row r="555" ht="12"/>
+    <row r="556" ht="12"/>
+    <row r="557" ht="12"/>
+    <row r="558" ht="12"/>
+    <row r="559" ht="12"/>
+    <row r="560" ht="12"/>
+    <row r="561" ht="12"/>
+    <row r="562" ht="12"/>
+    <row r="563" ht="12"/>
+    <row r="564" ht="12"/>
+    <row r="565" ht="12"/>
+    <row r="566" ht="12"/>
+    <row r="567" ht="12"/>
+    <row r="568" ht="12"/>
+    <row r="569" ht="12"/>
+    <row r="570" ht="12"/>
+    <row r="571" ht="12"/>
+    <row r="572" ht="12"/>
+    <row r="573" ht="12"/>
+    <row r="574" ht="12"/>
+    <row r="575" ht="12"/>
+    <row r="576" ht="12"/>
+    <row r="577" ht="12"/>
+    <row r="578" ht="12"/>
+    <row r="579" ht="12"/>
+    <row r="580" ht="12"/>
+    <row r="581" ht="12"/>
+    <row r="582" ht="12"/>
+    <row r="583" ht="12"/>
+    <row r="584" ht="12"/>
+    <row r="585" ht="12"/>
+    <row r="586" ht="12"/>
+    <row r="587" ht="12"/>
+    <row r="588" ht="12"/>
+    <row r="589" ht="12"/>
+    <row r="590" ht="12"/>
+    <row r="591" ht="12"/>
+    <row r="592" ht="12"/>
+    <row r="593" ht="12"/>
+    <row r="594" ht="12"/>
+    <row r="595" ht="12"/>
+    <row r="596" ht="12"/>
+    <row r="597" ht="12"/>
+    <row r="598" ht="12"/>
+    <row r="599" ht="12"/>
+    <row r="600" ht="12"/>
+    <row r="601" ht="12"/>
+    <row r="602" ht="12"/>
+    <row r="603" ht="12"/>
+    <row r="604" ht="12"/>
+    <row r="605" ht="12"/>
+    <row r="606" ht="12"/>
+    <row r="607" ht="12"/>
+    <row r="608" ht="12"/>
+    <row r="609" ht="12"/>
+    <row r="610" ht="12"/>
+    <row r="611" ht="12"/>
+    <row r="612" ht="12"/>
+    <row r="613" ht="12"/>
+    <row r="614" ht="12"/>
+    <row r="615" ht="12"/>
+    <row r="616" ht="12"/>
+    <row r="617" ht="12"/>
+    <row r="618" ht="12"/>
+    <row r="619" ht="12"/>
+    <row r="620" ht="12"/>
+    <row r="621" ht="12"/>
+    <row r="622" ht="12"/>
+    <row r="623" ht="12"/>
+    <row r="624" ht="12"/>
+    <row r="625" ht="12"/>
+    <row r="626" ht="12"/>
+    <row r="627" ht="12"/>
+    <row r="628" ht="12"/>
+    <row r="629" ht="12"/>
+    <row r="630" ht="12"/>
+    <row r="631" ht="12"/>
+    <row r="632" ht="12"/>
+    <row r="633" ht="12"/>
+    <row r="634" ht="12"/>
+    <row r="635" ht="12"/>
+    <row r="636" ht="12"/>
+    <row r="637" ht="12"/>
+    <row r="638" ht="12"/>
+    <row r="639" ht="12"/>
+    <row r="640" ht="12"/>
+    <row r="641" ht="12"/>
+    <row r="642" ht="12"/>
+    <row r="643" ht="12"/>
+    <row r="644" ht="12"/>
+    <row r="645" ht="12"/>
+    <row r="646" ht="12"/>
+    <row r="647" ht="12"/>
+    <row r="648" ht="12"/>
+    <row r="649" ht="12"/>
+    <row r="650" ht="12"/>
+    <row r="651" ht="12"/>
+    <row r="652" ht="12"/>
+    <row r="653" ht="12"/>
+    <row r="654" ht="12"/>
+    <row r="655" ht="12"/>
+    <row r="656" ht="12"/>
+    <row r="657" ht="12"/>
+    <row r="658" ht="12"/>
+    <row r="659" ht="12"/>
+    <row r="660" ht="12"/>
+    <row r="661" ht="12"/>
+    <row r="662" ht="12"/>
+    <row r="663" ht="12"/>
+    <row r="664" ht="12"/>
+    <row r="665" ht="12"/>
+    <row r="666" ht="12"/>
+    <row r="667" ht="12"/>
+    <row r="668" ht="12"/>
+    <row r="669" ht="12"/>
+    <row r="670" ht="12"/>
+    <row r="671" ht="12"/>
+    <row r="672" ht="12"/>
+    <row r="673" ht="12"/>
+    <row r="674" ht="12"/>
+    <row r="675" ht="12"/>
+    <row r="676" ht="12"/>
+    <row r="677" ht="12"/>
+    <row r="678" ht="12"/>
+    <row r="679" ht="12"/>
+    <row r="680" ht="12"/>
+    <row r="681" ht="12"/>
+    <row r="682" ht="12"/>
+    <row r="683" ht="12"/>
+    <row r="684" ht="12"/>
+    <row r="685" ht="12"/>
+    <row r="686" ht="12"/>
+    <row r="687" ht="12"/>
+    <row r="688" ht="12"/>
+    <row r="689" ht="12"/>
+    <row r="690" ht="12"/>
+    <row r="691" ht="12"/>
+    <row r="692" ht="12"/>
+    <row r="693" ht="12"/>
+    <row r="694" ht="12"/>
+    <row r="695" ht="12"/>
+    <row r="696" ht="12"/>
+    <row r="697" ht="12"/>
+    <row r="698" ht="12"/>
+    <row r="699" ht="12"/>
+    <row r="700" ht="12"/>
+    <row r="701" ht="12"/>
+    <row r="702" ht="12"/>
+    <row r="703" ht="12"/>
+    <row r="704" ht="12"/>
+    <row r="705" ht="12"/>
+    <row r="706" ht="12"/>
+    <row r="707" ht="12"/>
+    <row r="708" ht="12"/>
+    <row r="709" ht="12"/>
+    <row r="710" ht="12"/>
+    <row r="711" ht="12"/>
+    <row r="712" ht="12"/>
+    <row r="713" ht="12"/>
+    <row r="714" ht="12"/>
+    <row r="715" ht="12"/>
+    <row r="716" ht="12"/>
+    <row r="717" ht="12"/>
+    <row r="718" ht="12"/>
+    <row r="719" ht="12"/>
+    <row r="720" ht="12"/>
+    <row r="721" ht="12"/>
+    <row r="722" ht="12"/>
+    <row r="723" ht="12"/>
+    <row r="724" ht="12"/>
+    <row r="725" ht="12"/>
+    <row r="726" ht="12"/>
+    <row r="727" ht="12"/>
+    <row r="728" ht="12"/>
+    <row r="729" ht="12"/>
+    <row r="730" ht="12"/>
+    <row r="731" ht="12"/>
+    <row r="732" ht="12"/>
+    <row r="733" ht="12"/>
+    <row r="734" ht="12"/>
+    <row r="735" ht="12"/>
+    <row r="736" ht="12"/>
+    <row r="737" ht="12"/>
+    <row r="738" ht="12"/>
+    <row r="739" ht="12"/>
+    <row r="740" ht="12"/>
+    <row r="741" ht="12"/>
+    <row r="742" ht="12"/>
+    <row r="743" ht="12"/>
+    <row r="744" ht="12"/>
+    <row r="745" ht="12"/>
+    <row r="746" ht="12"/>
+    <row r="747" ht="12"/>
+    <row r="748" ht="12"/>
+    <row r="749" ht="12"/>
+    <row r="750" ht="12"/>
+    <row r="751" ht="12"/>
+    <row r="752" ht="12"/>
+    <row r="753" ht="12"/>
+    <row r="754" ht="12"/>
+    <row r="755" ht="12"/>
+    <row r="756" ht="12"/>
+    <row r="757" ht="12"/>
+    <row r="758" ht="12"/>
+    <row r="759" ht="12"/>
+    <row r="760" ht="12"/>
+    <row r="761" ht="12"/>
+    <row r="762" ht="12"/>
+    <row r="763" ht="12"/>
+    <row r="764" ht="12"/>
+    <row r="765" ht="12"/>
+    <row r="766" ht="12"/>
+    <row r="767" ht="12"/>
+    <row r="768" ht="12"/>
+    <row r="769" ht="12"/>
+    <row r="770" ht="12"/>
+    <row r="771" ht="12"/>
+    <row r="772" ht="12"/>
+    <row r="773" ht="12"/>
+    <row r="774" ht="12"/>
+    <row r="775" ht="12"/>
+    <row r="776" ht="12"/>
+    <row r="777" ht="12"/>
+    <row r="778" ht="12"/>
+    <row r="779" ht="12"/>
+    <row r="780" ht="12"/>
+    <row r="781" ht="12"/>
+    <row r="782" ht="12"/>
+    <row r="783" ht="12"/>
+    <row r="784" ht="12"/>
+    <row r="785" ht="12"/>
+    <row r="786" ht="12"/>
+    <row r="787" ht="12"/>
+    <row r="788" ht="12"/>
+    <row r="789" ht="12"/>
+    <row r="790" ht="12"/>
+    <row r="791" ht="12"/>
+    <row r="792" ht="12"/>
+    <row r="793" ht="12"/>
+    <row r="794" ht="12"/>
+    <row r="795" ht="12"/>
+    <row r="796" ht="12"/>
+    <row r="797" ht="12"/>
+    <row r="798" ht="12"/>
+    <row r="799" ht="12"/>
+    <row r="800" ht="12"/>
+    <row r="801" ht="12"/>
+    <row r="802" ht="12"/>
+    <row r="803" ht="12"/>
+    <row r="804" ht="12"/>
+    <row r="805" ht="12"/>
+    <row r="806" ht="12"/>
+    <row r="807" ht="12"/>
+    <row r="808" ht="12"/>
+    <row r="809" ht="12"/>
+    <row r="810" ht="12"/>
+    <row r="811" ht="12"/>
+    <row r="812" ht="12"/>
+    <row r="813" ht="12"/>
+    <row r="814" ht="12"/>
+    <row r="815" ht="12"/>
+    <row r="816" ht="12"/>
+    <row r="817" ht="12"/>
+    <row r="818" ht="12"/>
+    <row r="819" ht="12"/>
+    <row r="820" ht="12"/>
+    <row r="821" ht="12"/>
+    <row r="822" ht="12"/>
+    <row r="823" ht="12"/>
+    <row r="824" ht="12"/>
+    <row r="825" ht="12"/>
+    <row r="826" ht="12"/>
+    <row r="827" ht="12"/>
+    <row r="828" ht="12"/>
+    <row r="829" ht="12"/>
+    <row r="830" ht="12"/>
+    <row r="831" ht="12"/>
+    <row r="832" ht="12"/>
+    <row r="833" ht="12"/>
+    <row r="834" ht="12"/>
+    <row r="835" ht="12"/>
+    <row r="836" ht="12"/>
+    <row r="837" ht="12"/>
+    <row r="838" ht="12"/>
+    <row r="839" ht="12"/>
+    <row r="840" ht="12"/>
+    <row r="841" ht="12"/>
+    <row r="842" ht="12"/>
+    <row r="843" ht="12"/>
+    <row r="844" ht="12"/>
+    <row r="845" ht="12"/>
+    <row r="846" ht="12"/>
+    <row r="847" ht="12"/>
+    <row r="848" ht="12"/>
+    <row r="849" ht="12"/>
+    <row r="850" ht="12"/>
+    <row r="851" ht="12"/>
+    <row r="852" ht="12"/>
+    <row r="853" ht="12"/>
+    <row r="854" ht="12"/>
+    <row r="855" ht="12"/>
+    <row r="856" ht="12"/>
+    <row r="857" ht="12"/>
+    <row r="858" ht="12"/>
+    <row r="859" ht="12"/>
+    <row r="860" ht="12"/>
+    <row r="861" ht="12"/>
+    <row r="862" ht="12"/>
+    <row r="863" ht="12"/>
+    <row r="864" ht="12"/>
+    <row r="865" ht="12"/>
+    <row r="866" ht="12"/>
+    <row r="867" ht="12"/>
+    <row r="868" ht="12"/>
+    <row r="869" ht="12"/>
+    <row r="870" ht="12"/>
+    <row r="871" ht="12"/>
+    <row r="872" ht="12"/>
+    <row r="873" ht="12"/>
+    <row r="874" ht="12"/>
+    <row r="875" ht="12"/>
+    <row r="876" ht="12"/>
+    <row r="877" ht="12"/>
+    <row r="878" ht="12"/>
+    <row r="879" ht="12"/>
+    <row r="880" ht="12"/>
+    <row r="881" ht="12"/>
+    <row r="882" ht="12"/>
+    <row r="883" ht="12"/>
+    <row r="884" ht="12"/>
+    <row r="885" ht="12"/>
+    <row r="886" ht="12"/>
+    <row r="887" ht="12"/>
+    <row r="888" ht="12"/>
+    <row r="889" ht="12"/>
+    <row r="890" ht="12"/>
+    <row r="891" ht="12"/>
+    <row r="892" ht="12"/>
+    <row r="893" ht="12"/>
+    <row r="894" ht="12"/>
+    <row r="895" ht="12"/>
+    <row r="896" ht="12"/>
+    <row r="897" ht="12"/>
+    <row r="898" ht="12"/>
+    <row r="899" ht="12"/>
+    <row r="900" ht="12"/>
+    <row r="901" ht="12"/>
+    <row r="902" ht="12"/>
+    <row r="903" ht="12"/>
+    <row r="904" ht="12"/>
+    <row r="905" ht="12"/>
+    <row r="906" ht="12"/>
+    <row r="907" ht="12"/>
+    <row r="908" ht="12"/>
+    <row r="909" ht="12"/>
+    <row r="910" ht="12"/>
+    <row r="911" ht="12"/>
+    <row r="912" ht="12"/>
+    <row r="913" ht="12"/>
+    <row r="914" ht="12"/>
+    <row r="915" ht="12"/>
+    <row r="916" ht="12"/>
+    <row r="917" ht="12"/>
+    <row r="918" ht="12"/>
+    <row r="919" ht="12"/>
+    <row r="920" ht="12"/>
+    <row r="921" ht="12"/>
+    <row r="922" ht="12"/>
+    <row r="923" ht="12"/>
+    <row r="924" ht="12"/>
+    <row r="925" ht="12"/>
+    <row r="926" ht="12"/>
+    <row r="927" ht="12"/>
+    <row r="928" ht="12"/>
+    <row r="929" ht="12"/>
+    <row r="930" ht="12"/>
+    <row r="931" ht="12"/>
+    <row r="932" ht="12"/>
+    <row r="933" ht="12"/>
+    <row r="934" ht="12"/>
+    <row r="935" ht="12"/>
+    <row r="936" ht="12"/>
+    <row r="937" ht="12"/>
+    <row r="938" ht="12"/>
+    <row r="939" ht="12"/>
+    <row r="940" ht="12"/>
+    <row r="941" ht="12"/>
+    <row r="942" ht="12"/>
+    <row r="943" ht="12"/>
+    <row r="944" ht="12"/>
+    <row r="945" ht="12"/>
+    <row r="946" ht="12"/>
+    <row r="947" ht="12"/>
+    <row r="948" ht="12"/>
+    <row r="949" ht="12"/>
+    <row r="950" ht="12"/>
+    <row r="951" ht="12"/>
+    <row r="952" ht="12"/>
+    <row r="953" ht="12"/>
+    <row r="954" ht="12"/>
+    <row r="955" ht="12"/>
+    <row r="956" ht="12"/>
+    <row r="957" ht="12"/>
+    <row r="958" ht="12"/>
+    <row r="959" ht="12"/>
+    <row r="960" ht="12"/>
+    <row r="961" ht="12"/>
+    <row r="962" ht="12"/>
+    <row r="963" ht="12"/>
+    <row r="964" ht="12"/>
+    <row r="965" ht="12"/>
+    <row r="966" ht="12"/>
+    <row r="967" ht="12"/>
+    <row r="968" ht="12"/>
+    <row r="969" ht="12"/>
+    <row r="970" ht="12"/>
+    <row r="971" ht="12"/>
+    <row r="972" ht="12"/>
+    <row r="973" ht="12"/>
+    <row r="974" ht="12"/>
+    <row r="975" ht="12"/>
+    <row r="976" ht="12"/>
+    <row r="977" ht="12"/>
+    <row r="978" ht="12"/>
+    <row r="979" ht="12"/>
+    <row r="980" ht="12"/>
+    <row r="981" ht="12"/>
+    <row r="982" ht="12"/>
+    <row r="983" ht="12"/>
+    <row r="984" ht="12"/>
+    <row r="985" ht="12"/>
+    <row r="986" ht="12"/>
+    <row r="987" ht="12"/>
+    <row r="988" ht="12"/>
+    <row r="989" ht="12"/>
+    <row r="990" ht="12"/>
+    <row r="991" ht="12"/>
+    <row r="992" ht="12"/>
+    <row r="993" ht="12"/>
+    <row r="994" ht="12"/>
+    <row r="995" ht="12"/>
+    <row r="996" ht="12"/>
+    <row r="997" ht="12"/>
+    <row r="998" ht="12"/>
+    <row r="999" ht="12"/>
+    <row r="1000" ht="12"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
@@ -8641,106 +8633,106 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
+    </row>
+    <row r="2" spans="1:4" ht="14">
       <c r="A2" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D2" s="27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" ht="14">
       <c r="A3" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D3" s="27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
     </row>
-    <row r="5" spans="1:4" ht="14">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
     </row>
-    <row r="6" spans="1:4" ht="14">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
     </row>
-    <row r="7" spans="1:4" ht="14">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="20"/>
       <c r="B7" s="21"/>
       <c r="C7" s="22"/>
       <c r="D7" s="19"/>
     </row>
-    <row r="8" spans="1:4" ht="14">
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
       <c r="D8" s="19"/>
     </row>
-    <row r="9" spans="1:4" ht="14">
+    <row r="9" spans="1:4" ht="13">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="14">
+    <row r="10" spans="1:4" ht="13">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="14">
+    <row r="11" spans="1:4" ht="13">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="14">
+    <row r="12" spans="1:4" ht="13">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="14">
+    <row r="13" spans="1:4" ht="13">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="14">
+    <row r="14" spans="1:4" ht="13">
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="14">
+    <row r="15" spans="1:4" ht="13">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="14">
+    <row r="16" spans="1:4" ht="13">
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="2:2" ht="14">
+    <row r="17" spans="2:2" ht="13">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:2" ht="14">
+    <row r="18" spans="2:2" ht="13">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="2:2" ht="14">
+    <row r="19" spans="2:2" ht="13">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:2" ht="14">
+    <row r="20" spans="2:2" ht="13">
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="2:2" ht="15.75" customHeight="1">
@@ -9343,802 +9335,807 @@
     <row r="220" spans="2:2" ht="15.75" customHeight="1">
       <c r="B220" s="4"/>
     </row>
-    <row r="221" spans="2:2" ht="13"/>
-    <row r="222" spans="2:2" ht="13"/>
-    <row r="223" spans="2:2" ht="13"/>
-    <row r="224" spans="2:2" ht="13"/>
-    <row r="225" ht="13"/>
-    <row r="226" ht="13"/>
-    <row r="227" ht="13"/>
-    <row r="228" ht="13"/>
-    <row r="229" ht="13"/>
-    <row r="230" ht="13"/>
-    <row r="231" ht="13"/>
-    <row r="232" ht="13"/>
-    <row r="233" ht="13"/>
-    <row r="234" ht="13"/>
-    <row r="235" ht="13"/>
-    <row r="236" ht="13"/>
-    <row r="237" ht="13"/>
-    <row r="238" ht="13"/>
-    <row r="239" ht="13"/>
-    <row r="240" ht="13"/>
-    <row r="241" ht="13"/>
-    <row r="242" ht="13"/>
-    <row r="243" ht="13"/>
-    <row r="244" ht="13"/>
-    <row r="245" ht="13"/>
-    <row r="246" ht="13"/>
-    <row r="247" ht="13"/>
-    <row r="248" ht="13"/>
-    <row r="249" ht="13"/>
-    <row r="250" ht="13"/>
-    <row r="251" ht="13"/>
-    <row r="252" ht="13"/>
-    <row r="253" ht="13"/>
-    <row r="254" ht="13"/>
-    <row r="255" ht="13"/>
-    <row r="256" ht="13"/>
-    <row r="257" ht="13"/>
-    <row r="258" ht="13"/>
-    <row r="259" ht="13"/>
-    <row r="260" ht="13"/>
-    <row r="261" ht="13"/>
-    <row r="262" ht="13"/>
-    <row r="263" ht="13"/>
-    <row r="264" ht="13"/>
-    <row r="265" ht="13"/>
-    <row r="266" ht="13"/>
-    <row r="267" ht="13"/>
-    <row r="268" ht="13"/>
-    <row r="269" ht="13"/>
-    <row r="270" ht="13"/>
-    <row r="271" ht="13"/>
-    <row r="272" ht="13"/>
-    <row r="273" ht="13"/>
-    <row r="274" ht="13"/>
-    <row r="275" ht="13"/>
-    <row r="276" ht="13"/>
-    <row r="277" ht="13"/>
-    <row r="278" ht="13"/>
-    <row r="279" ht="13"/>
-    <row r="280" ht="13"/>
-    <row r="281" ht="13"/>
-    <row r="282" ht="13"/>
-    <row r="283" ht="13"/>
-    <row r="284" ht="13"/>
-    <row r="285" ht="13"/>
-    <row r="286" ht="13"/>
-    <row r="287" ht="13"/>
-    <row r="288" ht="13"/>
-    <row r="289" ht="13"/>
-    <row r="290" ht="13"/>
-    <row r="291" ht="13"/>
-    <row r="292" ht="13"/>
-    <row r="293" ht="13"/>
-    <row r="294" ht="13"/>
-    <row r="295" ht="13"/>
-    <row r="296" ht="13"/>
-    <row r="297" ht="13"/>
-    <row r="298" ht="13"/>
-    <row r="299" ht="13"/>
-    <row r="300" ht="13"/>
-    <row r="301" ht="13"/>
-    <row r="302" ht="13"/>
-    <row r="303" ht="13"/>
-    <row r="304" ht="13"/>
-    <row r="305" ht="13"/>
-    <row r="306" ht="13"/>
-    <row r="307" ht="13"/>
-    <row r="308" ht="13"/>
-    <row r="309" ht="13"/>
-    <row r="310" ht="13"/>
-    <row r="311" ht="13"/>
-    <row r="312" ht="13"/>
-    <row r="313" ht="13"/>
-    <row r="314" ht="13"/>
-    <row r="315" ht="13"/>
-    <row r="316" ht="13"/>
-    <row r="317" ht="13"/>
-    <row r="318" ht="13"/>
-    <row r="319" ht="13"/>
-    <row r="320" ht="13"/>
-    <row r="321" ht="13"/>
-    <row r="322" ht="13"/>
-    <row r="323" ht="13"/>
-    <row r="324" ht="13"/>
-    <row r="325" ht="13"/>
-    <row r="326" ht="13"/>
-    <row r="327" ht="13"/>
-    <row r="328" ht="13"/>
-    <row r="329" ht="13"/>
-    <row r="330" ht="13"/>
-    <row r="331" ht="13"/>
-    <row r="332" ht="13"/>
-    <row r="333" ht="13"/>
-    <row r="334" ht="13"/>
-    <row r="335" ht="13"/>
-    <row r="336" ht="13"/>
-    <row r="337" ht="13"/>
-    <row r="338" ht="13"/>
-    <row r="339" ht="13"/>
-    <row r="340" ht="13"/>
-    <row r="341" ht="13"/>
-    <row r="342" ht="13"/>
-    <row r="343" ht="13"/>
-    <row r="344" ht="13"/>
-    <row r="345" ht="13"/>
-    <row r="346" ht="13"/>
-    <row r="347" ht="13"/>
-    <row r="348" ht="13"/>
-    <row r="349" ht="13"/>
-    <row r="350" ht="13"/>
-    <row r="351" ht="13"/>
-    <row r="352" ht="13"/>
-    <row r="353" ht="13"/>
-    <row r="354" ht="13"/>
-    <row r="355" ht="13"/>
-    <row r="356" ht="13"/>
-    <row r="357" ht="13"/>
-    <row r="358" ht="13"/>
-    <row r="359" ht="13"/>
-    <row r="360" ht="13"/>
-    <row r="361" ht="13"/>
-    <row r="362" ht="13"/>
-    <row r="363" ht="13"/>
-    <row r="364" ht="13"/>
-    <row r="365" ht="13"/>
-    <row r="366" ht="13"/>
-    <row r="367" ht="13"/>
-    <row r="368" ht="13"/>
-    <row r="369" ht="13"/>
-    <row r="370" ht="13"/>
-    <row r="371" ht="13"/>
-    <row r="372" ht="13"/>
-    <row r="373" ht="13"/>
-    <row r="374" ht="13"/>
-    <row r="375" ht="13"/>
-    <row r="376" ht="13"/>
-    <row r="377" ht="13"/>
-    <row r="378" ht="13"/>
-    <row r="379" ht="13"/>
-    <row r="380" ht="13"/>
-    <row r="381" ht="13"/>
-    <row r="382" ht="13"/>
-    <row r="383" ht="13"/>
-    <row r="384" ht="13"/>
-    <row r="385" ht="13"/>
-    <row r="386" ht="13"/>
-    <row r="387" ht="13"/>
-    <row r="388" ht="13"/>
-    <row r="389" ht="13"/>
-    <row r="390" ht="13"/>
-    <row r="391" ht="13"/>
-    <row r="392" ht="13"/>
-    <row r="393" ht="13"/>
-    <row r="394" ht="13"/>
-    <row r="395" ht="13"/>
-    <row r="396" ht="13"/>
-    <row r="397" ht="13"/>
-    <row r="398" ht="13"/>
-    <row r="399" ht="13"/>
-    <row r="400" ht="13"/>
-    <row r="401" ht="13"/>
-    <row r="402" ht="13"/>
-    <row r="403" ht="13"/>
-    <row r="404" ht="13"/>
-    <row r="405" ht="13"/>
-    <row r="406" ht="13"/>
-    <row r="407" ht="13"/>
-    <row r="408" ht="13"/>
-    <row r="409" ht="13"/>
-    <row r="410" ht="13"/>
-    <row r="411" ht="13"/>
-    <row r="412" ht="13"/>
-    <row r="413" ht="13"/>
-    <row r="414" ht="13"/>
-    <row r="415" ht="13"/>
-    <row r="416" ht="13"/>
-    <row r="417" ht="13"/>
-    <row r="418" ht="13"/>
-    <row r="419" ht="13"/>
-    <row r="420" ht="13"/>
-    <row r="421" ht="13"/>
-    <row r="422" ht="13"/>
-    <row r="423" ht="13"/>
-    <row r="424" ht="13"/>
-    <row r="425" ht="13"/>
-    <row r="426" ht="13"/>
-    <row r="427" ht="13"/>
-    <row r="428" ht="13"/>
-    <row r="429" ht="13"/>
-    <row r="430" ht="13"/>
-    <row r="431" ht="13"/>
-    <row r="432" ht="13"/>
-    <row r="433" ht="13"/>
-    <row r="434" ht="13"/>
-    <row r="435" ht="13"/>
-    <row r="436" ht="13"/>
-    <row r="437" ht="13"/>
-    <row r="438" ht="13"/>
-    <row r="439" ht="13"/>
-    <row r="440" ht="13"/>
-    <row r="441" ht="13"/>
-    <row r="442" ht="13"/>
-    <row r="443" ht="13"/>
-    <row r="444" ht="13"/>
-    <row r="445" ht="13"/>
-    <row r="446" ht="13"/>
-    <row r="447" ht="13"/>
-    <row r="448" ht="13"/>
-    <row r="449" ht="13"/>
-    <row r="450" ht="13"/>
-    <row r="451" ht="13"/>
-    <row r="452" ht="13"/>
-    <row r="453" ht="13"/>
-    <row r="454" ht="13"/>
-    <row r="455" ht="13"/>
-    <row r="456" ht="13"/>
-    <row r="457" ht="13"/>
-    <row r="458" ht="13"/>
-    <row r="459" ht="13"/>
-    <row r="460" ht="13"/>
-    <row r="461" ht="13"/>
-    <row r="462" ht="13"/>
-    <row r="463" ht="13"/>
-    <row r="464" ht="13"/>
-    <row r="465" ht="13"/>
-    <row r="466" ht="13"/>
-    <row r="467" ht="13"/>
-    <row r="468" ht="13"/>
-    <row r="469" ht="13"/>
-    <row r="470" ht="13"/>
-    <row r="471" ht="13"/>
-    <row r="472" ht="13"/>
-    <row r="473" ht="13"/>
-    <row r="474" ht="13"/>
-    <row r="475" ht="13"/>
-    <row r="476" ht="13"/>
-    <row r="477" ht="13"/>
-    <row r="478" ht="13"/>
-    <row r="479" ht="13"/>
-    <row r="480" ht="13"/>
-    <row r="481" ht="13"/>
-    <row r="482" ht="13"/>
-    <row r="483" ht="13"/>
-    <row r="484" ht="13"/>
-    <row r="485" ht="13"/>
-    <row r="486" ht="13"/>
-    <row r="487" ht="13"/>
-    <row r="488" ht="13"/>
-    <row r="489" ht="13"/>
-    <row r="490" ht="13"/>
-    <row r="491" ht="13"/>
-    <row r="492" ht="13"/>
-    <row r="493" ht="13"/>
-    <row r="494" ht="13"/>
-    <row r="495" ht="13"/>
-    <row r="496" ht="13"/>
-    <row r="497" ht="13"/>
-    <row r="498" ht="13"/>
-    <row r="499" ht="13"/>
-    <row r="500" ht="13"/>
-    <row r="501" ht="13"/>
-    <row r="502" ht="13"/>
-    <row r="503" ht="13"/>
-    <row r="504" ht="13"/>
-    <row r="505" ht="13"/>
-    <row r="506" ht="13"/>
-    <row r="507" ht="13"/>
-    <row r="508" ht="13"/>
-    <row r="509" ht="13"/>
-    <row r="510" ht="13"/>
-    <row r="511" ht="13"/>
-    <row r="512" ht="13"/>
-    <row r="513" ht="13"/>
-    <row r="514" ht="13"/>
-    <row r="515" ht="13"/>
-    <row r="516" ht="13"/>
-    <row r="517" ht="13"/>
-    <row r="518" ht="13"/>
-    <row r="519" ht="13"/>
-    <row r="520" ht="13"/>
-    <row r="521" ht="13"/>
-    <row r="522" ht="13"/>
-    <row r="523" ht="13"/>
-    <row r="524" ht="13"/>
-    <row r="525" ht="13"/>
-    <row r="526" ht="13"/>
-    <row r="527" ht="13"/>
-    <row r="528" ht="13"/>
-    <row r="529" ht="13"/>
-    <row r="530" ht="13"/>
-    <row r="531" ht="13"/>
-    <row r="532" ht="13"/>
-    <row r="533" ht="13"/>
-    <row r="534" ht="13"/>
-    <row r="535" ht="13"/>
-    <row r="536" ht="13"/>
-    <row r="537" ht="13"/>
-    <row r="538" ht="13"/>
-    <row r="539" ht="13"/>
-    <row r="540" ht="13"/>
-    <row r="541" ht="13"/>
-    <row r="542" ht="13"/>
-    <row r="543" ht="13"/>
-    <row r="544" ht="13"/>
-    <row r="545" ht="13"/>
-    <row r="546" ht="13"/>
-    <row r="547" ht="13"/>
-    <row r="548" ht="13"/>
-    <row r="549" ht="13"/>
-    <row r="550" ht="13"/>
-    <row r="551" ht="13"/>
-    <row r="552" ht="13"/>
-    <row r="553" ht="13"/>
-    <row r="554" ht="13"/>
-    <row r="555" ht="13"/>
-    <row r="556" ht="13"/>
-    <row r="557" ht="13"/>
-    <row r="558" ht="13"/>
-    <row r="559" ht="13"/>
-    <row r="560" ht="13"/>
-    <row r="561" ht="13"/>
-    <row r="562" ht="13"/>
-    <row r="563" ht="13"/>
-    <row r="564" ht="13"/>
-    <row r="565" ht="13"/>
-    <row r="566" ht="13"/>
-    <row r="567" ht="13"/>
-    <row r="568" ht="13"/>
-    <row r="569" ht="13"/>
-    <row r="570" ht="13"/>
-    <row r="571" ht="13"/>
-    <row r="572" ht="13"/>
-    <row r="573" ht="13"/>
-    <row r="574" ht="13"/>
-    <row r="575" ht="13"/>
-    <row r="576" ht="13"/>
-    <row r="577" ht="13"/>
-    <row r="578" ht="13"/>
-    <row r="579" ht="13"/>
-    <row r="580" ht="13"/>
-    <row r="581" ht="13"/>
-    <row r="582" ht="13"/>
-    <row r="583" ht="13"/>
-    <row r="584" ht="13"/>
-    <row r="585" ht="13"/>
-    <row r="586" ht="13"/>
-    <row r="587" ht="13"/>
-    <row r="588" ht="13"/>
-    <row r="589" ht="13"/>
-    <row r="590" ht="13"/>
-    <row r="591" ht="13"/>
-    <row r="592" ht="13"/>
-    <row r="593" ht="13"/>
-    <row r="594" ht="13"/>
-    <row r="595" ht="13"/>
-    <row r="596" ht="13"/>
-    <row r="597" ht="13"/>
-    <row r="598" ht="13"/>
-    <row r="599" ht="13"/>
-    <row r="600" ht="13"/>
-    <row r="601" ht="13"/>
-    <row r="602" ht="13"/>
-    <row r="603" ht="13"/>
-    <row r="604" ht="13"/>
-    <row r="605" ht="13"/>
-    <row r="606" ht="13"/>
-    <row r="607" ht="13"/>
-    <row r="608" ht="13"/>
-    <row r="609" ht="13"/>
-    <row r="610" ht="13"/>
-    <row r="611" ht="13"/>
-    <row r="612" ht="13"/>
-    <row r="613" ht="13"/>
-    <row r="614" ht="13"/>
-    <row r="615" ht="13"/>
-    <row r="616" ht="13"/>
-    <row r="617" ht="13"/>
-    <row r="618" ht="13"/>
-    <row r="619" ht="13"/>
-    <row r="620" ht="13"/>
-    <row r="621" ht="13"/>
-    <row r="622" ht="13"/>
-    <row r="623" ht="13"/>
-    <row r="624" ht="13"/>
-    <row r="625" ht="13"/>
-    <row r="626" ht="13"/>
-    <row r="627" ht="13"/>
-    <row r="628" ht="13"/>
-    <row r="629" ht="13"/>
-    <row r="630" ht="13"/>
-    <row r="631" ht="13"/>
-    <row r="632" ht="13"/>
-    <row r="633" ht="13"/>
-    <row r="634" ht="13"/>
-    <row r="635" ht="13"/>
-    <row r="636" ht="13"/>
-    <row r="637" ht="13"/>
-    <row r="638" ht="13"/>
-    <row r="639" ht="13"/>
-    <row r="640" ht="13"/>
-    <row r="641" ht="13"/>
-    <row r="642" ht="13"/>
-    <row r="643" ht="13"/>
-    <row r="644" ht="13"/>
-    <row r="645" ht="13"/>
-    <row r="646" ht="13"/>
-    <row r="647" ht="13"/>
-    <row r="648" ht="13"/>
-    <row r="649" ht="13"/>
-    <row r="650" ht="13"/>
-    <row r="651" ht="13"/>
-    <row r="652" ht="13"/>
-    <row r="653" ht="13"/>
-    <row r="654" ht="13"/>
-    <row r="655" ht="13"/>
-    <row r="656" ht="13"/>
-    <row r="657" ht="13"/>
-    <row r="658" ht="13"/>
-    <row r="659" ht="13"/>
-    <row r="660" ht="13"/>
-    <row r="661" ht="13"/>
-    <row r="662" ht="13"/>
-    <row r="663" ht="13"/>
-    <row r="664" ht="13"/>
-    <row r="665" ht="13"/>
-    <row r="666" ht="13"/>
-    <row r="667" ht="13"/>
-    <row r="668" ht="13"/>
-    <row r="669" ht="13"/>
-    <row r="670" ht="13"/>
-    <row r="671" ht="13"/>
-    <row r="672" ht="13"/>
-    <row r="673" ht="13"/>
-    <row r="674" ht="13"/>
-    <row r="675" ht="13"/>
-    <row r="676" ht="13"/>
-    <row r="677" ht="13"/>
-    <row r="678" ht="13"/>
-    <row r="679" ht="13"/>
-    <row r="680" ht="13"/>
-    <row r="681" ht="13"/>
-    <row r="682" ht="13"/>
-    <row r="683" ht="13"/>
-    <row r="684" ht="13"/>
-    <row r="685" ht="13"/>
-    <row r="686" ht="13"/>
-    <row r="687" ht="13"/>
-    <row r="688" ht="13"/>
-    <row r="689" ht="13"/>
-    <row r="690" ht="13"/>
-    <row r="691" ht="13"/>
-    <row r="692" ht="13"/>
-    <row r="693" ht="13"/>
-    <row r="694" ht="13"/>
-    <row r="695" ht="13"/>
-    <row r="696" ht="13"/>
-    <row r="697" ht="13"/>
-    <row r="698" ht="13"/>
-    <row r="699" ht="13"/>
-    <row r="700" ht="13"/>
-    <row r="701" ht="13"/>
-    <row r="702" ht="13"/>
-    <row r="703" ht="13"/>
-    <row r="704" ht="13"/>
-    <row r="705" ht="13"/>
-    <row r="706" ht="13"/>
-    <row r="707" ht="13"/>
-    <row r="708" ht="13"/>
-    <row r="709" ht="13"/>
-    <row r="710" ht="13"/>
-    <row r="711" ht="13"/>
-    <row r="712" ht="13"/>
-    <row r="713" ht="13"/>
-    <row r="714" ht="13"/>
-    <row r="715" ht="13"/>
-    <row r="716" ht="13"/>
-    <row r="717" ht="13"/>
-    <row r="718" ht="13"/>
-    <row r="719" ht="13"/>
-    <row r="720" ht="13"/>
-    <row r="721" ht="13"/>
-    <row r="722" ht="13"/>
-    <row r="723" ht="13"/>
-    <row r="724" ht="13"/>
-    <row r="725" ht="13"/>
-    <row r="726" ht="13"/>
-    <row r="727" ht="13"/>
-    <row r="728" ht="13"/>
-    <row r="729" ht="13"/>
-    <row r="730" ht="13"/>
-    <row r="731" ht="13"/>
-    <row r="732" ht="13"/>
-    <row r="733" ht="13"/>
-    <row r="734" ht="13"/>
-    <row r="735" ht="13"/>
-    <row r="736" ht="13"/>
-    <row r="737" ht="13"/>
-    <row r="738" ht="13"/>
-    <row r="739" ht="13"/>
-    <row r="740" ht="13"/>
-    <row r="741" ht="13"/>
-    <row r="742" ht="13"/>
-    <row r="743" ht="13"/>
-    <row r="744" ht="13"/>
-    <row r="745" ht="13"/>
-    <row r="746" ht="13"/>
-    <row r="747" ht="13"/>
-    <row r="748" ht="13"/>
-    <row r="749" ht="13"/>
-    <row r="750" ht="13"/>
-    <row r="751" ht="13"/>
-    <row r="752" ht="13"/>
-    <row r="753" ht="13"/>
-    <row r="754" ht="13"/>
-    <row r="755" ht="13"/>
-    <row r="756" ht="13"/>
-    <row r="757" ht="13"/>
-    <row r="758" ht="13"/>
-    <row r="759" ht="13"/>
-    <row r="760" ht="13"/>
-    <row r="761" ht="13"/>
-    <row r="762" ht="13"/>
-    <row r="763" ht="13"/>
-    <row r="764" ht="13"/>
-    <row r="765" ht="13"/>
-    <row r="766" ht="13"/>
-    <row r="767" ht="13"/>
-    <row r="768" ht="13"/>
-    <row r="769" ht="13"/>
-    <row r="770" ht="13"/>
-    <row r="771" ht="13"/>
-    <row r="772" ht="13"/>
-    <row r="773" ht="13"/>
-    <row r="774" ht="13"/>
-    <row r="775" ht="13"/>
-    <row r="776" ht="13"/>
-    <row r="777" ht="13"/>
-    <row r="778" ht="13"/>
-    <row r="779" ht="13"/>
-    <row r="780" ht="13"/>
-    <row r="781" ht="13"/>
-    <row r="782" ht="13"/>
-    <row r="783" ht="13"/>
-    <row r="784" ht="13"/>
-    <row r="785" ht="13"/>
-    <row r="786" ht="13"/>
-    <row r="787" ht="13"/>
-    <row r="788" ht="13"/>
-    <row r="789" ht="13"/>
-    <row r="790" ht="13"/>
-    <row r="791" ht="13"/>
-    <row r="792" ht="13"/>
-    <row r="793" ht="13"/>
-    <row r="794" ht="13"/>
-    <row r="795" ht="13"/>
-    <row r="796" ht="13"/>
-    <row r="797" ht="13"/>
-    <row r="798" ht="13"/>
-    <row r="799" ht="13"/>
-    <row r="800" ht="13"/>
-    <row r="801" ht="13"/>
-    <row r="802" ht="13"/>
-    <row r="803" ht="13"/>
-    <row r="804" ht="13"/>
-    <row r="805" ht="13"/>
-    <row r="806" ht="13"/>
-    <row r="807" ht="13"/>
-    <row r="808" ht="13"/>
-    <row r="809" ht="13"/>
-    <row r="810" ht="13"/>
-    <row r="811" ht="13"/>
-    <row r="812" ht="13"/>
-    <row r="813" ht="13"/>
-    <row r="814" ht="13"/>
-    <row r="815" ht="13"/>
-    <row r="816" ht="13"/>
-    <row r="817" ht="13"/>
-    <row r="818" ht="13"/>
-    <row r="819" ht="13"/>
-    <row r="820" ht="13"/>
-    <row r="821" ht="13"/>
-    <row r="822" ht="13"/>
-    <row r="823" ht="13"/>
-    <row r="824" ht="13"/>
-    <row r="825" ht="13"/>
-    <row r="826" ht="13"/>
-    <row r="827" ht="13"/>
-    <row r="828" ht="13"/>
-    <row r="829" ht="13"/>
-    <row r="830" ht="13"/>
-    <row r="831" ht="13"/>
-    <row r="832" ht="13"/>
-    <row r="833" ht="13"/>
-    <row r="834" ht="13"/>
-    <row r="835" ht="13"/>
-    <row r="836" ht="13"/>
-    <row r="837" ht="13"/>
-    <row r="838" ht="13"/>
-    <row r="839" ht="13"/>
-    <row r="840" ht="13"/>
-    <row r="841" ht="13"/>
-    <row r="842" ht="13"/>
-    <row r="843" ht="13"/>
-    <row r="844" ht="13"/>
-    <row r="845" ht="13"/>
-    <row r="846" ht="13"/>
-    <row r="847" ht="13"/>
-    <row r="848" ht="13"/>
-    <row r="849" ht="13"/>
-    <row r="850" ht="13"/>
-    <row r="851" ht="13"/>
-    <row r="852" ht="13"/>
-    <row r="853" ht="13"/>
-    <row r="854" ht="13"/>
-    <row r="855" ht="13"/>
-    <row r="856" ht="13"/>
-    <row r="857" ht="13"/>
-    <row r="858" ht="13"/>
-    <row r="859" ht="13"/>
-    <row r="860" ht="13"/>
-    <row r="861" ht="13"/>
-    <row r="862" ht="13"/>
-    <row r="863" ht="13"/>
-    <row r="864" ht="13"/>
-    <row r="865" ht="13"/>
-    <row r="866" ht="13"/>
-    <row r="867" ht="13"/>
-    <row r="868" ht="13"/>
-    <row r="869" ht="13"/>
-    <row r="870" ht="13"/>
-    <row r="871" ht="13"/>
-    <row r="872" ht="13"/>
-    <row r="873" ht="13"/>
-    <row r="874" ht="13"/>
-    <row r="875" ht="13"/>
-    <row r="876" ht="13"/>
-    <row r="877" ht="13"/>
-    <row r="878" ht="13"/>
-    <row r="879" ht="13"/>
-    <row r="880" ht="13"/>
-    <row r="881" ht="13"/>
-    <row r="882" ht="13"/>
-    <row r="883" ht="13"/>
-    <row r="884" ht="13"/>
-    <row r="885" ht="13"/>
-    <row r="886" ht="13"/>
-    <row r="887" ht="13"/>
-    <row r="888" ht="13"/>
-    <row r="889" ht="13"/>
-    <row r="890" ht="13"/>
-    <row r="891" ht="13"/>
-    <row r="892" ht="13"/>
-    <row r="893" ht="13"/>
-    <row r="894" ht="13"/>
-    <row r="895" ht="13"/>
-    <row r="896" ht="13"/>
-    <row r="897" ht="13"/>
-    <row r="898" ht="13"/>
-    <row r="899" ht="13"/>
-    <row r="900" ht="13"/>
-    <row r="901" ht="13"/>
-    <row r="902" ht="13"/>
-    <row r="903" ht="13"/>
-    <row r="904" ht="13"/>
-    <row r="905" ht="13"/>
-    <row r="906" ht="13"/>
-    <row r="907" ht="13"/>
-    <row r="908" ht="13"/>
-    <row r="909" ht="13"/>
-    <row r="910" ht="13"/>
-    <row r="911" ht="13"/>
-    <row r="912" ht="13"/>
-    <row r="913" ht="13"/>
-    <row r="914" ht="13"/>
-    <row r="915" ht="13"/>
-    <row r="916" ht="13"/>
-    <row r="917" ht="13"/>
-    <row r="918" ht="13"/>
-    <row r="919" ht="13"/>
-    <row r="920" ht="13"/>
-    <row r="921" ht="13"/>
-    <row r="922" ht="13"/>
-    <row r="923" ht="13"/>
-    <row r="924" ht="13"/>
-    <row r="925" ht="13"/>
-    <row r="926" ht="13"/>
-    <row r="927" ht="13"/>
-    <row r="928" ht="13"/>
-    <row r="929" ht="13"/>
-    <row r="930" ht="13"/>
-    <row r="931" ht="13"/>
-    <row r="932" ht="13"/>
-    <row r="933" ht="13"/>
-    <row r="934" ht="13"/>
-    <row r="935" ht="13"/>
-    <row r="936" ht="13"/>
-    <row r="937" ht="13"/>
-    <row r="938" ht="13"/>
-    <row r="939" ht="13"/>
-    <row r="940" ht="13"/>
-    <row r="941" ht="13"/>
-    <row r="942" ht="13"/>
-    <row r="943" ht="13"/>
-    <row r="944" ht="13"/>
-    <row r="945" ht="13"/>
-    <row r="946" ht="13"/>
-    <row r="947" ht="13"/>
-    <row r="948" ht="13"/>
-    <row r="949" ht="13"/>
-    <row r="950" ht="13"/>
-    <row r="951" ht="13"/>
-    <row r="952" ht="13"/>
-    <row r="953" ht="13"/>
-    <row r="954" ht="13"/>
-    <row r="955" ht="13"/>
-    <row r="956" ht="13"/>
-    <row r="957" ht="13"/>
-    <row r="958" ht="13"/>
-    <row r="959" ht="13"/>
-    <row r="960" ht="13"/>
-    <row r="961" ht="13"/>
-    <row r="962" ht="13"/>
-    <row r="963" ht="13"/>
-    <row r="964" ht="13"/>
-    <row r="965" ht="13"/>
-    <row r="966" ht="13"/>
-    <row r="967" ht="13"/>
-    <row r="968" ht="13"/>
-    <row r="969" ht="13"/>
-    <row r="970" ht="13"/>
-    <row r="971" ht="13"/>
-    <row r="972" ht="13"/>
-    <row r="973" ht="13"/>
-    <row r="974" ht="13"/>
-    <row r="975" ht="13"/>
-    <row r="976" ht="13"/>
-    <row r="977" ht="13"/>
-    <row r="978" ht="13"/>
-    <row r="979" ht="13"/>
-    <row r="980" ht="13"/>
-    <row r="981" ht="13"/>
-    <row r="982" ht="13"/>
-    <row r="983" ht="13"/>
-    <row r="984" ht="13"/>
-    <row r="985" ht="13"/>
-    <row r="986" ht="13"/>
-    <row r="987" ht="13"/>
-    <row r="988" ht="13"/>
-    <row r="989" ht="13"/>
-    <row r="990" ht="13"/>
-    <row r="991" ht="13"/>
-    <row r="992" ht="13"/>
-    <row r="993" ht="13"/>
-    <row r="994" ht="13"/>
-    <row r="995" ht="13"/>
-    <row r="996" ht="13"/>
-    <row r="997" ht="13"/>
-    <row r="998" ht="13"/>
-    <row r="999" ht="13"/>
-    <row r="1000" ht="13"/>
+    <row r="221" spans="2:2" ht="12"/>
+    <row r="222" spans="2:2" ht="12"/>
+    <row r="223" spans="2:2" ht="12"/>
+    <row r="224" spans="2:2" ht="12"/>
+    <row r="225" ht="12"/>
+    <row r="226" ht="12"/>
+    <row r="227" ht="12"/>
+    <row r="228" ht="12"/>
+    <row r="229" ht="12"/>
+    <row r="230" ht="12"/>
+    <row r="231" ht="12"/>
+    <row r="232" ht="12"/>
+    <row r="233" ht="12"/>
+    <row r="234" ht="12"/>
+    <row r="235" ht="12"/>
+    <row r="236" ht="12"/>
+    <row r="237" ht="12"/>
+    <row r="238" ht="12"/>
+    <row r="239" ht="12"/>
+    <row r="240" ht="12"/>
+    <row r="241" ht="12"/>
+    <row r="242" ht="12"/>
+    <row r="243" ht="12"/>
+    <row r="244" ht="12"/>
+    <row r="245" ht="12"/>
+    <row r="246" ht="12"/>
+    <row r="247" ht="12"/>
+    <row r="248" ht="12"/>
+    <row r="249" ht="12"/>
+    <row r="250" ht="12"/>
+    <row r="251" ht="12"/>
+    <row r="252" ht="12"/>
+    <row r="253" ht="12"/>
+    <row r="254" ht="12"/>
+    <row r="255" ht="12"/>
+    <row r="256" ht="12"/>
+    <row r="257" ht="12"/>
+    <row r="258" ht="12"/>
+    <row r="259" ht="12"/>
+    <row r="260" ht="12"/>
+    <row r="261" ht="12"/>
+    <row r="262" ht="12"/>
+    <row r="263" ht="12"/>
+    <row r="264" ht="12"/>
+    <row r="265" ht="12"/>
+    <row r="266" ht="12"/>
+    <row r="267" ht="12"/>
+    <row r="268" ht="12"/>
+    <row r="269" ht="12"/>
+    <row r="270" ht="12"/>
+    <row r="271" ht="12"/>
+    <row r="272" ht="12"/>
+    <row r="273" ht="12"/>
+    <row r="274" ht="12"/>
+    <row r="275" ht="12"/>
+    <row r="276" ht="12"/>
+    <row r="277" ht="12"/>
+    <row r="278" ht="12"/>
+    <row r="279" ht="12"/>
+    <row r="280" ht="12"/>
+    <row r="281" ht="12"/>
+    <row r="282" ht="12"/>
+    <row r="283" ht="12"/>
+    <row r="284" ht="12"/>
+    <row r="285" ht="12"/>
+    <row r="286" ht="12"/>
+    <row r="287" ht="12"/>
+    <row r="288" ht="12"/>
+    <row r="289" ht="12"/>
+    <row r="290" ht="12"/>
+    <row r="291" ht="12"/>
+    <row r="292" ht="12"/>
+    <row r="293" ht="12"/>
+    <row r="294" ht="12"/>
+    <row r="295" ht="12"/>
+    <row r="296" ht="12"/>
+    <row r="297" ht="12"/>
+    <row r="298" ht="12"/>
+    <row r="299" ht="12"/>
+    <row r="300" ht="12"/>
+    <row r="301" ht="12"/>
+    <row r="302" ht="12"/>
+    <row r="303" ht="12"/>
+    <row r="304" ht="12"/>
+    <row r="305" ht="12"/>
+    <row r="306" ht="12"/>
+    <row r="307" ht="12"/>
+    <row r="308" ht="12"/>
+    <row r="309" ht="12"/>
+    <row r="310" ht="12"/>
+    <row r="311" ht="12"/>
+    <row r="312" ht="12"/>
+    <row r="313" ht="12"/>
+    <row r="314" ht="12"/>
+    <row r="315" ht="12"/>
+    <row r="316" ht="12"/>
+    <row r="317" ht="12"/>
+    <row r="318" ht="12"/>
+    <row r="319" ht="12"/>
+    <row r="320" ht="12"/>
+    <row r="321" ht="12"/>
+    <row r="322" ht="12"/>
+    <row r="323" ht="12"/>
+    <row r="324" ht="12"/>
+    <row r="325" ht="12"/>
+    <row r="326" ht="12"/>
+    <row r="327" ht="12"/>
+    <row r="328" ht="12"/>
+    <row r="329" ht="12"/>
+    <row r="330" ht="12"/>
+    <row r="331" ht="12"/>
+    <row r="332" ht="12"/>
+    <row r="333" ht="12"/>
+    <row r="334" ht="12"/>
+    <row r="335" ht="12"/>
+    <row r="336" ht="12"/>
+    <row r="337" ht="12"/>
+    <row r="338" ht="12"/>
+    <row r="339" ht="12"/>
+    <row r="340" ht="12"/>
+    <row r="341" ht="12"/>
+    <row r="342" ht="12"/>
+    <row r="343" ht="12"/>
+    <row r="344" ht="12"/>
+    <row r="345" ht="12"/>
+    <row r="346" ht="12"/>
+    <row r="347" ht="12"/>
+    <row r="348" ht="12"/>
+    <row r="349" ht="12"/>
+    <row r="350" ht="12"/>
+    <row r="351" ht="12"/>
+    <row r="352" ht="12"/>
+    <row r="353" ht="12"/>
+    <row r="354" ht="12"/>
+    <row r="355" ht="12"/>
+    <row r="356" ht="12"/>
+    <row r="357" ht="12"/>
+    <row r="358" ht="12"/>
+    <row r="359" ht="12"/>
+    <row r="360" ht="12"/>
+    <row r="361" ht="12"/>
+    <row r="362" ht="12"/>
+    <row r="363" ht="12"/>
+    <row r="364" ht="12"/>
+    <row r="365" ht="12"/>
+    <row r="366" ht="12"/>
+    <row r="367" ht="12"/>
+    <row r="368" ht="12"/>
+    <row r="369" ht="12"/>
+    <row r="370" ht="12"/>
+    <row r="371" ht="12"/>
+    <row r="372" ht="12"/>
+    <row r="373" ht="12"/>
+    <row r="374" ht="12"/>
+    <row r="375" ht="12"/>
+    <row r="376" ht="12"/>
+    <row r="377" ht="12"/>
+    <row r="378" ht="12"/>
+    <row r="379" ht="12"/>
+    <row r="380" ht="12"/>
+    <row r="381" ht="12"/>
+    <row r="382" ht="12"/>
+    <row r="383" ht="12"/>
+    <row r="384" ht="12"/>
+    <row r="385" ht="12"/>
+    <row r="386" ht="12"/>
+    <row r="387" ht="12"/>
+    <row r="388" ht="12"/>
+    <row r="389" ht="12"/>
+    <row r="390" ht="12"/>
+    <row r="391" ht="12"/>
+    <row r="392" ht="12"/>
+    <row r="393" ht="12"/>
+    <row r="394" ht="12"/>
+    <row r="395" ht="12"/>
+    <row r="396" ht="12"/>
+    <row r="397" ht="12"/>
+    <row r="398" ht="12"/>
+    <row r="399" ht="12"/>
+    <row r="400" ht="12"/>
+    <row r="401" ht="12"/>
+    <row r="402" ht="12"/>
+    <row r="403" ht="12"/>
+    <row r="404" ht="12"/>
+    <row r="405" ht="12"/>
+    <row r="406" ht="12"/>
+    <row r="407" ht="12"/>
+    <row r="408" ht="12"/>
+    <row r="409" ht="12"/>
+    <row r="410" ht="12"/>
+    <row r="411" ht="12"/>
+    <row r="412" ht="12"/>
+    <row r="413" ht="12"/>
+    <row r="414" ht="12"/>
+    <row r="415" ht="12"/>
+    <row r="416" ht="12"/>
+    <row r="417" ht="12"/>
+    <row r="418" ht="12"/>
+    <row r="419" ht="12"/>
+    <row r="420" ht="12"/>
+    <row r="421" ht="12"/>
+    <row r="422" ht="12"/>
+    <row r="423" ht="12"/>
+    <row r="424" ht="12"/>
+    <row r="425" ht="12"/>
+    <row r="426" ht="12"/>
+    <row r="427" ht="12"/>
+    <row r="428" ht="12"/>
+    <row r="429" ht="12"/>
+    <row r="430" ht="12"/>
+    <row r="431" ht="12"/>
+    <row r="432" ht="12"/>
+    <row r="433" ht="12"/>
+    <row r="434" ht="12"/>
+    <row r="435" ht="12"/>
+    <row r="436" ht="12"/>
+    <row r="437" ht="12"/>
+    <row r="438" ht="12"/>
+    <row r="439" ht="12"/>
+    <row r="440" ht="12"/>
+    <row r="441" ht="12"/>
+    <row r="442" ht="12"/>
+    <row r="443" ht="12"/>
+    <row r="444" ht="12"/>
+    <row r="445" ht="12"/>
+    <row r="446" ht="12"/>
+    <row r="447" ht="12"/>
+    <row r="448" ht="12"/>
+    <row r="449" ht="12"/>
+    <row r="450" ht="12"/>
+    <row r="451" ht="12"/>
+    <row r="452" ht="12"/>
+    <row r="453" ht="12"/>
+    <row r="454" ht="12"/>
+    <row r="455" ht="12"/>
+    <row r="456" ht="12"/>
+    <row r="457" ht="12"/>
+    <row r="458" ht="12"/>
+    <row r="459" ht="12"/>
+    <row r="460" ht="12"/>
+    <row r="461" ht="12"/>
+    <row r="462" ht="12"/>
+    <row r="463" ht="12"/>
+    <row r="464" ht="12"/>
+    <row r="465" ht="12"/>
+    <row r="466" ht="12"/>
+    <row r="467" ht="12"/>
+    <row r="468" ht="12"/>
+    <row r="469" ht="12"/>
+    <row r="470" ht="12"/>
+    <row r="471" ht="12"/>
+    <row r="472" ht="12"/>
+    <row r="473" ht="12"/>
+    <row r="474" ht="12"/>
+    <row r="475" ht="12"/>
+    <row r="476" ht="12"/>
+    <row r="477" ht="12"/>
+    <row r="478" ht="12"/>
+    <row r="479" ht="12"/>
+    <row r="480" ht="12"/>
+    <row r="481" ht="12"/>
+    <row r="482" ht="12"/>
+    <row r="483" ht="12"/>
+    <row r="484" ht="12"/>
+    <row r="485" ht="12"/>
+    <row r="486" ht="12"/>
+    <row r="487" ht="12"/>
+    <row r="488" ht="12"/>
+    <row r="489" ht="12"/>
+    <row r="490" ht="12"/>
+    <row r="491" ht="12"/>
+    <row r="492" ht="12"/>
+    <row r="493" ht="12"/>
+    <row r="494" ht="12"/>
+    <row r="495" ht="12"/>
+    <row r="496" ht="12"/>
+    <row r="497" ht="12"/>
+    <row r="498" ht="12"/>
+    <row r="499" ht="12"/>
+    <row r="500" ht="12"/>
+    <row r="501" ht="12"/>
+    <row r="502" ht="12"/>
+    <row r="503" ht="12"/>
+    <row r="504" ht="12"/>
+    <row r="505" ht="12"/>
+    <row r="506" ht="12"/>
+    <row r="507" ht="12"/>
+    <row r="508" ht="12"/>
+    <row r="509" ht="12"/>
+    <row r="510" ht="12"/>
+    <row r="511" ht="12"/>
+    <row r="512" ht="12"/>
+    <row r="513" ht="12"/>
+    <row r="514" ht="12"/>
+    <row r="515" ht="12"/>
+    <row r="516" ht="12"/>
+    <row r="517" ht="12"/>
+    <row r="518" ht="12"/>
+    <row r="519" ht="12"/>
+    <row r="520" ht="12"/>
+    <row r="521" ht="12"/>
+    <row r="522" ht="12"/>
+    <row r="523" ht="12"/>
+    <row r="524" ht="12"/>
+    <row r="525" ht="12"/>
+    <row r="526" ht="12"/>
+    <row r="527" ht="12"/>
+    <row r="528" ht="12"/>
+    <row r="529" ht="12"/>
+    <row r="530" ht="12"/>
+    <row r="531" ht="12"/>
+    <row r="532" ht="12"/>
+    <row r="533" ht="12"/>
+    <row r="534" ht="12"/>
+    <row r="535" ht="12"/>
+    <row r="536" ht="12"/>
+    <row r="537" ht="12"/>
+    <row r="538" ht="12"/>
+    <row r="539" ht="12"/>
+    <row r="540" ht="12"/>
+    <row r="541" ht="12"/>
+    <row r="542" ht="12"/>
+    <row r="543" ht="12"/>
+    <row r="544" ht="12"/>
+    <row r="545" ht="12"/>
+    <row r="546" ht="12"/>
+    <row r="547" ht="12"/>
+    <row r="548" ht="12"/>
+    <row r="549" ht="12"/>
+    <row r="550" ht="12"/>
+    <row r="551" ht="12"/>
+    <row r="552" ht="12"/>
+    <row r="553" ht="12"/>
+    <row r="554" ht="12"/>
+    <row r="555" ht="12"/>
+    <row r="556" ht="12"/>
+    <row r="557" ht="12"/>
+    <row r="558" ht="12"/>
+    <row r="559" ht="12"/>
+    <row r="560" ht="12"/>
+    <row r="561" ht="12"/>
+    <row r="562" ht="12"/>
+    <row r="563" ht="12"/>
+    <row r="564" ht="12"/>
+    <row r="565" ht="12"/>
+    <row r="566" ht="12"/>
+    <row r="567" ht="12"/>
+    <row r="568" ht="12"/>
+    <row r="569" ht="12"/>
+    <row r="570" ht="12"/>
+    <row r="571" ht="12"/>
+    <row r="572" ht="12"/>
+    <row r="573" ht="12"/>
+    <row r="574" ht="12"/>
+    <row r="575" ht="12"/>
+    <row r="576" ht="12"/>
+    <row r="577" ht="12"/>
+    <row r="578" ht="12"/>
+    <row r="579" ht="12"/>
+    <row r="580" ht="12"/>
+    <row r="581" ht="12"/>
+    <row r="582" ht="12"/>
+    <row r="583" ht="12"/>
+    <row r="584" ht="12"/>
+    <row r="585" ht="12"/>
+    <row r="586" ht="12"/>
+    <row r="587" ht="12"/>
+    <row r="588" ht="12"/>
+    <row r="589" ht="12"/>
+    <row r="590" ht="12"/>
+    <row r="591" ht="12"/>
+    <row r="592" ht="12"/>
+    <row r="593" ht="12"/>
+    <row r="594" ht="12"/>
+    <row r="595" ht="12"/>
+    <row r="596" ht="12"/>
+    <row r="597" ht="12"/>
+    <row r="598" ht="12"/>
+    <row r="599" ht="12"/>
+    <row r="600" ht="12"/>
+    <row r="601" ht="12"/>
+    <row r="602" ht="12"/>
+    <row r="603" ht="12"/>
+    <row r="604" ht="12"/>
+    <row r="605" ht="12"/>
+    <row r="606" ht="12"/>
+    <row r="607" ht="12"/>
+    <row r="608" ht="12"/>
+    <row r="609" ht="12"/>
+    <row r="610" ht="12"/>
+    <row r="611" ht="12"/>
+    <row r="612" ht="12"/>
+    <row r="613" ht="12"/>
+    <row r="614" ht="12"/>
+    <row r="615" ht="12"/>
+    <row r="616" ht="12"/>
+    <row r="617" ht="12"/>
+    <row r="618" ht="12"/>
+    <row r="619" ht="12"/>
+    <row r="620" ht="12"/>
+    <row r="621" ht="12"/>
+    <row r="622" ht="12"/>
+    <row r="623" ht="12"/>
+    <row r="624" ht="12"/>
+    <row r="625" ht="12"/>
+    <row r="626" ht="12"/>
+    <row r="627" ht="12"/>
+    <row r="628" ht="12"/>
+    <row r="629" ht="12"/>
+    <row r="630" ht="12"/>
+    <row r="631" ht="12"/>
+    <row r="632" ht="12"/>
+    <row r="633" ht="12"/>
+    <row r="634" ht="12"/>
+    <row r="635" ht="12"/>
+    <row r="636" ht="12"/>
+    <row r="637" ht="12"/>
+    <row r="638" ht="12"/>
+    <row r="639" ht="12"/>
+    <row r="640" ht="12"/>
+    <row r="641" ht="12"/>
+    <row r="642" ht="12"/>
+    <row r="643" ht="12"/>
+    <row r="644" ht="12"/>
+    <row r="645" ht="12"/>
+    <row r="646" ht="12"/>
+    <row r="647" ht="12"/>
+    <row r="648" ht="12"/>
+    <row r="649" ht="12"/>
+    <row r="650" ht="12"/>
+    <row r="651" ht="12"/>
+    <row r="652" ht="12"/>
+    <row r="653" ht="12"/>
+    <row r="654" ht="12"/>
+    <row r="655" ht="12"/>
+    <row r="656" ht="12"/>
+    <row r="657" ht="12"/>
+    <row r="658" ht="12"/>
+    <row r="659" ht="12"/>
+    <row r="660" ht="12"/>
+    <row r="661" ht="12"/>
+    <row r="662" ht="12"/>
+    <row r="663" ht="12"/>
+    <row r="664" ht="12"/>
+    <row r="665" ht="12"/>
+    <row r="666" ht="12"/>
+    <row r="667" ht="12"/>
+    <row r="668" ht="12"/>
+    <row r="669" ht="12"/>
+    <row r="670" ht="12"/>
+    <row r="671" ht="12"/>
+    <row r="672" ht="12"/>
+    <row r="673" ht="12"/>
+    <row r="674" ht="12"/>
+    <row r="675" ht="12"/>
+    <row r="676" ht="12"/>
+    <row r="677" ht="12"/>
+    <row r="678" ht="12"/>
+    <row r="679" ht="12"/>
+    <row r="680" ht="12"/>
+    <row r="681" ht="12"/>
+    <row r="682" ht="12"/>
+    <row r="683" ht="12"/>
+    <row r="684" ht="12"/>
+    <row r="685" ht="12"/>
+    <row r="686" ht="12"/>
+    <row r="687" ht="12"/>
+    <row r="688" ht="12"/>
+    <row r="689" ht="12"/>
+    <row r="690" ht="12"/>
+    <row r="691" ht="12"/>
+    <row r="692" ht="12"/>
+    <row r="693" ht="12"/>
+    <row r="694" ht="12"/>
+    <row r="695" ht="12"/>
+    <row r="696" ht="12"/>
+    <row r="697" ht="12"/>
+    <row r="698" ht="12"/>
+    <row r="699" ht="12"/>
+    <row r="700" ht="12"/>
+    <row r="701" ht="12"/>
+    <row r="702" ht="12"/>
+    <row r="703" ht="12"/>
+    <row r="704" ht="12"/>
+    <row r="705" ht="12"/>
+    <row r="706" ht="12"/>
+    <row r="707" ht="12"/>
+    <row r="708" ht="12"/>
+    <row r="709" ht="12"/>
+    <row r="710" ht="12"/>
+    <row r="711" ht="12"/>
+    <row r="712" ht="12"/>
+    <row r="713" ht="12"/>
+    <row r="714" ht="12"/>
+    <row r="715" ht="12"/>
+    <row r="716" ht="12"/>
+    <row r="717" ht="12"/>
+    <row r="718" ht="12"/>
+    <row r="719" ht="12"/>
+    <row r="720" ht="12"/>
+    <row r="721" ht="12"/>
+    <row r="722" ht="12"/>
+    <row r="723" ht="12"/>
+    <row r="724" ht="12"/>
+    <row r="725" ht="12"/>
+    <row r="726" ht="12"/>
+    <row r="727" ht="12"/>
+    <row r="728" ht="12"/>
+    <row r="729" ht="12"/>
+    <row r="730" ht="12"/>
+    <row r="731" ht="12"/>
+    <row r="732" ht="12"/>
+    <row r="733" ht="12"/>
+    <row r="734" ht="12"/>
+    <row r="735" ht="12"/>
+    <row r="736" ht="12"/>
+    <row r="737" ht="12"/>
+    <row r="738" ht="12"/>
+    <row r="739" ht="12"/>
+    <row r="740" ht="12"/>
+    <row r="741" ht="12"/>
+    <row r="742" ht="12"/>
+    <row r="743" ht="12"/>
+    <row r="744" ht="12"/>
+    <row r="745" ht="12"/>
+    <row r="746" ht="12"/>
+    <row r="747" ht="12"/>
+    <row r="748" ht="12"/>
+    <row r="749" ht="12"/>
+    <row r="750" ht="12"/>
+    <row r="751" ht="12"/>
+    <row r="752" ht="12"/>
+    <row r="753" ht="12"/>
+    <row r="754" ht="12"/>
+    <row r="755" ht="12"/>
+    <row r="756" ht="12"/>
+    <row r="757" ht="12"/>
+    <row r="758" ht="12"/>
+    <row r="759" ht="12"/>
+    <row r="760" ht="12"/>
+    <row r="761" ht="12"/>
+    <row r="762" ht="12"/>
+    <row r="763" ht="12"/>
+    <row r="764" ht="12"/>
+    <row r="765" ht="12"/>
+    <row r="766" ht="12"/>
+    <row r="767" ht="12"/>
+    <row r="768" ht="12"/>
+    <row r="769" ht="12"/>
+    <row r="770" ht="12"/>
+    <row r="771" ht="12"/>
+    <row r="772" ht="12"/>
+    <row r="773" ht="12"/>
+    <row r="774" ht="12"/>
+    <row r="775" ht="12"/>
+    <row r="776" ht="12"/>
+    <row r="777" ht="12"/>
+    <row r="778" ht="12"/>
+    <row r="779" ht="12"/>
+    <row r="780" ht="12"/>
+    <row r="781" ht="12"/>
+    <row r="782" ht="12"/>
+    <row r="783" ht="12"/>
+    <row r="784" ht="12"/>
+    <row r="785" ht="12"/>
+    <row r="786" ht="12"/>
+    <row r="787" ht="12"/>
+    <row r="788" ht="12"/>
+    <row r="789" ht="12"/>
+    <row r="790" ht="12"/>
+    <row r="791" ht="12"/>
+    <row r="792" ht="12"/>
+    <row r="793" ht="12"/>
+    <row r="794" ht="12"/>
+    <row r="795" ht="12"/>
+    <row r="796" ht="12"/>
+    <row r="797" ht="12"/>
+    <row r="798" ht="12"/>
+    <row r="799" ht="12"/>
+    <row r="800" ht="12"/>
+    <row r="801" ht="12"/>
+    <row r="802" ht="12"/>
+    <row r="803" ht="12"/>
+    <row r="804" ht="12"/>
+    <row r="805" ht="12"/>
+    <row r="806" ht="12"/>
+    <row r="807" ht="12"/>
+    <row r="808" ht="12"/>
+    <row r="809" ht="12"/>
+    <row r="810" ht="12"/>
+    <row r="811" ht="12"/>
+    <row r="812" ht="12"/>
+    <row r="813" ht="12"/>
+    <row r="814" ht="12"/>
+    <row r="815" ht="12"/>
+    <row r="816" ht="12"/>
+    <row r="817" ht="12"/>
+    <row r="818" ht="12"/>
+    <row r="819" ht="12"/>
+    <row r="820" ht="12"/>
+    <row r="821" ht="12"/>
+    <row r="822" ht="12"/>
+    <row r="823" ht="12"/>
+    <row r="824" ht="12"/>
+    <row r="825" ht="12"/>
+    <row r="826" ht="12"/>
+    <row r="827" ht="12"/>
+    <row r="828" ht="12"/>
+    <row r="829" ht="12"/>
+    <row r="830" ht="12"/>
+    <row r="831" ht="12"/>
+    <row r="832" ht="12"/>
+    <row r="833" ht="12"/>
+    <row r="834" ht="12"/>
+    <row r="835" ht="12"/>
+    <row r="836" ht="12"/>
+    <row r="837" ht="12"/>
+    <row r="838" ht="12"/>
+    <row r="839" ht="12"/>
+    <row r="840" ht="12"/>
+    <row r="841" ht="12"/>
+    <row r="842" ht="12"/>
+    <row r="843" ht="12"/>
+    <row r="844" ht="12"/>
+    <row r="845" ht="12"/>
+    <row r="846" ht="12"/>
+    <row r="847" ht="12"/>
+    <row r="848" ht="12"/>
+    <row r="849" ht="12"/>
+    <row r="850" ht="12"/>
+    <row r="851" ht="12"/>
+    <row r="852" ht="12"/>
+    <row r="853" ht="12"/>
+    <row r="854" ht="12"/>
+    <row r="855" ht="12"/>
+    <row r="856" ht="12"/>
+    <row r="857" ht="12"/>
+    <row r="858" ht="12"/>
+    <row r="859" ht="12"/>
+    <row r="860" ht="12"/>
+    <row r="861" ht="12"/>
+    <row r="862" ht="12"/>
+    <row r="863" ht="12"/>
+    <row r="864" ht="12"/>
+    <row r="865" ht="12"/>
+    <row r="866" ht="12"/>
+    <row r="867" ht="12"/>
+    <row r="868" ht="12"/>
+    <row r="869" ht="12"/>
+    <row r="870" ht="12"/>
+    <row r="871" ht="12"/>
+    <row r="872" ht="12"/>
+    <row r="873" ht="12"/>
+    <row r="874" ht="12"/>
+    <row r="875" ht="12"/>
+    <row r="876" ht="12"/>
+    <row r="877" ht="12"/>
+    <row r="878" ht="12"/>
+    <row r="879" ht="12"/>
+    <row r="880" ht="12"/>
+    <row r="881" ht="12"/>
+    <row r="882" ht="12"/>
+    <row r="883" ht="12"/>
+    <row r="884" ht="12"/>
+    <row r="885" ht="12"/>
+    <row r="886" ht="12"/>
+    <row r="887" ht="12"/>
+    <row r="888" ht="12"/>
+    <row r="889" ht="12"/>
+    <row r="890" ht="12"/>
+    <row r="891" ht="12"/>
+    <row r="892" ht="12"/>
+    <row r="893" ht="12"/>
+    <row r="894" ht="12"/>
+    <row r="895" ht="12"/>
+    <row r="896" ht="12"/>
+    <row r="897" ht="12"/>
+    <row r="898" ht="12"/>
+    <row r="899" ht="12"/>
+    <row r="900" ht="12"/>
+    <row r="901" ht="12"/>
+    <row r="902" ht="12"/>
+    <row r="903" ht="12"/>
+    <row r="904" ht="12"/>
+    <row r="905" ht="12"/>
+    <row r="906" ht="12"/>
+    <row r="907" ht="12"/>
+    <row r="908" ht="12"/>
+    <row r="909" ht="12"/>
+    <row r="910" ht="12"/>
+    <row r="911" ht="12"/>
+    <row r="912" ht="12"/>
+    <row r="913" ht="12"/>
+    <row r="914" ht="12"/>
+    <row r="915" ht="12"/>
+    <row r="916" ht="12"/>
+    <row r="917" ht="12"/>
+    <row r="918" ht="12"/>
+    <row r="919" ht="12"/>
+    <row r="920" ht="12"/>
+    <row r="921" ht="12"/>
+    <row r="922" ht="12"/>
+    <row r="923" ht="12"/>
+    <row r="924" ht="12"/>
+    <row r="925" ht="12"/>
+    <row r="926" ht="12"/>
+    <row r="927" ht="12"/>
+    <row r="928" ht="12"/>
+    <row r="929" ht="12"/>
+    <row r="930" ht="12"/>
+    <row r="931" ht="12"/>
+    <row r="932" ht="12"/>
+    <row r="933" ht="12"/>
+    <row r="934" ht="12"/>
+    <row r="935" ht="12"/>
+    <row r="936" ht="12"/>
+    <row r="937" ht="12"/>
+    <row r="938" ht="12"/>
+    <row r="939" ht="12"/>
+    <row r="940" ht="12"/>
+    <row r="941" ht="12"/>
+    <row r="942" ht="12"/>
+    <row r="943" ht="12"/>
+    <row r="944" ht="12"/>
+    <row r="945" ht="12"/>
+    <row r="946" ht="12"/>
+    <row r="947" ht="12"/>
+    <row r="948" ht="12"/>
+    <row r="949" ht="12"/>
+    <row r="950" ht="12"/>
+    <row r="951" ht="12"/>
+    <row r="952" ht="12"/>
+    <row r="953" ht="12"/>
+    <row r="954" ht="12"/>
+    <row r="955" ht="12"/>
+    <row r="956" ht="12"/>
+    <row r="957" ht="12"/>
+    <row r="958" ht="12"/>
+    <row r="959" ht="12"/>
+    <row r="960" ht="12"/>
+    <row r="961" ht="12"/>
+    <row r="962" ht="12"/>
+    <row r="963" ht="12"/>
+    <row r="964" ht="12"/>
+    <row r="965" ht="12"/>
+    <row r="966" ht="12"/>
+    <row r="967" ht="12"/>
+    <row r="968" ht="12"/>
+    <row r="969" ht="12"/>
+    <row r="970" ht="12"/>
+    <row r="971" ht="12"/>
+    <row r="972" ht="12"/>
+    <row r="973" ht="12"/>
+    <row r="974" ht="12"/>
+    <row r="975" ht="12"/>
+    <row r="976" ht="12"/>
+    <row r="977" ht="12"/>
+    <row r="978" ht="12"/>
+    <row r="979" ht="12"/>
+    <row r="980" ht="12"/>
+    <row r="981" ht="12"/>
+    <row r="982" ht="12"/>
+    <row r="983" ht="12"/>
+    <row r="984" ht="12"/>
+    <row r="985" ht="12"/>
+    <row r="986" ht="12"/>
+    <row r="987" ht="12"/>
+    <row r="988" ht="12"/>
+    <row r="989" ht="12"/>
+    <row r="990" ht="12"/>
+    <row r="991" ht="12"/>
+    <row r="992" ht="12"/>
+    <row r="993" ht="12"/>
+    <row r="994" ht="12"/>
+    <row r="995" ht="12"/>
+    <row r="996" ht="12"/>
+    <row r="997" ht="12"/>
+    <row r="998" ht="12"/>
+    <row r="999" ht="12"/>
+    <row r="1000" ht="12"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="H1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
@@ -10148,136 +10145,136 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14">
+    </row>
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="18">
         <v>26</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="18">
         <v>40</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="20">
         <v>41</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="20">
         <v>43</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="20">
         <v>45</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="13">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="14">
+    <row r="10" spans="1:4" ht="13">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="14">
+    <row r="11" spans="1:4" ht="13">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="14">
+    <row r="12" spans="1:4" ht="13">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="14">
+    <row r="13" spans="1:4" ht="13">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="14">
+    <row r="14" spans="1:4" ht="13">
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="14">
+    <row r="15" spans="1:4" ht="13">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="14">
+    <row r="16" spans="1:4" ht="13">
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="2:2" ht="14">
+    <row r="17" spans="2:2" ht="13">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:2" ht="14">
+    <row r="18" spans="2:2" ht="13">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="2:2" ht="14">
+    <row r="19" spans="2:2" ht="13">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:2" ht="14">
+    <row r="20" spans="2:2" ht="13">
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="2:2" ht="15.75" customHeight="1">
@@ -10880,788 +10877,793 @@
     <row r="220" spans="2:2" ht="15.75" customHeight="1">
       <c r="B220" s="4"/>
     </row>
-    <row r="221" spans="2:2" ht="13"/>
-    <row r="222" spans="2:2" ht="13"/>
-    <row r="223" spans="2:2" ht="13"/>
-    <row r="224" spans="2:2" ht="13"/>
-    <row r="225" ht="13"/>
-    <row r="226" ht="13"/>
-    <row r="227" ht="13"/>
-    <row r="228" ht="13"/>
-    <row r="229" ht="13"/>
-    <row r="230" ht="13"/>
-    <row r="231" ht="13"/>
-    <row r="232" ht="13"/>
-    <row r="233" ht="13"/>
-    <row r="234" ht="13"/>
-    <row r="235" ht="13"/>
-    <row r="236" ht="13"/>
-    <row r="237" ht="13"/>
-    <row r="238" ht="13"/>
-    <row r="239" ht="13"/>
-    <row r="240" ht="13"/>
-    <row r="241" ht="13"/>
-    <row r="242" ht="13"/>
-    <row r="243" ht="13"/>
-    <row r="244" ht="13"/>
-    <row r="245" ht="13"/>
-    <row r="246" ht="13"/>
-    <row r="247" ht="13"/>
-    <row r="248" ht="13"/>
-    <row r="249" ht="13"/>
-    <row r="250" ht="13"/>
-    <row r="251" ht="13"/>
-    <row r="252" ht="13"/>
-    <row r="253" ht="13"/>
-    <row r="254" ht="13"/>
-    <row r="255" ht="13"/>
-    <row r="256" ht="13"/>
-    <row r="257" ht="13"/>
-    <row r="258" ht="13"/>
-    <row r="259" ht="13"/>
-    <row r="260" ht="13"/>
-    <row r="261" ht="13"/>
-    <row r="262" ht="13"/>
-    <row r="263" ht="13"/>
-    <row r="264" ht="13"/>
-    <row r="265" ht="13"/>
-    <row r="266" ht="13"/>
-    <row r="267" ht="13"/>
-    <row r="268" ht="13"/>
-    <row r="269" ht="13"/>
-    <row r="270" ht="13"/>
-    <row r="271" ht="13"/>
-    <row r="272" ht="13"/>
-    <row r="273" ht="13"/>
-    <row r="274" ht="13"/>
-    <row r="275" ht="13"/>
-    <row r="276" ht="13"/>
-    <row r="277" ht="13"/>
-    <row r="278" ht="13"/>
-    <row r="279" ht="13"/>
-    <row r="280" ht="13"/>
-    <row r="281" ht="13"/>
-    <row r="282" ht="13"/>
-    <row r="283" ht="13"/>
-    <row r="284" ht="13"/>
-    <row r="285" ht="13"/>
-    <row r="286" ht="13"/>
-    <row r="287" ht="13"/>
-    <row r="288" ht="13"/>
-    <row r="289" ht="13"/>
-    <row r="290" ht="13"/>
-    <row r="291" ht="13"/>
-    <row r="292" ht="13"/>
-    <row r="293" ht="13"/>
-    <row r="294" ht="13"/>
-    <row r="295" ht="13"/>
-    <row r="296" ht="13"/>
-    <row r="297" ht="13"/>
-    <row r="298" ht="13"/>
-    <row r="299" ht="13"/>
-    <row r="300" ht="13"/>
-    <row r="301" ht="13"/>
-    <row r="302" ht="13"/>
-    <row r="303" ht="13"/>
-    <row r="304" ht="13"/>
-    <row r="305" ht="13"/>
-    <row r="306" ht="13"/>
-    <row r="307" ht="13"/>
-    <row r="308" ht="13"/>
-    <row r="309" ht="13"/>
-    <row r="310" ht="13"/>
-    <row r="311" ht="13"/>
-    <row r="312" ht="13"/>
-    <row r="313" ht="13"/>
-    <row r="314" ht="13"/>
-    <row r="315" ht="13"/>
-    <row r="316" ht="13"/>
-    <row r="317" ht="13"/>
-    <row r="318" ht="13"/>
-    <row r="319" ht="13"/>
-    <row r="320" ht="13"/>
-    <row r="321" ht="13"/>
-    <row r="322" ht="13"/>
-    <row r="323" ht="13"/>
-    <row r="324" ht="13"/>
-    <row r="325" ht="13"/>
-    <row r="326" ht="13"/>
-    <row r="327" ht="13"/>
-    <row r="328" ht="13"/>
-    <row r="329" ht="13"/>
-    <row r="330" ht="13"/>
-    <row r="331" ht="13"/>
-    <row r="332" ht="13"/>
-    <row r="333" ht="13"/>
-    <row r="334" ht="13"/>
-    <row r="335" ht="13"/>
-    <row r="336" ht="13"/>
-    <row r="337" ht="13"/>
-    <row r="338" ht="13"/>
-    <row r="339" ht="13"/>
-    <row r="340" ht="13"/>
-    <row r="341" ht="13"/>
-    <row r="342" ht="13"/>
-    <row r="343" ht="13"/>
-    <row r="344" ht="13"/>
-    <row r="345" ht="13"/>
-    <row r="346" ht="13"/>
-    <row r="347" ht="13"/>
-    <row r="348" ht="13"/>
-    <row r="349" ht="13"/>
-    <row r="350" ht="13"/>
-    <row r="351" ht="13"/>
-    <row r="352" ht="13"/>
-    <row r="353" ht="13"/>
-    <row r="354" ht="13"/>
-    <row r="355" ht="13"/>
-    <row r="356" ht="13"/>
-    <row r="357" ht="13"/>
-    <row r="358" ht="13"/>
-    <row r="359" ht="13"/>
-    <row r="360" ht="13"/>
-    <row r="361" ht="13"/>
-    <row r="362" ht="13"/>
-    <row r="363" ht="13"/>
-    <row r="364" ht="13"/>
-    <row r="365" ht="13"/>
-    <row r="366" ht="13"/>
-    <row r="367" ht="13"/>
-    <row r="368" ht="13"/>
-    <row r="369" ht="13"/>
-    <row r="370" ht="13"/>
-    <row r="371" ht="13"/>
-    <row r="372" ht="13"/>
-    <row r="373" ht="13"/>
-    <row r="374" ht="13"/>
-    <row r="375" ht="13"/>
-    <row r="376" ht="13"/>
-    <row r="377" ht="13"/>
-    <row r="378" ht="13"/>
-    <row r="379" ht="13"/>
-    <row r="380" ht="13"/>
-    <row r="381" ht="13"/>
-    <row r="382" ht="13"/>
-    <row r="383" ht="13"/>
-    <row r="384" ht="13"/>
-    <row r="385" ht="13"/>
-    <row r="386" ht="13"/>
-    <row r="387" ht="13"/>
-    <row r="388" ht="13"/>
-    <row r="389" ht="13"/>
-    <row r="390" ht="13"/>
-    <row r="391" ht="13"/>
-    <row r="392" ht="13"/>
-    <row r="393" ht="13"/>
-    <row r="394" ht="13"/>
-    <row r="395" ht="13"/>
-    <row r="396" ht="13"/>
-    <row r="397" ht="13"/>
-    <row r="398" ht="13"/>
-    <row r="399" ht="13"/>
-    <row r="400" ht="13"/>
-    <row r="401" ht="13"/>
-    <row r="402" ht="13"/>
-    <row r="403" ht="13"/>
-    <row r="404" ht="13"/>
-    <row r="405" ht="13"/>
-    <row r="406" ht="13"/>
-    <row r="407" ht="13"/>
-    <row r="408" ht="13"/>
-    <row r="409" ht="13"/>
-    <row r="410" ht="13"/>
-    <row r="411" ht="13"/>
-    <row r="412" ht="13"/>
-    <row r="413" ht="13"/>
-    <row r="414" ht="13"/>
-    <row r="415" ht="13"/>
-    <row r="416" ht="13"/>
-    <row r="417" ht="13"/>
-    <row r="418" ht="13"/>
-    <row r="419" ht="13"/>
-    <row r="420" ht="13"/>
-    <row r="421" ht="13"/>
-    <row r="422" ht="13"/>
-    <row r="423" ht="13"/>
-    <row r="424" ht="13"/>
-    <row r="425" ht="13"/>
-    <row r="426" ht="13"/>
-    <row r="427" ht="13"/>
-    <row r="428" ht="13"/>
-    <row r="429" ht="13"/>
-    <row r="430" ht="13"/>
-    <row r="431" ht="13"/>
-    <row r="432" ht="13"/>
-    <row r="433" ht="13"/>
-    <row r="434" ht="13"/>
-    <row r="435" ht="13"/>
-    <row r="436" ht="13"/>
-    <row r="437" ht="13"/>
-    <row r="438" ht="13"/>
-    <row r="439" ht="13"/>
-    <row r="440" ht="13"/>
-    <row r="441" ht="13"/>
-    <row r="442" ht="13"/>
-    <row r="443" ht="13"/>
-    <row r="444" ht="13"/>
-    <row r="445" ht="13"/>
-    <row r="446" ht="13"/>
-    <row r="447" ht="13"/>
-    <row r="448" ht="13"/>
-    <row r="449" ht="13"/>
-    <row r="450" ht="13"/>
-    <row r="451" ht="13"/>
-    <row r="452" ht="13"/>
-    <row r="453" ht="13"/>
-    <row r="454" ht="13"/>
-    <row r="455" ht="13"/>
-    <row r="456" ht="13"/>
-    <row r="457" ht="13"/>
-    <row r="458" ht="13"/>
-    <row r="459" ht="13"/>
-    <row r="460" ht="13"/>
-    <row r="461" ht="13"/>
-    <row r="462" ht="13"/>
-    <row r="463" ht="13"/>
-    <row r="464" ht="13"/>
-    <row r="465" ht="13"/>
-    <row r="466" ht="13"/>
-    <row r="467" ht="13"/>
-    <row r="468" ht="13"/>
-    <row r="469" ht="13"/>
-    <row r="470" ht="13"/>
-    <row r="471" ht="13"/>
-    <row r="472" ht="13"/>
-    <row r="473" ht="13"/>
-    <row r="474" ht="13"/>
-    <row r="475" ht="13"/>
-    <row r="476" ht="13"/>
-    <row r="477" ht="13"/>
-    <row r="478" ht="13"/>
-    <row r="479" ht="13"/>
-    <row r="480" ht="13"/>
-    <row r="481" ht="13"/>
-    <row r="482" ht="13"/>
-    <row r="483" ht="13"/>
-    <row r="484" ht="13"/>
-    <row r="485" ht="13"/>
-    <row r="486" ht="13"/>
-    <row r="487" ht="13"/>
-    <row r="488" ht="13"/>
-    <row r="489" ht="13"/>
-    <row r="490" ht="13"/>
-    <row r="491" ht="13"/>
-    <row r="492" ht="13"/>
-    <row r="493" ht="13"/>
-    <row r="494" ht="13"/>
-    <row r="495" ht="13"/>
-    <row r="496" ht="13"/>
-    <row r="497" ht="13"/>
-    <row r="498" ht="13"/>
-    <row r="499" ht="13"/>
-    <row r="500" ht="13"/>
-    <row r="501" ht="13"/>
-    <row r="502" ht="13"/>
-    <row r="503" ht="13"/>
-    <row r="504" ht="13"/>
-    <row r="505" ht="13"/>
-    <row r="506" ht="13"/>
-    <row r="507" ht="13"/>
-    <row r="508" ht="13"/>
-    <row r="509" ht="13"/>
-    <row r="510" ht="13"/>
-    <row r="511" ht="13"/>
-    <row r="512" ht="13"/>
-    <row r="513" ht="13"/>
-    <row r="514" ht="13"/>
-    <row r="515" ht="13"/>
-    <row r="516" ht="13"/>
-    <row r="517" ht="13"/>
-    <row r="518" ht="13"/>
-    <row r="519" ht="13"/>
-    <row r="520" ht="13"/>
-    <row r="521" ht="13"/>
-    <row r="522" ht="13"/>
-    <row r="523" ht="13"/>
-    <row r="524" ht="13"/>
-    <row r="525" ht="13"/>
-    <row r="526" ht="13"/>
-    <row r="527" ht="13"/>
-    <row r="528" ht="13"/>
-    <row r="529" ht="13"/>
-    <row r="530" ht="13"/>
-    <row r="531" ht="13"/>
-    <row r="532" ht="13"/>
-    <row r="533" ht="13"/>
-    <row r="534" ht="13"/>
-    <row r="535" ht="13"/>
-    <row r="536" ht="13"/>
-    <row r="537" ht="13"/>
-    <row r="538" ht="13"/>
-    <row r="539" ht="13"/>
-    <row r="540" ht="13"/>
-    <row r="541" ht="13"/>
-    <row r="542" ht="13"/>
-    <row r="543" ht="13"/>
-    <row r="544" ht="13"/>
-    <row r="545" ht="13"/>
-    <row r="546" ht="13"/>
-    <row r="547" ht="13"/>
-    <row r="548" ht="13"/>
-    <row r="549" ht="13"/>
-    <row r="550" ht="13"/>
-    <row r="551" ht="13"/>
-    <row r="552" ht="13"/>
-    <row r="553" ht="13"/>
-    <row r="554" ht="13"/>
-    <row r="555" ht="13"/>
-    <row r="556" ht="13"/>
-    <row r="557" ht="13"/>
-    <row r="558" ht="13"/>
-    <row r="559" ht="13"/>
-    <row r="560" ht="13"/>
-    <row r="561" ht="13"/>
-    <row r="562" ht="13"/>
-    <row r="563" ht="13"/>
-    <row r="564" ht="13"/>
-    <row r="565" ht="13"/>
-    <row r="566" ht="13"/>
-    <row r="567" ht="13"/>
-    <row r="568" ht="13"/>
-    <row r="569" ht="13"/>
-    <row r="570" ht="13"/>
-    <row r="571" ht="13"/>
-    <row r="572" ht="13"/>
-    <row r="573" ht="13"/>
-    <row r="574" ht="13"/>
-    <row r="575" ht="13"/>
-    <row r="576" ht="13"/>
-    <row r="577" ht="13"/>
-    <row r="578" ht="13"/>
-    <row r="579" ht="13"/>
-    <row r="580" ht="13"/>
-    <row r="581" ht="13"/>
-    <row r="582" ht="13"/>
-    <row r="583" ht="13"/>
-    <row r="584" ht="13"/>
-    <row r="585" ht="13"/>
-    <row r="586" ht="13"/>
-    <row r="587" ht="13"/>
-    <row r="588" ht="13"/>
-    <row r="589" ht="13"/>
-    <row r="590" ht="13"/>
-    <row r="591" ht="13"/>
-    <row r="592" ht="13"/>
-    <row r="593" ht="13"/>
-    <row r="594" ht="13"/>
-    <row r="595" ht="13"/>
-    <row r="596" ht="13"/>
-    <row r="597" ht="13"/>
-    <row r="598" ht="13"/>
-    <row r="599" ht="13"/>
-    <row r="600" ht="13"/>
-    <row r="601" ht="13"/>
-    <row r="602" ht="13"/>
-    <row r="603" ht="13"/>
-    <row r="604" ht="13"/>
-    <row r="605" ht="13"/>
-    <row r="606" ht="13"/>
-    <row r="607" ht="13"/>
-    <row r="608" ht="13"/>
-    <row r="609" ht="13"/>
-    <row r="610" ht="13"/>
-    <row r="611" ht="13"/>
-    <row r="612" ht="13"/>
-    <row r="613" ht="13"/>
-    <row r="614" ht="13"/>
-    <row r="615" ht="13"/>
-    <row r="616" ht="13"/>
-    <row r="617" ht="13"/>
-    <row r="618" ht="13"/>
-    <row r="619" ht="13"/>
-    <row r="620" ht="13"/>
-    <row r="621" ht="13"/>
-    <row r="622" ht="13"/>
-    <row r="623" ht="13"/>
-    <row r="624" ht="13"/>
-    <row r="625" ht="13"/>
-    <row r="626" ht="13"/>
-    <row r="627" ht="13"/>
-    <row r="628" ht="13"/>
-    <row r="629" ht="13"/>
-    <row r="630" ht="13"/>
-    <row r="631" ht="13"/>
-    <row r="632" ht="13"/>
-    <row r="633" ht="13"/>
-    <row r="634" ht="13"/>
-    <row r="635" ht="13"/>
-    <row r="636" ht="13"/>
-    <row r="637" ht="13"/>
-    <row r="638" ht="13"/>
-    <row r="639" ht="13"/>
-    <row r="640" ht="13"/>
-    <row r="641" ht="13"/>
-    <row r="642" ht="13"/>
-    <row r="643" ht="13"/>
-    <row r="644" ht="13"/>
-    <row r="645" ht="13"/>
-    <row r="646" ht="13"/>
-    <row r="647" ht="13"/>
-    <row r="648" ht="13"/>
-    <row r="649" ht="13"/>
-    <row r="650" ht="13"/>
-    <row r="651" ht="13"/>
-    <row r="652" ht="13"/>
-    <row r="653" ht="13"/>
-    <row r="654" ht="13"/>
-    <row r="655" ht="13"/>
-    <row r="656" ht="13"/>
-    <row r="657" ht="13"/>
-    <row r="658" ht="13"/>
-    <row r="659" ht="13"/>
-    <row r="660" ht="13"/>
-    <row r="661" ht="13"/>
-    <row r="662" ht="13"/>
-    <row r="663" ht="13"/>
-    <row r="664" ht="13"/>
-    <row r="665" ht="13"/>
-    <row r="666" ht="13"/>
-    <row r="667" ht="13"/>
-    <row r="668" ht="13"/>
-    <row r="669" ht="13"/>
-    <row r="670" ht="13"/>
-    <row r="671" ht="13"/>
-    <row r="672" ht="13"/>
-    <row r="673" ht="13"/>
-    <row r="674" ht="13"/>
-    <row r="675" ht="13"/>
-    <row r="676" ht="13"/>
-    <row r="677" ht="13"/>
-    <row r="678" ht="13"/>
-    <row r="679" ht="13"/>
-    <row r="680" ht="13"/>
-    <row r="681" ht="13"/>
-    <row r="682" ht="13"/>
-    <row r="683" ht="13"/>
-    <row r="684" ht="13"/>
-    <row r="685" ht="13"/>
-    <row r="686" ht="13"/>
-    <row r="687" ht="13"/>
-    <row r="688" ht="13"/>
-    <row r="689" ht="13"/>
-    <row r="690" ht="13"/>
-    <row r="691" ht="13"/>
-    <row r="692" ht="13"/>
-    <row r="693" ht="13"/>
-    <row r="694" ht="13"/>
-    <row r="695" ht="13"/>
-    <row r="696" ht="13"/>
-    <row r="697" ht="13"/>
-    <row r="698" ht="13"/>
-    <row r="699" ht="13"/>
-    <row r="700" ht="13"/>
-    <row r="701" ht="13"/>
-    <row r="702" ht="13"/>
-    <row r="703" ht="13"/>
-    <row r="704" ht="13"/>
-    <row r="705" ht="13"/>
-    <row r="706" ht="13"/>
-    <row r="707" ht="13"/>
-    <row r="708" ht="13"/>
-    <row r="709" ht="13"/>
-    <row r="710" ht="13"/>
-    <row r="711" ht="13"/>
-    <row r="712" ht="13"/>
-    <row r="713" ht="13"/>
-    <row r="714" ht="13"/>
-    <row r="715" ht="13"/>
-    <row r="716" ht="13"/>
-    <row r="717" ht="13"/>
-    <row r="718" ht="13"/>
-    <row r="719" ht="13"/>
-    <row r="720" ht="13"/>
-    <row r="721" ht="13"/>
-    <row r="722" ht="13"/>
-    <row r="723" ht="13"/>
-    <row r="724" ht="13"/>
-    <row r="725" ht="13"/>
-    <row r="726" ht="13"/>
-    <row r="727" ht="13"/>
-    <row r="728" ht="13"/>
-    <row r="729" ht="13"/>
-    <row r="730" ht="13"/>
-    <row r="731" ht="13"/>
-    <row r="732" ht="13"/>
-    <row r="733" ht="13"/>
-    <row r="734" ht="13"/>
-    <row r="735" ht="13"/>
-    <row r="736" ht="13"/>
-    <row r="737" ht="13"/>
-    <row r="738" ht="13"/>
-    <row r="739" ht="13"/>
-    <row r="740" ht="13"/>
-    <row r="741" ht="13"/>
-    <row r="742" ht="13"/>
-    <row r="743" ht="13"/>
-    <row r="744" ht="13"/>
-    <row r="745" ht="13"/>
-    <row r="746" ht="13"/>
-    <row r="747" ht="13"/>
-    <row r="748" ht="13"/>
-    <row r="749" ht="13"/>
-    <row r="750" ht="13"/>
-    <row r="751" ht="13"/>
-    <row r="752" ht="13"/>
-    <row r="753" ht="13"/>
-    <row r="754" ht="13"/>
-    <row r="755" ht="13"/>
-    <row r="756" ht="13"/>
-    <row r="757" ht="13"/>
-    <row r="758" ht="13"/>
-    <row r="759" ht="13"/>
-    <row r="760" ht="13"/>
-    <row r="761" ht="13"/>
-    <row r="762" ht="13"/>
-    <row r="763" ht="13"/>
-    <row r="764" ht="13"/>
-    <row r="765" ht="13"/>
-    <row r="766" ht="13"/>
-    <row r="767" ht="13"/>
-    <row r="768" ht="13"/>
-    <row r="769" ht="13"/>
-    <row r="770" ht="13"/>
-    <row r="771" ht="13"/>
-    <row r="772" ht="13"/>
-    <row r="773" ht="13"/>
-    <row r="774" ht="13"/>
-    <row r="775" ht="13"/>
-    <row r="776" ht="13"/>
-    <row r="777" ht="13"/>
-    <row r="778" ht="13"/>
-    <row r="779" ht="13"/>
-    <row r="780" ht="13"/>
-    <row r="781" ht="13"/>
-    <row r="782" ht="13"/>
-    <row r="783" ht="13"/>
-    <row r="784" ht="13"/>
-    <row r="785" ht="13"/>
-    <row r="786" ht="13"/>
-    <row r="787" ht="13"/>
-    <row r="788" ht="13"/>
-    <row r="789" ht="13"/>
-    <row r="790" ht="13"/>
-    <row r="791" ht="13"/>
-    <row r="792" ht="13"/>
-    <row r="793" ht="13"/>
-    <row r="794" ht="13"/>
-    <row r="795" ht="13"/>
-    <row r="796" ht="13"/>
-    <row r="797" ht="13"/>
-    <row r="798" ht="13"/>
-    <row r="799" ht="13"/>
-    <row r="800" ht="13"/>
-    <row r="801" ht="13"/>
-    <row r="802" ht="13"/>
-    <row r="803" ht="13"/>
-    <row r="804" ht="13"/>
-    <row r="805" ht="13"/>
-    <row r="806" ht="13"/>
-    <row r="807" ht="13"/>
-    <row r="808" ht="13"/>
-    <row r="809" ht="13"/>
-    <row r="810" ht="13"/>
-    <row r="811" ht="13"/>
-    <row r="812" ht="13"/>
-    <row r="813" ht="13"/>
-    <row r="814" ht="13"/>
-    <row r="815" ht="13"/>
-    <row r="816" ht="13"/>
-    <row r="817" ht="13"/>
-    <row r="818" ht="13"/>
-    <row r="819" ht="13"/>
-    <row r="820" ht="13"/>
-    <row r="821" ht="13"/>
-    <row r="822" ht="13"/>
-    <row r="823" ht="13"/>
-    <row r="824" ht="13"/>
-    <row r="825" ht="13"/>
-    <row r="826" ht="13"/>
-    <row r="827" ht="13"/>
-    <row r="828" ht="13"/>
-    <row r="829" ht="13"/>
-    <row r="830" ht="13"/>
-    <row r="831" ht="13"/>
-    <row r="832" ht="13"/>
-    <row r="833" ht="13"/>
-    <row r="834" ht="13"/>
-    <row r="835" ht="13"/>
-    <row r="836" ht="13"/>
-    <row r="837" ht="13"/>
-    <row r="838" ht="13"/>
-    <row r="839" ht="13"/>
-    <row r="840" ht="13"/>
-    <row r="841" ht="13"/>
-    <row r="842" ht="13"/>
-    <row r="843" ht="13"/>
-    <row r="844" ht="13"/>
-    <row r="845" ht="13"/>
-    <row r="846" ht="13"/>
-    <row r="847" ht="13"/>
-    <row r="848" ht="13"/>
-    <row r="849" ht="13"/>
-    <row r="850" ht="13"/>
-    <row r="851" ht="13"/>
-    <row r="852" ht="13"/>
-    <row r="853" ht="13"/>
-    <row r="854" ht="13"/>
-    <row r="855" ht="13"/>
-    <row r="856" ht="13"/>
-    <row r="857" ht="13"/>
-    <row r="858" ht="13"/>
-    <row r="859" ht="13"/>
-    <row r="860" ht="13"/>
-    <row r="861" ht="13"/>
-    <row r="862" ht="13"/>
-    <row r="863" ht="13"/>
-    <row r="864" ht="13"/>
-    <row r="865" ht="13"/>
-    <row r="866" ht="13"/>
-    <row r="867" ht="13"/>
-    <row r="868" ht="13"/>
-    <row r="869" ht="13"/>
-    <row r="870" ht="13"/>
-    <row r="871" ht="13"/>
-    <row r="872" ht="13"/>
-    <row r="873" ht="13"/>
-    <row r="874" ht="13"/>
-    <row r="875" ht="13"/>
-    <row r="876" ht="13"/>
-    <row r="877" ht="13"/>
-    <row r="878" ht="13"/>
-    <row r="879" ht="13"/>
-    <row r="880" ht="13"/>
-    <row r="881" ht="13"/>
-    <row r="882" ht="13"/>
-    <row r="883" ht="13"/>
-    <row r="884" ht="13"/>
-    <row r="885" ht="13"/>
-    <row r="886" ht="13"/>
-    <row r="887" ht="13"/>
-    <row r="888" ht="13"/>
-    <row r="889" ht="13"/>
-    <row r="890" ht="13"/>
-    <row r="891" ht="13"/>
-    <row r="892" ht="13"/>
-    <row r="893" ht="13"/>
-    <row r="894" ht="13"/>
-    <row r="895" ht="13"/>
-    <row r="896" ht="13"/>
-    <row r="897" ht="13"/>
-    <row r="898" ht="13"/>
-    <row r="899" ht="13"/>
-    <row r="900" ht="13"/>
-    <row r="901" ht="13"/>
-    <row r="902" ht="13"/>
-    <row r="903" ht="13"/>
-    <row r="904" ht="13"/>
-    <row r="905" ht="13"/>
-    <row r="906" ht="13"/>
-    <row r="907" ht="13"/>
-    <row r="908" ht="13"/>
-    <row r="909" ht="13"/>
-    <row r="910" ht="13"/>
-    <row r="911" ht="13"/>
-    <row r="912" ht="13"/>
-    <row r="913" ht="13"/>
-    <row r="914" ht="13"/>
-    <row r="915" ht="13"/>
-    <row r="916" ht="13"/>
-    <row r="917" ht="13"/>
-    <row r="918" ht="13"/>
-    <row r="919" ht="13"/>
-    <row r="920" ht="13"/>
-    <row r="921" ht="13"/>
-    <row r="922" ht="13"/>
-    <row r="923" ht="13"/>
-    <row r="924" ht="13"/>
-    <row r="925" ht="13"/>
-    <row r="926" ht="13"/>
-    <row r="927" ht="13"/>
-    <row r="928" ht="13"/>
-    <row r="929" ht="13"/>
-    <row r="930" ht="13"/>
-    <row r="931" ht="13"/>
-    <row r="932" ht="13"/>
-    <row r="933" ht="13"/>
-    <row r="934" ht="13"/>
-    <row r="935" ht="13"/>
-    <row r="936" ht="13"/>
-    <row r="937" ht="13"/>
-    <row r="938" ht="13"/>
-    <row r="939" ht="13"/>
-    <row r="940" ht="13"/>
-    <row r="941" ht="13"/>
-    <row r="942" ht="13"/>
-    <row r="943" ht="13"/>
-    <row r="944" ht="13"/>
-    <row r="945" ht="13"/>
-    <row r="946" ht="13"/>
-    <row r="947" ht="13"/>
-    <row r="948" ht="13"/>
-    <row r="949" ht="13"/>
-    <row r="950" ht="13"/>
-    <row r="951" ht="13"/>
-    <row r="952" ht="13"/>
-    <row r="953" ht="13"/>
-    <row r="954" ht="13"/>
-    <row r="955" ht="13"/>
-    <row r="956" ht="13"/>
-    <row r="957" ht="13"/>
-    <row r="958" ht="13"/>
-    <row r="959" ht="13"/>
-    <row r="960" ht="13"/>
-    <row r="961" ht="13"/>
-    <row r="962" ht="13"/>
-    <row r="963" ht="13"/>
-    <row r="964" ht="13"/>
-    <row r="965" ht="13"/>
-    <row r="966" ht="13"/>
-    <row r="967" ht="13"/>
-    <row r="968" ht="13"/>
-    <row r="969" ht="13"/>
-    <row r="970" ht="13"/>
-    <row r="971" ht="13"/>
-    <row r="972" ht="13"/>
-    <row r="973" ht="13"/>
-    <row r="974" ht="13"/>
-    <row r="975" ht="13"/>
-    <row r="976" ht="13"/>
-    <row r="977" ht="13"/>
-    <row r="978" ht="13"/>
-    <row r="979" ht="13"/>
-    <row r="980" ht="13"/>
-    <row r="981" ht="13"/>
-    <row r="982" ht="13"/>
-    <row r="983" ht="13"/>
-    <row r="984" ht="13"/>
-    <row r="985" ht="13"/>
-    <row r="986" ht="13"/>
-    <row r="987" ht="13"/>
-    <row r="988" ht="13"/>
-    <row r="989" ht="13"/>
-    <row r="990" ht="13"/>
-    <row r="991" ht="13"/>
-    <row r="992" ht="13"/>
-    <row r="993" ht="13"/>
-    <row r="994" ht="13"/>
-    <row r="995" ht="13"/>
-    <row r="996" ht="13"/>
-    <row r="997" ht="13"/>
-    <row r="998" ht="13"/>
-    <row r="999" ht="13"/>
-    <row r="1000" ht="13"/>
+    <row r="221" spans="2:2" ht="12"/>
+    <row r="222" spans="2:2" ht="12"/>
+    <row r="223" spans="2:2" ht="12"/>
+    <row r="224" spans="2:2" ht="12"/>
+    <row r="225" ht="12"/>
+    <row r="226" ht="12"/>
+    <row r="227" ht="12"/>
+    <row r="228" ht="12"/>
+    <row r="229" ht="12"/>
+    <row r="230" ht="12"/>
+    <row r="231" ht="12"/>
+    <row r="232" ht="12"/>
+    <row r="233" ht="12"/>
+    <row r="234" ht="12"/>
+    <row r="235" ht="12"/>
+    <row r="236" ht="12"/>
+    <row r="237" ht="12"/>
+    <row r="238" ht="12"/>
+    <row r="239" ht="12"/>
+    <row r="240" ht="12"/>
+    <row r="241" ht="12"/>
+    <row r="242" ht="12"/>
+    <row r="243" ht="12"/>
+    <row r="244" ht="12"/>
+    <row r="245" ht="12"/>
+    <row r="246" ht="12"/>
+    <row r="247" ht="12"/>
+    <row r="248" ht="12"/>
+    <row r="249" ht="12"/>
+    <row r="250" ht="12"/>
+    <row r="251" ht="12"/>
+    <row r="252" ht="12"/>
+    <row r="253" ht="12"/>
+    <row r="254" ht="12"/>
+    <row r="255" ht="12"/>
+    <row r="256" ht="12"/>
+    <row r="257" ht="12"/>
+    <row r="258" ht="12"/>
+    <row r="259" ht="12"/>
+    <row r="260" ht="12"/>
+    <row r="261" ht="12"/>
+    <row r="262" ht="12"/>
+    <row r="263" ht="12"/>
+    <row r="264" ht="12"/>
+    <row r="265" ht="12"/>
+    <row r="266" ht="12"/>
+    <row r="267" ht="12"/>
+    <row r="268" ht="12"/>
+    <row r="269" ht="12"/>
+    <row r="270" ht="12"/>
+    <row r="271" ht="12"/>
+    <row r="272" ht="12"/>
+    <row r="273" ht="12"/>
+    <row r="274" ht="12"/>
+    <row r="275" ht="12"/>
+    <row r="276" ht="12"/>
+    <row r="277" ht="12"/>
+    <row r="278" ht="12"/>
+    <row r="279" ht="12"/>
+    <row r="280" ht="12"/>
+    <row r="281" ht="12"/>
+    <row r="282" ht="12"/>
+    <row r="283" ht="12"/>
+    <row r="284" ht="12"/>
+    <row r="285" ht="12"/>
+    <row r="286" ht="12"/>
+    <row r="287" ht="12"/>
+    <row r="288" ht="12"/>
+    <row r="289" ht="12"/>
+    <row r="290" ht="12"/>
+    <row r="291" ht="12"/>
+    <row r="292" ht="12"/>
+    <row r="293" ht="12"/>
+    <row r="294" ht="12"/>
+    <row r="295" ht="12"/>
+    <row r="296" ht="12"/>
+    <row r="297" ht="12"/>
+    <row r="298" ht="12"/>
+    <row r="299" ht="12"/>
+    <row r="300" ht="12"/>
+    <row r="301" ht="12"/>
+    <row r="302" ht="12"/>
+    <row r="303" ht="12"/>
+    <row r="304" ht="12"/>
+    <row r="305" ht="12"/>
+    <row r="306" ht="12"/>
+    <row r="307" ht="12"/>
+    <row r="308" ht="12"/>
+    <row r="309" ht="12"/>
+    <row r="310" ht="12"/>
+    <row r="311" ht="12"/>
+    <row r="312" ht="12"/>
+    <row r="313" ht="12"/>
+    <row r="314" ht="12"/>
+    <row r="315" ht="12"/>
+    <row r="316" ht="12"/>
+    <row r="317" ht="12"/>
+    <row r="318" ht="12"/>
+    <row r="319" ht="12"/>
+    <row r="320" ht="12"/>
+    <row r="321" ht="12"/>
+    <row r="322" ht="12"/>
+    <row r="323" ht="12"/>
+    <row r="324" ht="12"/>
+    <row r="325" ht="12"/>
+    <row r="326" ht="12"/>
+    <row r="327" ht="12"/>
+    <row r="328" ht="12"/>
+    <row r="329" ht="12"/>
+    <row r="330" ht="12"/>
+    <row r="331" ht="12"/>
+    <row r="332" ht="12"/>
+    <row r="333" ht="12"/>
+    <row r="334" ht="12"/>
+    <row r="335" ht="12"/>
+    <row r="336" ht="12"/>
+    <row r="337" ht="12"/>
+    <row r="338" ht="12"/>
+    <row r="339" ht="12"/>
+    <row r="340" ht="12"/>
+    <row r="341" ht="12"/>
+    <row r="342" ht="12"/>
+    <row r="343" ht="12"/>
+    <row r="344" ht="12"/>
+    <row r="345" ht="12"/>
+    <row r="346" ht="12"/>
+    <row r="347" ht="12"/>
+    <row r="348" ht="12"/>
+    <row r="349" ht="12"/>
+    <row r="350" ht="12"/>
+    <row r="351" ht="12"/>
+    <row r="352" ht="12"/>
+    <row r="353" ht="12"/>
+    <row r="354" ht="12"/>
+    <row r="355" ht="12"/>
+    <row r="356" ht="12"/>
+    <row r="357" ht="12"/>
+    <row r="358" ht="12"/>
+    <row r="359" ht="12"/>
+    <row r="360" ht="12"/>
+    <row r="361" ht="12"/>
+    <row r="362" ht="12"/>
+    <row r="363" ht="12"/>
+    <row r="364" ht="12"/>
+    <row r="365" ht="12"/>
+    <row r="366" ht="12"/>
+    <row r="367" ht="12"/>
+    <row r="368" ht="12"/>
+    <row r="369" ht="12"/>
+    <row r="370" ht="12"/>
+    <row r="371" ht="12"/>
+    <row r="372" ht="12"/>
+    <row r="373" ht="12"/>
+    <row r="374" ht="12"/>
+    <row r="375" ht="12"/>
+    <row r="376" ht="12"/>
+    <row r="377" ht="12"/>
+    <row r="378" ht="12"/>
+    <row r="379" ht="12"/>
+    <row r="380" ht="12"/>
+    <row r="381" ht="12"/>
+    <row r="382" ht="12"/>
+    <row r="383" ht="12"/>
+    <row r="384" ht="12"/>
+    <row r="385" ht="12"/>
+    <row r="386" ht="12"/>
+    <row r="387" ht="12"/>
+    <row r="388" ht="12"/>
+    <row r="389" ht="12"/>
+    <row r="390" ht="12"/>
+    <row r="391" ht="12"/>
+    <row r="392" ht="12"/>
+    <row r="393" ht="12"/>
+    <row r="394" ht="12"/>
+    <row r="395" ht="12"/>
+    <row r="396" ht="12"/>
+    <row r="397" ht="12"/>
+    <row r="398" ht="12"/>
+    <row r="399" ht="12"/>
+    <row r="400" ht="12"/>
+    <row r="401" ht="12"/>
+    <row r="402" ht="12"/>
+    <row r="403" ht="12"/>
+    <row r="404" ht="12"/>
+    <row r="405" ht="12"/>
+    <row r="406" ht="12"/>
+    <row r="407" ht="12"/>
+    <row r="408" ht="12"/>
+    <row r="409" ht="12"/>
+    <row r="410" ht="12"/>
+    <row r="411" ht="12"/>
+    <row r="412" ht="12"/>
+    <row r="413" ht="12"/>
+    <row r="414" ht="12"/>
+    <row r="415" ht="12"/>
+    <row r="416" ht="12"/>
+    <row r="417" ht="12"/>
+    <row r="418" ht="12"/>
+    <row r="419" ht="12"/>
+    <row r="420" ht="12"/>
+    <row r="421" ht="12"/>
+    <row r="422" ht="12"/>
+    <row r="423" ht="12"/>
+    <row r="424" ht="12"/>
+    <row r="425" ht="12"/>
+    <row r="426" ht="12"/>
+    <row r="427" ht="12"/>
+    <row r="428" ht="12"/>
+    <row r="429" ht="12"/>
+    <row r="430" ht="12"/>
+    <row r="431" ht="12"/>
+    <row r="432" ht="12"/>
+    <row r="433" ht="12"/>
+    <row r="434" ht="12"/>
+    <row r="435" ht="12"/>
+    <row r="436" ht="12"/>
+    <row r="437" ht="12"/>
+    <row r="438" ht="12"/>
+    <row r="439" ht="12"/>
+    <row r="440" ht="12"/>
+    <row r="441" ht="12"/>
+    <row r="442" ht="12"/>
+    <row r="443" ht="12"/>
+    <row r="444" ht="12"/>
+    <row r="445" ht="12"/>
+    <row r="446" ht="12"/>
+    <row r="447" ht="12"/>
+    <row r="448" ht="12"/>
+    <row r="449" ht="12"/>
+    <row r="450" ht="12"/>
+    <row r="451" ht="12"/>
+    <row r="452" ht="12"/>
+    <row r="453" ht="12"/>
+    <row r="454" ht="12"/>
+    <row r="455" ht="12"/>
+    <row r="456" ht="12"/>
+    <row r="457" ht="12"/>
+    <row r="458" ht="12"/>
+    <row r="459" ht="12"/>
+    <row r="460" ht="12"/>
+    <row r="461" ht="12"/>
+    <row r="462" ht="12"/>
+    <row r="463" ht="12"/>
+    <row r="464" ht="12"/>
+    <row r="465" ht="12"/>
+    <row r="466" ht="12"/>
+    <row r="467" ht="12"/>
+    <row r="468" ht="12"/>
+    <row r="469" ht="12"/>
+    <row r="470" ht="12"/>
+    <row r="471" ht="12"/>
+    <row r="472" ht="12"/>
+    <row r="473" ht="12"/>
+    <row r="474" ht="12"/>
+    <row r="475" ht="12"/>
+    <row r="476" ht="12"/>
+    <row r="477" ht="12"/>
+    <row r="478" ht="12"/>
+    <row r="479" ht="12"/>
+    <row r="480" ht="12"/>
+    <row r="481" ht="12"/>
+    <row r="482" ht="12"/>
+    <row r="483" ht="12"/>
+    <row r="484" ht="12"/>
+    <row r="485" ht="12"/>
+    <row r="486" ht="12"/>
+    <row r="487" ht="12"/>
+    <row r="488" ht="12"/>
+    <row r="489" ht="12"/>
+    <row r="490" ht="12"/>
+    <row r="491" ht="12"/>
+    <row r="492" ht="12"/>
+    <row r="493" ht="12"/>
+    <row r="494" ht="12"/>
+    <row r="495" ht="12"/>
+    <row r="496" ht="12"/>
+    <row r="497" ht="12"/>
+    <row r="498" ht="12"/>
+    <row r="499" ht="12"/>
+    <row r="500" ht="12"/>
+    <row r="501" ht="12"/>
+    <row r="502" ht="12"/>
+    <row r="503" ht="12"/>
+    <row r="504" ht="12"/>
+    <row r="505" ht="12"/>
+    <row r="506" ht="12"/>
+    <row r="507" ht="12"/>
+    <row r="508" ht="12"/>
+    <row r="509" ht="12"/>
+    <row r="510" ht="12"/>
+    <row r="511" ht="12"/>
+    <row r="512" ht="12"/>
+    <row r="513" ht="12"/>
+    <row r="514" ht="12"/>
+    <row r="515" ht="12"/>
+    <row r="516" ht="12"/>
+    <row r="517" ht="12"/>
+    <row r="518" ht="12"/>
+    <row r="519" ht="12"/>
+    <row r="520" ht="12"/>
+    <row r="521" ht="12"/>
+    <row r="522" ht="12"/>
+    <row r="523" ht="12"/>
+    <row r="524" ht="12"/>
+    <row r="525" ht="12"/>
+    <row r="526" ht="12"/>
+    <row r="527" ht="12"/>
+    <row r="528" ht="12"/>
+    <row r="529" ht="12"/>
+    <row r="530" ht="12"/>
+    <row r="531" ht="12"/>
+    <row r="532" ht="12"/>
+    <row r="533" ht="12"/>
+    <row r="534" ht="12"/>
+    <row r="535" ht="12"/>
+    <row r="536" ht="12"/>
+    <row r="537" ht="12"/>
+    <row r="538" ht="12"/>
+    <row r="539" ht="12"/>
+    <row r="540" ht="12"/>
+    <row r="541" ht="12"/>
+    <row r="542" ht="12"/>
+    <row r="543" ht="12"/>
+    <row r="544" ht="12"/>
+    <row r="545" ht="12"/>
+    <row r="546" ht="12"/>
+    <row r="547" ht="12"/>
+    <row r="548" ht="12"/>
+    <row r="549" ht="12"/>
+    <row r="550" ht="12"/>
+    <row r="551" ht="12"/>
+    <row r="552" ht="12"/>
+    <row r="553" ht="12"/>
+    <row r="554" ht="12"/>
+    <row r="555" ht="12"/>
+    <row r="556" ht="12"/>
+    <row r="557" ht="12"/>
+    <row r="558" ht="12"/>
+    <row r="559" ht="12"/>
+    <row r="560" ht="12"/>
+    <row r="561" ht="12"/>
+    <row r="562" ht="12"/>
+    <row r="563" ht="12"/>
+    <row r="564" ht="12"/>
+    <row r="565" ht="12"/>
+    <row r="566" ht="12"/>
+    <row r="567" ht="12"/>
+    <row r="568" ht="12"/>
+    <row r="569" ht="12"/>
+    <row r="570" ht="12"/>
+    <row r="571" ht="12"/>
+    <row r="572" ht="12"/>
+    <row r="573" ht="12"/>
+    <row r="574" ht="12"/>
+    <row r="575" ht="12"/>
+    <row r="576" ht="12"/>
+    <row r="577" ht="12"/>
+    <row r="578" ht="12"/>
+    <row r="579" ht="12"/>
+    <row r="580" ht="12"/>
+    <row r="581" ht="12"/>
+    <row r="582" ht="12"/>
+    <row r="583" ht="12"/>
+    <row r="584" ht="12"/>
+    <row r="585" ht="12"/>
+    <row r="586" ht="12"/>
+    <row r="587" ht="12"/>
+    <row r="588" ht="12"/>
+    <row r="589" ht="12"/>
+    <row r="590" ht="12"/>
+    <row r="591" ht="12"/>
+    <row r="592" ht="12"/>
+    <row r="593" ht="12"/>
+    <row r="594" ht="12"/>
+    <row r="595" ht="12"/>
+    <row r="596" ht="12"/>
+    <row r="597" ht="12"/>
+    <row r="598" ht="12"/>
+    <row r="599" ht="12"/>
+    <row r="600" ht="12"/>
+    <row r="601" ht="12"/>
+    <row r="602" ht="12"/>
+    <row r="603" ht="12"/>
+    <row r="604" ht="12"/>
+    <row r="605" ht="12"/>
+    <row r="606" ht="12"/>
+    <row r="607" ht="12"/>
+    <row r="608" ht="12"/>
+    <row r="609" ht="12"/>
+    <row r="610" ht="12"/>
+    <row r="611" ht="12"/>
+    <row r="612" ht="12"/>
+    <row r="613" ht="12"/>
+    <row r="614" ht="12"/>
+    <row r="615" ht="12"/>
+    <row r="616" ht="12"/>
+    <row r="617" ht="12"/>
+    <row r="618" ht="12"/>
+    <row r="619" ht="12"/>
+    <row r="620" ht="12"/>
+    <row r="621" ht="12"/>
+    <row r="622" ht="12"/>
+    <row r="623" ht="12"/>
+    <row r="624" ht="12"/>
+    <row r="625" ht="12"/>
+    <row r="626" ht="12"/>
+    <row r="627" ht="12"/>
+    <row r="628" ht="12"/>
+    <row r="629" ht="12"/>
+    <row r="630" ht="12"/>
+    <row r="631" ht="12"/>
+    <row r="632" ht="12"/>
+    <row r="633" ht="12"/>
+    <row r="634" ht="12"/>
+    <row r="635" ht="12"/>
+    <row r="636" ht="12"/>
+    <row r="637" ht="12"/>
+    <row r="638" ht="12"/>
+    <row r="639" ht="12"/>
+    <row r="640" ht="12"/>
+    <row r="641" ht="12"/>
+    <row r="642" ht="12"/>
+    <row r="643" ht="12"/>
+    <row r="644" ht="12"/>
+    <row r="645" ht="12"/>
+    <row r="646" ht="12"/>
+    <row r="647" ht="12"/>
+    <row r="648" ht="12"/>
+    <row r="649" ht="12"/>
+    <row r="650" ht="12"/>
+    <row r="651" ht="12"/>
+    <row r="652" ht="12"/>
+    <row r="653" ht="12"/>
+    <row r="654" ht="12"/>
+    <row r="655" ht="12"/>
+    <row r="656" ht="12"/>
+    <row r="657" ht="12"/>
+    <row r="658" ht="12"/>
+    <row r="659" ht="12"/>
+    <row r="660" ht="12"/>
+    <row r="661" ht="12"/>
+    <row r="662" ht="12"/>
+    <row r="663" ht="12"/>
+    <row r="664" ht="12"/>
+    <row r="665" ht="12"/>
+    <row r="666" ht="12"/>
+    <row r="667" ht="12"/>
+    <row r="668" ht="12"/>
+    <row r="669" ht="12"/>
+    <row r="670" ht="12"/>
+    <row r="671" ht="12"/>
+    <row r="672" ht="12"/>
+    <row r="673" ht="12"/>
+    <row r="674" ht="12"/>
+    <row r="675" ht="12"/>
+    <row r="676" ht="12"/>
+    <row r="677" ht="12"/>
+    <row r="678" ht="12"/>
+    <row r="679" ht="12"/>
+    <row r="680" ht="12"/>
+    <row r="681" ht="12"/>
+    <row r="682" ht="12"/>
+    <row r="683" ht="12"/>
+    <row r="684" ht="12"/>
+    <row r="685" ht="12"/>
+    <row r="686" ht="12"/>
+    <row r="687" ht="12"/>
+    <row r="688" ht="12"/>
+    <row r="689" ht="12"/>
+    <row r="690" ht="12"/>
+    <row r="691" ht="12"/>
+    <row r="692" ht="12"/>
+    <row r="693" ht="12"/>
+    <row r="694" ht="12"/>
+    <row r="695" ht="12"/>
+    <row r="696" ht="12"/>
+    <row r="697" ht="12"/>
+    <row r="698" ht="12"/>
+    <row r="699" ht="12"/>
+    <row r="700" ht="12"/>
+    <row r="701" ht="12"/>
+    <row r="702" ht="12"/>
+    <row r="703" ht="12"/>
+    <row r="704" ht="12"/>
+    <row r="705" ht="12"/>
+    <row r="706" ht="12"/>
+    <row r="707" ht="12"/>
+    <row r="708" ht="12"/>
+    <row r="709" ht="12"/>
+    <row r="710" ht="12"/>
+    <row r="711" ht="12"/>
+    <row r="712" ht="12"/>
+    <row r="713" ht="12"/>
+    <row r="714" ht="12"/>
+    <row r="715" ht="12"/>
+    <row r="716" ht="12"/>
+    <row r="717" ht="12"/>
+    <row r="718" ht="12"/>
+    <row r="719" ht="12"/>
+    <row r="720" ht="12"/>
+    <row r="721" ht="12"/>
+    <row r="722" ht="12"/>
+    <row r="723" ht="12"/>
+    <row r="724" ht="12"/>
+    <row r="725" ht="12"/>
+    <row r="726" ht="12"/>
+    <row r="727" ht="12"/>
+    <row r="728" ht="12"/>
+    <row r="729" ht="12"/>
+    <row r="730" ht="12"/>
+    <row r="731" ht="12"/>
+    <row r="732" ht="12"/>
+    <row r="733" ht="12"/>
+    <row r="734" ht="12"/>
+    <row r="735" ht="12"/>
+    <row r="736" ht="12"/>
+    <row r="737" ht="12"/>
+    <row r="738" ht="12"/>
+    <row r="739" ht="12"/>
+    <row r="740" ht="12"/>
+    <row r="741" ht="12"/>
+    <row r="742" ht="12"/>
+    <row r="743" ht="12"/>
+    <row r="744" ht="12"/>
+    <row r="745" ht="12"/>
+    <row r="746" ht="12"/>
+    <row r="747" ht="12"/>
+    <row r="748" ht="12"/>
+    <row r="749" ht="12"/>
+    <row r="750" ht="12"/>
+    <row r="751" ht="12"/>
+    <row r="752" ht="12"/>
+    <row r="753" ht="12"/>
+    <row r="754" ht="12"/>
+    <row r="755" ht="12"/>
+    <row r="756" ht="12"/>
+    <row r="757" ht="12"/>
+    <row r="758" ht="12"/>
+    <row r="759" ht="12"/>
+    <row r="760" ht="12"/>
+    <row r="761" ht="12"/>
+    <row r="762" ht="12"/>
+    <row r="763" ht="12"/>
+    <row r="764" ht="12"/>
+    <row r="765" ht="12"/>
+    <row r="766" ht="12"/>
+    <row r="767" ht="12"/>
+    <row r="768" ht="12"/>
+    <row r="769" ht="12"/>
+    <row r="770" ht="12"/>
+    <row r="771" ht="12"/>
+    <row r="772" ht="12"/>
+    <row r="773" ht="12"/>
+    <row r="774" ht="12"/>
+    <row r="775" ht="12"/>
+    <row r="776" ht="12"/>
+    <row r="777" ht="12"/>
+    <row r="778" ht="12"/>
+    <row r="779" ht="12"/>
+    <row r="780" ht="12"/>
+    <row r="781" ht="12"/>
+    <row r="782" ht="12"/>
+    <row r="783" ht="12"/>
+    <row r="784" ht="12"/>
+    <row r="785" ht="12"/>
+    <row r="786" ht="12"/>
+    <row r="787" ht="12"/>
+    <row r="788" ht="12"/>
+    <row r="789" ht="12"/>
+    <row r="790" ht="12"/>
+    <row r="791" ht="12"/>
+    <row r="792" ht="12"/>
+    <row r="793" ht="12"/>
+    <row r="794" ht="12"/>
+    <row r="795" ht="12"/>
+    <row r="796" ht="12"/>
+    <row r="797" ht="12"/>
+    <row r="798" ht="12"/>
+    <row r="799" ht="12"/>
+    <row r="800" ht="12"/>
+    <row r="801" ht="12"/>
+    <row r="802" ht="12"/>
+    <row r="803" ht="12"/>
+    <row r="804" ht="12"/>
+    <row r="805" ht="12"/>
+    <row r="806" ht="12"/>
+    <row r="807" ht="12"/>
+    <row r="808" ht="12"/>
+    <row r="809" ht="12"/>
+    <row r="810" ht="12"/>
+    <row r="811" ht="12"/>
+    <row r="812" ht="12"/>
+    <row r="813" ht="12"/>
+    <row r="814" ht="12"/>
+    <row r="815" ht="12"/>
+    <row r="816" ht="12"/>
+    <row r="817" ht="12"/>
+    <row r="818" ht="12"/>
+    <row r="819" ht="12"/>
+    <row r="820" ht="12"/>
+    <row r="821" ht="12"/>
+    <row r="822" ht="12"/>
+    <row r="823" ht="12"/>
+    <row r="824" ht="12"/>
+    <row r="825" ht="12"/>
+    <row r="826" ht="12"/>
+    <row r="827" ht="12"/>
+    <row r="828" ht="12"/>
+    <row r="829" ht="12"/>
+    <row r="830" ht="12"/>
+    <row r="831" ht="12"/>
+    <row r="832" ht="12"/>
+    <row r="833" ht="12"/>
+    <row r="834" ht="12"/>
+    <row r="835" ht="12"/>
+    <row r="836" ht="12"/>
+    <row r="837" ht="12"/>
+    <row r="838" ht="12"/>
+    <row r="839" ht="12"/>
+    <row r="840" ht="12"/>
+    <row r="841" ht="12"/>
+    <row r="842" ht="12"/>
+    <row r="843" ht="12"/>
+    <row r="844" ht="12"/>
+    <row r="845" ht="12"/>
+    <row r="846" ht="12"/>
+    <row r="847" ht="12"/>
+    <row r="848" ht="12"/>
+    <row r="849" ht="12"/>
+    <row r="850" ht="12"/>
+    <row r="851" ht="12"/>
+    <row r="852" ht="12"/>
+    <row r="853" ht="12"/>
+    <row r="854" ht="12"/>
+    <row r="855" ht="12"/>
+    <row r="856" ht="12"/>
+    <row r="857" ht="12"/>
+    <row r="858" ht="12"/>
+    <row r="859" ht="12"/>
+    <row r="860" ht="12"/>
+    <row r="861" ht="12"/>
+    <row r="862" ht="12"/>
+    <row r="863" ht="12"/>
+    <row r="864" ht="12"/>
+    <row r="865" ht="12"/>
+    <row r="866" ht="12"/>
+    <row r="867" ht="12"/>
+    <row r="868" ht="12"/>
+    <row r="869" ht="12"/>
+    <row r="870" ht="12"/>
+    <row r="871" ht="12"/>
+    <row r="872" ht="12"/>
+    <row r="873" ht="12"/>
+    <row r="874" ht="12"/>
+    <row r="875" ht="12"/>
+    <row r="876" ht="12"/>
+    <row r="877" ht="12"/>
+    <row r="878" ht="12"/>
+    <row r="879" ht="12"/>
+    <row r="880" ht="12"/>
+    <row r="881" ht="12"/>
+    <row r="882" ht="12"/>
+    <row r="883" ht="12"/>
+    <row r="884" ht="12"/>
+    <row r="885" ht="12"/>
+    <row r="886" ht="12"/>
+    <row r="887" ht="12"/>
+    <row r="888" ht="12"/>
+    <row r="889" ht="12"/>
+    <row r="890" ht="12"/>
+    <row r="891" ht="12"/>
+    <row r="892" ht="12"/>
+    <row r="893" ht="12"/>
+    <row r="894" ht="12"/>
+    <row r="895" ht="12"/>
+    <row r="896" ht="12"/>
+    <row r="897" ht="12"/>
+    <row r="898" ht="12"/>
+    <row r="899" ht="12"/>
+    <row r="900" ht="12"/>
+    <row r="901" ht="12"/>
+    <row r="902" ht="12"/>
+    <row r="903" ht="12"/>
+    <row r="904" ht="12"/>
+    <row r="905" ht="12"/>
+    <row r="906" ht="12"/>
+    <row r="907" ht="12"/>
+    <row r="908" ht="12"/>
+    <row r="909" ht="12"/>
+    <row r="910" ht="12"/>
+    <row r="911" ht="12"/>
+    <row r="912" ht="12"/>
+    <row r="913" ht="12"/>
+    <row r="914" ht="12"/>
+    <row r="915" ht="12"/>
+    <row r="916" ht="12"/>
+    <row r="917" ht="12"/>
+    <row r="918" ht="12"/>
+    <row r="919" ht="12"/>
+    <row r="920" ht="12"/>
+    <row r="921" ht="12"/>
+    <row r="922" ht="12"/>
+    <row r="923" ht="12"/>
+    <row r="924" ht="12"/>
+    <row r="925" ht="12"/>
+    <row r="926" ht="12"/>
+    <row r="927" ht="12"/>
+    <row r="928" ht="12"/>
+    <row r="929" ht="12"/>
+    <row r="930" ht="12"/>
+    <row r="931" ht="12"/>
+    <row r="932" ht="12"/>
+    <row r="933" ht="12"/>
+    <row r="934" ht="12"/>
+    <row r="935" ht="12"/>
+    <row r="936" ht="12"/>
+    <row r="937" ht="12"/>
+    <row r="938" ht="12"/>
+    <row r="939" ht="12"/>
+    <row r="940" ht="12"/>
+    <row r="941" ht="12"/>
+    <row r="942" ht="12"/>
+    <row r="943" ht="12"/>
+    <row r="944" ht="12"/>
+    <row r="945" ht="12"/>
+    <row r="946" ht="12"/>
+    <row r="947" ht="12"/>
+    <row r="948" ht="12"/>
+    <row r="949" ht="12"/>
+    <row r="950" ht="12"/>
+    <row r="951" ht="12"/>
+    <row r="952" ht="12"/>
+    <row r="953" ht="12"/>
+    <row r="954" ht="12"/>
+    <row r="955" ht="12"/>
+    <row r="956" ht="12"/>
+    <row r="957" ht="12"/>
+    <row r="958" ht="12"/>
+    <row r="959" ht="12"/>
+    <row r="960" ht="12"/>
+    <row r="961" ht="12"/>
+    <row r="962" ht="12"/>
+    <row r="963" ht="12"/>
+    <row r="964" ht="12"/>
+    <row r="965" ht="12"/>
+    <row r="966" ht="12"/>
+    <row r="967" ht="12"/>
+    <row r="968" ht="12"/>
+    <row r="969" ht="12"/>
+    <row r="970" ht="12"/>
+    <row r="971" ht="12"/>
+    <row r="972" ht="12"/>
+    <row r="973" ht="12"/>
+    <row r="974" ht="12"/>
+    <row r="975" ht="12"/>
+    <row r="976" ht="12"/>
+    <row r="977" ht="12"/>
+    <row r="978" ht="12"/>
+    <row r="979" ht="12"/>
+    <row r="980" ht="12"/>
+    <row r="981" ht="12"/>
+    <row r="982" ht="12"/>
+    <row r="983" ht="12"/>
+    <row r="984" ht="12"/>
+    <row r="985" ht="12"/>
+    <row r="986" ht="12"/>
+    <row r="987" ht="12"/>
+    <row r="988" ht="12"/>
+    <row r="989" ht="12"/>
+    <row r="990" ht="12"/>
+    <row r="991" ht="12"/>
+    <row r="992" ht="12"/>
+    <row r="993" ht="12"/>
+    <row r="994" ht="12"/>
+    <row r="995" ht="12"/>
+    <row r="996" ht="12"/>
+    <row r="997" ht="12"/>
+    <row r="998" ht="12"/>
+    <row r="999" ht="12"/>
+    <row r="1000" ht="12"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Orders.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Orders.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="26004"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimitarkokov/PycharmProjects/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCCE9F7-561B-6143-8493-D47F361FE1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" activeTab="1"/>
+    <workbookView xWindow="40960" yWindow="4720" windowWidth="25360" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="6" r:id="rId1"/>
@@ -17,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cases!$A$1:$Q$115</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="214">
   <si>
     <t>table_name</t>
   </si>
@@ -452,18 +458,6 @@
     <t>orderstatus</t>
   </si>
   <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>Ord Stat</t>
-  </si>
-  <si>
-    <t>capitalise</t>
-  </si>
-  <si>
-    <t>new transformation ?</t>
-  </si>
-  <si>
     <t>statusdate</t>
   </si>
   <si>
@@ -672,13 +666,22 @@
   </si>
   <si>
     <t>Order No, CoP Case, Bond No., Ord Stat</t>
+  </si>
+  <si>
+    <t>table_transforms</t>
+  </si>
+  <si>
+    <t>mapped by table transform</t>
+  </si>
+  <si>
+    <t>set_cases_orderstatus = {"source_cols": ["Ord Stat", "Ord Type"], "target_cols": ["orderstatus"]}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -837,7 +840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -892,6 +895,8 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1106,81 +1111,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.83203125" customWidth="1"/>
     <col min="8" max="8" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="29" customFormat="1">
+    <row r="1" spans="1:9" s="29" customFormat="1">
       <c r="A1" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="I1" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="29" customFormat="1">
+      <c r="A2" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>207</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="29" customFormat="1">
-      <c r="A2" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>211</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>60</v>
       </c>
       <c r="G2" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="H2" s="29" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="29" customFormat="1">
+    </row>
+    <row r="3" spans="1:9" s="29" customFormat="1">
       <c r="A3" s="29" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1194,15 +1205,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51:XFD51"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
@@ -1221,7 +1232,7 @@
     <col min="17" max="17" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14">
+    <row r="1" spans="1:17" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="364">
+    <row r="2" spans="1:17" ht="409.6">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1302,7 +1313,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="14">
+    <row r="3" spans="1:17" ht="15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1327,7 +1338,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="14">
+    <row r="4" spans="1:17" ht="15">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1352,7 +1363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="14">
+    <row r="5" spans="1:17" ht="15">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1377,7 +1388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="14">
+    <row r="6" spans="1:17" ht="15">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1405,7 +1416,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="14">
+    <row r="7" spans="1:17" ht="15">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1427,7 +1438,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="14">
+    <row r="8" spans="1:17" ht="15">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1452,7 +1463,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="14">
+    <row r="9" spans="1:17" ht="15">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1474,7 +1485,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="14">
+    <row r="10" spans="1:17" ht="15">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1499,7 +1510,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="14">
+    <row r="11" spans="1:17" ht="15">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1533,7 +1544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="14">
+    <row r="12" spans="1:17" ht="15">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1555,7 +1566,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="14">
+    <row r="13" spans="1:17" ht="15">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1577,7 +1588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="14">
+    <row r="14" spans="1:17" ht="15">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1599,7 +1610,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="14">
+    <row r="15" spans="1:17" ht="15">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1621,7 +1632,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="14">
+    <row r="16" spans="1:17" ht="15">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1643,7 +1654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="14">
+    <row r="17" spans="1:17" ht="15">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1668,7 +1679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="14">
+    <row r="18" spans="1:17" ht="15">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1693,7 +1704,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="14">
+    <row r="19" spans="1:17" ht="15">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1718,7 +1729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="14">
+    <row r="20" spans="1:17" ht="15">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -3492,25 +3503,17 @@
       <c r="E95" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H95" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I95" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>143</v>
-      </c>
+      <c r="H95" s="6"/>
+      <c r="I95" s="31"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
       <c r="P95" s="4" t="s">
         <v>21</v>
       </c>
       <c r="Q95" s="2" t="s">
-        <v>144</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="15.75" customHeight="1">
@@ -3521,7 +3524,7 @@
         <v>17</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>42</v>
@@ -3532,7 +3535,7 @@
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
       <c r="P96" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="15.75" customHeight="1">
@@ -3543,7 +3546,7 @@
         <v>17</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>34</v>
@@ -3555,10 +3558,10 @@
         <v>36</v>
       </c>
       <c r="I97" s="14" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
@@ -3574,7 +3577,7 @@
         <v>17</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>34</v>
@@ -3596,7 +3599,7 @@
         <v>17</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>19</v>
@@ -3621,7 +3624,7 @@
         <v>17</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>19</v>
@@ -3643,7 +3646,7 @@
         <v>17</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>42</v>
@@ -3665,7 +3668,7 @@
         <v>17</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>42</v>
@@ -3687,7 +3690,7 @@
         <v>17</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>42</v>
@@ -3709,7 +3712,7 @@
         <v>17</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>47</v>
@@ -3721,10 +3724,10 @@
         <v>36</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
@@ -3740,7 +3743,7 @@
         <v>17</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>34</v>
@@ -3762,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>34</v>
@@ -3784,7 +3787,7 @@
         <v>17</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>34</v>
@@ -3806,7 +3809,7 @@
         <v>17</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>34</v>
@@ -3828,7 +3831,7 @@
         <v>17</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>42</v>
@@ -3840,10 +3843,10 @@
         <v>36</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
@@ -3859,7 +3862,7 @@
         <v>17</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>34</v>
@@ -3870,7 +3873,7 @@
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
       <c r="P110" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="15.75" customHeight="1">
@@ -3881,7 +3884,7 @@
         <v>17</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>34</v>
@@ -3899,7 +3902,7 @@
         <v>39</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
@@ -3915,7 +3918,7 @@
         <v>17</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>34</v>
@@ -3937,7 +3940,7 @@
         <v>17</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>47</v>
@@ -3961,7 +3964,7 @@
         <v>17</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>47</v>
@@ -3973,10 +3976,10 @@
         <v>36</v>
       </c>
       <c r="I114" s="15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
@@ -3992,7 +3995,7 @@
         <v>17</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>42</v>
@@ -4003,7 +4006,7 @@
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
       <c r="P115" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116" spans="1:16" ht="15.75" customHeight="1">
@@ -4806,692 +4809,692 @@
       <c r="B315" s="4"/>
       <c r="O315" s="4"/>
     </row>
-    <row r="316" spans="2:15" ht="12"/>
-    <row r="317" spans="2:15" ht="12"/>
-    <row r="318" spans="2:15" ht="12"/>
-    <row r="319" spans="2:15" ht="12"/>
-    <row r="320" spans="2:15" ht="12"/>
-    <row r="321" ht="12"/>
-    <row r="322" ht="12"/>
-    <row r="323" ht="12"/>
-    <row r="324" ht="12"/>
-    <row r="325" ht="12"/>
-    <row r="326" ht="12"/>
-    <row r="327" ht="12"/>
-    <row r="328" ht="12"/>
-    <row r="329" ht="12"/>
-    <row r="330" ht="12"/>
-    <row r="331" ht="12"/>
-    <row r="332" ht="12"/>
-    <row r="333" ht="12"/>
-    <row r="334" ht="12"/>
-    <row r="335" ht="12"/>
-    <row r="336" ht="12"/>
-    <row r="337" ht="12"/>
-    <row r="338" ht="12"/>
-    <row r="339" ht="12"/>
-    <row r="340" ht="12"/>
-    <row r="341" ht="12"/>
-    <row r="342" ht="12"/>
-    <row r="343" ht="12"/>
-    <row r="344" ht="12"/>
-    <row r="345" ht="12"/>
-    <row r="346" ht="12"/>
-    <row r="347" ht="12"/>
-    <row r="348" ht="12"/>
-    <row r="349" ht="12"/>
-    <row r="350" ht="12"/>
-    <row r="351" ht="12"/>
-    <row r="352" ht="12"/>
-    <row r="353" ht="12"/>
-    <row r="354" ht="12"/>
-    <row r="355" ht="12"/>
-    <row r="356" ht="12"/>
-    <row r="357" ht="12"/>
-    <row r="358" ht="12"/>
-    <row r="359" ht="12"/>
-    <row r="360" ht="12"/>
-    <row r="361" ht="12"/>
-    <row r="362" ht="12"/>
-    <row r="363" ht="12"/>
-    <row r="364" ht="12"/>
-    <row r="365" ht="12"/>
-    <row r="366" ht="12"/>
-    <row r="367" ht="12"/>
-    <row r="368" ht="12"/>
-    <row r="369" ht="12"/>
-    <row r="370" ht="12"/>
-    <row r="371" ht="12"/>
-    <row r="372" ht="12"/>
-    <row r="373" ht="12"/>
-    <row r="374" ht="12"/>
-    <row r="375" ht="12"/>
-    <row r="376" ht="12"/>
-    <row r="377" ht="12"/>
-    <row r="378" ht="12"/>
-    <row r="379" ht="12"/>
-    <row r="380" ht="12"/>
-    <row r="381" ht="12"/>
-    <row r="382" ht="12"/>
-    <row r="383" ht="12"/>
-    <row r="384" ht="12"/>
-    <row r="385" ht="12"/>
-    <row r="386" ht="12"/>
-    <row r="387" ht="12"/>
-    <row r="388" ht="12"/>
-    <row r="389" ht="12"/>
-    <row r="390" ht="12"/>
-    <row r="391" ht="12"/>
-    <row r="392" ht="12"/>
-    <row r="393" ht="12"/>
-    <row r="394" ht="12"/>
-    <row r="395" ht="12"/>
-    <row r="396" ht="12"/>
-    <row r="397" ht="12"/>
-    <row r="398" ht="12"/>
-    <row r="399" ht="12"/>
-    <row r="400" ht="12"/>
-    <row r="401" ht="12"/>
-    <row r="402" ht="12"/>
-    <row r="403" ht="12"/>
-    <row r="404" ht="12"/>
-    <row r="405" ht="12"/>
-    <row r="406" ht="12"/>
-    <row r="407" ht="12"/>
-    <row r="408" ht="12"/>
-    <row r="409" ht="12"/>
-    <row r="410" ht="12"/>
-    <row r="411" ht="12"/>
-    <row r="412" ht="12"/>
-    <row r="413" ht="12"/>
-    <row r="414" ht="12"/>
-    <row r="415" ht="12"/>
-    <row r="416" ht="12"/>
-    <row r="417" ht="12"/>
-    <row r="418" ht="12"/>
-    <row r="419" ht="12"/>
-    <row r="420" ht="12"/>
-    <row r="421" ht="12"/>
-    <row r="422" ht="12"/>
-    <row r="423" ht="12"/>
-    <row r="424" ht="12"/>
-    <row r="425" ht="12"/>
-    <row r="426" ht="12"/>
-    <row r="427" ht="12"/>
-    <row r="428" ht="12"/>
-    <row r="429" ht="12"/>
-    <row r="430" ht="12"/>
-    <row r="431" ht="12"/>
-    <row r="432" ht="12"/>
-    <row r="433" ht="12"/>
-    <row r="434" ht="12"/>
-    <row r="435" ht="12"/>
-    <row r="436" ht="12"/>
-    <row r="437" ht="12"/>
-    <row r="438" ht="12"/>
-    <row r="439" ht="12"/>
-    <row r="440" ht="12"/>
-    <row r="441" ht="12"/>
-    <row r="442" ht="12"/>
-    <row r="443" ht="12"/>
-    <row r="444" ht="12"/>
-    <row r="445" ht="12"/>
-    <row r="446" ht="12"/>
-    <row r="447" ht="12"/>
-    <row r="448" ht="12"/>
-    <row r="449" ht="12"/>
-    <row r="450" ht="12"/>
-    <row r="451" ht="12"/>
-    <row r="452" ht="12"/>
-    <row r="453" ht="12"/>
-    <row r="454" ht="12"/>
-    <row r="455" ht="12"/>
-    <row r="456" ht="12"/>
-    <row r="457" ht="12"/>
-    <row r="458" ht="12"/>
-    <row r="459" ht="12"/>
-    <row r="460" ht="12"/>
-    <row r="461" ht="12"/>
-    <row r="462" ht="12"/>
-    <row r="463" ht="12"/>
-    <row r="464" ht="12"/>
-    <row r="465" ht="12"/>
-    <row r="466" ht="12"/>
-    <row r="467" ht="12"/>
-    <row r="468" ht="12"/>
-    <row r="469" ht="12"/>
-    <row r="470" ht="12"/>
-    <row r="471" ht="12"/>
-    <row r="472" ht="12"/>
-    <row r="473" ht="12"/>
-    <row r="474" ht="12"/>
-    <row r="475" ht="12"/>
-    <row r="476" ht="12"/>
-    <row r="477" ht="12"/>
-    <row r="478" ht="12"/>
-    <row r="479" ht="12"/>
-    <row r="480" ht="12"/>
-    <row r="481" ht="12"/>
-    <row r="482" ht="12"/>
-    <row r="483" ht="12"/>
-    <row r="484" ht="12"/>
-    <row r="485" ht="12"/>
-    <row r="486" ht="12"/>
-    <row r="487" ht="12"/>
-    <row r="488" ht="12"/>
-    <row r="489" ht="12"/>
-    <row r="490" ht="12"/>
-    <row r="491" ht="12"/>
-    <row r="492" ht="12"/>
-    <row r="493" ht="12"/>
-    <row r="494" ht="12"/>
-    <row r="495" ht="12"/>
-    <row r="496" ht="12"/>
-    <row r="497" ht="12"/>
-    <row r="498" ht="12"/>
-    <row r="499" ht="12"/>
-    <row r="500" ht="12"/>
-    <row r="501" ht="12"/>
-    <row r="502" ht="12"/>
-    <row r="503" ht="12"/>
-    <row r="504" ht="12"/>
-    <row r="505" ht="12"/>
-    <row r="506" ht="12"/>
-    <row r="507" ht="12"/>
-    <row r="508" ht="12"/>
-    <row r="509" ht="12"/>
-    <row r="510" ht="12"/>
-    <row r="511" ht="12"/>
-    <row r="512" ht="12"/>
-    <row r="513" ht="12"/>
-    <row r="514" ht="12"/>
-    <row r="515" ht="12"/>
-    <row r="516" ht="12"/>
-    <row r="517" ht="12"/>
-    <row r="518" ht="12"/>
-    <row r="519" ht="12"/>
-    <row r="520" ht="12"/>
-    <row r="521" ht="12"/>
-    <row r="522" ht="12"/>
-    <row r="523" ht="12"/>
-    <row r="524" ht="12"/>
-    <row r="525" ht="12"/>
-    <row r="526" ht="12"/>
-    <row r="527" ht="12"/>
-    <row r="528" ht="12"/>
-    <row r="529" ht="12"/>
-    <row r="530" ht="12"/>
-    <row r="531" ht="12"/>
-    <row r="532" ht="12"/>
-    <row r="533" ht="12"/>
-    <row r="534" ht="12"/>
-    <row r="535" ht="12"/>
-    <row r="536" ht="12"/>
-    <row r="537" ht="12"/>
-    <row r="538" ht="12"/>
-    <row r="539" ht="12"/>
-    <row r="540" ht="12"/>
-    <row r="541" ht="12"/>
-    <row r="542" ht="12"/>
-    <row r="543" ht="12"/>
-    <row r="544" ht="12"/>
-    <row r="545" ht="12"/>
-    <row r="546" ht="12"/>
-    <row r="547" ht="12"/>
-    <row r="548" ht="12"/>
-    <row r="549" ht="12"/>
-    <row r="550" ht="12"/>
-    <row r="551" ht="12"/>
-    <row r="552" ht="12"/>
-    <row r="553" ht="12"/>
-    <row r="554" ht="12"/>
-    <row r="555" ht="12"/>
-    <row r="556" ht="12"/>
-    <row r="557" ht="12"/>
-    <row r="558" ht="12"/>
-    <row r="559" ht="12"/>
-    <row r="560" ht="12"/>
-    <row r="561" ht="12"/>
-    <row r="562" ht="12"/>
-    <row r="563" ht="12"/>
-    <row r="564" ht="12"/>
-    <row r="565" ht="12"/>
-    <row r="566" ht="12"/>
-    <row r="567" ht="12"/>
-    <row r="568" ht="12"/>
-    <row r="569" ht="12"/>
-    <row r="570" ht="12"/>
-    <row r="571" ht="12"/>
-    <row r="572" ht="12"/>
-    <row r="573" ht="12"/>
-    <row r="574" ht="12"/>
-    <row r="575" ht="12"/>
-    <row r="576" ht="12"/>
-    <row r="577" ht="12"/>
-    <row r="578" ht="12"/>
-    <row r="579" ht="12"/>
-    <row r="580" ht="12"/>
-    <row r="581" ht="12"/>
-    <row r="582" ht="12"/>
-    <row r="583" ht="12"/>
-    <row r="584" ht="12"/>
-    <row r="585" ht="12"/>
-    <row r="586" ht="12"/>
-    <row r="587" ht="12"/>
-    <row r="588" ht="12"/>
-    <row r="589" ht="12"/>
-    <row r="590" ht="12"/>
-    <row r="591" ht="12"/>
-    <row r="592" ht="12"/>
-    <row r="593" ht="12"/>
-    <row r="594" ht="12"/>
-    <row r="595" ht="12"/>
-    <row r="596" ht="12"/>
-    <row r="597" ht="12"/>
-    <row r="598" ht="12"/>
-    <row r="599" ht="12"/>
-    <row r="600" ht="12"/>
-    <row r="601" ht="12"/>
-    <row r="602" ht="12"/>
-    <row r="603" ht="12"/>
-    <row r="604" ht="12"/>
-    <row r="605" ht="12"/>
-    <row r="606" ht="12"/>
-    <row r="607" ht="12"/>
-    <row r="608" ht="12"/>
-    <row r="609" ht="12"/>
-    <row r="610" ht="12"/>
-    <row r="611" ht="12"/>
-    <row r="612" ht="12"/>
-    <row r="613" ht="12"/>
-    <row r="614" ht="12"/>
-    <row r="615" ht="12"/>
-    <row r="616" ht="12"/>
-    <row r="617" ht="12"/>
-    <row r="618" ht="12"/>
-    <row r="619" ht="12"/>
-    <row r="620" ht="12"/>
-    <row r="621" ht="12"/>
-    <row r="622" ht="12"/>
-    <row r="623" ht="12"/>
-    <row r="624" ht="12"/>
-    <row r="625" ht="12"/>
-    <row r="626" ht="12"/>
-    <row r="627" ht="12"/>
-    <row r="628" ht="12"/>
-    <row r="629" ht="12"/>
-    <row r="630" ht="12"/>
-    <row r="631" ht="12"/>
-    <row r="632" ht="12"/>
-    <row r="633" ht="12"/>
-    <row r="634" ht="12"/>
-    <row r="635" ht="12"/>
-    <row r="636" ht="12"/>
-    <row r="637" ht="12"/>
-    <row r="638" ht="12"/>
-    <row r="639" ht="12"/>
-    <row r="640" ht="12"/>
-    <row r="641" ht="12"/>
-    <row r="642" ht="12"/>
-    <row r="643" ht="12"/>
-    <row r="644" ht="12"/>
-    <row r="645" ht="12"/>
-    <row r="646" ht="12"/>
-    <row r="647" ht="12"/>
-    <row r="648" ht="12"/>
-    <row r="649" ht="12"/>
-    <row r="650" ht="12"/>
-    <row r="651" ht="12"/>
-    <row r="652" ht="12"/>
-    <row r="653" ht="12"/>
-    <row r="654" ht="12"/>
-    <row r="655" ht="12"/>
-    <row r="656" ht="12"/>
-    <row r="657" ht="12"/>
-    <row r="658" ht="12"/>
-    <row r="659" ht="12"/>
-    <row r="660" ht="12"/>
-    <row r="661" ht="12"/>
-    <row r="662" ht="12"/>
-    <row r="663" ht="12"/>
-    <row r="664" ht="12"/>
-    <row r="665" ht="12"/>
-    <row r="666" ht="12"/>
-    <row r="667" ht="12"/>
-    <row r="668" ht="12"/>
-    <row r="669" ht="12"/>
-    <row r="670" ht="12"/>
-    <row r="671" ht="12"/>
-    <row r="672" ht="12"/>
-    <row r="673" ht="12"/>
-    <row r="674" ht="12"/>
-    <row r="675" ht="12"/>
-    <row r="676" ht="12"/>
-    <row r="677" ht="12"/>
-    <row r="678" ht="12"/>
-    <row r="679" ht="12"/>
-    <row r="680" ht="12"/>
-    <row r="681" ht="12"/>
-    <row r="682" ht="12"/>
-    <row r="683" ht="12"/>
-    <row r="684" ht="12"/>
-    <row r="685" ht="12"/>
-    <row r="686" ht="12"/>
-    <row r="687" ht="12"/>
-    <row r="688" ht="12"/>
-    <row r="689" ht="12"/>
-    <row r="690" ht="12"/>
-    <row r="691" ht="12"/>
-    <row r="692" ht="12"/>
-    <row r="693" ht="12"/>
-    <row r="694" ht="12"/>
-    <row r="695" ht="12"/>
-    <row r="696" ht="12"/>
-    <row r="697" ht="12"/>
-    <row r="698" ht="12"/>
-    <row r="699" ht="12"/>
-    <row r="700" ht="12"/>
-    <row r="701" ht="12"/>
-    <row r="702" ht="12"/>
-    <row r="703" ht="12"/>
-    <row r="704" ht="12"/>
-    <row r="705" ht="12"/>
-    <row r="706" ht="12"/>
-    <row r="707" ht="12"/>
-    <row r="708" ht="12"/>
-    <row r="709" ht="12"/>
-    <row r="710" ht="12"/>
-    <row r="711" ht="12"/>
-    <row r="712" ht="12"/>
-    <row r="713" ht="12"/>
-    <row r="714" ht="12"/>
-    <row r="715" ht="12"/>
-    <row r="716" ht="12"/>
-    <row r="717" ht="12"/>
-    <row r="718" ht="12"/>
-    <row r="719" ht="12"/>
-    <row r="720" ht="12"/>
-    <row r="721" ht="12"/>
-    <row r="722" ht="12"/>
-    <row r="723" ht="12"/>
-    <row r="724" ht="12"/>
-    <row r="725" ht="12"/>
-    <row r="726" ht="12"/>
-    <row r="727" ht="12"/>
-    <row r="728" ht="12"/>
-    <row r="729" ht="12"/>
-    <row r="730" ht="12"/>
-    <row r="731" ht="12"/>
-    <row r="732" ht="12"/>
-    <row r="733" ht="12"/>
-    <row r="734" ht="12"/>
-    <row r="735" ht="12"/>
-    <row r="736" ht="12"/>
-    <row r="737" ht="12"/>
-    <row r="738" ht="12"/>
-    <row r="739" ht="12"/>
-    <row r="740" ht="12"/>
-    <row r="741" ht="12"/>
-    <row r="742" ht="12"/>
-    <row r="743" ht="12"/>
-    <row r="744" ht="12"/>
-    <row r="745" ht="12"/>
-    <row r="746" ht="12"/>
-    <row r="747" ht="12"/>
-    <row r="748" ht="12"/>
-    <row r="749" ht="12"/>
-    <row r="750" ht="12"/>
-    <row r="751" ht="12"/>
-    <row r="752" ht="12"/>
-    <row r="753" ht="12"/>
-    <row r="754" ht="12"/>
-    <row r="755" ht="12"/>
-    <row r="756" ht="12"/>
-    <row r="757" ht="12"/>
-    <row r="758" ht="12"/>
-    <row r="759" ht="12"/>
-    <row r="760" ht="12"/>
-    <row r="761" ht="12"/>
-    <row r="762" ht="12"/>
-    <row r="763" ht="12"/>
-    <row r="764" ht="12"/>
-    <row r="765" ht="12"/>
-    <row r="766" ht="12"/>
-    <row r="767" ht="12"/>
-    <row r="768" ht="12"/>
-    <row r="769" ht="12"/>
-    <row r="770" ht="12"/>
-    <row r="771" ht="12"/>
-    <row r="772" ht="12"/>
-    <row r="773" ht="12"/>
-    <row r="774" ht="12"/>
-    <row r="775" ht="12"/>
-    <row r="776" ht="12"/>
-    <row r="777" ht="12"/>
-    <row r="778" ht="12"/>
-    <row r="779" ht="12"/>
-    <row r="780" ht="12"/>
-    <row r="781" ht="12"/>
-    <row r="782" ht="12"/>
-    <row r="783" ht="12"/>
-    <row r="784" ht="12"/>
-    <row r="785" ht="12"/>
-    <row r="786" ht="12"/>
-    <row r="787" ht="12"/>
-    <row r="788" ht="12"/>
-    <row r="789" ht="12"/>
-    <row r="790" ht="12"/>
-    <row r="791" ht="12"/>
-    <row r="792" ht="12"/>
-    <row r="793" ht="12"/>
-    <row r="794" ht="12"/>
-    <row r="795" ht="12"/>
-    <row r="796" ht="12"/>
-    <row r="797" ht="12"/>
-    <row r="798" ht="12"/>
-    <row r="799" ht="12"/>
-    <row r="800" ht="12"/>
-    <row r="801" ht="12"/>
-    <row r="802" ht="12"/>
-    <row r="803" ht="12"/>
-    <row r="804" ht="12"/>
-    <row r="805" ht="12"/>
-    <row r="806" ht="12"/>
-    <row r="807" ht="12"/>
-    <row r="808" ht="12"/>
-    <row r="809" ht="12"/>
-    <row r="810" ht="12"/>
-    <row r="811" ht="12"/>
-    <row r="812" ht="12"/>
-    <row r="813" ht="12"/>
-    <row r="814" ht="12"/>
-    <row r="815" ht="12"/>
-    <row r="816" ht="12"/>
-    <row r="817" ht="12"/>
-    <row r="818" ht="12"/>
-    <row r="819" ht="12"/>
-    <row r="820" ht="12"/>
-    <row r="821" ht="12"/>
-    <row r="822" ht="12"/>
-    <row r="823" ht="12"/>
-    <row r="824" ht="12"/>
-    <row r="825" ht="12"/>
-    <row r="826" ht="12"/>
-    <row r="827" ht="12"/>
-    <row r="828" ht="12"/>
-    <row r="829" ht="12"/>
-    <row r="830" ht="12"/>
-    <row r="831" ht="12"/>
-    <row r="832" ht="12"/>
-    <row r="833" ht="12"/>
-    <row r="834" ht="12"/>
-    <row r="835" ht="12"/>
-    <row r="836" ht="12"/>
-    <row r="837" ht="12"/>
-    <row r="838" ht="12"/>
-    <row r="839" ht="12"/>
-    <row r="840" ht="12"/>
-    <row r="841" ht="12"/>
-    <row r="842" ht="12"/>
-    <row r="843" ht="12"/>
-    <row r="844" ht="12"/>
-    <row r="845" ht="12"/>
-    <row r="846" ht="12"/>
-    <row r="847" ht="12"/>
-    <row r="848" ht="12"/>
-    <row r="849" ht="12"/>
-    <row r="850" ht="12"/>
-    <row r="851" ht="12"/>
-    <row r="852" ht="12"/>
-    <row r="853" ht="12"/>
-    <row r="854" ht="12"/>
-    <row r="855" ht="12"/>
-    <row r="856" ht="12"/>
-    <row r="857" ht="12"/>
-    <row r="858" ht="12"/>
-    <row r="859" ht="12"/>
-    <row r="860" ht="12"/>
-    <row r="861" ht="12"/>
-    <row r="862" ht="12"/>
-    <row r="863" ht="12"/>
-    <row r="864" ht="12"/>
-    <row r="865" ht="12"/>
-    <row r="866" ht="12"/>
-    <row r="867" ht="12"/>
-    <row r="868" ht="12"/>
-    <row r="869" ht="12"/>
-    <row r="870" ht="12"/>
-    <row r="871" ht="12"/>
-    <row r="872" ht="12"/>
-    <row r="873" ht="12"/>
-    <row r="874" ht="12"/>
-    <row r="875" ht="12"/>
-    <row r="876" ht="12"/>
-    <row r="877" ht="12"/>
-    <row r="878" ht="12"/>
-    <row r="879" ht="12"/>
-    <row r="880" ht="12"/>
-    <row r="881" ht="12"/>
-    <row r="882" ht="12"/>
-    <row r="883" ht="12"/>
-    <row r="884" ht="12"/>
-    <row r="885" ht="12"/>
-    <row r="886" ht="12"/>
-    <row r="887" ht="12"/>
-    <row r="888" ht="12"/>
-    <row r="889" ht="12"/>
-    <row r="890" ht="12"/>
-    <row r="891" ht="12"/>
-    <row r="892" ht="12"/>
-    <row r="893" ht="12"/>
-    <row r="894" ht="12"/>
-    <row r="895" ht="12"/>
-    <row r="896" ht="12"/>
-    <row r="897" ht="12"/>
-    <row r="898" ht="12"/>
-    <row r="899" ht="12"/>
-    <row r="900" ht="12"/>
-    <row r="901" ht="12"/>
-    <row r="902" ht="12"/>
-    <row r="903" ht="12"/>
-    <row r="904" ht="12"/>
-    <row r="905" ht="12"/>
-    <row r="906" ht="12"/>
-    <row r="907" ht="12"/>
-    <row r="908" ht="12"/>
-    <row r="909" ht="12"/>
-    <row r="910" ht="12"/>
-    <row r="911" ht="12"/>
-    <row r="912" ht="12"/>
-    <row r="913" ht="12"/>
-    <row r="914" ht="12"/>
-    <row r="915" ht="12"/>
-    <row r="916" ht="12"/>
-    <row r="917" ht="12"/>
-    <row r="918" ht="12"/>
-    <row r="919" ht="12"/>
-    <row r="920" ht="12"/>
-    <row r="921" ht="12"/>
-    <row r="922" ht="12"/>
-    <row r="923" ht="12"/>
-    <row r="924" ht="12"/>
-    <row r="925" ht="12"/>
-    <row r="926" ht="12"/>
-    <row r="927" ht="12"/>
-    <row r="928" ht="12"/>
-    <row r="929" ht="12"/>
-    <row r="930" ht="12"/>
-    <row r="931" ht="12"/>
-    <row r="932" ht="12"/>
-    <row r="933" ht="12"/>
-    <row r="934" ht="12"/>
-    <row r="935" ht="12"/>
-    <row r="936" ht="12"/>
-    <row r="937" ht="12"/>
-    <row r="938" ht="12"/>
-    <row r="939" ht="12"/>
-    <row r="940" ht="12"/>
-    <row r="941" ht="12"/>
-    <row r="942" ht="12"/>
-    <row r="943" ht="12"/>
-    <row r="944" ht="12"/>
-    <row r="945" ht="12"/>
-    <row r="946" ht="12"/>
-    <row r="947" ht="12"/>
-    <row r="948" ht="12"/>
-    <row r="949" ht="12"/>
-    <row r="950" ht="12"/>
-    <row r="951" ht="12"/>
-    <row r="952" ht="12"/>
-    <row r="953" ht="12"/>
-    <row r="954" ht="12"/>
-    <row r="955" ht="12"/>
-    <row r="956" ht="12"/>
-    <row r="957" ht="12"/>
-    <row r="958" ht="12"/>
-    <row r="959" ht="12"/>
-    <row r="960" ht="12"/>
-    <row r="961" ht="12"/>
-    <row r="962" ht="12"/>
-    <row r="963" ht="12"/>
-    <row r="964" ht="12"/>
-    <row r="965" ht="12"/>
-    <row r="966" ht="12"/>
-    <row r="967" ht="12"/>
-    <row r="968" ht="12"/>
-    <row r="969" ht="12"/>
-    <row r="970" ht="12"/>
-    <row r="971" ht="12"/>
-    <row r="972" ht="12"/>
-    <row r="973" ht="12"/>
-    <row r="974" ht="12"/>
-    <row r="975" ht="12"/>
-    <row r="976" ht="12"/>
-    <row r="977" ht="12"/>
-    <row r="978" ht="12"/>
-    <row r="979" ht="12"/>
-    <row r="980" ht="12"/>
-    <row r="981" ht="12"/>
-    <row r="982" ht="12"/>
-    <row r="983" ht="12"/>
-    <row r="984" ht="12"/>
-    <row r="985" ht="12"/>
-    <row r="986" ht="12"/>
-    <row r="987" ht="12"/>
-    <row r="988" ht="12"/>
-    <row r="989" ht="12"/>
-    <row r="990" ht="12"/>
-    <row r="991" ht="12"/>
-    <row r="992" ht="12"/>
-    <row r="993" ht="12"/>
-    <row r="994" ht="12"/>
-    <row r="995" ht="12"/>
-    <row r="996" ht="12"/>
-    <row r="997" ht="12"/>
-    <row r="998" ht="12"/>
-    <row r="999" ht="12"/>
+    <row r="316" spans="2:15" ht="13"/>
+    <row r="317" spans="2:15" ht="13"/>
+    <row r="318" spans="2:15" ht="13"/>
+    <row r="319" spans="2:15" ht="13"/>
+    <row r="320" spans="2:15" ht="13"/>
+    <row r="321" ht="13"/>
+    <row r="322" ht="13"/>
+    <row r="323" ht="13"/>
+    <row r="324" ht="13"/>
+    <row r="325" ht="13"/>
+    <row r="326" ht="13"/>
+    <row r="327" ht="13"/>
+    <row r="328" ht="13"/>
+    <row r="329" ht="13"/>
+    <row r="330" ht="13"/>
+    <row r="331" ht="13"/>
+    <row r="332" ht="13"/>
+    <row r="333" ht="13"/>
+    <row r="334" ht="13"/>
+    <row r="335" ht="13"/>
+    <row r="336" ht="13"/>
+    <row r="337" ht="13"/>
+    <row r="338" ht="13"/>
+    <row r="339" ht="13"/>
+    <row r="340" ht="13"/>
+    <row r="341" ht="13"/>
+    <row r="342" ht="13"/>
+    <row r="343" ht="13"/>
+    <row r="344" ht="13"/>
+    <row r="345" ht="13"/>
+    <row r="346" ht="13"/>
+    <row r="347" ht="13"/>
+    <row r="348" ht="13"/>
+    <row r="349" ht="13"/>
+    <row r="350" ht="13"/>
+    <row r="351" ht="13"/>
+    <row r="352" ht="13"/>
+    <row r="353" ht="13"/>
+    <row r="354" ht="13"/>
+    <row r="355" ht="13"/>
+    <row r="356" ht="13"/>
+    <row r="357" ht="13"/>
+    <row r="358" ht="13"/>
+    <row r="359" ht="13"/>
+    <row r="360" ht="13"/>
+    <row r="361" ht="13"/>
+    <row r="362" ht="13"/>
+    <row r="363" ht="13"/>
+    <row r="364" ht="13"/>
+    <row r="365" ht="13"/>
+    <row r="366" ht="13"/>
+    <row r="367" ht="13"/>
+    <row r="368" ht="13"/>
+    <row r="369" ht="13"/>
+    <row r="370" ht="13"/>
+    <row r="371" ht="13"/>
+    <row r="372" ht="13"/>
+    <row r="373" ht="13"/>
+    <row r="374" ht="13"/>
+    <row r="375" ht="13"/>
+    <row r="376" ht="13"/>
+    <row r="377" ht="13"/>
+    <row r="378" ht="13"/>
+    <row r="379" ht="13"/>
+    <row r="380" ht="13"/>
+    <row r="381" ht="13"/>
+    <row r="382" ht="13"/>
+    <row r="383" ht="13"/>
+    <row r="384" ht="13"/>
+    <row r="385" ht="13"/>
+    <row r="386" ht="13"/>
+    <row r="387" ht="13"/>
+    <row r="388" ht="13"/>
+    <row r="389" ht="13"/>
+    <row r="390" ht="13"/>
+    <row r="391" ht="13"/>
+    <row r="392" ht="13"/>
+    <row r="393" ht="13"/>
+    <row r="394" ht="13"/>
+    <row r="395" ht="13"/>
+    <row r="396" ht="13"/>
+    <row r="397" ht="13"/>
+    <row r="398" ht="13"/>
+    <row r="399" ht="13"/>
+    <row r="400" ht="13"/>
+    <row r="401" ht="13"/>
+    <row r="402" ht="13"/>
+    <row r="403" ht="13"/>
+    <row r="404" ht="13"/>
+    <row r="405" ht="13"/>
+    <row r="406" ht="13"/>
+    <row r="407" ht="13"/>
+    <row r="408" ht="13"/>
+    <row r="409" ht="13"/>
+    <row r="410" ht="13"/>
+    <row r="411" ht="13"/>
+    <row r="412" ht="13"/>
+    <row r="413" ht="13"/>
+    <row r="414" ht="13"/>
+    <row r="415" ht="13"/>
+    <row r="416" ht="13"/>
+    <row r="417" ht="13"/>
+    <row r="418" ht="13"/>
+    <row r="419" ht="13"/>
+    <row r="420" ht="13"/>
+    <row r="421" ht="13"/>
+    <row r="422" ht="13"/>
+    <row r="423" ht="13"/>
+    <row r="424" ht="13"/>
+    <row r="425" ht="13"/>
+    <row r="426" ht="13"/>
+    <row r="427" ht="13"/>
+    <row r="428" ht="13"/>
+    <row r="429" ht="13"/>
+    <row r="430" ht="13"/>
+    <row r="431" ht="13"/>
+    <row r="432" ht="13"/>
+    <row r="433" ht="13"/>
+    <row r="434" ht="13"/>
+    <row r="435" ht="13"/>
+    <row r="436" ht="13"/>
+    <row r="437" ht="13"/>
+    <row r="438" ht="13"/>
+    <row r="439" ht="13"/>
+    <row r="440" ht="13"/>
+    <row r="441" ht="13"/>
+    <row r="442" ht="13"/>
+    <row r="443" ht="13"/>
+    <row r="444" ht="13"/>
+    <row r="445" ht="13"/>
+    <row r="446" ht="13"/>
+    <row r="447" ht="13"/>
+    <row r="448" ht="13"/>
+    <row r="449" ht="13"/>
+    <row r="450" ht="13"/>
+    <row r="451" ht="13"/>
+    <row r="452" ht="13"/>
+    <row r="453" ht="13"/>
+    <row r="454" ht="13"/>
+    <row r="455" ht="13"/>
+    <row r="456" ht="13"/>
+    <row r="457" ht="13"/>
+    <row r="458" ht="13"/>
+    <row r="459" ht="13"/>
+    <row r="460" ht="13"/>
+    <row r="461" ht="13"/>
+    <row r="462" ht="13"/>
+    <row r="463" ht="13"/>
+    <row r="464" ht="13"/>
+    <row r="465" ht="13"/>
+    <row r="466" ht="13"/>
+    <row r="467" ht="13"/>
+    <row r="468" ht="13"/>
+    <row r="469" ht="13"/>
+    <row r="470" ht="13"/>
+    <row r="471" ht="13"/>
+    <row r="472" ht="13"/>
+    <row r="473" ht="13"/>
+    <row r="474" ht="13"/>
+    <row r="475" ht="13"/>
+    <row r="476" ht="13"/>
+    <row r="477" ht="13"/>
+    <row r="478" ht="13"/>
+    <row r="479" ht="13"/>
+    <row r="480" ht="13"/>
+    <row r="481" ht="13"/>
+    <row r="482" ht="13"/>
+    <row r="483" ht="13"/>
+    <row r="484" ht="13"/>
+    <row r="485" ht="13"/>
+    <row r="486" ht="13"/>
+    <row r="487" ht="13"/>
+    <row r="488" ht="13"/>
+    <row r="489" ht="13"/>
+    <row r="490" ht="13"/>
+    <row r="491" ht="13"/>
+    <row r="492" ht="13"/>
+    <row r="493" ht="13"/>
+    <row r="494" ht="13"/>
+    <row r="495" ht="13"/>
+    <row r="496" ht="13"/>
+    <row r="497" ht="13"/>
+    <row r="498" ht="13"/>
+    <row r="499" ht="13"/>
+    <row r="500" ht="13"/>
+    <row r="501" ht="13"/>
+    <row r="502" ht="13"/>
+    <row r="503" ht="13"/>
+    <row r="504" ht="13"/>
+    <row r="505" ht="13"/>
+    <row r="506" ht="13"/>
+    <row r="507" ht="13"/>
+    <row r="508" ht="13"/>
+    <row r="509" ht="13"/>
+    <row r="510" ht="13"/>
+    <row r="511" ht="13"/>
+    <row r="512" ht="13"/>
+    <row r="513" ht="13"/>
+    <row r="514" ht="13"/>
+    <row r="515" ht="13"/>
+    <row r="516" ht="13"/>
+    <row r="517" ht="13"/>
+    <row r="518" ht="13"/>
+    <row r="519" ht="13"/>
+    <row r="520" ht="13"/>
+    <row r="521" ht="13"/>
+    <row r="522" ht="13"/>
+    <row r="523" ht="13"/>
+    <row r="524" ht="13"/>
+    <row r="525" ht="13"/>
+    <row r="526" ht="13"/>
+    <row r="527" ht="13"/>
+    <row r="528" ht="13"/>
+    <row r="529" ht="13"/>
+    <row r="530" ht="13"/>
+    <row r="531" ht="13"/>
+    <row r="532" ht="13"/>
+    <row r="533" ht="13"/>
+    <row r="534" ht="13"/>
+    <row r="535" ht="13"/>
+    <row r="536" ht="13"/>
+    <row r="537" ht="13"/>
+    <row r="538" ht="13"/>
+    <row r="539" ht="13"/>
+    <row r="540" ht="13"/>
+    <row r="541" ht="13"/>
+    <row r="542" ht="13"/>
+    <row r="543" ht="13"/>
+    <row r="544" ht="13"/>
+    <row r="545" ht="13"/>
+    <row r="546" ht="13"/>
+    <row r="547" ht="13"/>
+    <row r="548" ht="13"/>
+    <row r="549" ht="13"/>
+    <row r="550" ht="13"/>
+    <row r="551" ht="13"/>
+    <row r="552" ht="13"/>
+    <row r="553" ht="13"/>
+    <row r="554" ht="13"/>
+    <row r="555" ht="13"/>
+    <row r="556" ht="13"/>
+    <row r="557" ht="13"/>
+    <row r="558" ht="13"/>
+    <row r="559" ht="13"/>
+    <row r="560" ht="13"/>
+    <row r="561" ht="13"/>
+    <row r="562" ht="13"/>
+    <row r="563" ht="13"/>
+    <row r="564" ht="13"/>
+    <row r="565" ht="13"/>
+    <row r="566" ht="13"/>
+    <row r="567" ht="13"/>
+    <row r="568" ht="13"/>
+    <row r="569" ht="13"/>
+    <row r="570" ht="13"/>
+    <row r="571" ht="13"/>
+    <row r="572" ht="13"/>
+    <row r="573" ht="13"/>
+    <row r="574" ht="13"/>
+    <row r="575" ht="13"/>
+    <row r="576" ht="13"/>
+    <row r="577" ht="13"/>
+    <row r="578" ht="13"/>
+    <row r="579" ht="13"/>
+    <row r="580" ht="13"/>
+    <row r="581" ht="13"/>
+    <row r="582" ht="13"/>
+    <row r="583" ht="13"/>
+    <row r="584" ht="13"/>
+    <row r="585" ht="13"/>
+    <row r="586" ht="13"/>
+    <row r="587" ht="13"/>
+    <row r="588" ht="13"/>
+    <row r="589" ht="13"/>
+    <row r="590" ht="13"/>
+    <row r="591" ht="13"/>
+    <row r="592" ht="13"/>
+    <row r="593" ht="13"/>
+    <row r="594" ht="13"/>
+    <row r="595" ht="13"/>
+    <row r="596" ht="13"/>
+    <row r="597" ht="13"/>
+    <row r="598" ht="13"/>
+    <row r="599" ht="13"/>
+    <row r="600" ht="13"/>
+    <row r="601" ht="13"/>
+    <row r="602" ht="13"/>
+    <row r="603" ht="13"/>
+    <row r="604" ht="13"/>
+    <row r="605" ht="13"/>
+    <row r="606" ht="13"/>
+    <row r="607" ht="13"/>
+    <row r="608" ht="13"/>
+    <row r="609" ht="13"/>
+    <row r="610" ht="13"/>
+    <row r="611" ht="13"/>
+    <row r="612" ht="13"/>
+    <row r="613" ht="13"/>
+    <row r="614" ht="13"/>
+    <row r="615" ht="13"/>
+    <row r="616" ht="13"/>
+    <row r="617" ht="13"/>
+    <row r="618" ht="13"/>
+    <row r="619" ht="13"/>
+    <row r="620" ht="13"/>
+    <row r="621" ht="13"/>
+    <row r="622" ht="13"/>
+    <row r="623" ht="13"/>
+    <row r="624" ht="13"/>
+    <row r="625" ht="13"/>
+    <row r="626" ht="13"/>
+    <row r="627" ht="13"/>
+    <row r="628" ht="13"/>
+    <row r="629" ht="13"/>
+    <row r="630" ht="13"/>
+    <row r="631" ht="13"/>
+    <row r="632" ht="13"/>
+    <row r="633" ht="13"/>
+    <row r="634" ht="13"/>
+    <row r="635" ht="13"/>
+    <row r="636" ht="13"/>
+    <row r="637" ht="13"/>
+    <row r="638" ht="13"/>
+    <row r="639" ht="13"/>
+    <row r="640" ht="13"/>
+    <row r="641" ht="13"/>
+    <row r="642" ht="13"/>
+    <row r="643" ht="13"/>
+    <row r="644" ht="13"/>
+    <row r="645" ht="13"/>
+    <row r="646" ht="13"/>
+    <row r="647" ht="13"/>
+    <row r="648" ht="13"/>
+    <row r="649" ht="13"/>
+    <row r="650" ht="13"/>
+    <row r="651" ht="13"/>
+    <row r="652" ht="13"/>
+    <row r="653" ht="13"/>
+    <row r="654" ht="13"/>
+    <row r="655" ht="13"/>
+    <row r="656" ht="13"/>
+    <row r="657" ht="13"/>
+    <row r="658" ht="13"/>
+    <row r="659" ht="13"/>
+    <row r="660" ht="13"/>
+    <row r="661" ht="13"/>
+    <row r="662" ht="13"/>
+    <row r="663" ht="13"/>
+    <row r="664" ht="13"/>
+    <row r="665" ht="13"/>
+    <row r="666" ht="13"/>
+    <row r="667" ht="13"/>
+    <row r="668" ht="13"/>
+    <row r="669" ht="13"/>
+    <row r="670" ht="13"/>
+    <row r="671" ht="13"/>
+    <row r="672" ht="13"/>
+    <row r="673" ht="13"/>
+    <row r="674" ht="13"/>
+    <row r="675" ht="13"/>
+    <row r="676" ht="13"/>
+    <row r="677" ht="13"/>
+    <row r="678" ht="13"/>
+    <row r="679" ht="13"/>
+    <row r="680" ht="13"/>
+    <row r="681" ht="13"/>
+    <row r="682" ht="13"/>
+    <row r="683" ht="13"/>
+    <row r="684" ht="13"/>
+    <row r="685" ht="13"/>
+    <row r="686" ht="13"/>
+    <row r="687" ht="13"/>
+    <row r="688" ht="13"/>
+    <row r="689" ht="13"/>
+    <row r="690" ht="13"/>
+    <row r="691" ht="13"/>
+    <row r="692" ht="13"/>
+    <row r="693" ht="13"/>
+    <row r="694" ht="13"/>
+    <row r="695" ht="13"/>
+    <row r="696" ht="13"/>
+    <row r="697" ht="13"/>
+    <row r="698" ht="13"/>
+    <row r="699" ht="13"/>
+    <row r="700" ht="13"/>
+    <row r="701" ht="13"/>
+    <row r="702" ht="13"/>
+    <row r="703" ht="13"/>
+    <row r="704" ht="13"/>
+    <row r="705" ht="13"/>
+    <row r="706" ht="13"/>
+    <row r="707" ht="13"/>
+    <row r="708" ht="13"/>
+    <row r="709" ht="13"/>
+    <row r="710" ht="13"/>
+    <row r="711" ht="13"/>
+    <row r="712" ht="13"/>
+    <row r="713" ht="13"/>
+    <row r="714" ht="13"/>
+    <row r="715" ht="13"/>
+    <row r="716" ht="13"/>
+    <row r="717" ht="13"/>
+    <row r="718" ht="13"/>
+    <row r="719" ht="13"/>
+    <row r="720" ht="13"/>
+    <row r="721" ht="13"/>
+    <row r="722" ht="13"/>
+    <row r="723" ht="13"/>
+    <row r="724" ht="13"/>
+    <row r="725" ht="13"/>
+    <row r="726" ht="13"/>
+    <row r="727" ht="13"/>
+    <row r="728" ht="13"/>
+    <row r="729" ht="13"/>
+    <row r="730" ht="13"/>
+    <row r="731" ht="13"/>
+    <row r="732" ht="13"/>
+    <row r="733" ht="13"/>
+    <row r="734" ht="13"/>
+    <row r="735" ht="13"/>
+    <row r="736" ht="13"/>
+    <row r="737" ht="13"/>
+    <row r="738" ht="13"/>
+    <row r="739" ht="13"/>
+    <row r="740" ht="13"/>
+    <row r="741" ht="13"/>
+    <row r="742" ht="13"/>
+    <row r="743" ht="13"/>
+    <row r="744" ht="13"/>
+    <row r="745" ht="13"/>
+    <row r="746" ht="13"/>
+    <row r="747" ht="13"/>
+    <row r="748" ht="13"/>
+    <row r="749" ht="13"/>
+    <row r="750" ht="13"/>
+    <row r="751" ht="13"/>
+    <row r="752" ht="13"/>
+    <row r="753" ht="13"/>
+    <row r="754" ht="13"/>
+    <row r="755" ht="13"/>
+    <row r="756" ht="13"/>
+    <row r="757" ht="13"/>
+    <row r="758" ht="13"/>
+    <row r="759" ht="13"/>
+    <row r="760" ht="13"/>
+    <row r="761" ht="13"/>
+    <row r="762" ht="13"/>
+    <row r="763" ht="13"/>
+    <row r="764" ht="13"/>
+    <row r="765" ht="13"/>
+    <row r="766" ht="13"/>
+    <row r="767" ht="13"/>
+    <row r="768" ht="13"/>
+    <row r="769" ht="13"/>
+    <row r="770" ht="13"/>
+    <row r="771" ht="13"/>
+    <row r="772" ht="13"/>
+    <row r="773" ht="13"/>
+    <row r="774" ht="13"/>
+    <row r="775" ht="13"/>
+    <row r="776" ht="13"/>
+    <row r="777" ht="13"/>
+    <row r="778" ht="13"/>
+    <row r="779" ht="13"/>
+    <row r="780" ht="13"/>
+    <row r="781" ht="13"/>
+    <row r="782" ht="13"/>
+    <row r="783" ht="13"/>
+    <row r="784" ht="13"/>
+    <row r="785" ht="13"/>
+    <row r="786" ht="13"/>
+    <row r="787" ht="13"/>
+    <row r="788" ht="13"/>
+    <row r="789" ht="13"/>
+    <row r="790" ht="13"/>
+    <row r="791" ht="13"/>
+    <row r="792" ht="13"/>
+    <row r="793" ht="13"/>
+    <row r="794" ht="13"/>
+    <row r="795" ht="13"/>
+    <row r="796" ht="13"/>
+    <row r="797" ht="13"/>
+    <row r="798" ht="13"/>
+    <row r="799" ht="13"/>
+    <row r="800" ht="13"/>
+    <row r="801" ht="13"/>
+    <row r="802" ht="13"/>
+    <row r="803" ht="13"/>
+    <row r="804" ht="13"/>
+    <row r="805" ht="13"/>
+    <row r="806" ht="13"/>
+    <row r="807" ht="13"/>
+    <row r="808" ht="13"/>
+    <row r="809" ht="13"/>
+    <row r="810" ht="13"/>
+    <row r="811" ht="13"/>
+    <row r="812" ht="13"/>
+    <row r="813" ht="13"/>
+    <row r="814" ht="13"/>
+    <row r="815" ht="13"/>
+    <row r="816" ht="13"/>
+    <row r="817" ht="13"/>
+    <row r="818" ht="13"/>
+    <row r="819" ht="13"/>
+    <row r="820" ht="13"/>
+    <row r="821" ht="13"/>
+    <row r="822" ht="13"/>
+    <row r="823" ht="13"/>
+    <row r="824" ht="13"/>
+    <row r="825" ht="13"/>
+    <row r="826" ht="13"/>
+    <row r="827" ht="13"/>
+    <row r="828" ht="13"/>
+    <row r="829" ht="13"/>
+    <row r="830" ht="13"/>
+    <row r="831" ht="13"/>
+    <row r="832" ht="13"/>
+    <row r="833" ht="13"/>
+    <row r="834" ht="13"/>
+    <row r="835" ht="13"/>
+    <row r="836" ht="13"/>
+    <row r="837" ht="13"/>
+    <row r="838" ht="13"/>
+    <row r="839" ht="13"/>
+    <row r="840" ht="13"/>
+    <row r="841" ht="13"/>
+    <row r="842" ht="13"/>
+    <row r="843" ht="13"/>
+    <row r="844" ht="13"/>
+    <row r="845" ht="13"/>
+    <row r="846" ht="13"/>
+    <row r="847" ht="13"/>
+    <row r="848" ht="13"/>
+    <row r="849" ht="13"/>
+    <row r="850" ht="13"/>
+    <row r="851" ht="13"/>
+    <row r="852" ht="13"/>
+    <row r="853" ht="13"/>
+    <row r="854" ht="13"/>
+    <row r="855" ht="13"/>
+    <row r="856" ht="13"/>
+    <row r="857" ht="13"/>
+    <row r="858" ht="13"/>
+    <row r="859" ht="13"/>
+    <row r="860" ht="13"/>
+    <row r="861" ht="13"/>
+    <row r="862" ht="13"/>
+    <row r="863" ht="13"/>
+    <row r="864" ht="13"/>
+    <row r="865" ht="13"/>
+    <row r="866" ht="13"/>
+    <row r="867" ht="13"/>
+    <row r="868" ht="13"/>
+    <row r="869" ht="13"/>
+    <row r="870" ht="13"/>
+    <row r="871" ht="13"/>
+    <row r="872" ht="13"/>
+    <row r="873" ht="13"/>
+    <row r="874" ht="13"/>
+    <row r="875" ht="13"/>
+    <row r="876" ht="13"/>
+    <row r="877" ht="13"/>
+    <row r="878" ht="13"/>
+    <row r="879" ht="13"/>
+    <row r="880" ht="13"/>
+    <row r="881" ht="13"/>
+    <row r="882" ht="13"/>
+    <row r="883" ht="13"/>
+    <row r="884" ht="13"/>
+    <row r="885" ht="13"/>
+    <row r="886" ht="13"/>
+    <row r="887" ht="13"/>
+    <row r="888" ht="13"/>
+    <row r="889" ht="13"/>
+    <row r="890" ht="13"/>
+    <row r="891" ht="13"/>
+    <row r="892" ht="13"/>
+    <row r="893" ht="13"/>
+    <row r="894" ht="13"/>
+    <row r="895" ht="13"/>
+    <row r="896" ht="13"/>
+    <row r="897" ht="13"/>
+    <row r="898" ht="13"/>
+    <row r="899" ht="13"/>
+    <row r="900" ht="13"/>
+    <row r="901" ht="13"/>
+    <row r="902" ht="13"/>
+    <row r="903" ht="13"/>
+    <row r="904" ht="13"/>
+    <row r="905" ht="13"/>
+    <row r="906" ht="13"/>
+    <row r="907" ht="13"/>
+    <row r="908" ht="13"/>
+    <row r="909" ht="13"/>
+    <row r="910" ht="13"/>
+    <row r="911" ht="13"/>
+    <row r="912" ht="13"/>
+    <row r="913" ht="13"/>
+    <row r="914" ht="13"/>
+    <row r="915" ht="13"/>
+    <row r="916" ht="13"/>
+    <row r="917" ht="13"/>
+    <row r="918" ht="13"/>
+    <row r="919" ht="13"/>
+    <row r="920" ht="13"/>
+    <row r="921" ht="13"/>
+    <row r="922" ht="13"/>
+    <row r="923" ht="13"/>
+    <row r="924" ht="13"/>
+    <row r="925" ht="13"/>
+    <row r="926" ht="13"/>
+    <row r="927" ht="13"/>
+    <row r="928" ht="13"/>
+    <row r="929" ht="13"/>
+    <row r="930" ht="13"/>
+    <row r="931" ht="13"/>
+    <row r="932" ht="13"/>
+    <row r="933" ht="13"/>
+    <row r="934" ht="13"/>
+    <row r="935" ht="13"/>
+    <row r="936" ht="13"/>
+    <row r="937" ht="13"/>
+    <row r="938" ht="13"/>
+    <row r="939" ht="13"/>
+    <row r="940" ht="13"/>
+    <row r="941" ht="13"/>
+    <row r="942" ht="13"/>
+    <row r="943" ht="13"/>
+    <row r="944" ht="13"/>
+    <row r="945" ht="13"/>
+    <row r="946" ht="13"/>
+    <row r="947" ht="13"/>
+    <row r="948" ht="13"/>
+    <row r="949" ht="13"/>
+    <row r="950" ht="13"/>
+    <row r="951" ht="13"/>
+    <row r="952" ht="13"/>
+    <row r="953" ht="13"/>
+    <row r="954" ht="13"/>
+    <row r="955" ht="13"/>
+    <row r="956" ht="13"/>
+    <row r="957" ht="13"/>
+    <row r="958" ht="13"/>
+    <row r="959" ht="13"/>
+    <row r="960" ht="13"/>
+    <row r="961" ht="13"/>
+    <row r="962" ht="13"/>
+    <row r="963" ht="13"/>
+    <row r="964" ht="13"/>
+    <row r="965" ht="13"/>
+    <row r="966" ht="13"/>
+    <row r="967" ht="13"/>
+    <row r="968" ht="13"/>
+    <row r="969" ht="13"/>
+    <row r="970" ht="13"/>
+    <row r="971" ht="13"/>
+    <row r="972" ht="13"/>
+    <row r="973" ht="13"/>
+    <row r="974" ht="13"/>
+    <row r="975" ht="13"/>
+    <row r="976" ht="13"/>
+    <row r="977" ht="13"/>
+    <row r="978" ht="13"/>
+    <row r="979" ht="13"/>
+    <row r="980" ht="13"/>
+    <row r="981" ht="13"/>
+    <row r="982" ht="13"/>
+    <row r="983" ht="13"/>
+    <row r="984" ht="13"/>
+    <row r="985" ht="13"/>
+    <row r="986" ht="13"/>
+    <row r="987" ht="13"/>
+    <row r="988" ht="13"/>
+    <row r="989" ht="13"/>
+    <row r="990" ht="13"/>
+    <row r="991" ht="13"/>
+    <row r="992" ht="13"/>
+    <row r="993" ht="13"/>
+    <row r="994" ht="13"/>
+    <row r="995" ht="13"/>
+    <row r="996" ht="13"/>
+    <row r="997" ht="13"/>
+    <row r="998" ht="13"/>
+    <row r="999" ht="13"/>
   </sheetData>
-  <autoFilter ref="A1:Q115"/>
+  <autoFilter ref="A1:Q115" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <extLst>
@@ -5503,7 +5506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5511,7 +5514,7 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
@@ -5528,7 +5531,7 @@
     <col min="16" max="16" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14">
+    <row r="1" spans="1:16" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5578,15 +5581,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="14">
+    <row r="2" spans="1:16" ht="15">
       <c r="A2" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -5598,21 +5601,21 @@
         <v>27</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14">
+    <row r="3" spans="1:16" ht="15">
       <c r="A3" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -5621,64 +5624,64 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="13">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14">
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:16" ht="13">
+    <row r="5" spans="1:16" ht="14">
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:16" ht="13">
+    <row r="6" spans="1:16" ht="14">
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:16" ht="13">
+    <row r="7" spans="1:16" ht="14">
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:16" ht="13">
+    <row r="8" spans="1:16" ht="14">
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:16" ht="13">
+    <row r="9" spans="1:16" ht="14">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:16" ht="13">
+    <row r="10" spans="1:16" ht="14">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:16" ht="13">
+    <row r="11" spans="1:16" ht="14">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:16" ht="13">
+    <row r="12" spans="1:16" ht="14">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:16" ht="13">
+    <row r="13" spans="1:16" ht="14">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:16" ht="13">
+    <row r="14" spans="1:16" ht="14">
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:16" ht="13">
+    <row r="15" spans="1:16" ht="14">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:16" ht="13">
+    <row r="16" spans="1:16" ht="14">
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="2:2" ht="13">
+    <row r="17" spans="2:2" ht="14">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:2" ht="13">
+    <row r="18" spans="2:2" ht="14">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="2:2" ht="13">
+    <row r="19" spans="2:2" ht="14">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:2" ht="13">
+    <row r="20" spans="2:2" ht="14">
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="2:2" ht="15.75" customHeight="1">
@@ -6281,786 +6284,786 @@
     <row r="220" spans="2:2" ht="15.75" customHeight="1">
       <c r="B220" s="4"/>
     </row>
-    <row r="221" spans="2:2" ht="12"/>
-    <row r="222" spans="2:2" ht="12"/>
-    <row r="223" spans="2:2" ht="12"/>
-    <row r="224" spans="2:2" ht="12"/>
-    <row r="225" ht="12"/>
-    <row r="226" ht="12"/>
-    <row r="227" ht="12"/>
-    <row r="228" ht="12"/>
-    <row r="229" ht="12"/>
-    <row r="230" ht="12"/>
-    <row r="231" ht="12"/>
-    <row r="232" ht="12"/>
-    <row r="233" ht="12"/>
-    <row r="234" ht="12"/>
-    <row r="235" ht="12"/>
-    <row r="236" ht="12"/>
-    <row r="237" ht="12"/>
-    <row r="238" ht="12"/>
-    <row r="239" ht="12"/>
-    <row r="240" ht="12"/>
-    <row r="241" ht="12"/>
-    <row r="242" ht="12"/>
-    <row r="243" ht="12"/>
-    <row r="244" ht="12"/>
-    <row r="245" ht="12"/>
-    <row r="246" ht="12"/>
-    <row r="247" ht="12"/>
-    <row r="248" ht="12"/>
-    <row r="249" ht="12"/>
-    <row r="250" ht="12"/>
-    <row r="251" ht="12"/>
-    <row r="252" ht="12"/>
-    <row r="253" ht="12"/>
-    <row r="254" ht="12"/>
-    <row r="255" ht="12"/>
-    <row r="256" ht="12"/>
-    <row r="257" ht="12"/>
-    <row r="258" ht="12"/>
-    <row r="259" ht="12"/>
-    <row r="260" ht="12"/>
-    <row r="261" ht="12"/>
-    <row r="262" ht="12"/>
-    <row r="263" ht="12"/>
-    <row r="264" ht="12"/>
-    <row r="265" ht="12"/>
-    <row r="266" ht="12"/>
-    <row r="267" ht="12"/>
-    <row r="268" ht="12"/>
-    <row r="269" ht="12"/>
-    <row r="270" ht="12"/>
-    <row r="271" ht="12"/>
-    <row r="272" ht="12"/>
-    <row r="273" ht="12"/>
-    <row r="274" ht="12"/>
-    <row r="275" ht="12"/>
-    <row r="276" ht="12"/>
-    <row r="277" ht="12"/>
-    <row r="278" ht="12"/>
-    <row r="279" ht="12"/>
-    <row r="280" ht="12"/>
-    <row r="281" ht="12"/>
-    <row r="282" ht="12"/>
-    <row r="283" ht="12"/>
-    <row r="284" ht="12"/>
-    <row r="285" ht="12"/>
-    <row r="286" ht="12"/>
-    <row r="287" ht="12"/>
-    <row r="288" ht="12"/>
-    <row r="289" ht="12"/>
-    <row r="290" ht="12"/>
-    <row r="291" ht="12"/>
-    <row r="292" ht="12"/>
-    <row r="293" ht="12"/>
-    <row r="294" ht="12"/>
-    <row r="295" ht="12"/>
-    <row r="296" ht="12"/>
-    <row r="297" ht="12"/>
-    <row r="298" ht="12"/>
-    <row r="299" ht="12"/>
-    <row r="300" ht="12"/>
-    <row r="301" ht="12"/>
-    <row r="302" ht="12"/>
-    <row r="303" ht="12"/>
-    <row r="304" ht="12"/>
-    <row r="305" ht="12"/>
-    <row r="306" ht="12"/>
-    <row r="307" ht="12"/>
-    <row r="308" ht="12"/>
-    <row r="309" ht="12"/>
-    <row r="310" ht="12"/>
-    <row r="311" ht="12"/>
-    <row r="312" ht="12"/>
-    <row r="313" ht="12"/>
-    <row r="314" ht="12"/>
-    <row r="315" ht="12"/>
-    <row r="316" ht="12"/>
-    <row r="317" ht="12"/>
-    <row r="318" ht="12"/>
-    <row r="319" ht="12"/>
-    <row r="320" ht="12"/>
-    <row r="321" ht="12"/>
-    <row r="322" ht="12"/>
-    <row r="323" ht="12"/>
-    <row r="324" ht="12"/>
-    <row r="325" ht="12"/>
-    <row r="326" ht="12"/>
-    <row r="327" ht="12"/>
-    <row r="328" ht="12"/>
-    <row r="329" ht="12"/>
-    <row r="330" ht="12"/>
-    <row r="331" ht="12"/>
-    <row r="332" ht="12"/>
-    <row r="333" ht="12"/>
-    <row r="334" ht="12"/>
-    <row r="335" ht="12"/>
-    <row r="336" ht="12"/>
-    <row r="337" ht="12"/>
-    <row r="338" ht="12"/>
-    <row r="339" ht="12"/>
-    <row r="340" ht="12"/>
-    <row r="341" ht="12"/>
-    <row r="342" ht="12"/>
-    <row r="343" ht="12"/>
-    <row r="344" ht="12"/>
-    <row r="345" ht="12"/>
-    <row r="346" ht="12"/>
-    <row r="347" ht="12"/>
-    <row r="348" ht="12"/>
-    <row r="349" ht="12"/>
-    <row r="350" ht="12"/>
-    <row r="351" ht="12"/>
-    <row r="352" ht="12"/>
-    <row r="353" ht="12"/>
-    <row r="354" ht="12"/>
-    <row r="355" ht="12"/>
-    <row r="356" ht="12"/>
-    <row r="357" ht="12"/>
-    <row r="358" ht="12"/>
-    <row r="359" ht="12"/>
-    <row r="360" ht="12"/>
-    <row r="361" ht="12"/>
-    <row r="362" ht="12"/>
-    <row r="363" ht="12"/>
-    <row r="364" ht="12"/>
-    <row r="365" ht="12"/>
-    <row r="366" ht="12"/>
-    <row r="367" ht="12"/>
-    <row r="368" ht="12"/>
-    <row r="369" ht="12"/>
-    <row r="370" ht="12"/>
-    <row r="371" ht="12"/>
-    <row r="372" ht="12"/>
-    <row r="373" ht="12"/>
-    <row r="374" ht="12"/>
-    <row r="375" ht="12"/>
-    <row r="376" ht="12"/>
-    <row r="377" ht="12"/>
-    <row r="378" ht="12"/>
-    <row r="379" ht="12"/>
-    <row r="380" ht="12"/>
-    <row r="381" ht="12"/>
-    <row r="382" ht="12"/>
-    <row r="383" ht="12"/>
-    <row r="384" ht="12"/>
-    <row r="385" ht="12"/>
-    <row r="386" ht="12"/>
-    <row r="387" ht="12"/>
-    <row r="388" ht="12"/>
-    <row r="389" ht="12"/>
-    <row r="390" ht="12"/>
-    <row r="391" ht="12"/>
-    <row r="392" ht="12"/>
-    <row r="393" ht="12"/>
-    <row r="394" ht="12"/>
-    <row r="395" ht="12"/>
-    <row r="396" ht="12"/>
-    <row r="397" ht="12"/>
-    <row r="398" ht="12"/>
-    <row r="399" ht="12"/>
-    <row r="400" ht="12"/>
-    <row r="401" ht="12"/>
-    <row r="402" ht="12"/>
-    <row r="403" ht="12"/>
-    <row r="404" ht="12"/>
-    <row r="405" ht="12"/>
-    <row r="406" ht="12"/>
-    <row r="407" ht="12"/>
-    <row r="408" ht="12"/>
-    <row r="409" ht="12"/>
-    <row r="410" ht="12"/>
-    <row r="411" ht="12"/>
-    <row r="412" ht="12"/>
-    <row r="413" ht="12"/>
-    <row r="414" ht="12"/>
-    <row r="415" ht="12"/>
-    <row r="416" ht="12"/>
-    <row r="417" ht="12"/>
-    <row r="418" ht="12"/>
-    <row r="419" ht="12"/>
-    <row r="420" ht="12"/>
-    <row r="421" ht="12"/>
-    <row r="422" ht="12"/>
-    <row r="423" ht="12"/>
-    <row r="424" ht="12"/>
-    <row r="425" ht="12"/>
-    <row r="426" ht="12"/>
-    <row r="427" ht="12"/>
-    <row r="428" ht="12"/>
-    <row r="429" ht="12"/>
-    <row r="430" ht="12"/>
-    <row r="431" ht="12"/>
-    <row r="432" ht="12"/>
-    <row r="433" ht="12"/>
-    <row r="434" ht="12"/>
-    <row r="435" ht="12"/>
-    <row r="436" ht="12"/>
-    <row r="437" ht="12"/>
-    <row r="438" ht="12"/>
-    <row r="439" ht="12"/>
-    <row r="440" ht="12"/>
-    <row r="441" ht="12"/>
-    <row r="442" ht="12"/>
-    <row r="443" ht="12"/>
-    <row r="444" ht="12"/>
-    <row r="445" ht="12"/>
-    <row r="446" ht="12"/>
-    <row r="447" ht="12"/>
-    <row r="448" ht="12"/>
-    <row r="449" ht="12"/>
-    <row r="450" ht="12"/>
-    <row r="451" ht="12"/>
-    <row r="452" ht="12"/>
-    <row r="453" ht="12"/>
-    <row r="454" ht="12"/>
-    <row r="455" ht="12"/>
-    <row r="456" ht="12"/>
-    <row r="457" ht="12"/>
-    <row r="458" ht="12"/>
-    <row r="459" ht="12"/>
-    <row r="460" ht="12"/>
-    <row r="461" ht="12"/>
-    <row r="462" ht="12"/>
-    <row r="463" ht="12"/>
-    <row r="464" ht="12"/>
-    <row r="465" ht="12"/>
-    <row r="466" ht="12"/>
-    <row r="467" ht="12"/>
-    <row r="468" ht="12"/>
-    <row r="469" ht="12"/>
-    <row r="470" ht="12"/>
-    <row r="471" ht="12"/>
-    <row r="472" ht="12"/>
-    <row r="473" ht="12"/>
-    <row r="474" ht="12"/>
-    <row r="475" ht="12"/>
-    <row r="476" ht="12"/>
-    <row r="477" ht="12"/>
-    <row r="478" ht="12"/>
-    <row r="479" ht="12"/>
-    <row r="480" ht="12"/>
-    <row r="481" ht="12"/>
-    <row r="482" ht="12"/>
-    <row r="483" ht="12"/>
-    <row r="484" ht="12"/>
-    <row r="485" ht="12"/>
-    <row r="486" ht="12"/>
-    <row r="487" ht="12"/>
-    <row r="488" ht="12"/>
-    <row r="489" ht="12"/>
-    <row r="490" ht="12"/>
-    <row r="491" ht="12"/>
-    <row r="492" ht="12"/>
-    <row r="493" ht="12"/>
-    <row r="494" ht="12"/>
-    <row r="495" ht="12"/>
-    <row r="496" ht="12"/>
-    <row r="497" ht="12"/>
-    <row r="498" ht="12"/>
-    <row r="499" ht="12"/>
-    <row r="500" ht="12"/>
-    <row r="501" ht="12"/>
-    <row r="502" ht="12"/>
-    <row r="503" ht="12"/>
-    <row r="504" ht="12"/>
-    <row r="505" ht="12"/>
-    <row r="506" ht="12"/>
-    <row r="507" ht="12"/>
-    <row r="508" ht="12"/>
-    <row r="509" ht="12"/>
-    <row r="510" ht="12"/>
-    <row r="511" ht="12"/>
-    <row r="512" ht="12"/>
-    <row r="513" ht="12"/>
-    <row r="514" ht="12"/>
-    <row r="515" ht="12"/>
-    <row r="516" ht="12"/>
-    <row r="517" ht="12"/>
-    <row r="518" ht="12"/>
-    <row r="519" ht="12"/>
-    <row r="520" ht="12"/>
-    <row r="521" ht="12"/>
-    <row r="522" ht="12"/>
-    <row r="523" ht="12"/>
-    <row r="524" ht="12"/>
-    <row r="525" ht="12"/>
-    <row r="526" ht="12"/>
-    <row r="527" ht="12"/>
-    <row r="528" ht="12"/>
-    <row r="529" ht="12"/>
-    <row r="530" ht="12"/>
-    <row r="531" ht="12"/>
-    <row r="532" ht="12"/>
-    <row r="533" ht="12"/>
-    <row r="534" ht="12"/>
-    <row r="535" ht="12"/>
-    <row r="536" ht="12"/>
-    <row r="537" ht="12"/>
-    <row r="538" ht="12"/>
-    <row r="539" ht="12"/>
-    <row r="540" ht="12"/>
-    <row r="541" ht="12"/>
-    <row r="542" ht="12"/>
-    <row r="543" ht="12"/>
-    <row r="544" ht="12"/>
-    <row r="545" ht="12"/>
-    <row r="546" ht="12"/>
-    <row r="547" ht="12"/>
-    <row r="548" ht="12"/>
-    <row r="549" ht="12"/>
-    <row r="550" ht="12"/>
-    <row r="551" ht="12"/>
-    <row r="552" ht="12"/>
-    <row r="553" ht="12"/>
-    <row r="554" ht="12"/>
-    <row r="555" ht="12"/>
-    <row r="556" ht="12"/>
-    <row r="557" ht="12"/>
-    <row r="558" ht="12"/>
-    <row r="559" ht="12"/>
-    <row r="560" ht="12"/>
-    <row r="561" ht="12"/>
-    <row r="562" ht="12"/>
-    <row r="563" ht="12"/>
-    <row r="564" ht="12"/>
-    <row r="565" ht="12"/>
-    <row r="566" ht="12"/>
-    <row r="567" ht="12"/>
-    <row r="568" ht="12"/>
-    <row r="569" ht="12"/>
-    <row r="570" ht="12"/>
-    <row r="571" ht="12"/>
-    <row r="572" ht="12"/>
-    <row r="573" ht="12"/>
-    <row r="574" ht="12"/>
-    <row r="575" ht="12"/>
-    <row r="576" ht="12"/>
-    <row r="577" ht="12"/>
-    <row r="578" ht="12"/>
-    <row r="579" ht="12"/>
-    <row r="580" ht="12"/>
-    <row r="581" ht="12"/>
-    <row r="582" ht="12"/>
-    <row r="583" ht="12"/>
-    <row r="584" ht="12"/>
-    <row r="585" ht="12"/>
-    <row r="586" ht="12"/>
-    <row r="587" ht="12"/>
-    <row r="588" ht="12"/>
-    <row r="589" ht="12"/>
-    <row r="590" ht="12"/>
-    <row r="591" ht="12"/>
-    <row r="592" ht="12"/>
-    <row r="593" ht="12"/>
-    <row r="594" ht="12"/>
-    <row r="595" ht="12"/>
-    <row r="596" ht="12"/>
-    <row r="597" ht="12"/>
-    <row r="598" ht="12"/>
-    <row r="599" ht="12"/>
-    <row r="600" ht="12"/>
-    <row r="601" ht="12"/>
-    <row r="602" ht="12"/>
-    <row r="603" ht="12"/>
-    <row r="604" ht="12"/>
-    <row r="605" ht="12"/>
-    <row r="606" ht="12"/>
-    <row r="607" ht="12"/>
-    <row r="608" ht="12"/>
-    <row r="609" ht="12"/>
-    <row r="610" ht="12"/>
-    <row r="611" ht="12"/>
-    <row r="612" ht="12"/>
-    <row r="613" ht="12"/>
-    <row r="614" ht="12"/>
-    <row r="615" ht="12"/>
-    <row r="616" ht="12"/>
-    <row r="617" ht="12"/>
-    <row r="618" ht="12"/>
-    <row r="619" ht="12"/>
-    <row r="620" ht="12"/>
-    <row r="621" ht="12"/>
-    <row r="622" ht="12"/>
-    <row r="623" ht="12"/>
-    <row r="624" ht="12"/>
-    <row r="625" ht="12"/>
-    <row r="626" ht="12"/>
-    <row r="627" ht="12"/>
-    <row r="628" ht="12"/>
-    <row r="629" ht="12"/>
-    <row r="630" ht="12"/>
-    <row r="631" ht="12"/>
-    <row r="632" ht="12"/>
-    <row r="633" ht="12"/>
-    <row r="634" ht="12"/>
-    <row r="635" ht="12"/>
-    <row r="636" ht="12"/>
-    <row r="637" ht="12"/>
-    <row r="638" ht="12"/>
-    <row r="639" ht="12"/>
-    <row r="640" ht="12"/>
-    <row r="641" ht="12"/>
-    <row r="642" ht="12"/>
-    <row r="643" ht="12"/>
-    <row r="644" ht="12"/>
-    <row r="645" ht="12"/>
-    <row r="646" ht="12"/>
-    <row r="647" ht="12"/>
-    <row r="648" ht="12"/>
-    <row r="649" ht="12"/>
-    <row r="650" ht="12"/>
-    <row r="651" ht="12"/>
-    <row r="652" ht="12"/>
-    <row r="653" ht="12"/>
-    <row r="654" ht="12"/>
-    <row r="655" ht="12"/>
-    <row r="656" ht="12"/>
-    <row r="657" ht="12"/>
-    <row r="658" ht="12"/>
-    <row r="659" ht="12"/>
-    <row r="660" ht="12"/>
-    <row r="661" ht="12"/>
-    <row r="662" ht="12"/>
-    <row r="663" ht="12"/>
-    <row r="664" ht="12"/>
-    <row r="665" ht="12"/>
-    <row r="666" ht="12"/>
-    <row r="667" ht="12"/>
-    <row r="668" ht="12"/>
-    <row r="669" ht="12"/>
-    <row r="670" ht="12"/>
-    <row r="671" ht="12"/>
-    <row r="672" ht="12"/>
-    <row r="673" ht="12"/>
-    <row r="674" ht="12"/>
-    <row r="675" ht="12"/>
-    <row r="676" ht="12"/>
-    <row r="677" ht="12"/>
-    <row r="678" ht="12"/>
-    <row r="679" ht="12"/>
-    <row r="680" ht="12"/>
-    <row r="681" ht="12"/>
-    <row r="682" ht="12"/>
-    <row r="683" ht="12"/>
-    <row r="684" ht="12"/>
-    <row r="685" ht="12"/>
-    <row r="686" ht="12"/>
-    <row r="687" ht="12"/>
-    <row r="688" ht="12"/>
-    <row r="689" ht="12"/>
-    <row r="690" ht="12"/>
-    <row r="691" ht="12"/>
-    <row r="692" ht="12"/>
-    <row r="693" ht="12"/>
-    <row r="694" ht="12"/>
-    <row r="695" ht="12"/>
-    <row r="696" ht="12"/>
-    <row r="697" ht="12"/>
-    <row r="698" ht="12"/>
-    <row r="699" ht="12"/>
-    <row r="700" ht="12"/>
-    <row r="701" ht="12"/>
-    <row r="702" ht="12"/>
-    <row r="703" ht="12"/>
-    <row r="704" ht="12"/>
-    <row r="705" ht="12"/>
-    <row r="706" ht="12"/>
-    <row r="707" ht="12"/>
-    <row r="708" ht="12"/>
-    <row r="709" ht="12"/>
-    <row r="710" ht="12"/>
-    <row r="711" ht="12"/>
-    <row r="712" ht="12"/>
-    <row r="713" ht="12"/>
-    <row r="714" ht="12"/>
-    <row r="715" ht="12"/>
-    <row r="716" ht="12"/>
-    <row r="717" ht="12"/>
-    <row r="718" ht="12"/>
-    <row r="719" ht="12"/>
-    <row r="720" ht="12"/>
-    <row r="721" ht="12"/>
-    <row r="722" ht="12"/>
-    <row r="723" ht="12"/>
-    <row r="724" ht="12"/>
-    <row r="725" ht="12"/>
-    <row r="726" ht="12"/>
-    <row r="727" ht="12"/>
-    <row r="728" ht="12"/>
-    <row r="729" ht="12"/>
-    <row r="730" ht="12"/>
-    <row r="731" ht="12"/>
-    <row r="732" ht="12"/>
-    <row r="733" ht="12"/>
-    <row r="734" ht="12"/>
-    <row r="735" ht="12"/>
-    <row r="736" ht="12"/>
-    <row r="737" ht="12"/>
-    <row r="738" ht="12"/>
-    <row r="739" ht="12"/>
-    <row r="740" ht="12"/>
-    <row r="741" ht="12"/>
-    <row r="742" ht="12"/>
-    <row r="743" ht="12"/>
-    <row r="744" ht="12"/>
-    <row r="745" ht="12"/>
-    <row r="746" ht="12"/>
-    <row r="747" ht="12"/>
-    <row r="748" ht="12"/>
-    <row r="749" ht="12"/>
-    <row r="750" ht="12"/>
-    <row r="751" ht="12"/>
-    <row r="752" ht="12"/>
-    <row r="753" ht="12"/>
-    <row r="754" ht="12"/>
-    <row r="755" ht="12"/>
-    <row r="756" ht="12"/>
-    <row r="757" ht="12"/>
-    <row r="758" ht="12"/>
-    <row r="759" ht="12"/>
-    <row r="760" ht="12"/>
-    <row r="761" ht="12"/>
-    <row r="762" ht="12"/>
-    <row r="763" ht="12"/>
-    <row r="764" ht="12"/>
-    <row r="765" ht="12"/>
-    <row r="766" ht="12"/>
-    <row r="767" ht="12"/>
-    <row r="768" ht="12"/>
-    <row r="769" ht="12"/>
-    <row r="770" ht="12"/>
-    <row r="771" ht="12"/>
-    <row r="772" ht="12"/>
-    <row r="773" ht="12"/>
-    <row r="774" ht="12"/>
-    <row r="775" ht="12"/>
-    <row r="776" ht="12"/>
-    <row r="777" ht="12"/>
-    <row r="778" ht="12"/>
-    <row r="779" ht="12"/>
-    <row r="780" ht="12"/>
-    <row r="781" ht="12"/>
-    <row r="782" ht="12"/>
-    <row r="783" ht="12"/>
-    <row r="784" ht="12"/>
-    <row r="785" ht="12"/>
-    <row r="786" ht="12"/>
-    <row r="787" ht="12"/>
-    <row r="788" ht="12"/>
-    <row r="789" ht="12"/>
-    <row r="790" ht="12"/>
-    <row r="791" ht="12"/>
-    <row r="792" ht="12"/>
-    <row r="793" ht="12"/>
-    <row r="794" ht="12"/>
-    <row r="795" ht="12"/>
-    <row r="796" ht="12"/>
-    <row r="797" ht="12"/>
-    <row r="798" ht="12"/>
-    <row r="799" ht="12"/>
-    <row r="800" ht="12"/>
-    <row r="801" ht="12"/>
-    <row r="802" ht="12"/>
-    <row r="803" ht="12"/>
-    <row r="804" ht="12"/>
-    <row r="805" ht="12"/>
-    <row r="806" ht="12"/>
-    <row r="807" ht="12"/>
-    <row r="808" ht="12"/>
-    <row r="809" ht="12"/>
-    <row r="810" ht="12"/>
-    <row r="811" ht="12"/>
-    <row r="812" ht="12"/>
-    <row r="813" ht="12"/>
-    <row r="814" ht="12"/>
-    <row r="815" ht="12"/>
-    <row r="816" ht="12"/>
-    <row r="817" ht="12"/>
-    <row r="818" ht="12"/>
-    <row r="819" ht="12"/>
-    <row r="820" ht="12"/>
-    <row r="821" ht="12"/>
-    <row r="822" ht="12"/>
-    <row r="823" ht="12"/>
-    <row r="824" ht="12"/>
-    <row r="825" ht="12"/>
-    <row r="826" ht="12"/>
-    <row r="827" ht="12"/>
-    <row r="828" ht="12"/>
-    <row r="829" ht="12"/>
-    <row r="830" ht="12"/>
-    <row r="831" ht="12"/>
-    <row r="832" ht="12"/>
-    <row r="833" ht="12"/>
-    <row r="834" ht="12"/>
-    <row r="835" ht="12"/>
-    <row r="836" ht="12"/>
-    <row r="837" ht="12"/>
-    <row r="838" ht="12"/>
-    <row r="839" ht="12"/>
-    <row r="840" ht="12"/>
-    <row r="841" ht="12"/>
-    <row r="842" ht="12"/>
-    <row r="843" ht="12"/>
-    <row r="844" ht="12"/>
-    <row r="845" ht="12"/>
-    <row r="846" ht="12"/>
-    <row r="847" ht="12"/>
-    <row r="848" ht="12"/>
-    <row r="849" ht="12"/>
-    <row r="850" ht="12"/>
-    <row r="851" ht="12"/>
-    <row r="852" ht="12"/>
-    <row r="853" ht="12"/>
-    <row r="854" ht="12"/>
-    <row r="855" ht="12"/>
-    <row r="856" ht="12"/>
-    <row r="857" ht="12"/>
-    <row r="858" ht="12"/>
-    <row r="859" ht="12"/>
-    <row r="860" ht="12"/>
-    <row r="861" ht="12"/>
-    <row r="862" ht="12"/>
-    <row r="863" ht="12"/>
-    <row r="864" ht="12"/>
-    <row r="865" ht="12"/>
-    <row r="866" ht="12"/>
-    <row r="867" ht="12"/>
-    <row r="868" ht="12"/>
-    <row r="869" ht="12"/>
-    <row r="870" ht="12"/>
-    <row r="871" ht="12"/>
-    <row r="872" ht="12"/>
-    <row r="873" ht="12"/>
-    <row r="874" ht="12"/>
-    <row r="875" ht="12"/>
-    <row r="876" ht="12"/>
-    <row r="877" ht="12"/>
-    <row r="878" ht="12"/>
-    <row r="879" ht="12"/>
-    <row r="880" ht="12"/>
-    <row r="881" ht="12"/>
-    <row r="882" ht="12"/>
-    <row r="883" ht="12"/>
-    <row r="884" ht="12"/>
-    <row r="885" ht="12"/>
-    <row r="886" ht="12"/>
-    <row r="887" ht="12"/>
-    <row r="888" ht="12"/>
-    <row r="889" ht="12"/>
-    <row r="890" ht="12"/>
-    <row r="891" ht="12"/>
-    <row r="892" ht="12"/>
-    <row r="893" ht="12"/>
-    <row r="894" ht="12"/>
-    <row r="895" ht="12"/>
-    <row r="896" ht="12"/>
-    <row r="897" ht="12"/>
-    <row r="898" ht="12"/>
-    <row r="899" ht="12"/>
-    <row r="900" ht="12"/>
-    <row r="901" ht="12"/>
-    <row r="902" ht="12"/>
-    <row r="903" ht="12"/>
-    <row r="904" ht="12"/>
-    <row r="905" ht="12"/>
-    <row r="906" ht="12"/>
-    <row r="907" ht="12"/>
-    <row r="908" ht="12"/>
-    <row r="909" ht="12"/>
-    <row r="910" ht="12"/>
-    <row r="911" ht="12"/>
-    <row r="912" ht="12"/>
-    <row r="913" ht="12"/>
-    <row r="914" ht="12"/>
-    <row r="915" ht="12"/>
-    <row r="916" ht="12"/>
-    <row r="917" ht="12"/>
-    <row r="918" ht="12"/>
-    <row r="919" ht="12"/>
-    <row r="920" ht="12"/>
-    <row r="921" ht="12"/>
-    <row r="922" ht="12"/>
-    <row r="923" ht="12"/>
-    <row r="924" ht="12"/>
-    <row r="925" ht="12"/>
-    <row r="926" ht="12"/>
-    <row r="927" ht="12"/>
-    <row r="928" ht="12"/>
-    <row r="929" ht="12"/>
-    <row r="930" ht="12"/>
-    <row r="931" ht="12"/>
-    <row r="932" ht="12"/>
-    <row r="933" ht="12"/>
-    <row r="934" ht="12"/>
-    <row r="935" ht="12"/>
-    <row r="936" ht="12"/>
-    <row r="937" ht="12"/>
-    <row r="938" ht="12"/>
-    <row r="939" ht="12"/>
-    <row r="940" ht="12"/>
-    <row r="941" ht="12"/>
-    <row r="942" ht="12"/>
-    <row r="943" ht="12"/>
-    <row r="944" ht="12"/>
-    <row r="945" ht="12"/>
-    <row r="946" ht="12"/>
-    <row r="947" ht="12"/>
-    <row r="948" ht="12"/>
-    <row r="949" ht="12"/>
-    <row r="950" ht="12"/>
-    <row r="951" ht="12"/>
-    <row r="952" ht="12"/>
-    <row r="953" ht="12"/>
-    <row r="954" ht="12"/>
-    <row r="955" ht="12"/>
-    <row r="956" ht="12"/>
-    <row r="957" ht="12"/>
-    <row r="958" ht="12"/>
-    <row r="959" ht="12"/>
-    <row r="960" ht="12"/>
-    <row r="961" ht="12"/>
-    <row r="962" ht="12"/>
-    <row r="963" ht="12"/>
-    <row r="964" ht="12"/>
-    <row r="965" ht="12"/>
-    <row r="966" ht="12"/>
-    <row r="967" ht="12"/>
-    <row r="968" ht="12"/>
-    <row r="969" ht="12"/>
-    <row r="970" ht="12"/>
-    <row r="971" ht="12"/>
-    <row r="972" ht="12"/>
-    <row r="973" ht="12"/>
-    <row r="974" ht="12"/>
-    <row r="975" ht="12"/>
-    <row r="976" ht="12"/>
-    <row r="977" ht="12"/>
-    <row r="978" ht="12"/>
-    <row r="979" ht="12"/>
-    <row r="980" ht="12"/>
-    <row r="981" ht="12"/>
-    <row r="982" ht="12"/>
-    <row r="983" ht="12"/>
-    <row r="984" ht="12"/>
-    <row r="985" ht="12"/>
-    <row r="986" ht="12"/>
-    <row r="987" ht="12"/>
-    <row r="988" ht="12"/>
-    <row r="989" ht="12"/>
-    <row r="990" ht="12"/>
-    <row r="991" ht="12"/>
-    <row r="992" ht="12"/>
-    <row r="993" ht="12"/>
-    <row r="994" ht="12"/>
-    <row r="995" ht="12"/>
-    <row r="996" ht="12"/>
-    <row r="997" ht="12"/>
-    <row r="998" ht="12"/>
-    <row r="999" ht="12"/>
-    <row r="1000" ht="12"/>
+    <row r="221" spans="2:2" ht="13"/>
+    <row r="222" spans="2:2" ht="13"/>
+    <row r="223" spans="2:2" ht="13"/>
+    <row r="224" spans="2:2" ht="13"/>
+    <row r="225" ht="13"/>
+    <row r="226" ht="13"/>
+    <row r="227" ht="13"/>
+    <row r="228" ht="13"/>
+    <row r="229" ht="13"/>
+    <row r="230" ht="13"/>
+    <row r="231" ht="13"/>
+    <row r="232" ht="13"/>
+    <row r="233" ht="13"/>
+    <row r="234" ht="13"/>
+    <row r="235" ht="13"/>
+    <row r="236" ht="13"/>
+    <row r="237" ht="13"/>
+    <row r="238" ht="13"/>
+    <row r="239" ht="13"/>
+    <row r="240" ht="13"/>
+    <row r="241" ht="13"/>
+    <row r="242" ht="13"/>
+    <row r="243" ht="13"/>
+    <row r="244" ht="13"/>
+    <row r="245" ht="13"/>
+    <row r="246" ht="13"/>
+    <row r="247" ht="13"/>
+    <row r="248" ht="13"/>
+    <row r="249" ht="13"/>
+    <row r="250" ht="13"/>
+    <row r="251" ht="13"/>
+    <row r="252" ht="13"/>
+    <row r="253" ht="13"/>
+    <row r="254" ht="13"/>
+    <row r="255" ht="13"/>
+    <row r="256" ht="13"/>
+    <row r="257" ht="13"/>
+    <row r="258" ht="13"/>
+    <row r="259" ht="13"/>
+    <row r="260" ht="13"/>
+    <row r="261" ht="13"/>
+    <row r="262" ht="13"/>
+    <row r="263" ht="13"/>
+    <row r="264" ht="13"/>
+    <row r="265" ht="13"/>
+    <row r="266" ht="13"/>
+    <row r="267" ht="13"/>
+    <row r="268" ht="13"/>
+    <row r="269" ht="13"/>
+    <row r="270" ht="13"/>
+    <row r="271" ht="13"/>
+    <row r="272" ht="13"/>
+    <row r="273" ht="13"/>
+    <row r="274" ht="13"/>
+    <row r="275" ht="13"/>
+    <row r="276" ht="13"/>
+    <row r="277" ht="13"/>
+    <row r="278" ht="13"/>
+    <row r="279" ht="13"/>
+    <row r="280" ht="13"/>
+    <row r="281" ht="13"/>
+    <row r="282" ht="13"/>
+    <row r="283" ht="13"/>
+    <row r="284" ht="13"/>
+    <row r="285" ht="13"/>
+    <row r="286" ht="13"/>
+    <row r="287" ht="13"/>
+    <row r="288" ht="13"/>
+    <row r="289" ht="13"/>
+    <row r="290" ht="13"/>
+    <row r="291" ht="13"/>
+    <row r="292" ht="13"/>
+    <row r="293" ht="13"/>
+    <row r="294" ht="13"/>
+    <row r="295" ht="13"/>
+    <row r="296" ht="13"/>
+    <row r="297" ht="13"/>
+    <row r="298" ht="13"/>
+    <row r="299" ht="13"/>
+    <row r="300" ht="13"/>
+    <row r="301" ht="13"/>
+    <row r="302" ht="13"/>
+    <row r="303" ht="13"/>
+    <row r="304" ht="13"/>
+    <row r="305" ht="13"/>
+    <row r="306" ht="13"/>
+    <row r="307" ht="13"/>
+    <row r="308" ht="13"/>
+    <row r="309" ht="13"/>
+    <row r="310" ht="13"/>
+    <row r="311" ht="13"/>
+    <row r="312" ht="13"/>
+    <row r="313" ht="13"/>
+    <row r="314" ht="13"/>
+    <row r="315" ht="13"/>
+    <row r="316" ht="13"/>
+    <row r="317" ht="13"/>
+    <row r="318" ht="13"/>
+    <row r="319" ht="13"/>
+    <row r="320" ht="13"/>
+    <row r="321" ht="13"/>
+    <row r="322" ht="13"/>
+    <row r="323" ht="13"/>
+    <row r="324" ht="13"/>
+    <row r="325" ht="13"/>
+    <row r="326" ht="13"/>
+    <row r="327" ht="13"/>
+    <row r="328" ht="13"/>
+    <row r="329" ht="13"/>
+    <row r="330" ht="13"/>
+    <row r="331" ht="13"/>
+    <row r="332" ht="13"/>
+    <row r="333" ht="13"/>
+    <row r="334" ht="13"/>
+    <row r="335" ht="13"/>
+    <row r="336" ht="13"/>
+    <row r="337" ht="13"/>
+    <row r="338" ht="13"/>
+    <row r="339" ht="13"/>
+    <row r="340" ht="13"/>
+    <row r="341" ht="13"/>
+    <row r="342" ht="13"/>
+    <row r="343" ht="13"/>
+    <row r="344" ht="13"/>
+    <row r="345" ht="13"/>
+    <row r="346" ht="13"/>
+    <row r="347" ht="13"/>
+    <row r="348" ht="13"/>
+    <row r="349" ht="13"/>
+    <row r="350" ht="13"/>
+    <row r="351" ht="13"/>
+    <row r="352" ht="13"/>
+    <row r="353" ht="13"/>
+    <row r="354" ht="13"/>
+    <row r="355" ht="13"/>
+    <row r="356" ht="13"/>
+    <row r="357" ht="13"/>
+    <row r="358" ht="13"/>
+    <row r="359" ht="13"/>
+    <row r="360" ht="13"/>
+    <row r="361" ht="13"/>
+    <row r="362" ht="13"/>
+    <row r="363" ht="13"/>
+    <row r="364" ht="13"/>
+    <row r="365" ht="13"/>
+    <row r="366" ht="13"/>
+    <row r="367" ht="13"/>
+    <row r="368" ht="13"/>
+    <row r="369" ht="13"/>
+    <row r="370" ht="13"/>
+    <row r="371" ht="13"/>
+    <row r="372" ht="13"/>
+    <row r="373" ht="13"/>
+    <row r="374" ht="13"/>
+    <row r="375" ht="13"/>
+    <row r="376" ht="13"/>
+    <row r="377" ht="13"/>
+    <row r="378" ht="13"/>
+    <row r="379" ht="13"/>
+    <row r="380" ht="13"/>
+    <row r="381" ht="13"/>
+    <row r="382" ht="13"/>
+    <row r="383" ht="13"/>
+    <row r="384" ht="13"/>
+    <row r="385" ht="13"/>
+    <row r="386" ht="13"/>
+    <row r="387" ht="13"/>
+    <row r="388" ht="13"/>
+    <row r="389" ht="13"/>
+    <row r="390" ht="13"/>
+    <row r="391" ht="13"/>
+    <row r="392" ht="13"/>
+    <row r="393" ht="13"/>
+    <row r="394" ht="13"/>
+    <row r="395" ht="13"/>
+    <row r="396" ht="13"/>
+    <row r="397" ht="13"/>
+    <row r="398" ht="13"/>
+    <row r="399" ht="13"/>
+    <row r="400" ht="13"/>
+    <row r="401" ht="13"/>
+    <row r="402" ht="13"/>
+    <row r="403" ht="13"/>
+    <row r="404" ht="13"/>
+    <row r="405" ht="13"/>
+    <row r="406" ht="13"/>
+    <row r="407" ht="13"/>
+    <row r="408" ht="13"/>
+    <row r="409" ht="13"/>
+    <row r="410" ht="13"/>
+    <row r="411" ht="13"/>
+    <row r="412" ht="13"/>
+    <row r="413" ht="13"/>
+    <row r="414" ht="13"/>
+    <row r="415" ht="13"/>
+    <row r="416" ht="13"/>
+    <row r="417" ht="13"/>
+    <row r="418" ht="13"/>
+    <row r="419" ht="13"/>
+    <row r="420" ht="13"/>
+    <row r="421" ht="13"/>
+    <row r="422" ht="13"/>
+    <row r="423" ht="13"/>
+    <row r="424" ht="13"/>
+    <row r="425" ht="13"/>
+    <row r="426" ht="13"/>
+    <row r="427" ht="13"/>
+    <row r="428" ht="13"/>
+    <row r="429" ht="13"/>
+    <row r="430" ht="13"/>
+    <row r="431" ht="13"/>
+    <row r="432" ht="13"/>
+    <row r="433" ht="13"/>
+    <row r="434" ht="13"/>
+    <row r="435" ht="13"/>
+    <row r="436" ht="13"/>
+    <row r="437" ht="13"/>
+    <row r="438" ht="13"/>
+    <row r="439" ht="13"/>
+    <row r="440" ht="13"/>
+    <row r="441" ht="13"/>
+    <row r="442" ht="13"/>
+    <row r="443" ht="13"/>
+    <row r="444" ht="13"/>
+    <row r="445" ht="13"/>
+    <row r="446" ht="13"/>
+    <row r="447" ht="13"/>
+    <row r="448" ht="13"/>
+    <row r="449" ht="13"/>
+    <row r="450" ht="13"/>
+    <row r="451" ht="13"/>
+    <row r="452" ht="13"/>
+    <row r="453" ht="13"/>
+    <row r="454" ht="13"/>
+    <row r="455" ht="13"/>
+    <row r="456" ht="13"/>
+    <row r="457" ht="13"/>
+    <row r="458" ht="13"/>
+    <row r="459" ht="13"/>
+    <row r="460" ht="13"/>
+    <row r="461" ht="13"/>
+    <row r="462" ht="13"/>
+    <row r="463" ht="13"/>
+    <row r="464" ht="13"/>
+    <row r="465" ht="13"/>
+    <row r="466" ht="13"/>
+    <row r="467" ht="13"/>
+    <row r="468" ht="13"/>
+    <row r="469" ht="13"/>
+    <row r="470" ht="13"/>
+    <row r="471" ht="13"/>
+    <row r="472" ht="13"/>
+    <row r="473" ht="13"/>
+    <row r="474" ht="13"/>
+    <row r="475" ht="13"/>
+    <row r="476" ht="13"/>
+    <row r="477" ht="13"/>
+    <row r="478" ht="13"/>
+    <row r="479" ht="13"/>
+    <row r="480" ht="13"/>
+    <row r="481" ht="13"/>
+    <row r="482" ht="13"/>
+    <row r="483" ht="13"/>
+    <row r="484" ht="13"/>
+    <row r="485" ht="13"/>
+    <row r="486" ht="13"/>
+    <row r="487" ht="13"/>
+    <row r="488" ht="13"/>
+    <row r="489" ht="13"/>
+    <row r="490" ht="13"/>
+    <row r="491" ht="13"/>
+    <row r="492" ht="13"/>
+    <row r="493" ht="13"/>
+    <row r="494" ht="13"/>
+    <row r="495" ht="13"/>
+    <row r="496" ht="13"/>
+    <row r="497" ht="13"/>
+    <row r="498" ht="13"/>
+    <row r="499" ht="13"/>
+    <row r="500" ht="13"/>
+    <row r="501" ht="13"/>
+    <row r="502" ht="13"/>
+    <row r="503" ht="13"/>
+    <row r="504" ht="13"/>
+    <row r="505" ht="13"/>
+    <row r="506" ht="13"/>
+    <row r="507" ht="13"/>
+    <row r="508" ht="13"/>
+    <row r="509" ht="13"/>
+    <row r="510" ht="13"/>
+    <row r="511" ht="13"/>
+    <row r="512" ht="13"/>
+    <row r="513" ht="13"/>
+    <row r="514" ht="13"/>
+    <row r="515" ht="13"/>
+    <row r="516" ht="13"/>
+    <row r="517" ht="13"/>
+    <row r="518" ht="13"/>
+    <row r="519" ht="13"/>
+    <row r="520" ht="13"/>
+    <row r="521" ht="13"/>
+    <row r="522" ht="13"/>
+    <row r="523" ht="13"/>
+    <row r="524" ht="13"/>
+    <row r="525" ht="13"/>
+    <row r="526" ht="13"/>
+    <row r="527" ht="13"/>
+    <row r="528" ht="13"/>
+    <row r="529" ht="13"/>
+    <row r="530" ht="13"/>
+    <row r="531" ht="13"/>
+    <row r="532" ht="13"/>
+    <row r="533" ht="13"/>
+    <row r="534" ht="13"/>
+    <row r="535" ht="13"/>
+    <row r="536" ht="13"/>
+    <row r="537" ht="13"/>
+    <row r="538" ht="13"/>
+    <row r="539" ht="13"/>
+    <row r="540" ht="13"/>
+    <row r="541" ht="13"/>
+    <row r="542" ht="13"/>
+    <row r="543" ht="13"/>
+    <row r="544" ht="13"/>
+    <row r="545" ht="13"/>
+    <row r="546" ht="13"/>
+    <row r="547" ht="13"/>
+    <row r="548" ht="13"/>
+    <row r="549" ht="13"/>
+    <row r="550" ht="13"/>
+    <row r="551" ht="13"/>
+    <row r="552" ht="13"/>
+    <row r="553" ht="13"/>
+    <row r="554" ht="13"/>
+    <row r="555" ht="13"/>
+    <row r="556" ht="13"/>
+    <row r="557" ht="13"/>
+    <row r="558" ht="13"/>
+    <row r="559" ht="13"/>
+    <row r="560" ht="13"/>
+    <row r="561" ht="13"/>
+    <row r="562" ht="13"/>
+    <row r="563" ht="13"/>
+    <row r="564" ht="13"/>
+    <row r="565" ht="13"/>
+    <row r="566" ht="13"/>
+    <row r="567" ht="13"/>
+    <row r="568" ht="13"/>
+    <row r="569" ht="13"/>
+    <row r="570" ht="13"/>
+    <row r="571" ht="13"/>
+    <row r="572" ht="13"/>
+    <row r="573" ht="13"/>
+    <row r="574" ht="13"/>
+    <row r="575" ht="13"/>
+    <row r="576" ht="13"/>
+    <row r="577" ht="13"/>
+    <row r="578" ht="13"/>
+    <row r="579" ht="13"/>
+    <row r="580" ht="13"/>
+    <row r="581" ht="13"/>
+    <row r="582" ht="13"/>
+    <row r="583" ht="13"/>
+    <row r="584" ht="13"/>
+    <row r="585" ht="13"/>
+    <row r="586" ht="13"/>
+    <row r="587" ht="13"/>
+    <row r="588" ht="13"/>
+    <row r="589" ht="13"/>
+    <row r="590" ht="13"/>
+    <row r="591" ht="13"/>
+    <row r="592" ht="13"/>
+    <row r="593" ht="13"/>
+    <row r="594" ht="13"/>
+    <row r="595" ht="13"/>
+    <row r="596" ht="13"/>
+    <row r="597" ht="13"/>
+    <row r="598" ht="13"/>
+    <row r="599" ht="13"/>
+    <row r="600" ht="13"/>
+    <row r="601" ht="13"/>
+    <row r="602" ht="13"/>
+    <row r="603" ht="13"/>
+    <row r="604" ht="13"/>
+    <row r="605" ht="13"/>
+    <row r="606" ht="13"/>
+    <row r="607" ht="13"/>
+    <row r="608" ht="13"/>
+    <row r="609" ht="13"/>
+    <row r="610" ht="13"/>
+    <row r="611" ht="13"/>
+    <row r="612" ht="13"/>
+    <row r="613" ht="13"/>
+    <row r="614" ht="13"/>
+    <row r="615" ht="13"/>
+    <row r="616" ht="13"/>
+    <row r="617" ht="13"/>
+    <row r="618" ht="13"/>
+    <row r="619" ht="13"/>
+    <row r="620" ht="13"/>
+    <row r="621" ht="13"/>
+    <row r="622" ht="13"/>
+    <row r="623" ht="13"/>
+    <row r="624" ht="13"/>
+    <row r="625" ht="13"/>
+    <row r="626" ht="13"/>
+    <row r="627" ht="13"/>
+    <row r="628" ht="13"/>
+    <row r="629" ht="13"/>
+    <row r="630" ht="13"/>
+    <row r="631" ht="13"/>
+    <row r="632" ht="13"/>
+    <row r="633" ht="13"/>
+    <row r="634" ht="13"/>
+    <row r="635" ht="13"/>
+    <row r="636" ht="13"/>
+    <row r="637" ht="13"/>
+    <row r="638" ht="13"/>
+    <row r="639" ht="13"/>
+    <row r="640" ht="13"/>
+    <row r="641" ht="13"/>
+    <row r="642" ht="13"/>
+    <row r="643" ht="13"/>
+    <row r="644" ht="13"/>
+    <row r="645" ht="13"/>
+    <row r="646" ht="13"/>
+    <row r="647" ht="13"/>
+    <row r="648" ht="13"/>
+    <row r="649" ht="13"/>
+    <row r="650" ht="13"/>
+    <row r="651" ht="13"/>
+    <row r="652" ht="13"/>
+    <row r="653" ht="13"/>
+    <row r="654" ht="13"/>
+    <row r="655" ht="13"/>
+    <row r="656" ht="13"/>
+    <row r="657" ht="13"/>
+    <row r="658" ht="13"/>
+    <row r="659" ht="13"/>
+    <row r="660" ht="13"/>
+    <row r="661" ht="13"/>
+    <row r="662" ht="13"/>
+    <row r="663" ht="13"/>
+    <row r="664" ht="13"/>
+    <row r="665" ht="13"/>
+    <row r="666" ht="13"/>
+    <row r="667" ht="13"/>
+    <row r="668" ht="13"/>
+    <row r="669" ht="13"/>
+    <row r="670" ht="13"/>
+    <row r="671" ht="13"/>
+    <row r="672" ht="13"/>
+    <row r="673" ht="13"/>
+    <row r="674" ht="13"/>
+    <row r="675" ht="13"/>
+    <row r="676" ht="13"/>
+    <row r="677" ht="13"/>
+    <row r="678" ht="13"/>
+    <row r="679" ht="13"/>
+    <row r="680" ht="13"/>
+    <row r="681" ht="13"/>
+    <row r="682" ht="13"/>
+    <row r="683" ht="13"/>
+    <row r="684" ht="13"/>
+    <row r="685" ht="13"/>
+    <row r="686" ht="13"/>
+    <row r="687" ht="13"/>
+    <row r="688" ht="13"/>
+    <row r="689" ht="13"/>
+    <row r="690" ht="13"/>
+    <row r="691" ht="13"/>
+    <row r="692" ht="13"/>
+    <row r="693" ht="13"/>
+    <row r="694" ht="13"/>
+    <row r="695" ht="13"/>
+    <row r="696" ht="13"/>
+    <row r="697" ht="13"/>
+    <row r="698" ht="13"/>
+    <row r="699" ht="13"/>
+    <row r="700" ht="13"/>
+    <row r="701" ht="13"/>
+    <row r="702" ht="13"/>
+    <row r="703" ht="13"/>
+    <row r="704" ht="13"/>
+    <row r="705" ht="13"/>
+    <row r="706" ht="13"/>
+    <row r="707" ht="13"/>
+    <row r="708" ht="13"/>
+    <row r="709" ht="13"/>
+    <row r="710" ht="13"/>
+    <row r="711" ht="13"/>
+    <row r="712" ht="13"/>
+    <row r="713" ht="13"/>
+    <row r="714" ht="13"/>
+    <row r="715" ht="13"/>
+    <row r="716" ht="13"/>
+    <row r="717" ht="13"/>
+    <row r="718" ht="13"/>
+    <row r="719" ht="13"/>
+    <row r="720" ht="13"/>
+    <row r="721" ht="13"/>
+    <row r="722" ht="13"/>
+    <row r="723" ht="13"/>
+    <row r="724" ht="13"/>
+    <row r="725" ht="13"/>
+    <row r="726" ht="13"/>
+    <row r="727" ht="13"/>
+    <row r="728" ht="13"/>
+    <row r="729" ht="13"/>
+    <row r="730" ht="13"/>
+    <row r="731" ht="13"/>
+    <row r="732" ht="13"/>
+    <row r="733" ht="13"/>
+    <row r="734" ht="13"/>
+    <row r="735" ht="13"/>
+    <row r="736" ht="13"/>
+    <row r="737" ht="13"/>
+    <row r="738" ht="13"/>
+    <row r="739" ht="13"/>
+    <row r="740" ht="13"/>
+    <row r="741" ht="13"/>
+    <row r="742" ht="13"/>
+    <row r="743" ht="13"/>
+    <row r="744" ht="13"/>
+    <row r="745" ht="13"/>
+    <row r="746" ht="13"/>
+    <row r="747" ht="13"/>
+    <row r="748" ht="13"/>
+    <row r="749" ht="13"/>
+    <row r="750" ht="13"/>
+    <row r="751" ht="13"/>
+    <row r="752" ht="13"/>
+    <row r="753" ht="13"/>
+    <row r="754" ht="13"/>
+    <row r="755" ht="13"/>
+    <row r="756" ht="13"/>
+    <row r="757" ht="13"/>
+    <row r="758" ht="13"/>
+    <row r="759" ht="13"/>
+    <row r="760" ht="13"/>
+    <row r="761" ht="13"/>
+    <row r="762" ht="13"/>
+    <row r="763" ht="13"/>
+    <row r="764" ht="13"/>
+    <row r="765" ht="13"/>
+    <row r="766" ht="13"/>
+    <row r="767" ht="13"/>
+    <row r="768" ht="13"/>
+    <row r="769" ht="13"/>
+    <row r="770" ht="13"/>
+    <row r="771" ht="13"/>
+    <row r="772" ht="13"/>
+    <row r="773" ht="13"/>
+    <row r="774" ht="13"/>
+    <row r="775" ht="13"/>
+    <row r="776" ht="13"/>
+    <row r="777" ht="13"/>
+    <row r="778" ht="13"/>
+    <row r="779" ht="13"/>
+    <row r="780" ht="13"/>
+    <row r="781" ht="13"/>
+    <row r="782" ht="13"/>
+    <row r="783" ht="13"/>
+    <row r="784" ht="13"/>
+    <row r="785" ht="13"/>
+    <row r="786" ht="13"/>
+    <row r="787" ht="13"/>
+    <row r="788" ht="13"/>
+    <row r="789" ht="13"/>
+    <row r="790" ht="13"/>
+    <row r="791" ht="13"/>
+    <row r="792" ht="13"/>
+    <row r="793" ht="13"/>
+    <row r="794" ht="13"/>
+    <row r="795" ht="13"/>
+    <row r="796" ht="13"/>
+    <row r="797" ht="13"/>
+    <row r="798" ht="13"/>
+    <row r="799" ht="13"/>
+    <row r="800" ht="13"/>
+    <row r="801" ht="13"/>
+    <row r="802" ht="13"/>
+    <row r="803" ht="13"/>
+    <row r="804" ht="13"/>
+    <row r="805" ht="13"/>
+    <row r="806" ht="13"/>
+    <row r="807" ht="13"/>
+    <row r="808" ht="13"/>
+    <row r="809" ht="13"/>
+    <row r="810" ht="13"/>
+    <row r="811" ht="13"/>
+    <row r="812" ht="13"/>
+    <row r="813" ht="13"/>
+    <row r="814" ht="13"/>
+    <row r="815" ht="13"/>
+    <row r="816" ht="13"/>
+    <row r="817" ht="13"/>
+    <row r="818" ht="13"/>
+    <row r="819" ht="13"/>
+    <row r="820" ht="13"/>
+    <row r="821" ht="13"/>
+    <row r="822" ht="13"/>
+    <row r="823" ht="13"/>
+    <row r="824" ht="13"/>
+    <row r="825" ht="13"/>
+    <row r="826" ht="13"/>
+    <row r="827" ht="13"/>
+    <row r="828" ht="13"/>
+    <row r="829" ht="13"/>
+    <row r="830" ht="13"/>
+    <row r="831" ht="13"/>
+    <row r="832" ht="13"/>
+    <row r="833" ht="13"/>
+    <row r="834" ht="13"/>
+    <row r="835" ht="13"/>
+    <row r="836" ht="13"/>
+    <row r="837" ht="13"/>
+    <row r="838" ht="13"/>
+    <row r="839" ht="13"/>
+    <row r="840" ht="13"/>
+    <row r="841" ht="13"/>
+    <row r="842" ht="13"/>
+    <row r="843" ht="13"/>
+    <row r="844" ht="13"/>
+    <row r="845" ht="13"/>
+    <row r="846" ht="13"/>
+    <row r="847" ht="13"/>
+    <row r="848" ht="13"/>
+    <row r="849" ht="13"/>
+    <row r="850" ht="13"/>
+    <row r="851" ht="13"/>
+    <row r="852" ht="13"/>
+    <row r="853" ht="13"/>
+    <row r="854" ht="13"/>
+    <row r="855" ht="13"/>
+    <row r="856" ht="13"/>
+    <row r="857" ht="13"/>
+    <row r="858" ht="13"/>
+    <row r="859" ht="13"/>
+    <row r="860" ht="13"/>
+    <row r="861" ht="13"/>
+    <row r="862" ht="13"/>
+    <row r="863" ht="13"/>
+    <row r="864" ht="13"/>
+    <row r="865" ht="13"/>
+    <row r="866" ht="13"/>
+    <row r="867" ht="13"/>
+    <row r="868" ht="13"/>
+    <row r="869" ht="13"/>
+    <row r="870" ht="13"/>
+    <row r="871" ht="13"/>
+    <row r="872" ht="13"/>
+    <row r="873" ht="13"/>
+    <row r="874" ht="13"/>
+    <row r="875" ht="13"/>
+    <row r="876" ht="13"/>
+    <row r="877" ht="13"/>
+    <row r="878" ht="13"/>
+    <row r="879" ht="13"/>
+    <row r="880" ht="13"/>
+    <row r="881" ht="13"/>
+    <row r="882" ht="13"/>
+    <row r="883" ht="13"/>
+    <row r="884" ht="13"/>
+    <row r="885" ht="13"/>
+    <row r="886" ht="13"/>
+    <row r="887" ht="13"/>
+    <row r="888" ht="13"/>
+    <row r="889" ht="13"/>
+    <row r="890" ht="13"/>
+    <row r="891" ht="13"/>
+    <row r="892" ht="13"/>
+    <row r="893" ht="13"/>
+    <row r="894" ht="13"/>
+    <row r="895" ht="13"/>
+    <row r="896" ht="13"/>
+    <row r="897" ht="13"/>
+    <row r="898" ht="13"/>
+    <row r="899" ht="13"/>
+    <row r="900" ht="13"/>
+    <row r="901" ht="13"/>
+    <row r="902" ht="13"/>
+    <row r="903" ht="13"/>
+    <row r="904" ht="13"/>
+    <row r="905" ht="13"/>
+    <row r="906" ht="13"/>
+    <row r="907" ht="13"/>
+    <row r="908" ht="13"/>
+    <row r="909" ht="13"/>
+    <row r="910" ht="13"/>
+    <row r="911" ht="13"/>
+    <row r="912" ht="13"/>
+    <row r="913" ht="13"/>
+    <row r="914" ht="13"/>
+    <row r="915" ht="13"/>
+    <row r="916" ht="13"/>
+    <row r="917" ht="13"/>
+    <row r="918" ht="13"/>
+    <row r="919" ht="13"/>
+    <row r="920" ht="13"/>
+    <row r="921" ht="13"/>
+    <row r="922" ht="13"/>
+    <row r="923" ht="13"/>
+    <row r="924" ht="13"/>
+    <row r="925" ht="13"/>
+    <row r="926" ht="13"/>
+    <row r="927" ht="13"/>
+    <row r="928" ht="13"/>
+    <row r="929" ht="13"/>
+    <row r="930" ht="13"/>
+    <row r="931" ht="13"/>
+    <row r="932" ht="13"/>
+    <row r="933" ht="13"/>
+    <row r="934" ht="13"/>
+    <row r="935" ht="13"/>
+    <row r="936" ht="13"/>
+    <row r="937" ht="13"/>
+    <row r="938" ht="13"/>
+    <row r="939" ht="13"/>
+    <row r="940" ht="13"/>
+    <row r="941" ht="13"/>
+    <row r="942" ht="13"/>
+    <row r="943" ht="13"/>
+    <row r="944" ht="13"/>
+    <row r="945" ht="13"/>
+    <row r="946" ht="13"/>
+    <row r="947" ht="13"/>
+    <row r="948" ht="13"/>
+    <row r="949" ht="13"/>
+    <row r="950" ht="13"/>
+    <row r="951" ht="13"/>
+    <row r="952" ht="13"/>
+    <row r="953" ht="13"/>
+    <row r="954" ht="13"/>
+    <row r="955" ht="13"/>
+    <row r="956" ht="13"/>
+    <row r="957" ht="13"/>
+    <row r="958" ht="13"/>
+    <row r="959" ht="13"/>
+    <row r="960" ht="13"/>
+    <row r="961" ht="13"/>
+    <row r="962" ht="13"/>
+    <row r="963" ht="13"/>
+    <row r="964" ht="13"/>
+    <row r="965" ht="13"/>
+    <row r="966" ht="13"/>
+    <row r="967" ht="13"/>
+    <row r="968" ht="13"/>
+    <row r="969" ht="13"/>
+    <row r="970" ht="13"/>
+    <row r="971" ht="13"/>
+    <row r="972" ht="13"/>
+    <row r="973" ht="13"/>
+    <row r="974" ht="13"/>
+    <row r="975" ht="13"/>
+    <row r="976" ht="13"/>
+    <row r="977" ht="13"/>
+    <row r="978" ht="13"/>
+    <row r="979" ht="13"/>
+    <row r="980" ht="13"/>
+    <row r="981" ht="13"/>
+    <row r="982" ht="13"/>
+    <row r="983" ht="13"/>
+    <row r="984" ht="13"/>
+    <row r="985" ht="13"/>
+    <row r="986" ht="13"/>
+    <row r="987" ht="13"/>
+    <row r="988" ht="13"/>
+    <row r="989" ht="13"/>
+    <row r="990" ht="13"/>
+    <row r="991" ht="13"/>
+    <row r="992" ht="13"/>
+    <row r="993" ht="13"/>
+    <row r="994" ht="13"/>
+    <row r="995" ht="13"/>
+    <row r="996" ht="13"/>
+    <row r="997" ht="13"/>
+    <row r="998" ht="13"/>
+    <row r="999" ht="13"/>
+    <row r="1000" ht="13"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -7073,15 +7076,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
@@ -7091,136 +7094,136 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14">
       <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14">
       <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14">
       <c r="A4" s="18">
         <v>26</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14">
       <c r="A5" s="18">
         <v>40</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="19" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14">
       <c r="A6" s="18">
         <v>41</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14">
       <c r="A7" s="20">
         <v>43</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="22" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14">
       <c r="A8" s="20">
         <v>45</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="13">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="13">
+    <row r="10" spans="1:4" ht="14">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="13">
+    <row r="11" spans="1:4" ht="14">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="13">
+    <row r="12" spans="1:4" ht="14">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="13">
+    <row r="13" spans="1:4" ht="14">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="13">
+    <row r="14" spans="1:4" ht="14">
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="13">
+    <row r="15" spans="1:4" ht="14">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="13">
+    <row r="16" spans="1:4" ht="14">
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="2:2" ht="13">
+    <row r="17" spans="2:2" ht="14">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:2" ht="13">
+    <row r="18" spans="2:2" ht="14">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="2:2" ht="13">
+    <row r="19" spans="2:2" ht="14">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:2" ht="13">
+    <row r="20" spans="2:2" ht="14">
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="2:2" ht="15.75" customHeight="1">
@@ -7823,786 +7826,786 @@
     <row r="220" spans="2:2" ht="15.75" customHeight="1">
       <c r="B220" s="4"/>
     </row>
-    <row r="221" spans="2:2" ht="12"/>
-    <row r="222" spans="2:2" ht="12"/>
-    <row r="223" spans="2:2" ht="12"/>
-    <row r="224" spans="2:2" ht="12"/>
-    <row r="225" ht="12"/>
-    <row r="226" ht="12"/>
-    <row r="227" ht="12"/>
-    <row r="228" ht="12"/>
-    <row r="229" ht="12"/>
-    <row r="230" ht="12"/>
-    <row r="231" ht="12"/>
-    <row r="232" ht="12"/>
-    <row r="233" ht="12"/>
-    <row r="234" ht="12"/>
-    <row r="235" ht="12"/>
-    <row r="236" ht="12"/>
-    <row r="237" ht="12"/>
-    <row r="238" ht="12"/>
-    <row r="239" ht="12"/>
-    <row r="240" ht="12"/>
-    <row r="241" ht="12"/>
-    <row r="242" ht="12"/>
-    <row r="243" ht="12"/>
-    <row r="244" ht="12"/>
-    <row r="245" ht="12"/>
-    <row r="246" ht="12"/>
-    <row r="247" ht="12"/>
-    <row r="248" ht="12"/>
-    <row r="249" ht="12"/>
-    <row r="250" ht="12"/>
-    <row r="251" ht="12"/>
-    <row r="252" ht="12"/>
-    <row r="253" ht="12"/>
-    <row r="254" ht="12"/>
-    <row r="255" ht="12"/>
-    <row r="256" ht="12"/>
-    <row r="257" ht="12"/>
-    <row r="258" ht="12"/>
-    <row r="259" ht="12"/>
-    <row r="260" ht="12"/>
-    <row r="261" ht="12"/>
-    <row r="262" ht="12"/>
-    <row r="263" ht="12"/>
-    <row r="264" ht="12"/>
-    <row r="265" ht="12"/>
-    <row r="266" ht="12"/>
-    <row r="267" ht="12"/>
-    <row r="268" ht="12"/>
-    <row r="269" ht="12"/>
-    <row r="270" ht="12"/>
-    <row r="271" ht="12"/>
-    <row r="272" ht="12"/>
-    <row r="273" ht="12"/>
-    <row r="274" ht="12"/>
-    <row r="275" ht="12"/>
-    <row r="276" ht="12"/>
-    <row r="277" ht="12"/>
-    <row r="278" ht="12"/>
-    <row r="279" ht="12"/>
-    <row r="280" ht="12"/>
-    <row r="281" ht="12"/>
-    <row r="282" ht="12"/>
-    <row r="283" ht="12"/>
-    <row r="284" ht="12"/>
-    <row r="285" ht="12"/>
-    <row r="286" ht="12"/>
-    <row r="287" ht="12"/>
-    <row r="288" ht="12"/>
-    <row r="289" ht="12"/>
-    <row r="290" ht="12"/>
-    <row r="291" ht="12"/>
-    <row r="292" ht="12"/>
-    <row r="293" ht="12"/>
-    <row r="294" ht="12"/>
-    <row r="295" ht="12"/>
-    <row r="296" ht="12"/>
-    <row r="297" ht="12"/>
-    <row r="298" ht="12"/>
-    <row r="299" ht="12"/>
-    <row r="300" ht="12"/>
-    <row r="301" ht="12"/>
-    <row r="302" ht="12"/>
-    <row r="303" ht="12"/>
-    <row r="304" ht="12"/>
-    <row r="305" ht="12"/>
-    <row r="306" ht="12"/>
-    <row r="307" ht="12"/>
-    <row r="308" ht="12"/>
-    <row r="309" ht="12"/>
-    <row r="310" ht="12"/>
-    <row r="311" ht="12"/>
-    <row r="312" ht="12"/>
-    <row r="313" ht="12"/>
-    <row r="314" ht="12"/>
-    <row r="315" ht="12"/>
-    <row r="316" ht="12"/>
-    <row r="317" ht="12"/>
-    <row r="318" ht="12"/>
-    <row r="319" ht="12"/>
-    <row r="320" ht="12"/>
-    <row r="321" ht="12"/>
-    <row r="322" ht="12"/>
-    <row r="323" ht="12"/>
-    <row r="324" ht="12"/>
-    <row r="325" ht="12"/>
-    <row r="326" ht="12"/>
-    <row r="327" ht="12"/>
-    <row r="328" ht="12"/>
-    <row r="329" ht="12"/>
-    <row r="330" ht="12"/>
-    <row r="331" ht="12"/>
-    <row r="332" ht="12"/>
-    <row r="333" ht="12"/>
-    <row r="334" ht="12"/>
-    <row r="335" ht="12"/>
-    <row r="336" ht="12"/>
-    <row r="337" ht="12"/>
-    <row r="338" ht="12"/>
-    <row r="339" ht="12"/>
-    <row r="340" ht="12"/>
-    <row r="341" ht="12"/>
-    <row r="342" ht="12"/>
-    <row r="343" ht="12"/>
-    <row r="344" ht="12"/>
-    <row r="345" ht="12"/>
-    <row r="346" ht="12"/>
-    <row r="347" ht="12"/>
-    <row r="348" ht="12"/>
-    <row r="349" ht="12"/>
-    <row r="350" ht="12"/>
-    <row r="351" ht="12"/>
-    <row r="352" ht="12"/>
-    <row r="353" ht="12"/>
-    <row r="354" ht="12"/>
-    <row r="355" ht="12"/>
-    <row r="356" ht="12"/>
-    <row r="357" ht="12"/>
-    <row r="358" ht="12"/>
-    <row r="359" ht="12"/>
-    <row r="360" ht="12"/>
-    <row r="361" ht="12"/>
-    <row r="362" ht="12"/>
-    <row r="363" ht="12"/>
-    <row r="364" ht="12"/>
-    <row r="365" ht="12"/>
-    <row r="366" ht="12"/>
-    <row r="367" ht="12"/>
-    <row r="368" ht="12"/>
-    <row r="369" ht="12"/>
-    <row r="370" ht="12"/>
-    <row r="371" ht="12"/>
-    <row r="372" ht="12"/>
-    <row r="373" ht="12"/>
-    <row r="374" ht="12"/>
-    <row r="375" ht="12"/>
-    <row r="376" ht="12"/>
-    <row r="377" ht="12"/>
-    <row r="378" ht="12"/>
-    <row r="379" ht="12"/>
-    <row r="380" ht="12"/>
-    <row r="381" ht="12"/>
-    <row r="382" ht="12"/>
-    <row r="383" ht="12"/>
-    <row r="384" ht="12"/>
-    <row r="385" ht="12"/>
-    <row r="386" ht="12"/>
-    <row r="387" ht="12"/>
-    <row r="388" ht="12"/>
-    <row r="389" ht="12"/>
-    <row r="390" ht="12"/>
-    <row r="391" ht="12"/>
-    <row r="392" ht="12"/>
-    <row r="393" ht="12"/>
-    <row r="394" ht="12"/>
-    <row r="395" ht="12"/>
-    <row r="396" ht="12"/>
-    <row r="397" ht="12"/>
-    <row r="398" ht="12"/>
-    <row r="399" ht="12"/>
-    <row r="400" ht="12"/>
-    <row r="401" ht="12"/>
-    <row r="402" ht="12"/>
-    <row r="403" ht="12"/>
-    <row r="404" ht="12"/>
-    <row r="405" ht="12"/>
-    <row r="406" ht="12"/>
-    <row r="407" ht="12"/>
-    <row r="408" ht="12"/>
-    <row r="409" ht="12"/>
-    <row r="410" ht="12"/>
-    <row r="411" ht="12"/>
-    <row r="412" ht="12"/>
-    <row r="413" ht="12"/>
-    <row r="414" ht="12"/>
-    <row r="415" ht="12"/>
-    <row r="416" ht="12"/>
-    <row r="417" ht="12"/>
-    <row r="418" ht="12"/>
-    <row r="419" ht="12"/>
-    <row r="420" ht="12"/>
-    <row r="421" ht="12"/>
-    <row r="422" ht="12"/>
-    <row r="423" ht="12"/>
-    <row r="424" ht="12"/>
-    <row r="425" ht="12"/>
-    <row r="426" ht="12"/>
-    <row r="427" ht="12"/>
-    <row r="428" ht="12"/>
-    <row r="429" ht="12"/>
-    <row r="430" ht="12"/>
-    <row r="431" ht="12"/>
-    <row r="432" ht="12"/>
-    <row r="433" ht="12"/>
-    <row r="434" ht="12"/>
-    <row r="435" ht="12"/>
-    <row r="436" ht="12"/>
-    <row r="437" ht="12"/>
-    <row r="438" ht="12"/>
-    <row r="439" ht="12"/>
-    <row r="440" ht="12"/>
-    <row r="441" ht="12"/>
-    <row r="442" ht="12"/>
-    <row r="443" ht="12"/>
-    <row r="444" ht="12"/>
-    <row r="445" ht="12"/>
-    <row r="446" ht="12"/>
-    <row r="447" ht="12"/>
-    <row r="448" ht="12"/>
-    <row r="449" ht="12"/>
-    <row r="450" ht="12"/>
-    <row r="451" ht="12"/>
-    <row r="452" ht="12"/>
-    <row r="453" ht="12"/>
-    <row r="454" ht="12"/>
-    <row r="455" ht="12"/>
-    <row r="456" ht="12"/>
-    <row r="457" ht="12"/>
-    <row r="458" ht="12"/>
-    <row r="459" ht="12"/>
-    <row r="460" ht="12"/>
-    <row r="461" ht="12"/>
-    <row r="462" ht="12"/>
-    <row r="463" ht="12"/>
-    <row r="464" ht="12"/>
-    <row r="465" ht="12"/>
-    <row r="466" ht="12"/>
-    <row r="467" ht="12"/>
-    <row r="468" ht="12"/>
-    <row r="469" ht="12"/>
-    <row r="470" ht="12"/>
-    <row r="471" ht="12"/>
-    <row r="472" ht="12"/>
-    <row r="473" ht="12"/>
-    <row r="474" ht="12"/>
-    <row r="475" ht="12"/>
-    <row r="476" ht="12"/>
-    <row r="477" ht="12"/>
-    <row r="478" ht="12"/>
-    <row r="479" ht="12"/>
-    <row r="480" ht="12"/>
-    <row r="481" ht="12"/>
-    <row r="482" ht="12"/>
-    <row r="483" ht="12"/>
-    <row r="484" ht="12"/>
-    <row r="485" ht="12"/>
-    <row r="486" ht="12"/>
-    <row r="487" ht="12"/>
-    <row r="488" ht="12"/>
-    <row r="489" ht="12"/>
-    <row r="490" ht="12"/>
-    <row r="491" ht="12"/>
-    <row r="492" ht="12"/>
-    <row r="493" ht="12"/>
-    <row r="494" ht="12"/>
-    <row r="495" ht="12"/>
-    <row r="496" ht="12"/>
-    <row r="497" ht="12"/>
-    <row r="498" ht="12"/>
-    <row r="499" ht="12"/>
-    <row r="500" ht="12"/>
-    <row r="501" ht="12"/>
-    <row r="502" ht="12"/>
-    <row r="503" ht="12"/>
-    <row r="504" ht="12"/>
-    <row r="505" ht="12"/>
-    <row r="506" ht="12"/>
-    <row r="507" ht="12"/>
-    <row r="508" ht="12"/>
-    <row r="509" ht="12"/>
-    <row r="510" ht="12"/>
-    <row r="511" ht="12"/>
-    <row r="512" ht="12"/>
-    <row r="513" ht="12"/>
-    <row r="514" ht="12"/>
-    <row r="515" ht="12"/>
-    <row r="516" ht="12"/>
-    <row r="517" ht="12"/>
-    <row r="518" ht="12"/>
-    <row r="519" ht="12"/>
-    <row r="520" ht="12"/>
-    <row r="521" ht="12"/>
-    <row r="522" ht="12"/>
-    <row r="523" ht="12"/>
-    <row r="524" ht="12"/>
-    <row r="525" ht="12"/>
-    <row r="526" ht="12"/>
-    <row r="527" ht="12"/>
-    <row r="528" ht="12"/>
-    <row r="529" ht="12"/>
-    <row r="530" ht="12"/>
-    <row r="531" ht="12"/>
-    <row r="532" ht="12"/>
-    <row r="533" ht="12"/>
-    <row r="534" ht="12"/>
-    <row r="535" ht="12"/>
-    <row r="536" ht="12"/>
-    <row r="537" ht="12"/>
-    <row r="538" ht="12"/>
-    <row r="539" ht="12"/>
-    <row r="540" ht="12"/>
-    <row r="541" ht="12"/>
-    <row r="542" ht="12"/>
-    <row r="543" ht="12"/>
-    <row r="544" ht="12"/>
-    <row r="545" ht="12"/>
-    <row r="546" ht="12"/>
-    <row r="547" ht="12"/>
-    <row r="548" ht="12"/>
-    <row r="549" ht="12"/>
-    <row r="550" ht="12"/>
-    <row r="551" ht="12"/>
-    <row r="552" ht="12"/>
-    <row r="553" ht="12"/>
-    <row r="554" ht="12"/>
-    <row r="555" ht="12"/>
-    <row r="556" ht="12"/>
-    <row r="557" ht="12"/>
-    <row r="558" ht="12"/>
-    <row r="559" ht="12"/>
-    <row r="560" ht="12"/>
-    <row r="561" ht="12"/>
-    <row r="562" ht="12"/>
-    <row r="563" ht="12"/>
-    <row r="564" ht="12"/>
-    <row r="565" ht="12"/>
-    <row r="566" ht="12"/>
-    <row r="567" ht="12"/>
-    <row r="568" ht="12"/>
-    <row r="569" ht="12"/>
-    <row r="570" ht="12"/>
-    <row r="571" ht="12"/>
-    <row r="572" ht="12"/>
-    <row r="573" ht="12"/>
-    <row r="574" ht="12"/>
-    <row r="575" ht="12"/>
-    <row r="576" ht="12"/>
-    <row r="577" ht="12"/>
-    <row r="578" ht="12"/>
-    <row r="579" ht="12"/>
-    <row r="580" ht="12"/>
-    <row r="581" ht="12"/>
-    <row r="582" ht="12"/>
-    <row r="583" ht="12"/>
-    <row r="584" ht="12"/>
-    <row r="585" ht="12"/>
-    <row r="586" ht="12"/>
-    <row r="587" ht="12"/>
-    <row r="588" ht="12"/>
-    <row r="589" ht="12"/>
-    <row r="590" ht="12"/>
-    <row r="591" ht="12"/>
-    <row r="592" ht="12"/>
-    <row r="593" ht="12"/>
-    <row r="594" ht="12"/>
-    <row r="595" ht="12"/>
-    <row r="596" ht="12"/>
-    <row r="597" ht="12"/>
-    <row r="598" ht="12"/>
-    <row r="599" ht="12"/>
-    <row r="600" ht="12"/>
-    <row r="601" ht="12"/>
-    <row r="602" ht="12"/>
-    <row r="603" ht="12"/>
-    <row r="604" ht="12"/>
-    <row r="605" ht="12"/>
-    <row r="606" ht="12"/>
-    <row r="607" ht="12"/>
-    <row r="608" ht="12"/>
-    <row r="609" ht="12"/>
-    <row r="610" ht="12"/>
-    <row r="611" ht="12"/>
-    <row r="612" ht="12"/>
-    <row r="613" ht="12"/>
-    <row r="614" ht="12"/>
-    <row r="615" ht="12"/>
-    <row r="616" ht="12"/>
-    <row r="617" ht="12"/>
-    <row r="618" ht="12"/>
-    <row r="619" ht="12"/>
-    <row r="620" ht="12"/>
-    <row r="621" ht="12"/>
-    <row r="622" ht="12"/>
-    <row r="623" ht="12"/>
-    <row r="624" ht="12"/>
-    <row r="625" ht="12"/>
-    <row r="626" ht="12"/>
-    <row r="627" ht="12"/>
-    <row r="628" ht="12"/>
-    <row r="629" ht="12"/>
-    <row r="630" ht="12"/>
-    <row r="631" ht="12"/>
-    <row r="632" ht="12"/>
-    <row r="633" ht="12"/>
-    <row r="634" ht="12"/>
-    <row r="635" ht="12"/>
-    <row r="636" ht="12"/>
-    <row r="637" ht="12"/>
-    <row r="638" ht="12"/>
-    <row r="639" ht="12"/>
-    <row r="640" ht="12"/>
-    <row r="641" ht="12"/>
-    <row r="642" ht="12"/>
-    <row r="643" ht="12"/>
-    <row r="644" ht="12"/>
-    <row r="645" ht="12"/>
-    <row r="646" ht="12"/>
-    <row r="647" ht="12"/>
-    <row r="648" ht="12"/>
-    <row r="649" ht="12"/>
-    <row r="650" ht="12"/>
-    <row r="651" ht="12"/>
-    <row r="652" ht="12"/>
-    <row r="653" ht="12"/>
-    <row r="654" ht="12"/>
-    <row r="655" ht="12"/>
-    <row r="656" ht="12"/>
-    <row r="657" ht="12"/>
-    <row r="658" ht="12"/>
-    <row r="659" ht="12"/>
-    <row r="660" ht="12"/>
-    <row r="661" ht="12"/>
-    <row r="662" ht="12"/>
-    <row r="663" ht="12"/>
-    <row r="664" ht="12"/>
-    <row r="665" ht="12"/>
-    <row r="666" ht="12"/>
-    <row r="667" ht="12"/>
-    <row r="668" ht="12"/>
-    <row r="669" ht="12"/>
-    <row r="670" ht="12"/>
-    <row r="671" ht="12"/>
-    <row r="672" ht="12"/>
-    <row r="673" ht="12"/>
-    <row r="674" ht="12"/>
-    <row r="675" ht="12"/>
-    <row r="676" ht="12"/>
-    <row r="677" ht="12"/>
-    <row r="678" ht="12"/>
-    <row r="679" ht="12"/>
-    <row r="680" ht="12"/>
-    <row r="681" ht="12"/>
-    <row r="682" ht="12"/>
-    <row r="683" ht="12"/>
-    <row r="684" ht="12"/>
-    <row r="685" ht="12"/>
-    <row r="686" ht="12"/>
-    <row r="687" ht="12"/>
-    <row r="688" ht="12"/>
-    <row r="689" ht="12"/>
-    <row r="690" ht="12"/>
-    <row r="691" ht="12"/>
-    <row r="692" ht="12"/>
-    <row r="693" ht="12"/>
-    <row r="694" ht="12"/>
-    <row r="695" ht="12"/>
-    <row r="696" ht="12"/>
-    <row r="697" ht="12"/>
-    <row r="698" ht="12"/>
-    <row r="699" ht="12"/>
-    <row r="700" ht="12"/>
-    <row r="701" ht="12"/>
-    <row r="702" ht="12"/>
-    <row r="703" ht="12"/>
-    <row r="704" ht="12"/>
-    <row r="705" ht="12"/>
-    <row r="706" ht="12"/>
-    <row r="707" ht="12"/>
-    <row r="708" ht="12"/>
-    <row r="709" ht="12"/>
-    <row r="710" ht="12"/>
-    <row r="711" ht="12"/>
-    <row r="712" ht="12"/>
-    <row r="713" ht="12"/>
-    <row r="714" ht="12"/>
-    <row r="715" ht="12"/>
-    <row r="716" ht="12"/>
-    <row r="717" ht="12"/>
-    <row r="718" ht="12"/>
-    <row r="719" ht="12"/>
-    <row r="720" ht="12"/>
-    <row r="721" ht="12"/>
-    <row r="722" ht="12"/>
-    <row r="723" ht="12"/>
-    <row r="724" ht="12"/>
-    <row r="725" ht="12"/>
-    <row r="726" ht="12"/>
-    <row r="727" ht="12"/>
-    <row r="728" ht="12"/>
-    <row r="729" ht="12"/>
-    <row r="730" ht="12"/>
-    <row r="731" ht="12"/>
-    <row r="732" ht="12"/>
-    <row r="733" ht="12"/>
-    <row r="734" ht="12"/>
-    <row r="735" ht="12"/>
-    <row r="736" ht="12"/>
-    <row r="737" ht="12"/>
-    <row r="738" ht="12"/>
-    <row r="739" ht="12"/>
-    <row r="740" ht="12"/>
-    <row r="741" ht="12"/>
-    <row r="742" ht="12"/>
-    <row r="743" ht="12"/>
-    <row r="744" ht="12"/>
-    <row r="745" ht="12"/>
-    <row r="746" ht="12"/>
-    <row r="747" ht="12"/>
-    <row r="748" ht="12"/>
-    <row r="749" ht="12"/>
-    <row r="750" ht="12"/>
-    <row r="751" ht="12"/>
-    <row r="752" ht="12"/>
-    <row r="753" ht="12"/>
-    <row r="754" ht="12"/>
-    <row r="755" ht="12"/>
-    <row r="756" ht="12"/>
-    <row r="757" ht="12"/>
-    <row r="758" ht="12"/>
-    <row r="759" ht="12"/>
-    <row r="760" ht="12"/>
-    <row r="761" ht="12"/>
-    <row r="762" ht="12"/>
-    <row r="763" ht="12"/>
-    <row r="764" ht="12"/>
-    <row r="765" ht="12"/>
-    <row r="766" ht="12"/>
-    <row r="767" ht="12"/>
-    <row r="768" ht="12"/>
-    <row r="769" ht="12"/>
-    <row r="770" ht="12"/>
-    <row r="771" ht="12"/>
-    <row r="772" ht="12"/>
-    <row r="773" ht="12"/>
-    <row r="774" ht="12"/>
-    <row r="775" ht="12"/>
-    <row r="776" ht="12"/>
-    <row r="777" ht="12"/>
-    <row r="778" ht="12"/>
-    <row r="779" ht="12"/>
-    <row r="780" ht="12"/>
-    <row r="781" ht="12"/>
-    <row r="782" ht="12"/>
-    <row r="783" ht="12"/>
-    <row r="784" ht="12"/>
-    <row r="785" ht="12"/>
-    <row r="786" ht="12"/>
-    <row r="787" ht="12"/>
-    <row r="788" ht="12"/>
-    <row r="789" ht="12"/>
-    <row r="790" ht="12"/>
-    <row r="791" ht="12"/>
-    <row r="792" ht="12"/>
-    <row r="793" ht="12"/>
-    <row r="794" ht="12"/>
-    <row r="795" ht="12"/>
-    <row r="796" ht="12"/>
-    <row r="797" ht="12"/>
-    <row r="798" ht="12"/>
-    <row r="799" ht="12"/>
-    <row r="800" ht="12"/>
-    <row r="801" ht="12"/>
-    <row r="802" ht="12"/>
-    <row r="803" ht="12"/>
-    <row r="804" ht="12"/>
-    <row r="805" ht="12"/>
-    <row r="806" ht="12"/>
-    <row r="807" ht="12"/>
-    <row r="808" ht="12"/>
-    <row r="809" ht="12"/>
-    <row r="810" ht="12"/>
-    <row r="811" ht="12"/>
-    <row r="812" ht="12"/>
-    <row r="813" ht="12"/>
-    <row r="814" ht="12"/>
-    <row r="815" ht="12"/>
-    <row r="816" ht="12"/>
-    <row r="817" ht="12"/>
-    <row r="818" ht="12"/>
-    <row r="819" ht="12"/>
-    <row r="820" ht="12"/>
-    <row r="821" ht="12"/>
-    <row r="822" ht="12"/>
-    <row r="823" ht="12"/>
-    <row r="824" ht="12"/>
-    <row r="825" ht="12"/>
-    <row r="826" ht="12"/>
-    <row r="827" ht="12"/>
-    <row r="828" ht="12"/>
-    <row r="829" ht="12"/>
-    <row r="830" ht="12"/>
-    <row r="831" ht="12"/>
-    <row r="832" ht="12"/>
-    <row r="833" ht="12"/>
-    <row r="834" ht="12"/>
-    <row r="835" ht="12"/>
-    <row r="836" ht="12"/>
-    <row r="837" ht="12"/>
-    <row r="838" ht="12"/>
-    <row r="839" ht="12"/>
-    <row r="840" ht="12"/>
-    <row r="841" ht="12"/>
-    <row r="842" ht="12"/>
-    <row r="843" ht="12"/>
-    <row r="844" ht="12"/>
-    <row r="845" ht="12"/>
-    <row r="846" ht="12"/>
-    <row r="847" ht="12"/>
-    <row r="848" ht="12"/>
-    <row r="849" ht="12"/>
-    <row r="850" ht="12"/>
-    <row r="851" ht="12"/>
-    <row r="852" ht="12"/>
-    <row r="853" ht="12"/>
-    <row r="854" ht="12"/>
-    <row r="855" ht="12"/>
-    <row r="856" ht="12"/>
-    <row r="857" ht="12"/>
-    <row r="858" ht="12"/>
-    <row r="859" ht="12"/>
-    <row r="860" ht="12"/>
-    <row r="861" ht="12"/>
-    <row r="862" ht="12"/>
-    <row r="863" ht="12"/>
-    <row r="864" ht="12"/>
-    <row r="865" ht="12"/>
-    <row r="866" ht="12"/>
-    <row r="867" ht="12"/>
-    <row r="868" ht="12"/>
-    <row r="869" ht="12"/>
-    <row r="870" ht="12"/>
-    <row r="871" ht="12"/>
-    <row r="872" ht="12"/>
-    <row r="873" ht="12"/>
-    <row r="874" ht="12"/>
-    <row r="875" ht="12"/>
-    <row r="876" ht="12"/>
-    <row r="877" ht="12"/>
-    <row r="878" ht="12"/>
-    <row r="879" ht="12"/>
-    <row r="880" ht="12"/>
-    <row r="881" ht="12"/>
-    <row r="882" ht="12"/>
-    <row r="883" ht="12"/>
-    <row r="884" ht="12"/>
-    <row r="885" ht="12"/>
-    <row r="886" ht="12"/>
-    <row r="887" ht="12"/>
-    <row r="888" ht="12"/>
-    <row r="889" ht="12"/>
-    <row r="890" ht="12"/>
-    <row r="891" ht="12"/>
-    <row r="892" ht="12"/>
-    <row r="893" ht="12"/>
-    <row r="894" ht="12"/>
-    <row r="895" ht="12"/>
-    <row r="896" ht="12"/>
-    <row r="897" ht="12"/>
-    <row r="898" ht="12"/>
-    <row r="899" ht="12"/>
-    <row r="900" ht="12"/>
-    <row r="901" ht="12"/>
-    <row r="902" ht="12"/>
-    <row r="903" ht="12"/>
-    <row r="904" ht="12"/>
-    <row r="905" ht="12"/>
-    <row r="906" ht="12"/>
-    <row r="907" ht="12"/>
-    <row r="908" ht="12"/>
-    <row r="909" ht="12"/>
-    <row r="910" ht="12"/>
-    <row r="911" ht="12"/>
-    <row r="912" ht="12"/>
-    <row r="913" ht="12"/>
-    <row r="914" ht="12"/>
-    <row r="915" ht="12"/>
-    <row r="916" ht="12"/>
-    <row r="917" ht="12"/>
-    <row r="918" ht="12"/>
-    <row r="919" ht="12"/>
-    <row r="920" ht="12"/>
-    <row r="921" ht="12"/>
-    <row r="922" ht="12"/>
-    <row r="923" ht="12"/>
-    <row r="924" ht="12"/>
-    <row r="925" ht="12"/>
-    <row r="926" ht="12"/>
-    <row r="927" ht="12"/>
-    <row r="928" ht="12"/>
-    <row r="929" ht="12"/>
-    <row r="930" ht="12"/>
-    <row r="931" ht="12"/>
-    <row r="932" ht="12"/>
-    <row r="933" ht="12"/>
-    <row r="934" ht="12"/>
-    <row r="935" ht="12"/>
-    <row r="936" ht="12"/>
-    <row r="937" ht="12"/>
-    <row r="938" ht="12"/>
-    <row r="939" ht="12"/>
-    <row r="940" ht="12"/>
-    <row r="941" ht="12"/>
-    <row r="942" ht="12"/>
-    <row r="943" ht="12"/>
-    <row r="944" ht="12"/>
-    <row r="945" ht="12"/>
-    <row r="946" ht="12"/>
-    <row r="947" ht="12"/>
-    <row r="948" ht="12"/>
-    <row r="949" ht="12"/>
-    <row r="950" ht="12"/>
-    <row r="951" ht="12"/>
-    <row r="952" ht="12"/>
-    <row r="953" ht="12"/>
-    <row r="954" ht="12"/>
-    <row r="955" ht="12"/>
-    <row r="956" ht="12"/>
-    <row r="957" ht="12"/>
-    <row r="958" ht="12"/>
-    <row r="959" ht="12"/>
-    <row r="960" ht="12"/>
-    <row r="961" ht="12"/>
-    <row r="962" ht="12"/>
-    <row r="963" ht="12"/>
-    <row r="964" ht="12"/>
-    <row r="965" ht="12"/>
-    <row r="966" ht="12"/>
-    <row r="967" ht="12"/>
-    <row r="968" ht="12"/>
-    <row r="969" ht="12"/>
-    <row r="970" ht="12"/>
-    <row r="971" ht="12"/>
-    <row r="972" ht="12"/>
-    <row r="973" ht="12"/>
-    <row r="974" ht="12"/>
-    <row r="975" ht="12"/>
-    <row r="976" ht="12"/>
-    <row r="977" ht="12"/>
-    <row r="978" ht="12"/>
-    <row r="979" ht="12"/>
-    <row r="980" ht="12"/>
-    <row r="981" ht="12"/>
-    <row r="982" ht="12"/>
-    <row r="983" ht="12"/>
-    <row r="984" ht="12"/>
-    <row r="985" ht="12"/>
-    <row r="986" ht="12"/>
-    <row r="987" ht="12"/>
-    <row r="988" ht="12"/>
-    <row r="989" ht="12"/>
-    <row r="990" ht="12"/>
-    <row r="991" ht="12"/>
-    <row r="992" ht="12"/>
-    <row r="993" ht="12"/>
-    <row r="994" ht="12"/>
-    <row r="995" ht="12"/>
-    <row r="996" ht="12"/>
-    <row r="997" ht="12"/>
-    <row r="998" ht="12"/>
-    <row r="999" ht="12"/>
-    <row r="1000" ht="12"/>
+    <row r="221" spans="2:2" ht="13"/>
+    <row r="222" spans="2:2" ht="13"/>
+    <row r="223" spans="2:2" ht="13"/>
+    <row r="224" spans="2:2" ht="13"/>
+    <row r="225" ht="13"/>
+    <row r="226" ht="13"/>
+    <row r="227" ht="13"/>
+    <row r="228" ht="13"/>
+    <row r="229" ht="13"/>
+    <row r="230" ht="13"/>
+    <row r="231" ht="13"/>
+    <row r="232" ht="13"/>
+    <row r="233" ht="13"/>
+    <row r="234" ht="13"/>
+    <row r="235" ht="13"/>
+    <row r="236" ht="13"/>
+    <row r="237" ht="13"/>
+    <row r="238" ht="13"/>
+    <row r="239" ht="13"/>
+    <row r="240" ht="13"/>
+    <row r="241" ht="13"/>
+    <row r="242" ht="13"/>
+    <row r="243" ht="13"/>
+    <row r="244" ht="13"/>
+    <row r="245" ht="13"/>
+    <row r="246" ht="13"/>
+    <row r="247" ht="13"/>
+    <row r="248" ht="13"/>
+    <row r="249" ht="13"/>
+    <row r="250" ht="13"/>
+    <row r="251" ht="13"/>
+    <row r="252" ht="13"/>
+    <row r="253" ht="13"/>
+    <row r="254" ht="13"/>
+    <row r="255" ht="13"/>
+    <row r="256" ht="13"/>
+    <row r="257" ht="13"/>
+    <row r="258" ht="13"/>
+    <row r="259" ht="13"/>
+    <row r="260" ht="13"/>
+    <row r="261" ht="13"/>
+    <row r="262" ht="13"/>
+    <row r="263" ht="13"/>
+    <row r="264" ht="13"/>
+    <row r="265" ht="13"/>
+    <row r="266" ht="13"/>
+    <row r="267" ht="13"/>
+    <row r="268" ht="13"/>
+    <row r="269" ht="13"/>
+    <row r="270" ht="13"/>
+    <row r="271" ht="13"/>
+    <row r="272" ht="13"/>
+    <row r="273" ht="13"/>
+    <row r="274" ht="13"/>
+    <row r="275" ht="13"/>
+    <row r="276" ht="13"/>
+    <row r="277" ht="13"/>
+    <row r="278" ht="13"/>
+    <row r="279" ht="13"/>
+    <row r="280" ht="13"/>
+    <row r="281" ht="13"/>
+    <row r="282" ht="13"/>
+    <row r="283" ht="13"/>
+    <row r="284" ht="13"/>
+    <row r="285" ht="13"/>
+    <row r="286" ht="13"/>
+    <row r="287" ht="13"/>
+    <row r="288" ht="13"/>
+    <row r="289" ht="13"/>
+    <row r="290" ht="13"/>
+    <row r="291" ht="13"/>
+    <row r="292" ht="13"/>
+    <row r="293" ht="13"/>
+    <row r="294" ht="13"/>
+    <row r="295" ht="13"/>
+    <row r="296" ht="13"/>
+    <row r="297" ht="13"/>
+    <row r="298" ht="13"/>
+    <row r="299" ht="13"/>
+    <row r="300" ht="13"/>
+    <row r="301" ht="13"/>
+    <row r="302" ht="13"/>
+    <row r="303" ht="13"/>
+    <row r="304" ht="13"/>
+    <row r="305" ht="13"/>
+    <row r="306" ht="13"/>
+    <row r="307" ht="13"/>
+    <row r="308" ht="13"/>
+    <row r="309" ht="13"/>
+    <row r="310" ht="13"/>
+    <row r="311" ht="13"/>
+    <row r="312" ht="13"/>
+    <row r="313" ht="13"/>
+    <row r="314" ht="13"/>
+    <row r="315" ht="13"/>
+    <row r="316" ht="13"/>
+    <row r="317" ht="13"/>
+    <row r="318" ht="13"/>
+    <row r="319" ht="13"/>
+    <row r="320" ht="13"/>
+    <row r="321" ht="13"/>
+    <row r="322" ht="13"/>
+    <row r="323" ht="13"/>
+    <row r="324" ht="13"/>
+    <row r="325" ht="13"/>
+    <row r="326" ht="13"/>
+    <row r="327" ht="13"/>
+    <row r="328" ht="13"/>
+    <row r="329" ht="13"/>
+    <row r="330" ht="13"/>
+    <row r="331" ht="13"/>
+    <row r="332" ht="13"/>
+    <row r="333" ht="13"/>
+    <row r="334" ht="13"/>
+    <row r="335" ht="13"/>
+    <row r="336" ht="13"/>
+    <row r="337" ht="13"/>
+    <row r="338" ht="13"/>
+    <row r="339" ht="13"/>
+    <row r="340" ht="13"/>
+    <row r="341" ht="13"/>
+    <row r="342" ht="13"/>
+    <row r="343" ht="13"/>
+    <row r="344" ht="13"/>
+    <row r="345" ht="13"/>
+    <row r="346" ht="13"/>
+    <row r="347" ht="13"/>
+    <row r="348" ht="13"/>
+    <row r="349" ht="13"/>
+    <row r="350" ht="13"/>
+    <row r="351" ht="13"/>
+    <row r="352" ht="13"/>
+    <row r="353" ht="13"/>
+    <row r="354" ht="13"/>
+    <row r="355" ht="13"/>
+    <row r="356" ht="13"/>
+    <row r="357" ht="13"/>
+    <row r="358" ht="13"/>
+    <row r="359" ht="13"/>
+    <row r="360" ht="13"/>
+    <row r="361" ht="13"/>
+    <row r="362" ht="13"/>
+    <row r="363" ht="13"/>
+    <row r="364" ht="13"/>
+    <row r="365" ht="13"/>
+    <row r="366" ht="13"/>
+    <row r="367" ht="13"/>
+    <row r="368" ht="13"/>
+    <row r="369" ht="13"/>
+    <row r="370" ht="13"/>
+    <row r="371" ht="13"/>
+    <row r="372" ht="13"/>
+    <row r="373" ht="13"/>
+    <row r="374" ht="13"/>
+    <row r="375" ht="13"/>
+    <row r="376" ht="13"/>
+    <row r="377" ht="13"/>
+    <row r="378" ht="13"/>
+    <row r="379" ht="13"/>
+    <row r="380" ht="13"/>
+    <row r="381" ht="13"/>
+    <row r="382" ht="13"/>
+    <row r="383" ht="13"/>
+    <row r="384" ht="13"/>
+    <row r="385" ht="13"/>
+    <row r="386" ht="13"/>
+    <row r="387" ht="13"/>
+    <row r="388" ht="13"/>
+    <row r="389" ht="13"/>
+    <row r="390" ht="13"/>
+    <row r="391" ht="13"/>
+    <row r="392" ht="13"/>
+    <row r="393" ht="13"/>
+    <row r="394" ht="13"/>
+    <row r="395" ht="13"/>
+    <row r="396" ht="13"/>
+    <row r="397" ht="13"/>
+    <row r="398" ht="13"/>
+    <row r="399" ht="13"/>
+    <row r="400" ht="13"/>
+    <row r="401" ht="13"/>
+    <row r="402" ht="13"/>
+    <row r="403" ht="13"/>
+    <row r="404" ht="13"/>
+    <row r="405" ht="13"/>
+    <row r="406" ht="13"/>
+    <row r="407" ht="13"/>
+    <row r="408" ht="13"/>
+    <row r="409" ht="13"/>
+    <row r="410" ht="13"/>
+    <row r="411" ht="13"/>
+    <row r="412" ht="13"/>
+    <row r="413" ht="13"/>
+    <row r="414" ht="13"/>
+    <row r="415" ht="13"/>
+    <row r="416" ht="13"/>
+    <row r="417" ht="13"/>
+    <row r="418" ht="13"/>
+    <row r="419" ht="13"/>
+    <row r="420" ht="13"/>
+    <row r="421" ht="13"/>
+    <row r="422" ht="13"/>
+    <row r="423" ht="13"/>
+    <row r="424" ht="13"/>
+    <row r="425" ht="13"/>
+    <row r="426" ht="13"/>
+    <row r="427" ht="13"/>
+    <row r="428" ht="13"/>
+    <row r="429" ht="13"/>
+    <row r="430" ht="13"/>
+    <row r="431" ht="13"/>
+    <row r="432" ht="13"/>
+    <row r="433" ht="13"/>
+    <row r="434" ht="13"/>
+    <row r="435" ht="13"/>
+    <row r="436" ht="13"/>
+    <row r="437" ht="13"/>
+    <row r="438" ht="13"/>
+    <row r="439" ht="13"/>
+    <row r="440" ht="13"/>
+    <row r="441" ht="13"/>
+    <row r="442" ht="13"/>
+    <row r="443" ht="13"/>
+    <row r="444" ht="13"/>
+    <row r="445" ht="13"/>
+    <row r="446" ht="13"/>
+    <row r="447" ht="13"/>
+    <row r="448" ht="13"/>
+    <row r="449" ht="13"/>
+    <row r="450" ht="13"/>
+    <row r="451" ht="13"/>
+    <row r="452" ht="13"/>
+    <row r="453" ht="13"/>
+    <row r="454" ht="13"/>
+    <row r="455" ht="13"/>
+    <row r="456" ht="13"/>
+    <row r="457" ht="13"/>
+    <row r="458" ht="13"/>
+    <row r="459" ht="13"/>
+    <row r="460" ht="13"/>
+    <row r="461" ht="13"/>
+    <row r="462" ht="13"/>
+    <row r="463" ht="13"/>
+    <row r="464" ht="13"/>
+    <row r="465" ht="13"/>
+    <row r="466" ht="13"/>
+    <row r="467" ht="13"/>
+    <row r="468" ht="13"/>
+    <row r="469" ht="13"/>
+    <row r="470" ht="13"/>
+    <row r="471" ht="13"/>
+    <row r="472" ht="13"/>
+    <row r="473" ht="13"/>
+    <row r="474" ht="13"/>
+    <row r="475" ht="13"/>
+    <row r="476" ht="13"/>
+    <row r="477" ht="13"/>
+    <row r="478" ht="13"/>
+    <row r="479" ht="13"/>
+    <row r="480" ht="13"/>
+    <row r="481" ht="13"/>
+    <row r="482" ht="13"/>
+    <row r="483" ht="13"/>
+    <row r="484" ht="13"/>
+    <row r="485" ht="13"/>
+    <row r="486" ht="13"/>
+    <row r="487" ht="13"/>
+    <row r="488" ht="13"/>
+    <row r="489" ht="13"/>
+    <row r="490" ht="13"/>
+    <row r="491" ht="13"/>
+    <row r="492" ht="13"/>
+    <row r="493" ht="13"/>
+    <row r="494" ht="13"/>
+    <row r="495" ht="13"/>
+    <row r="496" ht="13"/>
+    <row r="497" ht="13"/>
+    <row r="498" ht="13"/>
+    <row r="499" ht="13"/>
+    <row r="500" ht="13"/>
+    <row r="501" ht="13"/>
+    <row r="502" ht="13"/>
+    <row r="503" ht="13"/>
+    <row r="504" ht="13"/>
+    <row r="505" ht="13"/>
+    <row r="506" ht="13"/>
+    <row r="507" ht="13"/>
+    <row r="508" ht="13"/>
+    <row r="509" ht="13"/>
+    <row r="510" ht="13"/>
+    <row r="511" ht="13"/>
+    <row r="512" ht="13"/>
+    <row r="513" ht="13"/>
+    <row r="514" ht="13"/>
+    <row r="515" ht="13"/>
+    <row r="516" ht="13"/>
+    <row r="517" ht="13"/>
+    <row r="518" ht="13"/>
+    <row r="519" ht="13"/>
+    <row r="520" ht="13"/>
+    <row r="521" ht="13"/>
+    <row r="522" ht="13"/>
+    <row r="523" ht="13"/>
+    <row r="524" ht="13"/>
+    <row r="525" ht="13"/>
+    <row r="526" ht="13"/>
+    <row r="527" ht="13"/>
+    <row r="528" ht="13"/>
+    <row r="529" ht="13"/>
+    <row r="530" ht="13"/>
+    <row r="531" ht="13"/>
+    <row r="532" ht="13"/>
+    <row r="533" ht="13"/>
+    <row r="534" ht="13"/>
+    <row r="535" ht="13"/>
+    <row r="536" ht="13"/>
+    <row r="537" ht="13"/>
+    <row r="538" ht="13"/>
+    <row r="539" ht="13"/>
+    <row r="540" ht="13"/>
+    <row r="541" ht="13"/>
+    <row r="542" ht="13"/>
+    <row r="543" ht="13"/>
+    <row r="544" ht="13"/>
+    <row r="545" ht="13"/>
+    <row r="546" ht="13"/>
+    <row r="547" ht="13"/>
+    <row r="548" ht="13"/>
+    <row r="549" ht="13"/>
+    <row r="550" ht="13"/>
+    <row r="551" ht="13"/>
+    <row r="552" ht="13"/>
+    <row r="553" ht="13"/>
+    <row r="554" ht="13"/>
+    <row r="555" ht="13"/>
+    <row r="556" ht="13"/>
+    <row r="557" ht="13"/>
+    <row r="558" ht="13"/>
+    <row r="559" ht="13"/>
+    <row r="560" ht="13"/>
+    <row r="561" ht="13"/>
+    <row r="562" ht="13"/>
+    <row r="563" ht="13"/>
+    <row r="564" ht="13"/>
+    <row r="565" ht="13"/>
+    <row r="566" ht="13"/>
+    <row r="567" ht="13"/>
+    <row r="568" ht="13"/>
+    <row r="569" ht="13"/>
+    <row r="570" ht="13"/>
+    <row r="571" ht="13"/>
+    <row r="572" ht="13"/>
+    <row r="573" ht="13"/>
+    <row r="574" ht="13"/>
+    <row r="575" ht="13"/>
+    <row r="576" ht="13"/>
+    <row r="577" ht="13"/>
+    <row r="578" ht="13"/>
+    <row r="579" ht="13"/>
+    <row r="580" ht="13"/>
+    <row r="581" ht="13"/>
+    <row r="582" ht="13"/>
+    <row r="583" ht="13"/>
+    <row r="584" ht="13"/>
+    <row r="585" ht="13"/>
+    <row r="586" ht="13"/>
+    <row r="587" ht="13"/>
+    <row r="588" ht="13"/>
+    <row r="589" ht="13"/>
+    <row r="590" ht="13"/>
+    <row r="591" ht="13"/>
+    <row r="592" ht="13"/>
+    <row r="593" ht="13"/>
+    <row r="594" ht="13"/>
+    <row r="595" ht="13"/>
+    <row r="596" ht="13"/>
+    <row r="597" ht="13"/>
+    <row r="598" ht="13"/>
+    <row r="599" ht="13"/>
+    <row r="600" ht="13"/>
+    <row r="601" ht="13"/>
+    <row r="602" ht="13"/>
+    <row r="603" ht="13"/>
+    <row r="604" ht="13"/>
+    <row r="605" ht="13"/>
+    <row r="606" ht="13"/>
+    <row r="607" ht="13"/>
+    <row r="608" ht="13"/>
+    <row r="609" ht="13"/>
+    <row r="610" ht="13"/>
+    <row r="611" ht="13"/>
+    <row r="612" ht="13"/>
+    <row r="613" ht="13"/>
+    <row r="614" ht="13"/>
+    <row r="615" ht="13"/>
+    <row r="616" ht="13"/>
+    <row r="617" ht="13"/>
+    <row r="618" ht="13"/>
+    <row r="619" ht="13"/>
+    <row r="620" ht="13"/>
+    <row r="621" ht="13"/>
+    <row r="622" ht="13"/>
+    <row r="623" ht="13"/>
+    <row r="624" ht="13"/>
+    <row r="625" ht="13"/>
+    <row r="626" ht="13"/>
+    <row r="627" ht="13"/>
+    <row r="628" ht="13"/>
+    <row r="629" ht="13"/>
+    <row r="630" ht="13"/>
+    <row r="631" ht="13"/>
+    <row r="632" ht="13"/>
+    <row r="633" ht="13"/>
+    <row r="634" ht="13"/>
+    <row r="635" ht="13"/>
+    <row r="636" ht="13"/>
+    <row r="637" ht="13"/>
+    <row r="638" ht="13"/>
+    <row r="639" ht="13"/>
+    <row r="640" ht="13"/>
+    <row r="641" ht="13"/>
+    <row r="642" ht="13"/>
+    <row r="643" ht="13"/>
+    <row r="644" ht="13"/>
+    <row r="645" ht="13"/>
+    <row r="646" ht="13"/>
+    <row r="647" ht="13"/>
+    <row r="648" ht="13"/>
+    <row r="649" ht="13"/>
+    <row r="650" ht="13"/>
+    <row r="651" ht="13"/>
+    <row r="652" ht="13"/>
+    <row r="653" ht="13"/>
+    <row r="654" ht="13"/>
+    <row r="655" ht="13"/>
+    <row r="656" ht="13"/>
+    <row r="657" ht="13"/>
+    <row r="658" ht="13"/>
+    <row r="659" ht="13"/>
+    <row r="660" ht="13"/>
+    <row r="661" ht="13"/>
+    <row r="662" ht="13"/>
+    <row r="663" ht="13"/>
+    <row r="664" ht="13"/>
+    <row r="665" ht="13"/>
+    <row r="666" ht="13"/>
+    <row r="667" ht="13"/>
+    <row r="668" ht="13"/>
+    <row r="669" ht="13"/>
+    <row r="670" ht="13"/>
+    <row r="671" ht="13"/>
+    <row r="672" ht="13"/>
+    <row r="673" ht="13"/>
+    <row r="674" ht="13"/>
+    <row r="675" ht="13"/>
+    <row r="676" ht="13"/>
+    <row r="677" ht="13"/>
+    <row r="678" ht="13"/>
+    <row r="679" ht="13"/>
+    <row r="680" ht="13"/>
+    <row r="681" ht="13"/>
+    <row r="682" ht="13"/>
+    <row r="683" ht="13"/>
+    <row r="684" ht="13"/>
+    <row r="685" ht="13"/>
+    <row r="686" ht="13"/>
+    <row r="687" ht="13"/>
+    <row r="688" ht="13"/>
+    <row r="689" ht="13"/>
+    <row r="690" ht="13"/>
+    <row r="691" ht="13"/>
+    <row r="692" ht="13"/>
+    <row r="693" ht="13"/>
+    <row r="694" ht="13"/>
+    <row r="695" ht="13"/>
+    <row r="696" ht="13"/>
+    <row r="697" ht="13"/>
+    <row r="698" ht="13"/>
+    <row r="699" ht="13"/>
+    <row r="700" ht="13"/>
+    <row r="701" ht="13"/>
+    <row r="702" ht="13"/>
+    <row r="703" ht="13"/>
+    <row r="704" ht="13"/>
+    <row r="705" ht="13"/>
+    <row r="706" ht="13"/>
+    <row r="707" ht="13"/>
+    <row r="708" ht="13"/>
+    <row r="709" ht="13"/>
+    <row r="710" ht="13"/>
+    <row r="711" ht="13"/>
+    <row r="712" ht="13"/>
+    <row r="713" ht="13"/>
+    <row r="714" ht="13"/>
+    <row r="715" ht="13"/>
+    <row r="716" ht="13"/>
+    <row r="717" ht="13"/>
+    <row r="718" ht="13"/>
+    <row r="719" ht="13"/>
+    <row r="720" ht="13"/>
+    <row r="721" ht="13"/>
+    <row r="722" ht="13"/>
+    <row r="723" ht="13"/>
+    <row r="724" ht="13"/>
+    <row r="725" ht="13"/>
+    <row r="726" ht="13"/>
+    <row r="727" ht="13"/>
+    <row r="728" ht="13"/>
+    <row r="729" ht="13"/>
+    <row r="730" ht="13"/>
+    <row r="731" ht="13"/>
+    <row r="732" ht="13"/>
+    <row r="733" ht="13"/>
+    <row r="734" ht="13"/>
+    <row r="735" ht="13"/>
+    <row r="736" ht="13"/>
+    <row r="737" ht="13"/>
+    <row r="738" ht="13"/>
+    <row r="739" ht="13"/>
+    <row r="740" ht="13"/>
+    <row r="741" ht="13"/>
+    <row r="742" ht="13"/>
+    <row r="743" ht="13"/>
+    <row r="744" ht="13"/>
+    <row r="745" ht="13"/>
+    <row r="746" ht="13"/>
+    <row r="747" ht="13"/>
+    <row r="748" ht="13"/>
+    <row r="749" ht="13"/>
+    <row r="750" ht="13"/>
+    <row r="751" ht="13"/>
+    <row r="752" ht="13"/>
+    <row r="753" ht="13"/>
+    <row r="754" ht="13"/>
+    <row r="755" ht="13"/>
+    <row r="756" ht="13"/>
+    <row r="757" ht="13"/>
+    <row r="758" ht="13"/>
+    <row r="759" ht="13"/>
+    <row r="760" ht="13"/>
+    <row r="761" ht="13"/>
+    <row r="762" ht="13"/>
+    <row r="763" ht="13"/>
+    <row r="764" ht="13"/>
+    <row r="765" ht="13"/>
+    <row r="766" ht="13"/>
+    <row r="767" ht="13"/>
+    <row r="768" ht="13"/>
+    <row r="769" ht="13"/>
+    <row r="770" ht="13"/>
+    <row r="771" ht="13"/>
+    <row r="772" ht="13"/>
+    <row r="773" ht="13"/>
+    <row r="774" ht="13"/>
+    <row r="775" ht="13"/>
+    <row r="776" ht="13"/>
+    <row r="777" ht="13"/>
+    <row r="778" ht="13"/>
+    <row r="779" ht="13"/>
+    <row r="780" ht="13"/>
+    <row r="781" ht="13"/>
+    <row r="782" ht="13"/>
+    <row r="783" ht="13"/>
+    <row r="784" ht="13"/>
+    <row r="785" ht="13"/>
+    <row r="786" ht="13"/>
+    <row r="787" ht="13"/>
+    <row r="788" ht="13"/>
+    <row r="789" ht="13"/>
+    <row r="790" ht="13"/>
+    <row r="791" ht="13"/>
+    <row r="792" ht="13"/>
+    <row r="793" ht="13"/>
+    <row r="794" ht="13"/>
+    <row r="795" ht="13"/>
+    <row r="796" ht="13"/>
+    <row r="797" ht="13"/>
+    <row r="798" ht="13"/>
+    <row r="799" ht="13"/>
+    <row r="800" ht="13"/>
+    <row r="801" ht="13"/>
+    <row r="802" ht="13"/>
+    <row r="803" ht="13"/>
+    <row r="804" ht="13"/>
+    <row r="805" ht="13"/>
+    <row r="806" ht="13"/>
+    <row r="807" ht="13"/>
+    <row r="808" ht="13"/>
+    <row r="809" ht="13"/>
+    <row r="810" ht="13"/>
+    <row r="811" ht="13"/>
+    <row r="812" ht="13"/>
+    <row r="813" ht="13"/>
+    <row r="814" ht="13"/>
+    <row r="815" ht="13"/>
+    <row r="816" ht="13"/>
+    <row r="817" ht="13"/>
+    <row r="818" ht="13"/>
+    <row r="819" ht="13"/>
+    <row r="820" ht="13"/>
+    <row r="821" ht="13"/>
+    <row r="822" ht="13"/>
+    <row r="823" ht="13"/>
+    <row r="824" ht="13"/>
+    <row r="825" ht="13"/>
+    <row r="826" ht="13"/>
+    <row r="827" ht="13"/>
+    <row r="828" ht="13"/>
+    <row r="829" ht="13"/>
+    <row r="830" ht="13"/>
+    <row r="831" ht="13"/>
+    <row r="832" ht="13"/>
+    <row r="833" ht="13"/>
+    <row r="834" ht="13"/>
+    <row r="835" ht="13"/>
+    <row r="836" ht="13"/>
+    <row r="837" ht="13"/>
+    <row r="838" ht="13"/>
+    <row r="839" ht="13"/>
+    <row r="840" ht="13"/>
+    <row r="841" ht="13"/>
+    <row r="842" ht="13"/>
+    <row r="843" ht="13"/>
+    <row r="844" ht="13"/>
+    <row r="845" ht="13"/>
+    <row r="846" ht="13"/>
+    <row r="847" ht="13"/>
+    <row r="848" ht="13"/>
+    <row r="849" ht="13"/>
+    <row r="850" ht="13"/>
+    <row r="851" ht="13"/>
+    <row r="852" ht="13"/>
+    <row r="853" ht="13"/>
+    <row r="854" ht="13"/>
+    <row r="855" ht="13"/>
+    <row r="856" ht="13"/>
+    <row r="857" ht="13"/>
+    <row r="858" ht="13"/>
+    <row r="859" ht="13"/>
+    <row r="860" ht="13"/>
+    <row r="861" ht="13"/>
+    <row r="862" ht="13"/>
+    <row r="863" ht="13"/>
+    <row r="864" ht="13"/>
+    <row r="865" ht="13"/>
+    <row r="866" ht="13"/>
+    <row r="867" ht="13"/>
+    <row r="868" ht="13"/>
+    <row r="869" ht="13"/>
+    <row r="870" ht="13"/>
+    <row r="871" ht="13"/>
+    <row r="872" ht="13"/>
+    <row r="873" ht="13"/>
+    <row r="874" ht="13"/>
+    <row r="875" ht="13"/>
+    <row r="876" ht="13"/>
+    <row r="877" ht="13"/>
+    <row r="878" ht="13"/>
+    <row r="879" ht="13"/>
+    <row r="880" ht="13"/>
+    <row r="881" ht="13"/>
+    <row r="882" ht="13"/>
+    <row r="883" ht="13"/>
+    <row r="884" ht="13"/>
+    <row r="885" ht="13"/>
+    <row r="886" ht="13"/>
+    <row r="887" ht="13"/>
+    <row r="888" ht="13"/>
+    <row r="889" ht="13"/>
+    <row r="890" ht="13"/>
+    <row r="891" ht="13"/>
+    <row r="892" ht="13"/>
+    <row r="893" ht="13"/>
+    <row r="894" ht="13"/>
+    <row r="895" ht="13"/>
+    <row r="896" ht="13"/>
+    <row r="897" ht="13"/>
+    <row r="898" ht="13"/>
+    <row r="899" ht="13"/>
+    <row r="900" ht="13"/>
+    <row r="901" ht="13"/>
+    <row r="902" ht="13"/>
+    <row r="903" ht="13"/>
+    <row r="904" ht="13"/>
+    <row r="905" ht="13"/>
+    <row r="906" ht="13"/>
+    <row r="907" ht="13"/>
+    <row r="908" ht="13"/>
+    <row r="909" ht="13"/>
+    <row r="910" ht="13"/>
+    <row r="911" ht="13"/>
+    <row r="912" ht="13"/>
+    <row r="913" ht="13"/>
+    <row r="914" ht="13"/>
+    <row r="915" ht="13"/>
+    <row r="916" ht="13"/>
+    <row r="917" ht="13"/>
+    <row r="918" ht="13"/>
+    <row r="919" ht="13"/>
+    <row r="920" ht="13"/>
+    <row r="921" ht="13"/>
+    <row r="922" ht="13"/>
+    <row r="923" ht="13"/>
+    <row r="924" ht="13"/>
+    <row r="925" ht="13"/>
+    <row r="926" ht="13"/>
+    <row r="927" ht="13"/>
+    <row r="928" ht="13"/>
+    <row r="929" ht="13"/>
+    <row r="930" ht="13"/>
+    <row r="931" ht="13"/>
+    <row r="932" ht="13"/>
+    <row r="933" ht="13"/>
+    <row r="934" ht="13"/>
+    <row r="935" ht="13"/>
+    <row r="936" ht="13"/>
+    <row r="937" ht="13"/>
+    <row r="938" ht="13"/>
+    <row r="939" ht="13"/>
+    <row r="940" ht="13"/>
+    <row r="941" ht="13"/>
+    <row r="942" ht="13"/>
+    <row r="943" ht="13"/>
+    <row r="944" ht="13"/>
+    <row r="945" ht="13"/>
+    <row r="946" ht="13"/>
+    <row r="947" ht="13"/>
+    <row r="948" ht="13"/>
+    <row r="949" ht="13"/>
+    <row r="950" ht="13"/>
+    <row r="951" ht="13"/>
+    <row r="952" ht="13"/>
+    <row r="953" ht="13"/>
+    <row r="954" ht="13"/>
+    <row r="955" ht="13"/>
+    <row r="956" ht="13"/>
+    <row r="957" ht="13"/>
+    <row r="958" ht="13"/>
+    <row r="959" ht="13"/>
+    <row r="960" ht="13"/>
+    <row r="961" ht="13"/>
+    <row r="962" ht="13"/>
+    <row r="963" ht="13"/>
+    <row r="964" ht="13"/>
+    <row r="965" ht="13"/>
+    <row r="966" ht="13"/>
+    <row r="967" ht="13"/>
+    <row r="968" ht="13"/>
+    <row r="969" ht="13"/>
+    <row r="970" ht="13"/>
+    <row r="971" ht="13"/>
+    <row r="972" ht="13"/>
+    <row r="973" ht="13"/>
+    <row r="974" ht="13"/>
+    <row r="975" ht="13"/>
+    <row r="976" ht="13"/>
+    <row r="977" ht="13"/>
+    <row r="978" ht="13"/>
+    <row r="979" ht="13"/>
+    <row r="980" ht="13"/>
+    <row r="981" ht="13"/>
+    <row r="982" ht="13"/>
+    <row r="983" ht="13"/>
+    <row r="984" ht="13"/>
+    <row r="985" ht="13"/>
+    <row r="986" ht="13"/>
+    <row r="987" ht="13"/>
+    <row r="988" ht="13"/>
+    <row r="989" ht="13"/>
+    <row r="990" ht="13"/>
+    <row r="991" ht="13"/>
+    <row r="992" ht="13"/>
+    <row r="993" ht="13"/>
+    <row r="994" ht="13"/>
+    <row r="995" ht="13"/>
+    <row r="996" ht="13"/>
+    <row r="997" ht="13"/>
+    <row r="998" ht="13"/>
+    <row r="999" ht="13"/>
+    <row r="1000" ht="13"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -8615,15 +8618,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
@@ -8633,106 +8636,106 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="23" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="26" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D2" s="27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14">
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="23" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="26" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D3" s="27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="14">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="14">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="14">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="14">
       <c r="A7" s="20"/>
       <c r="B7" s="21"/>
       <c r="C7" s="22"/>
       <c r="D7" s="19"/>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="14">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
       <c r="D8" s="19"/>
     </row>
-    <row r="9" spans="1:4" ht="13">
+    <row r="9" spans="1:4" ht="14">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="13">
+    <row r="10" spans="1:4" ht="14">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="13">
+    <row r="11" spans="1:4" ht="14">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="13">
+    <row r="12" spans="1:4" ht="14">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="13">
+    <row r="13" spans="1:4" ht="14">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="13">
+    <row r="14" spans="1:4" ht="14">
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="13">
+    <row r="15" spans="1:4" ht="14">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="13">
+    <row r="16" spans="1:4" ht="14">
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="2:2" ht="13">
+    <row r="17" spans="2:2" ht="14">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:2" ht="13">
+    <row r="18" spans="2:2" ht="14">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="2:2" ht="13">
+    <row r="19" spans="2:2" ht="14">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:2" ht="13">
+    <row r="20" spans="2:2" ht="14">
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="2:2" ht="15.75" customHeight="1">
@@ -9335,786 +9338,786 @@
     <row r="220" spans="2:2" ht="15.75" customHeight="1">
       <c r="B220" s="4"/>
     </row>
-    <row r="221" spans="2:2" ht="12"/>
-    <row r="222" spans="2:2" ht="12"/>
-    <row r="223" spans="2:2" ht="12"/>
-    <row r="224" spans="2:2" ht="12"/>
-    <row r="225" ht="12"/>
-    <row r="226" ht="12"/>
-    <row r="227" ht="12"/>
-    <row r="228" ht="12"/>
-    <row r="229" ht="12"/>
-    <row r="230" ht="12"/>
-    <row r="231" ht="12"/>
-    <row r="232" ht="12"/>
-    <row r="233" ht="12"/>
-    <row r="234" ht="12"/>
-    <row r="235" ht="12"/>
-    <row r="236" ht="12"/>
-    <row r="237" ht="12"/>
-    <row r="238" ht="12"/>
-    <row r="239" ht="12"/>
-    <row r="240" ht="12"/>
-    <row r="241" ht="12"/>
-    <row r="242" ht="12"/>
-    <row r="243" ht="12"/>
-    <row r="244" ht="12"/>
-    <row r="245" ht="12"/>
-    <row r="246" ht="12"/>
-    <row r="247" ht="12"/>
-    <row r="248" ht="12"/>
-    <row r="249" ht="12"/>
-    <row r="250" ht="12"/>
-    <row r="251" ht="12"/>
-    <row r="252" ht="12"/>
-    <row r="253" ht="12"/>
-    <row r="254" ht="12"/>
-    <row r="255" ht="12"/>
-    <row r="256" ht="12"/>
-    <row r="257" ht="12"/>
-    <row r="258" ht="12"/>
-    <row r="259" ht="12"/>
-    <row r="260" ht="12"/>
-    <row r="261" ht="12"/>
-    <row r="262" ht="12"/>
-    <row r="263" ht="12"/>
-    <row r="264" ht="12"/>
-    <row r="265" ht="12"/>
-    <row r="266" ht="12"/>
-    <row r="267" ht="12"/>
-    <row r="268" ht="12"/>
-    <row r="269" ht="12"/>
-    <row r="270" ht="12"/>
-    <row r="271" ht="12"/>
-    <row r="272" ht="12"/>
-    <row r="273" ht="12"/>
-    <row r="274" ht="12"/>
-    <row r="275" ht="12"/>
-    <row r="276" ht="12"/>
-    <row r="277" ht="12"/>
-    <row r="278" ht="12"/>
-    <row r="279" ht="12"/>
-    <row r="280" ht="12"/>
-    <row r="281" ht="12"/>
-    <row r="282" ht="12"/>
-    <row r="283" ht="12"/>
-    <row r="284" ht="12"/>
-    <row r="285" ht="12"/>
-    <row r="286" ht="12"/>
-    <row r="287" ht="12"/>
-    <row r="288" ht="12"/>
-    <row r="289" ht="12"/>
-    <row r="290" ht="12"/>
-    <row r="291" ht="12"/>
-    <row r="292" ht="12"/>
-    <row r="293" ht="12"/>
-    <row r="294" ht="12"/>
-    <row r="295" ht="12"/>
-    <row r="296" ht="12"/>
-    <row r="297" ht="12"/>
-    <row r="298" ht="12"/>
-    <row r="299" ht="12"/>
-    <row r="300" ht="12"/>
-    <row r="301" ht="12"/>
-    <row r="302" ht="12"/>
-    <row r="303" ht="12"/>
-    <row r="304" ht="12"/>
-    <row r="305" ht="12"/>
-    <row r="306" ht="12"/>
-    <row r="307" ht="12"/>
-    <row r="308" ht="12"/>
-    <row r="309" ht="12"/>
-    <row r="310" ht="12"/>
-    <row r="311" ht="12"/>
-    <row r="312" ht="12"/>
-    <row r="313" ht="12"/>
-    <row r="314" ht="12"/>
-    <row r="315" ht="12"/>
-    <row r="316" ht="12"/>
-    <row r="317" ht="12"/>
-    <row r="318" ht="12"/>
-    <row r="319" ht="12"/>
-    <row r="320" ht="12"/>
-    <row r="321" ht="12"/>
-    <row r="322" ht="12"/>
-    <row r="323" ht="12"/>
-    <row r="324" ht="12"/>
-    <row r="325" ht="12"/>
-    <row r="326" ht="12"/>
-    <row r="327" ht="12"/>
-    <row r="328" ht="12"/>
-    <row r="329" ht="12"/>
-    <row r="330" ht="12"/>
-    <row r="331" ht="12"/>
-    <row r="332" ht="12"/>
-    <row r="333" ht="12"/>
-    <row r="334" ht="12"/>
-    <row r="335" ht="12"/>
-    <row r="336" ht="12"/>
-    <row r="337" ht="12"/>
-    <row r="338" ht="12"/>
-    <row r="339" ht="12"/>
-    <row r="340" ht="12"/>
-    <row r="341" ht="12"/>
-    <row r="342" ht="12"/>
-    <row r="343" ht="12"/>
-    <row r="344" ht="12"/>
-    <row r="345" ht="12"/>
-    <row r="346" ht="12"/>
-    <row r="347" ht="12"/>
-    <row r="348" ht="12"/>
-    <row r="349" ht="12"/>
-    <row r="350" ht="12"/>
-    <row r="351" ht="12"/>
-    <row r="352" ht="12"/>
-    <row r="353" ht="12"/>
-    <row r="354" ht="12"/>
-    <row r="355" ht="12"/>
-    <row r="356" ht="12"/>
-    <row r="357" ht="12"/>
-    <row r="358" ht="12"/>
-    <row r="359" ht="12"/>
-    <row r="360" ht="12"/>
-    <row r="361" ht="12"/>
-    <row r="362" ht="12"/>
-    <row r="363" ht="12"/>
-    <row r="364" ht="12"/>
-    <row r="365" ht="12"/>
-    <row r="366" ht="12"/>
-    <row r="367" ht="12"/>
-    <row r="368" ht="12"/>
-    <row r="369" ht="12"/>
-    <row r="370" ht="12"/>
-    <row r="371" ht="12"/>
-    <row r="372" ht="12"/>
-    <row r="373" ht="12"/>
-    <row r="374" ht="12"/>
-    <row r="375" ht="12"/>
-    <row r="376" ht="12"/>
-    <row r="377" ht="12"/>
-    <row r="378" ht="12"/>
-    <row r="379" ht="12"/>
-    <row r="380" ht="12"/>
-    <row r="381" ht="12"/>
-    <row r="382" ht="12"/>
-    <row r="383" ht="12"/>
-    <row r="384" ht="12"/>
-    <row r="385" ht="12"/>
-    <row r="386" ht="12"/>
-    <row r="387" ht="12"/>
-    <row r="388" ht="12"/>
-    <row r="389" ht="12"/>
-    <row r="390" ht="12"/>
-    <row r="391" ht="12"/>
-    <row r="392" ht="12"/>
-    <row r="393" ht="12"/>
-    <row r="394" ht="12"/>
-    <row r="395" ht="12"/>
-    <row r="396" ht="12"/>
-    <row r="397" ht="12"/>
-    <row r="398" ht="12"/>
-    <row r="399" ht="12"/>
-    <row r="400" ht="12"/>
-    <row r="401" ht="12"/>
-    <row r="402" ht="12"/>
-    <row r="403" ht="12"/>
-    <row r="404" ht="12"/>
-    <row r="405" ht="12"/>
-    <row r="406" ht="12"/>
-    <row r="407" ht="12"/>
-    <row r="408" ht="12"/>
-    <row r="409" ht="12"/>
-    <row r="410" ht="12"/>
-    <row r="411" ht="12"/>
-    <row r="412" ht="12"/>
-    <row r="413" ht="12"/>
-    <row r="414" ht="12"/>
-    <row r="415" ht="12"/>
-    <row r="416" ht="12"/>
-    <row r="417" ht="12"/>
-    <row r="418" ht="12"/>
-    <row r="419" ht="12"/>
-    <row r="420" ht="12"/>
-    <row r="421" ht="12"/>
-    <row r="422" ht="12"/>
-    <row r="423" ht="12"/>
-    <row r="424" ht="12"/>
-    <row r="425" ht="12"/>
-    <row r="426" ht="12"/>
-    <row r="427" ht="12"/>
-    <row r="428" ht="12"/>
-    <row r="429" ht="12"/>
-    <row r="430" ht="12"/>
-    <row r="431" ht="12"/>
-    <row r="432" ht="12"/>
-    <row r="433" ht="12"/>
-    <row r="434" ht="12"/>
-    <row r="435" ht="12"/>
-    <row r="436" ht="12"/>
-    <row r="437" ht="12"/>
-    <row r="438" ht="12"/>
-    <row r="439" ht="12"/>
-    <row r="440" ht="12"/>
-    <row r="441" ht="12"/>
-    <row r="442" ht="12"/>
-    <row r="443" ht="12"/>
-    <row r="444" ht="12"/>
-    <row r="445" ht="12"/>
-    <row r="446" ht="12"/>
-    <row r="447" ht="12"/>
-    <row r="448" ht="12"/>
-    <row r="449" ht="12"/>
-    <row r="450" ht="12"/>
-    <row r="451" ht="12"/>
-    <row r="452" ht="12"/>
-    <row r="453" ht="12"/>
-    <row r="454" ht="12"/>
-    <row r="455" ht="12"/>
-    <row r="456" ht="12"/>
-    <row r="457" ht="12"/>
-    <row r="458" ht="12"/>
-    <row r="459" ht="12"/>
-    <row r="460" ht="12"/>
-    <row r="461" ht="12"/>
-    <row r="462" ht="12"/>
-    <row r="463" ht="12"/>
-    <row r="464" ht="12"/>
-    <row r="465" ht="12"/>
-    <row r="466" ht="12"/>
-    <row r="467" ht="12"/>
-    <row r="468" ht="12"/>
-    <row r="469" ht="12"/>
-    <row r="470" ht="12"/>
-    <row r="471" ht="12"/>
-    <row r="472" ht="12"/>
-    <row r="473" ht="12"/>
-    <row r="474" ht="12"/>
-    <row r="475" ht="12"/>
-    <row r="476" ht="12"/>
-    <row r="477" ht="12"/>
-    <row r="478" ht="12"/>
-    <row r="479" ht="12"/>
-    <row r="480" ht="12"/>
-    <row r="481" ht="12"/>
-    <row r="482" ht="12"/>
-    <row r="483" ht="12"/>
-    <row r="484" ht="12"/>
-    <row r="485" ht="12"/>
-    <row r="486" ht="12"/>
-    <row r="487" ht="12"/>
-    <row r="488" ht="12"/>
-    <row r="489" ht="12"/>
-    <row r="490" ht="12"/>
-    <row r="491" ht="12"/>
-    <row r="492" ht="12"/>
-    <row r="493" ht="12"/>
-    <row r="494" ht="12"/>
-    <row r="495" ht="12"/>
-    <row r="496" ht="12"/>
-    <row r="497" ht="12"/>
-    <row r="498" ht="12"/>
-    <row r="499" ht="12"/>
-    <row r="500" ht="12"/>
-    <row r="501" ht="12"/>
-    <row r="502" ht="12"/>
-    <row r="503" ht="12"/>
-    <row r="504" ht="12"/>
-    <row r="505" ht="12"/>
-    <row r="506" ht="12"/>
-    <row r="507" ht="12"/>
-    <row r="508" ht="12"/>
-    <row r="509" ht="12"/>
-    <row r="510" ht="12"/>
-    <row r="511" ht="12"/>
-    <row r="512" ht="12"/>
-    <row r="513" ht="12"/>
-    <row r="514" ht="12"/>
-    <row r="515" ht="12"/>
-    <row r="516" ht="12"/>
-    <row r="517" ht="12"/>
-    <row r="518" ht="12"/>
-    <row r="519" ht="12"/>
-    <row r="520" ht="12"/>
-    <row r="521" ht="12"/>
-    <row r="522" ht="12"/>
-    <row r="523" ht="12"/>
-    <row r="524" ht="12"/>
-    <row r="525" ht="12"/>
-    <row r="526" ht="12"/>
-    <row r="527" ht="12"/>
-    <row r="528" ht="12"/>
-    <row r="529" ht="12"/>
-    <row r="530" ht="12"/>
-    <row r="531" ht="12"/>
-    <row r="532" ht="12"/>
-    <row r="533" ht="12"/>
-    <row r="534" ht="12"/>
-    <row r="535" ht="12"/>
-    <row r="536" ht="12"/>
-    <row r="537" ht="12"/>
-    <row r="538" ht="12"/>
-    <row r="539" ht="12"/>
-    <row r="540" ht="12"/>
-    <row r="541" ht="12"/>
-    <row r="542" ht="12"/>
-    <row r="543" ht="12"/>
-    <row r="544" ht="12"/>
-    <row r="545" ht="12"/>
-    <row r="546" ht="12"/>
-    <row r="547" ht="12"/>
-    <row r="548" ht="12"/>
-    <row r="549" ht="12"/>
-    <row r="550" ht="12"/>
-    <row r="551" ht="12"/>
-    <row r="552" ht="12"/>
-    <row r="553" ht="12"/>
-    <row r="554" ht="12"/>
-    <row r="555" ht="12"/>
-    <row r="556" ht="12"/>
-    <row r="557" ht="12"/>
-    <row r="558" ht="12"/>
-    <row r="559" ht="12"/>
-    <row r="560" ht="12"/>
-    <row r="561" ht="12"/>
-    <row r="562" ht="12"/>
-    <row r="563" ht="12"/>
-    <row r="564" ht="12"/>
-    <row r="565" ht="12"/>
-    <row r="566" ht="12"/>
-    <row r="567" ht="12"/>
-    <row r="568" ht="12"/>
-    <row r="569" ht="12"/>
-    <row r="570" ht="12"/>
-    <row r="571" ht="12"/>
-    <row r="572" ht="12"/>
-    <row r="573" ht="12"/>
-    <row r="574" ht="12"/>
-    <row r="575" ht="12"/>
-    <row r="576" ht="12"/>
-    <row r="577" ht="12"/>
-    <row r="578" ht="12"/>
-    <row r="579" ht="12"/>
-    <row r="580" ht="12"/>
-    <row r="581" ht="12"/>
-    <row r="582" ht="12"/>
-    <row r="583" ht="12"/>
-    <row r="584" ht="12"/>
-    <row r="585" ht="12"/>
-    <row r="586" ht="12"/>
-    <row r="587" ht="12"/>
-    <row r="588" ht="12"/>
-    <row r="589" ht="12"/>
-    <row r="590" ht="12"/>
-    <row r="591" ht="12"/>
-    <row r="592" ht="12"/>
-    <row r="593" ht="12"/>
-    <row r="594" ht="12"/>
-    <row r="595" ht="12"/>
-    <row r="596" ht="12"/>
-    <row r="597" ht="12"/>
-    <row r="598" ht="12"/>
-    <row r="599" ht="12"/>
-    <row r="600" ht="12"/>
-    <row r="601" ht="12"/>
-    <row r="602" ht="12"/>
-    <row r="603" ht="12"/>
-    <row r="604" ht="12"/>
-    <row r="605" ht="12"/>
-    <row r="606" ht="12"/>
-    <row r="607" ht="12"/>
-    <row r="608" ht="12"/>
-    <row r="609" ht="12"/>
-    <row r="610" ht="12"/>
-    <row r="611" ht="12"/>
-    <row r="612" ht="12"/>
-    <row r="613" ht="12"/>
-    <row r="614" ht="12"/>
-    <row r="615" ht="12"/>
-    <row r="616" ht="12"/>
-    <row r="617" ht="12"/>
-    <row r="618" ht="12"/>
-    <row r="619" ht="12"/>
-    <row r="620" ht="12"/>
-    <row r="621" ht="12"/>
-    <row r="622" ht="12"/>
-    <row r="623" ht="12"/>
-    <row r="624" ht="12"/>
-    <row r="625" ht="12"/>
-    <row r="626" ht="12"/>
-    <row r="627" ht="12"/>
-    <row r="628" ht="12"/>
-    <row r="629" ht="12"/>
-    <row r="630" ht="12"/>
-    <row r="631" ht="12"/>
-    <row r="632" ht="12"/>
-    <row r="633" ht="12"/>
-    <row r="634" ht="12"/>
-    <row r="635" ht="12"/>
-    <row r="636" ht="12"/>
-    <row r="637" ht="12"/>
-    <row r="638" ht="12"/>
-    <row r="639" ht="12"/>
-    <row r="640" ht="12"/>
-    <row r="641" ht="12"/>
-    <row r="642" ht="12"/>
-    <row r="643" ht="12"/>
-    <row r="644" ht="12"/>
-    <row r="645" ht="12"/>
-    <row r="646" ht="12"/>
-    <row r="647" ht="12"/>
-    <row r="648" ht="12"/>
-    <row r="649" ht="12"/>
-    <row r="650" ht="12"/>
-    <row r="651" ht="12"/>
-    <row r="652" ht="12"/>
-    <row r="653" ht="12"/>
-    <row r="654" ht="12"/>
-    <row r="655" ht="12"/>
-    <row r="656" ht="12"/>
-    <row r="657" ht="12"/>
-    <row r="658" ht="12"/>
-    <row r="659" ht="12"/>
-    <row r="660" ht="12"/>
-    <row r="661" ht="12"/>
-    <row r="662" ht="12"/>
-    <row r="663" ht="12"/>
-    <row r="664" ht="12"/>
-    <row r="665" ht="12"/>
-    <row r="666" ht="12"/>
-    <row r="667" ht="12"/>
-    <row r="668" ht="12"/>
-    <row r="669" ht="12"/>
-    <row r="670" ht="12"/>
-    <row r="671" ht="12"/>
-    <row r="672" ht="12"/>
-    <row r="673" ht="12"/>
-    <row r="674" ht="12"/>
-    <row r="675" ht="12"/>
-    <row r="676" ht="12"/>
-    <row r="677" ht="12"/>
-    <row r="678" ht="12"/>
-    <row r="679" ht="12"/>
-    <row r="680" ht="12"/>
-    <row r="681" ht="12"/>
-    <row r="682" ht="12"/>
-    <row r="683" ht="12"/>
-    <row r="684" ht="12"/>
-    <row r="685" ht="12"/>
-    <row r="686" ht="12"/>
-    <row r="687" ht="12"/>
-    <row r="688" ht="12"/>
-    <row r="689" ht="12"/>
-    <row r="690" ht="12"/>
-    <row r="691" ht="12"/>
-    <row r="692" ht="12"/>
-    <row r="693" ht="12"/>
-    <row r="694" ht="12"/>
-    <row r="695" ht="12"/>
-    <row r="696" ht="12"/>
-    <row r="697" ht="12"/>
-    <row r="698" ht="12"/>
-    <row r="699" ht="12"/>
-    <row r="700" ht="12"/>
-    <row r="701" ht="12"/>
-    <row r="702" ht="12"/>
-    <row r="703" ht="12"/>
-    <row r="704" ht="12"/>
-    <row r="705" ht="12"/>
-    <row r="706" ht="12"/>
-    <row r="707" ht="12"/>
-    <row r="708" ht="12"/>
-    <row r="709" ht="12"/>
-    <row r="710" ht="12"/>
-    <row r="711" ht="12"/>
-    <row r="712" ht="12"/>
-    <row r="713" ht="12"/>
-    <row r="714" ht="12"/>
-    <row r="715" ht="12"/>
-    <row r="716" ht="12"/>
-    <row r="717" ht="12"/>
-    <row r="718" ht="12"/>
-    <row r="719" ht="12"/>
-    <row r="720" ht="12"/>
-    <row r="721" ht="12"/>
-    <row r="722" ht="12"/>
-    <row r="723" ht="12"/>
-    <row r="724" ht="12"/>
-    <row r="725" ht="12"/>
-    <row r="726" ht="12"/>
-    <row r="727" ht="12"/>
-    <row r="728" ht="12"/>
-    <row r="729" ht="12"/>
-    <row r="730" ht="12"/>
-    <row r="731" ht="12"/>
-    <row r="732" ht="12"/>
-    <row r="733" ht="12"/>
-    <row r="734" ht="12"/>
-    <row r="735" ht="12"/>
-    <row r="736" ht="12"/>
-    <row r="737" ht="12"/>
-    <row r="738" ht="12"/>
-    <row r="739" ht="12"/>
-    <row r="740" ht="12"/>
-    <row r="741" ht="12"/>
-    <row r="742" ht="12"/>
-    <row r="743" ht="12"/>
-    <row r="744" ht="12"/>
-    <row r="745" ht="12"/>
-    <row r="746" ht="12"/>
-    <row r="747" ht="12"/>
-    <row r="748" ht="12"/>
-    <row r="749" ht="12"/>
-    <row r="750" ht="12"/>
-    <row r="751" ht="12"/>
-    <row r="752" ht="12"/>
-    <row r="753" ht="12"/>
-    <row r="754" ht="12"/>
-    <row r="755" ht="12"/>
-    <row r="756" ht="12"/>
-    <row r="757" ht="12"/>
-    <row r="758" ht="12"/>
-    <row r="759" ht="12"/>
-    <row r="760" ht="12"/>
-    <row r="761" ht="12"/>
-    <row r="762" ht="12"/>
-    <row r="763" ht="12"/>
-    <row r="764" ht="12"/>
-    <row r="765" ht="12"/>
-    <row r="766" ht="12"/>
-    <row r="767" ht="12"/>
-    <row r="768" ht="12"/>
-    <row r="769" ht="12"/>
-    <row r="770" ht="12"/>
-    <row r="771" ht="12"/>
-    <row r="772" ht="12"/>
-    <row r="773" ht="12"/>
-    <row r="774" ht="12"/>
-    <row r="775" ht="12"/>
-    <row r="776" ht="12"/>
-    <row r="777" ht="12"/>
-    <row r="778" ht="12"/>
-    <row r="779" ht="12"/>
-    <row r="780" ht="12"/>
-    <row r="781" ht="12"/>
-    <row r="782" ht="12"/>
-    <row r="783" ht="12"/>
-    <row r="784" ht="12"/>
-    <row r="785" ht="12"/>
-    <row r="786" ht="12"/>
-    <row r="787" ht="12"/>
-    <row r="788" ht="12"/>
-    <row r="789" ht="12"/>
-    <row r="790" ht="12"/>
-    <row r="791" ht="12"/>
-    <row r="792" ht="12"/>
-    <row r="793" ht="12"/>
-    <row r="794" ht="12"/>
-    <row r="795" ht="12"/>
-    <row r="796" ht="12"/>
-    <row r="797" ht="12"/>
-    <row r="798" ht="12"/>
-    <row r="799" ht="12"/>
-    <row r="800" ht="12"/>
-    <row r="801" ht="12"/>
-    <row r="802" ht="12"/>
-    <row r="803" ht="12"/>
-    <row r="804" ht="12"/>
-    <row r="805" ht="12"/>
-    <row r="806" ht="12"/>
-    <row r="807" ht="12"/>
-    <row r="808" ht="12"/>
-    <row r="809" ht="12"/>
-    <row r="810" ht="12"/>
-    <row r="811" ht="12"/>
-    <row r="812" ht="12"/>
-    <row r="813" ht="12"/>
-    <row r="814" ht="12"/>
-    <row r="815" ht="12"/>
-    <row r="816" ht="12"/>
-    <row r="817" ht="12"/>
-    <row r="818" ht="12"/>
-    <row r="819" ht="12"/>
-    <row r="820" ht="12"/>
-    <row r="821" ht="12"/>
-    <row r="822" ht="12"/>
-    <row r="823" ht="12"/>
-    <row r="824" ht="12"/>
-    <row r="825" ht="12"/>
-    <row r="826" ht="12"/>
-    <row r="827" ht="12"/>
-    <row r="828" ht="12"/>
-    <row r="829" ht="12"/>
-    <row r="830" ht="12"/>
-    <row r="831" ht="12"/>
-    <row r="832" ht="12"/>
-    <row r="833" ht="12"/>
-    <row r="834" ht="12"/>
-    <row r="835" ht="12"/>
-    <row r="836" ht="12"/>
-    <row r="837" ht="12"/>
-    <row r="838" ht="12"/>
-    <row r="839" ht="12"/>
-    <row r="840" ht="12"/>
-    <row r="841" ht="12"/>
-    <row r="842" ht="12"/>
-    <row r="843" ht="12"/>
-    <row r="844" ht="12"/>
-    <row r="845" ht="12"/>
-    <row r="846" ht="12"/>
-    <row r="847" ht="12"/>
-    <row r="848" ht="12"/>
-    <row r="849" ht="12"/>
-    <row r="850" ht="12"/>
-    <row r="851" ht="12"/>
-    <row r="852" ht="12"/>
-    <row r="853" ht="12"/>
-    <row r="854" ht="12"/>
-    <row r="855" ht="12"/>
-    <row r="856" ht="12"/>
-    <row r="857" ht="12"/>
-    <row r="858" ht="12"/>
-    <row r="859" ht="12"/>
-    <row r="860" ht="12"/>
-    <row r="861" ht="12"/>
-    <row r="862" ht="12"/>
-    <row r="863" ht="12"/>
-    <row r="864" ht="12"/>
-    <row r="865" ht="12"/>
-    <row r="866" ht="12"/>
-    <row r="867" ht="12"/>
-    <row r="868" ht="12"/>
-    <row r="869" ht="12"/>
-    <row r="870" ht="12"/>
-    <row r="871" ht="12"/>
-    <row r="872" ht="12"/>
-    <row r="873" ht="12"/>
-    <row r="874" ht="12"/>
-    <row r="875" ht="12"/>
-    <row r="876" ht="12"/>
-    <row r="877" ht="12"/>
-    <row r="878" ht="12"/>
-    <row r="879" ht="12"/>
-    <row r="880" ht="12"/>
-    <row r="881" ht="12"/>
-    <row r="882" ht="12"/>
-    <row r="883" ht="12"/>
-    <row r="884" ht="12"/>
-    <row r="885" ht="12"/>
-    <row r="886" ht="12"/>
-    <row r="887" ht="12"/>
-    <row r="888" ht="12"/>
-    <row r="889" ht="12"/>
-    <row r="890" ht="12"/>
-    <row r="891" ht="12"/>
-    <row r="892" ht="12"/>
-    <row r="893" ht="12"/>
-    <row r="894" ht="12"/>
-    <row r="895" ht="12"/>
-    <row r="896" ht="12"/>
-    <row r="897" ht="12"/>
-    <row r="898" ht="12"/>
-    <row r="899" ht="12"/>
-    <row r="900" ht="12"/>
-    <row r="901" ht="12"/>
-    <row r="902" ht="12"/>
-    <row r="903" ht="12"/>
-    <row r="904" ht="12"/>
-    <row r="905" ht="12"/>
-    <row r="906" ht="12"/>
-    <row r="907" ht="12"/>
-    <row r="908" ht="12"/>
-    <row r="909" ht="12"/>
-    <row r="910" ht="12"/>
-    <row r="911" ht="12"/>
-    <row r="912" ht="12"/>
-    <row r="913" ht="12"/>
-    <row r="914" ht="12"/>
-    <row r="915" ht="12"/>
-    <row r="916" ht="12"/>
-    <row r="917" ht="12"/>
-    <row r="918" ht="12"/>
-    <row r="919" ht="12"/>
-    <row r="920" ht="12"/>
-    <row r="921" ht="12"/>
-    <row r="922" ht="12"/>
-    <row r="923" ht="12"/>
-    <row r="924" ht="12"/>
-    <row r="925" ht="12"/>
-    <row r="926" ht="12"/>
-    <row r="927" ht="12"/>
-    <row r="928" ht="12"/>
-    <row r="929" ht="12"/>
-    <row r="930" ht="12"/>
-    <row r="931" ht="12"/>
-    <row r="932" ht="12"/>
-    <row r="933" ht="12"/>
-    <row r="934" ht="12"/>
-    <row r="935" ht="12"/>
-    <row r="936" ht="12"/>
-    <row r="937" ht="12"/>
-    <row r="938" ht="12"/>
-    <row r="939" ht="12"/>
-    <row r="940" ht="12"/>
-    <row r="941" ht="12"/>
-    <row r="942" ht="12"/>
-    <row r="943" ht="12"/>
-    <row r="944" ht="12"/>
-    <row r="945" ht="12"/>
-    <row r="946" ht="12"/>
-    <row r="947" ht="12"/>
-    <row r="948" ht="12"/>
-    <row r="949" ht="12"/>
-    <row r="950" ht="12"/>
-    <row r="951" ht="12"/>
-    <row r="952" ht="12"/>
-    <row r="953" ht="12"/>
-    <row r="954" ht="12"/>
-    <row r="955" ht="12"/>
-    <row r="956" ht="12"/>
-    <row r="957" ht="12"/>
-    <row r="958" ht="12"/>
-    <row r="959" ht="12"/>
-    <row r="960" ht="12"/>
-    <row r="961" ht="12"/>
-    <row r="962" ht="12"/>
-    <row r="963" ht="12"/>
-    <row r="964" ht="12"/>
-    <row r="965" ht="12"/>
-    <row r="966" ht="12"/>
-    <row r="967" ht="12"/>
-    <row r="968" ht="12"/>
-    <row r="969" ht="12"/>
-    <row r="970" ht="12"/>
-    <row r="971" ht="12"/>
-    <row r="972" ht="12"/>
-    <row r="973" ht="12"/>
-    <row r="974" ht="12"/>
-    <row r="975" ht="12"/>
-    <row r="976" ht="12"/>
-    <row r="977" ht="12"/>
-    <row r="978" ht="12"/>
-    <row r="979" ht="12"/>
-    <row r="980" ht="12"/>
-    <row r="981" ht="12"/>
-    <row r="982" ht="12"/>
-    <row r="983" ht="12"/>
-    <row r="984" ht="12"/>
-    <row r="985" ht="12"/>
-    <row r="986" ht="12"/>
-    <row r="987" ht="12"/>
-    <row r="988" ht="12"/>
-    <row r="989" ht="12"/>
-    <row r="990" ht="12"/>
-    <row r="991" ht="12"/>
-    <row r="992" ht="12"/>
-    <row r="993" ht="12"/>
-    <row r="994" ht="12"/>
-    <row r="995" ht="12"/>
-    <row r="996" ht="12"/>
-    <row r="997" ht="12"/>
-    <row r="998" ht="12"/>
-    <row r="999" ht="12"/>
-    <row r="1000" ht="12"/>
+    <row r="221" spans="2:2" ht="13"/>
+    <row r="222" spans="2:2" ht="13"/>
+    <row r="223" spans="2:2" ht="13"/>
+    <row r="224" spans="2:2" ht="13"/>
+    <row r="225" ht="13"/>
+    <row r="226" ht="13"/>
+    <row r="227" ht="13"/>
+    <row r="228" ht="13"/>
+    <row r="229" ht="13"/>
+    <row r="230" ht="13"/>
+    <row r="231" ht="13"/>
+    <row r="232" ht="13"/>
+    <row r="233" ht="13"/>
+    <row r="234" ht="13"/>
+    <row r="235" ht="13"/>
+    <row r="236" ht="13"/>
+    <row r="237" ht="13"/>
+    <row r="238" ht="13"/>
+    <row r="239" ht="13"/>
+    <row r="240" ht="13"/>
+    <row r="241" ht="13"/>
+    <row r="242" ht="13"/>
+    <row r="243" ht="13"/>
+    <row r="244" ht="13"/>
+    <row r="245" ht="13"/>
+    <row r="246" ht="13"/>
+    <row r="247" ht="13"/>
+    <row r="248" ht="13"/>
+    <row r="249" ht="13"/>
+    <row r="250" ht="13"/>
+    <row r="251" ht="13"/>
+    <row r="252" ht="13"/>
+    <row r="253" ht="13"/>
+    <row r="254" ht="13"/>
+    <row r="255" ht="13"/>
+    <row r="256" ht="13"/>
+    <row r="257" ht="13"/>
+    <row r="258" ht="13"/>
+    <row r="259" ht="13"/>
+    <row r="260" ht="13"/>
+    <row r="261" ht="13"/>
+    <row r="262" ht="13"/>
+    <row r="263" ht="13"/>
+    <row r="264" ht="13"/>
+    <row r="265" ht="13"/>
+    <row r="266" ht="13"/>
+    <row r="267" ht="13"/>
+    <row r="268" ht="13"/>
+    <row r="269" ht="13"/>
+    <row r="270" ht="13"/>
+    <row r="271" ht="13"/>
+    <row r="272" ht="13"/>
+    <row r="273" ht="13"/>
+    <row r="274" ht="13"/>
+    <row r="275" ht="13"/>
+    <row r="276" ht="13"/>
+    <row r="277" ht="13"/>
+    <row r="278" ht="13"/>
+    <row r="279" ht="13"/>
+    <row r="280" ht="13"/>
+    <row r="281" ht="13"/>
+    <row r="282" ht="13"/>
+    <row r="283" ht="13"/>
+    <row r="284" ht="13"/>
+    <row r="285" ht="13"/>
+    <row r="286" ht="13"/>
+    <row r="287" ht="13"/>
+    <row r="288" ht="13"/>
+    <row r="289" ht="13"/>
+    <row r="290" ht="13"/>
+    <row r="291" ht="13"/>
+    <row r="292" ht="13"/>
+    <row r="293" ht="13"/>
+    <row r="294" ht="13"/>
+    <row r="295" ht="13"/>
+    <row r="296" ht="13"/>
+    <row r="297" ht="13"/>
+    <row r="298" ht="13"/>
+    <row r="299" ht="13"/>
+    <row r="300" ht="13"/>
+    <row r="301" ht="13"/>
+    <row r="302" ht="13"/>
+    <row r="303" ht="13"/>
+    <row r="304" ht="13"/>
+    <row r="305" ht="13"/>
+    <row r="306" ht="13"/>
+    <row r="307" ht="13"/>
+    <row r="308" ht="13"/>
+    <row r="309" ht="13"/>
+    <row r="310" ht="13"/>
+    <row r="311" ht="13"/>
+    <row r="312" ht="13"/>
+    <row r="313" ht="13"/>
+    <row r="314" ht="13"/>
+    <row r="315" ht="13"/>
+    <row r="316" ht="13"/>
+    <row r="317" ht="13"/>
+    <row r="318" ht="13"/>
+    <row r="319" ht="13"/>
+    <row r="320" ht="13"/>
+    <row r="321" ht="13"/>
+    <row r="322" ht="13"/>
+    <row r="323" ht="13"/>
+    <row r="324" ht="13"/>
+    <row r="325" ht="13"/>
+    <row r="326" ht="13"/>
+    <row r="327" ht="13"/>
+    <row r="328" ht="13"/>
+    <row r="329" ht="13"/>
+    <row r="330" ht="13"/>
+    <row r="331" ht="13"/>
+    <row r="332" ht="13"/>
+    <row r="333" ht="13"/>
+    <row r="334" ht="13"/>
+    <row r="335" ht="13"/>
+    <row r="336" ht="13"/>
+    <row r="337" ht="13"/>
+    <row r="338" ht="13"/>
+    <row r="339" ht="13"/>
+    <row r="340" ht="13"/>
+    <row r="341" ht="13"/>
+    <row r="342" ht="13"/>
+    <row r="343" ht="13"/>
+    <row r="344" ht="13"/>
+    <row r="345" ht="13"/>
+    <row r="346" ht="13"/>
+    <row r="347" ht="13"/>
+    <row r="348" ht="13"/>
+    <row r="349" ht="13"/>
+    <row r="350" ht="13"/>
+    <row r="351" ht="13"/>
+    <row r="352" ht="13"/>
+    <row r="353" ht="13"/>
+    <row r="354" ht="13"/>
+    <row r="355" ht="13"/>
+    <row r="356" ht="13"/>
+    <row r="357" ht="13"/>
+    <row r="358" ht="13"/>
+    <row r="359" ht="13"/>
+    <row r="360" ht="13"/>
+    <row r="361" ht="13"/>
+    <row r="362" ht="13"/>
+    <row r="363" ht="13"/>
+    <row r="364" ht="13"/>
+    <row r="365" ht="13"/>
+    <row r="366" ht="13"/>
+    <row r="367" ht="13"/>
+    <row r="368" ht="13"/>
+    <row r="369" ht="13"/>
+    <row r="370" ht="13"/>
+    <row r="371" ht="13"/>
+    <row r="372" ht="13"/>
+    <row r="373" ht="13"/>
+    <row r="374" ht="13"/>
+    <row r="375" ht="13"/>
+    <row r="376" ht="13"/>
+    <row r="377" ht="13"/>
+    <row r="378" ht="13"/>
+    <row r="379" ht="13"/>
+    <row r="380" ht="13"/>
+    <row r="381" ht="13"/>
+    <row r="382" ht="13"/>
+    <row r="383" ht="13"/>
+    <row r="384" ht="13"/>
+    <row r="385" ht="13"/>
+    <row r="386" ht="13"/>
+    <row r="387" ht="13"/>
+    <row r="388" ht="13"/>
+    <row r="389" ht="13"/>
+    <row r="390" ht="13"/>
+    <row r="391" ht="13"/>
+    <row r="392" ht="13"/>
+    <row r="393" ht="13"/>
+    <row r="394" ht="13"/>
+    <row r="395" ht="13"/>
+    <row r="396" ht="13"/>
+    <row r="397" ht="13"/>
+    <row r="398" ht="13"/>
+    <row r="399" ht="13"/>
+    <row r="400" ht="13"/>
+    <row r="401" ht="13"/>
+    <row r="402" ht="13"/>
+    <row r="403" ht="13"/>
+    <row r="404" ht="13"/>
+    <row r="405" ht="13"/>
+    <row r="406" ht="13"/>
+    <row r="407" ht="13"/>
+    <row r="408" ht="13"/>
+    <row r="409" ht="13"/>
+    <row r="410" ht="13"/>
+    <row r="411" ht="13"/>
+    <row r="412" ht="13"/>
+    <row r="413" ht="13"/>
+    <row r="414" ht="13"/>
+    <row r="415" ht="13"/>
+    <row r="416" ht="13"/>
+    <row r="417" ht="13"/>
+    <row r="418" ht="13"/>
+    <row r="419" ht="13"/>
+    <row r="420" ht="13"/>
+    <row r="421" ht="13"/>
+    <row r="422" ht="13"/>
+    <row r="423" ht="13"/>
+    <row r="424" ht="13"/>
+    <row r="425" ht="13"/>
+    <row r="426" ht="13"/>
+    <row r="427" ht="13"/>
+    <row r="428" ht="13"/>
+    <row r="429" ht="13"/>
+    <row r="430" ht="13"/>
+    <row r="431" ht="13"/>
+    <row r="432" ht="13"/>
+    <row r="433" ht="13"/>
+    <row r="434" ht="13"/>
+    <row r="435" ht="13"/>
+    <row r="436" ht="13"/>
+    <row r="437" ht="13"/>
+    <row r="438" ht="13"/>
+    <row r="439" ht="13"/>
+    <row r="440" ht="13"/>
+    <row r="441" ht="13"/>
+    <row r="442" ht="13"/>
+    <row r="443" ht="13"/>
+    <row r="444" ht="13"/>
+    <row r="445" ht="13"/>
+    <row r="446" ht="13"/>
+    <row r="447" ht="13"/>
+    <row r="448" ht="13"/>
+    <row r="449" ht="13"/>
+    <row r="450" ht="13"/>
+    <row r="451" ht="13"/>
+    <row r="452" ht="13"/>
+    <row r="453" ht="13"/>
+    <row r="454" ht="13"/>
+    <row r="455" ht="13"/>
+    <row r="456" ht="13"/>
+    <row r="457" ht="13"/>
+    <row r="458" ht="13"/>
+    <row r="459" ht="13"/>
+    <row r="460" ht="13"/>
+    <row r="461" ht="13"/>
+    <row r="462" ht="13"/>
+    <row r="463" ht="13"/>
+    <row r="464" ht="13"/>
+    <row r="465" ht="13"/>
+    <row r="466" ht="13"/>
+    <row r="467" ht="13"/>
+    <row r="468" ht="13"/>
+    <row r="469" ht="13"/>
+    <row r="470" ht="13"/>
+    <row r="471" ht="13"/>
+    <row r="472" ht="13"/>
+    <row r="473" ht="13"/>
+    <row r="474" ht="13"/>
+    <row r="475" ht="13"/>
+    <row r="476" ht="13"/>
+    <row r="477" ht="13"/>
+    <row r="478" ht="13"/>
+    <row r="479" ht="13"/>
+    <row r="480" ht="13"/>
+    <row r="481" ht="13"/>
+    <row r="482" ht="13"/>
+    <row r="483" ht="13"/>
+    <row r="484" ht="13"/>
+    <row r="485" ht="13"/>
+    <row r="486" ht="13"/>
+    <row r="487" ht="13"/>
+    <row r="488" ht="13"/>
+    <row r="489" ht="13"/>
+    <row r="490" ht="13"/>
+    <row r="491" ht="13"/>
+    <row r="492" ht="13"/>
+    <row r="493" ht="13"/>
+    <row r="494" ht="13"/>
+    <row r="495" ht="13"/>
+    <row r="496" ht="13"/>
+    <row r="497" ht="13"/>
+    <row r="498" ht="13"/>
+    <row r="499" ht="13"/>
+    <row r="500" ht="13"/>
+    <row r="501" ht="13"/>
+    <row r="502" ht="13"/>
+    <row r="503" ht="13"/>
+    <row r="504" ht="13"/>
+    <row r="505" ht="13"/>
+    <row r="506" ht="13"/>
+    <row r="507" ht="13"/>
+    <row r="508" ht="13"/>
+    <row r="509" ht="13"/>
+    <row r="510" ht="13"/>
+    <row r="511" ht="13"/>
+    <row r="512" ht="13"/>
+    <row r="513" ht="13"/>
+    <row r="514" ht="13"/>
+    <row r="515" ht="13"/>
+    <row r="516" ht="13"/>
+    <row r="517" ht="13"/>
+    <row r="518" ht="13"/>
+    <row r="519" ht="13"/>
+    <row r="520" ht="13"/>
+    <row r="521" ht="13"/>
+    <row r="522" ht="13"/>
+    <row r="523" ht="13"/>
+    <row r="524" ht="13"/>
+    <row r="525" ht="13"/>
+    <row r="526" ht="13"/>
+    <row r="527" ht="13"/>
+    <row r="528" ht="13"/>
+    <row r="529" ht="13"/>
+    <row r="530" ht="13"/>
+    <row r="531" ht="13"/>
+    <row r="532" ht="13"/>
+    <row r="533" ht="13"/>
+    <row r="534" ht="13"/>
+    <row r="535" ht="13"/>
+    <row r="536" ht="13"/>
+    <row r="537" ht="13"/>
+    <row r="538" ht="13"/>
+    <row r="539" ht="13"/>
+    <row r="540" ht="13"/>
+    <row r="541" ht="13"/>
+    <row r="542" ht="13"/>
+    <row r="543" ht="13"/>
+    <row r="544" ht="13"/>
+    <row r="545" ht="13"/>
+    <row r="546" ht="13"/>
+    <row r="547" ht="13"/>
+    <row r="548" ht="13"/>
+    <row r="549" ht="13"/>
+    <row r="550" ht="13"/>
+    <row r="551" ht="13"/>
+    <row r="552" ht="13"/>
+    <row r="553" ht="13"/>
+    <row r="554" ht="13"/>
+    <row r="555" ht="13"/>
+    <row r="556" ht="13"/>
+    <row r="557" ht="13"/>
+    <row r="558" ht="13"/>
+    <row r="559" ht="13"/>
+    <row r="560" ht="13"/>
+    <row r="561" ht="13"/>
+    <row r="562" ht="13"/>
+    <row r="563" ht="13"/>
+    <row r="564" ht="13"/>
+    <row r="565" ht="13"/>
+    <row r="566" ht="13"/>
+    <row r="567" ht="13"/>
+    <row r="568" ht="13"/>
+    <row r="569" ht="13"/>
+    <row r="570" ht="13"/>
+    <row r="571" ht="13"/>
+    <row r="572" ht="13"/>
+    <row r="573" ht="13"/>
+    <row r="574" ht="13"/>
+    <row r="575" ht="13"/>
+    <row r="576" ht="13"/>
+    <row r="577" ht="13"/>
+    <row r="578" ht="13"/>
+    <row r="579" ht="13"/>
+    <row r="580" ht="13"/>
+    <row r="581" ht="13"/>
+    <row r="582" ht="13"/>
+    <row r="583" ht="13"/>
+    <row r="584" ht="13"/>
+    <row r="585" ht="13"/>
+    <row r="586" ht="13"/>
+    <row r="587" ht="13"/>
+    <row r="588" ht="13"/>
+    <row r="589" ht="13"/>
+    <row r="590" ht="13"/>
+    <row r="591" ht="13"/>
+    <row r="592" ht="13"/>
+    <row r="593" ht="13"/>
+    <row r="594" ht="13"/>
+    <row r="595" ht="13"/>
+    <row r="596" ht="13"/>
+    <row r="597" ht="13"/>
+    <row r="598" ht="13"/>
+    <row r="599" ht="13"/>
+    <row r="600" ht="13"/>
+    <row r="601" ht="13"/>
+    <row r="602" ht="13"/>
+    <row r="603" ht="13"/>
+    <row r="604" ht="13"/>
+    <row r="605" ht="13"/>
+    <row r="606" ht="13"/>
+    <row r="607" ht="13"/>
+    <row r="608" ht="13"/>
+    <row r="609" ht="13"/>
+    <row r="610" ht="13"/>
+    <row r="611" ht="13"/>
+    <row r="612" ht="13"/>
+    <row r="613" ht="13"/>
+    <row r="614" ht="13"/>
+    <row r="615" ht="13"/>
+    <row r="616" ht="13"/>
+    <row r="617" ht="13"/>
+    <row r="618" ht="13"/>
+    <row r="619" ht="13"/>
+    <row r="620" ht="13"/>
+    <row r="621" ht="13"/>
+    <row r="622" ht="13"/>
+    <row r="623" ht="13"/>
+    <row r="624" ht="13"/>
+    <row r="625" ht="13"/>
+    <row r="626" ht="13"/>
+    <row r="627" ht="13"/>
+    <row r="628" ht="13"/>
+    <row r="629" ht="13"/>
+    <row r="630" ht="13"/>
+    <row r="631" ht="13"/>
+    <row r="632" ht="13"/>
+    <row r="633" ht="13"/>
+    <row r="634" ht="13"/>
+    <row r="635" ht="13"/>
+    <row r="636" ht="13"/>
+    <row r="637" ht="13"/>
+    <row r="638" ht="13"/>
+    <row r="639" ht="13"/>
+    <row r="640" ht="13"/>
+    <row r="641" ht="13"/>
+    <row r="642" ht="13"/>
+    <row r="643" ht="13"/>
+    <row r="644" ht="13"/>
+    <row r="645" ht="13"/>
+    <row r="646" ht="13"/>
+    <row r="647" ht="13"/>
+    <row r="648" ht="13"/>
+    <row r="649" ht="13"/>
+    <row r="650" ht="13"/>
+    <row r="651" ht="13"/>
+    <row r="652" ht="13"/>
+    <row r="653" ht="13"/>
+    <row r="654" ht="13"/>
+    <row r="655" ht="13"/>
+    <row r="656" ht="13"/>
+    <row r="657" ht="13"/>
+    <row r="658" ht="13"/>
+    <row r="659" ht="13"/>
+    <row r="660" ht="13"/>
+    <row r="661" ht="13"/>
+    <row r="662" ht="13"/>
+    <row r="663" ht="13"/>
+    <row r="664" ht="13"/>
+    <row r="665" ht="13"/>
+    <row r="666" ht="13"/>
+    <row r="667" ht="13"/>
+    <row r="668" ht="13"/>
+    <row r="669" ht="13"/>
+    <row r="670" ht="13"/>
+    <row r="671" ht="13"/>
+    <row r="672" ht="13"/>
+    <row r="673" ht="13"/>
+    <row r="674" ht="13"/>
+    <row r="675" ht="13"/>
+    <row r="676" ht="13"/>
+    <row r="677" ht="13"/>
+    <row r="678" ht="13"/>
+    <row r="679" ht="13"/>
+    <row r="680" ht="13"/>
+    <row r="681" ht="13"/>
+    <row r="682" ht="13"/>
+    <row r="683" ht="13"/>
+    <row r="684" ht="13"/>
+    <row r="685" ht="13"/>
+    <row r="686" ht="13"/>
+    <row r="687" ht="13"/>
+    <row r="688" ht="13"/>
+    <row r="689" ht="13"/>
+    <row r="690" ht="13"/>
+    <row r="691" ht="13"/>
+    <row r="692" ht="13"/>
+    <row r="693" ht="13"/>
+    <row r="694" ht="13"/>
+    <row r="695" ht="13"/>
+    <row r="696" ht="13"/>
+    <row r="697" ht="13"/>
+    <row r="698" ht="13"/>
+    <row r="699" ht="13"/>
+    <row r="700" ht="13"/>
+    <row r="701" ht="13"/>
+    <row r="702" ht="13"/>
+    <row r="703" ht="13"/>
+    <row r="704" ht="13"/>
+    <row r="705" ht="13"/>
+    <row r="706" ht="13"/>
+    <row r="707" ht="13"/>
+    <row r="708" ht="13"/>
+    <row r="709" ht="13"/>
+    <row r="710" ht="13"/>
+    <row r="711" ht="13"/>
+    <row r="712" ht="13"/>
+    <row r="713" ht="13"/>
+    <row r="714" ht="13"/>
+    <row r="715" ht="13"/>
+    <row r="716" ht="13"/>
+    <row r="717" ht="13"/>
+    <row r="718" ht="13"/>
+    <row r="719" ht="13"/>
+    <row r="720" ht="13"/>
+    <row r="721" ht="13"/>
+    <row r="722" ht="13"/>
+    <row r="723" ht="13"/>
+    <row r="724" ht="13"/>
+    <row r="725" ht="13"/>
+    <row r="726" ht="13"/>
+    <row r="727" ht="13"/>
+    <row r="728" ht="13"/>
+    <row r="729" ht="13"/>
+    <row r="730" ht="13"/>
+    <row r="731" ht="13"/>
+    <row r="732" ht="13"/>
+    <row r="733" ht="13"/>
+    <row r="734" ht="13"/>
+    <row r="735" ht="13"/>
+    <row r="736" ht="13"/>
+    <row r="737" ht="13"/>
+    <row r="738" ht="13"/>
+    <row r="739" ht="13"/>
+    <row r="740" ht="13"/>
+    <row r="741" ht="13"/>
+    <row r="742" ht="13"/>
+    <row r="743" ht="13"/>
+    <row r="744" ht="13"/>
+    <row r="745" ht="13"/>
+    <row r="746" ht="13"/>
+    <row r="747" ht="13"/>
+    <row r="748" ht="13"/>
+    <row r="749" ht="13"/>
+    <row r="750" ht="13"/>
+    <row r="751" ht="13"/>
+    <row r="752" ht="13"/>
+    <row r="753" ht="13"/>
+    <row r="754" ht="13"/>
+    <row r="755" ht="13"/>
+    <row r="756" ht="13"/>
+    <row r="757" ht="13"/>
+    <row r="758" ht="13"/>
+    <row r="759" ht="13"/>
+    <row r="760" ht="13"/>
+    <row r="761" ht="13"/>
+    <row r="762" ht="13"/>
+    <row r="763" ht="13"/>
+    <row r="764" ht="13"/>
+    <row r="765" ht="13"/>
+    <row r="766" ht="13"/>
+    <row r="767" ht="13"/>
+    <row r="768" ht="13"/>
+    <row r="769" ht="13"/>
+    <row r="770" ht="13"/>
+    <row r="771" ht="13"/>
+    <row r="772" ht="13"/>
+    <row r="773" ht="13"/>
+    <row r="774" ht="13"/>
+    <row r="775" ht="13"/>
+    <row r="776" ht="13"/>
+    <row r="777" ht="13"/>
+    <row r="778" ht="13"/>
+    <row r="779" ht="13"/>
+    <row r="780" ht="13"/>
+    <row r="781" ht="13"/>
+    <row r="782" ht="13"/>
+    <row r="783" ht="13"/>
+    <row r="784" ht="13"/>
+    <row r="785" ht="13"/>
+    <row r="786" ht="13"/>
+    <row r="787" ht="13"/>
+    <row r="788" ht="13"/>
+    <row r="789" ht="13"/>
+    <row r="790" ht="13"/>
+    <row r="791" ht="13"/>
+    <row r="792" ht="13"/>
+    <row r="793" ht="13"/>
+    <row r="794" ht="13"/>
+    <row r="795" ht="13"/>
+    <row r="796" ht="13"/>
+    <row r="797" ht="13"/>
+    <row r="798" ht="13"/>
+    <row r="799" ht="13"/>
+    <row r="800" ht="13"/>
+    <row r="801" ht="13"/>
+    <row r="802" ht="13"/>
+    <row r="803" ht="13"/>
+    <row r="804" ht="13"/>
+    <row r="805" ht="13"/>
+    <row r="806" ht="13"/>
+    <row r="807" ht="13"/>
+    <row r="808" ht="13"/>
+    <row r="809" ht="13"/>
+    <row r="810" ht="13"/>
+    <row r="811" ht="13"/>
+    <row r="812" ht="13"/>
+    <row r="813" ht="13"/>
+    <row r="814" ht="13"/>
+    <row r="815" ht="13"/>
+    <row r="816" ht="13"/>
+    <row r="817" ht="13"/>
+    <row r="818" ht="13"/>
+    <row r="819" ht="13"/>
+    <row r="820" ht="13"/>
+    <row r="821" ht="13"/>
+    <row r="822" ht="13"/>
+    <row r="823" ht="13"/>
+    <row r="824" ht="13"/>
+    <row r="825" ht="13"/>
+    <row r="826" ht="13"/>
+    <row r="827" ht="13"/>
+    <row r="828" ht="13"/>
+    <row r="829" ht="13"/>
+    <row r="830" ht="13"/>
+    <row r="831" ht="13"/>
+    <row r="832" ht="13"/>
+    <row r="833" ht="13"/>
+    <row r="834" ht="13"/>
+    <row r="835" ht="13"/>
+    <row r="836" ht="13"/>
+    <row r="837" ht="13"/>
+    <row r="838" ht="13"/>
+    <row r="839" ht="13"/>
+    <row r="840" ht="13"/>
+    <row r="841" ht="13"/>
+    <row r="842" ht="13"/>
+    <row r="843" ht="13"/>
+    <row r="844" ht="13"/>
+    <row r="845" ht="13"/>
+    <row r="846" ht="13"/>
+    <row r="847" ht="13"/>
+    <row r="848" ht="13"/>
+    <row r="849" ht="13"/>
+    <row r="850" ht="13"/>
+    <row r="851" ht="13"/>
+    <row r="852" ht="13"/>
+    <row r="853" ht="13"/>
+    <row r="854" ht="13"/>
+    <row r="855" ht="13"/>
+    <row r="856" ht="13"/>
+    <row r="857" ht="13"/>
+    <row r="858" ht="13"/>
+    <row r="859" ht="13"/>
+    <row r="860" ht="13"/>
+    <row r="861" ht="13"/>
+    <row r="862" ht="13"/>
+    <row r="863" ht="13"/>
+    <row r="864" ht="13"/>
+    <row r="865" ht="13"/>
+    <row r="866" ht="13"/>
+    <row r="867" ht="13"/>
+    <row r="868" ht="13"/>
+    <row r="869" ht="13"/>
+    <row r="870" ht="13"/>
+    <row r="871" ht="13"/>
+    <row r="872" ht="13"/>
+    <row r="873" ht="13"/>
+    <row r="874" ht="13"/>
+    <row r="875" ht="13"/>
+    <row r="876" ht="13"/>
+    <row r="877" ht="13"/>
+    <row r="878" ht="13"/>
+    <row r="879" ht="13"/>
+    <row r="880" ht="13"/>
+    <row r="881" ht="13"/>
+    <row r="882" ht="13"/>
+    <row r="883" ht="13"/>
+    <row r="884" ht="13"/>
+    <row r="885" ht="13"/>
+    <row r="886" ht="13"/>
+    <row r="887" ht="13"/>
+    <row r="888" ht="13"/>
+    <row r="889" ht="13"/>
+    <row r="890" ht="13"/>
+    <row r="891" ht="13"/>
+    <row r="892" ht="13"/>
+    <row r="893" ht="13"/>
+    <row r="894" ht="13"/>
+    <row r="895" ht="13"/>
+    <row r="896" ht="13"/>
+    <row r="897" ht="13"/>
+    <row r="898" ht="13"/>
+    <row r="899" ht="13"/>
+    <row r="900" ht="13"/>
+    <row r="901" ht="13"/>
+    <row r="902" ht="13"/>
+    <row r="903" ht="13"/>
+    <row r="904" ht="13"/>
+    <row r="905" ht="13"/>
+    <row r="906" ht="13"/>
+    <row r="907" ht="13"/>
+    <row r="908" ht="13"/>
+    <row r="909" ht="13"/>
+    <row r="910" ht="13"/>
+    <row r="911" ht="13"/>
+    <row r="912" ht="13"/>
+    <row r="913" ht="13"/>
+    <row r="914" ht="13"/>
+    <row r="915" ht="13"/>
+    <row r="916" ht="13"/>
+    <row r="917" ht="13"/>
+    <row r="918" ht="13"/>
+    <row r="919" ht="13"/>
+    <row r="920" ht="13"/>
+    <row r="921" ht="13"/>
+    <row r="922" ht="13"/>
+    <row r="923" ht="13"/>
+    <row r="924" ht="13"/>
+    <row r="925" ht="13"/>
+    <row r="926" ht="13"/>
+    <row r="927" ht="13"/>
+    <row r="928" ht="13"/>
+    <row r="929" ht="13"/>
+    <row r="930" ht="13"/>
+    <row r="931" ht="13"/>
+    <row r="932" ht="13"/>
+    <row r="933" ht="13"/>
+    <row r="934" ht="13"/>
+    <row r="935" ht="13"/>
+    <row r="936" ht="13"/>
+    <row r="937" ht="13"/>
+    <row r="938" ht="13"/>
+    <row r="939" ht="13"/>
+    <row r="940" ht="13"/>
+    <row r="941" ht="13"/>
+    <row r="942" ht="13"/>
+    <row r="943" ht="13"/>
+    <row r="944" ht="13"/>
+    <row r="945" ht="13"/>
+    <row r="946" ht="13"/>
+    <row r="947" ht="13"/>
+    <row r="948" ht="13"/>
+    <row r="949" ht="13"/>
+    <row r="950" ht="13"/>
+    <row r="951" ht="13"/>
+    <row r="952" ht="13"/>
+    <row r="953" ht="13"/>
+    <row r="954" ht="13"/>
+    <row r="955" ht="13"/>
+    <row r="956" ht="13"/>
+    <row r="957" ht="13"/>
+    <row r="958" ht="13"/>
+    <row r="959" ht="13"/>
+    <row r="960" ht="13"/>
+    <row r="961" ht="13"/>
+    <row r="962" ht="13"/>
+    <row r="963" ht="13"/>
+    <row r="964" ht="13"/>
+    <row r="965" ht="13"/>
+    <row r="966" ht="13"/>
+    <row r="967" ht="13"/>
+    <row r="968" ht="13"/>
+    <row r="969" ht="13"/>
+    <row r="970" ht="13"/>
+    <row r="971" ht="13"/>
+    <row r="972" ht="13"/>
+    <row r="973" ht="13"/>
+    <row r="974" ht="13"/>
+    <row r="975" ht="13"/>
+    <row r="976" ht="13"/>
+    <row r="977" ht="13"/>
+    <row r="978" ht="13"/>
+    <row r="979" ht="13"/>
+    <row r="980" ht="13"/>
+    <row r="981" ht="13"/>
+    <row r="982" ht="13"/>
+    <row r="983" ht="13"/>
+    <row r="984" ht="13"/>
+    <row r="985" ht="13"/>
+    <row r="986" ht="13"/>
+    <row r="987" ht="13"/>
+    <row r="988" ht="13"/>
+    <row r="989" ht="13"/>
+    <row r="990" ht="13"/>
+    <row r="991" ht="13"/>
+    <row r="992" ht="13"/>
+    <row r="993" ht="13"/>
+    <row r="994" ht="13"/>
+    <row r="995" ht="13"/>
+    <row r="996" ht="13"/>
+    <row r="997" ht="13"/>
+    <row r="998" ht="13"/>
+    <row r="999" ht="13"/>
+    <row r="1000" ht="13"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -10127,15 +10130,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
@@ -10145,136 +10148,136 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14">
       <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14">
       <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14">
       <c r="A4" s="18">
         <v>26</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14">
       <c r="A5" s="18">
         <v>40</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="19" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14">
       <c r="A6" s="20">
         <v>41</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="22" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14">
       <c r="A7" s="20">
         <v>43</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="22" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14">
       <c r="A8" s="20">
         <v>45</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="13">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="13">
+    <row r="10" spans="1:4" ht="14">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="13">
+    <row r="11" spans="1:4" ht="14">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="13">
+    <row r="12" spans="1:4" ht="14">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="13">
+    <row r="13" spans="1:4" ht="14">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="13">
+    <row r="14" spans="1:4" ht="14">
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="13">
+    <row r="15" spans="1:4" ht="14">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="13">
+    <row r="16" spans="1:4" ht="14">
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="2:2" ht="13">
+    <row r="17" spans="2:2" ht="14">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:2" ht="13">
+    <row r="18" spans="2:2" ht="14">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="2:2" ht="13">
+    <row r="19" spans="2:2" ht="14">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:2" ht="13">
+    <row r="20" spans="2:2" ht="14">
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="2:2" ht="15.75" customHeight="1">
@@ -10877,786 +10880,786 @@
     <row r="220" spans="2:2" ht="15.75" customHeight="1">
       <c r="B220" s="4"/>
     </row>
-    <row r="221" spans="2:2" ht="12"/>
-    <row r="222" spans="2:2" ht="12"/>
-    <row r="223" spans="2:2" ht="12"/>
-    <row r="224" spans="2:2" ht="12"/>
-    <row r="225" ht="12"/>
-    <row r="226" ht="12"/>
-    <row r="227" ht="12"/>
-    <row r="228" ht="12"/>
-    <row r="229" ht="12"/>
-    <row r="230" ht="12"/>
-    <row r="231" ht="12"/>
-    <row r="232" ht="12"/>
-    <row r="233" ht="12"/>
-    <row r="234" ht="12"/>
-    <row r="235" ht="12"/>
-    <row r="236" ht="12"/>
-    <row r="237" ht="12"/>
-    <row r="238" ht="12"/>
-    <row r="239" ht="12"/>
-    <row r="240" ht="12"/>
-    <row r="241" ht="12"/>
-    <row r="242" ht="12"/>
-    <row r="243" ht="12"/>
-    <row r="244" ht="12"/>
-    <row r="245" ht="12"/>
-    <row r="246" ht="12"/>
-    <row r="247" ht="12"/>
-    <row r="248" ht="12"/>
-    <row r="249" ht="12"/>
-    <row r="250" ht="12"/>
-    <row r="251" ht="12"/>
-    <row r="252" ht="12"/>
-    <row r="253" ht="12"/>
-    <row r="254" ht="12"/>
-    <row r="255" ht="12"/>
-    <row r="256" ht="12"/>
-    <row r="257" ht="12"/>
-    <row r="258" ht="12"/>
-    <row r="259" ht="12"/>
-    <row r="260" ht="12"/>
-    <row r="261" ht="12"/>
-    <row r="262" ht="12"/>
-    <row r="263" ht="12"/>
-    <row r="264" ht="12"/>
-    <row r="265" ht="12"/>
-    <row r="266" ht="12"/>
-    <row r="267" ht="12"/>
-    <row r="268" ht="12"/>
-    <row r="269" ht="12"/>
-    <row r="270" ht="12"/>
-    <row r="271" ht="12"/>
-    <row r="272" ht="12"/>
-    <row r="273" ht="12"/>
-    <row r="274" ht="12"/>
-    <row r="275" ht="12"/>
-    <row r="276" ht="12"/>
-    <row r="277" ht="12"/>
-    <row r="278" ht="12"/>
-    <row r="279" ht="12"/>
-    <row r="280" ht="12"/>
-    <row r="281" ht="12"/>
-    <row r="282" ht="12"/>
-    <row r="283" ht="12"/>
-    <row r="284" ht="12"/>
-    <row r="285" ht="12"/>
-    <row r="286" ht="12"/>
-    <row r="287" ht="12"/>
-    <row r="288" ht="12"/>
-    <row r="289" ht="12"/>
-    <row r="290" ht="12"/>
-    <row r="291" ht="12"/>
-    <row r="292" ht="12"/>
-    <row r="293" ht="12"/>
-    <row r="294" ht="12"/>
-    <row r="295" ht="12"/>
-    <row r="296" ht="12"/>
-    <row r="297" ht="12"/>
-    <row r="298" ht="12"/>
-    <row r="299" ht="12"/>
-    <row r="300" ht="12"/>
-    <row r="301" ht="12"/>
-    <row r="302" ht="12"/>
-    <row r="303" ht="12"/>
-    <row r="304" ht="12"/>
-    <row r="305" ht="12"/>
-    <row r="306" ht="12"/>
-    <row r="307" ht="12"/>
-    <row r="308" ht="12"/>
-    <row r="309" ht="12"/>
-    <row r="310" ht="12"/>
-    <row r="311" ht="12"/>
-    <row r="312" ht="12"/>
-    <row r="313" ht="12"/>
-    <row r="314" ht="12"/>
-    <row r="315" ht="12"/>
-    <row r="316" ht="12"/>
-    <row r="317" ht="12"/>
-    <row r="318" ht="12"/>
-    <row r="319" ht="12"/>
-    <row r="320" ht="12"/>
-    <row r="321" ht="12"/>
-    <row r="322" ht="12"/>
-    <row r="323" ht="12"/>
-    <row r="324" ht="12"/>
-    <row r="325" ht="12"/>
-    <row r="326" ht="12"/>
-    <row r="327" ht="12"/>
-    <row r="328" ht="12"/>
-    <row r="329" ht="12"/>
-    <row r="330" ht="12"/>
-    <row r="331" ht="12"/>
-    <row r="332" ht="12"/>
-    <row r="333" ht="12"/>
-    <row r="334" ht="12"/>
-    <row r="335" ht="12"/>
-    <row r="336" ht="12"/>
-    <row r="337" ht="12"/>
-    <row r="338" ht="12"/>
-    <row r="339" ht="12"/>
-    <row r="340" ht="12"/>
-    <row r="341" ht="12"/>
-    <row r="342" ht="12"/>
-    <row r="343" ht="12"/>
-    <row r="344" ht="12"/>
-    <row r="345" ht="12"/>
-    <row r="346" ht="12"/>
-    <row r="347" ht="12"/>
-    <row r="348" ht="12"/>
-    <row r="349" ht="12"/>
-    <row r="350" ht="12"/>
-    <row r="351" ht="12"/>
-    <row r="352" ht="12"/>
-    <row r="353" ht="12"/>
-    <row r="354" ht="12"/>
-    <row r="355" ht="12"/>
-    <row r="356" ht="12"/>
-    <row r="357" ht="12"/>
-    <row r="358" ht="12"/>
-    <row r="359" ht="12"/>
-    <row r="360" ht="12"/>
-    <row r="361" ht="12"/>
-    <row r="362" ht="12"/>
-    <row r="363" ht="12"/>
-    <row r="364" ht="12"/>
-    <row r="365" ht="12"/>
-    <row r="366" ht="12"/>
-    <row r="367" ht="12"/>
-    <row r="368" ht="12"/>
-    <row r="369" ht="12"/>
-    <row r="370" ht="12"/>
-    <row r="371" ht="12"/>
-    <row r="372" ht="12"/>
-    <row r="373" ht="12"/>
-    <row r="374" ht="12"/>
-    <row r="375" ht="12"/>
-    <row r="376" ht="12"/>
-    <row r="377" ht="12"/>
-    <row r="378" ht="12"/>
-    <row r="379" ht="12"/>
-    <row r="380" ht="12"/>
-    <row r="381" ht="12"/>
-    <row r="382" ht="12"/>
-    <row r="383" ht="12"/>
-    <row r="384" ht="12"/>
-    <row r="385" ht="12"/>
-    <row r="386" ht="12"/>
-    <row r="387" ht="12"/>
-    <row r="388" ht="12"/>
-    <row r="389" ht="12"/>
-    <row r="390" ht="12"/>
-    <row r="391" ht="12"/>
-    <row r="392" ht="12"/>
-    <row r="393" ht="12"/>
-    <row r="394" ht="12"/>
-    <row r="395" ht="12"/>
-    <row r="396" ht="12"/>
-    <row r="397" ht="12"/>
-    <row r="398" ht="12"/>
-    <row r="399" ht="12"/>
-    <row r="400" ht="12"/>
-    <row r="401" ht="12"/>
-    <row r="402" ht="12"/>
-    <row r="403" ht="12"/>
-    <row r="404" ht="12"/>
-    <row r="405" ht="12"/>
-    <row r="406" ht="12"/>
-    <row r="407" ht="12"/>
-    <row r="408" ht="12"/>
-    <row r="409" ht="12"/>
-    <row r="410" ht="12"/>
-    <row r="411" ht="12"/>
-    <row r="412" ht="12"/>
-    <row r="413" ht="12"/>
-    <row r="414" ht="12"/>
-    <row r="415" ht="12"/>
-    <row r="416" ht="12"/>
-    <row r="417" ht="12"/>
-    <row r="418" ht="12"/>
-    <row r="419" ht="12"/>
-    <row r="420" ht="12"/>
-    <row r="421" ht="12"/>
-    <row r="422" ht="12"/>
-    <row r="423" ht="12"/>
-    <row r="424" ht="12"/>
-    <row r="425" ht="12"/>
-    <row r="426" ht="12"/>
-    <row r="427" ht="12"/>
-    <row r="428" ht="12"/>
-    <row r="429" ht="12"/>
-    <row r="430" ht="12"/>
-    <row r="431" ht="12"/>
-    <row r="432" ht="12"/>
-    <row r="433" ht="12"/>
-    <row r="434" ht="12"/>
-    <row r="435" ht="12"/>
-    <row r="436" ht="12"/>
-    <row r="437" ht="12"/>
-    <row r="438" ht="12"/>
-    <row r="439" ht="12"/>
-    <row r="440" ht="12"/>
-    <row r="441" ht="12"/>
-    <row r="442" ht="12"/>
-    <row r="443" ht="12"/>
-    <row r="444" ht="12"/>
-    <row r="445" ht="12"/>
-    <row r="446" ht="12"/>
-    <row r="447" ht="12"/>
-    <row r="448" ht="12"/>
-    <row r="449" ht="12"/>
-    <row r="450" ht="12"/>
-    <row r="451" ht="12"/>
-    <row r="452" ht="12"/>
-    <row r="453" ht="12"/>
-    <row r="454" ht="12"/>
-    <row r="455" ht="12"/>
-    <row r="456" ht="12"/>
-    <row r="457" ht="12"/>
-    <row r="458" ht="12"/>
-    <row r="459" ht="12"/>
-    <row r="460" ht="12"/>
-    <row r="461" ht="12"/>
-    <row r="462" ht="12"/>
-    <row r="463" ht="12"/>
-    <row r="464" ht="12"/>
-    <row r="465" ht="12"/>
-    <row r="466" ht="12"/>
-    <row r="467" ht="12"/>
-    <row r="468" ht="12"/>
-    <row r="469" ht="12"/>
-    <row r="470" ht="12"/>
-    <row r="471" ht="12"/>
-    <row r="472" ht="12"/>
-    <row r="473" ht="12"/>
-    <row r="474" ht="12"/>
-    <row r="475" ht="12"/>
-    <row r="476" ht="12"/>
-    <row r="477" ht="12"/>
-    <row r="478" ht="12"/>
-    <row r="479" ht="12"/>
-    <row r="480" ht="12"/>
-    <row r="481" ht="12"/>
-    <row r="482" ht="12"/>
-    <row r="483" ht="12"/>
-    <row r="484" ht="12"/>
-    <row r="485" ht="12"/>
-    <row r="486" ht="12"/>
-    <row r="487" ht="12"/>
-    <row r="488" ht="12"/>
-    <row r="489" ht="12"/>
-    <row r="490" ht="12"/>
-    <row r="491" ht="12"/>
-    <row r="492" ht="12"/>
-    <row r="493" ht="12"/>
-    <row r="494" ht="12"/>
-    <row r="495" ht="12"/>
-    <row r="496" ht="12"/>
-    <row r="497" ht="12"/>
-    <row r="498" ht="12"/>
-    <row r="499" ht="12"/>
-    <row r="500" ht="12"/>
-    <row r="501" ht="12"/>
-    <row r="502" ht="12"/>
-    <row r="503" ht="12"/>
-    <row r="504" ht="12"/>
-    <row r="505" ht="12"/>
-    <row r="506" ht="12"/>
-    <row r="507" ht="12"/>
-    <row r="508" ht="12"/>
-    <row r="509" ht="12"/>
-    <row r="510" ht="12"/>
-    <row r="511" ht="12"/>
-    <row r="512" ht="12"/>
-    <row r="513" ht="12"/>
-    <row r="514" ht="12"/>
-    <row r="515" ht="12"/>
-    <row r="516" ht="12"/>
-    <row r="517" ht="12"/>
-    <row r="518" ht="12"/>
-    <row r="519" ht="12"/>
-    <row r="520" ht="12"/>
-    <row r="521" ht="12"/>
-    <row r="522" ht="12"/>
-    <row r="523" ht="12"/>
-    <row r="524" ht="12"/>
-    <row r="525" ht="12"/>
-    <row r="526" ht="12"/>
-    <row r="527" ht="12"/>
-    <row r="528" ht="12"/>
-    <row r="529" ht="12"/>
-    <row r="530" ht="12"/>
-    <row r="531" ht="12"/>
-    <row r="532" ht="12"/>
-    <row r="533" ht="12"/>
-    <row r="534" ht="12"/>
-    <row r="535" ht="12"/>
-    <row r="536" ht="12"/>
-    <row r="537" ht="12"/>
-    <row r="538" ht="12"/>
-    <row r="539" ht="12"/>
-    <row r="540" ht="12"/>
-    <row r="541" ht="12"/>
-    <row r="542" ht="12"/>
-    <row r="543" ht="12"/>
-    <row r="544" ht="12"/>
-    <row r="545" ht="12"/>
-    <row r="546" ht="12"/>
-    <row r="547" ht="12"/>
-    <row r="548" ht="12"/>
-    <row r="549" ht="12"/>
-    <row r="550" ht="12"/>
-    <row r="551" ht="12"/>
-    <row r="552" ht="12"/>
-    <row r="553" ht="12"/>
-    <row r="554" ht="12"/>
-    <row r="555" ht="12"/>
-    <row r="556" ht="12"/>
-    <row r="557" ht="12"/>
-    <row r="558" ht="12"/>
-    <row r="559" ht="12"/>
-    <row r="560" ht="12"/>
-    <row r="561" ht="12"/>
-    <row r="562" ht="12"/>
-    <row r="563" ht="12"/>
-    <row r="564" ht="12"/>
-    <row r="565" ht="12"/>
-    <row r="566" ht="12"/>
-    <row r="567" ht="12"/>
-    <row r="568" ht="12"/>
-    <row r="569" ht="12"/>
-    <row r="570" ht="12"/>
-    <row r="571" ht="12"/>
-    <row r="572" ht="12"/>
-    <row r="573" ht="12"/>
-    <row r="574" ht="12"/>
-    <row r="575" ht="12"/>
-    <row r="576" ht="12"/>
-    <row r="577" ht="12"/>
-    <row r="578" ht="12"/>
-    <row r="579" ht="12"/>
-    <row r="580" ht="12"/>
-    <row r="581" ht="12"/>
-    <row r="582" ht="12"/>
-    <row r="583" ht="12"/>
-    <row r="584" ht="12"/>
-    <row r="585" ht="12"/>
-    <row r="586" ht="12"/>
-    <row r="587" ht="12"/>
-    <row r="588" ht="12"/>
-    <row r="589" ht="12"/>
-    <row r="590" ht="12"/>
-    <row r="591" ht="12"/>
-    <row r="592" ht="12"/>
-    <row r="593" ht="12"/>
-    <row r="594" ht="12"/>
-    <row r="595" ht="12"/>
-    <row r="596" ht="12"/>
-    <row r="597" ht="12"/>
-    <row r="598" ht="12"/>
-    <row r="599" ht="12"/>
-    <row r="600" ht="12"/>
-    <row r="601" ht="12"/>
-    <row r="602" ht="12"/>
-    <row r="603" ht="12"/>
-    <row r="604" ht="12"/>
-    <row r="605" ht="12"/>
-    <row r="606" ht="12"/>
-    <row r="607" ht="12"/>
-    <row r="608" ht="12"/>
-    <row r="609" ht="12"/>
-    <row r="610" ht="12"/>
-    <row r="611" ht="12"/>
-    <row r="612" ht="12"/>
-    <row r="613" ht="12"/>
-    <row r="614" ht="12"/>
-    <row r="615" ht="12"/>
-    <row r="616" ht="12"/>
-    <row r="617" ht="12"/>
-    <row r="618" ht="12"/>
-    <row r="619" ht="12"/>
-    <row r="620" ht="12"/>
-    <row r="621" ht="12"/>
-    <row r="622" ht="12"/>
-    <row r="623" ht="12"/>
-    <row r="624" ht="12"/>
-    <row r="625" ht="12"/>
-    <row r="626" ht="12"/>
-    <row r="627" ht="12"/>
-    <row r="628" ht="12"/>
-    <row r="629" ht="12"/>
-    <row r="630" ht="12"/>
-    <row r="631" ht="12"/>
-    <row r="632" ht="12"/>
-    <row r="633" ht="12"/>
-    <row r="634" ht="12"/>
-    <row r="635" ht="12"/>
-    <row r="636" ht="12"/>
-    <row r="637" ht="12"/>
-    <row r="638" ht="12"/>
-    <row r="639" ht="12"/>
-    <row r="640" ht="12"/>
-    <row r="641" ht="12"/>
-    <row r="642" ht="12"/>
-    <row r="643" ht="12"/>
-    <row r="644" ht="12"/>
-    <row r="645" ht="12"/>
-    <row r="646" ht="12"/>
-    <row r="647" ht="12"/>
-    <row r="648" ht="12"/>
-    <row r="649" ht="12"/>
-    <row r="650" ht="12"/>
-    <row r="651" ht="12"/>
-    <row r="652" ht="12"/>
-    <row r="653" ht="12"/>
-    <row r="654" ht="12"/>
-    <row r="655" ht="12"/>
-    <row r="656" ht="12"/>
-    <row r="657" ht="12"/>
-    <row r="658" ht="12"/>
-    <row r="659" ht="12"/>
-    <row r="660" ht="12"/>
-    <row r="661" ht="12"/>
-    <row r="662" ht="12"/>
-    <row r="663" ht="12"/>
-    <row r="664" ht="12"/>
-    <row r="665" ht="12"/>
-    <row r="666" ht="12"/>
-    <row r="667" ht="12"/>
-    <row r="668" ht="12"/>
-    <row r="669" ht="12"/>
-    <row r="670" ht="12"/>
-    <row r="671" ht="12"/>
-    <row r="672" ht="12"/>
-    <row r="673" ht="12"/>
-    <row r="674" ht="12"/>
-    <row r="675" ht="12"/>
-    <row r="676" ht="12"/>
-    <row r="677" ht="12"/>
-    <row r="678" ht="12"/>
-    <row r="679" ht="12"/>
-    <row r="680" ht="12"/>
-    <row r="681" ht="12"/>
-    <row r="682" ht="12"/>
-    <row r="683" ht="12"/>
-    <row r="684" ht="12"/>
-    <row r="685" ht="12"/>
-    <row r="686" ht="12"/>
-    <row r="687" ht="12"/>
-    <row r="688" ht="12"/>
-    <row r="689" ht="12"/>
-    <row r="690" ht="12"/>
-    <row r="691" ht="12"/>
-    <row r="692" ht="12"/>
-    <row r="693" ht="12"/>
-    <row r="694" ht="12"/>
-    <row r="695" ht="12"/>
-    <row r="696" ht="12"/>
-    <row r="697" ht="12"/>
-    <row r="698" ht="12"/>
-    <row r="699" ht="12"/>
-    <row r="700" ht="12"/>
-    <row r="701" ht="12"/>
-    <row r="702" ht="12"/>
-    <row r="703" ht="12"/>
-    <row r="704" ht="12"/>
-    <row r="705" ht="12"/>
-    <row r="706" ht="12"/>
-    <row r="707" ht="12"/>
-    <row r="708" ht="12"/>
-    <row r="709" ht="12"/>
-    <row r="710" ht="12"/>
-    <row r="711" ht="12"/>
-    <row r="712" ht="12"/>
-    <row r="713" ht="12"/>
-    <row r="714" ht="12"/>
-    <row r="715" ht="12"/>
-    <row r="716" ht="12"/>
-    <row r="717" ht="12"/>
-    <row r="718" ht="12"/>
-    <row r="719" ht="12"/>
-    <row r="720" ht="12"/>
-    <row r="721" ht="12"/>
-    <row r="722" ht="12"/>
-    <row r="723" ht="12"/>
-    <row r="724" ht="12"/>
-    <row r="725" ht="12"/>
-    <row r="726" ht="12"/>
-    <row r="727" ht="12"/>
-    <row r="728" ht="12"/>
-    <row r="729" ht="12"/>
-    <row r="730" ht="12"/>
-    <row r="731" ht="12"/>
-    <row r="732" ht="12"/>
-    <row r="733" ht="12"/>
-    <row r="734" ht="12"/>
-    <row r="735" ht="12"/>
-    <row r="736" ht="12"/>
-    <row r="737" ht="12"/>
-    <row r="738" ht="12"/>
-    <row r="739" ht="12"/>
-    <row r="740" ht="12"/>
-    <row r="741" ht="12"/>
-    <row r="742" ht="12"/>
-    <row r="743" ht="12"/>
-    <row r="744" ht="12"/>
-    <row r="745" ht="12"/>
-    <row r="746" ht="12"/>
-    <row r="747" ht="12"/>
-    <row r="748" ht="12"/>
-    <row r="749" ht="12"/>
-    <row r="750" ht="12"/>
-    <row r="751" ht="12"/>
-    <row r="752" ht="12"/>
-    <row r="753" ht="12"/>
-    <row r="754" ht="12"/>
-    <row r="755" ht="12"/>
-    <row r="756" ht="12"/>
-    <row r="757" ht="12"/>
-    <row r="758" ht="12"/>
-    <row r="759" ht="12"/>
-    <row r="760" ht="12"/>
-    <row r="761" ht="12"/>
-    <row r="762" ht="12"/>
-    <row r="763" ht="12"/>
-    <row r="764" ht="12"/>
-    <row r="765" ht="12"/>
-    <row r="766" ht="12"/>
-    <row r="767" ht="12"/>
-    <row r="768" ht="12"/>
-    <row r="769" ht="12"/>
-    <row r="770" ht="12"/>
-    <row r="771" ht="12"/>
-    <row r="772" ht="12"/>
-    <row r="773" ht="12"/>
-    <row r="774" ht="12"/>
-    <row r="775" ht="12"/>
-    <row r="776" ht="12"/>
-    <row r="777" ht="12"/>
-    <row r="778" ht="12"/>
-    <row r="779" ht="12"/>
-    <row r="780" ht="12"/>
-    <row r="781" ht="12"/>
-    <row r="782" ht="12"/>
-    <row r="783" ht="12"/>
-    <row r="784" ht="12"/>
-    <row r="785" ht="12"/>
-    <row r="786" ht="12"/>
-    <row r="787" ht="12"/>
-    <row r="788" ht="12"/>
-    <row r="789" ht="12"/>
-    <row r="790" ht="12"/>
-    <row r="791" ht="12"/>
-    <row r="792" ht="12"/>
-    <row r="793" ht="12"/>
-    <row r="794" ht="12"/>
-    <row r="795" ht="12"/>
-    <row r="796" ht="12"/>
-    <row r="797" ht="12"/>
-    <row r="798" ht="12"/>
-    <row r="799" ht="12"/>
-    <row r="800" ht="12"/>
-    <row r="801" ht="12"/>
-    <row r="802" ht="12"/>
-    <row r="803" ht="12"/>
-    <row r="804" ht="12"/>
-    <row r="805" ht="12"/>
-    <row r="806" ht="12"/>
-    <row r="807" ht="12"/>
-    <row r="808" ht="12"/>
-    <row r="809" ht="12"/>
-    <row r="810" ht="12"/>
-    <row r="811" ht="12"/>
-    <row r="812" ht="12"/>
-    <row r="813" ht="12"/>
-    <row r="814" ht="12"/>
-    <row r="815" ht="12"/>
-    <row r="816" ht="12"/>
-    <row r="817" ht="12"/>
-    <row r="818" ht="12"/>
-    <row r="819" ht="12"/>
-    <row r="820" ht="12"/>
-    <row r="821" ht="12"/>
-    <row r="822" ht="12"/>
-    <row r="823" ht="12"/>
-    <row r="824" ht="12"/>
-    <row r="825" ht="12"/>
-    <row r="826" ht="12"/>
-    <row r="827" ht="12"/>
-    <row r="828" ht="12"/>
-    <row r="829" ht="12"/>
-    <row r="830" ht="12"/>
-    <row r="831" ht="12"/>
-    <row r="832" ht="12"/>
-    <row r="833" ht="12"/>
-    <row r="834" ht="12"/>
-    <row r="835" ht="12"/>
-    <row r="836" ht="12"/>
-    <row r="837" ht="12"/>
-    <row r="838" ht="12"/>
-    <row r="839" ht="12"/>
-    <row r="840" ht="12"/>
-    <row r="841" ht="12"/>
-    <row r="842" ht="12"/>
-    <row r="843" ht="12"/>
-    <row r="844" ht="12"/>
-    <row r="845" ht="12"/>
-    <row r="846" ht="12"/>
-    <row r="847" ht="12"/>
-    <row r="848" ht="12"/>
-    <row r="849" ht="12"/>
-    <row r="850" ht="12"/>
-    <row r="851" ht="12"/>
-    <row r="852" ht="12"/>
-    <row r="853" ht="12"/>
-    <row r="854" ht="12"/>
-    <row r="855" ht="12"/>
-    <row r="856" ht="12"/>
-    <row r="857" ht="12"/>
-    <row r="858" ht="12"/>
-    <row r="859" ht="12"/>
-    <row r="860" ht="12"/>
-    <row r="861" ht="12"/>
-    <row r="862" ht="12"/>
-    <row r="863" ht="12"/>
-    <row r="864" ht="12"/>
-    <row r="865" ht="12"/>
-    <row r="866" ht="12"/>
-    <row r="867" ht="12"/>
-    <row r="868" ht="12"/>
-    <row r="869" ht="12"/>
-    <row r="870" ht="12"/>
-    <row r="871" ht="12"/>
-    <row r="872" ht="12"/>
-    <row r="873" ht="12"/>
-    <row r="874" ht="12"/>
-    <row r="875" ht="12"/>
-    <row r="876" ht="12"/>
-    <row r="877" ht="12"/>
-    <row r="878" ht="12"/>
-    <row r="879" ht="12"/>
-    <row r="880" ht="12"/>
-    <row r="881" ht="12"/>
-    <row r="882" ht="12"/>
-    <row r="883" ht="12"/>
-    <row r="884" ht="12"/>
-    <row r="885" ht="12"/>
-    <row r="886" ht="12"/>
-    <row r="887" ht="12"/>
-    <row r="888" ht="12"/>
-    <row r="889" ht="12"/>
-    <row r="890" ht="12"/>
-    <row r="891" ht="12"/>
-    <row r="892" ht="12"/>
-    <row r="893" ht="12"/>
-    <row r="894" ht="12"/>
-    <row r="895" ht="12"/>
-    <row r="896" ht="12"/>
-    <row r="897" ht="12"/>
-    <row r="898" ht="12"/>
-    <row r="899" ht="12"/>
-    <row r="900" ht="12"/>
-    <row r="901" ht="12"/>
-    <row r="902" ht="12"/>
-    <row r="903" ht="12"/>
-    <row r="904" ht="12"/>
-    <row r="905" ht="12"/>
-    <row r="906" ht="12"/>
-    <row r="907" ht="12"/>
-    <row r="908" ht="12"/>
-    <row r="909" ht="12"/>
-    <row r="910" ht="12"/>
-    <row r="911" ht="12"/>
-    <row r="912" ht="12"/>
-    <row r="913" ht="12"/>
-    <row r="914" ht="12"/>
-    <row r="915" ht="12"/>
-    <row r="916" ht="12"/>
-    <row r="917" ht="12"/>
-    <row r="918" ht="12"/>
-    <row r="919" ht="12"/>
-    <row r="920" ht="12"/>
-    <row r="921" ht="12"/>
-    <row r="922" ht="12"/>
-    <row r="923" ht="12"/>
-    <row r="924" ht="12"/>
-    <row r="925" ht="12"/>
-    <row r="926" ht="12"/>
-    <row r="927" ht="12"/>
-    <row r="928" ht="12"/>
-    <row r="929" ht="12"/>
-    <row r="930" ht="12"/>
-    <row r="931" ht="12"/>
-    <row r="932" ht="12"/>
-    <row r="933" ht="12"/>
-    <row r="934" ht="12"/>
-    <row r="935" ht="12"/>
-    <row r="936" ht="12"/>
-    <row r="937" ht="12"/>
-    <row r="938" ht="12"/>
-    <row r="939" ht="12"/>
-    <row r="940" ht="12"/>
-    <row r="941" ht="12"/>
-    <row r="942" ht="12"/>
-    <row r="943" ht="12"/>
-    <row r="944" ht="12"/>
-    <row r="945" ht="12"/>
-    <row r="946" ht="12"/>
-    <row r="947" ht="12"/>
-    <row r="948" ht="12"/>
-    <row r="949" ht="12"/>
-    <row r="950" ht="12"/>
-    <row r="951" ht="12"/>
-    <row r="952" ht="12"/>
-    <row r="953" ht="12"/>
-    <row r="954" ht="12"/>
-    <row r="955" ht="12"/>
-    <row r="956" ht="12"/>
-    <row r="957" ht="12"/>
-    <row r="958" ht="12"/>
-    <row r="959" ht="12"/>
-    <row r="960" ht="12"/>
-    <row r="961" ht="12"/>
-    <row r="962" ht="12"/>
-    <row r="963" ht="12"/>
-    <row r="964" ht="12"/>
-    <row r="965" ht="12"/>
-    <row r="966" ht="12"/>
-    <row r="967" ht="12"/>
-    <row r="968" ht="12"/>
-    <row r="969" ht="12"/>
-    <row r="970" ht="12"/>
-    <row r="971" ht="12"/>
-    <row r="972" ht="12"/>
-    <row r="973" ht="12"/>
-    <row r="974" ht="12"/>
-    <row r="975" ht="12"/>
-    <row r="976" ht="12"/>
-    <row r="977" ht="12"/>
-    <row r="978" ht="12"/>
-    <row r="979" ht="12"/>
-    <row r="980" ht="12"/>
-    <row r="981" ht="12"/>
-    <row r="982" ht="12"/>
-    <row r="983" ht="12"/>
-    <row r="984" ht="12"/>
-    <row r="985" ht="12"/>
-    <row r="986" ht="12"/>
-    <row r="987" ht="12"/>
-    <row r="988" ht="12"/>
-    <row r="989" ht="12"/>
-    <row r="990" ht="12"/>
-    <row r="991" ht="12"/>
-    <row r="992" ht="12"/>
-    <row r="993" ht="12"/>
-    <row r="994" ht="12"/>
-    <row r="995" ht="12"/>
-    <row r="996" ht="12"/>
-    <row r="997" ht="12"/>
-    <row r="998" ht="12"/>
-    <row r="999" ht="12"/>
-    <row r="1000" ht="12"/>
+    <row r="221" spans="2:2" ht="13"/>
+    <row r="222" spans="2:2" ht="13"/>
+    <row r="223" spans="2:2" ht="13"/>
+    <row r="224" spans="2:2" ht="13"/>
+    <row r="225" ht="13"/>
+    <row r="226" ht="13"/>
+    <row r="227" ht="13"/>
+    <row r="228" ht="13"/>
+    <row r="229" ht="13"/>
+    <row r="230" ht="13"/>
+    <row r="231" ht="13"/>
+    <row r="232" ht="13"/>
+    <row r="233" ht="13"/>
+    <row r="234" ht="13"/>
+    <row r="235" ht="13"/>
+    <row r="236" ht="13"/>
+    <row r="237" ht="13"/>
+    <row r="238" ht="13"/>
+    <row r="239" ht="13"/>
+    <row r="240" ht="13"/>
+    <row r="241" ht="13"/>
+    <row r="242" ht="13"/>
+    <row r="243" ht="13"/>
+    <row r="244" ht="13"/>
+    <row r="245" ht="13"/>
+    <row r="246" ht="13"/>
+    <row r="247" ht="13"/>
+    <row r="248" ht="13"/>
+    <row r="249" ht="13"/>
+    <row r="250" ht="13"/>
+    <row r="251" ht="13"/>
+    <row r="252" ht="13"/>
+    <row r="253" ht="13"/>
+    <row r="254" ht="13"/>
+    <row r="255" ht="13"/>
+    <row r="256" ht="13"/>
+    <row r="257" ht="13"/>
+    <row r="258" ht="13"/>
+    <row r="259" ht="13"/>
+    <row r="260" ht="13"/>
+    <row r="261" ht="13"/>
+    <row r="262" ht="13"/>
+    <row r="263" ht="13"/>
+    <row r="264" ht="13"/>
+    <row r="265" ht="13"/>
+    <row r="266" ht="13"/>
+    <row r="267" ht="13"/>
+    <row r="268" ht="13"/>
+    <row r="269" ht="13"/>
+    <row r="270" ht="13"/>
+    <row r="271" ht="13"/>
+    <row r="272" ht="13"/>
+    <row r="273" ht="13"/>
+    <row r="274" ht="13"/>
+    <row r="275" ht="13"/>
+    <row r="276" ht="13"/>
+    <row r="277" ht="13"/>
+    <row r="278" ht="13"/>
+    <row r="279" ht="13"/>
+    <row r="280" ht="13"/>
+    <row r="281" ht="13"/>
+    <row r="282" ht="13"/>
+    <row r="283" ht="13"/>
+    <row r="284" ht="13"/>
+    <row r="285" ht="13"/>
+    <row r="286" ht="13"/>
+    <row r="287" ht="13"/>
+    <row r="288" ht="13"/>
+    <row r="289" ht="13"/>
+    <row r="290" ht="13"/>
+    <row r="291" ht="13"/>
+    <row r="292" ht="13"/>
+    <row r="293" ht="13"/>
+    <row r="294" ht="13"/>
+    <row r="295" ht="13"/>
+    <row r="296" ht="13"/>
+    <row r="297" ht="13"/>
+    <row r="298" ht="13"/>
+    <row r="299" ht="13"/>
+    <row r="300" ht="13"/>
+    <row r="301" ht="13"/>
+    <row r="302" ht="13"/>
+    <row r="303" ht="13"/>
+    <row r="304" ht="13"/>
+    <row r="305" ht="13"/>
+    <row r="306" ht="13"/>
+    <row r="307" ht="13"/>
+    <row r="308" ht="13"/>
+    <row r="309" ht="13"/>
+    <row r="310" ht="13"/>
+    <row r="311" ht="13"/>
+    <row r="312" ht="13"/>
+    <row r="313" ht="13"/>
+    <row r="314" ht="13"/>
+    <row r="315" ht="13"/>
+    <row r="316" ht="13"/>
+    <row r="317" ht="13"/>
+    <row r="318" ht="13"/>
+    <row r="319" ht="13"/>
+    <row r="320" ht="13"/>
+    <row r="321" ht="13"/>
+    <row r="322" ht="13"/>
+    <row r="323" ht="13"/>
+    <row r="324" ht="13"/>
+    <row r="325" ht="13"/>
+    <row r="326" ht="13"/>
+    <row r="327" ht="13"/>
+    <row r="328" ht="13"/>
+    <row r="329" ht="13"/>
+    <row r="330" ht="13"/>
+    <row r="331" ht="13"/>
+    <row r="332" ht="13"/>
+    <row r="333" ht="13"/>
+    <row r="334" ht="13"/>
+    <row r="335" ht="13"/>
+    <row r="336" ht="13"/>
+    <row r="337" ht="13"/>
+    <row r="338" ht="13"/>
+    <row r="339" ht="13"/>
+    <row r="340" ht="13"/>
+    <row r="341" ht="13"/>
+    <row r="342" ht="13"/>
+    <row r="343" ht="13"/>
+    <row r="344" ht="13"/>
+    <row r="345" ht="13"/>
+    <row r="346" ht="13"/>
+    <row r="347" ht="13"/>
+    <row r="348" ht="13"/>
+    <row r="349" ht="13"/>
+    <row r="350" ht="13"/>
+    <row r="351" ht="13"/>
+    <row r="352" ht="13"/>
+    <row r="353" ht="13"/>
+    <row r="354" ht="13"/>
+    <row r="355" ht="13"/>
+    <row r="356" ht="13"/>
+    <row r="357" ht="13"/>
+    <row r="358" ht="13"/>
+    <row r="359" ht="13"/>
+    <row r="360" ht="13"/>
+    <row r="361" ht="13"/>
+    <row r="362" ht="13"/>
+    <row r="363" ht="13"/>
+    <row r="364" ht="13"/>
+    <row r="365" ht="13"/>
+    <row r="366" ht="13"/>
+    <row r="367" ht="13"/>
+    <row r="368" ht="13"/>
+    <row r="369" ht="13"/>
+    <row r="370" ht="13"/>
+    <row r="371" ht="13"/>
+    <row r="372" ht="13"/>
+    <row r="373" ht="13"/>
+    <row r="374" ht="13"/>
+    <row r="375" ht="13"/>
+    <row r="376" ht="13"/>
+    <row r="377" ht="13"/>
+    <row r="378" ht="13"/>
+    <row r="379" ht="13"/>
+    <row r="380" ht="13"/>
+    <row r="381" ht="13"/>
+    <row r="382" ht="13"/>
+    <row r="383" ht="13"/>
+    <row r="384" ht="13"/>
+    <row r="385" ht="13"/>
+    <row r="386" ht="13"/>
+    <row r="387" ht="13"/>
+    <row r="388" ht="13"/>
+    <row r="389" ht="13"/>
+    <row r="390" ht="13"/>
+    <row r="391" ht="13"/>
+    <row r="392" ht="13"/>
+    <row r="393" ht="13"/>
+    <row r="394" ht="13"/>
+    <row r="395" ht="13"/>
+    <row r="396" ht="13"/>
+    <row r="397" ht="13"/>
+    <row r="398" ht="13"/>
+    <row r="399" ht="13"/>
+    <row r="400" ht="13"/>
+    <row r="401" ht="13"/>
+    <row r="402" ht="13"/>
+    <row r="403" ht="13"/>
+    <row r="404" ht="13"/>
+    <row r="405" ht="13"/>
+    <row r="406" ht="13"/>
+    <row r="407" ht="13"/>
+    <row r="408" ht="13"/>
+    <row r="409" ht="13"/>
+    <row r="410" ht="13"/>
+    <row r="411" ht="13"/>
+    <row r="412" ht="13"/>
+    <row r="413" ht="13"/>
+    <row r="414" ht="13"/>
+    <row r="415" ht="13"/>
+    <row r="416" ht="13"/>
+    <row r="417" ht="13"/>
+    <row r="418" ht="13"/>
+    <row r="419" ht="13"/>
+    <row r="420" ht="13"/>
+    <row r="421" ht="13"/>
+    <row r="422" ht="13"/>
+    <row r="423" ht="13"/>
+    <row r="424" ht="13"/>
+    <row r="425" ht="13"/>
+    <row r="426" ht="13"/>
+    <row r="427" ht="13"/>
+    <row r="428" ht="13"/>
+    <row r="429" ht="13"/>
+    <row r="430" ht="13"/>
+    <row r="431" ht="13"/>
+    <row r="432" ht="13"/>
+    <row r="433" ht="13"/>
+    <row r="434" ht="13"/>
+    <row r="435" ht="13"/>
+    <row r="436" ht="13"/>
+    <row r="437" ht="13"/>
+    <row r="438" ht="13"/>
+    <row r="439" ht="13"/>
+    <row r="440" ht="13"/>
+    <row r="441" ht="13"/>
+    <row r="442" ht="13"/>
+    <row r="443" ht="13"/>
+    <row r="444" ht="13"/>
+    <row r="445" ht="13"/>
+    <row r="446" ht="13"/>
+    <row r="447" ht="13"/>
+    <row r="448" ht="13"/>
+    <row r="449" ht="13"/>
+    <row r="450" ht="13"/>
+    <row r="451" ht="13"/>
+    <row r="452" ht="13"/>
+    <row r="453" ht="13"/>
+    <row r="454" ht="13"/>
+    <row r="455" ht="13"/>
+    <row r="456" ht="13"/>
+    <row r="457" ht="13"/>
+    <row r="458" ht="13"/>
+    <row r="459" ht="13"/>
+    <row r="460" ht="13"/>
+    <row r="461" ht="13"/>
+    <row r="462" ht="13"/>
+    <row r="463" ht="13"/>
+    <row r="464" ht="13"/>
+    <row r="465" ht="13"/>
+    <row r="466" ht="13"/>
+    <row r="467" ht="13"/>
+    <row r="468" ht="13"/>
+    <row r="469" ht="13"/>
+    <row r="470" ht="13"/>
+    <row r="471" ht="13"/>
+    <row r="472" ht="13"/>
+    <row r="473" ht="13"/>
+    <row r="474" ht="13"/>
+    <row r="475" ht="13"/>
+    <row r="476" ht="13"/>
+    <row r="477" ht="13"/>
+    <row r="478" ht="13"/>
+    <row r="479" ht="13"/>
+    <row r="480" ht="13"/>
+    <row r="481" ht="13"/>
+    <row r="482" ht="13"/>
+    <row r="483" ht="13"/>
+    <row r="484" ht="13"/>
+    <row r="485" ht="13"/>
+    <row r="486" ht="13"/>
+    <row r="487" ht="13"/>
+    <row r="488" ht="13"/>
+    <row r="489" ht="13"/>
+    <row r="490" ht="13"/>
+    <row r="491" ht="13"/>
+    <row r="492" ht="13"/>
+    <row r="493" ht="13"/>
+    <row r="494" ht="13"/>
+    <row r="495" ht="13"/>
+    <row r="496" ht="13"/>
+    <row r="497" ht="13"/>
+    <row r="498" ht="13"/>
+    <row r="499" ht="13"/>
+    <row r="500" ht="13"/>
+    <row r="501" ht="13"/>
+    <row r="502" ht="13"/>
+    <row r="503" ht="13"/>
+    <row r="504" ht="13"/>
+    <row r="505" ht="13"/>
+    <row r="506" ht="13"/>
+    <row r="507" ht="13"/>
+    <row r="508" ht="13"/>
+    <row r="509" ht="13"/>
+    <row r="510" ht="13"/>
+    <row r="511" ht="13"/>
+    <row r="512" ht="13"/>
+    <row r="513" ht="13"/>
+    <row r="514" ht="13"/>
+    <row r="515" ht="13"/>
+    <row r="516" ht="13"/>
+    <row r="517" ht="13"/>
+    <row r="518" ht="13"/>
+    <row r="519" ht="13"/>
+    <row r="520" ht="13"/>
+    <row r="521" ht="13"/>
+    <row r="522" ht="13"/>
+    <row r="523" ht="13"/>
+    <row r="524" ht="13"/>
+    <row r="525" ht="13"/>
+    <row r="526" ht="13"/>
+    <row r="527" ht="13"/>
+    <row r="528" ht="13"/>
+    <row r="529" ht="13"/>
+    <row r="530" ht="13"/>
+    <row r="531" ht="13"/>
+    <row r="532" ht="13"/>
+    <row r="533" ht="13"/>
+    <row r="534" ht="13"/>
+    <row r="535" ht="13"/>
+    <row r="536" ht="13"/>
+    <row r="537" ht="13"/>
+    <row r="538" ht="13"/>
+    <row r="539" ht="13"/>
+    <row r="540" ht="13"/>
+    <row r="541" ht="13"/>
+    <row r="542" ht="13"/>
+    <row r="543" ht="13"/>
+    <row r="544" ht="13"/>
+    <row r="545" ht="13"/>
+    <row r="546" ht="13"/>
+    <row r="547" ht="13"/>
+    <row r="548" ht="13"/>
+    <row r="549" ht="13"/>
+    <row r="550" ht="13"/>
+    <row r="551" ht="13"/>
+    <row r="552" ht="13"/>
+    <row r="553" ht="13"/>
+    <row r="554" ht="13"/>
+    <row r="555" ht="13"/>
+    <row r="556" ht="13"/>
+    <row r="557" ht="13"/>
+    <row r="558" ht="13"/>
+    <row r="559" ht="13"/>
+    <row r="560" ht="13"/>
+    <row r="561" ht="13"/>
+    <row r="562" ht="13"/>
+    <row r="563" ht="13"/>
+    <row r="564" ht="13"/>
+    <row r="565" ht="13"/>
+    <row r="566" ht="13"/>
+    <row r="567" ht="13"/>
+    <row r="568" ht="13"/>
+    <row r="569" ht="13"/>
+    <row r="570" ht="13"/>
+    <row r="571" ht="13"/>
+    <row r="572" ht="13"/>
+    <row r="573" ht="13"/>
+    <row r="574" ht="13"/>
+    <row r="575" ht="13"/>
+    <row r="576" ht="13"/>
+    <row r="577" ht="13"/>
+    <row r="578" ht="13"/>
+    <row r="579" ht="13"/>
+    <row r="580" ht="13"/>
+    <row r="581" ht="13"/>
+    <row r="582" ht="13"/>
+    <row r="583" ht="13"/>
+    <row r="584" ht="13"/>
+    <row r="585" ht="13"/>
+    <row r="586" ht="13"/>
+    <row r="587" ht="13"/>
+    <row r="588" ht="13"/>
+    <row r="589" ht="13"/>
+    <row r="590" ht="13"/>
+    <row r="591" ht="13"/>
+    <row r="592" ht="13"/>
+    <row r="593" ht="13"/>
+    <row r="594" ht="13"/>
+    <row r="595" ht="13"/>
+    <row r="596" ht="13"/>
+    <row r="597" ht="13"/>
+    <row r="598" ht="13"/>
+    <row r="599" ht="13"/>
+    <row r="600" ht="13"/>
+    <row r="601" ht="13"/>
+    <row r="602" ht="13"/>
+    <row r="603" ht="13"/>
+    <row r="604" ht="13"/>
+    <row r="605" ht="13"/>
+    <row r="606" ht="13"/>
+    <row r="607" ht="13"/>
+    <row r="608" ht="13"/>
+    <row r="609" ht="13"/>
+    <row r="610" ht="13"/>
+    <row r="611" ht="13"/>
+    <row r="612" ht="13"/>
+    <row r="613" ht="13"/>
+    <row r="614" ht="13"/>
+    <row r="615" ht="13"/>
+    <row r="616" ht="13"/>
+    <row r="617" ht="13"/>
+    <row r="618" ht="13"/>
+    <row r="619" ht="13"/>
+    <row r="620" ht="13"/>
+    <row r="621" ht="13"/>
+    <row r="622" ht="13"/>
+    <row r="623" ht="13"/>
+    <row r="624" ht="13"/>
+    <row r="625" ht="13"/>
+    <row r="626" ht="13"/>
+    <row r="627" ht="13"/>
+    <row r="628" ht="13"/>
+    <row r="629" ht="13"/>
+    <row r="630" ht="13"/>
+    <row r="631" ht="13"/>
+    <row r="632" ht="13"/>
+    <row r="633" ht="13"/>
+    <row r="634" ht="13"/>
+    <row r="635" ht="13"/>
+    <row r="636" ht="13"/>
+    <row r="637" ht="13"/>
+    <row r="638" ht="13"/>
+    <row r="639" ht="13"/>
+    <row r="640" ht="13"/>
+    <row r="641" ht="13"/>
+    <row r="642" ht="13"/>
+    <row r="643" ht="13"/>
+    <row r="644" ht="13"/>
+    <row r="645" ht="13"/>
+    <row r="646" ht="13"/>
+    <row r="647" ht="13"/>
+    <row r="648" ht="13"/>
+    <row r="649" ht="13"/>
+    <row r="650" ht="13"/>
+    <row r="651" ht="13"/>
+    <row r="652" ht="13"/>
+    <row r="653" ht="13"/>
+    <row r="654" ht="13"/>
+    <row r="655" ht="13"/>
+    <row r="656" ht="13"/>
+    <row r="657" ht="13"/>
+    <row r="658" ht="13"/>
+    <row r="659" ht="13"/>
+    <row r="660" ht="13"/>
+    <row r="661" ht="13"/>
+    <row r="662" ht="13"/>
+    <row r="663" ht="13"/>
+    <row r="664" ht="13"/>
+    <row r="665" ht="13"/>
+    <row r="666" ht="13"/>
+    <row r="667" ht="13"/>
+    <row r="668" ht="13"/>
+    <row r="669" ht="13"/>
+    <row r="670" ht="13"/>
+    <row r="671" ht="13"/>
+    <row r="672" ht="13"/>
+    <row r="673" ht="13"/>
+    <row r="674" ht="13"/>
+    <row r="675" ht="13"/>
+    <row r="676" ht="13"/>
+    <row r="677" ht="13"/>
+    <row r="678" ht="13"/>
+    <row r="679" ht="13"/>
+    <row r="680" ht="13"/>
+    <row r="681" ht="13"/>
+    <row r="682" ht="13"/>
+    <row r="683" ht="13"/>
+    <row r="684" ht="13"/>
+    <row r="685" ht="13"/>
+    <row r="686" ht="13"/>
+    <row r="687" ht="13"/>
+    <row r="688" ht="13"/>
+    <row r="689" ht="13"/>
+    <row r="690" ht="13"/>
+    <row r="691" ht="13"/>
+    <row r="692" ht="13"/>
+    <row r="693" ht="13"/>
+    <row r="694" ht="13"/>
+    <row r="695" ht="13"/>
+    <row r="696" ht="13"/>
+    <row r="697" ht="13"/>
+    <row r="698" ht="13"/>
+    <row r="699" ht="13"/>
+    <row r="700" ht="13"/>
+    <row r="701" ht="13"/>
+    <row r="702" ht="13"/>
+    <row r="703" ht="13"/>
+    <row r="704" ht="13"/>
+    <row r="705" ht="13"/>
+    <row r="706" ht="13"/>
+    <row r="707" ht="13"/>
+    <row r="708" ht="13"/>
+    <row r="709" ht="13"/>
+    <row r="710" ht="13"/>
+    <row r="711" ht="13"/>
+    <row r="712" ht="13"/>
+    <row r="713" ht="13"/>
+    <row r="714" ht="13"/>
+    <row r="715" ht="13"/>
+    <row r="716" ht="13"/>
+    <row r="717" ht="13"/>
+    <row r="718" ht="13"/>
+    <row r="719" ht="13"/>
+    <row r="720" ht="13"/>
+    <row r="721" ht="13"/>
+    <row r="722" ht="13"/>
+    <row r="723" ht="13"/>
+    <row r="724" ht="13"/>
+    <row r="725" ht="13"/>
+    <row r="726" ht="13"/>
+    <row r="727" ht="13"/>
+    <row r="728" ht="13"/>
+    <row r="729" ht="13"/>
+    <row r="730" ht="13"/>
+    <row r="731" ht="13"/>
+    <row r="732" ht="13"/>
+    <row r="733" ht="13"/>
+    <row r="734" ht="13"/>
+    <row r="735" ht="13"/>
+    <row r="736" ht="13"/>
+    <row r="737" ht="13"/>
+    <row r="738" ht="13"/>
+    <row r="739" ht="13"/>
+    <row r="740" ht="13"/>
+    <row r="741" ht="13"/>
+    <row r="742" ht="13"/>
+    <row r="743" ht="13"/>
+    <row r="744" ht="13"/>
+    <row r="745" ht="13"/>
+    <row r="746" ht="13"/>
+    <row r="747" ht="13"/>
+    <row r="748" ht="13"/>
+    <row r="749" ht="13"/>
+    <row r="750" ht="13"/>
+    <row r="751" ht="13"/>
+    <row r="752" ht="13"/>
+    <row r="753" ht="13"/>
+    <row r="754" ht="13"/>
+    <row r="755" ht="13"/>
+    <row r="756" ht="13"/>
+    <row r="757" ht="13"/>
+    <row r="758" ht="13"/>
+    <row r="759" ht="13"/>
+    <row r="760" ht="13"/>
+    <row r="761" ht="13"/>
+    <row r="762" ht="13"/>
+    <row r="763" ht="13"/>
+    <row r="764" ht="13"/>
+    <row r="765" ht="13"/>
+    <row r="766" ht="13"/>
+    <row r="767" ht="13"/>
+    <row r="768" ht="13"/>
+    <row r="769" ht="13"/>
+    <row r="770" ht="13"/>
+    <row r="771" ht="13"/>
+    <row r="772" ht="13"/>
+    <row r="773" ht="13"/>
+    <row r="774" ht="13"/>
+    <row r="775" ht="13"/>
+    <row r="776" ht="13"/>
+    <row r="777" ht="13"/>
+    <row r="778" ht="13"/>
+    <row r="779" ht="13"/>
+    <row r="780" ht="13"/>
+    <row r="781" ht="13"/>
+    <row r="782" ht="13"/>
+    <row r="783" ht="13"/>
+    <row r="784" ht="13"/>
+    <row r="785" ht="13"/>
+    <row r="786" ht="13"/>
+    <row r="787" ht="13"/>
+    <row r="788" ht="13"/>
+    <row r="789" ht="13"/>
+    <row r="790" ht="13"/>
+    <row r="791" ht="13"/>
+    <row r="792" ht="13"/>
+    <row r="793" ht="13"/>
+    <row r="794" ht="13"/>
+    <row r="795" ht="13"/>
+    <row r="796" ht="13"/>
+    <row r="797" ht="13"/>
+    <row r="798" ht="13"/>
+    <row r="799" ht="13"/>
+    <row r="800" ht="13"/>
+    <row r="801" ht="13"/>
+    <row r="802" ht="13"/>
+    <row r="803" ht="13"/>
+    <row r="804" ht="13"/>
+    <row r="805" ht="13"/>
+    <row r="806" ht="13"/>
+    <row r="807" ht="13"/>
+    <row r="808" ht="13"/>
+    <row r="809" ht="13"/>
+    <row r="810" ht="13"/>
+    <row r="811" ht="13"/>
+    <row r="812" ht="13"/>
+    <row r="813" ht="13"/>
+    <row r="814" ht="13"/>
+    <row r="815" ht="13"/>
+    <row r="816" ht="13"/>
+    <row r="817" ht="13"/>
+    <row r="818" ht="13"/>
+    <row r="819" ht="13"/>
+    <row r="820" ht="13"/>
+    <row r="821" ht="13"/>
+    <row r="822" ht="13"/>
+    <row r="823" ht="13"/>
+    <row r="824" ht="13"/>
+    <row r="825" ht="13"/>
+    <row r="826" ht="13"/>
+    <row r="827" ht="13"/>
+    <row r="828" ht="13"/>
+    <row r="829" ht="13"/>
+    <row r="830" ht="13"/>
+    <row r="831" ht="13"/>
+    <row r="832" ht="13"/>
+    <row r="833" ht="13"/>
+    <row r="834" ht="13"/>
+    <row r="835" ht="13"/>
+    <row r="836" ht="13"/>
+    <row r="837" ht="13"/>
+    <row r="838" ht="13"/>
+    <row r="839" ht="13"/>
+    <row r="840" ht="13"/>
+    <row r="841" ht="13"/>
+    <row r="842" ht="13"/>
+    <row r="843" ht="13"/>
+    <row r="844" ht="13"/>
+    <row r="845" ht="13"/>
+    <row r="846" ht="13"/>
+    <row r="847" ht="13"/>
+    <row r="848" ht="13"/>
+    <row r="849" ht="13"/>
+    <row r="850" ht="13"/>
+    <row r="851" ht="13"/>
+    <row r="852" ht="13"/>
+    <row r="853" ht="13"/>
+    <row r="854" ht="13"/>
+    <row r="855" ht="13"/>
+    <row r="856" ht="13"/>
+    <row r="857" ht="13"/>
+    <row r="858" ht="13"/>
+    <row r="859" ht="13"/>
+    <row r="860" ht="13"/>
+    <row r="861" ht="13"/>
+    <row r="862" ht="13"/>
+    <row r="863" ht="13"/>
+    <row r="864" ht="13"/>
+    <row r="865" ht="13"/>
+    <row r="866" ht="13"/>
+    <row r="867" ht="13"/>
+    <row r="868" ht="13"/>
+    <row r="869" ht="13"/>
+    <row r="870" ht="13"/>
+    <row r="871" ht="13"/>
+    <row r="872" ht="13"/>
+    <row r="873" ht="13"/>
+    <row r="874" ht="13"/>
+    <row r="875" ht="13"/>
+    <row r="876" ht="13"/>
+    <row r="877" ht="13"/>
+    <row r="878" ht="13"/>
+    <row r="879" ht="13"/>
+    <row r="880" ht="13"/>
+    <row r="881" ht="13"/>
+    <row r="882" ht="13"/>
+    <row r="883" ht="13"/>
+    <row r="884" ht="13"/>
+    <row r="885" ht="13"/>
+    <row r="886" ht="13"/>
+    <row r="887" ht="13"/>
+    <row r="888" ht="13"/>
+    <row r="889" ht="13"/>
+    <row r="890" ht="13"/>
+    <row r="891" ht="13"/>
+    <row r="892" ht="13"/>
+    <row r="893" ht="13"/>
+    <row r="894" ht="13"/>
+    <row r="895" ht="13"/>
+    <row r="896" ht="13"/>
+    <row r="897" ht="13"/>
+    <row r="898" ht="13"/>
+    <row r="899" ht="13"/>
+    <row r="900" ht="13"/>
+    <row r="901" ht="13"/>
+    <row r="902" ht="13"/>
+    <row r="903" ht="13"/>
+    <row r="904" ht="13"/>
+    <row r="905" ht="13"/>
+    <row r="906" ht="13"/>
+    <row r="907" ht="13"/>
+    <row r="908" ht="13"/>
+    <row r="909" ht="13"/>
+    <row r="910" ht="13"/>
+    <row r="911" ht="13"/>
+    <row r="912" ht="13"/>
+    <row r="913" ht="13"/>
+    <row r="914" ht="13"/>
+    <row r="915" ht="13"/>
+    <row r="916" ht="13"/>
+    <row r="917" ht="13"/>
+    <row r="918" ht="13"/>
+    <row r="919" ht="13"/>
+    <row r="920" ht="13"/>
+    <row r="921" ht="13"/>
+    <row r="922" ht="13"/>
+    <row r="923" ht="13"/>
+    <row r="924" ht="13"/>
+    <row r="925" ht="13"/>
+    <row r="926" ht="13"/>
+    <row r="927" ht="13"/>
+    <row r="928" ht="13"/>
+    <row r="929" ht="13"/>
+    <row r="930" ht="13"/>
+    <row r="931" ht="13"/>
+    <row r="932" ht="13"/>
+    <row r="933" ht="13"/>
+    <row r="934" ht="13"/>
+    <row r="935" ht="13"/>
+    <row r="936" ht="13"/>
+    <row r="937" ht="13"/>
+    <row r="938" ht="13"/>
+    <row r="939" ht="13"/>
+    <row r="940" ht="13"/>
+    <row r="941" ht="13"/>
+    <row r="942" ht="13"/>
+    <row r="943" ht="13"/>
+    <row r="944" ht="13"/>
+    <row r="945" ht="13"/>
+    <row r="946" ht="13"/>
+    <row r="947" ht="13"/>
+    <row r="948" ht="13"/>
+    <row r="949" ht="13"/>
+    <row r="950" ht="13"/>
+    <row r="951" ht="13"/>
+    <row r="952" ht="13"/>
+    <row r="953" ht="13"/>
+    <row r="954" ht="13"/>
+    <row r="955" ht="13"/>
+    <row r="956" ht="13"/>
+    <row r="957" ht="13"/>
+    <row r="958" ht="13"/>
+    <row r="959" ht="13"/>
+    <row r="960" ht="13"/>
+    <row r="961" ht="13"/>
+    <row r="962" ht="13"/>
+    <row r="963" ht="13"/>
+    <row r="964" ht="13"/>
+    <row r="965" ht="13"/>
+    <row r="966" ht="13"/>
+    <row r="967" ht="13"/>
+    <row r="968" ht="13"/>
+    <row r="969" ht="13"/>
+    <row r="970" ht="13"/>
+    <row r="971" ht="13"/>
+    <row r="972" ht="13"/>
+    <row r="973" ht="13"/>
+    <row r="974" ht="13"/>
+    <row r="975" ht="13"/>
+    <row r="976" ht="13"/>
+    <row r="977" ht="13"/>
+    <row r="978" ht="13"/>
+    <row r="979" ht="13"/>
+    <row r="980" ht="13"/>
+    <row r="981" ht="13"/>
+    <row r="982" ht="13"/>
+    <row r="983" ht="13"/>
+    <row r="984" ht="13"/>
+    <row r="985" ht="13"/>
+    <row r="986" ht="13"/>
+    <row r="987" ht="13"/>
+    <row r="988" ht="13"/>
+    <row r="989" ht="13"/>
+    <row r="990" ht="13"/>
+    <row r="991" ht="13"/>
+    <row r="992" ht="13"/>
+    <row r="993" ht="13"/>
+    <row r="994" ht="13"/>
+    <row r="995" ht="13"/>
+    <row r="996" ht="13"/>
+    <row r="997" ht="13"/>
+    <row r="998" ht="13"/>
+    <row r="999" ht="13"/>
+    <row r="1000" ht="13"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Orders.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Orders.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimitarkokov/PycharmProjects/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliot.smith/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCCE9F7-561B-6143-8493-D47F361FE1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009E09A3-B4A0-1F42-9945-31A6CF195C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="4720" windowWidth="25360" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36660" yWindow="660" windowWidth="35840" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="6" r:id="rId1"/>
@@ -24,11 +24,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cases!$A$1:$Q$115</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -671,10 +666,10 @@
     <t>table_transforms</t>
   </si>
   <si>
+    <t>set_cases_orderstatus = {"source_cols": ["Ord Stat", "Ord Type"], "target_cols": ["orderstatus"]}</t>
+  </si>
+  <si>
     <t>mapped by table transform</t>
-  </si>
-  <si>
-    <t>set_cases_orderstatus = {"source_cols": ["Ord Stat", "Ord Type"], "target_cols": ["orderstatus"]}</t>
   </si>
 </sst>
 </file>
@@ -895,8 +890,8 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1111,11 +1106,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9CE832-EC01-244E-8F8D-CFC70DCA6FD8}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1177,7 +1172,7 @@
         <v>210</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="29" customFormat="1">
@@ -1196,21 +1191,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -3513,7 +3503,7 @@
         <v>21</v>
       </c>
       <c r="Q95" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="15.75" customHeight="1">
@@ -5494,19 +5484,14 @@
     <row r="998" ht="13"/>
     <row r="999" ht="13"/>
   </sheetData>
-  <autoFilter ref="A1:Q115" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:Q115" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7067,16 +7052,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -8609,16 +8589,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10121,22 +10096,17 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -11663,10 +11633,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Orders.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Orders.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliot.smith/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009E09A3-B4A0-1F42-9945-31A6CF195C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="26004"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="36660" yWindow="660" windowWidth="35840" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="6" r:id="rId1"/>
@@ -23,12 +17,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cases!$A$1:$Q$115</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="216">
   <si>
     <t>table_name</t>
   </si>
@@ -670,13 +669,19 @@
   </si>
   <si>
     <t>mapped by table transform</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Security</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1106,14 +1111,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9CE832-EC01-244E-8F8D-CFC70DCA6FD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.83203125" customWidth="1"/>
@@ -1191,11 +1196,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1203,7 +1213,7 @@
       <selection pane="bottomLeft" activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
@@ -1222,7 +1232,7 @@
     <col min="17" max="17" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15">
+    <row r="1" spans="1:17" ht="14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1275,7 +1285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="409.6">
+    <row r="2" spans="1:17" ht="364">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1303,7 +1313,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15">
+    <row r="3" spans="1:17" ht="14">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1328,7 +1338,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15">
+    <row r="4" spans="1:17" ht="14">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1353,7 +1363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15">
+    <row r="5" spans="1:17" ht="14">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1378,7 +1388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15">
+    <row r="6" spans="1:17" ht="14">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1406,7 +1416,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15">
+    <row r="7" spans="1:17" ht="14">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1428,7 +1438,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15">
+    <row r="8" spans="1:17" ht="14">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1453,7 +1463,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15">
+    <row r="9" spans="1:17" ht="14">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1475,7 +1485,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15">
+    <row r="10" spans="1:17" ht="14">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1500,7 +1510,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15">
+    <row r="11" spans="1:17" ht="14">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1534,7 +1544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15">
+    <row r="12" spans="1:17" ht="14">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1556,7 +1566,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15">
+    <row r="13" spans="1:17" ht="14">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1578,7 +1588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15">
+    <row r="14" spans="1:17" ht="14">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1600,7 +1610,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15">
+    <row r="15" spans="1:17" ht="14">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1622,7 +1632,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15">
+    <row r="16" spans="1:17" ht="14">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1644,7 +1654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15">
+    <row r="17" spans="1:17" ht="14">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1669,7 +1679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15">
+    <row r="18" spans="1:17" ht="14">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1694,7 +1704,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15">
+    <row r="19" spans="1:17" ht="14">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1719,7 +1729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15">
+    <row r="20" spans="1:17" ht="14">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -4799,699 +4809,704 @@
       <c r="B315" s="4"/>
       <c r="O315" s="4"/>
     </row>
-    <row r="316" spans="2:15" ht="13"/>
-    <row r="317" spans="2:15" ht="13"/>
-    <row r="318" spans="2:15" ht="13"/>
-    <row r="319" spans="2:15" ht="13"/>
-    <row r="320" spans="2:15" ht="13"/>
-    <row r="321" ht="13"/>
-    <row r="322" ht="13"/>
-    <row r="323" ht="13"/>
-    <row r="324" ht="13"/>
-    <row r="325" ht="13"/>
-    <row r="326" ht="13"/>
-    <row r="327" ht="13"/>
-    <row r="328" ht="13"/>
-    <row r="329" ht="13"/>
-    <row r="330" ht="13"/>
-    <row r="331" ht="13"/>
-    <row r="332" ht="13"/>
-    <row r="333" ht="13"/>
-    <row r="334" ht="13"/>
-    <row r="335" ht="13"/>
-    <row r="336" ht="13"/>
-    <row r="337" ht="13"/>
-    <row r="338" ht="13"/>
-    <row r="339" ht="13"/>
-    <row r="340" ht="13"/>
-    <row r="341" ht="13"/>
-    <row r="342" ht="13"/>
-    <row r="343" ht="13"/>
-    <row r="344" ht="13"/>
-    <row r="345" ht="13"/>
-    <row r="346" ht="13"/>
-    <row r="347" ht="13"/>
-    <row r="348" ht="13"/>
-    <row r="349" ht="13"/>
-    <row r="350" ht="13"/>
-    <row r="351" ht="13"/>
-    <row r="352" ht="13"/>
-    <row r="353" ht="13"/>
-    <row r="354" ht="13"/>
-    <row r="355" ht="13"/>
-    <row r="356" ht="13"/>
-    <row r="357" ht="13"/>
-    <row r="358" ht="13"/>
-    <row r="359" ht="13"/>
-    <row r="360" ht="13"/>
-    <row r="361" ht="13"/>
-    <row r="362" ht="13"/>
-    <row r="363" ht="13"/>
-    <row r="364" ht="13"/>
-    <row r="365" ht="13"/>
-    <row r="366" ht="13"/>
-    <row r="367" ht="13"/>
-    <row r="368" ht="13"/>
-    <row r="369" ht="13"/>
-    <row r="370" ht="13"/>
-    <row r="371" ht="13"/>
-    <row r="372" ht="13"/>
-    <row r="373" ht="13"/>
-    <row r="374" ht="13"/>
-    <row r="375" ht="13"/>
-    <row r="376" ht="13"/>
-    <row r="377" ht="13"/>
-    <row r="378" ht="13"/>
-    <row r="379" ht="13"/>
-    <row r="380" ht="13"/>
-    <row r="381" ht="13"/>
-    <row r="382" ht="13"/>
-    <row r="383" ht="13"/>
-    <row r="384" ht="13"/>
-    <row r="385" ht="13"/>
-    <row r="386" ht="13"/>
-    <row r="387" ht="13"/>
-    <row r="388" ht="13"/>
-    <row r="389" ht="13"/>
-    <row r="390" ht="13"/>
-    <row r="391" ht="13"/>
-    <row r="392" ht="13"/>
-    <row r="393" ht="13"/>
-    <row r="394" ht="13"/>
-    <row r="395" ht="13"/>
-    <row r="396" ht="13"/>
-    <row r="397" ht="13"/>
-    <row r="398" ht="13"/>
-    <row r="399" ht="13"/>
-    <row r="400" ht="13"/>
-    <row r="401" ht="13"/>
-    <row r="402" ht="13"/>
-    <row r="403" ht="13"/>
-    <row r="404" ht="13"/>
-    <row r="405" ht="13"/>
-    <row r="406" ht="13"/>
-    <row r="407" ht="13"/>
-    <row r="408" ht="13"/>
-    <row r="409" ht="13"/>
-    <row r="410" ht="13"/>
-    <row r="411" ht="13"/>
-    <row r="412" ht="13"/>
-    <row r="413" ht="13"/>
-    <row r="414" ht="13"/>
-    <row r="415" ht="13"/>
-    <row r="416" ht="13"/>
-    <row r="417" ht="13"/>
-    <row r="418" ht="13"/>
-    <row r="419" ht="13"/>
-    <row r="420" ht="13"/>
-    <row r="421" ht="13"/>
-    <row r="422" ht="13"/>
-    <row r="423" ht="13"/>
-    <row r="424" ht="13"/>
-    <row r="425" ht="13"/>
-    <row r="426" ht="13"/>
-    <row r="427" ht="13"/>
-    <row r="428" ht="13"/>
-    <row r="429" ht="13"/>
-    <row r="430" ht="13"/>
-    <row r="431" ht="13"/>
-    <row r="432" ht="13"/>
-    <row r="433" ht="13"/>
-    <row r="434" ht="13"/>
-    <row r="435" ht="13"/>
-    <row r="436" ht="13"/>
-    <row r="437" ht="13"/>
-    <row r="438" ht="13"/>
-    <row r="439" ht="13"/>
-    <row r="440" ht="13"/>
-    <row r="441" ht="13"/>
-    <row r="442" ht="13"/>
-    <row r="443" ht="13"/>
-    <row r="444" ht="13"/>
-    <row r="445" ht="13"/>
-    <row r="446" ht="13"/>
-    <row r="447" ht="13"/>
-    <row r="448" ht="13"/>
-    <row r="449" ht="13"/>
-    <row r="450" ht="13"/>
-    <row r="451" ht="13"/>
-    <row r="452" ht="13"/>
-    <row r="453" ht="13"/>
-    <row r="454" ht="13"/>
-    <row r="455" ht="13"/>
-    <row r="456" ht="13"/>
-    <row r="457" ht="13"/>
-    <row r="458" ht="13"/>
-    <row r="459" ht="13"/>
-    <row r="460" ht="13"/>
-    <row r="461" ht="13"/>
-    <row r="462" ht="13"/>
-    <row r="463" ht="13"/>
-    <row r="464" ht="13"/>
-    <row r="465" ht="13"/>
-    <row r="466" ht="13"/>
-    <row r="467" ht="13"/>
-    <row r="468" ht="13"/>
-    <row r="469" ht="13"/>
-    <row r="470" ht="13"/>
-    <row r="471" ht="13"/>
-    <row r="472" ht="13"/>
-    <row r="473" ht="13"/>
-    <row r="474" ht="13"/>
-    <row r="475" ht="13"/>
-    <row r="476" ht="13"/>
-    <row r="477" ht="13"/>
-    <row r="478" ht="13"/>
-    <row r="479" ht="13"/>
-    <row r="480" ht="13"/>
-    <row r="481" ht="13"/>
-    <row r="482" ht="13"/>
-    <row r="483" ht="13"/>
-    <row r="484" ht="13"/>
-    <row r="485" ht="13"/>
-    <row r="486" ht="13"/>
-    <row r="487" ht="13"/>
-    <row r="488" ht="13"/>
-    <row r="489" ht="13"/>
-    <row r="490" ht="13"/>
-    <row r="491" ht="13"/>
-    <row r="492" ht="13"/>
-    <row r="493" ht="13"/>
-    <row r="494" ht="13"/>
-    <row r="495" ht="13"/>
-    <row r="496" ht="13"/>
-    <row r="497" ht="13"/>
-    <row r="498" ht="13"/>
-    <row r="499" ht="13"/>
-    <row r="500" ht="13"/>
-    <row r="501" ht="13"/>
-    <row r="502" ht="13"/>
-    <row r="503" ht="13"/>
-    <row r="504" ht="13"/>
-    <row r="505" ht="13"/>
-    <row r="506" ht="13"/>
-    <row r="507" ht="13"/>
-    <row r="508" ht="13"/>
-    <row r="509" ht="13"/>
-    <row r="510" ht="13"/>
-    <row r="511" ht="13"/>
-    <row r="512" ht="13"/>
-    <row r="513" ht="13"/>
-    <row r="514" ht="13"/>
-    <row r="515" ht="13"/>
-    <row r="516" ht="13"/>
-    <row r="517" ht="13"/>
-    <row r="518" ht="13"/>
-    <row r="519" ht="13"/>
-    <row r="520" ht="13"/>
-    <row r="521" ht="13"/>
-    <row r="522" ht="13"/>
-    <row r="523" ht="13"/>
-    <row r="524" ht="13"/>
-    <row r="525" ht="13"/>
-    <row r="526" ht="13"/>
-    <row r="527" ht="13"/>
-    <row r="528" ht="13"/>
-    <row r="529" ht="13"/>
-    <row r="530" ht="13"/>
-    <row r="531" ht="13"/>
-    <row r="532" ht="13"/>
-    <row r="533" ht="13"/>
-    <row r="534" ht="13"/>
-    <row r="535" ht="13"/>
-    <row r="536" ht="13"/>
-    <row r="537" ht="13"/>
-    <row r="538" ht="13"/>
-    <row r="539" ht="13"/>
-    <row r="540" ht="13"/>
-    <row r="541" ht="13"/>
-    <row r="542" ht="13"/>
-    <row r="543" ht="13"/>
-    <row r="544" ht="13"/>
-    <row r="545" ht="13"/>
-    <row r="546" ht="13"/>
-    <row r="547" ht="13"/>
-    <row r="548" ht="13"/>
-    <row r="549" ht="13"/>
-    <row r="550" ht="13"/>
-    <row r="551" ht="13"/>
-    <row r="552" ht="13"/>
-    <row r="553" ht="13"/>
-    <row r="554" ht="13"/>
-    <row r="555" ht="13"/>
-    <row r="556" ht="13"/>
-    <row r="557" ht="13"/>
-    <row r="558" ht="13"/>
-    <row r="559" ht="13"/>
-    <row r="560" ht="13"/>
-    <row r="561" ht="13"/>
-    <row r="562" ht="13"/>
-    <row r="563" ht="13"/>
-    <row r="564" ht="13"/>
-    <row r="565" ht="13"/>
-    <row r="566" ht="13"/>
-    <row r="567" ht="13"/>
-    <row r="568" ht="13"/>
-    <row r="569" ht="13"/>
-    <row r="570" ht="13"/>
-    <row r="571" ht="13"/>
-    <row r="572" ht="13"/>
-    <row r="573" ht="13"/>
-    <row r="574" ht="13"/>
-    <row r="575" ht="13"/>
-    <row r="576" ht="13"/>
-    <row r="577" ht="13"/>
-    <row r="578" ht="13"/>
-    <row r="579" ht="13"/>
-    <row r="580" ht="13"/>
-    <row r="581" ht="13"/>
-    <row r="582" ht="13"/>
-    <row r="583" ht="13"/>
-    <row r="584" ht="13"/>
-    <row r="585" ht="13"/>
-    <row r="586" ht="13"/>
-    <row r="587" ht="13"/>
-    <row r="588" ht="13"/>
-    <row r="589" ht="13"/>
-    <row r="590" ht="13"/>
-    <row r="591" ht="13"/>
-    <row r="592" ht="13"/>
-    <row r="593" ht="13"/>
-    <row r="594" ht="13"/>
-    <row r="595" ht="13"/>
-    <row r="596" ht="13"/>
-    <row r="597" ht="13"/>
-    <row r="598" ht="13"/>
-    <row r="599" ht="13"/>
-    <row r="600" ht="13"/>
-    <row r="601" ht="13"/>
-    <row r="602" ht="13"/>
-    <row r="603" ht="13"/>
-    <row r="604" ht="13"/>
-    <row r="605" ht="13"/>
-    <row r="606" ht="13"/>
-    <row r="607" ht="13"/>
-    <row r="608" ht="13"/>
-    <row r="609" ht="13"/>
-    <row r="610" ht="13"/>
-    <row r="611" ht="13"/>
-    <row r="612" ht="13"/>
-    <row r="613" ht="13"/>
-    <row r="614" ht="13"/>
-    <row r="615" ht="13"/>
-    <row r="616" ht="13"/>
-    <row r="617" ht="13"/>
-    <row r="618" ht="13"/>
-    <row r="619" ht="13"/>
-    <row r="620" ht="13"/>
-    <row r="621" ht="13"/>
-    <row r="622" ht="13"/>
-    <row r="623" ht="13"/>
-    <row r="624" ht="13"/>
-    <row r="625" ht="13"/>
-    <row r="626" ht="13"/>
-    <row r="627" ht="13"/>
-    <row r="628" ht="13"/>
-    <row r="629" ht="13"/>
-    <row r="630" ht="13"/>
-    <row r="631" ht="13"/>
-    <row r="632" ht="13"/>
-    <row r="633" ht="13"/>
-    <row r="634" ht="13"/>
-    <row r="635" ht="13"/>
-    <row r="636" ht="13"/>
-    <row r="637" ht="13"/>
-    <row r="638" ht="13"/>
-    <row r="639" ht="13"/>
-    <row r="640" ht="13"/>
-    <row r="641" ht="13"/>
-    <row r="642" ht="13"/>
-    <row r="643" ht="13"/>
-    <row r="644" ht="13"/>
-    <row r="645" ht="13"/>
-    <row r="646" ht="13"/>
-    <row r="647" ht="13"/>
-    <row r="648" ht="13"/>
-    <row r="649" ht="13"/>
-    <row r="650" ht="13"/>
-    <row r="651" ht="13"/>
-    <row r="652" ht="13"/>
-    <row r="653" ht="13"/>
-    <row r="654" ht="13"/>
-    <row r="655" ht="13"/>
-    <row r="656" ht="13"/>
-    <row r="657" ht="13"/>
-    <row r="658" ht="13"/>
-    <row r="659" ht="13"/>
-    <row r="660" ht="13"/>
-    <row r="661" ht="13"/>
-    <row r="662" ht="13"/>
-    <row r="663" ht="13"/>
-    <row r="664" ht="13"/>
-    <row r="665" ht="13"/>
-    <row r="666" ht="13"/>
-    <row r="667" ht="13"/>
-    <row r="668" ht="13"/>
-    <row r="669" ht="13"/>
-    <row r="670" ht="13"/>
-    <row r="671" ht="13"/>
-    <row r="672" ht="13"/>
-    <row r="673" ht="13"/>
-    <row r="674" ht="13"/>
-    <row r="675" ht="13"/>
-    <row r="676" ht="13"/>
-    <row r="677" ht="13"/>
-    <row r="678" ht="13"/>
-    <row r="679" ht="13"/>
-    <row r="680" ht="13"/>
-    <row r="681" ht="13"/>
-    <row r="682" ht="13"/>
-    <row r="683" ht="13"/>
-    <row r="684" ht="13"/>
-    <row r="685" ht="13"/>
-    <row r="686" ht="13"/>
-    <row r="687" ht="13"/>
-    <row r="688" ht="13"/>
-    <row r="689" ht="13"/>
-    <row r="690" ht="13"/>
-    <row r="691" ht="13"/>
-    <row r="692" ht="13"/>
-    <row r="693" ht="13"/>
-    <row r="694" ht="13"/>
-    <row r="695" ht="13"/>
-    <row r="696" ht="13"/>
-    <row r="697" ht="13"/>
-    <row r="698" ht="13"/>
-    <row r="699" ht="13"/>
-    <row r="700" ht="13"/>
-    <row r="701" ht="13"/>
-    <row r="702" ht="13"/>
-    <row r="703" ht="13"/>
-    <row r="704" ht="13"/>
-    <row r="705" ht="13"/>
-    <row r="706" ht="13"/>
-    <row r="707" ht="13"/>
-    <row r="708" ht="13"/>
-    <row r="709" ht="13"/>
-    <row r="710" ht="13"/>
-    <row r="711" ht="13"/>
-    <row r="712" ht="13"/>
-    <row r="713" ht="13"/>
-    <row r="714" ht="13"/>
-    <row r="715" ht="13"/>
-    <row r="716" ht="13"/>
-    <row r="717" ht="13"/>
-    <row r="718" ht="13"/>
-    <row r="719" ht="13"/>
-    <row r="720" ht="13"/>
-    <row r="721" ht="13"/>
-    <row r="722" ht="13"/>
-    <row r="723" ht="13"/>
-    <row r="724" ht="13"/>
-    <row r="725" ht="13"/>
-    <row r="726" ht="13"/>
-    <row r="727" ht="13"/>
-    <row r="728" ht="13"/>
-    <row r="729" ht="13"/>
-    <row r="730" ht="13"/>
-    <row r="731" ht="13"/>
-    <row r="732" ht="13"/>
-    <row r="733" ht="13"/>
-    <row r="734" ht="13"/>
-    <row r="735" ht="13"/>
-    <row r="736" ht="13"/>
-    <row r="737" ht="13"/>
-    <row r="738" ht="13"/>
-    <row r="739" ht="13"/>
-    <row r="740" ht="13"/>
-    <row r="741" ht="13"/>
-    <row r="742" ht="13"/>
-    <row r="743" ht="13"/>
-    <row r="744" ht="13"/>
-    <row r="745" ht="13"/>
-    <row r="746" ht="13"/>
-    <row r="747" ht="13"/>
-    <row r="748" ht="13"/>
-    <row r="749" ht="13"/>
-    <row r="750" ht="13"/>
-    <row r="751" ht="13"/>
-    <row r="752" ht="13"/>
-    <row r="753" ht="13"/>
-    <row r="754" ht="13"/>
-    <row r="755" ht="13"/>
-    <row r="756" ht="13"/>
-    <row r="757" ht="13"/>
-    <row r="758" ht="13"/>
-    <row r="759" ht="13"/>
-    <row r="760" ht="13"/>
-    <row r="761" ht="13"/>
-    <row r="762" ht="13"/>
-    <row r="763" ht="13"/>
-    <row r="764" ht="13"/>
-    <row r="765" ht="13"/>
-    <row r="766" ht="13"/>
-    <row r="767" ht="13"/>
-    <row r="768" ht="13"/>
-    <row r="769" ht="13"/>
-    <row r="770" ht="13"/>
-    <row r="771" ht="13"/>
-    <row r="772" ht="13"/>
-    <row r="773" ht="13"/>
-    <row r="774" ht="13"/>
-    <row r="775" ht="13"/>
-    <row r="776" ht="13"/>
-    <row r="777" ht="13"/>
-    <row r="778" ht="13"/>
-    <row r="779" ht="13"/>
-    <row r="780" ht="13"/>
-    <row r="781" ht="13"/>
-    <row r="782" ht="13"/>
-    <row r="783" ht="13"/>
-    <row r="784" ht="13"/>
-    <row r="785" ht="13"/>
-    <row r="786" ht="13"/>
-    <row r="787" ht="13"/>
-    <row r="788" ht="13"/>
-    <row r="789" ht="13"/>
-    <row r="790" ht="13"/>
-    <row r="791" ht="13"/>
-    <row r="792" ht="13"/>
-    <row r="793" ht="13"/>
-    <row r="794" ht="13"/>
-    <row r="795" ht="13"/>
-    <row r="796" ht="13"/>
-    <row r="797" ht="13"/>
-    <row r="798" ht="13"/>
-    <row r="799" ht="13"/>
-    <row r="800" ht="13"/>
-    <row r="801" ht="13"/>
-    <row r="802" ht="13"/>
-    <row r="803" ht="13"/>
-    <row r="804" ht="13"/>
-    <row r="805" ht="13"/>
-    <row r="806" ht="13"/>
-    <row r="807" ht="13"/>
-    <row r="808" ht="13"/>
-    <row r="809" ht="13"/>
-    <row r="810" ht="13"/>
-    <row r="811" ht="13"/>
-    <row r="812" ht="13"/>
-    <row r="813" ht="13"/>
-    <row r="814" ht="13"/>
-    <row r="815" ht="13"/>
-    <row r="816" ht="13"/>
-    <row r="817" ht="13"/>
-    <row r="818" ht="13"/>
-    <row r="819" ht="13"/>
-    <row r="820" ht="13"/>
-    <row r="821" ht="13"/>
-    <row r="822" ht="13"/>
-    <row r="823" ht="13"/>
-    <row r="824" ht="13"/>
-    <row r="825" ht="13"/>
-    <row r="826" ht="13"/>
-    <row r="827" ht="13"/>
-    <row r="828" ht="13"/>
-    <row r="829" ht="13"/>
-    <row r="830" ht="13"/>
-    <row r="831" ht="13"/>
-    <row r="832" ht="13"/>
-    <row r="833" ht="13"/>
-    <row r="834" ht="13"/>
-    <row r="835" ht="13"/>
-    <row r="836" ht="13"/>
-    <row r="837" ht="13"/>
-    <row r="838" ht="13"/>
-    <row r="839" ht="13"/>
-    <row r="840" ht="13"/>
-    <row r="841" ht="13"/>
-    <row r="842" ht="13"/>
-    <row r="843" ht="13"/>
-    <row r="844" ht="13"/>
-    <row r="845" ht="13"/>
-    <row r="846" ht="13"/>
-    <row r="847" ht="13"/>
-    <row r="848" ht="13"/>
-    <row r="849" ht="13"/>
-    <row r="850" ht="13"/>
-    <row r="851" ht="13"/>
-    <row r="852" ht="13"/>
-    <row r="853" ht="13"/>
-    <row r="854" ht="13"/>
-    <row r="855" ht="13"/>
-    <row r="856" ht="13"/>
-    <row r="857" ht="13"/>
-    <row r="858" ht="13"/>
-    <row r="859" ht="13"/>
-    <row r="860" ht="13"/>
-    <row r="861" ht="13"/>
-    <row r="862" ht="13"/>
-    <row r="863" ht="13"/>
-    <row r="864" ht="13"/>
-    <row r="865" ht="13"/>
-    <row r="866" ht="13"/>
-    <row r="867" ht="13"/>
-    <row r="868" ht="13"/>
-    <row r="869" ht="13"/>
-    <row r="870" ht="13"/>
-    <row r="871" ht="13"/>
-    <row r="872" ht="13"/>
-    <row r="873" ht="13"/>
-    <row r="874" ht="13"/>
-    <row r="875" ht="13"/>
-    <row r="876" ht="13"/>
-    <row r="877" ht="13"/>
-    <row r="878" ht="13"/>
-    <row r="879" ht="13"/>
-    <row r="880" ht="13"/>
-    <row r="881" ht="13"/>
-    <row r="882" ht="13"/>
-    <row r="883" ht="13"/>
-    <row r="884" ht="13"/>
-    <row r="885" ht="13"/>
-    <row r="886" ht="13"/>
-    <row r="887" ht="13"/>
-    <row r="888" ht="13"/>
-    <row r="889" ht="13"/>
-    <row r="890" ht="13"/>
-    <row r="891" ht="13"/>
-    <row r="892" ht="13"/>
-    <row r="893" ht="13"/>
-    <row r="894" ht="13"/>
-    <row r="895" ht="13"/>
-    <row r="896" ht="13"/>
-    <row r="897" ht="13"/>
-    <row r="898" ht="13"/>
-    <row r="899" ht="13"/>
-    <row r="900" ht="13"/>
-    <row r="901" ht="13"/>
-    <row r="902" ht="13"/>
-    <row r="903" ht="13"/>
-    <row r="904" ht="13"/>
-    <row r="905" ht="13"/>
-    <row r="906" ht="13"/>
-    <row r="907" ht="13"/>
-    <row r="908" ht="13"/>
-    <row r="909" ht="13"/>
-    <row r="910" ht="13"/>
-    <row r="911" ht="13"/>
-    <row r="912" ht="13"/>
-    <row r="913" ht="13"/>
-    <row r="914" ht="13"/>
-    <row r="915" ht="13"/>
-    <row r="916" ht="13"/>
-    <row r="917" ht="13"/>
-    <row r="918" ht="13"/>
-    <row r="919" ht="13"/>
-    <row r="920" ht="13"/>
-    <row r="921" ht="13"/>
-    <row r="922" ht="13"/>
-    <row r="923" ht="13"/>
-    <row r="924" ht="13"/>
-    <row r="925" ht="13"/>
-    <row r="926" ht="13"/>
-    <row r="927" ht="13"/>
-    <row r="928" ht="13"/>
-    <row r="929" ht="13"/>
-    <row r="930" ht="13"/>
-    <row r="931" ht="13"/>
-    <row r="932" ht="13"/>
-    <row r="933" ht="13"/>
-    <row r="934" ht="13"/>
-    <row r="935" ht="13"/>
-    <row r="936" ht="13"/>
-    <row r="937" ht="13"/>
-    <row r="938" ht="13"/>
-    <row r="939" ht="13"/>
-    <row r="940" ht="13"/>
-    <row r="941" ht="13"/>
-    <row r="942" ht="13"/>
-    <row r="943" ht="13"/>
-    <row r="944" ht="13"/>
-    <row r="945" ht="13"/>
-    <row r="946" ht="13"/>
-    <row r="947" ht="13"/>
-    <row r="948" ht="13"/>
-    <row r="949" ht="13"/>
-    <row r="950" ht="13"/>
-    <row r="951" ht="13"/>
-    <row r="952" ht="13"/>
-    <row r="953" ht="13"/>
-    <row r="954" ht="13"/>
-    <row r="955" ht="13"/>
-    <row r="956" ht="13"/>
-    <row r="957" ht="13"/>
-    <row r="958" ht="13"/>
-    <row r="959" ht="13"/>
-    <row r="960" ht="13"/>
-    <row r="961" ht="13"/>
-    <row r="962" ht="13"/>
-    <row r="963" ht="13"/>
-    <row r="964" ht="13"/>
-    <row r="965" ht="13"/>
-    <row r="966" ht="13"/>
-    <row r="967" ht="13"/>
-    <row r="968" ht="13"/>
-    <row r="969" ht="13"/>
-    <row r="970" ht="13"/>
-    <row r="971" ht="13"/>
-    <row r="972" ht="13"/>
-    <row r="973" ht="13"/>
-    <row r="974" ht="13"/>
-    <row r="975" ht="13"/>
-    <row r="976" ht="13"/>
-    <row r="977" ht="13"/>
-    <row r="978" ht="13"/>
-    <row r="979" ht="13"/>
-    <row r="980" ht="13"/>
-    <row r="981" ht="13"/>
-    <row r="982" ht="13"/>
-    <row r="983" ht="13"/>
-    <row r="984" ht="13"/>
-    <row r="985" ht="13"/>
-    <row r="986" ht="13"/>
-    <row r="987" ht="13"/>
-    <row r="988" ht="13"/>
-    <row r="989" ht="13"/>
-    <row r="990" ht="13"/>
-    <row r="991" ht="13"/>
-    <row r="992" ht="13"/>
-    <row r="993" ht="13"/>
-    <row r="994" ht="13"/>
-    <row r="995" ht="13"/>
-    <row r="996" ht="13"/>
-    <row r="997" ht="13"/>
-    <row r="998" ht="13"/>
-    <row r="999" ht="13"/>
+    <row r="316" spans="2:15" ht="12"/>
+    <row r="317" spans="2:15" ht="12"/>
+    <row r="318" spans="2:15" ht="12"/>
+    <row r="319" spans="2:15" ht="12"/>
+    <row r="320" spans="2:15" ht="12"/>
+    <row r="321" ht="12"/>
+    <row r="322" ht="12"/>
+    <row r="323" ht="12"/>
+    <row r="324" ht="12"/>
+    <row r="325" ht="12"/>
+    <row r="326" ht="12"/>
+    <row r="327" ht="12"/>
+    <row r="328" ht="12"/>
+    <row r="329" ht="12"/>
+    <row r="330" ht="12"/>
+    <row r="331" ht="12"/>
+    <row r="332" ht="12"/>
+    <row r="333" ht="12"/>
+    <row r="334" ht="12"/>
+    <row r="335" ht="12"/>
+    <row r="336" ht="12"/>
+    <row r="337" ht="12"/>
+    <row r="338" ht="12"/>
+    <row r="339" ht="12"/>
+    <row r="340" ht="12"/>
+    <row r="341" ht="12"/>
+    <row r="342" ht="12"/>
+    <row r="343" ht="12"/>
+    <row r="344" ht="12"/>
+    <row r="345" ht="12"/>
+    <row r="346" ht="12"/>
+    <row r="347" ht="12"/>
+    <row r="348" ht="12"/>
+    <row r="349" ht="12"/>
+    <row r="350" ht="12"/>
+    <row r="351" ht="12"/>
+    <row r="352" ht="12"/>
+    <row r="353" ht="12"/>
+    <row r="354" ht="12"/>
+    <row r="355" ht="12"/>
+    <row r="356" ht="12"/>
+    <row r="357" ht="12"/>
+    <row r="358" ht="12"/>
+    <row r="359" ht="12"/>
+    <row r="360" ht="12"/>
+    <row r="361" ht="12"/>
+    <row r="362" ht="12"/>
+    <row r="363" ht="12"/>
+    <row r="364" ht="12"/>
+    <row r="365" ht="12"/>
+    <row r="366" ht="12"/>
+    <row r="367" ht="12"/>
+    <row r="368" ht="12"/>
+    <row r="369" ht="12"/>
+    <row r="370" ht="12"/>
+    <row r="371" ht="12"/>
+    <row r="372" ht="12"/>
+    <row r="373" ht="12"/>
+    <row r="374" ht="12"/>
+    <row r="375" ht="12"/>
+    <row r="376" ht="12"/>
+    <row r="377" ht="12"/>
+    <row r="378" ht="12"/>
+    <row r="379" ht="12"/>
+    <row r="380" ht="12"/>
+    <row r="381" ht="12"/>
+    <row r="382" ht="12"/>
+    <row r="383" ht="12"/>
+    <row r="384" ht="12"/>
+    <row r="385" ht="12"/>
+    <row r="386" ht="12"/>
+    <row r="387" ht="12"/>
+    <row r="388" ht="12"/>
+    <row r="389" ht="12"/>
+    <row r="390" ht="12"/>
+    <row r="391" ht="12"/>
+    <row r="392" ht="12"/>
+    <row r="393" ht="12"/>
+    <row r="394" ht="12"/>
+    <row r="395" ht="12"/>
+    <row r="396" ht="12"/>
+    <row r="397" ht="12"/>
+    <row r="398" ht="12"/>
+    <row r="399" ht="12"/>
+    <row r="400" ht="12"/>
+    <row r="401" ht="12"/>
+    <row r="402" ht="12"/>
+    <row r="403" ht="12"/>
+    <row r="404" ht="12"/>
+    <row r="405" ht="12"/>
+    <row r="406" ht="12"/>
+    <row r="407" ht="12"/>
+    <row r="408" ht="12"/>
+    <row r="409" ht="12"/>
+    <row r="410" ht="12"/>
+    <row r="411" ht="12"/>
+    <row r="412" ht="12"/>
+    <row r="413" ht="12"/>
+    <row r="414" ht="12"/>
+    <row r="415" ht="12"/>
+    <row r="416" ht="12"/>
+    <row r="417" ht="12"/>
+    <row r="418" ht="12"/>
+    <row r="419" ht="12"/>
+    <row r="420" ht="12"/>
+    <row r="421" ht="12"/>
+    <row r="422" ht="12"/>
+    <row r="423" ht="12"/>
+    <row r="424" ht="12"/>
+    <row r="425" ht="12"/>
+    <row r="426" ht="12"/>
+    <row r="427" ht="12"/>
+    <row r="428" ht="12"/>
+    <row r="429" ht="12"/>
+    <row r="430" ht="12"/>
+    <row r="431" ht="12"/>
+    <row r="432" ht="12"/>
+    <row r="433" ht="12"/>
+    <row r="434" ht="12"/>
+    <row r="435" ht="12"/>
+    <row r="436" ht="12"/>
+    <row r="437" ht="12"/>
+    <row r="438" ht="12"/>
+    <row r="439" ht="12"/>
+    <row r="440" ht="12"/>
+    <row r="441" ht="12"/>
+    <row r="442" ht="12"/>
+    <row r="443" ht="12"/>
+    <row r="444" ht="12"/>
+    <row r="445" ht="12"/>
+    <row r="446" ht="12"/>
+    <row r="447" ht="12"/>
+    <row r="448" ht="12"/>
+    <row r="449" ht="12"/>
+    <row r="450" ht="12"/>
+    <row r="451" ht="12"/>
+    <row r="452" ht="12"/>
+    <row r="453" ht="12"/>
+    <row r="454" ht="12"/>
+    <row r="455" ht="12"/>
+    <row r="456" ht="12"/>
+    <row r="457" ht="12"/>
+    <row r="458" ht="12"/>
+    <row r="459" ht="12"/>
+    <row r="460" ht="12"/>
+    <row r="461" ht="12"/>
+    <row r="462" ht="12"/>
+    <row r="463" ht="12"/>
+    <row r="464" ht="12"/>
+    <row r="465" ht="12"/>
+    <row r="466" ht="12"/>
+    <row r="467" ht="12"/>
+    <row r="468" ht="12"/>
+    <row r="469" ht="12"/>
+    <row r="470" ht="12"/>
+    <row r="471" ht="12"/>
+    <row r="472" ht="12"/>
+    <row r="473" ht="12"/>
+    <row r="474" ht="12"/>
+    <row r="475" ht="12"/>
+    <row r="476" ht="12"/>
+    <row r="477" ht="12"/>
+    <row r="478" ht="12"/>
+    <row r="479" ht="12"/>
+    <row r="480" ht="12"/>
+    <row r="481" ht="12"/>
+    <row r="482" ht="12"/>
+    <row r="483" ht="12"/>
+    <row r="484" ht="12"/>
+    <row r="485" ht="12"/>
+    <row r="486" ht="12"/>
+    <row r="487" ht="12"/>
+    <row r="488" ht="12"/>
+    <row r="489" ht="12"/>
+    <row r="490" ht="12"/>
+    <row r="491" ht="12"/>
+    <row r="492" ht="12"/>
+    <row r="493" ht="12"/>
+    <row r="494" ht="12"/>
+    <row r="495" ht="12"/>
+    <row r="496" ht="12"/>
+    <row r="497" ht="12"/>
+    <row r="498" ht="12"/>
+    <row r="499" ht="12"/>
+    <row r="500" ht="12"/>
+    <row r="501" ht="12"/>
+    <row r="502" ht="12"/>
+    <row r="503" ht="12"/>
+    <row r="504" ht="12"/>
+    <row r="505" ht="12"/>
+    <row r="506" ht="12"/>
+    <row r="507" ht="12"/>
+    <row r="508" ht="12"/>
+    <row r="509" ht="12"/>
+    <row r="510" ht="12"/>
+    <row r="511" ht="12"/>
+    <row r="512" ht="12"/>
+    <row r="513" ht="12"/>
+    <row r="514" ht="12"/>
+    <row r="515" ht="12"/>
+    <row r="516" ht="12"/>
+    <row r="517" ht="12"/>
+    <row r="518" ht="12"/>
+    <row r="519" ht="12"/>
+    <row r="520" ht="12"/>
+    <row r="521" ht="12"/>
+    <row r="522" ht="12"/>
+    <row r="523" ht="12"/>
+    <row r="524" ht="12"/>
+    <row r="525" ht="12"/>
+    <row r="526" ht="12"/>
+    <row r="527" ht="12"/>
+    <row r="528" ht="12"/>
+    <row r="529" ht="12"/>
+    <row r="530" ht="12"/>
+    <row r="531" ht="12"/>
+    <row r="532" ht="12"/>
+    <row r="533" ht="12"/>
+    <row r="534" ht="12"/>
+    <row r="535" ht="12"/>
+    <row r="536" ht="12"/>
+    <row r="537" ht="12"/>
+    <row r="538" ht="12"/>
+    <row r="539" ht="12"/>
+    <row r="540" ht="12"/>
+    <row r="541" ht="12"/>
+    <row r="542" ht="12"/>
+    <row r="543" ht="12"/>
+    <row r="544" ht="12"/>
+    <row r="545" ht="12"/>
+    <row r="546" ht="12"/>
+    <row r="547" ht="12"/>
+    <row r="548" ht="12"/>
+    <row r="549" ht="12"/>
+    <row r="550" ht="12"/>
+    <row r="551" ht="12"/>
+    <row r="552" ht="12"/>
+    <row r="553" ht="12"/>
+    <row r="554" ht="12"/>
+    <row r="555" ht="12"/>
+    <row r="556" ht="12"/>
+    <row r="557" ht="12"/>
+    <row r="558" ht="12"/>
+    <row r="559" ht="12"/>
+    <row r="560" ht="12"/>
+    <row r="561" ht="12"/>
+    <row r="562" ht="12"/>
+    <row r="563" ht="12"/>
+    <row r="564" ht="12"/>
+    <row r="565" ht="12"/>
+    <row r="566" ht="12"/>
+    <row r="567" ht="12"/>
+    <row r="568" ht="12"/>
+    <row r="569" ht="12"/>
+    <row r="570" ht="12"/>
+    <row r="571" ht="12"/>
+    <row r="572" ht="12"/>
+    <row r="573" ht="12"/>
+    <row r="574" ht="12"/>
+    <row r="575" ht="12"/>
+    <row r="576" ht="12"/>
+    <row r="577" ht="12"/>
+    <row r="578" ht="12"/>
+    <row r="579" ht="12"/>
+    <row r="580" ht="12"/>
+    <row r="581" ht="12"/>
+    <row r="582" ht="12"/>
+    <row r="583" ht="12"/>
+    <row r="584" ht="12"/>
+    <row r="585" ht="12"/>
+    <row r="586" ht="12"/>
+    <row r="587" ht="12"/>
+    <row r="588" ht="12"/>
+    <row r="589" ht="12"/>
+    <row r="590" ht="12"/>
+    <row r="591" ht="12"/>
+    <row r="592" ht="12"/>
+    <row r="593" ht="12"/>
+    <row r="594" ht="12"/>
+    <row r="595" ht="12"/>
+    <row r="596" ht="12"/>
+    <row r="597" ht="12"/>
+    <row r="598" ht="12"/>
+    <row r="599" ht="12"/>
+    <row r="600" ht="12"/>
+    <row r="601" ht="12"/>
+    <row r="602" ht="12"/>
+    <row r="603" ht="12"/>
+    <row r="604" ht="12"/>
+    <row r="605" ht="12"/>
+    <row r="606" ht="12"/>
+    <row r="607" ht="12"/>
+    <row r="608" ht="12"/>
+    <row r="609" ht="12"/>
+    <row r="610" ht="12"/>
+    <row r="611" ht="12"/>
+    <row r="612" ht="12"/>
+    <row r="613" ht="12"/>
+    <row r="614" ht="12"/>
+    <row r="615" ht="12"/>
+    <row r="616" ht="12"/>
+    <row r="617" ht="12"/>
+    <row r="618" ht="12"/>
+    <row r="619" ht="12"/>
+    <row r="620" ht="12"/>
+    <row r="621" ht="12"/>
+    <row r="622" ht="12"/>
+    <row r="623" ht="12"/>
+    <row r="624" ht="12"/>
+    <row r="625" ht="12"/>
+    <row r="626" ht="12"/>
+    <row r="627" ht="12"/>
+    <row r="628" ht="12"/>
+    <row r="629" ht="12"/>
+    <row r="630" ht="12"/>
+    <row r="631" ht="12"/>
+    <row r="632" ht="12"/>
+    <row r="633" ht="12"/>
+    <row r="634" ht="12"/>
+    <row r="635" ht="12"/>
+    <row r="636" ht="12"/>
+    <row r="637" ht="12"/>
+    <row r="638" ht="12"/>
+    <row r="639" ht="12"/>
+    <row r="640" ht="12"/>
+    <row r="641" ht="12"/>
+    <row r="642" ht="12"/>
+    <row r="643" ht="12"/>
+    <row r="644" ht="12"/>
+    <row r="645" ht="12"/>
+    <row r="646" ht="12"/>
+    <row r="647" ht="12"/>
+    <row r="648" ht="12"/>
+    <row r="649" ht="12"/>
+    <row r="650" ht="12"/>
+    <row r="651" ht="12"/>
+    <row r="652" ht="12"/>
+    <row r="653" ht="12"/>
+    <row r="654" ht="12"/>
+    <row r="655" ht="12"/>
+    <row r="656" ht="12"/>
+    <row r="657" ht="12"/>
+    <row r="658" ht="12"/>
+    <row r="659" ht="12"/>
+    <row r="660" ht="12"/>
+    <row r="661" ht="12"/>
+    <row r="662" ht="12"/>
+    <row r="663" ht="12"/>
+    <row r="664" ht="12"/>
+    <row r="665" ht="12"/>
+    <row r="666" ht="12"/>
+    <row r="667" ht="12"/>
+    <row r="668" ht="12"/>
+    <row r="669" ht="12"/>
+    <row r="670" ht="12"/>
+    <row r="671" ht="12"/>
+    <row r="672" ht="12"/>
+    <row r="673" ht="12"/>
+    <row r="674" ht="12"/>
+    <row r="675" ht="12"/>
+    <row r="676" ht="12"/>
+    <row r="677" ht="12"/>
+    <row r="678" ht="12"/>
+    <row r="679" ht="12"/>
+    <row r="680" ht="12"/>
+    <row r="681" ht="12"/>
+    <row r="682" ht="12"/>
+    <row r="683" ht="12"/>
+    <row r="684" ht="12"/>
+    <row r="685" ht="12"/>
+    <row r="686" ht="12"/>
+    <row r="687" ht="12"/>
+    <row r="688" ht="12"/>
+    <row r="689" ht="12"/>
+    <row r="690" ht="12"/>
+    <row r="691" ht="12"/>
+    <row r="692" ht="12"/>
+    <row r="693" ht="12"/>
+    <row r="694" ht="12"/>
+    <row r="695" ht="12"/>
+    <row r="696" ht="12"/>
+    <row r="697" ht="12"/>
+    <row r="698" ht="12"/>
+    <row r="699" ht="12"/>
+    <row r="700" ht="12"/>
+    <row r="701" ht="12"/>
+    <row r="702" ht="12"/>
+    <row r="703" ht="12"/>
+    <row r="704" ht="12"/>
+    <row r="705" ht="12"/>
+    <row r="706" ht="12"/>
+    <row r="707" ht="12"/>
+    <row r="708" ht="12"/>
+    <row r="709" ht="12"/>
+    <row r="710" ht="12"/>
+    <row r="711" ht="12"/>
+    <row r="712" ht="12"/>
+    <row r="713" ht="12"/>
+    <row r="714" ht="12"/>
+    <row r="715" ht="12"/>
+    <row r="716" ht="12"/>
+    <row r="717" ht="12"/>
+    <row r="718" ht="12"/>
+    <row r="719" ht="12"/>
+    <row r="720" ht="12"/>
+    <row r="721" ht="12"/>
+    <row r="722" ht="12"/>
+    <row r="723" ht="12"/>
+    <row r="724" ht="12"/>
+    <row r="725" ht="12"/>
+    <row r="726" ht="12"/>
+    <row r="727" ht="12"/>
+    <row r="728" ht="12"/>
+    <row r="729" ht="12"/>
+    <row r="730" ht="12"/>
+    <row r="731" ht="12"/>
+    <row r="732" ht="12"/>
+    <row r="733" ht="12"/>
+    <row r="734" ht="12"/>
+    <row r="735" ht="12"/>
+    <row r="736" ht="12"/>
+    <row r="737" ht="12"/>
+    <row r="738" ht="12"/>
+    <row r="739" ht="12"/>
+    <row r="740" ht="12"/>
+    <row r="741" ht="12"/>
+    <row r="742" ht="12"/>
+    <row r="743" ht="12"/>
+    <row r="744" ht="12"/>
+    <row r="745" ht="12"/>
+    <row r="746" ht="12"/>
+    <row r="747" ht="12"/>
+    <row r="748" ht="12"/>
+    <row r="749" ht="12"/>
+    <row r="750" ht="12"/>
+    <row r="751" ht="12"/>
+    <row r="752" ht="12"/>
+    <row r="753" ht="12"/>
+    <row r="754" ht="12"/>
+    <row r="755" ht="12"/>
+    <row r="756" ht="12"/>
+    <row r="757" ht="12"/>
+    <row r="758" ht="12"/>
+    <row r="759" ht="12"/>
+    <row r="760" ht="12"/>
+    <row r="761" ht="12"/>
+    <row r="762" ht="12"/>
+    <row r="763" ht="12"/>
+    <row r="764" ht="12"/>
+    <row r="765" ht="12"/>
+    <row r="766" ht="12"/>
+    <row r="767" ht="12"/>
+    <row r="768" ht="12"/>
+    <row r="769" ht="12"/>
+    <row r="770" ht="12"/>
+    <row r="771" ht="12"/>
+    <row r="772" ht="12"/>
+    <row r="773" ht="12"/>
+    <row r="774" ht="12"/>
+    <row r="775" ht="12"/>
+    <row r="776" ht="12"/>
+    <row r="777" ht="12"/>
+    <row r="778" ht="12"/>
+    <row r="779" ht="12"/>
+    <row r="780" ht="12"/>
+    <row r="781" ht="12"/>
+    <row r="782" ht="12"/>
+    <row r="783" ht="12"/>
+    <row r="784" ht="12"/>
+    <row r="785" ht="12"/>
+    <row r="786" ht="12"/>
+    <row r="787" ht="12"/>
+    <row r="788" ht="12"/>
+    <row r="789" ht="12"/>
+    <row r="790" ht="12"/>
+    <row r="791" ht="12"/>
+    <row r="792" ht="12"/>
+    <row r="793" ht="12"/>
+    <row r="794" ht="12"/>
+    <row r="795" ht="12"/>
+    <row r="796" ht="12"/>
+    <row r="797" ht="12"/>
+    <row r="798" ht="12"/>
+    <row r="799" ht="12"/>
+    <row r="800" ht="12"/>
+    <row r="801" ht="12"/>
+    <row r="802" ht="12"/>
+    <row r="803" ht="12"/>
+    <row r="804" ht="12"/>
+    <row r="805" ht="12"/>
+    <row r="806" ht="12"/>
+    <row r="807" ht="12"/>
+    <row r="808" ht="12"/>
+    <row r="809" ht="12"/>
+    <row r="810" ht="12"/>
+    <row r="811" ht="12"/>
+    <row r="812" ht="12"/>
+    <row r="813" ht="12"/>
+    <row r="814" ht="12"/>
+    <row r="815" ht="12"/>
+    <row r="816" ht="12"/>
+    <row r="817" ht="12"/>
+    <row r="818" ht="12"/>
+    <row r="819" ht="12"/>
+    <row r="820" ht="12"/>
+    <row r="821" ht="12"/>
+    <row r="822" ht="12"/>
+    <row r="823" ht="12"/>
+    <row r="824" ht="12"/>
+    <row r="825" ht="12"/>
+    <row r="826" ht="12"/>
+    <row r="827" ht="12"/>
+    <row r="828" ht="12"/>
+    <row r="829" ht="12"/>
+    <row r="830" ht="12"/>
+    <row r="831" ht="12"/>
+    <row r="832" ht="12"/>
+    <row r="833" ht="12"/>
+    <row r="834" ht="12"/>
+    <row r="835" ht="12"/>
+    <row r="836" ht="12"/>
+    <row r="837" ht="12"/>
+    <row r="838" ht="12"/>
+    <row r="839" ht="12"/>
+    <row r="840" ht="12"/>
+    <row r="841" ht="12"/>
+    <row r="842" ht="12"/>
+    <row r="843" ht="12"/>
+    <row r="844" ht="12"/>
+    <row r="845" ht="12"/>
+    <row r="846" ht="12"/>
+    <row r="847" ht="12"/>
+    <row r="848" ht="12"/>
+    <row r="849" ht="12"/>
+    <row r="850" ht="12"/>
+    <row r="851" ht="12"/>
+    <row r="852" ht="12"/>
+    <row r="853" ht="12"/>
+    <row r="854" ht="12"/>
+    <row r="855" ht="12"/>
+    <row r="856" ht="12"/>
+    <row r="857" ht="12"/>
+    <row r="858" ht="12"/>
+    <row r="859" ht="12"/>
+    <row r="860" ht="12"/>
+    <row r="861" ht="12"/>
+    <row r="862" ht="12"/>
+    <row r="863" ht="12"/>
+    <row r="864" ht="12"/>
+    <row r="865" ht="12"/>
+    <row r="866" ht="12"/>
+    <row r="867" ht="12"/>
+    <row r="868" ht="12"/>
+    <row r="869" ht="12"/>
+    <row r="870" ht="12"/>
+    <row r="871" ht="12"/>
+    <row r="872" ht="12"/>
+    <row r="873" ht="12"/>
+    <row r="874" ht="12"/>
+    <row r="875" ht="12"/>
+    <row r="876" ht="12"/>
+    <row r="877" ht="12"/>
+    <row r="878" ht="12"/>
+    <row r="879" ht="12"/>
+    <row r="880" ht="12"/>
+    <row r="881" ht="12"/>
+    <row r="882" ht="12"/>
+    <row r="883" ht="12"/>
+    <row r="884" ht="12"/>
+    <row r="885" ht="12"/>
+    <row r="886" ht="12"/>
+    <row r="887" ht="12"/>
+    <row r="888" ht="12"/>
+    <row r="889" ht="12"/>
+    <row r="890" ht="12"/>
+    <row r="891" ht="12"/>
+    <row r="892" ht="12"/>
+    <row r="893" ht="12"/>
+    <row r="894" ht="12"/>
+    <row r="895" ht="12"/>
+    <row r="896" ht="12"/>
+    <row r="897" ht="12"/>
+    <row r="898" ht="12"/>
+    <row r="899" ht="12"/>
+    <row r="900" ht="12"/>
+    <row r="901" ht="12"/>
+    <row r="902" ht="12"/>
+    <row r="903" ht="12"/>
+    <row r="904" ht="12"/>
+    <row r="905" ht="12"/>
+    <row r="906" ht="12"/>
+    <row r="907" ht="12"/>
+    <row r="908" ht="12"/>
+    <row r="909" ht="12"/>
+    <row r="910" ht="12"/>
+    <row r="911" ht="12"/>
+    <row r="912" ht="12"/>
+    <row r="913" ht="12"/>
+    <row r="914" ht="12"/>
+    <row r="915" ht="12"/>
+    <row r="916" ht="12"/>
+    <row r="917" ht="12"/>
+    <row r="918" ht="12"/>
+    <row r="919" ht="12"/>
+    <row r="920" ht="12"/>
+    <row r="921" ht="12"/>
+    <row r="922" ht="12"/>
+    <row r="923" ht="12"/>
+    <row r="924" ht="12"/>
+    <row r="925" ht="12"/>
+    <row r="926" ht="12"/>
+    <row r="927" ht="12"/>
+    <row r="928" ht="12"/>
+    <row r="929" ht="12"/>
+    <row r="930" ht="12"/>
+    <row r="931" ht="12"/>
+    <row r="932" ht="12"/>
+    <row r="933" ht="12"/>
+    <row r="934" ht="12"/>
+    <row r="935" ht="12"/>
+    <row r="936" ht="12"/>
+    <row r="937" ht="12"/>
+    <row r="938" ht="12"/>
+    <row r="939" ht="12"/>
+    <row r="940" ht="12"/>
+    <row r="941" ht="12"/>
+    <row r="942" ht="12"/>
+    <row r="943" ht="12"/>
+    <row r="944" ht="12"/>
+    <row r="945" ht="12"/>
+    <row r="946" ht="12"/>
+    <row r="947" ht="12"/>
+    <row r="948" ht="12"/>
+    <row r="949" ht="12"/>
+    <row r="950" ht="12"/>
+    <row r="951" ht="12"/>
+    <row r="952" ht="12"/>
+    <row r="953" ht="12"/>
+    <row r="954" ht="12"/>
+    <row r="955" ht="12"/>
+    <row r="956" ht="12"/>
+    <row r="957" ht="12"/>
+    <row r="958" ht="12"/>
+    <row r="959" ht="12"/>
+    <row r="960" ht="12"/>
+    <row r="961" ht="12"/>
+    <row r="962" ht="12"/>
+    <row r="963" ht="12"/>
+    <row r="964" ht="12"/>
+    <row r="965" ht="12"/>
+    <row r="966" ht="12"/>
+    <row r="967" ht="12"/>
+    <row r="968" ht="12"/>
+    <row r="969" ht="12"/>
+    <row r="970" ht="12"/>
+    <row r="971" ht="12"/>
+    <row r="972" ht="12"/>
+    <row r="973" ht="12"/>
+    <row r="974" ht="12"/>
+    <row r="975" ht="12"/>
+    <row r="976" ht="12"/>
+    <row r="977" ht="12"/>
+    <row r="978" ht="12"/>
+    <row r="979" ht="12"/>
+    <row r="980" ht="12"/>
+    <row r="981" ht="12"/>
+    <row r="982" ht="12"/>
+    <row r="983" ht="12"/>
+    <row r="984" ht="12"/>
+    <row r="985" ht="12"/>
+    <row r="986" ht="12"/>
+    <row r="987" ht="12"/>
+    <row r="988" ht="12"/>
+    <row r="989" ht="12"/>
+    <row r="990" ht="12"/>
+    <row r="991" ht="12"/>
+    <row r="992" ht="12"/>
+    <row r="993" ht="12"/>
+    <row r="994" ht="12"/>
+    <row r="995" ht="12"/>
+    <row r="996" ht="12"/>
+    <row r="997" ht="12"/>
+    <row r="998" ht="12"/>
+    <row r="999" ht="12"/>
   </sheetData>
-  <autoFilter ref="A1:Q115" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Q115"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5499,7 +5514,7 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
@@ -5516,7 +5531,7 @@
     <col min="16" max="16" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15">
+    <row r="1" spans="1:16" ht="14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5566,7 +5581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15">
+    <row r="2" spans="1:16" ht="14">
       <c r="A2" s="2" t="s">
         <v>171</v>
       </c>
@@ -5592,7 +5607,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15">
+    <row r="3" spans="1:16" ht="14">
       <c r="A3" s="2" t="s">
         <v>171</v>
       </c>
@@ -5618,55 +5633,55 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14">
+    <row r="4" spans="1:16" ht="13">
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:16" ht="14">
+    <row r="5" spans="1:16" ht="13">
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:16" ht="14">
+    <row r="6" spans="1:16" ht="13">
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:16" ht="14">
+    <row r="7" spans="1:16" ht="13">
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:16" ht="14">
+    <row r="8" spans="1:16" ht="13">
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:16" ht="14">
+    <row r="9" spans="1:16" ht="13">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:16" ht="14">
+    <row r="10" spans="1:16" ht="13">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:16" ht="14">
+    <row r="11" spans="1:16" ht="13">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:16" ht="14">
+    <row r="12" spans="1:16" ht="13">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:16" ht="14">
+    <row r="13" spans="1:16" ht="13">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:16" ht="14">
+    <row r="14" spans="1:16" ht="13">
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:16" ht="14">
+    <row r="15" spans="1:16" ht="13">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:16" ht="14">
+    <row r="16" spans="1:16" ht="13">
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="2:2" ht="14">
+    <row r="17" spans="2:2" ht="13">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:2" ht="14">
+    <row r="18" spans="2:2" ht="13">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="2:2" ht="14">
+    <row r="19" spans="2:2" ht="13">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:2" ht="14">
+    <row r="20" spans="2:2" ht="13">
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="2:2" ht="15.75" customHeight="1">
@@ -6269,802 +6284,807 @@
     <row r="220" spans="2:2" ht="15.75" customHeight="1">
       <c r="B220" s="4"/>
     </row>
-    <row r="221" spans="2:2" ht="13"/>
-    <row r="222" spans="2:2" ht="13"/>
-    <row r="223" spans="2:2" ht="13"/>
-    <row r="224" spans="2:2" ht="13"/>
-    <row r="225" ht="13"/>
-    <row r="226" ht="13"/>
-    <row r="227" ht="13"/>
-    <row r="228" ht="13"/>
-    <row r="229" ht="13"/>
-    <row r="230" ht="13"/>
-    <row r="231" ht="13"/>
-    <row r="232" ht="13"/>
-    <row r="233" ht="13"/>
-    <row r="234" ht="13"/>
-    <row r="235" ht="13"/>
-    <row r="236" ht="13"/>
-    <row r="237" ht="13"/>
-    <row r="238" ht="13"/>
-    <row r="239" ht="13"/>
-    <row r="240" ht="13"/>
-    <row r="241" ht="13"/>
-    <row r="242" ht="13"/>
-    <row r="243" ht="13"/>
-    <row r="244" ht="13"/>
-    <row r="245" ht="13"/>
-    <row r="246" ht="13"/>
-    <row r="247" ht="13"/>
-    <row r="248" ht="13"/>
-    <row r="249" ht="13"/>
-    <row r="250" ht="13"/>
-    <row r="251" ht="13"/>
-    <row r="252" ht="13"/>
-    <row r="253" ht="13"/>
-    <row r="254" ht="13"/>
-    <row r="255" ht="13"/>
-    <row r="256" ht="13"/>
-    <row r="257" ht="13"/>
-    <row r="258" ht="13"/>
-    <row r="259" ht="13"/>
-    <row r="260" ht="13"/>
-    <row r="261" ht="13"/>
-    <row r="262" ht="13"/>
-    <row r="263" ht="13"/>
-    <row r="264" ht="13"/>
-    <row r="265" ht="13"/>
-    <row r="266" ht="13"/>
-    <row r="267" ht="13"/>
-    <row r="268" ht="13"/>
-    <row r="269" ht="13"/>
-    <row r="270" ht="13"/>
-    <row r="271" ht="13"/>
-    <row r="272" ht="13"/>
-    <row r="273" ht="13"/>
-    <row r="274" ht="13"/>
-    <row r="275" ht="13"/>
-    <row r="276" ht="13"/>
-    <row r="277" ht="13"/>
-    <row r="278" ht="13"/>
-    <row r="279" ht="13"/>
-    <row r="280" ht="13"/>
-    <row r="281" ht="13"/>
-    <row r="282" ht="13"/>
-    <row r="283" ht="13"/>
-    <row r="284" ht="13"/>
-    <row r="285" ht="13"/>
-    <row r="286" ht="13"/>
-    <row r="287" ht="13"/>
-    <row r="288" ht="13"/>
-    <row r="289" ht="13"/>
-    <row r="290" ht="13"/>
-    <row r="291" ht="13"/>
-    <row r="292" ht="13"/>
-    <row r="293" ht="13"/>
-    <row r="294" ht="13"/>
-    <row r="295" ht="13"/>
-    <row r="296" ht="13"/>
-    <row r="297" ht="13"/>
-    <row r="298" ht="13"/>
-    <row r="299" ht="13"/>
-    <row r="300" ht="13"/>
-    <row r="301" ht="13"/>
-    <row r="302" ht="13"/>
-    <row r="303" ht="13"/>
-    <row r="304" ht="13"/>
-    <row r="305" ht="13"/>
-    <row r="306" ht="13"/>
-    <row r="307" ht="13"/>
-    <row r="308" ht="13"/>
-    <row r="309" ht="13"/>
-    <row r="310" ht="13"/>
-    <row r="311" ht="13"/>
-    <row r="312" ht="13"/>
-    <row r="313" ht="13"/>
-    <row r="314" ht="13"/>
-    <row r="315" ht="13"/>
-    <row r="316" ht="13"/>
-    <row r="317" ht="13"/>
-    <row r="318" ht="13"/>
-    <row r="319" ht="13"/>
-    <row r="320" ht="13"/>
-    <row r="321" ht="13"/>
-    <row r="322" ht="13"/>
-    <row r="323" ht="13"/>
-    <row r="324" ht="13"/>
-    <row r="325" ht="13"/>
-    <row r="326" ht="13"/>
-    <row r="327" ht="13"/>
-    <row r="328" ht="13"/>
-    <row r="329" ht="13"/>
-    <row r="330" ht="13"/>
-    <row r="331" ht="13"/>
-    <row r="332" ht="13"/>
-    <row r="333" ht="13"/>
-    <row r="334" ht="13"/>
-    <row r="335" ht="13"/>
-    <row r="336" ht="13"/>
-    <row r="337" ht="13"/>
-    <row r="338" ht="13"/>
-    <row r="339" ht="13"/>
-    <row r="340" ht="13"/>
-    <row r="341" ht="13"/>
-    <row r="342" ht="13"/>
-    <row r="343" ht="13"/>
-    <row r="344" ht="13"/>
-    <row r="345" ht="13"/>
-    <row r="346" ht="13"/>
-    <row r="347" ht="13"/>
-    <row r="348" ht="13"/>
-    <row r="349" ht="13"/>
-    <row r="350" ht="13"/>
-    <row r="351" ht="13"/>
-    <row r="352" ht="13"/>
-    <row r="353" ht="13"/>
-    <row r="354" ht="13"/>
-    <row r="355" ht="13"/>
-    <row r="356" ht="13"/>
-    <row r="357" ht="13"/>
-    <row r="358" ht="13"/>
-    <row r="359" ht="13"/>
-    <row r="360" ht="13"/>
-    <row r="361" ht="13"/>
-    <row r="362" ht="13"/>
-    <row r="363" ht="13"/>
-    <row r="364" ht="13"/>
-    <row r="365" ht="13"/>
-    <row r="366" ht="13"/>
-    <row r="367" ht="13"/>
-    <row r="368" ht="13"/>
-    <row r="369" ht="13"/>
-    <row r="370" ht="13"/>
-    <row r="371" ht="13"/>
-    <row r="372" ht="13"/>
-    <row r="373" ht="13"/>
-    <row r="374" ht="13"/>
-    <row r="375" ht="13"/>
-    <row r="376" ht="13"/>
-    <row r="377" ht="13"/>
-    <row r="378" ht="13"/>
-    <row r="379" ht="13"/>
-    <row r="380" ht="13"/>
-    <row r="381" ht="13"/>
-    <row r="382" ht="13"/>
-    <row r="383" ht="13"/>
-    <row r="384" ht="13"/>
-    <row r="385" ht="13"/>
-    <row r="386" ht="13"/>
-    <row r="387" ht="13"/>
-    <row r="388" ht="13"/>
-    <row r="389" ht="13"/>
-    <row r="390" ht="13"/>
-    <row r="391" ht="13"/>
-    <row r="392" ht="13"/>
-    <row r="393" ht="13"/>
-    <row r="394" ht="13"/>
-    <row r="395" ht="13"/>
-    <row r="396" ht="13"/>
-    <row r="397" ht="13"/>
-    <row r="398" ht="13"/>
-    <row r="399" ht="13"/>
-    <row r="400" ht="13"/>
-    <row r="401" ht="13"/>
-    <row r="402" ht="13"/>
-    <row r="403" ht="13"/>
-    <row r="404" ht="13"/>
-    <row r="405" ht="13"/>
-    <row r="406" ht="13"/>
-    <row r="407" ht="13"/>
-    <row r="408" ht="13"/>
-    <row r="409" ht="13"/>
-    <row r="410" ht="13"/>
-    <row r="411" ht="13"/>
-    <row r="412" ht="13"/>
-    <row r="413" ht="13"/>
-    <row r="414" ht="13"/>
-    <row r="415" ht="13"/>
-    <row r="416" ht="13"/>
-    <row r="417" ht="13"/>
-    <row r="418" ht="13"/>
-    <row r="419" ht="13"/>
-    <row r="420" ht="13"/>
-    <row r="421" ht="13"/>
-    <row r="422" ht="13"/>
-    <row r="423" ht="13"/>
-    <row r="424" ht="13"/>
-    <row r="425" ht="13"/>
-    <row r="426" ht="13"/>
-    <row r="427" ht="13"/>
-    <row r="428" ht="13"/>
-    <row r="429" ht="13"/>
-    <row r="430" ht="13"/>
-    <row r="431" ht="13"/>
-    <row r="432" ht="13"/>
-    <row r="433" ht="13"/>
-    <row r="434" ht="13"/>
-    <row r="435" ht="13"/>
-    <row r="436" ht="13"/>
-    <row r="437" ht="13"/>
-    <row r="438" ht="13"/>
-    <row r="439" ht="13"/>
-    <row r="440" ht="13"/>
-    <row r="441" ht="13"/>
-    <row r="442" ht="13"/>
-    <row r="443" ht="13"/>
-    <row r="444" ht="13"/>
-    <row r="445" ht="13"/>
-    <row r="446" ht="13"/>
-    <row r="447" ht="13"/>
-    <row r="448" ht="13"/>
-    <row r="449" ht="13"/>
-    <row r="450" ht="13"/>
-    <row r="451" ht="13"/>
-    <row r="452" ht="13"/>
-    <row r="453" ht="13"/>
-    <row r="454" ht="13"/>
-    <row r="455" ht="13"/>
-    <row r="456" ht="13"/>
-    <row r="457" ht="13"/>
-    <row r="458" ht="13"/>
-    <row r="459" ht="13"/>
-    <row r="460" ht="13"/>
-    <row r="461" ht="13"/>
-    <row r="462" ht="13"/>
-    <row r="463" ht="13"/>
-    <row r="464" ht="13"/>
-    <row r="465" ht="13"/>
-    <row r="466" ht="13"/>
-    <row r="467" ht="13"/>
-    <row r="468" ht="13"/>
-    <row r="469" ht="13"/>
-    <row r="470" ht="13"/>
-    <row r="471" ht="13"/>
-    <row r="472" ht="13"/>
-    <row r="473" ht="13"/>
-    <row r="474" ht="13"/>
-    <row r="475" ht="13"/>
-    <row r="476" ht="13"/>
-    <row r="477" ht="13"/>
-    <row r="478" ht="13"/>
-    <row r="479" ht="13"/>
-    <row r="480" ht="13"/>
-    <row r="481" ht="13"/>
-    <row r="482" ht="13"/>
-    <row r="483" ht="13"/>
-    <row r="484" ht="13"/>
-    <row r="485" ht="13"/>
-    <row r="486" ht="13"/>
-    <row r="487" ht="13"/>
-    <row r="488" ht="13"/>
-    <row r="489" ht="13"/>
-    <row r="490" ht="13"/>
-    <row r="491" ht="13"/>
-    <row r="492" ht="13"/>
-    <row r="493" ht="13"/>
-    <row r="494" ht="13"/>
-    <row r="495" ht="13"/>
-    <row r="496" ht="13"/>
-    <row r="497" ht="13"/>
-    <row r="498" ht="13"/>
-    <row r="499" ht="13"/>
-    <row r="500" ht="13"/>
-    <row r="501" ht="13"/>
-    <row r="502" ht="13"/>
-    <row r="503" ht="13"/>
-    <row r="504" ht="13"/>
-    <row r="505" ht="13"/>
-    <row r="506" ht="13"/>
-    <row r="507" ht="13"/>
-    <row r="508" ht="13"/>
-    <row r="509" ht="13"/>
-    <row r="510" ht="13"/>
-    <row r="511" ht="13"/>
-    <row r="512" ht="13"/>
-    <row r="513" ht="13"/>
-    <row r="514" ht="13"/>
-    <row r="515" ht="13"/>
-    <row r="516" ht="13"/>
-    <row r="517" ht="13"/>
-    <row r="518" ht="13"/>
-    <row r="519" ht="13"/>
-    <row r="520" ht="13"/>
-    <row r="521" ht="13"/>
-    <row r="522" ht="13"/>
-    <row r="523" ht="13"/>
-    <row r="524" ht="13"/>
-    <row r="525" ht="13"/>
-    <row r="526" ht="13"/>
-    <row r="527" ht="13"/>
-    <row r="528" ht="13"/>
-    <row r="529" ht="13"/>
-    <row r="530" ht="13"/>
-    <row r="531" ht="13"/>
-    <row r="532" ht="13"/>
-    <row r="533" ht="13"/>
-    <row r="534" ht="13"/>
-    <row r="535" ht="13"/>
-    <row r="536" ht="13"/>
-    <row r="537" ht="13"/>
-    <row r="538" ht="13"/>
-    <row r="539" ht="13"/>
-    <row r="540" ht="13"/>
-    <row r="541" ht="13"/>
-    <row r="542" ht="13"/>
-    <row r="543" ht="13"/>
-    <row r="544" ht="13"/>
-    <row r="545" ht="13"/>
-    <row r="546" ht="13"/>
-    <row r="547" ht="13"/>
-    <row r="548" ht="13"/>
-    <row r="549" ht="13"/>
-    <row r="550" ht="13"/>
-    <row r="551" ht="13"/>
-    <row r="552" ht="13"/>
-    <row r="553" ht="13"/>
-    <row r="554" ht="13"/>
-    <row r="555" ht="13"/>
-    <row r="556" ht="13"/>
-    <row r="557" ht="13"/>
-    <row r="558" ht="13"/>
-    <row r="559" ht="13"/>
-    <row r="560" ht="13"/>
-    <row r="561" ht="13"/>
-    <row r="562" ht="13"/>
-    <row r="563" ht="13"/>
-    <row r="564" ht="13"/>
-    <row r="565" ht="13"/>
-    <row r="566" ht="13"/>
-    <row r="567" ht="13"/>
-    <row r="568" ht="13"/>
-    <row r="569" ht="13"/>
-    <row r="570" ht="13"/>
-    <row r="571" ht="13"/>
-    <row r="572" ht="13"/>
-    <row r="573" ht="13"/>
-    <row r="574" ht="13"/>
-    <row r="575" ht="13"/>
-    <row r="576" ht="13"/>
-    <row r="577" ht="13"/>
-    <row r="578" ht="13"/>
-    <row r="579" ht="13"/>
-    <row r="580" ht="13"/>
-    <row r="581" ht="13"/>
-    <row r="582" ht="13"/>
-    <row r="583" ht="13"/>
-    <row r="584" ht="13"/>
-    <row r="585" ht="13"/>
-    <row r="586" ht="13"/>
-    <row r="587" ht="13"/>
-    <row r="588" ht="13"/>
-    <row r="589" ht="13"/>
-    <row r="590" ht="13"/>
-    <row r="591" ht="13"/>
-    <row r="592" ht="13"/>
-    <row r="593" ht="13"/>
-    <row r="594" ht="13"/>
-    <row r="595" ht="13"/>
-    <row r="596" ht="13"/>
-    <row r="597" ht="13"/>
-    <row r="598" ht="13"/>
-    <row r="599" ht="13"/>
-    <row r="600" ht="13"/>
-    <row r="601" ht="13"/>
-    <row r="602" ht="13"/>
-    <row r="603" ht="13"/>
-    <row r="604" ht="13"/>
-    <row r="605" ht="13"/>
-    <row r="606" ht="13"/>
-    <row r="607" ht="13"/>
-    <row r="608" ht="13"/>
-    <row r="609" ht="13"/>
-    <row r="610" ht="13"/>
-    <row r="611" ht="13"/>
-    <row r="612" ht="13"/>
-    <row r="613" ht="13"/>
-    <row r="614" ht="13"/>
-    <row r="615" ht="13"/>
-    <row r="616" ht="13"/>
-    <row r="617" ht="13"/>
-    <row r="618" ht="13"/>
-    <row r="619" ht="13"/>
-    <row r="620" ht="13"/>
-    <row r="621" ht="13"/>
-    <row r="622" ht="13"/>
-    <row r="623" ht="13"/>
-    <row r="624" ht="13"/>
-    <row r="625" ht="13"/>
-    <row r="626" ht="13"/>
-    <row r="627" ht="13"/>
-    <row r="628" ht="13"/>
-    <row r="629" ht="13"/>
-    <row r="630" ht="13"/>
-    <row r="631" ht="13"/>
-    <row r="632" ht="13"/>
-    <row r="633" ht="13"/>
-    <row r="634" ht="13"/>
-    <row r="635" ht="13"/>
-    <row r="636" ht="13"/>
-    <row r="637" ht="13"/>
-    <row r="638" ht="13"/>
-    <row r="639" ht="13"/>
-    <row r="640" ht="13"/>
-    <row r="641" ht="13"/>
-    <row r="642" ht="13"/>
-    <row r="643" ht="13"/>
-    <row r="644" ht="13"/>
-    <row r="645" ht="13"/>
-    <row r="646" ht="13"/>
-    <row r="647" ht="13"/>
-    <row r="648" ht="13"/>
-    <row r="649" ht="13"/>
-    <row r="650" ht="13"/>
-    <row r="651" ht="13"/>
-    <row r="652" ht="13"/>
-    <row r="653" ht="13"/>
-    <row r="654" ht="13"/>
-    <row r="655" ht="13"/>
-    <row r="656" ht="13"/>
-    <row r="657" ht="13"/>
-    <row r="658" ht="13"/>
-    <row r="659" ht="13"/>
-    <row r="660" ht="13"/>
-    <row r="661" ht="13"/>
-    <row r="662" ht="13"/>
-    <row r="663" ht="13"/>
-    <row r="664" ht="13"/>
-    <row r="665" ht="13"/>
-    <row r="666" ht="13"/>
-    <row r="667" ht="13"/>
-    <row r="668" ht="13"/>
-    <row r="669" ht="13"/>
-    <row r="670" ht="13"/>
-    <row r="671" ht="13"/>
-    <row r="672" ht="13"/>
-    <row r="673" ht="13"/>
-    <row r="674" ht="13"/>
-    <row r="675" ht="13"/>
-    <row r="676" ht="13"/>
-    <row r="677" ht="13"/>
-    <row r="678" ht="13"/>
-    <row r="679" ht="13"/>
-    <row r="680" ht="13"/>
-    <row r="681" ht="13"/>
-    <row r="682" ht="13"/>
-    <row r="683" ht="13"/>
-    <row r="684" ht="13"/>
-    <row r="685" ht="13"/>
-    <row r="686" ht="13"/>
-    <row r="687" ht="13"/>
-    <row r="688" ht="13"/>
-    <row r="689" ht="13"/>
-    <row r="690" ht="13"/>
-    <row r="691" ht="13"/>
-    <row r="692" ht="13"/>
-    <row r="693" ht="13"/>
-    <row r="694" ht="13"/>
-    <row r="695" ht="13"/>
-    <row r="696" ht="13"/>
-    <row r="697" ht="13"/>
-    <row r="698" ht="13"/>
-    <row r="699" ht="13"/>
-    <row r="700" ht="13"/>
-    <row r="701" ht="13"/>
-    <row r="702" ht="13"/>
-    <row r="703" ht="13"/>
-    <row r="704" ht="13"/>
-    <row r="705" ht="13"/>
-    <row r="706" ht="13"/>
-    <row r="707" ht="13"/>
-    <row r="708" ht="13"/>
-    <row r="709" ht="13"/>
-    <row r="710" ht="13"/>
-    <row r="711" ht="13"/>
-    <row r="712" ht="13"/>
-    <row r="713" ht="13"/>
-    <row r="714" ht="13"/>
-    <row r="715" ht="13"/>
-    <row r="716" ht="13"/>
-    <row r="717" ht="13"/>
-    <row r="718" ht="13"/>
-    <row r="719" ht="13"/>
-    <row r="720" ht="13"/>
-    <row r="721" ht="13"/>
-    <row r="722" ht="13"/>
-    <row r="723" ht="13"/>
-    <row r="724" ht="13"/>
-    <row r="725" ht="13"/>
-    <row r="726" ht="13"/>
-    <row r="727" ht="13"/>
-    <row r="728" ht="13"/>
-    <row r="729" ht="13"/>
-    <row r="730" ht="13"/>
-    <row r="731" ht="13"/>
-    <row r="732" ht="13"/>
-    <row r="733" ht="13"/>
-    <row r="734" ht="13"/>
-    <row r="735" ht="13"/>
-    <row r="736" ht="13"/>
-    <row r="737" ht="13"/>
-    <row r="738" ht="13"/>
-    <row r="739" ht="13"/>
-    <row r="740" ht="13"/>
-    <row r="741" ht="13"/>
-    <row r="742" ht="13"/>
-    <row r="743" ht="13"/>
-    <row r="744" ht="13"/>
-    <row r="745" ht="13"/>
-    <row r="746" ht="13"/>
-    <row r="747" ht="13"/>
-    <row r="748" ht="13"/>
-    <row r="749" ht="13"/>
-    <row r="750" ht="13"/>
-    <row r="751" ht="13"/>
-    <row r="752" ht="13"/>
-    <row r="753" ht="13"/>
-    <row r="754" ht="13"/>
-    <row r="755" ht="13"/>
-    <row r="756" ht="13"/>
-    <row r="757" ht="13"/>
-    <row r="758" ht="13"/>
-    <row r="759" ht="13"/>
-    <row r="760" ht="13"/>
-    <row r="761" ht="13"/>
-    <row r="762" ht="13"/>
-    <row r="763" ht="13"/>
-    <row r="764" ht="13"/>
-    <row r="765" ht="13"/>
-    <row r="766" ht="13"/>
-    <row r="767" ht="13"/>
-    <row r="768" ht="13"/>
-    <row r="769" ht="13"/>
-    <row r="770" ht="13"/>
-    <row r="771" ht="13"/>
-    <row r="772" ht="13"/>
-    <row r="773" ht="13"/>
-    <row r="774" ht="13"/>
-    <row r="775" ht="13"/>
-    <row r="776" ht="13"/>
-    <row r="777" ht="13"/>
-    <row r="778" ht="13"/>
-    <row r="779" ht="13"/>
-    <row r="780" ht="13"/>
-    <row r="781" ht="13"/>
-    <row r="782" ht="13"/>
-    <row r="783" ht="13"/>
-    <row r="784" ht="13"/>
-    <row r="785" ht="13"/>
-    <row r="786" ht="13"/>
-    <row r="787" ht="13"/>
-    <row r="788" ht="13"/>
-    <row r="789" ht="13"/>
-    <row r="790" ht="13"/>
-    <row r="791" ht="13"/>
-    <row r="792" ht="13"/>
-    <row r="793" ht="13"/>
-    <row r="794" ht="13"/>
-    <row r="795" ht="13"/>
-    <row r="796" ht="13"/>
-    <row r="797" ht="13"/>
-    <row r="798" ht="13"/>
-    <row r="799" ht="13"/>
-    <row r="800" ht="13"/>
-    <row r="801" ht="13"/>
-    <row r="802" ht="13"/>
-    <row r="803" ht="13"/>
-    <row r="804" ht="13"/>
-    <row r="805" ht="13"/>
-    <row r="806" ht="13"/>
-    <row r="807" ht="13"/>
-    <row r="808" ht="13"/>
-    <row r="809" ht="13"/>
-    <row r="810" ht="13"/>
-    <row r="811" ht="13"/>
-    <row r="812" ht="13"/>
-    <row r="813" ht="13"/>
-    <row r="814" ht="13"/>
-    <row r="815" ht="13"/>
-    <row r="816" ht="13"/>
-    <row r="817" ht="13"/>
-    <row r="818" ht="13"/>
-    <row r="819" ht="13"/>
-    <row r="820" ht="13"/>
-    <row r="821" ht="13"/>
-    <row r="822" ht="13"/>
-    <row r="823" ht="13"/>
-    <row r="824" ht="13"/>
-    <row r="825" ht="13"/>
-    <row r="826" ht="13"/>
-    <row r="827" ht="13"/>
-    <row r="828" ht="13"/>
-    <row r="829" ht="13"/>
-    <row r="830" ht="13"/>
-    <row r="831" ht="13"/>
-    <row r="832" ht="13"/>
-    <row r="833" ht="13"/>
-    <row r="834" ht="13"/>
-    <row r="835" ht="13"/>
-    <row r="836" ht="13"/>
-    <row r="837" ht="13"/>
-    <row r="838" ht="13"/>
-    <row r="839" ht="13"/>
-    <row r="840" ht="13"/>
-    <row r="841" ht="13"/>
-    <row r="842" ht="13"/>
-    <row r="843" ht="13"/>
-    <row r="844" ht="13"/>
-    <row r="845" ht="13"/>
-    <row r="846" ht="13"/>
-    <row r="847" ht="13"/>
-    <row r="848" ht="13"/>
-    <row r="849" ht="13"/>
-    <row r="850" ht="13"/>
-    <row r="851" ht="13"/>
-    <row r="852" ht="13"/>
-    <row r="853" ht="13"/>
-    <row r="854" ht="13"/>
-    <row r="855" ht="13"/>
-    <row r="856" ht="13"/>
-    <row r="857" ht="13"/>
-    <row r="858" ht="13"/>
-    <row r="859" ht="13"/>
-    <row r="860" ht="13"/>
-    <row r="861" ht="13"/>
-    <row r="862" ht="13"/>
-    <row r="863" ht="13"/>
-    <row r="864" ht="13"/>
-    <row r="865" ht="13"/>
-    <row r="866" ht="13"/>
-    <row r="867" ht="13"/>
-    <row r="868" ht="13"/>
-    <row r="869" ht="13"/>
-    <row r="870" ht="13"/>
-    <row r="871" ht="13"/>
-    <row r="872" ht="13"/>
-    <row r="873" ht="13"/>
-    <row r="874" ht="13"/>
-    <row r="875" ht="13"/>
-    <row r="876" ht="13"/>
-    <row r="877" ht="13"/>
-    <row r="878" ht="13"/>
-    <row r="879" ht="13"/>
-    <row r="880" ht="13"/>
-    <row r="881" ht="13"/>
-    <row r="882" ht="13"/>
-    <row r="883" ht="13"/>
-    <row r="884" ht="13"/>
-    <row r="885" ht="13"/>
-    <row r="886" ht="13"/>
-    <row r="887" ht="13"/>
-    <row r="888" ht="13"/>
-    <row r="889" ht="13"/>
-    <row r="890" ht="13"/>
-    <row r="891" ht="13"/>
-    <row r="892" ht="13"/>
-    <row r="893" ht="13"/>
-    <row r="894" ht="13"/>
-    <row r="895" ht="13"/>
-    <row r="896" ht="13"/>
-    <row r="897" ht="13"/>
-    <row r="898" ht="13"/>
-    <row r="899" ht="13"/>
-    <row r="900" ht="13"/>
-    <row r="901" ht="13"/>
-    <row r="902" ht="13"/>
-    <row r="903" ht="13"/>
-    <row r="904" ht="13"/>
-    <row r="905" ht="13"/>
-    <row r="906" ht="13"/>
-    <row r="907" ht="13"/>
-    <row r="908" ht="13"/>
-    <row r="909" ht="13"/>
-    <row r="910" ht="13"/>
-    <row r="911" ht="13"/>
-    <row r="912" ht="13"/>
-    <row r="913" ht="13"/>
-    <row r="914" ht="13"/>
-    <row r="915" ht="13"/>
-    <row r="916" ht="13"/>
-    <row r="917" ht="13"/>
-    <row r="918" ht="13"/>
-    <row r="919" ht="13"/>
-    <row r="920" ht="13"/>
-    <row r="921" ht="13"/>
-    <row r="922" ht="13"/>
-    <row r="923" ht="13"/>
-    <row r="924" ht="13"/>
-    <row r="925" ht="13"/>
-    <row r="926" ht="13"/>
-    <row r="927" ht="13"/>
-    <row r="928" ht="13"/>
-    <row r="929" ht="13"/>
-    <row r="930" ht="13"/>
-    <row r="931" ht="13"/>
-    <row r="932" ht="13"/>
-    <row r="933" ht="13"/>
-    <row r="934" ht="13"/>
-    <row r="935" ht="13"/>
-    <row r="936" ht="13"/>
-    <row r="937" ht="13"/>
-    <row r="938" ht="13"/>
-    <row r="939" ht="13"/>
-    <row r="940" ht="13"/>
-    <row r="941" ht="13"/>
-    <row r="942" ht="13"/>
-    <row r="943" ht="13"/>
-    <row r="944" ht="13"/>
-    <row r="945" ht="13"/>
-    <row r="946" ht="13"/>
-    <row r="947" ht="13"/>
-    <row r="948" ht="13"/>
-    <row r="949" ht="13"/>
-    <row r="950" ht="13"/>
-    <row r="951" ht="13"/>
-    <row r="952" ht="13"/>
-    <row r="953" ht="13"/>
-    <row r="954" ht="13"/>
-    <row r="955" ht="13"/>
-    <row r="956" ht="13"/>
-    <row r="957" ht="13"/>
-    <row r="958" ht="13"/>
-    <row r="959" ht="13"/>
-    <row r="960" ht="13"/>
-    <row r="961" ht="13"/>
-    <row r="962" ht="13"/>
-    <row r="963" ht="13"/>
-    <row r="964" ht="13"/>
-    <row r="965" ht="13"/>
-    <row r="966" ht="13"/>
-    <row r="967" ht="13"/>
-    <row r="968" ht="13"/>
-    <row r="969" ht="13"/>
-    <row r="970" ht="13"/>
-    <row r="971" ht="13"/>
-    <row r="972" ht="13"/>
-    <row r="973" ht="13"/>
-    <row r="974" ht="13"/>
-    <row r="975" ht="13"/>
-    <row r="976" ht="13"/>
-    <row r="977" ht="13"/>
-    <row r="978" ht="13"/>
-    <row r="979" ht="13"/>
-    <row r="980" ht="13"/>
-    <row r="981" ht="13"/>
-    <row r="982" ht="13"/>
-    <row r="983" ht="13"/>
-    <row r="984" ht="13"/>
-    <row r="985" ht="13"/>
-    <row r="986" ht="13"/>
-    <row r="987" ht="13"/>
-    <row r="988" ht="13"/>
-    <row r="989" ht="13"/>
-    <row r="990" ht="13"/>
-    <row r="991" ht="13"/>
-    <row r="992" ht="13"/>
-    <row r="993" ht="13"/>
-    <row r="994" ht="13"/>
-    <row r="995" ht="13"/>
-    <row r="996" ht="13"/>
-    <row r="997" ht="13"/>
-    <row r="998" ht="13"/>
-    <row r="999" ht="13"/>
-    <row r="1000" ht="13"/>
+    <row r="221" spans="2:2" ht="12"/>
+    <row r="222" spans="2:2" ht="12"/>
+    <row r="223" spans="2:2" ht="12"/>
+    <row r="224" spans="2:2" ht="12"/>
+    <row r="225" ht="12"/>
+    <row r="226" ht="12"/>
+    <row r="227" ht="12"/>
+    <row r="228" ht="12"/>
+    <row r="229" ht="12"/>
+    <row r="230" ht="12"/>
+    <row r="231" ht="12"/>
+    <row r="232" ht="12"/>
+    <row r="233" ht="12"/>
+    <row r="234" ht="12"/>
+    <row r="235" ht="12"/>
+    <row r="236" ht="12"/>
+    <row r="237" ht="12"/>
+    <row r="238" ht="12"/>
+    <row r="239" ht="12"/>
+    <row r="240" ht="12"/>
+    <row r="241" ht="12"/>
+    <row r="242" ht="12"/>
+    <row r="243" ht="12"/>
+    <row r="244" ht="12"/>
+    <row r="245" ht="12"/>
+    <row r="246" ht="12"/>
+    <row r="247" ht="12"/>
+    <row r="248" ht="12"/>
+    <row r="249" ht="12"/>
+    <row r="250" ht="12"/>
+    <row r="251" ht="12"/>
+    <row r="252" ht="12"/>
+    <row r="253" ht="12"/>
+    <row r="254" ht="12"/>
+    <row r="255" ht="12"/>
+    <row r="256" ht="12"/>
+    <row r="257" ht="12"/>
+    <row r="258" ht="12"/>
+    <row r="259" ht="12"/>
+    <row r="260" ht="12"/>
+    <row r="261" ht="12"/>
+    <row r="262" ht="12"/>
+    <row r="263" ht="12"/>
+    <row r="264" ht="12"/>
+    <row r="265" ht="12"/>
+    <row r="266" ht="12"/>
+    <row r="267" ht="12"/>
+    <row r="268" ht="12"/>
+    <row r="269" ht="12"/>
+    <row r="270" ht="12"/>
+    <row r="271" ht="12"/>
+    <row r="272" ht="12"/>
+    <row r="273" ht="12"/>
+    <row r="274" ht="12"/>
+    <row r="275" ht="12"/>
+    <row r="276" ht="12"/>
+    <row r="277" ht="12"/>
+    <row r="278" ht="12"/>
+    <row r="279" ht="12"/>
+    <row r="280" ht="12"/>
+    <row r="281" ht="12"/>
+    <row r="282" ht="12"/>
+    <row r="283" ht="12"/>
+    <row r="284" ht="12"/>
+    <row r="285" ht="12"/>
+    <row r="286" ht="12"/>
+    <row r="287" ht="12"/>
+    <row r="288" ht="12"/>
+    <row r="289" ht="12"/>
+    <row r="290" ht="12"/>
+    <row r="291" ht="12"/>
+    <row r="292" ht="12"/>
+    <row r="293" ht="12"/>
+    <row r="294" ht="12"/>
+    <row r="295" ht="12"/>
+    <row r="296" ht="12"/>
+    <row r="297" ht="12"/>
+    <row r="298" ht="12"/>
+    <row r="299" ht="12"/>
+    <row r="300" ht="12"/>
+    <row r="301" ht="12"/>
+    <row r="302" ht="12"/>
+    <row r="303" ht="12"/>
+    <row r="304" ht="12"/>
+    <row r="305" ht="12"/>
+    <row r="306" ht="12"/>
+    <row r="307" ht="12"/>
+    <row r="308" ht="12"/>
+    <row r="309" ht="12"/>
+    <row r="310" ht="12"/>
+    <row r="311" ht="12"/>
+    <row r="312" ht="12"/>
+    <row r="313" ht="12"/>
+    <row r="314" ht="12"/>
+    <row r="315" ht="12"/>
+    <row r="316" ht="12"/>
+    <row r="317" ht="12"/>
+    <row r="318" ht="12"/>
+    <row r="319" ht="12"/>
+    <row r="320" ht="12"/>
+    <row r="321" ht="12"/>
+    <row r="322" ht="12"/>
+    <row r="323" ht="12"/>
+    <row r="324" ht="12"/>
+    <row r="325" ht="12"/>
+    <row r="326" ht="12"/>
+    <row r="327" ht="12"/>
+    <row r="328" ht="12"/>
+    <row r="329" ht="12"/>
+    <row r="330" ht="12"/>
+    <row r="331" ht="12"/>
+    <row r="332" ht="12"/>
+    <row r="333" ht="12"/>
+    <row r="334" ht="12"/>
+    <row r="335" ht="12"/>
+    <row r="336" ht="12"/>
+    <row r="337" ht="12"/>
+    <row r="338" ht="12"/>
+    <row r="339" ht="12"/>
+    <row r="340" ht="12"/>
+    <row r="341" ht="12"/>
+    <row r="342" ht="12"/>
+    <row r="343" ht="12"/>
+    <row r="344" ht="12"/>
+    <row r="345" ht="12"/>
+    <row r="346" ht="12"/>
+    <row r="347" ht="12"/>
+    <row r="348" ht="12"/>
+    <row r="349" ht="12"/>
+    <row r="350" ht="12"/>
+    <row r="351" ht="12"/>
+    <row r="352" ht="12"/>
+    <row r="353" ht="12"/>
+    <row r="354" ht="12"/>
+    <row r="355" ht="12"/>
+    <row r="356" ht="12"/>
+    <row r="357" ht="12"/>
+    <row r="358" ht="12"/>
+    <row r="359" ht="12"/>
+    <row r="360" ht="12"/>
+    <row r="361" ht="12"/>
+    <row r="362" ht="12"/>
+    <row r="363" ht="12"/>
+    <row r="364" ht="12"/>
+    <row r="365" ht="12"/>
+    <row r="366" ht="12"/>
+    <row r="367" ht="12"/>
+    <row r="368" ht="12"/>
+    <row r="369" ht="12"/>
+    <row r="370" ht="12"/>
+    <row r="371" ht="12"/>
+    <row r="372" ht="12"/>
+    <row r="373" ht="12"/>
+    <row r="374" ht="12"/>
+    <row r="375" ht="12"/>
+    <row r="376" ht="12"/>
+    <row r="377" ht="12"/>
+    <row r="378" ht="12"/>
+    <row r="379" ht="12"/>
+    <row r="380" ht="12"/>
+    <row r="381" ht="12"/>
+    <row r="382" ht="12"/>
+    <row r="383" ht="12"/>
+    <row r="384" ht="12"/>
+    <row r="385" ht="12"/>
+    <row r="386" ht="12"/>
+    <row r="387" ht="12"/>
+    <row r="388" ht="12"/>
+    <row r="389" ht="12"/>
+    <row r="390" ht="12"/>
+    <row r="391" ht="12"/>
+    <row r="392" ht="12"/>
+    <row r="393" ht="12"/>
+    <row r="394" ht="12"/>
+    <row r="395" ht="12"/>
+    <row r="396" ht="12"/>
+    <row r="397" ht="12"/>
+    <row r="398" ht="12"/>
+    <row r="399" ht="12"/>
+    <row r="400" ht="12"/>
+    <row r="401" ht="12"/>
+    <row r="402" ht="12"/>
+    <row r="403" ht="12"/>
+    <row r="404" ht="12"/>
+    <row r="405" ht="12"/>
+    <row r="406" ht="12"/>
+    <row r="407" ht="12"/>
+    <row r="408" ht="12"/>
+    <row r="409" ht="12"/>
+    <row r="410" ht="12"/>
+    <row r="411" ht="12"/>
+    <row r="412" ht="12"/>
+    <row r="413" ht="12"/>
+    <row r="414" ht="12"/>
+    <row r="415" ht="12"/>
+    <row r="416" ht="12"/>
+    <row r="417" ht="12"/>
+    <row r="418" ht="12"/>
+    <row r="419" ht="12"/>
+    <row r="420" ht="12"/>
+    <row r="421" ht="12"/>
+    <row r="422" ht="12"/>
+    <row r="423" ht="12"/>
+    <row r="424" ht="12"/>
+    <row r="425" ht="12"/>
+    <row r="426" ht="12"/>
+    <row r="427" ht="12"/>
+    <row r="428" ht="12"/>
+    <row r="429" ht="12"/>
+    <row r="430" ht="12"/>
+    <row r="431" ht="12"/>
+    <row r="432" ht="12"/>
+    <row r="433" ht="12"/>
+    <row r="434" ht="12"/>
+    <row r="435" ht="12"/>
+    <row r="436" ht="12"/>
+    <row r="437" ht="12"/>
+    <row r="438" ht="12"/>
+    <row r="439" ht="12"/>
+    <row r="440" ht="12"/>
+    <row r="441" ht="12"/>
+    <row r="442" ht="12"/>
+    <row r="443" ht="12"/>
+    <row r="444" ht="12"/>
+    <row r="445" ht="12"/>
+    <row r="446" ht="12"/>
+    <row r="447" ht="12"/>
+    <row r="448" ht="12"/>
+    <row r="449" ht="12"/>
+    <row r="450" ht="12"/>
+    <row r="451" ht="12"/>
+    <row r="452" ht="12"/>
+    <row r="453" ht="12"/>
+    <row r="454" ht="12"/>
+    <row r="455" ht="12"/>
+    <row r="456" ht="12"/>
+    <row r="457" ht="12"/>
+    <row r="458" ht="12"/>
+    <row r="459" ht="12"/>
+    <row r="460" ht="12"/>
+    <row r="461" ht="12"/>
+    <row r="462" ht="12"/>
+    <row r="463" ht="12"/>
+    <row r="464" ht="12"/>
+    <row r="465" ht="12"/>
+    <row r="466" ht="12"/>
+    <row r="467" ht="12"/>
+    <row r="468" ht="12"/>
+    <row r="469" ht="12"/>
+    <row r="470" ht="12"/>
+    <row r="471" ht="12"/>
+    <row r="472" ht="12"/>
+    <row r="473" ht="12"/>
+    <row r="474" ht="12"/>
+    <row r="475" ht="12"/>
+    <row r="476" ht="12"/>
+    <row r="477" ht="12"/>
+    <row r="478" ht="12"/>
+    <row r="479" ht="12"/>
+    <row r="480" ht="12"/>
+    <row r="481" ht="12"/>
+    <row r="482" ht="12"/>
+    <row r="483" ht="12"/>
+    <row r="484" ht="12"/>
+    <row r="485" ht="12"/>
+    <row r="486" ht="12"/>
+    <row r="487" ht="12"/>
+    <row r="488" ht="12"/>
+    <row r="489" ht="12"/>
+    <row r="490" ht="12"/>
+    <row r="491" ht="12"/>
+    <row r="492" ht="12"/>
+    <row r="493" ht="12"/>
+    <row r="494" ht="12"/>
+    <row r="495" ht="12"/>
+    <row r="496" ht="12"/>
+    <row r="497" ht="12"/>
+    <row r="498" ht="12"/>
+    <row r="499" ht="12"/>
+    <row r="500" ht="12"/>
+    <row r="501" ht="12"/>
+    <row r="502" ht="12"/>
+    <row r="503" ht="12"/>
+    <row r="504" ht="12"/>
+    <row r="505" ht="12"/>
+    <row r="506" ht="12"/>
+    <row r="507" ht="12"/>
+    <row r="508" ht="12"/>
+    <row r="509" ht="12"/>
+    <row r="510" ht="12"/>
+    <row r="511" ht="12"/>
+    <row r="512" ht="12"/>
+    <row r="513" ht="12"/>
+    <row r="514" ht="12"/>
+    <row r="515" ht="12"/>
+    <row r="516" ht="12"/>
+    <row r="517" ht="12"/>
+    <row r="518" ht="12"/>
+    <row r="519" ht="12"/>
+    <row r="520" ht="12"/>
+    <row r="521" ht="12"/>
+    <row r="522" ht="12"/>
+    <row r="523" ht="12"/>
+    <row r="524" ht="12"/>
+    <row r="525" ht="12"/>
+    <row r="526" ht="12"/>
+    <row r="527" ht="12"/>
+    <row r="528" ht="12"/>
+    <row r="529" ht="12"/>
+    <row r="530" ht="12"/>
+    <row r="531" ht="12"/>
+    <row r="532" ht="12"/>
+    <row r="533" ht="12"/>
+    <row r="534" ht="12"/>
+    <row r="535" ht="12"/>
+    <row r="536" ht="12"/>
+    <row r="537" ht="12"/>
+    <row r="538" ht="12"/>
+    <row r="539" ht="12"/>
+    <row r="540" ht="12"/>
+    <row r="541" ht="12"/>
+    <row r="542" ht="12"/>
+    <row r="543" ht="12"/>
+    <row r="544" ht="12"/>
+    <row r="545" ht="12"/>
+    <row r="546" ht="12"/>
+    <row r="547" ht="12"/>
+    <row r="548" ht="12"/>
+    <row r="549" ht="12"/>
+    <row r="550" ht="12"/>
+    <row r="551" ht="12"/>
+    <row r="552" ht="12"/>
+    <row r="553" ht="12"/>
+    <row r="554" ht="12"/>
+    <row r="555" ht="12"/>
+    <row r="556" ht="12"/>
+    <row r="557" ht="12"/>
+    <row r="558" ht="12"/>
+    <row r="559" ht="12"/>
+    <row r="560" ht="12"/>
+    <row r="561" ht="12"/>
+    <row r="562" ht="12"/>
+    <row r="563" ht="12"/>
+    <row r="564" ht="12"/>
+    <row r="565" ht="12"/>
+    <row r="566" ht="12"/>
+    <row r="567" ht="12"/>
+    <row r="568" ht="12"/>
+    <row r="569" ht="12"/>
+    <row r="570" ht="12"/>
+    <row r="571" ht="12"/>
+    <row r="572" ht="12"/>
+    <row r="573" ht="12"/>
+    <row r="574" ht="12"/>
+    <row r="575" ht="12"/>
+    <row r="576" ht="12"/>
+    <row r="577" ht="12"/>
+    <row r="578" ht="12"/>
+    <row r="579" ht="12"/>
+    <row r="580" ht="12"/>
+    <row r="581" ht="12"/>
+    <row r="582" ht="12"/>
+    <row r="583" ht="12"/>
+    <row r="584" ht="12"/>
+    <row r="585" ht="12"/>
+    <row r="586" ht="12"/>
+    <row r="587" ht="12"/>
+    <row r="588" ht="12"/>
+    <row r="589" ht="12"/>
+    <row r="590" ht="12"/>
+    <row r="591" ht="12"/>
+    <row r="592" ht="12"/>
+    <row r="593" ht="12"/>
+    <row r="594" ht="12"/>
+    <row r="595" ht="12"/>
+    <row r="596" ht="12"/>
+    <row r="597" ht="12"/>
+    <row r="598" ht="12"/>
+    <row r="599" ht="12"/>
+    <row r="600" ht="12"/>
+    <row r="601" ht="12"/>
+    <row r="602" ht="12"/>
+    <row r="603" ht="12"/>
+    <row r="604" ht="12"/>
+    <row r="605" ht="12"/>
+    <row r="606" ht="12"/>
+    <row r="607" ht="12"/>
+    <row r="608" ht="12"/>
+    <row r="609" ht="12"/>
+    <row r="610" ht="12"/>
+    <row r="611" ht="12"/>
+    <row r="612" ht="12"/>
+    <row r="613" ht="12"/>
+    <row r="614" ht="12"/>
+    <row r="615" ht="12"/>
+    <row r="616" ht="12"/>
+    <row r="617" ht="12"/>
+    <row r="618" ht="12"/>
+    <row r="619" ht="12"/>
+    <row r="620" ht="12"/>
+    <row r="621" ht="12"/>
+    <row r="622" ht="12"/>
+    <row r="623" ht="12"/>
+    <row r="624" ht="12"/>
+    <row r="625" ht="12"/>
+    <row r="626" ht="12"/>
+    <row r="627" ht="12"/>
+    <row r="628" ht="12"/>
+    <row r="629" ht="12"/>
+    <row r="630" ht="12"/>
+    <row r="631" ht="12"/>
+    <row r="632" ht="12"/>
+    <row r="633" ht="12"/>
+    <row r="634" ht="12"/>
+    <row r="635" ht="12"/>
+    <row r="636" ht="12"/>
+    <row r="637" ht="12"/>
+    <row r="638" ht="12"/>
+    <row r="639" ht="12"/>
+    <row r="640" ht="12"/>
+    <row r="641" ht="12"/>
+    <row r="642" ht="12"/>
+    <row r="643" ht="12"/>
+    <row r="644" ht="12"/>
+    <row r="645" ht="12"/>
+    <row r="646" ht="12"/>
+    <row r="647" ht="12"/>
+    <row r="648" ht="12"/>
+    <row r="649" ht="12"/>
+    <row r="650" ht="12"/>
+    <row r="651" ht="12"/>
+    <row r="652" ht="12"/>
+    <row r="653" ht="12"/>
+    <row r="654" ht="12"/>
+    <row r="655" ht="12"/>
+    <row r="656" ht="12"/>
+    <row r="657" ht="12"/>
+    <row r="658" ht="12"/>
+    <row r="659" ht="12"/>
+    <row r="660" ht="12"/>
+    <row r="661" ht="12"/>
+    <row r="662" ht="12"/>
+    <row r="663" ht="12"/>
+    <row r="664" ht="12"/>
+    <row r="665" ht="12"/>
+    <row r="666" ht="12"/>
+    <row r="667" ht="12"/>
+    <row r="668" ht="12"/>
+    <row r="669" ht="12"/>
+    <row r="670" ht="12"/>
+    <row r="671" ht="12"/>
+    <row r="672" ht="12"/>
+    <row r="673" ht="12"/>
+    <row r="674" ht="12"/>
+    <row r="675" ht="12"/>
+    <row r="676" ht="12"/>
+    <row r="677" ht="12"/>
+    <row r="678" ht="12"/>
+    <row r="679" ht="12"/>
+    <row r="680" ht="12"/>
+    <row r="681" ht="12"/>
+    <row r="682" ht="12"/>
+    <row r="683" ht="12"/>
+    <row r="684" ht="12"/>
+    <row r="685" ht="12"/>
+    <row r="686" ht="12"/>
+    <row r="687" ht="12"/>
+    <row r="688" ht="12"/>
+    <row r="689" ht="12"/>
+    <row r="690" ht="12"/>
+    <row r="691" ht="12"/>
+    <row r="692" ht="12"/>
+    <row r="693" ht="12"/>
+    <row r="694" ht="12"/>
+    <row r="695" ht="12"/>
+    <row r="696" ht="12"/>
+    <row r="697" ht="12"/>
+    <row r="698" ht="12"/>
+    <row r="699" ht="12"/>
+    <row r="700" ht="12"/>
+    <row r="701" ht="12"/>
+    <row r="702" ht="12"/>
+    <row r="703" ht="12"/>
+    <row r="704" ht="12"/>
+    <row r="705" ht="12"/>
+    <row r="706" ht="12"/>
+    <row r="707" ht="12"/>
+    <row r="708" ht="12"/>
+    <row r="709" ht="12"/>
+    <row r="710" ht="12"/>
+    <row r="711" ht="12"/>
+    <row r="712" ht="12"/>
+    <row r="713" ht="12"/>
+    <row r="714" ht="12"/>
+    <row r="715" ht="12"/>
+    <row r="716" ht="12"/>
+    <row r="717" ht="12"/>
+    <row r="718" ht="12"/>
+    <row r="719" ht="12"/>
+    <row r="720" ht="12"/>
+    <row r="721" ht="12"/>
+    <row r="722" ht="12"/>
+    <row r="723" ht="12"/>
+    <row r="724" ht="12"/>
+    <row r="725" ht="12"/>
+    <row r="726" ht="12"/>
+    <row r="727" ht="12"/>
+    <row r="728" ht="12"/>
+    <row r="729" ht="12"/>
+    <row r="730" ht="12"/>
+    <row r="731" ht="12"/>
+    <row r="732" ht="12"/>
+    <row r="733" ht="12"/>
+    <row r="734" ht="12"/>
+    <row r="735" ht="12"/>
+    <row r="736" ht="12"/>
+    <row r="737" ht="12"/>
+    <row r="738" ht="12"/>
+    <row r="739" ht="12"/>
+    <row r="740" ht="12"/>
+    <row r="741" ht="12"/>
+    <row r="742" ht="12"/>
+    <row r="743" ht="12"/>
+    <row r="744" ht="12"/>
+    <row r="745" ht="12"/>
+    <row r="746" ht="12"/>
+    <row r="747" ht="12"/>
+    <row r="748" ht="12"/>
+    <row r="749" ht="12"/>
+    <row r="750" ht="12"/>
+    <row r="751" ht="12"/>
+    <row r="752" ht="12"/>
+    <row r="753" ht="12"/>
+    <row r="754" ht="12"/>
+    <row r="755" ht="12"/>
+    <row r="756" ht="12"/>
+    <row r="757" ht="12"/>
+    <row r="758" ht="12"/>
+    <row r="759" ht="12"/>
+    <row r="760" ht="12"/>
+    <row r="761" ht="12"/>
+    <row r="762" ht="12"/>
+    <row r="763" ht="12"/>
+    <row r="764" ht="12"/>
+    <row r="765" ht="12"/>
+    <row r="766" ht="12"/>
+    <row r="767" ht="12"/>
+    <row r="768" ht="12"/>
+    <row r="769" ht="12"/>
+    <row r="770" ht="12"/>
+    <row r="771" ht="12"/>
+    <row r="772" ht="12"/>
+    <row r="773" ht="12"/>
+    <row r="774" ht="12"/>
+    <row r="775" ht="12"/>
+    <row r="776" ht="12"/>
+    <row r="777" ht="12"/>
+    <row r="778" ht="12"/>
+    <row r="779" ht="12"/>
+    <row r="780" ht="12"/>
+    <row r="781" ht="12"/>
+    <row r="782" ht="12"/>
+    <row r="783" ht="12"/>
+    <row r="784" ht="12"/>
+    <row r="785" ht="12"/>
+    <row r="786" ht="12"/>
+    <row r="787" ht="12"/>
+    <row r="788" ht="12"/>
+    <row r="789" ht="12"/>
+    <row r="790" ht="12"/>
+    <row r="791" ht="12"/>
+    <row r="792" ht="12"/>
+    <row r="793" ht="12"/>
+    <row r="794" ht="12"/>
+    <row r="795" ht="12"/>
+    <row r="796" ht="12"/>
+    <row r="797" ht="12"/>
+    <row r="798" ht="12"/>
+    <row r="799" ht="12"/>
+    <row r="800" ht="12"/>
+    <row r="801" ht="12"/>
+    <row r="802" ht="12"/>
+    <row r="803" ht="12"/>
+    <row r="804" ht="12"/>
+    <row r="805" ht="12"/>
+    <row r="806" ht="12"/>
+    <row r="807" ht="12"/>
+    <row r="808" ht="12"/>
+    <row r="809" ht="12"/>
+    <row r="810" ht="12"/>
+    <row r="811" ht="12"/>
+    <row r="812" ht="12"/>
+    <row r="813" ht="12"/>
+    <row r="814" ht="12"/>
+    <row r="815" ht="12"/>
+    <row r="816" ht="12"/>
+    <row r="817" ht="12"/>
+    <row r="818" ht="12"/>
+    <row r="819" ht="12"/>
+    <row r="820" ht="12"/>
+    <row r="821" ht="12"/>
+    <row r="822" ht="12"/>
+    <row r="823" ht="12"/>
+    <row r="824" ht="12"/>
+    <row r="825" ht="12"/>
+    <row r="826" ht="12"/>
+    <row r="827" ht="12"/>
+    <row r="828" ht="12"/>
+    <row r="829" ht="12"/>
+    <row r="830" ht="12"/>
+    <row r="831" ht="12"/>
+    <row r="832" ht="12"/>
+    <row r="833" ht="12"/>
+    <row r="834" ht="12"/>
+    <row r="835" ht="12"/>
+    <row r="836" ht="12"/>
+    <row r="837" ht="12"/>
+    <row r="838" ht="12"/>
+    <row r="839" ht="12"/>
+    <row r="840" ht="12"/>
+    <row r="841" ht="12"/>
+    <row r="842" ht="12"/>
+    <row r="843" ht="12"/>
+    <row r="844" ht="12"/>
+    <row r="845" ht="12"/>
+    <row r="846" ht="12"/>
+    <row r="847" ht="12"/>
+    <row r="848" ht="12"/>
+    <row r="849" ht="12"/>
+    <row r="850" ht="12"/>
+    <row r="851" ht="12"/>
+    <row r="852" ht="12"/>
+    <row r="853" ht="12"/>
+    <row r="854" ht="12"/>
+    <row r="855" ht="12"/>
+    <row r="856" ht="12"/>
+    <row r="857" ht="12"/>
+    <row r="858" ht="12"/>
+    <row r="859" ht="12"/>
+    <row r="860" ht="12"/>
+    <row r="861" ht="12"/>
+    <row r="862" ht="12"/>
+    <row r="863" ht="12"/>
+    <row r="864" ht="12"/>
+    <row r="865" ht="12"/>
+    <row r="866" ht="12"/>
+    <row r="867" ht="12"/>
+    <row r="868" ht="12"/>
+    <row r="869" ht="12"/>
+    <row r="870" ht="12"/>
+    <row r="871" ht="12"/>
+    <row r="872" ht="12"/>
+    <row r="873" ht="12"/>
+    <row r="874" ht="12"/>
+    <row r="875" ht="12"/>
+    <row r="876" ht="12"/>
+    <row r="877" ht="12"/>
+    <row r="878" ht="12"/>
+    <row r="879" ht="12"/>
+    <row r="880" ht="12"/>
+    <row r="881" ht="12"/>
+    <row r="882" ht="12"/>
+    <row r="883" ht="12"/>
+    <row r="884" ht="12"/>
+    <row r="885" ht="12"/>
+    <row r="886" ht="12"/>
+    <row r="887" ht="12"/>
+    <row r="888" ht="12"/>
+    <row r="889" ht="12"/>
+    <row r="890" ht="12"/>
+    <row r="891" ht="12"/>
+    <row r="892" ht="12"/>
+    <row r="893" ht="12"/>
+    <row r="894" ht="12"/>
+    <row r="895" ht="12"/>
+    <row r="896" ht="12"/>
+    <row r="897" ht="12"/>
+    <row r="898" ht="12"/>
+    <row r="899" ht="12"/>
+    <row r="900" ht="12"/>
+    <row r="901" ht="12"/>
+    <row r="902" ht="12"/>
+    <row r="903" ht="12"/>
+    <row r="904" ht="12"/>
+    <row r="905" ht="12"/>
+    <row r="906" ht="12"/>
+    <row r="907" ht="12"/>
+    <row r="908" ht="12"/>
+    <row r="909" ht="12"/>
+    <row r="910" ht="12"/>
+    <row r="911" ht="12"/>
+    <row r="912" ht="12"/>
+    <row r="913" ht="12"/>
+    <row r="914" ht="12"/>
+    <row r="915" ht="12"/>
+    <row r="916" ht="12"/>
+    <row r="917" ht="12"/>
+    <row r="918" ht="12"/>
+    <row r="919" ht="12"/>
+    <row r="920" ht="12"/>
+    <row r="921" ht="12"/>
+    <row r="922" ht="12"/>
+    <row r="923" ht="12"/>
+    <row r="924" ht="12"/>
+    <row r="925" ht="12"/>
+    <row r="926" ht="12"/>
+    <row r="927" ht="12"/>
+    <row r="928" ht="12"/>
+    <row r="929" ht="12"/>
+    <row r="930" ht="12"/>
+    <row r="931" ht="12"/>
+    <row r="932" ht="12"/>
+    <row r="933" ht="12"/>
+    <row r="934" ht="12"/>
+    <row r="935" ht="12"/>
+    <row r="936" ht="12"/>
+    <row r="937" ht="12"/>
+    <row r="938" ht="12"/>
+    <row r="939" ht="12"/>
+    <row r="940" ht="12"/>
+    <row r="941" ht="12"/>
+    <row r="942" ht="12"/>
+    <row r="943" ht="12"/>
+    <row r="944" ht="12"/>
+    <row r="945" ht="12"/>
+    <row r="946" ht="12"/>
+    <row r="947" ht="12"/>
+    <row r="948" ht="12"/>
+    <row r="949" ht="12"/>
+    <row r="950" ht="12"/>
+    <row r="951" ht="12"/>
+    <row r="952" ht="12"/>
+    <row r="953" ht="12"/>
+    <row r="954" ht="12"/>
+    <row r="955" ht="12"/>
+    <row r="956" ht="12"/>
+    <row r="957" ht="12"/>
+    <row r="958" ht="12"/>
+    <row r="959" ht="12"/>
+    <row r="960" ht="12"/>
+    <row r="961" ht="12"/>
+    <row r="962" ht="12"/>
+    <row r="963" ht="12"/>
+    <row r="964" ht="12"/>
+    <row r="965" ht="12"/>
+    <row r="966" ht="12"/>
+    <row r="967" ht="12"/>
+    <row r="968" ht="12"/>
+    <row r="969" ht="12"/>
+    <row r="970" ht="12"/>
+    <row r="971" ht="12"/>
+    <row r="972" ht="12"/>
+    <row r="973" ht="12"/>
+    <row r="974" ht="12"/>
+    <row r="975" ht="12"/>
+    <row r="976" ht="12"/>
+    <row r="977" ht="12"/>
+    <row r="978" ht="12"/>
+    <row r="979" ht="12"/>
+    <row r="980" ht="12"/>
+    <row r="981" ht="12"/>
+    <row r="982" ht="12"/>
+    <row r="983" ht="12"/>
+    <row r="984" ht="12"/>
+    <row r="985" ht="12"/>
+    <row r="986" ht="12"/>
+    <row r="987" ht="12"/>
+    <row r="988" ht="12"/>
+    <row r="989" ht="12"/>
+    <row r="990" ht="12"/>
+    <row r="991" ht="12"/>
+    <row r="992" ht="12"/>
+    <row r="993" ht="12"/>
+    <row r="994" ht="12"/>
+    <row r="995" ht="12"/>
+    <row r="996" ht="12"/>
+    <row r="997" ht="12"/>
+    <row r="998" ht="12"/>
+    <row r="999" ht="12"/>
+    <row r="1000" ht="12"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
@@ -7086,7 +7106,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -7098,7 +7118,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14">
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -7110,7 +7130,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="18">
         <v>26</v>
       </c>
@@ -7122,7 +7142,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="18">
         <v>40</v>
       </c>
@@ -7134,7 +7154,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="18">
         <v>41</v>
       </c>
@@ -7146,7 +7166,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="20">
         <v>43</v>
       </c>
@@ -7158,7 +7178,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14">
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="20">
         <v>45</v>
       </c>
@@ -7170,40 +7190,40 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14">
+    <row r="9" spans="1:4" ht="13">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="14">
+    <row r="10" spans="1:4" ht="13">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="14">
+    <row r="11" spans="1:4" ht="13">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="14">
+    <row r="12" spans="1:4" ht="13">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="14">
+    <row r="13" spans="1:4" ht="13">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="14">
+    <row r="14" spans="1:4" ht="13">
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="14">
+    <row r="15" spans="1:4" ht="13">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="14">
+    <row r="16" spans="1:4" ht="13">
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="2:2" ht="14">
+    <row r="17" spans="2:2" ht="13">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:2" ht="14">
+    <row r="18" spans="2:2" ht="13">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="2:2" ht="14">
+    <row r="19" spans="2:2" ht="13">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:2" ht="14">
+    <row r="20" spans="2:2" ht="13">
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="2:2" ht="15.75" customHeight="1">
@@ -7806,802 +7826,809 @@
     <row r="220" spans="2:2" ht="15.75" customHeight="1">
       <c r="B220" s="4"/>
     </row>
-    <row r="221" spans="2:2" ht="13"/>
-    <row r="222" spans="2:2" ht="13"/>
-    <row r="223" spans="2:2" ht="13"/>
-    <row r="224" spans="2:2" ht="13"/>
-    <row r="225" ht="13"/>
-    <row r="226" ht="13"/>
-    <row r="227" ht="13"/>
-    <row r="228" ht="13"/>
-    <row r="229" ht="13"/>
-    <row r="230" ht="13"/>
-    <row r="231" ht="13"/>
-    <row r="232" ht="13"/>
-    <row r="233" ht="13"/>
-    <row r="234" ht="13"/>
-    <row r="235" ht="13"/>
-    <row r="236" ht="13"/>
-    <row r="237" ht="13"/>
-    <row r="238" ht="13"/>
-    <row r="239" ht="13"/>
-    <row r="240" ht="13"/>
-    <row r="241" ht="13"/>
-    <row r="242" ht="13"/>
-    <row r="243" ht="13"/>
-    <row r="244" ht="13"/>
-    <row r="245" ht="13"/>
-    <row r="246" ht="13"/>
-    <row r="247" ht="13"/>
-    <row r="248" ht="13"/>
-    <row r="249" ht="13"/>
-    <row r="250" ht="13"/>
-    <row r="251" ht="13"/>
-    <row r="252" ht="13"/>
-    <row r="253" ht="13"/>
-    <row r="254" ht="13"/>
-    <row r="255" ht="13"/>
-    <row r="256" ht="13"/>
-    <row r="257" ht="13"/>
-    <row r="258" ht="13"/>
-    <row r="259" ht="13"/>
-    <row r="260" ht="13"/>
-    <row r="261" ht="13"/>
-    <row r="262" ht="13"/>
-    <row r="263" ht="13"/>
-    <row r="264" ht="13"/>
-    <row r="265" ht="13"/>
-    <row r="266" ht="13"/>
-    <row r="267" ht="13"/>
-    <row r="268" ht="13"/>
-    <row r="269" ht="13"/>
-    <row r="270" ht="13"/>
-    <row r="271" ht="13"/>
-    <row r="272" ht="13"/>
-    <row r="273" ht="13"/>
-    <row r="274" ht="13"/>
-    <row r="275" ht="13"/>
-    <row r="276" ht="13"/>
-    <row r="277" ht="13"/>
-    <row r="278" ht="13"/>
-    <row r="279" ht="13"/>
-    <row r="280" ht="13"/>
-    <row r="281" ht="13"/>
-    <row r="282" ht="13"/>
-    <row r="283" ht="13"/>
-    <row r="284" ht="13"/>
-    <row r="285" ht="13"/>
-    <row r="286" ht="13"/>
-    <row r="287" ht="13"/>
-    <row r="288" ht="13"/>
-    <row r="289" ht="13"/>
-    <row r="290" ht="13"/>
-    <row r="291" ht="13"/>
-    <row r="292" ht="13"/>
-    <row r="293" ht="13"/>
-    <row r="294" ht="13"/>
-    <row r="295" ht="13"/>
-    <row r="296" ht="13"/>
-    <row r="297" ht="13"/>
-    <row r="298" ht="13"/>
-    <row r="299" ht="13"/>
-    <row r="300" ht="13"/>
-    <row r="301" ht="13"/>
-    <row r="302" ht="13"/>
-    <row r="303" ht="13"/>
-    <row r="304" ht="13"/>
-    <row r="305" ht="13"/>
-    <row r="306" ht="13"/>
-    <row r="307" ht="13"/>
-    <row r="308" ht="13"/>
-    <row r="309" ht="13"/>
-    <row r="310" ht="13"/>
-    <row r="311" ht="13"/>
-    <row r="312" ht="13"/>
-    <row r="313" ht="13"/>
-    <row r="314" ht="13"/>
-    <row r="315" ht="13"/>
-    <row r="316" ht="13"/>
-    <row r="317" ht="13"/>
-    <row r="318" ht="13"/>
-    <row r="319" ht="13"/>
-    <row r="320" ht="13"/>
-    <row r="321" ht="13"/>
-    <row r="322" ht="13"/>
-    <row r="323" ht="13"/>
-    <row r="324" ht="13"/>
-    <row r="325" ht="13"/>
-    <row r="326" ht="13"/>
-    <row r="327" ht="13"/>
-    <row r="328" ht="13"/>
-    <row r="329" ht="13"/>
-    <row r="330" ht="13"/>
-    <row r="331" ht="13"/>
-    <row r="332" ht="13"/>
-    <row r="333" ht="13"/>
-    <row r="334" ht="13"/>
-    <row r="335" ht="13"/>
-    <row r="336" ht="13"/>
-    <row r="337" ht="13"/>
-    <row r="338" ht="13"/>
-    <row r="339" ht="13"/>
-    <row r="340" ht="13"/>
-    <row r="341" ht="13"/>
-    <row r="342" ht="13"/>
-    <row r="343" ht="13"/>
-    <row r="344" ht="13"/>
-    <row r="345" ht="13"/>
-    <row r="346" ht="13"/>
-    <row r="347" ht="13"/>
-    <row r="348" ht="13"/>
-    <row r="349" ht="13"/>
-    <row r="350" ht="13"/>
-    <row r="351" ht="13"/>
-    <row r="352" ht="13"/>
-    <row r="353" ht="13"/>
-    <row r="354" ht="13"/>
-    <row r="355" ht="13"/>
-    <row r="356" ht="13"/>
-    <row r="357" ht="13"/>
-    <row r="358" ht="13"/>
-    <row r="359" ht="13"/>
-    <row r="360" ht="13"/>
-    <row r="361" ht="13"/>
-    <row r="362" ht="13"/>
-    <row r="363" ht="13"/>
-    <row r="364" ht="13"/>
-    <row r="365" ht="13"/>
-    <row r="366" ht="13"/>
-    <row r="367" ht="13"/>
-    <row r="368" ht="13"/>
-    <row r="369" ht="13"/>
-    <row r="370" ht="13"/>
-    <row r="371" ht="13"/>
-    <row r="372" ht="13"/>
-    <row r="373" ht="13"/>
-    <row r="374" ht="13"/>
-    <row r="375" ht="13"/>
-    <row r="376" ht="13"/>
-    <row r="377" ht="13"/>
-    <row r="378" ht="13"/>
-    <row r="379" ht="13"/>
-    <row r="380" ht="13"/>
-    <row r="381" ht="13"/>
-    <row r="382" ht="13"/>
-    <row r="383" ht="13"/>
-    <row r="384" ht="13"/>
-    <row r="385" ht="13"/>
-    <row r="386" ht="13"/>
-    <row r="387" ht="13"/>
-    <row r="388" ht="13"/>
-    <row r="389" ht="13"/>
-    <row r="390" ht="13"/>
-    <row r="391" ht="13"/>
-    <row r="392" ht="13"/>
-    <row r="393" ht="13"/>
-    <row r="394" ht="13"/>
-    <row r="395" ht="13"/>
-    <row r="396" ht="13"/>
-    <row r="397" ht="13"/>
-    <row r="398" ht="13"/>
-    <row r="399" ht="13"/>
-    <row r="400" ht="13"/>
-    <row r="401" ht="13"/>
-    <row r="402" ht="13"/>
-    <row r="403" ht="13"/>
-    <row r="404" ht="13"/>
-    <row r="405" ht="13"/>
-    <row r="406" ht="13"/>
-    <row r="407" ht="13"/>
-    <row r="408" ht="13"/>
-    <row r="409" ht="13"/>
-    <row r="410" ht="13"/>
-    <row r="411" ht="13"/>
-    <row r="412" ht="13"/>
-    <row r="413" ht="13"/>
-    <row r="414" ht="13"/>
-    <row r="415" ht="13"/>
-    <row r="416" ht="13"/>
-    <row r="417" ht="13"/>
-    <row r="418" ht="13"/>
-    <row r="419" ht="13"/>
-    <row r="420" ht="13"/>
-    <row r="421" ht="13"/>
-    <row r="422" ht="13"/>
-    <row r="423" ht="13"/>
-    <row r="424" ht="13"/>
-    <row r="425" ht="13"/>
-    <row r="426" ht="13"/>
-    <row r="427" ht="13"/>
-    <row r="428" ht="13"/>
-    <row r="429" ht="13"/>
-    <row r="430" ht="13"/>
-    <row r="431" ht="13"/>
-    <row r="432" ht="13"/>
-    <row r="433" ht="13"/>
-    <row r="434" ht="13"/>
-    <row r="435" ht="13"/>
-    <row r="436" ht="13"/>
-    <row r="437" ht="13"/>
-    <row r="438" ht="13"/>
-    <row r="439" ht="13"/>
-    <row r="440" ht="13"/>
-    <row r="441" ht="13"/>
-    <row r="442" ht="13"/>
-    <row r="443" ht="13"/>
-    <row r="444" ht="13"/>
-    <row r="445" ht="13"/>
-    <row r="446" ht="13"/>
-    <row r="447" ht="13"/>
-    <row r="448" ht="13"/>
-    <row r="449" ht="13"/>
-    <row r="450" ht="13"/>
-    <row r="451" ht="13"/>
-    <row r="452" ht="13"/>
-    <row r="453" ht="13"/>
-    <row r="454" ht="13"/>
-    <row r="455" ht="13"/>
-    <row r="456" ht="13"/>
-    <row r="457" ht="13"/>
-    <row r="458" ht="13"/>
-    <row r="459" ht="13"/>
-    <row r="460" ht="13"/>
-    <row r="461" ht="13"/>
-    <row r="462" ht="13"/>
-    <row r="463" ht="13"/>
-    <row r="464" ht="13"/>
-    <row r="465" ht="13"/>
-    <row r="466" ht="13"/>
-    <row r="467" ht="13"/>
-    <row r="468" ht="13"/>
-    <row r="469" ht="13"/>
-    <row r="470" ht="13"/>
-    <row r="471" ht="13"/>
-    <row r="472" ht="13"/>
-    <row r="473" ht="13"/>
-    <row r="474" ht="13"/>
-    <row r="475" ht="13"/>
-    <row r="476" ht="13"/>
-    <row r="477" ht="13"/>
-    <row r="478" ht="13"/>
-    <row r="479" ht="13"/>
-    <row r="480" ht="13"/>
-    <row r="481" ht="13"/>
-    <row r="482" ht="13"/>
-    <row r="483" ht="13"/>
-    <row r="484" ht="13"/>
-    <row r="485" ht="13"/>
-    <row r="486" ht="13"/>
-    <row r="487" ht="13"/>
-    <row r="488" ht="13"/>
-    <row r="489" ht="13"/>
-    <row r="490" ht="13"/>
-    <row r="491" ht="13"/>
-    <row r="492" ht="13"/>
-    <row r="493" ht="13"/>
-    <row r="494" ht="13"/>
-    <row r="495" ht="13"/>
-    <row r="496" ht="13"/>
-    <row r="497" ht="13"/>
-    <row r="498" ht="13"/>
-    <row r="499" ht="13"/>
-    <row r="500" ht="13"/>
-    <row r="501" ht="13"/>
-    <row r="502" ht="13"/>
-    <row r="503" ht="13"/>
-    <row r="504" ht="13"/>
-    <row r="505" ht="13"/>
-    <row r="506" ht="13"/>
-    <row r="507" ht="13"/>
-    <row r="508" ht="13"/>
-    <row r="509" ht="13"/>
-    <row r="510" ht="13"/>
-    <row r="511" ht="13"/>
-    <row r="512" ht="13"/>
-    <row r="513" ht="13"/>
-    <row r="514" ht="13"/>
-    <row r="515" ht="13"/>
-    <row r="516" ht="13"/>
-    <row r="517" ht="13"/>
-    <row r="518" ht="13"/>
-    <row r="519" ht="13"/>
-    <row r="520" ht="13"/>
-    <row r="521" ht="13"/>
-    <row r="522" ht="13"/>
-    <row r="523" ht="13"/>
-    <row r="524" ht="13"/>
-    <row r="525" ht="13"/>
-    <row r="526" ht="13"/>
-    <row r="527" ht="13"/>
-    <row r="528" ht="13"/>
-    <row r="529" ht="13"/>
-    <row r="530" ht="13"/>
-    <row r="531" ht="13"/>
-    <row r="532" ht="13"/>
-    <row r="533" ht="13"/>
-    <row r="534" ht="13"/>
-    <row r="535" ht="13"/>
-    <row r="536" ht="13"/>
-    <row r="537" ht="13"/>
-    <row r="538" ht="13"/>
-    <row r="539" ht="13"/>
-    <row r="540" ht="13"/>
-    <row r="541" ht="13"/>
-    <row r="542" ht="13"/>
-    <row r="543" ht="13"/>
-    <row r="544" ht="13"/>
-    <row r="545" ht="13"/>
-    <row r="546" ht="13"/>
-    <row r="547" ht="13"/>
-    <row r="548" ht="13"/>
-    <row r="549" ht="13"/>
-    <row r="550" ht="13"/>
-    <row r="551" ht="13"/>
-    <row r="552" ht="13"/>
-    <row r="553" ht="13"/>
-    <row r="554" ht="13"/>
-    <row r="555" ht="13"/>
-    <row r="556" ht="13"/>
-    <row r="557" ht="13"/>
-    <row r="558" ht="13"/>
-    <row r="559" ht="13"/>
-    <row r="560" ht="13"/>
-    <row r="561" ht="13"/>
-    <row r="562" ht="13"/>
-    <row r="563" ht="13"/>
-    <row r="564" ht="13"/>
-    <row r="565" ht="13"/>
-    <row r="566" ht="13"/>
-    <row r="567" ht="13"/>
-    <row r="568" ht="13"/>
-    <row r="569" ht="13"/>
-    <row r="570" ht="13"/>
-    <row r="571" ht="13"/>
-    <row r="572" ht="13"/>
-    <row r="573" ht="13"/>
-    <row r="574" ht="13"/>
-    <row r="575" ht="13"/>
-    <row r="576" ht="13"/>
-    <row r="577" ht="13"/>
-    <row r="578" ht="13"/>
-    <row r="579" ht="13"/>
-    <row r="580" ht="13"/>
-    <row r="581" ht="13"/>
-    <row r="582" ht="13"/>
-    <row r="583" ht="13"/>
-    <row r="584" ht="13"/>
-    <row r="585" ht="13"/>
-    <row r="586" ht="13"/>
-    <row r="587" ht="13"/>
-    <row r="588" ht="13"/>
-    <row r="589" ht="13"/>
-    <row r="590" ht="13"/>
-    <row r="591" ht="13"/>
-    <row r="592" ht="13"/>
-    <row r="593" ht="13"/>
-    <row r="594" ht="13"/>
-    <row r="595" ht="13"/>
-    <row r="596" ht="13"/>
-    <row r="597" ht="13"/>
-    <row r="598" ht="13"/>
-    <row r="599" ht="13"/>
-    <row r="600" ht="13"/>
-    <row r="601" ht="13"/>
-    <row r="602" ht="13"/>
-    <row r="603" ht="13"/>
-    <row r="604" ht="13"/>
-    <row r="605" ht="13"/>
-    <row r="606" ht="13"/>
-    <row r="607" ht="13"/>
-    <row r="608" ht="13"/>
-    <row r="609" ht="13"/>
-    <row r="610" ht="13"/>
-    <row r="611" ht="13"/>
-    <row r="612" ht="13"/>
-    <row r="613" ht="13"/>
-    <row r="614" ht="13"/>
-    <row r="615" ht="13"/>
-    <row r="616" ht="13"/>
-    <row r="617" ht="13"/>
-    <row r="618" ht="13"/>
-    <row r="619" ht="13"/>
-    <row r="620" ht="13"/>
-    <row r="621" ht="13"/>
-    <row r="622" ht="13"/>
-    <row r="623" ht="13"/>
-    <row r="624" ht="13"/>
-    <row r="625" ht="13"/>
-    <row r="626" ht="13"/>
-    <row r="627" ht="13"/>
-    <row r="628" ht="13"/>
-    <row r="629" ht="13"/>
-    <row r="630" ht="13"/>
-    <row r="631" ht="13"/>
-    <row r="632" ht="13"/>
-    <row r="633" ht="13"/>
-    <row r="634" ht="13"/>
-    <row r="635" ht="13"/>
-    <row r="636" ht="13"/>
-    <row r="637" ht="13"/>
-    <row r="638" ht="13"/>
-    <row r="639" ht="13"/>
-    <row r="640" ht="13"/>
-    <row r="641" ht="13"/>
-    <row r="642" ht="13"/>
-    <row r="643" ht="13"/>
-    <row r="644" ht="13"/>
-    <row r="645" ht="13"/>
-    <row r="646" ht="13"/>
-    <row r="647" ht="13"/>
-    <row r="648" ht="13"/>
-    <row r="649" ht="13"/>
-    <row r="650" ht="13"/>
-    <row r="651" ht="13"/>
-    <row r="652" ht="13"/>
-    <row r="653" ht="13"/>
-    <row r="654" ht="13"/>
-    <row r="655" ht="13"/>
-    <row r="656" ht="13"/>
-    <row r="657" ht="13"/>
-    <row r="658" ht="13"/>
-    <row r="659" ht="13"/>
-    <row r="660" ht="13"/>
-    <row r="661" ht="13"/>
-    <row r="662" ht="13"/>
-    <row r="663" ht="13"/>
-    <row r="664" ht="13"/>
-    <row r="665" ht="13"/>
-    <row r="666" ht="13"/>
-    <row r="667" ht="13"/>
-    <row r="668" ht="13"/>
-    <row r="669" ht="13"/>
-    <row r="670" ht="13"/>
-    <row r="671" ht="13"/>
-    <row r="672" ht="13"/>
-    <row r="673" ht="13"/>
-    <row r="674" ht="13"/>
-    <row r="675" ht="13"/>
-    <row r="676" ht="13"/>
-    <row r="677" ht="13"/>
-    <row r="678" ht="13"/>
-    <row r="679" ht="13"/>
-    <row r="680" ht="13"/>
-    <row r="681" ht="13"/>
-    <row r="682" ht="13"/>
-    <row r="683" ht="13"/>
-    <row r="684" ht="13"/>
-    <row r="685" ht="13"/>
-    <row r="686" ht="13"/>
-    <row r="687" ht="13"/>
-    <row r="688" ht="13"/>
-    <row r="689" ht="13"/>
-    <row r="690" ht="13"/>
-    <row r="691" ht="13"/>
-    <row r="692" ht="13"/>
-    <row r="693" ht="13"/>
-    <row r="694" ht="13"/>
-    <row r="695" ht="13"/>
-    <row r="696" ht="13"/>
-    <row r="697" ht="13"/>
-    <row r="698" ht="13"/>
-    <row r="699" ht="13"/>
-    <row r="700" ht="13"/>
-    <row r="701" ht="13"/>
-    <row r="702" ht="13"/>
-    <row r="703" ht="13"/>
-    <row r="704" ht="13"/>
-    <row r="705" ht="13"/>
-    <row r="706" ht="13"/>
-    <row r="707" ht="13"/>
-    <row r="708" ht="13"/>
-    <row r="709" ht="13"/>
-    <row r="710" ht="13"/>
-    <row r="711" ht="13"/>
-    <row r="712" ht="13"/>
-    <row r="713" ht="13"/>
-    <row r="714" ht="13"/>
-    <row r="715" ht="13"/>
-    <row r="716" ht="13"/>
-    <row r="717" ht="13"/>
-    <row r="718" ht="13"/>
-    <row r="719" ht="13"/>
-    <row r="720" ht="13"/>
-    <row r="721" ht="13"/>
-    <row r="722" ht="13"/>
-    <row r="723" ht="13"/>
-    <row r="724" ht="13"/>
-    <row r="725" ht="13"/>
-    <row r="726" ht="13"/>
-    <row r="727" ht="13"/>
-    <row r="728" ht="13"/>
-    <row r="729" ht="13"/>
-    <row r="730" ht="13"/>
-    <row r="731" ht="13"/>
-    <row r="732" ht="13"/>
-    <row r="733" ht="13"/>
-    <row r="734" ht="13"/>
-    <row r="735" ht="13"/>
-    <row r="736" ht="13"/>
-    <row r="737" ht="13"/>
-    <row r="738" ht="13"/>
-    <row r="739" ht="13"/>
-    <row r="740" ht="13"/>
-    <row r="741" ht="13"/>
-    <row r="742" ht="13"/>
-    <row r="743" ht="13"/>
-    <row r="744" ht="13"/>
-    <row r="745" ht="13"/>
-    <row r="746" ht="13"/>
-    <row r="747" ht="13"/>
-    <row r="748" ht="13"/>
-    <row r="749" ht="13"/>
-    <row r="750" ht="13"/>
-    <row r="751" ht="13"/>
-    <row r="752" ht="13"/>
-    <row r="753" ht="13"/>
-    <row r="754" ht="13"/>
-    <row r="755" ht="13"/>
-    <row r="756" ht="13"/>
-    <row r="757" ht="13"/>
-    <row r="758" ht="13"/>
-    <row r="759" ht="13"/>
-    <row r="760" ht="13"/>
-    <row r="761" ht="13"/>
-    <row r="762" ht="13"/>
-    <row r="763" ht="13"/>
-    <row r="764" ht="13"/>
-    <row r="765" ht="13"/>
-    <row r="766" ht="13"/>
-    <row r="767" ht="13"/>
-    <row r="768" ht="13"/>
-    <row r="769" ht="13"/>
-    <row r="770" ht="13"/>
-    <row r="771" ht="13"/>
-    <row r="772" ht="13"/>
-    <row r="773" ht="13"/>
-    <row r="774" ht="13"/>
-    <row r="775" ht="13"/>
-    <row r="776" ht="13"/>
-    <row r="777" ht="13"/>
-    <row r="778" ht="13"/>
-    <row r="779" ht="13"/>
-    <row r="780" ht="13"/>
-    <row r="781" ht="13"/>
-    <row r="782" ht="13"/>
-    <row r="783" ht="13"/>
-    <row r="784" ht="13"/>
-    <row r="785" ht="13"/>
-    <row r="786" ht="13"/>
-    <row r="787" ht="13"/>
-    <row r="788" ht="13"/>
-    <row r="789" ht="13"/>
-    <row r="790" ht="13"/>
-    <row r="791" ht="13"/>
-    <row r="792" ht="13"/>
-    <row r="793" ht="13"/>
-    <row r="794" ht="13"/>
-    <row r="795" ht="13"/>
-    <row r="796" ht="13"/>
-    <row r="797" ht="13"/>
-    <row r="798" ht="13"/>
-    <row r="799" ht="13"/>
-    <row r="800" ht="13"/>
-    <row r="801" ht="13"/>
-    <row r="802" ht="13"/>
-    <row r="803" ht="13"/>
-    <row r="804" ht="13"/>
-    <row r="805" ht="13"/>
-    <row r="806" ht="13"/>
-    <row r="807" ht="13"/>
-    <row r="808" ht="13"/>
-    <row r="809" ht="13"/>
-    <row r="810" ht="13"/>
-    <row r="811" ht="13"/>
-    <row r="812" ht="13"/>
-    <row r="813" ht="13"/>
-    <row r="814" ht="13"/>
-    <row r="815" ht="13"/>
-    <row r="816" ht="13"/>
-    <row r="817" ht="13"/>
-    <row r="818" ht="13"/>
-    <row r="819" ht="13"/>
-    <row r="820" ht="13"/>
-    <row r="821" ht="13"/>
-    <row r="822" ht="13"/>
-    <row r="823" ht="13"/>
-    <row r="824" ht="13"/>
-    <row r="825" ht="13"/>
-    <row r="826" ht="13"/>
-    <row r="827" ht="13"/>
-    <row r="828" ht="13"/>
-    <row r="829" ht="13"/>
-    <row r="830" ht="13"/>
-    <row r="831" ht="13"/>
-    <row r="832" ht="13"/>
-    <row r="833" ht="13"/>
-    <row r="834" ht="13"/>
-    <row r="835" ht="13"/>
-    <row r="836" ht="13"/>
-    <row r="837" ht="13"/>
-    <row r="838" ht="13"/>
-    <row r="839" ht="13"/>
-    <row r="840" ht="13"/>
-    <row r="841" ht="13"/>
-    <row r="842" ht="13"/>
-    <row r="843" ht="13"/>
-    <row r="844" ht="13"/>
-    <row r="845" ht="13"/>
-    <row r="846" ht="13"/>
-    <row r="847" ht="13"/>
-    <row r="848" ht="13"/>
-    <row r="849" ht="13"/>
-    <row r="850" ht="13"/>
-    <row r="851" ht="13"/>
-    <row r="852" ht="13"/>
-    <row r="853" ht="13"/>
-    <row r="854" ht="13"/>
-    <row r="855" ht="13"/>
-    <row r="856" ht="13"/>
-    <row r="857" ht="13"/>
-    <row r="858" ht="13"/>
-    <row r="859" ht="13"/>
-    <row r="860" ht="13"/>
-    <row r="861" ht="13"/>
-    <row r="862" ht="13"/>
-    <row r="863" ht="13"/>
-    <row r="864" ht="13"/>
-    <row r="865" ht="13"/>
-    <row r="866" ht="13"/>
-    <row r="867" ht="13"/>
-    <row r="868" ht="13"/>
-    <row r="869" ht="13"/>
-    <row r="870" ht="13"/>
-    <row r="871" ht="13"/>
-    <row r="872" ht="13"/>
-    <row r="873" ht="13"/>
-    <row r="874" ht="13"/>
-    <row r="875" ht="13"/>
-    <row r="876" ht="13"/>
-    <row r="877" ht="13"/>
-    <row r="878" ht="13"/>
-    <row r="879" ht="13"/>
-    <row r="880" ht="13"/>
-    <row r="881" ht="13"/>
-    <row r="882" ht="13"/>
-    <row r="883" ht="13"/>
-    <row r="884" ht="13"/>
-    <row r="885" ht="13"/>
-    <row r="886" ht="13"/>
-    <row r="887" ht="13"/>
-    <row r="888" ht="13"/>
-    <row r="889" ht="13"/>
-    <row r="890" ht="13"/>
-    <row r="891" ht="13"/>
-    <row r="892" ht="13"/>
-    <row r="893" ht="13"/>
-    <row r="894" ht="13"/>
-    <row r="895" ht="13"/>
-    <row r="896" ht="13"/>
-    <row r="897" ht="13"/>
-    <row r="898" ht="13"/>
-    <row r="899" ht="13"/>
-    <row r="900" ht="13"/>
-    <row r="901" ht="13"/>
-    <row r="902" ht="13"/>
-    <row r="903" ht="13"/>
-    <row r="904" ht="13"/>
-    <row r="905" ht="13"/>
-    <row r="906" ht="13"/>
-    <row r="907" ht="13"/>
-    <row r="908" ht="13"/>
-    <row r="909" ht="13"/>
-    <row r="910" ht="13"/>
-    <row r="911" ht="13"/>
-    <row r="912" ht="13"/>
-    <row r="913" ht="13"/>
-    <row r="914" ht="13"/>
-    <row r="915" ht="13"/>
-    <row r="916" ht="13"/>
-    <row r="917" ht="13"/>
-    <row r="918" ht="13"/>
-    <row r="919" ht="13"/>
-    <row r="920" ht="13"/>
-    <row r="921" ht="13"/>
-    <row r="922" ht="13"/>
-    <row r="923" ht="13"/>
-    <row r="924" ht="13"/>
-    <row r="925" ht="13"/>
-    <row r="926" ht="13"/>
-    <row r="927" ht="13"/>
-    <row r="928" ht="13"/>
-    <row r="929" ht="13"/>
-    <row r="930" ht="13"/>
-    <row r="931" ht="13"/>
-    <row r="932" ht="13"/>
-    <row r="933" ht="13"/>
-    <row r="934" ht="13"/>
-    <row r="935" ht="13"/>
-    <row r="936" ht="13"/>
-    <row r="937" ht="13"/>
-    <row r="938" ht="13"/>
-    <row r="939" ht="13"/>
-    <row r="940" ht="13"/>
-    <row r="941" ht="13"/>
-    <row r="942" ht="13"/>
-    <row r="943" ht="13"/>
-    <row r="944" ht="13"/>
-    <row r="945" ht="13"/>
-    <row r="946" ht="13"/>
-    <row r="947" ht="13"/>
-    <row r="948" ht="13"/>
-    <row r="949" ht="13"/>
-    <row r="950" ht="13"/>
-    <row r="951" ht="13"/>
-    <row r="952" ht="13"/>
-    <row r="953" ht="13"/>
-    <row r="954" ht="13"/>
-    <row r="955" ht="13"/>
-    <row r="956" ht="13"/>
-    <row r="957" ht="13"/>
-    <row r="958" ht="13"/>
-    <row r="959" ht="13"/>
-    <row r="960" ht="13"/>
-    <row r="961" ht="13"/>
-    <row r="962" ht="13"/>
-    <row r="963" ht="13"/>
-    <row r="964" ht="13"/>
-    <row r="965" ht="13"/>
-    <row r="966" ht="13"/>
-    <row r="967" ht="13"/>
-    <row r="968" ht="13"/>
-    <row r="969" ht="13"/>
-    <row r="970" ht="13"/>
-    <row r="971" ht="13"/>
-    <row r="972" ht="13"/>
-    <row r="973" ht="13"/>
-    <row r="974" ht="13"/>
-    <row r="975" ht="13"/>
-    <row r="976" ht="13"/>
-    <row r="977" ht="13"/>
-    <row r="978" ht="13"/>
-    <row r="979" ht="13"/>
-    <row r="980" ht="13"/>
-    <row r="981" ht="13"/>
-    <row r="982" ht="13"/>
-    <row r="983" ht="13"/>
-    <row r="984" ht="13"/>
-    <row r="985" ht="13"/>
-    <row r="986" ht="13"/>
-    <row r="987" ht="13"/>
-    <row r="988" ht="13"/>
-    <row r="989" ht="13"/>
-    <row r="990" ht="13"/>
-    <row r="991" ht="13"/>
-    <row r="992" ht="13"/>
-    <row r="993" ht="13"/>
-    <row r="994" ht="13"/>
-    <row r="995" ht="13"/>
-    <row r="996" ht="13"/>
-    <row r="997" ht="13"/>
-    <row r="998" ht="13"/>
-    <row r="999" ht="13"/>
-    <row r="1000" ht="13"/>
+    <row r="221" spans="2:2" ht="12"/>
+    <row r="222" spans="2:2" ht="12"/>
+    <row r="223" spans="2:2" ht="12"/>
+    <row r="224" spans="2:2" ht="12"/>
+    <row r="225" ht="12"/>
+    <row r="226" ht="12"/>
+    <row r="227" ht="12"/>
+    <row r="228" ht="12"/>
+    <row r="229" ht="12"/>
+    <row r="230" ht="12"/>
+    <row r="231" ht="12"/>
+    <row r="232" ht="12"/>
+    <row r="233" ht="12"/>
+    <row r="234" ht="12"/>
+    <row r="235" ht="12"/>
+    <row r="236" ht="12"/>
+    <row r="237" ht="12"/>
+    <row r="238" ht="12"/>
+    <row r="239" ht="12"/>
+    <row r="240" ht="12"/>
+    <row r="241" ht="12"/>
+    <row r="242" ht="12"/>
+    <row r="243" ht="12"/>
+    <row r="244" ht="12"/>
+    <row r="245" ht="12"/>
+    <row r="246" ht="12"/>
+    <row r="247" ht="12"/>
+    <row r="248" ht="12"/>
+    <row r="249" ht="12"/>
+    <row r="250" ht="12"/>
+    <row r="251" ht="12"/>
+    <row r="252" ht="12"/>
+    <row r="253" ht="12"/>
+    <row r="254" ht="12"/>
+    <row r="255" ht="12"/>
+    <row r="256" ht="12"/>
+    <row r="257" ht="12"/>
+    <row r="258" ht="12"/>
+    <row r="259" ht="12"/>
+    <row r="260" ht="12"/>
+    <row r="261" ht="12"/>
+    <row r="262" ht="12"/>
+    <row r="263" ht="12"/>
+    <row r="264" ht="12"/>
+    <row r="265" ht="12"/>
+    <row r="266" ht="12"/>
+    <row r="267" ht="12"/>
+    <row r="268" ht="12"/>
+    <row r="269" ht="12"/>
+    <row r="270" ht="12"/>
+    <row r="271" ht="12"/>
+    <row r="272" ht="12"/>
+    <row r="273" ht="12"/>
+    <row r="274" ht="12"/>
+    <row r="275" ht="12"/>
+    <row r="276" ht="12"/>
+    <row r="277" ht="12"/>
+    <row r="278" ht="12"/>
+    <row r="279" ht="12"/>
+    <row r="280" ht="12"/>
+    <row r="281" ht="12"/>
+    <row r="282" ht="12"/>
+    <row r="283" ht="12"/>
+    <row r="284" ht="12"/>
+    <row r="285" ht="12"/>
+    <row r="286" ht="12"/>
+    <row r="287" ht="12"/>
+    <row r="288" ht="12"/>
+    <row r="289" ht="12"/>
+    <row r="290" ht="12"/>
+    <row r="291" ht="12"/>
+    <row r="292" ht="12"/>
+    <row r="293" ht="12"/>
+    <row r="294" ht="12"/>
+    <row r="295" ht="12"/>
+    <row r="296" ht="12"/>
+    <row r="297" ht="12"/>
+    <row r="298" ht="12"/>
+    <row r="299" ht="12"/>
+    <row r="300" ht="12"/>
+    <row r="301" ht="12"/>
+    <row r="302" ht="12"/>
+    <row r="303" ht="12"/>
+    <row r="304" ht="12"/>
+    <row r="305" ht="12"/>
+    <row r="306" ht="12"/>
+    <row r="307" ht="12"/>
+    <row r="308" ht="12"/>
+    <row r="309" ht="12"/>
+    <row r="310" ht="12"/>
+    <row r="311" ht="12"/>
+    <row r="312" ht="12"/>
+    <row r="313" ht="12"/>
+    <row r="314" ht="12"/>
+    <row r="315" ht="12"/>
+    <row r="316" ht="12"/>
+    <row r="317" ht="12"/>
+    <row r="318" ht="12"/>
+    <row r="319" ht="12"/>
+    <row r="320" ht="12"/>
+    <row r="321" ht="12"/>
+    <row r="322" ht="12"/>
+    <row r="323" ht="12"/>
+    <row r="324" ht="12"/>
+    <row r="325" ht="12"/>
+    <row r="326" ht="12"/>
+    <row r="327" ht="12"/>
+    <row r="328" ht="12"/>
+    <row r="329" ht="12"/>
+    <row r="330" ht="12"/>
+    <row r="331" ht="12"/>
+    <row r="332" ht="12"/>
+    <row r="333" ht="12"/>
+    <row r="334" ht="12"/>
+    <row r="335" ht="12"/>
+    <row r="336" ht="12"/>
+    <row r="337" ht="12"/>
+    <row r="338" ht="12"/>
+    <row r="339" ht="12"/>
+    <row r="340" ht="12"/>
+    <row r="341" ht="12"/>
+    <row r="342" ht="12"/>
+    <row r="343" ht="12"/>
+    <row r="344" ht="12"/>
+    <row r="345" ht="12"/>
+    <row r="346" ht="12"/>
+    <row r="347" ht="12"/>
+    <row r="348" ht="12"/>
+    <row r="349" ht="12"/>
+    <row r="350" ht="12"/>
+    <row r="351" ht="12"/>
+    <row r="352" ht="12"/>
+    <row r="353" ht="12"/>
+    <row r="354" ht="12"/>
+    <row r="355" ht="12"/>
+    <row r="356" ht="12"/>
+    <row r="357" ht="12"/>
+    <row r="358" ht="12"/>
+    <row r="359" ht="12"/>
+    <row r="360" ht="12"/>
+    <row r="361" ht="12"/>
+    <row r="362" ht="12"/>
+    <row r="363" ht="12"/>
+    <row r="364" ht="12"/>
+    <row r="365" ht="12"/>
+    <row r="366" ht="12"/>
+    <row r="367" ht="12"/>
+    <row r="368" ht="12"/>
+    <row r="369" ht="12"/>
+    <row r="370" ht="12"/>
+    <row r="371" ht="12"/>
+    <row r="372" ht="12"/>
+    <row r="373" ht="12"/>
+    <row r="374" ht="12"/>
+    <row r="375" ht="12"/>
+    <row r="376" ht="12"/>
+    <row r="377" ht="12"/>
+    <row r="378" ht="12"/>
+    <row r="379" ht="12"/>
+    <row r="380" ht="12"/>
+    <row r="381" ht="12"/>
+    <row r="382" ht="12"/>
+    <row r="383" ht="12"/>
+    <row r="384" ht="12"/>
+    <row r="385" ht="12"/>
+    <row r="386" ht="12"/>
+    <row r="387" ht="12"/>
+    <row r="388" ht="12"/>
+    <row r="389" ht="12"/>
+    <row r="390" ht="12"/>
+    <row r="391" ht="12"/>
+    <row r="392" ht="12"/>
+    <row r="393" ht="12"/>
+    <row r="394" ht="12"/>
+    <row r="395" ht="12"/>
+    <row r="396" ht="12"/>
+    <row r="397" ht="12"/>
+    <row r="398" ht="12"/>
+    <row r="399" ht="12"/>
+    <row r="400" ht="12"/>
+    <row r="401" ht="12"/>
+    <row r="402" ht="12"/>
+    <row r="403" ht="12"/>
+    <row r="404" ht="12"/>
+    <row r="405" ht="12"/>
+    <row r="406" ht="12"/>
+    <row r="407" ht="12"/>
+    <row r="408" ht="12"/>
+    <row r="409" ht="12"/>
+    <row r="410" ht="12"/>
+    <row r="411" ht="12"/>
+    <row r="412" ht="12"/>
+    <row r="413" ht="12"/>
+    <row r="414" ht="12"/>
+    <row r="415" ht="12"/>
+    <row r="416" ht="12"/>
+    <row r="417" ht="12"/>
+    <row r="418" ht="12"/>
+    <row r="419" ht="12"/>
+    <row r="420" ht="12"/>
+    <row r="421" ht="12"/>
+    <row r="422" ht="12"/>
+    <row r="423" ht="12"/>
+    <row r="424" ht="12"/>
+    <row r="425" ht="12"/>
+    <row r="426" ht="12"/>
+    <row r="427" ht="12"/>
+    <row r="428" ht="12"/>
+    <row r="429" ht="12"/>
+    <row r="430" ht="12"/>
+    <row r="431" ht="12"/>
+    <row r="432" ht="12"/>
+    <row r="433" ht="12"/>
+    <row r="434" ht="12"/>
+    <row r="435" ht="12"/>
+    <row r="436" ht="12"/>
+    <row r="437" ht="12"/>
+    <row r="438" ht="12"/>
+    <row r="439" ht="12"/>
+    <row r="440" ht="12"/>
+    <row r="441" ht="12"/>
+    <row r="442" ht="12"/>
+    <row r="443" ht="12"/>
+    <row r="444" ht="12"/>
+    <row r="445" ht="12"/>
+    <row r="446" ht="12"/>
+    <row r="447" ht="12"/>
+    <row r="448" ht="12"/>
+    <row r="449" ht="12"/>
+    <row r="450" ht="12"/>
+    <row r="451" ht="12"/>
+    <row r="452" ht="12"/>
+    <row r="453" ht="12"/>
+    <row r="454" ht="12"/>
+    <row r="455" ht="12"/>
+    <row r="456" ht="12"/>
+    <row r="457" ht="12"/>
+    <row r="458" ht="12"/>
+    <row r="459" ht="12"/>
+    <row r="460" ht="12"/>
+    <row r="461" ht="12"/>
+    <row r="462" ht="12"/>
+    <row r="463" ht="12"/>
+    <row r="464" ht="12"/>
+    <row r="465" ht="12"/>
+    <row r="466" ht="12"/>
+    <row r="467" ht="12"/>
+    <row r="468" ht="12"/>
+    <row r="469" ht="12"/>
+    <row r="470" ht="12"/>
+    <row r="471" ht="12"/>
+    <row r="472" ht="12"/>
+    <row r="473" ht="12"/>
+    <row r="474" ht="12"/>
+    <row r="475" ht="12"/>
+    <row r="476" ht="12"/>
+    <row r="477" ht="12"/>
+    <row r="478" ht="12"/>
+    <row r="479" ht="12"/>
+    <row r="480" ht="12"/>
+    <row r="481" ht="12"/>
+    <row r="482" ht="12"/>
+    <row r="483" ht="12"/>
+    <row r="484" ht="12"/>
+    <row r="485" ht="12"/>
+    <row r="486" ht="12"/>
+    <row r="487" ht="12"/>
+    <row r="488" ht="12"/>
+    <row r="489" ht="12"/>
+    <row r="490" ht="12"/>
+    <row r="491" ht="12"/>
+    <row r="492" ht="12"/>
+    <row r="493" ht="12"/>
+    <row r="494" ht="12"/>
+    <row r="495" ht="12"/>
+    <row r="496" ht="12"/>
+    <row r="497" ht="12"/>
+    <row r="498" ht="12"/>
+    <row r="499" ht="12"/>
+    <row r="500" ht="12"/>
+    <row r="501" ht="12"/>
+    <row r="502" ht="12"/>
+    <row r="503" ht="12"/>
+    <row r="504" ht="12"/>
+    <row r="505" ht="12"/>
+    <row r="506" ht="12"/>
+    <row r="507" ht="12"/>
+    <row r="508" ht="12"/>
+    <row r="509" ht="12"/>
+    <row r="510" ht="12"/>
+    <row r="511" ht="12"/>
+    <row r="512" ht="12"/>
+    <row r="513" ht="12"/>
+    <row r="514" ht="12"/>
+    <row r="515" ht="12"/>
+    <row r="516" ht="12"/>
+    <row r="517" ht="12"/>
+    <row r="518" ht="12"/>
+    <row r="519" ht="12"/>
+    <row r="520" ht="12"/>
+    <row r="521" ht="12"/>
+    <row r="522" ht="12"/>
+    <row r="523" ht="12"/>
+    <row r="524" ht="12"/>
+    <row r="525" ht="12"/>
+    <row r="526" ht="12"/>
+    <row r="527" ht="12"/>
+    <row r="528" ht="12"/>
+    <row r="529" ht="12"/>
+    <row r="530" ht="12"/>
+    <row r="531" ht="12"/>
+    <row r="532" ht="12"/>
+    <row r="533" ht="12"/>
+    <row r="534" ht="12"/>
+    <row r="535" ht="12"/>
+    <row r="536" ht="12"/>
+    <row r="537" ht="12"/>
+    <row r="538" ht="12"/>
+    <row r="539" ht="12"/>
+    <row r="540" ht="12"/>
+    <row r="541" ht="12"/>
+    <row r="542" ht="12"/>
+    <row r="543" ht="12"/>
+    <row r="544" ht="12"/>
+    <row r="545" ht="12"/>
+    <row r="546" ht="12"/>
+    <row r="547" ht="12"/>
+    <row r="548" ht="12"/>
+    <row r="549" ht="12"/>
+    <row r="550" ht="12"/>
+    <row r="551" ht="12"/>
+    <row r="552" ht="12"/>
+    <row r="553" ht="12"/>
+    <row r="554" ht="12"/>
+    <row r="555" ht="12"/>
+    <row r="556" ht="12"/>
+    <row r="557" ht="12"/>
+    <row r="558" ht="12"/>
+    <row r="559" ht="12"/>
+    <row r="560" ht="12"/>
+    <row r="561" ht="12"/>
+    <row r="562" ht="12"/>
+    <row r="563" ht="12"/>
+    <row r="564" ht="12"/>
+    <row r="565" ht="12"/>
+    <row r="566" ht="12"/>
+    <row r="567" ht="12"/>
+    <row r="568" ht="12"/>
+    <row r="569" ht="12"/>
+    <row r="570" ht="12"/>
+    <row r="571" ht="12"/>
+    <row r="572" ht="12"/>
+    <row r="573" ht="12"/>
+    <row r="574" ht="12"/>
+    <row r="575" ht="12"/>
+    <row r="576" ht="12"/>
+    <row r="577" ht="12"/>
+    <row r="578" ht="12"/>
+    <row r="579" ht="12"/>
+    <row r="580" ht="12"/>
+    <row r="581" ht="12"/>
+    <row r="582" ht="12"/>
+    <row r="583" ht="12"/>
+    <row r="584" ht="12"/>
+    <row r="585" ht="12"/>
+    <row r="586" ht="12"/>
+    <row r="587" ht="12"/>
+    <row r="588" ht="12"/>
+    <row r="589" ht="12"/>
+    <row r="590" ht="12"/>
+    <row r="591" ht="12"/>
+    <row r="592" ht="12"/>
+    <row r="593" ht="12"/>
+    <row r="594" ht="12"/>
+    <row r="595" ht="12"/>
+    <row r="596" ht="12"/>
+    <row r="597" ht="12"/>
+    <row r="598" ht="12"/>
+    <row r="599" ht="12"/>
+    <row r="600" ht="12"/>
+    <row r="601" ht="12"/>
+    <row r="602" ht="12"/>
+    <row r="603" ht="12"/>
+    <row r="604" ht="12"/>
+    <row r="605" ht="12"/>
+    <row r="606" ht="12"/>
+    <row r="607" ht="12"/>
+    <row r="608" ht="12"/>
+    <row r="609" ht="12"/>
+    <row r="610" ht="12"/>
+    <row r="611" ht="12"/>
+    <row r="612" ht="12"/>
+    <row r="613" ht="12"/>
+    <row r="614" ht="12"/>
+    <row r="615" ht="12"/>
+    <row r="616" ht="12"/>
+    <row r="617" ht="12"/>
+    <row r="618" ht="12"/>
+    <row r="619" ht="12"/>
+    <row r="620" ht="12"/>
+    <row r="621" ht="12"/>
+    <row r="622" ht="12"/>
+    <row r="623" ht="12"/>
+    <row r="624" ht="12"/>
+    <row r="625" ht="12"/>
+    <row r="626" ht="12"/>
+    <row r="627" ht="12"/>
+    <row r="628" ht="12"/>
+    <row r="629" ht="12"/>
+    <row r="630" ht="12"/>
+    <row r="631" ht="12"/>
+    <row r="632" ht="12"/>
+    <row r="633" ht="12"/>
+    <row r="634" ht="12"/>
+    <row r="635" ht="12"/>
+    <row r="636" ht="12"/>
+    <row r="637" ht="12"/>
+    <row r="638" ht="12"/>
+    <row r="639" ht="12"/>
+    <row r="640" ht="12"/>
+    <row r="641" ht="12"/>
+    <row r="642" ht="12"/>
+    <row r="643" ht="12"/>
+    <row r="644" ht="12"/>
+    <row r="645" ht="12"/>
+    <row r="646" ht="12"/>
+    <row r="647" ht="12"/>
+    <row r="648" ht="12"/>
+    <row r="649" ht="12"/>
+    <row r="650" ht="12"/>
+    <row r="651" ht="12"/>
+    <row r="652" ht="12"/>
+    <row r="653" ht="12"/>
+    <row r="654" ht="12"/>
+    <row r="655" ht="12"/>
+    <row r="656" ht="12"/>
+    <row r="657" ht="12"/>
+    <row r="658" ht="12"/>
+    <row r="659" ht="12"/>
+    <row r="660" ht="12"/>
+    <row r="661" ht="12"/>
+    <row r="662" ht="12"/>
+    <row r="663" ht="12"/>
+    <row r="664" ht="12"/>
+    <row r="665" ht="12"/>
+    <row r="666" ht="12"/>
+    <row r="667" ht="12"/>
+    <row r="668" ht="12"/>
+    <row r="669" ht="12"/>
+    <row r="670" ht="12"/>
+    <row r="671" ht="12"/>
+    <row r="672" ht="12"/>
+    <row r="673" ht="12"/>
+    <row r="674" ht="12"/>
+    <row r="675" ht="12"/>
+    <row r="676" ht="12"/>
+    <row r="677" ht="12"/>
+    <row r="678" ht="12"/>
+    <row r="679" ht="12"/>
+    <row r="680" ht="12"/>
+    <row r="681" ht="12"/>
+    <row r="682" ht="12"/>
+    <row r="683" ht="12"/>
+    <row r="684" ht="12"/>
+    <row r="685" ht="12"/>
+    <row r="686" ht="12"/>
+    <row r="687" ht="12"/>
+    <row r="688" ht="12"/>
+    <row r="689" ht="12"/>
+    <row r="690" ht="12"/>
+    <row r="691" ht="12"/>
+    <row r="692" ht="12"/>
+    <row r="693" ht="12"/>
+    <row r="694" ht="12"/>
+    <row r="695" ht="12"/>
+    <row r="696" ht="12"/>
+    <row r="697" ht="12"/>
+    <row r="698" ht="12"/>
+    <row r="699" ht="12"/>
+    <row r="700" ht="12"/>
+    <row r="701" ht="12"/>
+    <row r="702" ht="12"/>
+    <row r="703" ht="12"/>
+    <row r="704" ht="12"/>
+    <row r="705" ht="12"/>
+    <row r="706" ht="12"/>
+    <row r="707" ht="12"/>
+    <row r="708" ht="12"/>
+    <row r="709" ht="12"/>
+    <row r="710" ht="12"/>
+    <row r="711" ht="12"/>
+    <row r="712" ht="12"/>
+    <row r="713" ht="12"/>
+    <row r="714" ht="12"/>
+    <row r="715" ht="12"/>
+    <row r="716" ht="12"/>
+    <row r="717" ht="12"/>
+    <row r="718" ht="12"/>
+    <row r="719" ht="12"/>
+    <row r="720" ht="12"/>
+    <row r="721" ht="12"/>
+    <row r="722" ht="12"/>
+    <row r="723" ht="12"/>
+    <row r="724" ht="12"/>
+    <row r="725" ht="12"/>
+    <row r="726" ht="12"/>
+    <row r="727" ht="12"/>
+    <row r="728" ht="12"/>
+    <row r="729" ht="12"/>
+    <row r="730" ht="12"/>
+    <row r="731" ht="12"/>
+    <row r="732" ht="12"/>
+    <row r="733" ht="12"/>
+    <row r="734" ht="12"/>
+    <row r="735" ht="12"/>
+    <row r="736" ht="12"/>
+    <row r="737" ht="12"/>
+    <row r="738" ht="12"/>
+    <row r="739" ht="12"/>
+    <row r="740" ht="12"/>
+    <row r="741" ht="12"/>
+    <row r="742" ht="12"/>
+    <row r="743" ht="12"/>
+    <row r="744" ht="12"/>
+    <row r="745" ht="12"/>
+    <row r="746" ht="12"/>
+    <row r="747" ht="12"/>
+    <row r="748" ht="12"/>
+    <row r="749" ht="12"/>
+    <row r="750" ht="12"/>
+    <row r="751" ht="12"/>
+    <row r="752" ht="12"/>
+    <row r="753" ht="12"/>
+    <row r="754" ht="12"/>
+    <row r="755" ht="12"/>
+    <row r="756" ht="12"/>
+    <row r="757" ht="12"/>
+    <row r="758" ht="12"/>
+    <row r="759" ht="12"/>
+    <row r="760" ht="12"/>
+    <row r="761" ht="12"/>
+    <row r="762" ht="12"/>
+    <row r="763" ht="12"/>
+    <row r="764" ht="12"/>
+    <row r="765" ht="12"/>
+    <row r="766" ht="12"/>
+    <row r="767" ht="12"/>
+    <row r="768" ht="12"/>
+    <row r="769" ht="12"/>
+    <row r="770" ht="12"/>
+    <row r="771" ht="12"/>
+    <row r="772" ht="12"/>
+    <row r="773" ht="12"/>
+    <row r="774" ht="12"/>
+    <row r="775" ht="12"/>
+    <row r="776" ht="12"/>
+    <row r="777" ht="12"/>
+    <row r="778" ht="12"/>
+    <row r="779" ht="12"/>
+    <row r="780" ht="12"/>
+    <row r="781" ht="12"/>
+    <row r="782" ht="12"/>
+    <row r="783" ht="12"/>
+    <row r="784" ht="12"/>
+    <row r="785" ht="12"/>
+    <row r="786" ht="12"/>
+    <row r="787" ht="12"/>
+    <row r="788" ht="12"/>
+    <row r="789" ht="12"/>
+    <row r="790" ht="12"/>
+    <row r="791" ht="12"/>
+    <row r="792" ht="12"/>
+    <row r="793" ht="12"/>
+    <row r="794" ht="12"/>
+    <row r="795" ht="12"/>
+    <row r="796" ht="12"/>
+    <row r="797" ht="12"/>
+    <row r="798" ht="12"/>
+    <row r="799" ht="12"/>
+    <row r="800" ht="12"/>
+    <row r="801" ht="12"/>
+    <row r="802" ht="12"/>
+    <row r="803" ht="12"/>
+    <row r="804" ht="12"/>
+    <row r="805" ht="12"/>
+    <row r="806" ht="12"/>
+    <row r="807" ht="12"/>
+    <row r="808" ht="12"/>
+    <row r="809" ht="12"/>
+    <row r="810" ht="12"/>
+    <row r="811" ht="12"/>
+    <row r="812" ht="12"/>
+    <row r="813" ht="12"/>
+    <row r="814" ht="12"/>
+    <row r="815" ht="12"/>
+    <row r="816" ht="12"/>
+    <row r="817" ht="12"/>
+    <row r="818" ht="12"/>
+    <row r="819" ht="12"/>
+    <row r="820" ht="12"/>
+    <row r="821" ht="12"/>
+    <row r="822" ht="12"/>
+    <row r="823" ht="12"/>
+    <row r="824" ht="12"/>
+    <row r="825" ht="12"/>
+    <row r="826" ht="12"/>
+    <row r="827" ht="12"/>
+    <row r="828" ht="12"/>
+    <row r="829" ht="12"/>
+    <row r="830" ht="12"/>
+    <row r="831" ht="12"/>
+    <row r="832" ht="12"/>
+    <row r="833" ht="12"/>
+    <row r="834" ht="12"/>
+    <row r="835" ht="12"/>
+    <row r="836" ht="12"/>
+    <row r="837" ht="12"/>
+    <row r="838" ht="12"/>
+    <row r="839" ht="12"/>
+    <row r="840" ht="12"/>
+    <row r="841" ht="12"/>
+    <row r="842" ht="12"/>
+    <row r="843" ht="12"/>
+    <row r="844" ht="12"/>
+    <row r="845" ht="12"/>
+    <row r="846" ht="12"/>
+    <row r="847" ht="12"/>
+    <row r="848" ht="12"/>
+    <row r="849" ht="12"/>
+    <row r="850" ht="12"/>
+    <row r="851" ht="12"/>
+    <row r="852" ht="12"/>
+    <row r="853" ht="12"/>
+    <row r="854" ht="12"/>
+    <row r="855" ht="12"/>
+    <row r="856" ht="12"/>
+    <row r="857" ht="12"/>
+    <row r="858" ht="12"/>
+    <row r="859" ht="12"/>
+    <row r="860" ht="12"/>
+    <row r="861" ht="12"/>
+    <row r="862" ht="12"/>
+    <row r="863" ht="12"/>
+    <row r="864" ht="12"/>
+    <row r="865" ht="12"/>
+    <row r="866" ht="12"/>
+    <row r="867" ht="12"/>
+    <row r="868" ht="12"/>
+    <row r="869" ht="12"/>
+    <row r="870" ht="12"/>
+    <row r="871" ht="12"/>
+    <row r="872" ht="12"/>
+    <row r="873" ht="12"/>
+    <row r="874" ht="12"/>
+    <row r="875" ht="12"/>
+    <row r="876" ht="12"/>
+    <row r="877" ht="12"/>
+    <row r="878" ht="12"/>
+    <row r="879" ht="12"/>
+    <row r="880" ht="12"/>
+    <row r="881" ht="12"/>
+    <row r="882" ht="12"/>
+    <row r="883" ht="12"/>
+    <row r="884" ht="12"/>
+    <row r="885" ht="12"/>
+    <row r="886" ht="12"/>
+    <row r="887" ht="12"/>
+    <row r="888" ht="12"/>
+    <row r="889" ht="12"/>
+    <row r="890" ht="12"/>
+    <row r="891" ht="12"/>
+    <row r="892" ht="12"/>
+    <row r="893" ht="12"/>
+    <row r="894" ht="12"/>
+    <row r="895" ht="12"/>
+    <row r="896" ht="12"/>
+    <row r="897" ht="12"/>
+    <row r="898" ht="12"/>
+    <row r="899" ht="12"/>
+    <row r="900" ht="12"/>
+    <row r="901" ht="12"/>
+    <row r="902" ht="12"/>
+    <row r="903" ht="12"/>
+    <row r="904" ht="12"/>
+    <row r="905" ht="12"/>
+    <row r="906" ht="12"/>
+    <row r="907" ht="12"/>
+    <row r="908" ht="12"/>
+    <row r="909" ht="12"/>
+    <row r="910" ht="12"/>
+    <row r="911" ht="12"/>
+    <row r="912" ht="12"/>
+    <row r="913" ht="12"/>
+    <row r="914" ht="12"/>
+    <row r="915" ht="12"/>
+    <row r="916" ht="12"/>
+    <row r="917" ht="12"/>
+    <row r="918" ht="12"/>
+    <row r="919" ht="12"/>
+    <row r="920" ht="12"/>
+    <row r="921" ht="12"/>
+    <row r="922" ht="12"/>
+    <row r="923" ht="12"/>
+    <row r="924" ht="12"/>
+    <row r="925" ht="12"/>
+    <row r="926" ht="12"/>
+    <row r="927" ht="12"/>
+    <row r="928" ht="12"/>
+    <row r="929" ht="12"/>
+    <row r="930" ht="12"/>
+    <row r="931" ht="12"/>
+    <row r="932" ht="12"/>
+    <row r="933" ht="12"/>
+    <row r="934" ht="12"/>
+    <row r="935" ht="12"/>
+    <row r="936" ht="12"/>
+    <row r="937" ht="12"/>
+    <row r="938" ht="12"/>
+    <row r="939" ht="12"/>
+    <row r="940" ht="12"/>
+    <row r="941" ht="12"/>
+    <row r="942" ht="12"/>
+    <row r="943" ht="12"/>
+    <row r="944" ht="12"/>
+    <row r="945" ht="12"/>
+    <row r="946" ht="12"/>
+    <row r="947" ht="12"/>
+    <row r="948" ht="12"/>
+    <row r="949" ht="12"/>
+    <row r="950" ht="12"/>
+    <row r="951" ht="12"/>
+    <row r="952" ht="12"/>
+    <row r="953" ht="12"/>
+    <row r="954" ht="12"/>
+    <row r="955" ht="12"/>
+    <row r="956" ht="12"/>
+    <row r="957" ht="12"/>
+    <row r="958" ht="12"/>
+    <row r="959" ht="12"/>
+    <row r="960" ht="12"/>
+    <row r="961" ht="12"/>
+    <row r="962" ht="12"/>
+    <row r="963" ht="12"/>
+    <row r="964" ht="12"/>
+    <row r="965" ht="12"/>
+    <row r="966" ht="12"/>
+    <row r="967" ht="12"/>
+    <row r="968" ht="12"/>
+    <row r="969" ht="12"/>
+    <row r="970" ht="12"/>
+    <row r="971" ht="12"/>
+    <row r="972" ht="12"/>
+    <row r="973" ht="12"/>
+    <row r="974" ht="12"/>
+    <row r="975" ht="12"/>
+    <row r="976" ht="12"/>
+    <row r="977" ht="12"/>
+    <row r="978" ht="12"/>
+    <row r="979" ht="12"/>
+    <row r="980" ht="12"/>
+    <row r="981" ht="12"/>
+    <row r="982" ht="12"/>
+    <row r="983" ht="12"/>
+    <row r="984" ht="12"/>
+    <row r="985" ht="12"/>
+    <row r="986" ht="12"/>
+    <row r="987" ht="12"/>
+    <row r="988" ht="12"/>
+    <row r="989" ht="12"/>
+    <row r="990" ht="12"/>
+    <row r="991" ht="12"/>
+    <row r="992" ht="12"/>
+    <row r="993" ht="12"/>
+    <row r="994" ht="12"/>
+    <row r="995" ht="12"/>
+    <row r="996" ht="12"/>
+    <row r="997" ht="12"/>
+    <row r="998" ht="12"/>
+    <row r="999" ht="12"/>
+    <row r="1000" ht="12"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:D994"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
@@ -8623,7 +8650,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" ht="14">
       <c r="A2" s="23" t="s">
         <v>189</v>
       </c>
@@ -8635,7 +8662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" ht="14">
       <c r="A3" s="23" t="s">
         <v>191</v>
       </c>
@@ -8647,70 +8674,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14">
-      <c r="A4" s="18"/>
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" s="18" t="s">
+        <v>214</v>
+      </c>
       <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-    </row>
-    <row r="5" spans="1:4" ht="14">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-    </row>
-    <row r="6" spans="1:4" ht="14">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-    </row>
-    <row r="7" spans="1:4" ht="14">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="19"/>
-    </row>
-    <row r="8" spans="1:4" ht="14">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="19"/>
-    </row>
-    <row r="9" spans="1:4" ht="14">
+      <c r="C4" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="13">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="13">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="13">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" ht="13">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="14">
+    <row r="10" spans="1:4" ht="13">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="14">
+    <row r="11" spans="1:4" ht="13">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="14">
+    <row r="12" spans="1:4" ht="13">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="14">
+    <row r="13" spans="1:4" ht="13">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="14">
+    <row r="14" spans="1:4" ht="13">
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="14">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="14">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="2:2" ht="14">
+    <row r="17" spans="2:2" ht="15.75" customHeight="1">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:2" ht="14">
+    <row r="18" spans="2:2" ht="15.75" customHeight="1">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="2:2" ht="14">
+    <row r="19" spans="2:2" ht="15.75" customHeight="1">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:2" ht="14">
+    <row r="20" spans="2:2" ht="15.75" customHeight="1">
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="2:2" ht="15.75" customHeight="1">
@@ -9295,820 +9316,807 @@
     <row r="214" spans="2:2" ht="15.75" customHeight="1">
       <c r="B214" s="4"/>
     </row>
-    <row r="215" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B215" s="4"/>
-    </row>
-    <row r="216" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B216" s="4"/>
-    </row>
-    <row r="217" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B217" s="4"/>
-    </row>
-    <row r="218" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B218" s="4"/>
-    </row>
-    <row r="219" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B219" s="4"/>
-    </row>
-    <row r="220" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B220" s="4"/>
-    </row>
-    <row r="221" spans="2:2" ht="13"/>
-    <row r="222" spans="2:2" ht="13"/>
-    <row r="223" spans="2:2" ht="13"/>
-    <row r="224" spans="2:2" ht="13"/>
-    <row r="225" ht="13"/>
-    <row r="226" ht="13"/>
-    <row r="227" ht="13"/>
-    <row r="228" ht="13"/>
-    <row r="229" ht="13"/>
-    <row r="230" ht="13"/>
-    <row r="231" ht="13"/>
-    <row r="232" ht="13"/>
-    <row r="233" ht="13"/>
-    <row r="234" ht="13"/>
-    <row r="235" ht="13"/>
-    <row r="236" ht="13"/>
-    <row r="237" ht="13"/>
-    <row r="238" ht="13"/>
-    <row r="239" ht="13"/>
-    <row r="240" ht="13"/>
-    <row r="241" ht="13"/>
-    <row r="242" ht="13"/>
-    <row r="243" ht="13"/>
-    <row r="244" ht="13"/>
-    <row r="245" ht="13"/>
-    <row r="246" ht="13"/>
-    <row r="247" ht="13"/>
-    <row r="248" ht="13"/>
-    <row r="249" ht="13"/>
-    <row r="250" ht="13"/>
-    <row r="251" ht="13"/>
-    <row r="252" ht="13"/>
-    <row r="253" ht="13"/>
-    <row r="254" ht="13"/>
-    <row r="255" ht="13"/>
-    <row r="256" ht="13"/>
-    <row r="257" ht="13"/>
-    <row r="258" ht="13"/>
-    <row r="259" ht="13"/>
-    <row r="260" ht="13"/>
-    <row r="261" ht="13"/>
-    <row r="262" ht="13"/>
-    <row r="263" ht="13"/>
-    <row r="264" ht="13"/>
-    <row r="265" ht="13"/>
-    <row r="266" ht="13"/>
-    <row r="267" ht="13"/>
-    <row r="268" ht="13"/>
-    <row r="269" ht="13"/>
-    <row r="270" ht="13"/>
-    <row r="271" ht="13"/>
-    <row r="272" ht="13"/>
-    <row r="273" ht="13"/>
-    <row r="274" ht="13"/>
-    <row r="275" ht="13"/>
-    <row r="276" ht="13"/>
-    <row r="277" ht="13"/>
-    <row r="278" ht="13"/>
-    <row r="279" ht="13"/>
-    <row r="280" ht="13"/>
-    <row r="281" ht="13"/>
-    <row r="282" ht="13"/>
-    <row r="283" ht="13"/>
-    <row r="284" ht="13"/>
-    <row r="285" ht="13"/>
-    <row r="286" ht="13"/>
-    <row r="287" ht="13"/>
-    <row r="288" ht="13"/>
-    <row r="289" ht="13"/>
-    <row r="290" ht="13"/>
-    <row r="291" ht="13"/>
-    <row r="292" ht="13"/>
-    <row r="293" ht="13"/>
-    <row r="294" ht="13"/>
-    <row r="295" ht="13"/>
-    <row r="296" ht="13"/>
-    <row r="297" ht="13"/>
-    <row r="298" ht="13"/>
-    <row r="299" ht="13"/>
-    <row r="300" ht="13"/>
-    <row r="301" ht="13"/>
-    <row r="302" ht="13"/>
-    <row r="303" ht="13"/>
-    <row r="304" ht="13"/>
-    <row r="305" ht="13"/>
-    <row r="306" ht="13"/>
-    <row r="307" ht="13"/>
-    <row r="308" ht="13"/>
-    <row r="309" ht="13"/>
-    <row r="310" ht="13"/>
-    <row r="311" ht="13"/>
-    <row r="312" ht="13"/>
-    <row r="313" ht="13"/>
-    <row r="314" ht="13"/>
-    <row r="315" ht="13"/>
-    <row r="316" ht="13"/>
-    <row r="317" ht="13"/>
-    <row r="318" ht="13"/>
-    <row r="319" ht="13"/>
-    <row r="320" ht="13"/>
-    <row r="321" ht="13"/>
-    <row r="322" ht="13"/>
-    <row r="323" ht="13"/>
-    <row r="324" ht="13"/>
-    <row r="325" ht="13"/>
-    <row r="326" ht="13"/>
-    <row r="327" ht="13"/>
-    <row r="328" ht="13"/>
-    <row r="329" ht="13"/>
-    <row r="330" ht="13"/>
-    <row r="331" ht="13"/>
-    <row r="332" ht="13"/>
-    <row r="333" ht="13"/>
-    <row r="334" ht="13"/>
-    <row r="335" ht="13"/>
-    <row r="336" ht="13"/>
-    <row r="337" ht="13"/>
-    <row r="338" ht="13"/>
-    <row r="339" ht="13"/>
-    <row r="340" ht="13"/>
-    <row r="341" ht="13"/>
-    <row r="342" ht="13"/>
-    <row r="343" ht="13"/>
-    <row r="344" ht="13"/>
-    <row r="345" ht="13"/>
-    <row r="346" ht="13"/>
-    <row r="347" ht="13"/>
-    <row r="348" ht="13"/>
-    <row r="349" ht="13"/>
-    <row r="350" ht="13"/>
-    <row r="351" ht="13"/>
-    <row r="352" ht="13"/>
-    <row r="353" ht="13"/>
-    <row r="354" ht="13"/>
-    <row r="355" ht="13"/>
-    <row r="356" ht="13"/>
-    <row r="357" ht="13"/>
-    <row r="358" ht="13"/>
-    <row r="359" ht="13"/>
-    <row r="360" ht="13"/>
-    <row r="361" ht="13"/>
-    <row r="362" ht="13"/>
-    <row r="363" ht="13"/>
-    <row r="364" ht="13"/>
-    <row r="365" ht="13"/>
-    <row r="366" ht="13"/>
-    <row r="367" ht="13"/>
-    <row r="368" ht="13"/>
-    <row r="369" ht="13"/>
-    <row r="370" ht="13"/>
-    <row r="371" ht="13"/>
-    <row r="372" ht="13"/>
-    <row r="373" ht="13"/>
-    <row r="374" ht="13"/>
-    <row r="375" ht="13"/>
-    <row r="376" ht="13"/>
-    <row r="377" ht="13"/>
-    <row r="378" ht="13"/>
-    <row r="379" ht="13"/>
-    <row r="380" ht="13"/>
-    <row r="381" ht="13"/>
-    <row r="382" ht="13"/>
-    <row r="383" ht="13"/>
-    <row r="384" ht="13"/>
-    <row r="385" ht="13"/>
-    <row r="386" ht="13"/>
-    <row r="387" ht="13"/>
-    <row r="388" ht="13"/>
-    <row r="389" ht="13"/>
-    <row r="390" ht="13"/>
-    <row r="391" ht="13"/>
-    <row r="392" ht="13"/>
-    <row r="393" ht="13"/>
-    <row r="394" ht="13"/>
-    <row r="395" ht="13"/>
-    <row r="396" ht="13"/>
-    <row r="397" ht="13"/>
-    <row r="398" ht="13"/>
-    <row r="399" ht="13"/>
-    <row r="400" ht="13"/>
-    <row r="401" ht="13"/>
-    <row r="402" ht="13"/>
-    <row r="403" ht="13"/>
-    <row r="404" ht="13"/>
-    <row r="405" ht="13"/>
-    <row r="406" ht="13"/>
-    <row r="407" ht="13"/>
-    <row r="408" ht="13"/>
-    <row r="409" ht="13"/>
-    <row r="410" ht="13"/>
-    <row r="411" ht="13"/>
-    <row r="412" ht="13"/>
-    <row r="413" ht="13"/>
-    <row r="414" ht="13"/>
-    <row r="415" ht="13"/>
-    <row r="416" ht="13"/>
-    <row r="417" ht="13"/>
-    <row r="418" ht="13"/>
-    <row r="419" ht="13"/>
-    <row r="420" ht="13"/>
-    <row r="421" ht="13"/>
-    <row r="422" ht="13"/>
-    <row r="423" ht="13"/>
-    <row r="424" ht="13"/>
-    <row r="425" ht="13"/>
-    <row r="426" ht="13"/>
-    <row r="427" ht="13"/>
-    <row r="428" ht="13"/>
-    <row r="429" ht="13"/>
-    <row r="430" ht="13"/>
-    <row r="431" ht="13"/>
-    <row r="432" ht="13"/>
-    <row r="433" ht="13"/>
-    <row r="434" ht="13"/>
-    <row r="435" ht="13"/>
-    <row r="436" ht="13"/>
-    <row r="437" ht="13"/>
-    <row r="438" ht="13"/>
-    <row r="439" ht="13"/>
-    <row r="440" ht="13"/>
-    <row r="441" ht="13"/>
-    <row r="442" ht="13"/>
-    <row r="443" ht="13"/>
-    <row r="444" ht="13"/>
-    <row r="445" ht="13"/>
-    <row r="446" ht="13"/>
-    <row r="447" ht="13"/>
-    <row r="448" ht="13"/>
-    <row r="449" ht="13"/>
-    <row r="450" ht="13"/>
-    <row r="451" ht="13"/>
-    <row r="452" ht="13"/>
-    <row r="453" ht="13"/>
-    <row r="454" ht="13"/>
-    <row r="455" ht="13"/>
-    <row r="456" ht="13"/>
-    <row r="457" ht="13"/>
-    <row r="458" ht="13"/>
-    <row r="459" ht="13"/>
-    <row r="460" ht="13"/>
-    <row r="461" ht="13"/>
-    <row r="462" ht="13"/>
-    <row r="463" ht="13"/>
-    <row r="464" ht="13"/>
-    <row r="465" ht="13"/>
-    <row r="466" ht="13"/>
-    <row r="467" ht="13"/>
-    <row r="468" ht="13"/>
-    <row r="469" ht="13"/>
-    <row r="470" ht="13"/>
-    <row r="471" ht="13"/>
-    <row r="472" ht="13"/>
-    <row r="473" ht="13"/>
-    <row r="474" ht="13"/>
-    <row r="475" ht="13"/>
-    <row r="476" ht="13"/>
-    <row r="477" ht="13"/>
-    <row r="478" ht="13"/>
-    <row r="479" ht="13"/>
-    <row r="480" ht="13"/>
-    <row r="481" ht="13"/>
-    <row r="482" ht="13"/>
-    <row r="483" ht="13"/>
-    <row r="484" ht="13"/>
-    <row r="485" ht="13"/>
-    <row r="486" ht="13"/>
-    <row r="487" ht="13"/>
-    <row r="488" ht="13"/>
-    <row r="489" ht="13"/>
-    <row r="490" ht="13"/>
-    <row r="491" ht="13"/>
-    <row r="492" ht="13"/>
-    <row r="493" ht="13"/>
-    <row r="494" ht="13"/>
-    <row r="495" ht="13"/>
-    <row r="496" ht="13"/>
-    <row r="497" ht="13"/>
-    <row r="498" ht="13"/>
-    <row r="499" ht="13"/>
-    <row r="500" ht="13"/>
-    <row r="501" ht="13"/>
-    <row r="502" ht="13"/>
-    <row r="503" ht="13"/>
-    <row r="504" ht="13"/>
-    <row r="505" ht="13"/>
-    <row r="506" ht="13"/>
-    <row r="507" ht="13"/>
-    <row r="508" ht="13"/>
-    <row r="509" ht="13"/>
-    <row r="510" ht="13"/>
-    <row r="511" ht="13"/>
-    <row r="512" ht="13"/>
-    <row r="513" ht="13"/>
-    <row r="514" ht="13"/>
-    <row r="515" ht="13"/>
-    <row r="516" ht="13"/>
-    <row r="517" ht="13"/>
-    <row r="518" ht="13"/>
-    <row r="519" ht="13"/>
-    <row r="520" ht="13"/>
-    <row r="521" ht="13"/>
-    <row r="522" ht="13"/>
-    <row r="523" ht="13"/>
-    <row r="524" ht="13"/>
-    <row r="525" ht="13"/>
-    <row r="526" ht="13"/>
-    <row r="527" ht="13"/>
-    <row r="528" ht="13"/>
-    <row r="529" ht="13"/>
-    <row r="530" ht="13"/>
-    <row r="531" ht="13"/>
-    <row r="532" ht="13"/>
-    <row r="533" ht="13"/>
-    <row r="534" ht="13"/>
-    <row r="535" ht="13"/>
-    <row r="536" ht="13"/>
-    <row r="537" ht="13"/>
-    <row r="538" ht="13"/>
-    <row r="539" ht="13"/>
-    <row r="540" ht="13"/>
-    <row r="541" ht="13"/>
-    <row r="542" ht="13"/>
-    <row r="543" ht="13"/>
-    <row r="544" ht="13"/>
-    <row r="545" ht="13"/>
-    <row r="546" ht="13"/>
-    <row r="547" ht="13"/>
-    <row r="548" ht="13"/>
-    <row r="549" ht="13"/>
-    <row r="550" ht="13"/>
-    <row r="551" ht="13"/>
-    <row r="552" ht="13"/>
-    <row r="553" ht="13"/>
-    <row r="554" ht="13"/>
-    <row r="555" ht="13"/>
-    <row r="556" ht="13"/>
-    <row r="557" ht="13"/>
-    <row r="558" ht="13"/>
-    <row r="559" ht="13"/>
-    <row r="560" ht="13"/>
-    <row r="561" ht="13"/>
-    <row r="562" ht="13"/>
-    <row r="563" ht="13"/>
-    <row r="564" ht="13"/>
-    <row r="565" ht="13"/>
-    <row r="566" ht="13"/>
-    <row r="567" ht="13"/>
-    <row r="568" ht="13"/>
-    <row r="569" ht="13"/>
-    <row r="570" ht="13"/>
-    <row r="571" ht="13"/>
-    <row r="572" ht="13"/>
-    <row r="573" ht="13"/>
-    <row r="574" ht="13"/>
-    <row r="575" ht="13"/>
-    <row r="576" ht="13"/>
-    <row r="577" ht="13"/>
-    <row r="578" ht="13"/>
-    <row r="579" ht="13"/>
-    <row r="580" ht="13"/>
-    <row r="581" ht="13"/>
-    <row r="582" ht="13"/>
-    <row r="583" ht="13"/>
-    <row r="584" ht="13"/>
-    <row r="585" ht="13"/>
-    <row r="586" ht="13"/>
-    <row r="587" ht="13"/>
-    <row r="588" ht="13"/>
-    <row r="589" ht="13"/>
-    <row r="590" ht="13"/>
-    <row r="591" ht="13"/>
-    <row r="592" ht="13"/>
-    <row r="593" ht="13"/>
-    <row r="594" ht="13"/>
-    <row r="595" ht="13"/>
-    <row r="596" ht="13"/>
-    <row r="597" ht="13"/>
-    <row r="598" ht="13"/>
-    <row r="599" ht="13"/>
-    <row r="600" ht="13"/>
-    <row r="601" ht="13"/>
-    <row r="602" ht="13"/>
-    <row r="603" ht="13"/>
-    <row r="604" ht="13"/>
-    <row r="605" ht="13"/>
-    <row r="606" ht="13"/>
-    <row r="607" ht="13"/>
-    <row r="608" ht="13"/>
-    <row r="609" ht="13"/>
-    <row r="610" ht="13"/>
-    <row r="611" ht="13"/>
-    <row r="612" ht="13"/>
-    <row r="613" ht="13"/>
-    <row r="614" ht="13"/>
-    <row r="615" ht="13"/>
-    <row r="616" ht="13"/>
-    <row r="617" ht="13"/>
-    <row r="618" ht="13"/>
-    <row r="619" ht="13"/>
-    <row r="620" ht="13"/>
-    <row r="621" ht="13"/>
-    <row r="622" ht="13"/>
-    <row r="623" ht="13"/>
-    <row r="624" ht="13"/>
-    <row r="625" ht="13"/>
-    <row r="626" ht="13"/>
-    <row r="627" ht="13"/>
-    <row r="628" ht="13"/>
-    <row r="629" ht="13"/>
-    <row r="630" ht="13"/>
-    <row r="631" ht="13"/>
-    <row r="632" ht="13"/>
-    <row r="633" ht="13"/>
-    <row r="634" ht="13"/>
-    <row r="635" ht="13"/>
-    <row r="636" ht="13"/>
-    <row r="637" ht="13"/>
-    <row r="638" ht="13"/>
-    <row r="639" ht="13"/>
-    <row r="640" ht="13"/>
-    <row r="641" ht="13"/>
-    <row r="642" ht="13"/>
-    <row r="643" ht="13"/>
-    <row r="644" ht="13"/>
-    <row r="645" ht="13"/>
-    <row r="646" ht="13"/>
-    <row r="647" ht="13"/>
-    <row r="648" ht="13"/>
-    <row r="649" ht="13"/>
-    <row r="650" ht="13"/>
-    <row r="651" ht="13"/>
-    <row r="652" ht="13"/>
-    <row r="653" ht="13"/>
-    <row r="654" ht="13"/>
-    <row r="655" ht="13"/>
-    <row r="656" ht="13"/>
-    <row r="657" ht="13"/>
-    <row r="658" ht="13"/>
-    <row r="659" ht="13"/>
-    <row r="660" ht="13"/>
-    <row r="661" ht="13"/>
-    <row r="662" ht="13"/>
-    <row r="663" ht="13"/>
-    <row r="664" ht="13"/>
-    <row r="665" ht="13"/>
-    <row r="666" ht="13"/>
-    <row r="667" ht="13"/>
-    <row r="668" ht="13"/>
-    <row r="669" ht="13"/>
-    <row r="670" ht="13"/>
-    <row r="671" ht="13"/>
-    <row r="672" ht="13"/>
-    <row r="673" ht="13"/>
-    <row r="674" ht="13"/>
-    <row r="675" ht="13"/>
-    <row r="676" ht="13"/>
-    <row r="677" ht="13"/>
-    <row r="678" ht="13"/>
-    <row r="679" ht="13"/>
-    <row r="680" ht="13"/>
-    <row r="681" ht="13"/>
-    <row r="682" ht="13"/>
-    <row r="683" ht="13"/>
-    <row r="684" ht="13"/>
-    <row r="685" ht="13"/>
-    <row r="686" ht="13"/>
-    <row r="687" ht="13"/>
-    <row r="688" ht="13"/>
-    <row r="689" ht="13"/>
-    <row r="690" ht="13"/>
-    <row r="691" ht="13"/>
-    <row r="692" ht="13"/>
-    <row r="693" ht="13"/>
-    <row r="694" ht="13"/>
-    <row r="695" ht="13"/>
-    <row r="696" ht="13"/>
-    <row r="697" ht="13"/>
-    <row r="698" ht="13"/>
-    <row r="699" ht="13"/>
-    <row r="700" ht="13"/>
-    <row r="701" ht="13"/>
-    <row r="702" ht="13"/>
-    <row r="703" ht="13"/>
-    <row r="704" ht="13"/>
-    <row r="705" ht="13"/>
-    <row r="706" ht="13"/>
-    <row r="707" ht="13"/>
-    <row r="708" ht="13"/>
-    <row r="709" ht="13"/>
-    <row r="710" ht="13"/>
-    <row r="711" ht="13"/>
-    <row r="712" ht="13"/>
-    <row r="713" ht="13"/>
-    <row r="714" ht="13"/>
-    <row r="715" ht="13"/>
-    <row r="716" ht="13"/>
-    <row r="717" ht="13"/>
-    <row r="718" ht="13"/>
-    <row r="719" ht="13"/>
-    <row r="720" ht="13"/>
-    <row r="721" ht="13"/>
-    <row r="722" ht="13"/>
-    <row r="723" ht="13"/>
-    <row r="724" ht="13"/>
-    <row r="725" ht="13"/>
-    <row r="726" ht="13"/>
-    <row r="727" ht="13"/>
-    <row r="728" ht="13"/>
-    <row r="729" ht="13"/>
-    <row r="730" ht="13"/>
-    <row r="731" ht="13"/>
-    <row r="732" ht="13"/>
-    <row r="733" ht="13"/>
-    <row r="734" ht="13"/>
-    <row r="735" ht="13"/>
-    <row r="736" ht="13"/>
-    <row r="737" ht="13"/>
-    <row r="738" ht="13"/>
-    <row r="739" ht="13"/>
-    <row r="740" ht="13"/>
-    <row r="741" ht="13"/>
-    <row r="742" ht="13"/>
-    <row r="743" ht="13"/>
-    <row r="744" ht="13"/>
-    <row r="745" ht="13"/>
-    <row r="746" ht="13"/>
-    <row r="747" ht="13"/>
-    <row r="748" ht="13"/>
-    <row r="749" ht="13"/>
-    <row r="750" ht="13"/>
-    <row r="751" ht="13"/>
-    <row r="752" ht="13"/>
-    <row r="753" ht="13"/>
-    <row r="754" ht="13"/>
-    <row r="755" ht="13"/>
-    <row r="756" ht="13"/>
-    <row r="757" ht="13"/>
-    <row r="758" ht="13"/>
-    <row r="759" ht="13"/>
-    <row r="760" ht="13"/>
-    <row r="761" ht="13"/>
-    <row r="762" ht="13"/>
-    <row r="763" ht="13"/>
-    <row r="764" ht="13"/>
-    <row r="765" ht="13"/>
-    <row r="766" ht="13"/>
-    <row r="767" ht="13"/>
-    <row r="768" ht="13"/>
-    <row r="769" ht="13"/>
-    <row r="770" ht="13"/>
-    <row r="771" ht="13"/>
-    <row r="772" ht="13"/>
-    <row r="773" ht="13"/>
-    <row r="774" ht="13"/>
-    <row r="775" ht="13"/>
-    <row r="776" ht="13"/>
-    <row r="777" ht="13"/>
-    <row r="778" ht="13"/>
-    <row r="779" ht="13"/>
-    <row r="780" ht="13"/>
-    <row r="781" ht="13"/>
-    <row r="782" ht="13"/>
-    <row r="783" ht="13"/>
-    <row r="784" ht="13"/>
-    <row r="785" ht="13"/>
-    <row r="786" ht="13"/>
-    <row r="787" ht="13"/>
-    <row r="788" ht="13"/>
-    <row r="789" ht="13"/>
-    <row r="790" ht="13"/>
-    <row r="791" ht="13"/>
-    <row r="792" ht="13"/>
-    <row r="793" ht="13"/>
-    <row r="794" ht="13"/>
-    <row r="795" ht="13"/>
-    <row r="796" ht="13"/>
-    <row r="797" ht="13"/>
-    <row r="798" ht="13"/>
-    <row r="799" ht="13"/>
-    <row r="800" ht="13"/>
-    <row r="801" ht="13"/>
-    <row r="802" ht="13"/>
-    <row r="803" ht="13"/>
-    <row r="804" ht="13"/>
-    <row r="805" ht="13"/>
-    <row r="806" ht="13"/>
-    <row r="807" ht="13"/>
-    <row r="808" ht="13"/>
-    <row r="809" ht="13"/>
-    <row r="810" ht="13"/>
-    <row r="811" ht="13"/>
-    <row r="812" ht="13"/>
-    <row r="813" ht="13"/>
-    <row r="814" ht="13"/>
-    <row r="815" ht="13"/>
-    <row r="816" ht="13"/>
-    <row r="817" ht="13"/>
-    <row r="818" ht="13"/>
-    <row r="819" ht="13"/>
-    <row r="820" ht="13"/>
-    <row r="821" ht="13"/>
-    <row r="822" ht="13"/>
-    <row r="823" ht="13"/>
-    <row r="824" ht="13"/>
-    <row r="825" ht="13"/>
-    <row r="826" ht="13"/>
-    <row r="827" ht="13"/>
-    <row r="828" ht="13"/>
-    <row r="829" ht="13"/>
-    <row r="830" ht="13"/>
-    <row r="831" ht="13"/>
-    <row r="832" ht="13"/>
-    <row r="833" ht="13"/>
-    <row r="834" ht="13"/>
-    <row r="835" ht="13"/>
-    <row r="836" ht="13"/>
-    <row r="837" ht="13"/>
-    <row r="838" ht="13"/>
-    <row r="839" ht="13"/>
-    <row r="840" ht="13"/>
-    <row r="841" ht="13"/>
-    <row r="842" ht="13"/>
-    <row r="843" ht="13"/>
-    <row r="844" ht="13"/>
-    <row r="845" ht="13"/>
-    <row r="846" ht="13"/>
-    <row r="847" ht="13"/>
-    <row r="848" ht="13"/>
-    <row r="849" ht="13"/>
-    <row r="850" ht="13"/>
-    <row r="851" ht="13"/>
-    <row r="852" ht="13"/>
-    <row r="853" ht="13"/>
-    <row r="854" ht="13"/>
-    <row r="855" ht="13"/>
-    <row r="856" ht="13"/>
-    <row r="857" ht="13"/>
-    <row r="858" ht="13"/>
-    <row r="859" ht="13"/>
-    <row r="860" ht="13"/>
-    <row r="861" ht="13"/>
-    <row r="862" ht="13"/>
-    <row r="863" ht="13"/>
-    <row r="864" ht="13"/>
-    <row r="865" ht="13"/>
-    <row r="866" ht="13"/>
-    <row r="867" ht="13"/>
-    <row r="868" ht="13"/>
-    <row r="869" ht="13"/>
-    <row r="870" ht="13"/>
-    <row r="871" ht="13"/>
-    <row r="872" ht="13"/>
-    <row r="873" ht="13"/>
-    <row r="874" ht="13"/>
-    <row r="875" ht="13"/>
-    <row r="876" ht="13"/>
-    <row r="877" ht="13"/>
-    <row r="878" ht="13"/>
-    <row r="879" ht="13"/>
-    <row r="880" ht="13"/>
-    <row r="881" ht="13"/>
-    <row r="882" ht="13"/>
-    <row r="883" ht="13"/>
-    <row r="884" ht="13"/>
-    <row r="885" ht="13"/>
-    <row r="886" ht="13"/>
-    <row r="887" ht="13"/>
-    <row r="888" ht="13"/>
-    <row r="889" ht="13"/>
-    <row r="890" ht="13"/>
-    <row r="891" ht="13"/>
-    <row r="892" ht="13"/>
-    <row r="893" ht="13"/>
-    <row r="894" ht="13"/>
-    <row r="895" ht="13"/>
-    <row r="896" ht="13"/>
-    <row r="897" ht="13"/>
-    <row r="898" ht="13"/>
-    <row r="899" ht="13"/>
-    <row r="900" ht="13"/>
-    <row r="901" ht="13"/>
-    <row r="902" ht="13"/>
-    <row r="903" ht="13"/>
-    <row r="904" ht="13"/>
-    <row r="905" ht="13"/>
-    <row r="906" ht="13"/>
-    <row r="907" ht="13"/>
-    <row r="908" ht="13"/>
-    <row r="909" ht="13"/>
-    <row r="910" ht="13"/>
-    <row r="911" ht="13"/>
-    <row r="912" ht="13"/>
-    <row r="913" ht="13"/>
-    <row r="914" ht="13"/>
-    <row r="915" ht="13"/>
-    <row r="916" ht="13"/>
-    <row r="917" ht="13"/>
-    <row r="918" ht="13"/>
-    <row r="919" ht="13"/>
-    <row r="920" ht="13"/>
-    <row r="921" ht="13"/>
-    <row r="922" ht="13"/>
-    <row r="923" ht="13"/>
-    <row r="924" ht="13"/>
-    <row r="925" ht="13"/>
-    <row r="926" ht="13"/>
-    <row r="927" ht="13"/>
-    <row r="928" ht="13"/>
-    <row r="929" ht="13"/>
-    <row r="930" ht="13"/>
-    <row r="931" ht="13"/>
-    <row r="932" ht="13"/>
-    <row r="933" ht="13"/>
-    <row r="934" ht="13"/>
-    <row r="935" ht="13"/>
-    <row r="936" ht="13"/>
-    <row r="937" ht="13"/>
-    <row r="938" ht="13"/>
-    <row r="939" ht="13"/>
-    <row r="940" ht="13"/>
-    <row r="941" ht="13"/>
-    <row r="942" ht="13"/>
-    <row r="943" ht="13"/>
-    <row r="944" ht="13"/>
-    <row r="945" ht="13"/>
-    <row r="946" ht="13"/>
-    <row r="947" ht="13"/>
-    <row r="948" ht="13"/>
-    <row r="949" ht="13"/>
-    <row r="950" ht="13"/>
-    <row r="951" ht="13"/>
-    <row r="952" ht="13"/>
-    <row r="953" ht="13"/>
-    <row r="954" ht="13"/>
-    <row r="955" ht="13"/>
-    <row r="956" ht="13"/>
-    <row r="957" ht="13"/>
-    <row r="958" ht="13"/>
-    <row r="959" ht="13"/>
-    <row r="960" ht="13"/>
-    <row r="961" ht="13"/>
-    <row r="962" ht="13"/>
-    <row r="963" ht="13"/>
-    <row r="964" ht="13"/>
-    <row r="965" ht="13"/>
-    <row r="966" ht="13"/>
-    <row r="967" ht="13"/>
-    <row r="968" ht="13"/>
-    <row r="969" ht="13"/>
-    <row r="970" ht="13"/>
-    <row r="971" ht="13"/>
-    <row r="972" ht="13"/>
-    <row r="973" ht="13"/>
-    <row r="974" ht="13"/>
-    <row r="975" ht="13"/>
-    <row r="976" ht="13"/>
-    <row r="977" ht="13"/>
-    <row r="978" ht="13"/>
-    <row r="979" ht="13"/>
-    <row r="980" ht="13"/>
-    <row r="981" ht="13"/>
-    <row r="982" ht="13"/>
-    <row r="983" ht="13"/>
-    <row r="984" ht="13"/>
-    <row r="985" ht="13"/>
-    <row r="986" ht="13"/>
-    <row r="987" ht="13"/>
-    <row r="988" ht="13"/>
-    <row r="989" ht="13"/>
-    <row r="990" ht="13"/>
-    <row r="991" ht="13"/>
-    <row r="992" ht="13"/>
-    <row r="993" ht="13"/>
-    <row r="994" ht="13"/>
-    <row r="995" ht="13"/>
-    <row r="996" ht="13"/>
-    <row r="997" ht="13"/>
-    <row r="998" ht="13"/>
-    <row r="999" ht="13"/>
-    <row r="1000" ht="13"/>
+    <row r="215" spans="2:2" ht="12"/>
+    <row r="216" spans="2:2" ht="12"/>
+    <row r="217" spans="2:2" ht="12"/>
+    <row r="218" spans="2:2" ht="12"/>
+    <row r="219" spans="2:2" ht="12"/>
+    <row r="220" spans="2:2" ht="12"/>
+    <row r="221" spans="2:2" ht="12"/>
+    <row r="222" spans="2:2" ht="12"/>
+    <row r="223" spans="2:2" ht="12"/>
+    <row r="224" spans="2:2" ht="12"/>
+    <row r="225" ht="12"/>
+    <row r="226" ht="12"/>
+    <row r="227" ht="12"/>
+    <row r="228" ht="12"/>
+    <row r="229" ht="12"/>
+    <row r="230" ht="12"/>
+    <row r="231" ht="12"/>
+    <row r="232" ht="12"/>
+    <row r="233" ht="12"/>
+    <row r="234" ht="12"/>
+    <row r="235" ht="12"/>
+    <row r="236" ht="12"/>
+    <row r="237" ht="12"/>
+    <row r="238" ht="12"/>
+    <row r="239" ht="12"/>
+    <row r="240" ht="12"/>
+    <row r="241" ht="12"/>
+    <row r="242" ht="12"/>
+    <row r="243" ht="12"/>
+    <row r="244" ht="12"/>
+    <row r="245" ht="12"/>
+    <row r="246" ht="12"/>
+    <row r="247" ht="12"/>
+    <row r="248" ht="12"/>
+    <row r="249" ht="12"/>
+    <row r="250" ht="12"/>
+    <row r="251" ht="12"/>
+    <row r="252" ht="12"/>
+    <row r="253" ht="12"/>
+    <row r="254" ht="12"/>
+    <row r="255" ht="12"/>
+    <row r="256" ht="12"/>
+    <row r="257" ht="12"/>
+    <row r="258" ht="12"/>
+    <row r="259" ht="12"/>
+    <row r="260" ht="12"/>
+    <row r="261" ht="12"/>
+    <row r="262" ht="12"/>
+    <row r="263" ht="12"/>
+    <row r="264" ht="12"/>
+    <row r="265" ht="12"/>
+    <row r="266" ht="12"/>
+    <row r="267" ht="12"/>
+    <row r="268" ht="12"/>
+    <row r="269" ht="12"/>
+    <row r="270" ht="12"/>
+    <row r="271" ht="12"/>
+    <row r="272" ht="12"/>
+    <row r="273" ht="12"/>
+    <row r="274" ht="12"/>
+    <row r="275" ht="12"/>
+    <row r="276" ht="12"/>
+    <row r="277" ht="12"/>
+    <row r="278" ht="12"/>
+    <row r="279" ht="12"/>
+    <row r="280" ht="12"/>
+    <row r="281" ht="12"/>
+    <row r="282" ht="12"/>
+    <row r="283" ht="12"/>
+    <row r="284" ht="12"/>
+    <row r="285" ht="12"/>
+    <row r="286" ht="12"/>
+    <row r="287" ht="12"/>
+    <row r="288" ht="12"/>
+    <row r="289" ht="12"/>
+    <row r="290" ht="12"/>
+    <row r="291" ht="12"/>
+    <row r="292" ht="12"/>
+    <row r="293" ht="12"/>
+    <row r="294" ht="12"/>
+    <row r="295" ht="12"/>
+    <row r="296" ht="12"/>
+    <row r="297" ht="12"/>
+    <row r="298" ht="12"/>
+    <row r="299" ht="12"/>
+    <row r="300" ht="12"/>
+    <row r="301" ht="12"/>
+    <row r="302" ht="12"/>
+    <row r="303" ht="12"/>
+    <row r="304" ht="12"/>
+    <row r="305" ht="12"/>
+    <row r="306" ht="12"/>
+    <row r="307" ht="12"/>
+    <row r="308" ht="12"/>
+    <row r="309" ht="12"/>
+    <row r="310" ht="12"/>
+    <row r="311" ht="12"/>
+    <row r="312" ht="12"/>
+    <row r="313" ht="12"/>
+    <row r="314" ht="12"/>
+    <row r="315" ht="12"/>
+    <row r="316" ht="12"/>
+    <row r="317" ht="12"/>
+    <row r="318" ht="12"/>
+    <row r="319" ht="12"/>
+    <row r="320" ht="12"/>
+    <row r="321" ht="12"/>
+    <row r="322" ht="12"/>
+    <row r="323" ht="12"/>
+    <row r="324" ht="12"/>
+    <row r="325" ht="12"/>
+    <row r="326" ht="12"/>
+    <row r="327" ht="12"/>
+    <row r="328" ht="12"/>
+    <row r="329" ht="12"/>
+    <row r="330" ht="12"/>
+    <row r="331" ht="12"/>
+    <row r="332" ht="12"/>
+    <row r="333" ht="12"/>
+    <row r="334" ht="12"/>
+    <row r="335" ht="12"/>
+    <row r="336" ht="12"/>
+    <row r="337" ht="12"/>
+    <row r="338" ht="12"/>
+    <row r="339" ht="12"/>
+    <row r="340" ht="12"/>
+    <row r="341" ht="12"/>
+    <row r="342" ht="12"/>
+    <row r="343" ht="12"/>
+    <row r="344" ht="12"/>
+    <row r="345" ht="12"/>
+    <row r="346" ht="12"/>
+    <row r="347" ht="12"/>
+    <row r="348" ht="12"/>
+    <row r="349" ht="12"/>
+    <row r="350" ht="12"/>
+    <row r="351" ht="12"/>
+    <row r="352" ht="12"/>
+    <row r="353" ht="12"/>
+    <row r="354" ht="12"/>
+    <row r="355" ht="12"/>
+    <row r="356" ht="12"/>
+    <row r="357" ht="12"/>
+    <row r="358" ht="12"/>
+    <row r="359" ht="12"/>
+    <row r="360" ht="12"/>
+    <row r="361" ht="12"/>
+    <row r="362" ht="12"/>
+    <row r="363" ht="12"/>
+    <row r="364" ht="12"/>
+    <row r="365" ht="12"/>
+    <row r="366" ht="12"/>
+    <row r="367" ht="12"/>
+    <row r="368" ht="12"/>
+    <row r="369" ht="12"/>
+    <row r="370" ht="12"/>
+    <row r="371" ht="12"/>
+    <row r="372" ht="12"/>
+    <row r="373" ht="12"/>
+    <row r="374" ht="12"/>
+    <row r="375" ht="12"/>
+    <row r="376" ht="12"/>
+    <row r="377" ht="12"/>
+    <row r="378" ht="12"/>
+    <row r="379" ht="12"/>
+    <row r="380" ht="12"/>
+    <row r="381" ht="12"/>
+    <row r="382" ht="12"/>
+    <row r="383" ht="12"/>
+    <row r="384" ht="12"/>
+    <row r="385" ht="12"/>
+    <row r="386" ht="12"/>
+    <row r="387" ht="12"/>
+    <row r="388" ht="12"/>
+    <row r="389" ht="12"/>
+    <row r="390" ht="12"/>
+    <row r="391" ht="12"/>
+    <row r="392" ht="12"/>
+    <row r="393" ht="12"/>
+    <row r="394" ht="12"/>
+    <row r="395" ht="12"/>
+    <row r="396" ht="12"/>
+    <row r="397" ht="12"/>
+    <row r="398" ht="12"/>
+    <row r="399" ht="12"/>
+    <row r="400" ht="12"/>
+    <row r="401" ht="12"/>
+    <row r="402" ht="12"/>
+    <row r="403" ht="12"/>
+    <row r="404" ht="12"/>
+    <row r="405" ht="12"/>
+    <row r="406" ht="12"/>
+    <row r="407" ht="12"/>
+    <row r="408" ht="12"/>
+    <row r="409" ht="12"/>
+    <row r="410" ht="12"/>
+    <row r="411" ht="12"/>
+    <row r="412" ht="12"/>
+    <row r="413" ht="12"/>
+    <row r="414" ht="12"/>
+    <row r="415" ht="12"/>
+    <row r="416" ht="12"/>
+    <row r="417" ht="12"/>
+    <row r="418" ht="12"/>
+    <row r="419" ht="12"/>
+    <row r="420" ht="12"/>
+    <row r="421" ht="12"/>
+    <row r="422" ht="12"/>
+    <row r="423" ht="12"/>
+    <row r="424" ht="12"/>
+    <row r="425" ht="12"/>
+    <row r="426" ht="12"/>
+    <row r="427" ht="12"/>
+    <row r="428" ht="12"/>
+    <row r="429" ht="12"/>
+    <row r="430" ht="12"/>
+    <row r="431" ht="12"/>
+    <row r="432" ht="12"/>
+    <row r="433" ht="12"/>
+    <row r="434" ht="12"/>
+    <row r="435" ht="12"/>
+    <row r="436" ht="12"/>
+    <row r="437" ht="12"/>
+    <row r="438" ht="12"/>
+    <row r="439" ht="12"/>
+    <row r="440" ht="12"/>
+    <row r="441" ht="12"/>
+    <row r="442" ht="12"/>
+    <row r="443" ht="12"/>
+    <row r="444" ht="12"/>
+    <row r="445" ht="12"/>
+    <row r="446" ht="12"/>
+    <row r="447" ht="12"/>
+    <row r="448" ht="12"/>
+    <row r="449" ht="12"/>
+    <row r="450" ht="12"/>
+    <row r="451" ht="12"/>
+    <row r="452" ht="12"/>
+    <row r="453" ht="12"/>
+    <row r="454" ht="12"/>
+    <row r="455" ht="12"/>
+    <row r="456" ht="12"/>
+    <row r="457" ht="12"/>
+    <row r="458" ht="12"/>
+    <row r="459" ht="12"/>
+    <row r="460" ht="12"/>
+    <row r="461" ht="12"/>
+    <row r="462" ht="12"/>
+    <row r="463" ht="12"/>
+    <row r="464" ht="12"/>
+    <row r="465" ht="12"/>
+    <row r="466" ht="12"/>
+    <row r="467" ht="12"/>
+    <row r="468" ht="12"/>
+    <row r="469" ht="12"/>
+    <row r="470" ht="12"/>
+    <row r="471" ht="12"/>
+    <row r="472" ht="12"/>
+    <row r="473" ht="12"/>
+    <row r="474" ht="12"/>
+    <row r="475" ht="12"/>
+    <row r="476" ht="12"/>
+    <row r="477" ht="12"/>
+    <row r="478" ht="12"/>
+    <row r="479" ht="12"/>
+    <row r="480" ht="12"/>
+    <row r="481" ht="12"/>
+    <row r="482" ht="12"/>
+    <row r="483" ht="12"/>
+    <row r="484" ht="12"/>
+    <row r="485" ht="12"/>
+    <row r="486" ht="12"/>
+    <row r="487" ht="12"/>
+    <row r="488" ht="12"/>
+    <row r="489" ht="12"/>
+    <row r="490" ht="12"/>
+    <row r="491" ht="12"/>
+    <row r="492" ht="12"/>
+    <row r="493" ht="12"/>
+    <row r="494" ht="12"/>
+    <row r="495" ht="12"/>
+    <row r="496" ht="12"/>
+    <row r="497" ht="12"/>
+    <row r="498" ht="12"/>
+    <row r="499" ht="12"/>
+    <row r="500" ht="12"/>
+    <row r="501" ht="12"/>
+    <row r="502" ht="12"/>
+    <row r="503" ht="12"/>
+    <row r="504" ht="12"/>
+    <row r="505" ht="12"/>
+    <row r="506" ht="12"/>
+    <row r="507" ht="12"/>
+    <row r="508" ht="12"/>
+    <row r="509" ht="12"/>
+    <row r="510" ht="12"/>
+    <row r="511" ht="12"/>
+    <row r="512" ht="12"/>
+    <row r="513" ht="12"/>
+    <row r="514" ht="12"/>
+    <row r="515" ht="12"/>
+    <row r="516" ht="12"/>
+    <row r="517" ht="12"/>
+    <row r="518" ht="12"/>
+    <row r="519" ht="12"/>
+    <row r="520" ht="12"/>
+    <row r="521" ht="12"/>
+    <row r="522" ht="12"/>
+    <row r="523" ht="12"/>
+    <row r="524" ht="12"/>
+    <row r="525" ht="12"/>
+    <row r="526" ht="12"/>
+    <row r="527" ht="12"/>
+    <row r="528" ht="12"/>
+    <row r="529" ht="12"/>
+    <row r="530" ht="12"/>
+    <row r="531" ht="12"/>
+    <row r="532" ht="12"/>
+    <row r="533" ht="12"/>
+    <row r="534" ht="12"/>
+    <row r="535" ht="12"/>
+    <row r="536" ht="12"/>
+    <row r="537" ht="12"/>
+    <row r="538" ht="12"/>
+    <row r="539" ht="12"/>
+    <row r="540" ht="12"/>
+    <row r="541" ht="12"/>
+    <row r="542" ht="12"/>
+    <row r="543" ht="12"/>
+    <row r="544" ht="12"/>
+    <row r="545" ht="12"/>
+    <row r="546" ht="12"/>
+    <row r="547" ht="12"/>
+    <row r="548" ht="12"/>
+    <row r="549" ht="12"/>
+    <row r="550" ht="12"/>
+    <row r="551" ht="12"/>
+    <row r="552" ht="12"/>
+    <row r="553" ht="12"/>
+    <row r="554" ht="12"/>
+    <row r="555" ht="12"/>
+    <row r="556" ht="12"/>
+    <row r="557" ht="12"/>
+    <row r="558" ht="12"/>
+    <row r="559" ht="12"/>
+    <row r="560" ht="12"/>
+    <row r="561" ht="12"/>
+    <row r="562" ht="12"/>
+    <row r="563" ht="12"/>
+    <row r="564" ht="12"/>
+    <row r="565" ht="12"/>
+    <row r="566" ht="12"/>
+    <row r="567" ht="12"/>
+    <row r="568" ht="12"/>
+    <row r="569" ht="12"/>
+    <row r="570" ht="12"/>
+    <row r="571" ht="12"/>
+    <row r="572" ht="12"/>
+    <row r="573" ht="12"/>
+    <row r="574" ht="12"/>
+    <row r="575" ht="12"/>
+    <row r="576" ht="12"/>
+    <row r="577" ht="12"/>
+    <row r="578" ht="12"/>
+    <row r="579" ht="12"/>
+    <row r="580" ht="12"/>
+    <row r="581" ht="12"/>
+    <row r="582" ht="12"/>
+    <row r="583" ht="12"/>
+    <row r="584" ht="12"/>
+    <row r="585" ht="12"/>
+    <row r="586" ht="12"/>
+    <row r="587" ht="12"/>
+    <row r="588" ht="12"/>
+    <row r="589" ht="12"/>
+    <row r="590" ht="12"/>
+    <row r="591" ht="12"/>
+    <row r="592" ht="12"/>
+    <row r="593" ht="12"/>
+    <row r="594" ht="12"/>
+    <row r="595" ht="12"/>
+    <row r="596" ht="12"/>
+    <row r="597" ht="12"/>
+    <row r="598" ht="12"/>
+    <row r="599" ht="12"/>
+    <row r="600" ht="12"/>
+    <row r="601" ht="12"/>
+    <row r="602" ht="12"/>
+    <row r="603" ht="12"/>
+    <row r="604" ht="12"/>
+    <row r="605" ht="12"/>
+    <row r="606" ht="12"/>
+    <row r="607" ht="12"/>
+    <row r="608" ht="12"/>
+    <row r="609" ht="12"/>
+    <row r="610" ht="12"/>
+    <row r="611" ht="12"/>
+    <row r="612" ht="12"/>
+    <row r="613" ht="12"/>
+    <row r="614" ht="12"/>
+    <row r="615" ht="12"/>
+    <row r="616" ht="12"/>
+    <row r="617" ht="12"/>
+    <row r="618" ht="12"/>
+    <row r="619" ht="12"/>
+    <row r="620" ht="12"/>
+    <row r="621" ht="12"/>
+    <row r="622" ht="12"/>
+    <row r="623" ht="12"/>
+    <row r="624" ht="12"/>
+    <row r="625" ht="12"/>
+    <row r="626" ht="12"/>
+    <row r="627" ht="12"/>
+    <row r="628" ht="12"/>
+    <row r="629" ht="12"/>
+    <row r="630" ht="12"/>
+    <row r="631" ht="12"/>
+    <row r="632" ht="12"/>
+    <row r="633" ht="12"/>
+    <row r="634" ht="12"/>
+    <row r="635" ht="12"/>
+    <row r="636" ht="12"/>
+    <row r="637" ht="12"/>
+    <row r="638" ht="12"/>
+    <row r="639" ht="12"/>
+    <row r="640" ht="12"/>
+    <row r="641" ht="12"/>
+    <row r="642" ht="12"/>
+    <row r="643" ht="12"/>
+    <row r="644" ht="12"/>
+    <row r="645" ht="12"/>
+    <row r="646" ht="12"/>
+    <row r="647" ht="12"/>
+    <row r="648" ht="12"/>
+    <row r="649" ht="12"/>
+    <row r="650" ht="12"/>
+    <row r="651" ht="12"/>
+    <row r="652" ht="12"/>
+    <row r="653" ht="12"/>
+    <row r="654" ht="12"/>
+    <row r="655" ht="12"/>
+    <row r="656" ht="12"/>
+    <row r="657" ht="12"/>
+    <row r="658" ht="12"/>
+    <row r="659" ht="12"/>
+    <row r="660" ht="12"/>
+    <row r="661" ht="12"/>
+    <row r="662" ht="12"/>
+    <row r="663" ht="12"/>
+    <row r="664" ht="12"/>
+    <row r="665" ht="12"/>
+    <row r="666" ht="12"/>
+    <row r="667" ht="12"/>
+    <row r="668" ht="12"/>
+    <row r="669" ht="12"/>
+    <row r="670" ht="12"/>
+    <row r="671" ht="12"/>
+    <row r="672" ht="12"/>
+    <row r="673" ht="12"/>
+    <row r="674" ht="12"/>
+    <row r="675" ht="12"/>
+    <row r="676" ht="12"/>
+    <row r="677" ht="12"/>
+    <row r="678" ht="12"/>
+    <row r="679" ht="12"/>
+    <row r="680" ht="12"/>
+    <row r="681" ht="12"/>
+    <row r="682" ht="12"/>
+    <row r="683" ht="12"/>
+    <row r="684" ht="12"/>
+    <row r="685" ht="12"/>
+    <row r="686" ht="12"/>
+    <row r="687" ht="12"/>
+    <row r="688" ht="12"/>
+    <row r="689" ht="12"/>
+    <row r="690" ht="12"/>
+    <row r="691" ht="12"/>
+    <row r="692" ht="12"/>
+    <row r="693" ht="12"/>
+    <row r="694" ht="12"/>
+    <row r="695" ht="12"/>
+    <row r="696" ht="12"/>
+    <row r="697" ht="12"/>
+    <row r="698" ht="12"/>
+    <row r="699" ht="12"/>
+    <row r="700" ht="12"/>
+    <row r="701" ht="12"/>
+    <row r="702" ht="12"/>
+    <row r="703" ht="12"/>
+    <row r="704" ht="12"/>
+    <row r="705" ht="12"/>
+    <row r="706" ht="12"/>
+    <row r="707" ht="12"/>
+    <row r="708" ht="12"/>
+    <row r="709" ht="12"/>
+    <row r="710" ht="12"/>
+    <row r="711" ht="12"/>
+    <row r="712" ht="12"/>
+    <row r="713" ht="12"/>
+    <row r="714" ht="12"/>
+    <row r="715" ht="12"/>
+    <row r="716" ht="12"/>
+    <row r="717" ht="12"/>
+    <row r="718" ht="12"/>
+    <row r="719" ht="12"/>
+    <row r="720" ht="12"/>
+    <row r="721" ht="12"/>
+    <row r="722" ht="12"/>
+    <row r="723" ht="12"/>
+    <row r="724" ht="12"/>
+    <row r="725" ht="12"/>
+    <row r="726" ht="12"/>
+    <row r="727" ht="12"/>
+    <row r="728" ht="12"/>
+    <row r="729" ht="12"/>
+    <row r="730" ht="12"/>
+    <row r="731" ht="12"/>
+    <row r="732" ht="12"/>
+    <row r="733" ht="12"/>
+    <row r="734" ht="12"/>
+    <row r="735" ht="12"/>
+    <row r="736" ht="12"/>
+    <row r="737" ht="12"/>
+    <row r="738" ht="12"/>
+    <row r="739" ht="12"/>
+    <row r="740" ht="12"/>
+    <row r="741" ht="12"/>
+    <row r="742" ht="12"/>
+    <row r="743" ht="12"/>
+    <row r="744" ht="12"/>
+    <row r="745" ht="12"/>
+    <row r="746" ht="12"/>
+    <row r="747" ht="12"/>
+    <row r="748" ht="12"/>
+    <row r="749" ht="12"/>
+    <row r="750" ht="12"/>
+    <row r="751" ht="12"/>
+    <row r="752" ht="12"/>
+    <row r="753" ht="12"/>
+    <row r="754" ht="12"/>
+    <row r="755" ht="12"/>
+    <row r="756" ht="12"/>
+    <row r="757" ht="12"/>
+    <row r="758" ht="12"/>
+    <row r="759" ht="12"/>
+    <row r="760" ht="12"/>
+    <row r="761" ht="12"/>
+    <row r="762" ht="12"/>
+    <row r="763" ht="12"/>
+    <row r="764" ht="12"/>
+    <row r="765" ht="12"/>
+    <row r="766" ht="12"/>
+    <row r="767" ht="12"/>
+    <row r="768" ht="12"/>
+    <row r="769" ht="12"/>
+    <row r="770" ht="12"/>
+    <row r="771" ht="12"/>
+    <row r="772" ht="12"/>
+    <row r="773" ht="12"/>
+    <row r="774" ht="12"/>
+    <row r="775" ht="12"/>
+    <row r="776" ht="12"/>
+    <row r="777" ht="12"/>
+    <row r="778" ht="12"/>
+    <row r="779" ht="12"/>
+    <row r="780" ht="12"/>
+    <row r="781" ht="12"/>
+    <row r="782" ht="12"/>
+    <row r="783" ht="12"/>
+    <row r="784" ht="12"/>
+    <row r="785" ht="12"/>
+    <row r="786" ht="12"/>
+    <row r="787" ht="12"/>
+    <row r="788" ht="12"/>
+    <row r="789" ht="12"/>
+    <row r="790" ht="12"/>
+    <row r="791" ht="12"/>
+    <row r="792" ht="12"/>
+    <row r="793" ht="12"/>
+    <row r="794" ht="12"/>
+    <row r="795" ht="12"/>
+    <row r="796" ht="12"/>
+    <row r="797" ht="12"/>
+    <row r="798" ht="12"/>
+    <row r="799" ht="12"/>
+    <row r="800" ht="12"/>
+    <row r="801" ht="12"/>
+    <row r="802" ht="12"/>
+    <row r="803" ht="12"/>
+    <row r="804" ht="12"/>
+    <row r="805" ht="12"/>
+    <row r="806" ht="12"/>
+    <row r="807" ht="12"/>
+    <row r="808" ht="12"/>
+    <row r="809" ht="12"/>
+    <row r="810" ht="12"/>
+    <row r="811" ht="12"/>
+    <row r="812" ht="12"/>
+    <row r="813" ht="12"/>
+    <row r="814" ht="12"/>
+    <row r="815" ht="12"/>
+    <row r="816" ht="12"/>
+    <row r="817" ht="12"/>
+    <row r="818" ht="12"/>
+    <row r="819" ht="12"/>
+    <row r="820" ht="12"/>
+    <row r="821" ht="12"/>
+    <row r="822" ht="12"/>
+    <row r="823" ht="12"/>
+    <row r="824" ht="12"/>
+    <row r="825" ht="12"/>
+    <row r="826" ht="12"/>
+    <row r="827" ht="12"/>
+    <row r="828" ht="12"/>
+    <row r="829" ht="12"/>
+    <row r="830" ht="12"/>
+    <row r="831" ht="12"/>
+    <row r="832" ht="12"/>
+    <row r="833" ht="12"/>
+    <row r="834" ht="12"/>
+    <row r="835" ht="12"/>
+    <row r="836" ht="12"/>
+    <row r="837" ht="12"/>
+    <row r="838" ht="12"/>
+    <row r="839" ht="12"/>
+    <row r="840" ht="12"/>
+    <row r="841" ht="12"/>
+    <row r="842" ht="12"/>
+    <row r="843" ht="12"/>
+    <row r="844" ht="12"/>
+    <row r="845" ht="12"/>
+    <row r="846" ht="12"/>
+    <row r="847" ht="12"/>
+    <row r="848" ht="12"/>
+    <row r="849" ht="12"/>
+    <row r="850" ht="12"/>
+    <row r="851" ht="12"/>
+    <row r="852" ht="12"/>
+    <row r="853" ht="12"/>
+    <row r="854" ht="12"/>
+    <row r="855" ht="12"/>
+    <row r="856" ht="12"/>
+    <row r="857" ht="12"/>
+    <row r="858" ht="12"/>
+    <row r="859" ht="12"/>
+    <row r="860" ht="12"/>
+    <row r="861" ht="12"/>
+    <row r="862" ht="12"/>
+    <row r="863" ht="12"/>
+    <row r="864" ht="12"/>
+    <row r="865" ht="12"/>
+    <row r="866" ht="12"/>
+    <row r="867" ht="12"/>
+    <row r="868" ht="12"/>
+    <row r="869" ht="12"/>
+    <row r="870" ht="12"/>
+    <row r="871" ht="12"/>
+    <row r="872" ht="12"/>
+    <row r="873" ht="12"/>
+    <row r="874" ht="12"/>
+    <row r="875" ht="12"/>
+    <row r="876" ht="12"/>
+    <row r="877" ht="12"/>
+    <row r="878" ht="12"/>
+    <row r="879" ht="12"/>
+    <row r="880" ht="12"/>
+    <row r="881" ht="12"/>
+    <row r="882" ht="12"/>
+    <row r="883" ht="12"/>
+    <row r="884" ht="12"/>
+    <row r="885" ht="12"/>
+    <row r="886" ht="12"/>
+    <row r="887" ht="12"/>
+    <row r="888" ht="12"/>
+    <row r="889" ht="12"/>
+    <row r="890" ht="12"/>
+    <row r="891" ht="12"/>
+    <row r="892" ht="12"/>
+    <row r="893" ht="12"/>
+    <row r="894" ht="12"/>
+    <row r="895" ht="12"/>
+    <row r="896" ht="12"/>
+    <row r="897" ht="12"/>
+    <row r="898" ht="12"/>
+    <row r="899" ht="12"/>
+    <row r="900" ht="12"/>
+    <row r="901" ht="12"/>
+    <row r="902" ht="12"/>
+    <row r="903" ht="12"/>
+    <row r="904" ht="12"/>
+    <row r="905" ht="12"/>
+    <row r="906" ht="12"/>
+    <row r="907" ht="12"/>
+    <row r="908" ht="12"/>
+    <row r="909" ht="12"/>
+    <row r="910" ht="12"/>
+    <row r="911" ht="12"/>
+    <row r="912" ht="12"/>
+    <row r="913" ht="12"/>
+    <row r="914" ht="12"/>
+    <row r="915" ht="12"/>
+    <row r="916" ht="12"/>
+    <row r="917" ht="12"/>
+    <row r="918" ht="12"/>
+    <row r="919" ht="12"/>
+    <row r="920" ht="12"/>
+    <row r="921" ht="12"/>
+    <row r="922" ht="12"/>
+    <row r="923" ht="12"/>
+    <row r="924" ht="12"/>
+    <row r="925" ht="12"/>
+    <row r="926" ht="12"/>
+    <row r="927" ht="12"/>
+    <row r="928" ht="12"/>
+    <row r="929" ht="12"/>
+    <row r="930" ht="12"/>
+    <row r="931" ht="12"/>
+    <row r="932" ht="12"/>
+    <row r="933" ht="12"/>
+    <row r="934" ht="12"/>
+    <row r="935" ht="12"/>
+    <row r="936" ht="12"/>
+    <row r="937" ht="12"/>
+    <row r="938" ht="12"/>
+    <row r="939" ht="12"/>
+    <row r="940" ht="12"/>
+    <row r="941" ht="12"/>
+    <row r="942" ht="12"/>
+    <row r="943" ht="12"/>
+    <row r="944" ht="12"/>
+    <row r="945" ht="12"/>
+    <row r="946" ht="12"/>
+    <row r="947" ht="12"/>
+    <row r="948" ht="12"/>
+    <row r="949" ht="12"/>
+    <row r="950" ht="12"/>
+    <row r="951" ht="12"/>
+    <row r="952" ht="12"/>
+    <row r="953" ht="12"/>
+    <row r="954" ht="12"/>
+    <row r="955" ht="12"/>
+    <row r="956" ht="12"/>
+    <row r="957" ht="12"/>
+    <row r="958" ht="12"/>
+    <row r="959" ht="12"/>
+    <row r="960" ht="12"/>
+    <row r="961" ht="12"/>
+    <row r="962" ht="12"/>
+    <row r="963" ht="12"/>
+    <row r="964" ht="12"/>
+    <row r="965" ht="12"/>
+    <row r="966" ht="12"/>
+    <row r="967" ht="12"/>
+    <row r="968" ht="12"/>
+    <row r="969" ht="12"/>
+    <row r="970" ht="12"/>
+    <row r="971" ht="12"/>
+    <row r="972" ht="12"/>
+    <row r="973" ht="12"/>
+    <row r="974" ht="12"/>
+    <row r="975" ht="12"/>
+    <row r="976" ht="12"/>
+    <row r="977" ht="12"/>
+    <row r="978" ht="12"/>
+    <row r="979" ht="12"/>
+    <row r="980" ht="12"/>
+    <row r="981" ht="12"/>
+    <row r="982" ht="12"/>
+    <row r="983" ht="12"/>
+    <row r="984" ht="12"/>
+    <row r="985" ht="12"/>
+    <row r="986" ht="12"/>
+    <row r="987" ht="12"/>
+    <row r="988" ht="12"/>
+    <row r="989" ht="12"/>
+    <row r="990" ht="12"/>
+    <row r="991" ht="12"/>
+    <row r="992" ht="12"/>
+    <row r="993" ht="12"/>
+    <row r="994" ht="12"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
@@ -10130,7 +10138,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -10142,7 +10150,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14">
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -10154,7 +10162,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="18">
         <v>26</v>
       </c>
@@ -10166,7 +10174,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="18">
         <v>40</v>
       </c>
@@ -10178,7 +10186,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="20">
         <v>41</v>
       </c>
@@ -10190,7 +10198,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="20">
         <v>43</v>
       </c>
@@ -10202,7 +10210,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14">
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="20">
         <v>45</v>
       </c>
@@ -10214,40 +10222,40 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14">
+    <row r="9" spans="1:4" ht="13">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="14">
+    <row r="10" spans="1:4" ht="13">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="14">
+    <row r="11" spans="1:4" ht="13">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="14">
+    <row r="12" spans="1:4" ht="13">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="14">
+    <row r="13" spans="1:4" ht="13">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="14">
+    <row r="14" spans="1:4" ht="13">
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="14">
+    <row r="15" spans="1:4" ht="13">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="14">
+    <row r="16" spans="1:4" ht="13">
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="2:2" ht="14">
+    <row r="17" spans="2:2" ht="13">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:2" ht="14">
+    <row r="18" spans="2:2" ht="13">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="2:2" ht="14">
+    <row r="19" spans="2:2" ht="13">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:2" ht="14">
+    <row r="20" spans="2:2" ht="13">
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="2:2" ht="15.75" customHeight="1">
@@ -10850,788 +10858,793 @@
     <row r="220" spans="2:2" ht="15.75" customHeight="1">
       <c r="B220" s="4"/>
     </row>
-    <row r="221" spans="2:2" ht="13"/>
-    <row r="222" spans="2:2" ht="13"/>
-    <row r="223" spans="2:2" ht="13"/>
-    <row r="224" spans="2:2" ht="13"/>
-    <row r="225" ht="13"/>
-    <row r="226" ht="13"/>
-    <row r="227" ht="13"/>
-    <row r="228" ht="13"/>
-    <row r="229" ht="13"/>
-    <row r="230" ht="13"/>
-    <row r="231" ht="13"/>
-    <row r="232" ht="13"/>
-    <row r="233" ht="13"/>
-    <row r="234" ht="13"/>
-    <row r="235" ht="13"/>
-    <row r="236" ht="13"/>
-    <row r="237" ht="13"/>
-    <row r="238" ht="13"/>
-    <row r="239" ht="13"/>
-    <row r="240" ht="13"/>
-    <row r="241" ht="13"/>
-    <row r="242" ht="13"/>
-    <row r="243" ht="13"/>
-    <row r="244" ht="13"/>
-    <row r="245" ht="13"/>
-    <row r="246" ht="13"/>
-    <row r="247" ht="13"/>
-    <row r="248" ht="13"/>
-    <row r="249" ht="13"/>
-    <row r="250" ht="13"/>
-    <row r="251" ht="13"/>
-    <row r="252" ht="13"/>
-    <row r="253" ht="13"/>
-    <row r="254" ht="13"/>
-    <row r="255" ht="13"/>
-    <row r="256" ht="13"/>
-    <row r="257" ht="13"/>
-    <row r="258" ht="13"/>
-    <row r="259" ht="13"/>
-    <row r="260" ht="13"/>
-    <row r="261" ht="13"/>
-    <row r="262" ht="13"/>
-    <row r="263" ht="13"/>
-    <row r="264" ht="13"/>
-    <row r="265" ht="13"/>
-    <row r="266" ht="13"/>
-    <row r="267" ht="13"/>
-    <row r="268" ht="13"/>
-    <row r="269" ht="13"/>
-    <row r="270" ht="13"/>
-    <row r="271" ht="13"/>
-    <row r="272" ht="13"/>
-    <row r="273" ht="13"/>
-    <row r="274" ht="13"/>
-    <row r="275" ht="13"/>
-    <row r="276" ht="13"/>
-    <row r="277" ht="13"/>
-    <row r="278" ht="13"/>
-    <row r="279" ht="13"/>
-    <row r="280" ht="13"/>
-    <row r="281" ht="13"/>
-    <row r="282" ht="13"/>
-    <row r="283" ht="13"/>
-    <row r="284" ht="13"/>
-    <row r="285" ht="13"/>
-    <row r="286" ht="13"/>
-    <row r="287" ht="13"/>
-    <row r="288" ht="13"/>
-    <row r="289" ht="13"/>
-    <row r="290" ht="13"/>
-    <row r="291" ht="13"/>
-    <row r="292" ht="13"/>
-    <row r="293" ht="13"/>
-    <row r="294" ht="13"/>
-    <row r="295" ht="13"/>
-    <row r="296" ht="13"/>
-    <row r="297" ht="13"/>
-    <row r="298" ht="13"/>
-    <row r="299" ht="13"/>
-    <row r="300" ht="13"/>
-    <row r="301" ht="13"/>
-    <row r="302" ht="13"/>
-    <row r="303" ht="13"/>
-    <row r="304" ht="13"/>
-    <row r="305" ht="13"/>
-    <row r="306" ht="13"/>
-    <row r="307" ht="13"/>
-    <row r="308" ht="13"/>
-    <row r="309" ht="13"/>
-    <row r="310" ht="13"/>
-    <row r="311" ht="13"/>
-    <row r="312" ht="13"/>
-    <row r="313" ht="13"/>
-    <row r="314" ht="13"/>
-    <row r="315" ht="13"/>
-    <row r="316" ht="13"/>
-    <row r="317" ht="13"/>
-    <row r="318" ht="13"/>
-    <row r="319" ht="13"/>
-    <row r="320" ht="13"/>
-    <row r="321" ht="13"/>
-    <row r="322" ht="13"/>
-    <row r="323" ht="13"/>
-    <row r="324" ht="13"/>
-    <row r="325" ht="13"/>
-    <row r="326" ht="13"/>
-    <row r="327" ht="13"/>
-    <row r="328" ht="13"/>
-    <row r="329" ht="13"/>
-    <row r="330" ht="13"/>
-    <row r="331" ht="13"/>
-    <row r="332" ht="13"/>
-    <row r="333" ht="13"/>
-    <row r="334" ht="13"/>
-    <row r="335" ht="13"/>
-    <row r="336" ht="13"/>
-    <row r="337" ht="13"/>
-    <row r="338" ht="13"/>
-    <row r="339" ht="13"/>
-    <row r="340" ht="13"/>
-    <row r="341" ht="13"/>
-    <row r="342" ht="13"/>
-    <row r="343" ht="13"/>
-    <row r="344" ht="13"/>
-    <row r="345" ht="13"/>
-    <row r="346" ht="13"/>
-    <row r="347" ht="13"/>
-    <row r="348" ht="13"/>
-    <row r="349" ht="13"/>
-    <row r="350" ht="13"/>
-    <row r="351" ht="13"/>
-    <row r="352" ht="13"/>
-    <row r="353" ht="13"/>
-    <row r="354" ht="13"/>
-    <row r="355" ht="13"/>
-    <row r="356" ht="13"/>
-    <row r="357" ht="13"/>
-    <row r="358" ht="13"/>
-    <row r="359" ht="13"/>
-    <row r="360" ht="13"/>
-    <row r="361" ht="13"/>
-    <row r="362" ht="13"/>
-    <row r="363" ht="13"/>
-    <row r="364" ht="13"/>
-    <row r="365" ht="13"/>
-    <row r="366" ht="13"/>
-    <row r="367" ht="13"/>
-    <row r="368" ht="13"/>
-    <row r="369" ht="13"/>
-    <row r="370" ht="13"/>
-    <row r="371" ht="13"/>
-    <row r="372" ht="13"/>
-    <row r="373" ht="13"/>
-    <row r="374" ht="13"/>
-    <row r="375" ht="13"/>
-    <row r="376" ht="13"/>
-    <row r="377" ht="13"/>
-    <row r="378" ht="13"/>
-    <row r="379" ht="13"/>
-    <row r="380" ht="13"/>
-    <row r="381" ht="13"/>
-    <row r="382" ht="13"/>
-    <row r="383" ht="13"/>
-    <row r="384" ht="13"/>
-    <row r="385" ht="13"/>
-    <row r="386" ht="13"/>
-    <row r="387" ht="13"/>
-    <row r="388" ht="13"/>
-    <row r="389" ht="13"/>
-    <row r="390" ht="13"/>
-    <row r="391" ht="13"/>
-    <row r="392" ht="13"/>
-    <row r="393" ht="13"/>
-    <row r="394" ht="13"/>
-    <row r="395" ht="13"/>
-    <row r="396" ht="13"/>
-    <row r="397" ht="13"/>
-    <row r="398" ht="13"/>
-    <row r="399" ht="13"/>
-    <row r="400" ht="13"/>
-    <row r="401" ht="13"/>
-    <row r="402" ht="13"/>
-    <row r="403" ht="13"/>
-    <row r="404" ht="13"/>
-    <row r="405" ht="13"/>
-    <row r="406" ht="13"/>
-    <row r="407" ht="13"/>
-    <row r="408" ht="13"/>
-    <row r="409" ht="13"/>
-    <row r="410" ht="13"/>
-    <row r="411" ht="13"/>
-    <row r="412" ht="13"/>
-    <row r="413" ht="13"/>
-    <row r="414" ht="13"/>
-    <row r="415" ht="13"/>
-    <row r="416" ht="13"/>
-    <row r="417" ht="13"/>
-    <row r="418" ht="13"/>
-    <row r="419" ht="13"/>
-    <row r="420" ht="13"/>
-    <row r="421" ht="13"/>
-    <row r="422" ht="13"/>
-    <row r="423" ht="13"/>
-    <row r="424" ht="13"/>
-    <row r="425" ht="13"/>
-    <row r="426" ht="13"/>
-    <row r="427" ht="13"/>
-    <row r="428" ht="13"/>
-    <row r="429" ht="13"/>
-    <row r="430" ht="13"/>
-    <row r="431" ht="13"/>
-    <row r="432" ht="13"/>
-    <row r="433" ht="13"/>
-    <row r="434" ht="13"/>
-    <row r="435" ht="13"/>
-    <row r="436" ht="13"/>
-    <row r="437" ht="13"/>
-    <row r="438" ht="13"/>
-    <row r="439" ht="13"/>
-    <row r="440" ht="13"/>
-    <row r="441" ht="13"/>
-    <row r="442" ht="13"/>
-    <row r="443" ht="13"/>
-    <row r="444" ht="13"/>
-    <row r="445" ht="13"/>
-    <row r="446" ht="13"/>
-    <row r="447" ht="13"/>
-    <row r="448" ht="13"/>
-    <row r="449" ht="13"/>
-    <row r="450" ht="13"/>
-    <row r="451" ht="13"/>
-    <row r="452" ht="13"/>
-    <row r="453" ht="13"/>
-    <row r="454" ht="13"/>
-    <row r="455" ht="13"/>
-    <row r="456" ht="13"/>
-    <row r="457" ht="13"/>
-    <row r="458" ht="13"/>
-    <row r="459" ht="13"/>
-    <row r="460" ht="13"/>
-    <row r="461" ht="13"/>
-    <row r="462" ht="13"/>
-    <row r="463" ht="13"/>
-    <row r="464" ht="13"/>
-    <row r="465" ht="13"/>
-    <row r="466" ht="13"/>
-    <row r="467" ht="13"/>
-    <row r="468" ht="13"/>
-    <row r="469" ht="13"/>
-    <row r="470" ht="13"/>
-    <row r="471" ht="13"/>
-    <row r="472" ht="13"/>
-    <row r="473" ht="13"/>
-    <row r="474" ht="13"/>
-    <row r="475" ht="13"/>
-    <row r="476" ht="13"/>
-    <row r="477" ht="13"/>
-    <row r="478" ht="13"/>
-    <row r="479" ht="13"/>
-    <row r="480" ht="13"/>
-    <row r="481" ht="13"/>
-    <row r="482" ht="13"/>
-    <row r="483" ht="13"/>
-    <row r="484" ht="13"/>
-    <row r="485" ht="13"/>
-    <row r="486" ht="13"/>
-    <row r="487" ht="13"/>
-    <row r="488" ht="13"/>
-    <row r="489" ht="13"/>
-    <row r="490" ht="13"/>
-    <row r="491" ht="13"/>
-    <row r="492" ht="13"/>
-    <row r="493" ht="13"/>
-    <row r="494" ht="13"/>
-    <row r="495" ht="13"/>
-    <row r="496" ht="13"/>
-    <row r="497" ht="13"/>
-    <row r="498" ht="13"/>
-    <row r="499" ht="13"/>
-    <row r="500" ht="13"/>
-    <row r="501" ht="13"/>
-    <row r="502" ht="13"/>
-    <row r="503" ht="13"/>
-    <row r="504" ht="13"/>
-    <row r="505" ht="13"/>
-    <row r="506" ht="13"/>
-    <row r="507" ht="13"/>
-    <row r="508" ht="13"/>
-    <row r="509" ht="13"/>
-    <row r="510" ht="13"/>
-    <row r="511" ht="13"/>
-    <row r="512" ht="13"/>
-    <row r="513" ht="13"/>
-    <row r="514" ht="13"/>
-    <row r="515" ht="13"/>
-    <row r="516" ht="13"/>
-    <row r="517" ht="13"/>
-    <row r="518" ht="13"/>
-    <row r="519" ht="13"/>
-    <row r="520" ht="13"/>
-    <row r="521" ht="13"/>
-    <row r="522" ht="13"/>
-    <row r="523" ht="13"/>
-    <row r="524" ht="13"/>
-    <row r="525" ht="13"/>
-    <row r="526" ht="13"/>
-    <row r="527" ht="13"/>
-    <row r="528" ht="13"/>
-    <row r="529" ht="13"/>
-    <row r="530" ht="13"/>
-    <row r="531" ht="13"/>
-    <row r="532" ht="13"/>
-    <row r="533" ht="13"/>
-    <row r="534" ht="13"/>
-    <row r="535" ht="13"/>
-    <row r="536" ht="13"/>
-    <row r="537" ht="13"/>
-    <row r="538" ht="13"/>
-    <row r="539" ht="13"/>
-    <row r="540" ht="13"/>
-    <row r="541" ht="13"/>
-    <row r="542" ht="13"/>
-    <row r="543" ht="13"/>
-    <row r="544" ht="13"/>
-    <row r="545" ht="13"/>
-    <row r="546" ht="13"/>
-    <row r="547" ht="13"/>
-    <row r="548" ht="13"/>
-    <row r="549" ht="13"/>
-    <row r="550" ht="13"/>
-    <row r="551" ht="13"/>
-    <row r="552" ht="13"/>
-    <row r="553" ht="13"/>
-    <row r="554" ht="13"/>
-    <row r="555" ht="13"/>
-    <row r="556" ht="13"/>
-    <row r="557" ht="13"/>
-    <row r="558" ht="13"/>
-    <row r="559" ht="13"/>
-    <row r="560" ht="13"/>
-    <row r="561" ht="13"/>
-    <row r="562" ht="13"/>
-    <row r="563" ht="13"/>
-    <row r="564" ht="13"/>
-    <row r="565" ht="13"/>
-    <row r="566" ht="13"/>
-    <row r="567" ht="13"/>
-    <row r="568" ht="13"/>
-    <row r="569" ht="13"/>
-    <row r="570" ht="13"/>
-    <row r="571" ht="13"/>
-    <row r="572" ht="13"/>
-    <row r="573" ht="13"/>
-    <row r="574" ht="13"/>
-    <row r="575" ht="13"/>
-    <row r="576" ht="13"/>
-    <row r="577" ht="13"/>
-    <row r="578" ht="13"/>
-    <row r="579" ht="13"/>
-    <row r="580" ht="13"/>
-    <row r="581" ht="13"/>
-    <row r="582" ht="13"/>
-    <row r="583" ht="13"/>
-    <row r="584" ht="13"/>
-    <row r="585" ht="13"/>
-    <row r="586" ht="13"/>
-    <row r="587" ht="13"/>
-    <row r="588" ht="13"/>
-    <row r="589" ht="13"/>
-    <row r="590" ht="13"/>
-    <row r="591" ht="13"/>
-    <row r="592" ht="13"/>
-    <row r="593" ht="13"/>
-    <row r="594" ht="13"/>
-    <row r="595" ht="13"/>
-    <row r="596" ht="13"/>
-    <row r="597" ht="13"/>
-    <row r="598" ht="13"/>
-    <row r="599" ht="13"/>
-    <row r="600" ht="13"/>
-    <row r="601" ht="13"/>
-    <row r="602" ht="13"/>
-    <row r="603" ht="13"/>
-    <row r="604" ht="13"/>
-    <row r="605" ht="13"/>
-    <row r="606" ht="13"/>
-    <row r="607" ht="13"/>
-    <row r="608" ht="13"/>
-    <row r="609" ht="13"/>
-    <row r="610" ht="13"/>
-    <row r="611" ht="13"/>
-    <row r="612" ht="13"/>
-    <row r="613" ht="13"/>
-    <row r="614" ht="13"/>
-    <row r="615" ht="13"/>
-    <row r="616" ht="13"/>
-    <row r="617" ht="13"/>
-    <row r="618" ht="13"/>
-    <row r="619" ht="13"/>
-    <row r="620" ht="13"/>
-    <row r="621" ht="13"/>
-    <row r="622" ht="13"/>
-    <row r="623" ht="13"/>
-    <row r="624" ht="13"/>
-    <row r="625" ht="13"/>
-    <row r="626" ht="13"/>
-    <row r="627" ht="13"/>
-    <row r="628" ht="13"/>
-    <row r="629" ht="13"/>
-    <row r="630" ht="13"/>
-    <row r="631" ht="13"/>
-    <row r="632" ht="13"/>
-    <row r="633" ht="13"/>
-    <row r="634" ht="13"/>
-    <row r="635" ht="13"/>
-    <row r="636" ht="13"/>
-    <row r="637" ht="13"/>
-    <row r="638" ht="13"/>
-    <row r="639" ht="13"/>
-    <row r="640" ht="13"/>
-    <row r="641" ht="13"/>
-    <row r="642" ht="13"/>
-    <row r="643" ht="13"/>
-    <row r="644" ht="13"/>
-    <row r="645" ht="13"/>
-    <row r="646" ht="13"/>
-    <row r="647" ht="13"/>
-    <row r="648" ht="13"/>
-    <row r="649" ht="13"/>
-    <row r="650" ht="13"/>
-    <row r="651" ht="13"/>
-    <row r="652" ht="13"/>
-    <row r="653" ht="13"/>
-    <row r="654" ht="13"/>
-    <row r="655" ht="13"/>
-    <row r="656" ht="13"/>
-    <row r="657" ht="13"/>
-    <row r="658" ht="13"/>
-    <row r="659" ht="13"/>
-    <row r="660" ht="13"/>
-    <row r="661" ht="13"/>
-    <row r="662" ht="13"/>
-    <row r="663" ht="13"/>
-    <row r="664" ht="13"/>
-    <row r="665" ht="13"/>
-    <row r="666" ht="13"/>
-    <row r="667" ht="13"/>
-    <row r="668" ht="13"/>
-    <row r="669" ht="13"/>
-    <row r="670" ht="13"/>
-    <row r="671" ht="13"/>
-    <row r="672" ht="13"/>
-    <row r="673" ht="13"/>
-    <row r="674" ht="13"/>
-    <row r="675" ht="13"/>
-    <row r="676" ht="13"/>
-    <row r="677" ht="13"/>
-    <row r="678" ht="13"/>
-    <row r="679" ht="13"/>
-    <row r="680" ht="13"/>
-    <row r="681" ht="13"/>
-    <row r="682" ht="13"/>
-    <row r="683" ht="13"/>
-    <row r="684" ht="13"/>
-    <row r="685" ht="13"/>
-    <row r="686" ht="13"/>
-    <row r="687" ht="13"/>
-    <row r="688" ht="13"/>
-    <row r="689" ht="13"/>
-    <row r="690" ht="13"/>
-    <row r="691" ht="13"/>
-    <row r="692" ht="13"/>
-    <row r="693" ht="13"/>
-    <row r="694" ht="13"/>
-    <row r="695" ht="13"/>
-    <row r="696" ht="13"/>
-    <row r="697" ht="13"/>
-    <row r="698" ht="13"/>
-    <row r="699" ht="13"/>
-    <row r="700" ht="13"/>
-    <row r="701" ht="13"/>
-    <row r="702" ht="13"/>
-    <row r="703" ht="13"/>
-    <row r="704" ht="13"/>
-    <row r="705" ht="13"/>
-    <row r="706" ht="13"/>
-    <row r="707" ht="13"/>
-    <row r="708" ht="13"/>
-    <row r="709" ht="13"/>
-    <row r="710" ht="13"/>
-    <row r="711" ht="13"/>
-    <row r="712" ht="13"/>
-    <row r="713" ht="13"/>
-    <row r="714" ht="13"/>
-    <row r="715" ht="13"/>
-    <row r="716" ht="13"/>
-    <row r="717" ht="13"/>
-    <row r="718" ht="13"/>
-    <row r="719" ht="13"/>
-    <row r="720" ht="13"/>
-    <row r="721" ht="13"/>
-    <row r="722" ht="13"/>
-    <row r="723" ht="13"/>
-    <row r="724" ht="13"/>
-    <row r="725" ht="13"/>
-    <row r="726" ht="13"/>
-    <row r="727" ht="13"/>
-    <row r="728" ht="13"/>
-    <row r="729" ht="13"/>
-    <row r="730" ht="13"/>
-    <row r="731" ht="13"/>
-    <row r="732" ht="13"/>
-    <row r="733" ht="13"/>
-    <row r="734" ht="13"/>
-    <row r="735" ht="13"/>
-    <row r="736" ht="13"/>
-    <row r="737" ht="13"/>
-    <row r="738" ht="13"/>
-    <row r="739" ht="13"/>
-    <row r="740" ht="13"/>
-    <row r="741" ht="13"/>
-    <row r="742" ht="13"/>
-    <row r="743" ht="13"/>
-    <row r="744" ht="13"/>
-    <row r="745" ht="13"/>
-    <row r="746" ht="13"/>
-    <row r="747" ht="13"/>
-    <row r="748" ht="13"/>
-    <row r="749" ht="13"/>
-    <row r="750" ht="13"/>
-    <row r="751" ht="13"/>
-    <row r="752" ht="13"/>
-    <row r="753" ht="13"/>
-    <row r="754" ht="13"/>
-    <row r="755" ht="13"/>
-    <row r="756" ht="13"/>
-    <row r="757" ht="13"/>
-    <row r="758" ht="13"/>
-    <row r="759" ht="13"/>
-    <row r="760" ht="13"/>
-    <row r="761" ht="13"/>
-    <row r="762" ht="13"/>
-    <row r="763" ht="13"/>
-    <row r="764" ht="13"/>
-    <row r="765" ht="13"/>
-    <row r="766" ht="13"/>
-    <row r="767" ht="13"/>
-    <row r="768" ht="13"/>
-    <row r="769" ht="13"/>
-    <row r="770" ht="13"/>
-    <row r="771" ht="13"/>
-    <row r="772" ht="13"/>
-    <row r="773" ht="13"/>
-    <row r="774" ht="13"/>
-    <row r="775" ht="13"/>
-    <row r="776" ht="13"/>
-    <row r="777" ht="13"/>
-    <row r="778" ht="13"/>
-    <row r="779" ht="13"/>
-    <row r="780" ht="13"/>
-    <row r="781" ht="13"/>
-    <row r="782" ht="13"/>
-    <row r="783" ht="13"/>
-    <row r="784" ht="13"/>
-    <row r="785" ht="13"/>
-    <row r="786" ht="13"/>
-    <row r="787" ht="13"/>
-    <row r="788" ht="13"/>
-    <row r="789" ht="13"/>
-    <row r="790" ht="13"/>
-    <row r="791" ht="13"/>
-    <row r="792" ht="13"/>
-    <row r="793" ht="13"/>
-    <row r="794" ht="13"/>
-    <row r="795" ht="13"/>
-    <row r="796" ht="13"/>
-    <row r="797" ht="13"/>
-    <row r="798" ht="13"/>
-    <row r="799" ht="13"/>
-    <row r="800" ht="13"/>
-    <row r="801" ht="13"/>
-    <row r="802" ht="13"/>
-    <row r="803" ht="13"/>
-    <row r="804" ht="13"/>
-    <row r="805" ht="13"/>
-    <row r="806" ht="13"/>
-    <row r="807" ht="13"/>
-    <row r="808" ht="13"/>
-    <row r="809" ht="13"/>
-    <row r="810" ht="13"/>
-    <row r="811" ht="13"/>
-    <row r="812" ht="13"/>
-    <row r="813" ht="13"/>
-    <row r="814" ht="13"/>
-    <row r="815" ht="13"/>
-    <row r="816" ht="13"/>
-    <row r="817" ht="13"/>
-    <row r="818" ht="13"/>
-    <row r="819" ht="13"/>
-    <row r="820" ht="13"/>
-    <row r="821" ht="13"/>
-    <row r="822" ht="13"/>
-    <row r="823" ht="13"/>
-    <row r="824" ht="13"/>
-    <row r="825" ht="13"/>
-    <row r="826" ht="13"/>
-    <row r="827" ht="13"/>
-    <row r="828" ht="13"/>
-    <row r="829" ht="13"/>
-    <row r="830" ht="13"/>
-    <row r="831" ht="13"/>
-    <row r="832" ht="13"/>
-    <row r="833" ht="13"/>
-    <row r="834" ht="13"/>
-    <row r="835" ht="13"/>
-    <row r="836" ht="13"/>
-    <row r="837" ht="13"/>
-    <row r="838" ht="13"/>
-    <row r="839" ht="13"/>
-    <row r="840" ht="13"/>
-    <row r="841" ht="13"/>
-    <row r="842" ht="13"/>
-    <row r="843" ht="13"/>
-    <row r="844" ht="13"/>
-    <row r="845" ht="13"/>
-    <row r="846" ht="13"/>
-    <row r="847" ht="13"/>
-    <row r="848" ht="13"/>
-    <row r="849" ht="13"/>
-    <row r="850" ht="13"/>
-    <row r="851" ht="13"/>
-    <row r="852" ht="13"/>
-    <row r="853" ht="13"/>
-    <row r="854" ht="13"/>
-    <row r="855" ht="13"/>
-    <row r="856" ht="13"/>
-    <row r="857" ht="13"/>
-    <row r="858" ht="13"/>
-    <row r="859" ht="13"/>
-    <row r="860" ht="13"/>
-    <row r="861" ht="13"/>
-    <row r="862" ht="13"/>
-    <row r="863" ht="13"/>
-    <row r="864" ht="13"/>
-    <row r="865" ht="13"/>
-    <row r="866" ht="13"/>
-    <row r="867" ht="13"/>
-    <row r="868" ht="13"/>
-    <row r="869" ht="13"/>
-    <row r="870" ht="13"/>
-    <row r="871" ht="13"/>
-    <row r="872" ht="13"/>
-    <row r="873" ht="13"/>
-    <row r="874" ht="13"/>
-    <row r="875" ht="13"/>
-    <row r="876" ht="13"/>
-    <row r="877" ht="13"/>
-    <row r="878" ht="13"/>
-    <row r="879" ht="13"/>
-    <row r="880" ht="13"/>
-    <row r="881" ht="13"/>
-    <row r="882" ht="13"/>
-    <row r="883" ht="13"/>
-    <row r="884" ht="13"/>
-    <row r="885" ht="13"/>
-    <row r="886" ht="13"/>
-    <row r="887" ht="13"/>
-    <row r="888" ht="13"/>
-    <row r="889" ht="13"/>
-    <row r="890" ht="13"/>
-    <row r="891" ht="13"/>
-    <row r="892" ht="13"/>
-    <row r="893" ht="13"/>
-    <row r="894" ht="13"/>
-    <row r="895" ht="13"/>
-    <row r="896" ht="13"/>
-    <row r="897" ht="13"/>
-    <row r="898" ht="13"/>
-    <row r="899" ht="13"/>
-    <row r="900" ht="13"/>
-    <row r="901" ht="13"/>
-    <row r="902" ht="13"/>
-    <row r="903" ht="13"/>
-    <row r="904" ht="13"/>
-    <row r="905" ht="13"/>
-    <row r="906" ht="13"/>
-    <row r="907" ht="13"/>
-    <row r="908" ht="13"/>
-    <row r="909" ht="13"/>
-    <row r="910" ht="13"/>
-    <row r="911" ht="13"/>
-    <row r="912" ht="13"/>
-    <row r="913" ht="13"/>
-    <row r="914" ht="13"/>
-    <row r="915" ht="13"/>
-    <row r="916" ht="13"/>
-    <row r="917" ht="13"/>
-    <row r="918" ht="13"/>
-    <row r="919" ht="13"/>
-    <row r="920" ht="13"/>
-    <row r="921" ht="13"/>
-    <row r="922" ht="13"/>
-    <row r="923" ht="13"/>
-    <row r="924" ht="13"/>
-    <row r="925" ht="13"/>
-    <row r="926" ht="13"/>
-    <row r="927" ht="13"/>
-    <row r="928" ht="13"/>
-    <row r="929" ht="13"/>
-    <row r="930" ht="13"/>
-    <row r="931" ht="13"/>
-    <row r="932" ht="13"/>
-    <row r="933" ht="13"/>
-    <row r="934" ht="13"/>
-    <row r="935" ht="13"/>
-    <row r="936" ht="13"/>
-    <row r="937" ht="13"/>
-    <row r="938" ht="13"/>
-    <row r="939" ht="13"/>
-    <row r="940" ht="13"/>
-    <row r="941" ht="13"/>
-    <row r="942" ht="13"/>
-    <row r="943" ht="13"/>
-    <row r="944" ht="13"/>
-    <row r="945" ht="13"/>
-    <row r="946" ht="13"/>
-    <row r="947" ht="13"/>
-    <row r="948" ht="13"/>
-    <row r="949" ht="13"/>
-    <row r="950" ht="13"/>
-    <row r="951" ht="13"/>
-    <row r="952" ht="13"/>
-    <row r="953" ht="13"/>
-    <row r="954" ht="13"/>
-    <row r="955" ht="13"/>
-    <row r="956" ht="13"/>
-    <row r="957" ht="13"/>
-    <row r="958" ht="13"/>
-    <row r="959" ht="13"/>
-    <row r="960" ht="13"/>
-    <row r="961" ht="13"/>
-    <row r="962" ht="13"/>
-    <row r="963" ht="13"/>
-    <row r="964" ht="13"/>
-    <row r="965" ht="13"/>
-    <row r="966" ht="13"/>
-    <row r="967" ht="13"/>
-    <row r="968" ht="13"/>
-    <row r="969" ht="13"/>
-    <row r="970" ht="13"/>
-    <row r="971" ht="13"/>
-    <row r="972" ht="13"/>
-    <row r="973" ht="13"/>
-    <row r="974" ht="13"/>
-    <row r="975" ht="13"/>
-    <row r="976" ht="13"/>
-    <row r="977" ht="13"/>
-    <row r="978" ht="13"/>
-    <row r="979" ht="13"/>
-    <row r="980" ht="13"/>
-    <row r="981" ht="13"/>
-    <row r="982" ht="13"/>
-    <row r="983" ht="13"/>
-    <row r="984" ht="13"/>
-    <row r="985" ht="13"/>
-    <row r="986" ht="13"/>
-    <row r="987" ht="13"/>
-    <row r="988" ht="13"/>
-    <row r="989" ht="13"/>
-    <row r="990" ht="13"/>
-    <row r="991" ht="13"/>
-    <row r="992" ht="13"/>
-    <row r="993" ht="13"/>
-    <row r="994" ht="13"/>
-    <row r="995" ht="13"/>
-    <row r="996" ht="13"/>
-    <row r="997" ht="13"/>
-    <row r="998" ht="13"/>
-    <row r="999" ht="13"/>
-    <row r="1000" ht="13"/>
+    <row r="221" spans="2:2" ht="12"/>
+    <row r="222" spans="2:2" ht="12"/>
+    <row r="223" spans="2:2" ht="12"/>
+    <row r="224" spans="2:2" ht="12"/>
+    <row r="225" ht="12"/>
+    <row r="226" ht="12"/>
+    <row r="227" ht="12"/>
+    <row r="228" ht="12"/>
+    <row r="229" ht="12"/>
+    <row r="230" ht="12"/>
+    <row r="231" ht="12"/>
+    <row r="232" ht="12"/>
+    <row r="233" ht="12"/>
+    <row r="234" ht="12"/>
+    <row r="235" ht="12"/>
+    <row r="236" ht="12"/>
+    <row r="237" ht="12"/>
+    <row r="238" ht="12"/>
+    <row r="239" ht="12"/>
+    <row r="240" ht="12"/>
+    <row r="241" ht="12"/>
+    <row r="242" ht="12"/>
+    <row r="243" ht="12"/>
+    <row r="244" ht="12"/>
+    <row r="245" ht="12"/>
+    <row r="246" ht="12"/>
+    <row r="247" ht="12"/>
+    <row r="248" ht="12"/>
+    <row r="249" ht="12"/>
+    <row r="250" ht="12"/>
+    <row r="251" ht="12"/>
+    <row r="252" ht="12"/>
+    <row r="253" ht="12"/>
+    <row r="254" ht="12"/>
+    <row r="255" ht="12"/>
+    <row r="256" ht="12"/>
+    <row r="257" ht="12"/>
+    <row r="258" ht="12"/>
+    <row r="259" ht="12"/>
+    <row r="260" ht="12"/>
+    <row r="261" ht="12"/>
+    <row r="262" ht="12"/>
+    <row r="263" ht="12"/>
+    <row r="264" ht="12"/>
+    <row r="265" ht="12"/>
+    <row r="266" ht="12"/>
+    <row r="267" ht="12"/>
+    <row r="268" ht="12"/>
+    <row r="269" ht="12"/>
+    <row r="270" ht="12"/>
+    <row r="271" ht="12"/>
+    <row r="272" ht="12"/>
+    <row r="273" ht="12"/>
+    <row r="274" ht="12"/>
+    <row r="275" ht="12"/>
+    <row r="276" ht="12"/>
+    <row r="277" ht="12"/>
+    <row r="278" ht="12"/>
+    <row r="279" ht="12"/>
+    <row r="280" ht="12"/>
+    <row r="281" ht="12"/>
+    <row r="282" ht="12"/>
+    <row r="283" ht="12"/>
+    <row r="284" ht="12"/>
+    <row r="285" ht="12"/>
+    <row r="286" ht="12"/>
+    <row r="287" ht="12"/>
+    <row r="288" ht="12"/>
+    <row r="289" ht="12"/>
+    <row r="290" ht="12"/>
+    <row r="291" ht="12"/>
+    <row r="292" ht="12"/>
+    <row r="293" ht="12"/>
+    <row r="294" ht="12"/>
+    <row r="295" ht="12"/>
+    <row r="296" ht="12"/>
+    <row r="297" ht="12"/>
+    <row r="298" ht="12"/>
+    <row r="299" ht="12"/>
+    <row r="300" ht="12"/>
+    <row r="301" ht="12"/>
+    <row r="302" ht="12"/>
+    <row r="303" ht="12"/>
+    <row r="304" ht="12"/>
+    <row r="305" ht="12"/>
+    <row r="306" ht="12"/>
+    <row r="307" ht="12"/>
+    <row r="308" ht="12"/>
+    <row r="309" ht="12"/>
+    <row r="310" ht="12"/>
+    <row r="311" ht="12"/>
+    <row r="312" ht="12"/>
+    <row r="313" ht="12"/>
+    <row r="314" ht="12"/>
+    <row r="315" ht="12"/>
+    <row r="316" ht="12"/>
+    <row r="317" ht="12"/>
+    <row r="318" ht="12"/>
+    <row r="319" ht="12"/>
+    <row r="320" ht="12"/>
+    <row r="321" ht="12"/>
+    <row r="322" ht="12"/>
+    <row r="323" ht="12"/>
+    <row r="324" ht="12"/>
+    <row r="325" ht="12"/>
+    <row r="326" ht="12"/>
+    <row r="327" ht="12"/>
+    <row r="328" ht="12"/>
+    <row r="329" ht="12"/>
+    <row r="330" ht="12"/>
+    <row r="331" ht="12"/>
+    <row r="332" ht="12"/>
+    <row r="333" ht="12"/>
+    <row r="334" ht="12"/>
+    <row r="335" ht="12"/>
+    <row r="336" ht="12"/>
+    <row r="337" ht="12"/>
+    <row r="338" ht="12"/>
+    <row r="339" ht="12"/>
+    <row r="340" ht="12"/>
+    <row r="341" ht="12"/>
+    <row r="342" ht="12"/>
+    <row r="343" ht="12"/>
+    <row r="344" ht="12"/>
+    <row r="345" ht="12"/>
+    <row r="346" ht="12"/>
+    <row r="347" ht="12"/>
+    <row r="348" ht="12"/>
+    <row r="349" ht="12"/>
+    <row r="350" ht="12"/>
+    <row r="351" ht="12"/>
+    <row r="352" ht="12"/>
+    <row r="353" ht="12"/>
+    <row r="354" ht="12"/>
+    <row r="355" ht="12"/>
+    <row r="356" ht="12"/>
+    <row r="357" ht="12"/>
+    <row r="358" ht="12"/>
+    <row r="359" ht="12"/>
+    <row r="360" ht="12"/>
+    <row r="361" ht="12"/>
+    <row r="362" ht="12"/>
+    <row r="363" ht="12"/>
+    <row r="364" ht="12"/>
+    <row r="365" ht="12"/>
+    <row r="366" ht="12"/>
+    <row r="367" ht="12"/>
+    <row r="368" ht="12"/>
+    <row r="369" ht="12"/>
+    <row r="370" ht="12"/>
+    <row r="371" ht="12"/>
+    <row r="372" ht="12"/>
+    <row r="373" ht="12"/>
+    <row r="374" ht="12"/>
+    <row r="375" ht="12"/>
+    <row r="376" ht="12"/>
+    <row r="377" ht="12"/>
+    <row r="378" ht="12"/>
+    <row r="379" ht="12"/>
+    <row r="380" ht="12"/>
+    <row r="381" ht="12"/>
+    <row r="382" ht="12"/>
+    <row r="383" ht="12"/>
+    <row r="384" ht="12"/>
+    <row r="385" ht="12"/>
+    <row r="386" ht="12"/>
+    <row r="387" ht="12"/>
+    <row r="388" ht="12"/>
+    <row r="389" ht="12"/>
+    <row r="390" ht="12"/>
+    <row r="391" ht="12"/>
+    <row r="392" ht="12"/>
+    <row r="393" ht="12"/>
+    <row r="394" ht="12"/>
+    <row r="395" ht="12"/>
+    <row r="396" ht="12"/>
+    <row r="397" ht="12"/>
+    <row r="398" ht="12"/>
+    <row r="399" ht="12"/>
+    <row r="400" ht="12"/>
+    <row r="401" ht="12"/>
+    <row r="402" ht="12"/>
+    <row r="403" ht="12"/>
+    <row r="404" ht="12"/>
+    <row r="405" ht="12"/>
+    <row r="406" ht="12"/>
+    <row r="407" ht="12"/>
+    <row r="408" ht="12"/>
+    <row r="409" ht="12"/>
+    <row r="410" ht="12"/>
+    <row r="411" ht="12"/>
+    <row r="412" ht="12"/>
+    <row r="413" ht="12"/>
+    <row r="414" ht="12"/>
+    <row r="415" ht="12"/>
+    <row r="416" ht="12"/>
+    <row r="417" ht="12"/>
+    <row r="418" ht="12"/>
+    <row r="419" ht="12"/>
+    <row r="420" ht="12"/>
+    <row r="421" ht="12"/>
+    <row r="422" ht="12"/>
+    <row r="423" ht="12"/>
+    <row r="424" ht="12"/>
+    <row r="425" ht="12"/>
+    <row r="426" ht="12"/>
+    <row r="427" ht="12"/>
+    <row r="428" ht="12"/>
+    <row r="429" ht="12"/>
+    <row r="430" ht="12"/>
+    <row r="431" ht="12"/>
+    <row r="432" ht="12"/>
+    <row r="433" ht="12"/>
+    <row r="434" ht="12"/>
+    <row r="435" ht="12"/>
+    <row r="436" ht="12"/>
+    <row r="437" ht="12"/>
+    <row r="438" ht="12"/>
+    <row r="439" ht="12"/>
+    <row r="440" ht="12"/>
+    <row r="441" ht="12"/>
+    <row r="442" ht="12"/>
+    <row r="443" ht="12"/>
+    <row r="444" ht="12"/>
+    <row r="445" ht="12"/>
+    <row r="446" ht="12"/>
+    <row r="447" ht="12"/>
+    <row r="448" ht="12"/>
+    <row r="449" ht="12"/>
+    <row r="450" ht="12"/>
+    <row r="451" ht="12"/>
+    <row r="452" ht="12"/>
+    <row r="453" ht="12"/>
+    <row r="454" ht="12"/>
+    <row r="455" ht="12"/>
+    <row r="456" ht="12"/>
+    <row r="457" ht="12"/>
+    <row r="458" ht="12"/>
+    <row r="459" ht="12"/>
+    <row r="460" ht="12"/>
+    <row r="461" ht="12"/>
+    <row r="462" ht="12"/>
+    <row r="463" ht="12"/>
+    <row r="464" ht="12"/>
+    <row r="465" ht="12"/>
+    <row r="466" ht="12"/>
+    <row r="467" ht="12"/>
+    <row r="468" ht="12"/>
+    <row r="469" ht="12"/>
+    <row r="470" ht="12"/>
+    <row r="471" ht="12"/>
+    <row r="472" ht="12"/>
+    <row r="473" ht="12"/>
+    <row r="474" ht="12"/>
+    <row r="475" ht="12"/>
+    <row r="476" ht="12"/>
+    <row r="477" ht="12"/>
+    <row r="478" ht="12"/>
+    <row r="479" ht="12"/>
+    <row r="480" ht="12"/>
+    <row r="481" ht="12"/>
+    <row r="482" ht="12"/>
+    <row r="483" ht="12"/>
+    <row r="484" ht="12"/>
+    <row r="485" ht="12"/>
+    <row r="486" ht="12"/>
+    <row r="487" ht="12"/>
+    <row r="488" ht="12"/>
+    <row r="489" ht="12"/>
+    <row r="490" ht="12"/>
+    <row r="491" ht="12"/>
+    <row r="492" ht="12"/>
+    <row r="493" ht="12"/>
+    <row r="494" ht="12"/>
+    <row r="495" ht="12"/>
+    <row r="496" ht="12"/>
+    <row r="497" ht="12"/>
+    <row r="498" ht="12"/>
+    <row r="499" ht="12"/>
+    <row r="500" ht="12"/>
+    <row r="501" ht="12"/>
+    <row r="502" ht="12"/>
+    <row r="503" ht="12"/>
+    <row r="504" ht="12"/>
+    <row r="505" ht="12"/>
+    <row r="506" ht="12"/>
+    <row r="507" ht="12"/>
+    <row r="508" ht="12"/>
+    <row r="509" ht="12"/>
+    <row r="510" ht="12"/>
+    <row r="511" ht="12"/>
+    <row r="512" ht="12"/>
+    <row r="513" ht="12"/>
+    <row r="514" ht="12"/>
+    <row r="515" ht="12"/>
+    <row r="516" ht="12"/>
+    <row r="517" ht="12"/>
+    <row r="518" ht="12"/>
+    <row r="519" ht="12"/>
+    <row r="520" ht="12"/>
+    <row r="521" ht="12"/>
+    <row r="522" ht="12"/>
+    <row r="523" ht="12"/>
+    <row r="524" ht="12"/>
+    <row r="525" ht="12"/>
+    <row r="526" ht="12"/>
+    <row r="527" ht="12"/>
+    <row r="528" ht="12"/>
+    <row r="529" ht="12"/>
+    <row r="530" ht="12"/>
+    <row r="531" ht="12"/>
+    <row r="532" ht="12"/>
+    <row r="533" ht="12"/>
+    <row r="534" ht="12"/>
+    <row r="535" ht="12"/>
+    <row r="536" ht="12"/>
+    <row r="537" ht="12"/>
+    <row r="538" ht="12"/>
+    <row r="539" ht="12"/>
+    <row r="540" ht="12"/>
+    <row r="541" ht="12"/>
+    <row r="542" ht="12"/>
+    <row r="543" ht="12"/>
+    <row r="544" ht="12"/>
+    <row r="545" ht="12"/>
+    <row r="546" ht="12"/>
+    <row r="547" ht="12"/>
+    <row r="548" ht="12"/>
+    <row r="549" ht="12"/>
+    <row r="550" ht="12"/>
+    <row r="551" ht="12"/>
+    <row r="552" ht="12"/>
+    <row r="553" ht="12"/>
+    <row r="554" ht="12"/>
+    <row r="555" ht="12"/>
+    <row r="556" ht="12"/>
+    <row r="557" ht="12"/>
+    <row r="558" ht="12"/>
+    <row r="559" ht="12"/>
+    <row r="560" ht="12"/>
+    <row r="561" ht="12"/>
+    <row r="562" ht="12"/>
+    <row r="563" ht="12"/>
+    <row r="564" ht="12"/>
+    <row r="565" ht="12"/>
+    <row r="566" ht="12"/>
+    <row r="567" ht="12"/>
+    <row r="568" ht="12"/>
+    <row r="569" ht="12"/>
+    <row r="570" ht="12"/>
+    <row r="571" ht="12"/>
+    <row r="572" ht="12"/>
+    <row r="573" ht="12"/>
+    <row r="574" ht="12"/>
+    <row r="575" ht="12"/>
+    <row r="576" ht="12"/>
+    <row r="577" ht="12"/>
+    <row r="578" ht="12"/>
+    <row r="579" ht="12"/>
+    <row r="580" ht="12"/>
+    <row r="581" ht="12"/>
+    <row r="582" ht="12"/>
+    <row r="583" ht="12"/>
+    <row r="584" ht="12"/>
+    <row r="585" ht="12"/>
+    <row r="586" ht="12"/>
+    <row r="587" ht="12"/>
+    <row r="588" ht="12"/>
+    <row r="589" ht="12"/>
+    <row r="590" ht="12"/>
+    <row r="591" ht="12"/>
+    <row r="592" ht="12"/>
+    <row r="593" ht="12"/>
+    <row r="594" ht="12"/>
+    <row r="595" ht="12"/>
+    <row r="596" ht="12"/>
+    <row r="597" ht="12"/>
+    <row r="598" ht="12"/>
+    <row r="599" ht="12"/>
+    <row r="600" ht="12"/>
+    <row r="601" ht="12"/>
+    <row r="602" ht="12"/>
+    <row r="603" ht="12"/>
+    <row r="604" ht="12"/>
+    <row r="605" ht="12"/>
+    <row r="606" ht="12"/>
+    <row r="607" ht="12"/>
+    <row r="608" ht="12"/>
+    <row r="609" ht="12"/>
+    <row r="610" ht="12"/>
+    <row r="611" ht="12"/>
+    <row r="612" ht="12"/>
+    <row r="613" ht="12"/>
+    <row r="614" ht="12"/>
+    <row r="615" ht="12"/>
+    <row r="616" ht="12"/>
+    <row r="617" ht="12"/>
+    <row r="618" ht="12"/>
+    <row r="619" ht="12"/>
+    <row r="620" ht="12"/>
+    <row r="621" ht="12"/>
+    <row r="622" ht="12"/>
+    <row r="623" ht="12"/>
+    <row r="624" ht="12"/>
+    <row r="625" ht="12"/>
+    <row r="626" ht="12"/>
+    <row r="627" ht="12"/>
+    <row r="628" ht="12"/>
+    <row r="629" ht="12"/>
+    <row r="630" ht="12"/>
+    <row r="631" ht="12"/>
+    <row r="632" ht="12"/>
+    <row r="633" ht="12"/>
+    <row r="634" ht="12"/>
+    <row r="635" ht="12"/>
+    <row r="636" ht="12"/>
+    <row r="637" ht="12"/>
+    <row r="638" ht="12"/>
+    <row r="639" ht="12"/>
+    <row r="640" ht="12"/>
+    <row r="641" ht="12"/>
+    <row r="642" ht="12"/>
+    <row r="643" ht="12"/>
+    <row r="644" ht="12"/>
+    <row r="645" ht="12"/>
+    <row r="646" ht="12"/>
+    <row r="647" ht="12"/>
+    <row r="648" ht="12"/>
+    <row r="649" ht="12"/>
+    <row r="650" ht="12"/>
+    <row r="651" ht="12"/>
+    <row r="652" ht="12"/>
+    <row r="653" ht="12"/>
+    <row r="654" ht="12"/>
+    <row r="655" ht="12"/>
+    <row r="656" ht="12"/>
+    <row r="657" ht="12"/>
+    <row r="658" ht="12"/>
+    <row r="659" ht="12"/>
+    <row r="660" ht="12"/>
+    <row r="661" ht="12"/>
+    <row r="662" ht="12"/>
+    <row r="663" ht="12"/>
+    <row r="664" ht="12"/>
+    <row r="665" ht="12"/>
+    <row r="666" ht="12"/>
+    <row r="667" ht="12"/>
+    <row r="668" ht="12"/>
+    <row r="669" ht="12"/>
+    <row r="670" ht="12"/>
+    <row r="671" ht="12"/>
+    <row r="672" ht="12"/>
+    <row r="673" ht="12"/>
+    <row r="674" ht="12"/>
+    <row r="675" ht="12"/>
+    <row r="676" ht="12"/>
+    <row r="677" ht="12"/>
+    <row r="678" ht="12"/>
+    <row r="679" ht="12"/>
+    <row r="680" ht="12"/>
+    <row r="681" ht="12"/>
+    <row r="682" ht="12"/>
+    <row r="683" ht="12"/>
+    <row r="684" ht="12"/>
+    <row r="685" ht="12"/>
+    <row r="686" ht="12"/>
+    <row r="687" ht="12"/>
+    <row r="688" ht="12"/>
+    <row r="689" ht="12"/>
+    <row r="690" ht="12"/>
+    <row r="691" ht="12"/>
+    <row r="692" ht="12"/>
+    <row r="693" ht="12"/>
+    <row r="694" ht="12"/>
+    <row r="695" ht="12"/>
+    <row r="696" ht="12"/>
+    <row r="697" ht="12"/>
+    <row r="698" ht="12"/>
+    <row r="699" ht="12"/>
+    <row r="700" ht="12"/>
+    <row r="701" ht="12"/>
+    <row r="702" ht="12"/>
+    <row r="703" ht="12"/>
+    <row r="704" ht="12"/>
+    <row r="705" ht="12"/>
+    <row r="706" ht="12"/>
+    <row r="707" ht="12"/>
+    <row r="708" ht="12"/>
+    <row r="709" ht="12"/>
+    <row r="710" ht="12"/>
+    <row r="711" ht="12"/>
+    <row r="712" ht="12"/>
+    <row r="713" ht="12"/>
+    <row r="714" ht="12"/>
+    <row r="715" ht="12"/>
+    <row r="716" ht="12"/>
+    <row r="717" ht="12"/>
+    <row r="718" ht="12"/>
+    <row r="719" ht="12"/>
+    <row r="720" ht="12"/>
+    <row r="721" ht="12"/>
+    <row r="722" ht="12"/>
+    <row r="723" ht="12"/>
+    <row r="724" ht="12"/>
+    <row r="725" ht="12"/>
+    <row r="726" ht="12"/>
+    <row r="727" ht="12"/>
+    <row r="728" ht="12"/>
+    <row r="729" ht="12"/>
+    <row r="730" ht="12"/>
+    <row r="731" ht="12"/>
+    <row r="732" ht="12"/>
+    <row r="733" ht="12"/>
+    <row r="734" ht="12"/>
+    <row r="735" ht="12"/>
+    <row r="736" ht="12"/>
+    <row r="737" ht="12"/>
+    <row r="738" ht="12"/>
+    <row r="739" ht="12"/>
+    <row r="740" ht="12"/>
+    <row r="741" ht="12"/>
+    <row r="742" ht="12"/>
+    <row r="743" ht="12"/>
+    <row r="744" ht="12"/>
+    <row r="745" ht="12"/>
+    <row r="746" ht="12"/>
+    <row r="747" ht="12"/>
+    <row r="748" ht="12"/>
+    <row r="749" ht="12"/>
+    <row r="750" ht="12"/>
+    <row r="751" ht="12"/>
+    <row r="752" ht="12"/>
+    <row r="753" ht="12"/>
+    <row r="754" ht="12"/>
+    <row r="755" ht="12"/>
+    <row r="756" ht="12"/>
+    <row r="757" ht="12"/>
+    <row r="758" ht="12"/>
+    <row r="759" ht="12"/>
+    <row r="760" ht="12"/>
+    <row r="761" ht="12"/>
+    <row r="762" ht="12"/>
+    <row r="763" ht="12"/>
+    <row r="764" ht="12"/>
+    <row r="765" ht="12"/>
+    <row r="766" ht="12"/>
+    <row r="767" ht="12"/>
+    <row r="768" ht="12"/>
+    <row r="769" ht="12"/>
+    <row r="770" ht="12"/>
+    <row r="771" ht="12"/>
+    <row r="772" ht="12"/>
+    <row r="773" ht="12"/>
+    <row r="774" ht="12"/>
+    <row r="775" ht="12"/>
+    <row r="776" ht="12"/>
+    <row r="777" ht="12"/>
+    <row r="778" ht="12"/>
+    <row r="779" ht="12"/>
+    <row r="780" ht="12"/>
+    <row r="781" ht="12"/>
+    <row r="782" ht="12"/>
+    <row r="783" ht="12"/>
+    <row r="784" ht="12"/>
+    <row r="785" ht="12"/>
+    <row r="786" ht="12"/>
+    <row r="787" ht="12"/>
+    <row r="788" ht="12"/>
+    <row r="789" ht="12"/>
+    <row r="790" ht="12"/>
+    <row r="791" ht="12"/>
+    <row r="792" ht="12"/>
+    <row r="793" ht="12"/>
+    <row r="794" ht="12"/>
+    <row r="795" ht="12"/>
+    <row r="796" ht="12"/>
+    <row r="797" ht="12"/>
+    <row r="798" ht="12"/>
+    <row r="799" ht="12"/>
+    <row r="800" ht="12"/>
+    <row r="801" ht="12"/>
+    <row r="802" ht="12"/>
+    <row r="803" ht="12"/>
+    <row r="804" ht="12"/>
+    <row r="805" ht="12"/>
+    <row r="806" ht="12"/>
+    <row r="807" ht="12"/>
+    <row r="808" ht="12"/>
+    <row r="809" ht="12"/>
+    <row r="810" ht="12"/>
+    <row r="811" ht="12"/>
+    <row r="812" ht="12"/>
+    <row r="813" ht="12"/>
+    <row r="814" ht="12"/>
+    <row r="815" ht="12"/>
+    <row r="816" ht="12"/>
+    <row r="817" ht="12"/>
+    <row r="818" ht="12"/>
+    <row r="819" ht="12"/>
+    <row r="820" ht="12"/>
+    <row r="821" ht="12"/>
+    <row r="822" ht="12"/>
+    <row r="823" ht="12"/>
+    <row r="824" ht="12"/>
+    <row r="825" ht="12"/>
+    <row r="826" ht="12"/>
+    <row r="827" ht="12"/>
+    <row r="828" ht="12"/>
+    <row r="829" ht="12"/>
+    <row r="830" ht="12"/>
+    <row r="831" ht="12"/>
+    <row r="832" ht="12"/>
+    <row r="833" ht="12"/>
+    <row r="834" ht="12"/>
+    <row r="835" ht="12"/>
+    <row r="836" ht="12"/>
+    <row r="837" ht="12"/>
+    <row r="838" ht="12"/>
+    <row r="839" ht="12"/>
+    <row r="840" ht="12"/>
+    <row r="841" ht="12"/>
+    <row r="842" ht="12"/>
+    <row r="843" ht="12"/>
+    <row r="844" ht="12"/>
+    <row r="845" ht="12"/>
+    <row r="846" ht="12"/>
+    <row r="847" ht="12"/>
+    <row r="848" ht="12"/>
+    <row r="849" ht="12"/>
+    <row r="850" ht="12"/>
+    <row r="851" ht="12"/>
+    <row r="852" ht="12"/>
+    <row r="853" ht="12"/>
+    <row r="854" ht="12"/>
+    <row r="855" ht="12"/>
+    <row r="856" ht="12"/>
+    <row r="857" ht="12"/>
+    <row r="858" ht="12"/>
+    <row r="859" ht="12"/>
+    <row r="860" ht="12"/>
+    <row r="861" ht="12"/>
+    <row r="862" ht="12"/>
+    <row r="863" ht="12"/>
+    <row r="864" ht="12"/>
+    <row r="865" ht="12"/>
+    <row r="866" ht="12"/>
+    <row r="867" ht="12"/>
+    <row r="868" ht="12"/>
+    <row r="869" ht="12"/>
+    <row r="870" ht="12"/>
+    <row r="871" ht="12"/>
+    <row r="872" ht="12"/>
+    <row r="873" ht="12"/>
+    <row r="874" ht="12"/>
+    <row r="875" ht="12"/>
+    <row r="876" ht="12"/>
+    <row r="877" ht="12"/>
+    <row r="878" ht="12"/>
+    <row r="879" ht="12"/>
+    <row r="880" ht="12"/>
+    <row r="881" ht="12"/>
+    <row r="882" ht="12"/>
+    <row r="883" ht="12"/>
+    <row r="884" ht="12"/>
+    <row r="885" ht="12"/>
+    <row r="886" ht="12"/>
+    <row r="887" ht="12"/>
+    <row r="888" ht="12"/>
+    <row r="889" ht="12"/>
+    <row r="890" ht="12"/>
+    <row r="891" ht="12"/>
+    <row r="892" ht="12"/>
+    <row r="893" ht="12"/>
+    <row r="894" ht="12"/>
+    <row r="895" ht="12"/>
+    <row r="896" ht="12"/>
+    <row r="897" ht="12"/>
+    <row r="898" ht="12"/>
+    <row r="899" ht="12"/>
+    <row r="900" ht="12"/>
+    <row r="901" ht="12"/>
+    <row r="902" ht="12"/>
+    <row r="903" ht="12"/>
+    <row r="904" ht="12"/>
+    <row r="905" ht="12"/>
+    <row r="906" ht="12"/>
+    <row r="907" ht="12"/>
+    <row r="908" ht="12"/>
+    <row r="909" ht="12"/>
+    <row r="910" ht="12"/>
+    <row r="911" ht="12"/>
+    <row r="912" ht="12"/>
+    <row r="913" ht="12"/>
+    <row r="914" ht="12"/>
+    <row r="915" ht="12"/>
+    <row r="916" ht="12"/>
+    <row r="917" ht="12"/>
+    <row r="918" ht="12"/>
+    <row r="919" ht="12"/>
+    <row r="920" ht="12"/>
+    <row r="921" ht="12"/>
+    <row r="922" ht="12"/>
+    <row r="923" ht="12"/>
+    <row r="924" ht="12"/>
+    <row r="925" ht="12"/>
+    <row r="926" ht="12"/>
+    <row r="927" ht="12"/>
+    <row r="928" ht="12"/>
+    <row r="929" ht="12"/>
+    <row r="930" ht="12"/>
+    <row r="931" ht="12"/>
+    <row r="932" ht="12"/>
+    <row r="933" ht="12"/>
+    <row r="934" ht="12"/>
+    <row r="935" ht="12"/>
+    <row r="936" ht="12"/>
+    <row r="937" ht="12"/>
+    <row r="938" ht="12"/>
+    <row r="939" ht="12"/>
+    <row r="940" ht="12"/>
+    <row r="941" ht="12"/>
+    <row r="942" ht="12"/>
+    <row r="943" ht="12"/>
+    <row r="944" ht="12"/>
+    <row r="945" ht="12"/>
+    <row r="946" ht="12"/>
+    <row r="947" ht="12"/>
+    <row r="948" ht="12"/>
+    <row r="949" ht="12"/>
+    <row r="950" ht="12"/>
+    <row r="951" ht="12"/>
+    <row r="952" ht="12"/>
+    <row r="953" ht="12"/>
+    <row r="954" ht="12"/>
+    <row r="955" ht="12"/>
+    <row r="956" ht="12"/>
+    <row r="957" ht="12"/>
+    <row r="958" ht="12"/>
+    <row r="959" ht="12"/>
+    <row r="960" ht="12"/>
+    <row r="961" ht="12"/>
+    <row r="962" ht="12"/>
+    <row r="963" ht="12"/>
+    <row r="964" ht="12"/>
+    <row r="965" ht="12"/>
+    <row r="966" ht="12"/>
+    <row r="967" ht="12"/>
+    <row r="968" ht="12"/>
+    <row r="969" ht="12"/>
+    <row r="970" ht="12"/>
+    <row r="971" ht="12"/>
+    <row r="972" ht="12"/>
+    <row r="973" ht="12"/>
+    <row r="974" ht="12"/>
+    <row r="975" ht="12"/>
+    <row r="976" ht="12"/>
+    <row r="977" ht="12"/>
+    <row r="978" ht="12"/>
+    <row r="979" ht="12"/>
+    <row r="980" ht="12"/>
+    <row r="981" ht="12"/>
+    <row r="982" ht="12"/>
+    <row r="983" ht="12"/>
+    <row r="984" ht="12"/>
+    <row r="985" ht="12"/>
+    <row r="986" ht="12"/>
+    <row r="987" ht="12"/>
+    <row r="988" ht="12"/>
+    <row r="989" ht="12"/>
+    <row r="990" ht="12"/>
+    <row r="991" ht="12"/>
+    <row r="992" ht="12"/>
+    <row r="993" ht="12"/>
+    <row r="994" ht="12"/>
+    <row r="995" ht="12"/>
+    <row r="996" ht="12"/>
+    <row r="997" ht="12"/>
+    <row r="998" ht="12"/>
+    <row r="999" ht="12"/>
+    <row r="1000" ht="12"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Orders.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Orders.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="26004"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliot.smith/projects/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74CC782-2BF0-954C-891F-FA7590CACBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="16060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="6" r:id="rId1"/>
@@ -17,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cases!$A$1:$Q$115</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="217">
   <si>
     <t>table_name</t>
   </si>
@@ -675,13 +681,16 @@
   </si>
   <si>
     <t>Security</t>
+  </si>
+  <si>
+    <t>mapped in transform</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1111,14 +1120,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.83203125" customWidth="1"/>
@@ -1205,15 +1214,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I98" sqref="I98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q106" sqref="Q106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
@@ -1232,7 +1241,7 @@
     <col min="17" max="17" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14">
+    <row r="1" spans="1:17" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1285,7 +1294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="364">
+    <row r="2" spans="1:17" ht="409.6">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1313,7 +1322,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="14">
+    <row r="3" spans="1:17" ht="15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1338,7 +1347,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="14">
+    <row r="4" spans="1:17" ht="15">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1363,7 +1372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="14">
+    <row r="5" spans="1:17" ht="15">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1388,7 +1397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="14">
+    <row r="6" spans="1:17" ht="15">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1416,7 +1425,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="14">
+    <row r="7" spans="1:17" ht="15">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1438,7 +1447,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="14">
+    <row r="8" spans="1:17" ht="15">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1463,7 +1472,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="14">
+    <row r="9" spans="1:17" ht="15">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1485,7 +1494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="14">
+    <row r="10" spans="1:17" ht="15">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1510,7 +1519,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="14">
+    <row r="11" spans="1:17" ht="15">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1544,7 +1553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="14">
+    <row r="12" spans="1:17" ht="15">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1566,7 +1575,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="14">
+    <row r="13" spans="1:17" ht="15">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1588,7 +1597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="14">
+    <row r="14" spans="1:17" ht="15">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1610,7 +1619,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="14">
+    <row r="15" spans="1:17" ht="15">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1632,7 +1641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="14">
+    <row r="16" spans="1:17" ht="15">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1654,7 +1663,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="14">
+    <row r="17" spans="1:17" ht="15">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1679,7 +1688,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="14">
+    <row r="18" spans="1:17" ht="15">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1704,7 +1713,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="14">
+    <row r="19" spans="1:17" ht="15">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1729,7 +1738,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="14">
+    <row r="20" spans="1:17" ht="15">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -3538,7 +3547,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="15.75" customHeight="1">
+    <row r="97" spans="1:17" ht="15.75" customHeight="1">
       <c r="A97" s="2" t="s">
         <v>17</v>
       </c>
@@ -3569,7 +3578,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="15.75" customHeight="1">
+    <row r="98" spans="1:17" ht="15.75" customHeight="1">
       <c r="A98" s="2" t="s">
         <v>17</v>
       </c>
@@ -3591,7 +3600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="15.75" customHeight="1">
+    <row r="99" spans="1:17" ht="15.75" customHeight="1">
       <c r="A99" s="2" t="s">
         <v>17</v>
       </c>
@@ -3616,7 +3625,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="15.75" customHeight="1">
+    <row r="100" spans="1:17" ht="15.75" customHeight="1">
       <c r="A100" s="2" t="s">
         <v>17</v>
       </c>
@@ -3638,7 +3647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="15.75" customHeight="1">
+    <row r="101" spans="1:17" ht="15.75" customHeight="1">
       <c r="A101" s="2" t="s">
         <v>17</v>
       </c>
@@ -3660,7 +3669,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="15.75" customHeight="1">
+    <row r="102" spans="1:17" ht="15.75" customHeight="1">
       <c r="A102" s="2" t="s">
         <v>17</v>
       </c>
@@ -3682,7 +3691,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="15.75" customHeight="1">
+    <row r="103" spans="1:17" ht="15.75" customHeight="1">
       <c r="A103" s="2" t="s">
         <v>17</v>
       </c>
@@ -3704,7 +3713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="15.75" customHeight="1">
+    <row r="104" spans="1:17" ht="15.75" customHeight="1">
       <c r="A104" s="2" t="s">
         <v>17</v>
       </c>
@@ -3735,7 +3744,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="15.75" customHeight="1">
+    <row r="105" spans="1:17" ht="15.75" customHeight="1">
       <c r="A105" s="2" t="s">
         <v>17</v>
       </c>
@@ -3757,7 +3766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="15.75" customHeight="1">
+    <row r="106" spans="1:17" ht="15.75" customHeight="1">
       <c r="A106" s="2" t="s">
         <v>17</v>
       </c>
@@ -3776,10 +3785,13 @@
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
       <c r="P106" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" ht="15.75" customHeight="1">
+        <v>173</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" ht="15.75" customHeight="1">
       <c r="A107" s="2" t="s">
         <v>17</v>
       </c>
@@ -3801,7 +3813,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="15.75" customHeight="1">
+    <row r="108" spans="1:17" ht="15.75" customHeight="1">
       <c r="A108" s="2" t="s">
         <v>17</v>
       </c>
@@ -3823,7 +3835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="15.75" customHeight="1">
+    <row r="109" spans="1:17" ht="15.75" customHeight="1">
       <c r="A109" s="2" t="s">
         <v>17</v>
       </c>
@@ -3854,7 +3866,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="15.75" customHeight="1">
+    <row r="110" spans="1:17" ht="15.75" customHeight="1">
       <c r="A110" s="2" t="s">
         <v>17</v>
       </c>
@@ -3876,7 +3888,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="15.75" customHeight="1">
+    <row r="111" spans="1:17" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
         <v>17</v>
       </c>
@@ -3910,7 +3922,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="15.75" customHeight="1">
+    <row r="112" spans="1:17" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="s">
         <v>17</v>
       </c>
@@ -4809,692 +4821,692 @@
       <c r="B315" s="4"/>
       <c r="O315" s="4"/>
     </row>
-    <row r="316" spans="2:15" ht="12"/>
-    <row r="317" spans="2:15" ht="12"/>
-    <row r="318" spans="2:15" ht="12"/>
-    <row r="319" spans="2:15" ht="12"/>
-    <row r="320" spans="2:15" ht="12"/>
-    <row r="321" ht="12"/>
-    <row r="322" ht="12"/>
-    <row r="323" ht="12"/>
-    <row r="324" ht="12"/>
-    <row r="325" ht="12"/>
-    <row r="326" ht="12"/>
-    <row r="327" ht="12"/>
-    <row r="328" ht="12"/>
-    <row r="329" ht="12"/>
-    <row r="330" ht="12"/>
-    <row r="331" ht="12"/>
-    <row r="332" ht="12"/>
-    <row r="333" ht="12"/>
-    <row r="334" ht="12"/>
-    <row r="335" ht="12"/>
-    <row r="336" ht="12"/>
-    <row r="337" ht="12"/>
-    <row r="338" ht="12"/>
-    <row r="339" ht="12"/>
-    <row r="340" ht="12"/>
-    <row r="341" ht="12"/>
-    <row r="342" ht="12"/>
-    <row r="343" ht="12"/>
-    <row r="344" ht="12"/>
-    <row r="345" ht="12"/>
-    <row r="346" ht="12"/>
-    <row r="347" ht="12"/>
-    <row r="348" ht="12"/>
-    <row r="349" ht="12"/>
-    <row r="350" ht="12"/>
-    <row r="351" ht="12"/>
-    <row r="352" ht="12"/>
-    <row r="353" ht="12"/>
-    <row r="354" ht="12"/>
-    <row r="355" ht="12"/>
-    <row r="356" ht="12"/>
-    <row r="357" ht="12"/>
-    <row r="358" ht="12"/>
-    <row r="359" ht="12"/>
-    <row r="360" ht="12"/>
-    <row r="361" ht="12"/>
-    <row r="362" ht="12"/>
-    <row r="363" ht="12"/>
-    <row r="364" ht="12"/>
-    <row r="365" ht="12"/>
-    <row r="366" ht="12"/>
-    <row r="367" ht="12"/>
-    <row r="368" ht="12"/>
-    <row r="369" ht="12"/>
-    <row r="370" ht="12"/>
-    <row r="371" ht="12"/>
-    <row r="372" ht="12"/>
-    <row r="373" ht="12"/>
-    <row r="374" ht="12"/>
-    <row r="375" ht="12"/>
-    <row r="376" ht="12"/>
-    <row r="377" ht="12"/>
-    <row r="378" ht="12"/>
-    <row r="379" ht="12"/>
-    <row r="380" ht="12"/>
-    <row r="381" ht="12"/>
-    <row r="382" ht="12"/>
-    <row r="383" ht="12"/>
-    <row r="384" ht="12"/>
-    <row r="385" ht="12"/>
-    <row r="386" ht="12"/>
-    <row r="387" ht="12"/>
-    <row r="388" ht="12"/>
-    <row r="389" ht="12"/>
-    <row r="390" ht="12"/>
-    <row r="391" ht="12"/>
-    <row r="392" ht="12"/>
-    <row r="393" ht="12"/>
-    <row r="394" ht="12"/>
-    <row r="395" ht="12"/>
-    <row r="396" ht="12"/>
-    <row r="397" ht="12"/>
-    <row r="398" ht="12"/>
-    <row r="399" ht="12"/>
-    <row r="400" ht="12"/>
-    <row r="401" ht="12"/>
-    <row r="402" ht="12"/>
-    <row r="403" ht="12"/>
-    <row r="404" ht="12"/>
-    <row r="405" ht="12"/>
-    <row r="406" ht="12"/>
-    <row r="407" ht="12"/>
-    <row r="408" ht="12"/>
-    <row r="409" ht="12"/>
-    <row r="410" ht="12"/>
-    <row r="411" ht="12"/>
-    <row r="412" ht="12"/>
-    <row r="413" ht="12"/>
-    <row r="414" ht="12"/>
-    <row r="415" ht="12"/>
-    <row r="416" ht="12"/>
-    <row r="417" ht="12"/>
-    <row r="418" ht="12"/>
-    <row r="419" ht="12"/>
-    <row r="420" ht="12"/>
-    <row r="421" ht="12"/>
-    <row r="422" ht="12"/>
-    <row r="423" ht="12"/>
-    <row r="424" ht="12"/>
-    <row r="425" ht="12"/>
-    <row r="426" ht="12"/>
-    <row r="427" ht="12"/>
-    <row r="428" ht="12"/>
-    <row r="429" ht="12"/>
-    <row r="430" ht="12"/>
-    <row r="431" ht="12"/>
-    <row r="432" ht="12"/>
-    <row r="433" ht="12"/>
-    <row r="434" ht="12"/>
-    <row r="435" ht="12"/>
-    <row r="436" ht="12"/>
-    <row r="437" ht="12"/>
-    <row r="438" ht="12"/>
-    <row r="439" ht="12"/>
-    <row r="440" ht="12"/>
-    <row r="441" ht="12"/>
-    <row r="442" ht="12"/>
-    <row r="443" ht="12"/>
-    <row r="444" ht="12"/>
-    <row r="445" ht="12"/>
-    <row r="446" ht="12"/>
-    <row r="447" ht="12"/>
-    <row r="448" ht="12"/>
-    <row r="449" ht="12"/>
-    <row r="450" ht="12"/>
-    <row r="451" ht="12"/>
-    <row r="452" ht="12"/>
-    <row r="453" ht="12"/>
-    <row r="454" ht="12"/>
-    <row r="455" ht="12"/>
-    <row r="456" ht="12"/>
-    <row r="457" ht="12"/>
-    <row r="458" ht="12"/>
-    <row r="459" ht="12"/>
-    <row r="460" ht="12"/>
-    <row r="461" ht="12"/>
-    <row r="462" ht="12"/>
-    <row r="463" ht="12"/>
-    <row r="464" ht="12"/>
-    <row r="465" ht="12"/>
-    <row r="466" ht="12"/>
-    <row r="467" ht="12"/>
-    <row r="468" ht="12"/>
-    <row r="469" ht="12"/>
-    <row r="470" ht="12"/>
-    <row r="471" ht="12"/>
-    <row r="472" ht="12"/>
-    <row r="473" ht="12"/>
-    <row r="474" ht="12"/>
-    <row r="475" ht="12"/>
-    <row r="476" ht="12"/>
-    <row r="477" ht="12"/>
-    <row r="478" ht="12"/>
-    <row r="479" ht="12"/>
-    <row r="480" ht="12"/>
-    <row r="481" ht="12"/>
-    <row r="482" ht="12"/>
-    <row r="483" ht="12"/>
-    <row r="484" ht="12"/>
-    <row r="485" ht="12"/>
-    <row r="486" ht="12"/>
-    <row r="487" ht="12"/>
-    <row r="488" ht="12"/>
-    <row r="489" ht="12"/>
-    <row r="490" ht="12"/>
-    <row r="491" ht="12"/>
-    <row r="492" ht="12"/>
-    <row r="493" ht="12"/>
-    <row r="494" ht="12"/>
-    <row r="495" ht="12"/>
-    <row r="496" ht="12"/>
-    <row r="497" ht="12"/>
-    <row r="498" ht="12"/>
-    <row r="499" ht="12"/>
-    <row r="500" ht="12"/>
-    <row r="501" ht="12"/>
-    <row r="502" ht="12"/>
-    <row r="503" ht="12"/>
-    <row r="504" ht="12"/>
-    <row r="505" ht="12"/>
-    <row r="506" ht="12"/>
-    <row r="507" ht="12"/>
-    <row r="508" ht="12"/>
-    <row r="509" ht="12"/>
-    <row r="510" ht="12"/>
-    <row r="511" ht="12"/>
-    <row r="512" ht="12"/>
-    <row r="513" ht="12"/>
-    <row r="514" ht="12"/>
-    <row r="515" ht="12"/>
-    <row r="516" ht="12"/>
-    <row r="517" ht="12"/>
-    <row r="518" ht="12"/>
-    <row r="519" ht="12"/>
-    <row r="520" ht="12"/>
-    <row r="521" ht="12"/>
-    <row r="522" ht="12"/>
-    <row r="523" ht="12"/>
-    <row r="524" ht="12"/>
-    <row r="525" ht="12"/>
-    <row r="526" ht="12"/>
-    <row r="527" ht="12"/>
-    <row r="528" ht="12"/>
-    <row r="529" ht="12"/>
-    <row r="530" ht="12"/>
-    <row r="531" ht="12"/>
-    <row r="532" ht="12"/>
-    <row r="533" ht="12"/>
-    <row r="534" ht="12"/>
-    <row r="535" ht="12"/>
-    <row r="536" ht="12"/>
-    <row r="537" ht="12"/>
-    <row r="538" ht="12"/>
-    <row r="539" ht="12"/>
-    <row r="540" ht="12"/>
-    <row r="541" ht="12"/>
-    <row r="542" ht="12"/>
-    <row r="543" ht="12"/>
-    <row r="544" ht="12"/>
-    <row r="545" ht="12"/>
-    <row r="546" ht="12"/>
-    <row r="547" ht="12"/>
-    <row r="548" ht="12"/>
-    <row r="549" ht="12"/>
-    <row r="550" ht="12"/>
-    <row r="551" ht="12"/>
-    <row r="552" ht="12"/>
-    <row r="553" ht="12"/>
-    <row r="554" ht="12"/>
-    <row r="555" ht="12"/>
-    <row r="556" ht="12"/>
-    <row r="557" ht="12"/>
-    <row r="558" ht="12"/>
-    <row r="559" ht="12"/>
-    <row r="560" ht="12"/>
-    <row r="561" ht="12"/>
-    <row r="562" ht="12"/>
-    <row r="563" ht="12"/>
-    <row r="564" ht="12"/>
-    <row r="565" ht="12"/>
-    <row r="566" ht="12"/>
-    <row r="567" ht="12"/>
-    <row r="568" ht="12"/>
-    <row r="569" ht="12"/>
-    <row r="570" ht="12"/>
-    <row r="571" ht="12"/>
-    <row r="572" ht="12"/>
-    <row r="573" ht="12"/>
-    <row r="574" ht="12"/>
-    <row r="575" ht="12"/>
-    <row r="576" ht="12"/>
-    <row r="577" ht="12"/>
-    <row r="578" ht="12"/>
-    <row r="579" ht="12"/>
-    <row r="580" ht="12"/>
-    <row r="581" ht="12"/>
-    <row r="582" ht="12"/>
-    <row r="583" ht="12"/>
-    <row r="584" ht="12"/>
-    <row r="585" ht="12"/>
-    <row r="586" ht="12"/>
-    <row r="587" ht="12"/>
-    <row r="588" ht="12"/>
-    <row r="589" ht="12"/>
-    <row r="590" ht="12"/>
-    <row r="591" ht="12"/>
-    <row r="592" ht="12"/>
-    <row r="593" ht="12"/>
-    <row r="594" ht="12"/>
-    <row r="595" ht="12"/>
-    <row r="596" ht="12"/>
-    <row r="597" ht="12"/>
-    <row r="598" ht="12"/>
-    <row r="599" ht="12"/>
-    <row r="600" ht="12"/>
-    <row r="601" ht="12"/>
-    <row r="602" ht="12"/>
-    <row r="603" ht="12"/>
-    <row r="604" ht="12"/>
-    <row r="605" ht="12"/>
-    <row r="606" ht="12"/>
-    <row r="607" ht="12"/>
-    <row r="608" ht="12"/>
-    <row r="609" ht="12"/>
-    <row r="610" ht="12"/>
-    <row r="611" ht="12"/>
-    <row r="612" ht="12"/>
-    <row r="613" ht="12"/>
-    <row r="614" ht="12"/>
-    <row r="615" ht="12"/>
-    <row r="616" ht="12"/>
-    <row r="617" ht="12"/>
-    <row r="618" ht="12"/>
-    <row r="619" ht="12"/>
-    <row r="620" ht="12"/>
-    <row r="621" ht="12"/>
-    <row r="622" ht="12"/>
-    <row r="623" ht="12"/>
-    <row r="624" ht="12"/>
-    <row r="625" ht="12"/>
-    <row r="626" ht="12"/>
-    <row r="627" ht="12"/>
-    <row r="628" ht="12"/>
-    <row r="629" ht="12"/>
-    <row r="630" ht="12"/>
-    <row r="631" ht="12"/>
-    <row r="632" ht="12"/>
-    <row r="633" ht="12"/>
-    <row r="634" ht="12"/>
-    <row r="635" ht="12"/>
-    <row r="636" ht="12"/>
-    <row r="637" ht="12"/>
-    <row r="638" ht="12"/>
-    <row r="639" ht="12"/>
-    <row r="640" ht="12"/>
-    <row r="641" ht="12"/>
-    <row r="642" ht="12"/>
-    <row r="643" ht="12"/>
-    <row r="644" ht="12"/>
-    <row r="645" ht="12"/>
-    <row r="646" ht="12"/>
-    <row r="647" ht="12"/>
-    <row r="648" ht="12"/>
-    <row r="649" ht="12"/>
-    <row r="650" ht="12"/>
-    <row r="651" ht="12"/>
-    <row r="652" ht="12"/>
-    <row r="653" ht="12"/>
-    <row r="654" ht="12"/>
-    <row r="655" ht="12"/>
-    <row r="656" ht="12"/>
-    <row r="657" ht="12"/>
-    <row r="658" ht="12"/>
-    <row r="659" ht="12"/>
-    <row r="660" ht="12"/>
-    <row r="661" ht="12"/>
-    <row r="662" ht="12"/>
-    <row r="663" ht="12"/>
-    <row r="664" ht="12"/>
-    <row r="665" ht="12"/>
-    <row r="666" ht="12"/>
-    <row r="667" ht="12"/>
-    <row r="668" ht="12"/>
-    <row r="669" ht="12"/>
-    <row r="670" ht="12"/>
-    <row r="671" ht="12"/>
-    <row r="672" ht="12"/>
-    <row r="673" ht="12"/>
-    <row r="674" ht="12"/>
-    <row r="675" ht="12"/>
-    <row r="676" ht="12"/>
-    <row r="677" ht="12"/>
-    <row r="678" ht="12"/>
-    <row r="679" ht="12"/>
-    <row r="680" ht="12"/>
-    <row r="681" ht="12"/>
-    <row r="682" ht="12"/>
-    <row r="683" ht="12"/>
-    <row r="684" ht="12"/>
-    <row r="685" ht="12"/>
-    <row r="686" ht="12"/>
-    <row r="687" ht="12"/>
-    <row r="688" ht="12"/>
-    <row r="689" ht="12"/>
-    <row r="690" ht="12"/>
-    <row r="691" ht="12"/>
-    <row r="692" ht="12"/>
-    <row r="693" ht="12"/>
-    <row r="694" ht="12"/>
-    <row r="695" ht="12"/>
-    <row r="696" ht="12"/>
-    <row r="697" ht="12"/>
-    <row r="698" ht="12"/>
-    <row r="699" ht="12"/>
-    <row r="700" ht="12"/>
-    <row r="701" ht="12"/>
-    <row r="702" ht="12"/>
-    <row r="703" ht="12"/>
-    <row r="704" ht="12"/>
-    <row r="705" ht="12"/>
-    <row r="706" ht="12"/>
-    <row r="707" ht="12"/>
-    <row r="708" ht="12"/>
-    <row r="709" ht="12"/>
-    <row r="710" ht="12"/>
-    <row r="711" ht="12"/>
-    <row r="712" ht="12"/>
-    <row r="713" ht="12"/>
-    <row r="714" ht="12"/>
-    <row r="715" ht="12"/>
-    <row r="716" ht="12"/>
-    <row r="717" ht="12"/>
-    <row r="718" ht="12"/>
-    <row r="719" ht="12"/>
-    <row r="720" ht="12"/>
-    <row r="721" ht="12"/>
-    <row r="722" ht="12"/>
-    <row r="723" ht="12"/>
-    <row r="724" ht="12"/>
-    <row r="725" ht="12"/>
-    <row r="726" ht="12"/>
-    <row r="727" ht="12"/>
-    <row r="728" ht="12"/>
-    <row r="729" ht="12"/>
-    <row r="730" ht="12"/>
-    <row r="731" ht="12"/>
-    <row r="732" ht="12"/>
-    <row r="733" ht="12"/>
-    <row r="734" ht="12"/>
-    <row r="735" ht="12"/>
-    <row r="736" ht="12"/>
-    <row r="737" ht="12"/>
-    <row r="738" ht="12"/>
-    <row r="739" ht="12"/>
-    <row r="740" ht="12"/>
-    <row r="741" ht="12"/>
-    <row r="742" ht="12"/>
-    <row r="743" ht="12"/>
-    <row r="744" ht="12"/>
-    <row r="745" ht="12"/>
-    <row r="746" ht="12"/>
-    <row r="747" ht="12"/>
-    <row r="748" ht="12"/>
-    <row r="749" ht="12"/>
-    <row r="750" ht="12"/>
-    <row r="751" ht="12"/>
-    <row r="752" ht="12"/>
-    <row r="753" ht="12"/>
-    <row r="754" ht="12"/>
-    <row r="755" ht="12"/>
-    <row r="756" ht="12"/>
-    <row r="757" ht="12"/>
-    <row r="758" ht="12"/>
-    <row r="759" ht="12"/>
-    <row r="760" ht="12"/>
-    <row r="761" ht="12"/>
-    <row r="762" ht="12"/>
-    <row r="763" ht="12"/>
-    <row r="764" ht="12"/>
-    <row r="765" ht="12"/>
-    <row r="766" ht="12"/>
-    <row r="767" ht="12"/>
-    <row r="768" ht="12"/>
-    <row r="769" ht="12"/>
-    <row r="770" ht="12"/>
-    <row r="771" ht="12"/>
-    <row r="772" ht="12"/>
-    <row r="773" ht="12"/>
-    <row r="774" ht="12"/>
-    <row r="775" ht="12"/>
-    <row r="776" ht="12"/>
-    <row r="777" ht="12"/>
-    <row r="778" ht="12"/>
-    <row r="779" ht="12"/>
-    <row r="780" ht="12"/>
-    <row r="781" ht="12"/>
-    <row r="782" ht="12"/>
-    <row r="783" ht="12"/>
-    <row r="784" ht="12"/>
-    <row r="785" ht="12"/>
-    <row r="786" ht="12"/>
-    <row r="787" ht="12"/>
-    <row r="788" ht="12"/>
-    <row r="789" ht="12"/>
-    <row r="790" ht="12"/>
-    <row r="791" ht="12"/>
-    <row r="792" ht="12"/>
-    <row r="793" ht="12"/>
-    <row r="794" ht="12"/>
-    <row r="795" ht="12"/>
-    <row r="796" ht="12"/>
-    <row r="797" ht="12"/>
-    <row r="798" ht="12"/>
-    <row r="799" ht="12"/>
-    <row r="800" ht="12"/>
-    <row r="801" ht="12"/>
-    <row r="802" ht="12"/>
-    <row r="803" ht="12"/>
-    <row r="804" ht="12"/>
-    <row r="805" ht="12"/>
-    <row r="806" ht="12"/>
-    <row r="807" ht="12"/>
-    <row r="808" ht="12"/>
-    <row r="809" ht="12"/>
-    <row r="810" ht="12"/>
-    <row r="811" ht="12"/>
-    <row r="812" ht="12"/>
-    <row r="813" ht="12"/>
-    <row r="814" ht="12"/>
-    <row r="815" ht="12"/>
-    <row r="816" ht="12"/>
-    <row r="817" ht="12"/>
-    <row r="818" ht="12"/>
-    <row r="819" ht="12"/>
-    <row r="820" ht="12"/>
-    <row r="821" ht="12"/>
-    <row r="822" ht="12"/>
-    <row r="823" ht="12"/>
-    <row r="824" ht="12"/>
-    <row r="825" ht="12"/>
-    <row r="826" ht="12"/>
-    <row r="827" ht="12"/>
-    <row r="828" ht="12"/>
-    <row r="829" ht="12"/>
-    <row r="830" ht="12"/>
-    <row r="831" ht="12"/>
-    <row r="832" ht="12"/>
-    <row r="833" ht="12"/>
-    <row r="834" ht="12"/>
-    <row r="835" ht="12"/>
-    <row r="836" ht="12"/>
-    <row r="837" ht="12"/>
-    <row r="838" ht="12"/>
-    <row r="839" ht="12"/>
-    <row r="840" ht="12"/>
-    <row r="841" ht="12"/>
-    <row r="842" ht="12"/>
-    <row r="843" ht="12"/>
-    <row r="844" ht="12"/>
-    <row r="845" ht="12"/>
-    <row r="846" ht="12"/>
-    <row r="847" ht="12"/>
-    <row r="848" ht="12"/>
-    <row r="849" ht="12"/>
-    <row r="850" ht="12"/>
-    <row r="851" ht="12"/>
-    <row r="852" ht="12"/>
-    <row r="853" ht="12"/>
-    <row r="854" ht="12"/>
-    <row r="855" ht="12"/>
-    <row r="856" ht="12"/>
-    <row r="857" ht="12"/>
-    <row r="858" ht="12"/>
-    <row r="859" ht="12"/>
-    <row r="860" ht="12"/>
-    <row r="861" ht="12"/>
-    <row r="862" ht="12"/>
-    <row r="863" ht="12"/>
-    <row r="864" ht="12"/>
-    <row r="865" ht="12"/>
-    <row r="866" ht="12"/>
-    <row r="867" ht="12"/>
-    <row r="868" ht="12"/>
-    <row r="869" ht="12"/>
-    <row r="870" ht="12"/>
-    <row r="871" ht="12"/>
-    <row r="872" ht="12"/>
-    <row r="873" ht="12"/>
-    <row r="874" ht="12"/>
-    <row r="875" ht="12"/>
-    <row r="876" ht="12"/>
-    <row r="877" ht="12"/>
-    <row r="878" ht="12"/>
-    <row r="879" ht="12"/>
-    <row r="880" ht="12"/>
-    <row r="881" ht="12"/>
-    <row r="882" ht="12"/>
-    <row r="883" ht="12"/>
-    <row r="884" ht="12"/>
-    <row r="885" ht="12"/>
-    <row r="886" ht="12"/>
-    <row r="887" ht="12"/>
-    <row r="888" ht="12"/>
-    <row r="889" ht="12"/>
-    <row r="890" ht="12"/>
-    <row r="891" ht="12"/>
-    <row r="892" ht="12"/>
-    <row r="893" ht="12"/>
-    <row r="894" ht="12"/>
-    <row r="895" ht="12"/>
-    <row r="896" ht="12"/>
-    <row r="897" ht="12"/>
-    <row r="898" ht="12"/>
-    <row r="899" ht="12"/>
-    <row r="900" ht="12"/>
-    <row r="901" ht="12"/>
-    <row r="902" ht="12"/>
-    <row r="903" ht="12"/>
-    <row r="904" ht="12"/>
-    <row r="905" ht="12"/>
-    <row r="906" ht="12"/>
-    <row r="907" ht="12"/>
-    <row r="908" ht="12"/>
-    <row r="909" ht="12"/>
-    <row r="910" ht="12"/>
-    <row r="911" ht="12"/>
-    <row r="912" ht="12"/>
-    <row r="913" ht="12"/>
-    <row r="914" ht="12"/>
-    <row r="915" ht="12"/>
-    <row r="916" ht="12"/>
-    <row r="917" ht="12"/>
-    <row r="918" ht="12"/>
-    <row r="919" ht="12"/>
-    <row r="920" ht="12"/>
-    <row r="921" ht="12"/>
-    <row r="922" ht="12"/>
-    <row r="923" ht="12"/>
-    <row r="924" ht="12"/>
-    <row r="925" ht="12"/>
-    <row r="926" ht="12"/>
-    <row r="927" ht="12"/>
-    <row r="928" ht="12"/>
-    <row r="929" ht="12"/>
-    <row r="930" ht="12"/>
-    <row r="931" ht="12"/>
-    <row r="932" ht="12"/>
-    <row r="933" ht="12"/>
-    <row r="934" ht="12"/>
-    <row r="935" ht="12"/>
-    <row r="936" ht="12"/>
-    <row r="937" ht="12"/>
-    <row r="938" ht="12"/>
-    <row r="939" ht="12"/>
-    <row r="940" ht="12"/>
-    <row r="941" ht="12"/>
-    <row r="942" ht="12"/>
-    <row r="943" ht="12"/>
-    <row r="944" ht="12"/>
-    <row r="945" ht="12"/>
-    <row r="946" ht="12"/>
-    <row r="947" ht="12"/>
-    <row r="948" ht="12"/>
-    <row r="949" ht="12"/>
-    <row r="950" ht="12"/>
-    <row r="951" ht="12"/>
-    <row r="952" ht="12"/>
-    <row r="953" ht="12"/>
-    <row r="954" ht="12"/>
-    <row r="955" ht="12"/>
-    <row r="956" ht="12"/>
-    <row r="957" ht="12"/>
-    <row r="958" ht="12"/>
-    <row r="959" ht="12"/>
-    <row r="960" ht="12"/>
-    <row r="961" ht="12"/>
-    <row r="962" ht="12"/>
-    <row r="963" ht="12"/>
-    <row r="964" ht="12"/>
-    <row r="965" ht="12"/>
-    <row r="966" ht="12"/>
-    <row r="967" ht="12"/>
-    <row r="968" ht="12"/>
-    <row r="969" ht="12"/>
-    <row r="970" ht="12"/>
-    <row r="971" ht="12"/>
-    <row r="972" ht="12"/>
-    <row r="973" ht="12"/>
-    <row r="974" ht="12"/>
-    <row r="975" ht="12"/>
-    <row r="976" ht="12"/>
-    <row r="977" ht="12"/>
-    <row r="978" ht="12"/>
-    <row r="979" ht="12"/>
-    <row r="980" ht="12"/>
-    <row r="981" ht="12"/>
-    <row r="982" ht="12"/>
-    <row r="983" ht="12"/>
-    <row r="984" ht="12"/>
-    <row r="985" ht="12"/>
-    <row r="986" ht="12"/>
-    <row r="987" ht="12"/>
-    <row r="988" ht="12"/>
-    <row r="989" ht="12"/>
-    <row r="990" ht="12"/>
-    <row r="991" ht="12"/>
-    <row r="992" ht="12"/>
-    <row r="993" ht="12"/>
-    <row r="994" ht="12"/>
-    <row r="995" ht="12"/>
-    <row r="996" ht="12"/>
-    <row r="997" ht="12"/>
-    <row r="998" ht="12"/>
-    <row r="999" ht="12"/>
+    <row r="316" spans="2:15" ht="13"/>
+    <row r="317" spans="2:15" ht="13"/>
+    <row r="318" spans="2:15" ht="13"/>
+    <row r="319" spans="2:15" ht="13"/>
+    <row r="320" spans="2:15" ht="13"/>
+    <row r="321" ht="13"/>
+    <row r="322" ht="13"/>
+    <row r="323" ht="13"/>
+    <row r="324" ht="13"/>
+    <row r="325" ht="13"/>
+    <row r="326" ht="13"/>
+    <row r="327" ht="13"/>
+    <row r="328" ht="13"/>
+    <row r="329" ht="13"/>
+    <row r="330" ht="13"/>
+    <row r="331" ht="13"/>
+    <row r="332" ht="13"/>
+    <row r="333" ht="13"/>
+    <row r="334" ht="13"/>
+    <row r="335" ht="13"/>
+    <row r="336" ht="13"/>
+    <row r="337" ht="13"/>
+    <row r="338" ht="13"/>
+    <row r="339" ht="13"/>
+    <row r="340" ht="13"/>
+    <row r="341" ht="13"/>
+    <row r="342" ht="13"/>
+    <row r="343" ht="13"/>
+    <row r="344" ht="13"/>
+    <row r="345" ht="13"/>
+    <row r="346" ht="13"/>
+    <row r="347" ht="13"/>
+    <row r="348" ht="13"/>
+    <row r="349" ht="13"/>
+    <row r="350" ht="13"/>
+    <row r="351" ht="13"/>
+    <row r="352" ht="13"/>
+    <row r="353" ht="13"/>
+    <row r="354" ht="13"/>
+    <row r="355" ht="13"/>
+    <row r="356" ht="13"/>
+    <row r="357" ht="13"/>
+    <row r="358" ht="13"/>
+    <row r="359" ht="13"/>
+    <row r="360" ht="13"/>
+    <row r="361" ht="13"/>
+    <row r="362" ht="13"/>
+    <row r="363" ht="13"/>
+    <row r="364" ht="13"/>
+    <row r="365" ht="13"/>
+    <row r="366" ht="13"/>
+    <row r="367" ht="13"/>
+    <row r="368" ht="13"/>
+    <row r="369" ht="13"/>
+    <row r="370" ht="13"/>
+    <row r="371" ht="13"/>
+    <row r="372" ht="13"/>
+    <row r="373" ht="13"/>
+    <row r="374" ht="13"/>
+    <row r="375" ht="13"/>
+    <row r="376" ht="13"/>
+    <row r="377" ht="13"/>
+    <row r="378" ht="13"/>
+    <row r="379" ht="13"/>
+    <row r="380" ht="13"/>
+    <row r="381" ht="13"/>
+    <row r="382" ht="13"/>
+    <row r="383" ht="13"/>
+    <row r="384" ht="13"/>
+    <row r="385" ht="13"/>
+    <row r="386" ht="13"/>
+    <row r="387" ht="13"/>
+    <row r="388" ht="13"/>
+    <row r="389" ht="13"/>
+    <row r="390" ht="13"/>
+    <row r="391" ht="13"/>
+    <row r="392" ht="13"/>
+    <row r="393" ht="13"/>
+    <row r="394" ht="13"/>
+    <row r="395" ht="13"/>
+    <row r="396" ht="13"/>
+    <row r="397" ht="13"/>
+    <row r="398" ht="13"/>
+    <row r="399" ht="13"/>
+    <row r="400" ht="13"/>
+    <row r="401" ht="13"/>
+    <row r="402" ht="13"/>
+    <row r="403" ht="13"/>
+    <row r="404" ht="13"/>
+    <row r="405" ht="13"/>
+    <row r="406" ht="13"/>
+    <row r="407" ht="13"/>
+    <row r="408" ht="13"/>
+    <row r="409" ht="13"/>
+    <row r="410" ht="13"/>
+    <row r="411" ht="13"/>
+    <row r="412" ht="13"/>
+    <row r="413" ht="13"/>
+    <row r="414" ht="13"/>
+    <row r="415" ht="13"/>
+    <row r="416" ht="13"/>
+    <row r="417" ht="13"/>
+    <row r="418" ht="13"/>
+    <row r="419" ht="13"/>
+    <row r="420" ht="13"/>
+    <row r="421" ht="13"/>
+    <row r="422" ht="13"/>
+    <row r="423" ht="13"/>
+    <row r="424" ht="13"/>
+    <row r="425" ht="13"/>
+    <row r="426" ht="13"/>
+    <row r="427" ht="13"/>
+    <row r="428" ht="13"/>
+    <row r="429" ht="13"/>
+    <row r="430" ht="13"/>
+    <row r="431" ht="13"/>
+    <row r="432" ht="13"/>
+    <row r="433" ht="13"/>
+    <row r="434" ht="13"/>
+    <row r="435" ht="13"/>
+    <row r="436" ht="13"/>
+    <row r="437" ht="13"/>
+    <row r="438" ht="13"/>
+    <row r="439" ht="13"/>
+    <row r="440" ht="13"/>
+    <row r="441" ht="13"/>
+    <row r="442" ht="13"/>
+    <row r="443" ht="13"/>
+    <row r="444" ht="13"/>
+    <row r="445" ht="13"/>
+    <row r="446" ht="13"/>
+    <row r="447" ht="13"/>
+    <row r="448" ht="13"/>
+    <row r="449" ht="13"/>
+    <row r="450" ht="13"/>
+    <row r="451" ht="13"/>
+    <row r="452" ht="13"/>
+    <row r="453" ht="13"/>
+    <row r="454" ht="13"/>
+    <row r="455" ht="13"/>
+    <row r="456" ht="13"/>
+    <row r="457" ht="13"/>
+    <row r="458" ht="13"/>
+    <row r="459" ht="13"/>
+    <row r="460" ht="13"/>
+    <row r="461" ht="13"/>
+    <row r="462" ht="13"/>
+    <row r="463" ht="13"/>
+    <row r="464" ht="13"/>
+    <row r="465" ht="13"/>
+    <row r="466" ht="13"/>
+    <row r="467" ht="13"/>
+    <row r="468" ht="13"/>
+    <row r="469" ht="13"/>
+    <row r="470" ht="13"/>
+    <row r="471" ht="13"/>
+    <row r="472" ht="13"/>
+    <row r="473" ht="13"/>
+    <row r="474" ht="13"/>
+    <row r="475" ht="13"/>
+    <row r="476" ht="13"/>
+    <row r="477" ht="13"/>
+    <row r="478" ht="13"/>
+    <row r="479" ht="13"/>
+    <row r="480" ht="13"/>
+    <row r="481" ht="13"/>
+    <row r="482" ht="13"/>
+    <row r="483" ht="13"/>
+    <row r="484" ht="13"/>
+    <row r="485" ht="13"/>
+    <row r="486" ht="13"/>
+    <row r="487" ht="13"/>
+    <row r="488" ht="13"/>
+    <row r="489" ht="13"/>
+    <row r="490" ht="13"/>
+    <row r="491" ht="13"/>
+    <row r="492" ht="13"/>
+    <row r="493" ht="13"/>
+    <row r="494" ht="13"/>
+    <row r="495" ht="13"/>
+    <row r="496" ht="13"/>
+    <row r="497" ht="13"/>
+    <row r="498" ht="13"/>
+    <row r="499" ht="13"/>
+    <row r="500" ht="13"/>
+    <row r="501" ht="13"/>
+    <row r="502" ht="13"/>
+    <row r="503" ht="13"/>
+    <row r="504" ht="13"/>
+    <row r="505" ht="13"/>
+    <row r="506" ht="13"/>
+    <row r="507" ht="13"/>
+    <row r="508" ht="13"/>
+    <row r="509" ht="13"/>
+    <row r="510" ht="13"/>
+    <row r="511" ht="13"/>
+    <row r="512" ht="13"/>
+    <row r="513" ht="13"/>
+    <row r="514" ht="13"/>
+    <row r="515" ht="13"/>
+    <row r="516" ht="13"/>
+    <row r="517" ht="13"/>
+    <row r="518" ht="13"/>
+    <row r="519" ht="13"/>
+    <row r="520" ht="13"/>
+    <row r="521" ht="13"/>
+    <row r="522" ht="13"/>
+    <row r="523" ht="13"/>
+    <row r="524" ht="13"/>
+    <row r="525" ht="13"/>
+    <row r="526" ht="13"/>
+    <row r="527" ht="13"/>
+    <row r="528" ht="13"/>
+    <row r="529" ht="13"/>
+    <row r="530" ht="13"/>
+    <row r="531" ht="13"/>
+    <row r="532" ht="13"/>
+    <row r="533" ht="13"/>
+    <row r="534" ht="13"/>
+    <row r="535" ht="13"/>
+    <row r="536" ht="13"/>
+    <row r="537" ht="13"/>
+    <row r="538" ht="13"/>
+    <row r="539" ht="13"/>
+    <row r="540" ht="13"/>
+    <row r="541" ht="13"/>
+    <row r="542" ht="13"/>
+    <row r="543" ht="13"/>
+    <row r="544" ht="13"/>
+    <row r="545" ht="13"/>
+    <row r="546" ht="13"/>
+    <row r="547" ht="13"/>
+    <row r="548" ht="13"/>
+    <row r="549" ht="13"/>
+    <row r="550" ht="13"/>
+    <row r="551" ht="13"/>
+    <row r="552" ht="13"/>
+    <row r="553" ht="13"/>
+    <row r="554" ht="13"/>
+    <row r="555" ht="13"/>
+    <row r="556" ht="13"/>
+    <row r="557" ht="13"/>
+    <row r="558" ht="13"/>
+    <row r="559" ht="13"/>
+    <row r="560" ht="13"/>
+    <row r="561" ht="13"/>
+    <row r="562" ht="13"/>
+    <row r="563" ht="13"/>
+    <row r="564" ht="13"/>
+    <row r="565" ht="13"/>
+    <row r="566" ht="13"/>
+    <row r="567" ht="13"/>
+    <row r="568" ht="13"/>
+    <row r="569" ht="13"/>
+    <row r="570" ht="13"/>
+    <row r="571" ht="13"/>
+    <row r="572" ht="13"/>
+    <row r="573" ht="13"/>
+    <row r="574" ht="13"/>
+    <row r="575" ht="13"/>
+    <row r="576" ht="13"/>
+    <row r="577" ht="13"/>
+    <row r="578" ht="13"/>
+    <row r="579" ht="13"/>
+    <row r="580" ht="13"/>
+    <row r="581" ht="13"/>
+    <row r="582" ht="13"/>
+    <row r="583" ht="13"/>
+    <row r="584" ht="13"/>
+    <row r="585" ht="13"/>
+    <row r="586" ht="13"/>
+    <row r="587" ht="13"/>
+    <row r="588" ht="13"/>
+    <row r="589" ht="13"/>
+    <row r="590" ht="13"/>
+    <row r="591" ht="13"/>
+    <row r="592" ht="13"/>
+    <row r="593" ht="13"/>
+    <row r="594" ht="13"/>
+    <row r="595" ht="13"/>
+    <row r="596" ht="13"/>
+    <row r="597" ht="13"/>
+    <row r="598" ht="13"/>
+    <row r="599" ht="13"/>
+    <row r="600" ht="13"/>
+    <row r="601" ht="13"/>
+    <row r="602" ht="13"/>
+    <row r="603" ht="13"/>
+    <row r="604" ht="13"/>
+    <row r="605" ht="13"/>
+    <row r="606" ht="13"/>
+    <row r="607" ht="13"/>
+    <row r="608" ht="13"/>
+    <row r="609" ht="13"/>
+    <row r="610" ht="13"/>
+    <row r="611" ht="13"/>
+    <row r="612" ht="13"/>
+    <row r="613" ht="13"/>
+    <row r="614" ht="13"/>
+    <row r="615" ht="13"/>
+    <row r="616" ht="13"/>
+    <row r="617" ht="13"/>
+    <row r="618" ht="13"/>
+    <row r="619" ht="13"/>
+    <row r="620" ht="13"/>
+    <row r="621" ht="13"/>
+    <row r="622" ht="13"/>
+    <row r="623" ht="13"/>
+    <row r="624" ht="13"/>
+    <row r="625" ht="13"/>
+    <row r="626" ht="13"/>
+    <row r="627" ht="13"/>
+    <row r="628" ht="13"/>
+    <row r="629" ht="13"/>
+    <row r="630" ht="13"/>
+    <row r="631" ht="13"/>
+    <row r="632" ht="13"/>
+    <row r="633" ht="13"/>
+    <row r="634" ht="13"/>
+    <row r="635" ht="13"/>
+    <row r="636" ht="13"/>
+    <row r="637" ht="13"/>
+    <row r="638" ht="13"/>
+    <row r="639" ht="13"/>
+    <row r="640" ht="13"/>
+    <row r="641" ht="13"/>
+    <row r="642" ht="13"/>
+    <row r="643" ht="13"/>
+    <row r="644" ht="13"/>
+    <row r="645" ht="13"/>
+    <row r="646" ht="13"/>
+    <row r="647" ht="13"/>
+    <row r="648" ht="13"/>
+    <row r="649" ht="13"/>
+    <row r="650" ht="13"/>
+    <row r="651" ht="13"/>
+    <row r="652" ht="13"/>
+    <row r="653" ht="13"/>
+    <row r="654" ht="13"/>
+    <row r="655" ht="13"/>
+    <row r="656" ht="13"/>
+    <row r="657" ht="13"/>
+    <row r="658" ht="13"/>
+    <row r="659" ht="13"/>
+    <row r="660" ht="13"/>
+    <row r="661" ht="13"/>
+    <row r="662" ht="13"/>
+    <row r="663" ht="13"/>
+    <row r="664" ht="13"/>
+    <row r="665" ht="13"/>
+    <row r="666" ht="13"/>
+    <row r="667" ht="13"/>
+    <row r="668" ht="13"/>
+    <row r="669" ht="13"/>
+    <row r="670" ht="13"/>
+    <row r="671" ht="13"/>
+    <row r="672" ht="13"/>
+    <row r="673" ht="13"/>
+    <row r="674" ht="13"/>
+    <row r="675" ht="13"/>
+    <row r="676" ht="13"/>
+    <row r="677" ht="13"/>
+    <row r="678" ht="13"/>
+    <row r="679" ht="13"/>
+    <row r="680" ht="13"/>
+    <row r="681" ht="13"/>
+    <row r="682" ht="13"/>
+    <row r="683" ht="13"/>
+    <row r="684" ht="13"/>
+    <row r="685" ht="13"/>
+    <row r="686" ht="13"/>
+    <row r="687" ht="13"/>
+    <row r="688" ht="13"/>
+    <row r="689" ht="13"/>
+    <row r="690" ht="13"/>
+    <row r="691" ht="13"/>
+    <row r="692" ht="13"/>
+    <row r="693" ht="13"/>
+    <row r="694" ht="13"/>
+    <row r="695" ht="13"/>
+    <row r="696" ht="13"/>
+    <row r="697" ht="13"/>
+    <row r="698" ht="13"/>
+    <row r="699" ht="13"/>
+    <row r="700" ht="13"/>
+    <row r="701" ht="13"/>
+    <row r="702" ht="13"/>
+    <row r="703" ht="13"/>
+    <row r="704" ht="13"/>
+    <row r="705" ht="13"/>
+    <row r="706" ht="13"/>
+    <row r="707" ht="13"/>
+    <row r="708" ht="13"/>
+    <row r="709" ht="13"/>
+    <row r="710" ht="13"/>
+    <row r="711" ht="13"/>
+    <row r="712" ht="13"/>
+    <row r="713" ht="13"/>
+    <row r="714" ht="13"/>
+    <row r="715" ht="13"/>
+    <row r="716" ht="13"/>
+    <row r="717" ht="13"/>
+    <row r="718" ht="13"/>
+    <row r="719" ht="13"/>
+    <row r="720" ht="13"/>
+    <row r="721" ht="13"/>
+    <row r="722" ht="13"/>
+    <row r="723" ht="13"/>
+    <row r="724" ht="13"/>
+    <row r="725" ht="13"/>
+    <row r="726" ht="13"/>
+    <row r="727" ht="13"/>
+    <row r="728" ht="13"/>
+    <row r="729" ht="13"/>
+    <row r="730" ht="13"/>
+    <row r="731" ht="13"/>
+    <row r="732" ht="13"/>
+    <row r="733" ht="13"/>
+    <row r="734" ht="13"/>
+    <row r="735" ht="13"/>
+    <row r="736" ht="13"/>
+    <row r="737" ht="13"/>
+    <row r="738" ht="13"/>
+    <row r="739" ht="13"/>
+    <row r="740" ht="13"/>
+    <row r="741" ht="13"/>
+    <row r="742" ht="13"/>
+    <row r="743" ht="13"/>
+    <row r="744" ht="13"/>
+    <row r="745" ht="13"/>
+    <row r="746" ht="13"/>
+    <row r="747" ht="13"/>
+    <row r="748" ht="13"/>
+    <row r="749" ht="13"/>
+    <row r="750" ht="13"/>
+    <row r="751" ht="13"/>
+    <row r="752" ht="13"/>
+    <row r="753" ht="13"/>
+    <row r="754" ht="13"/>
+    <row r="755" ht="13"/>
+    <row r="756" ht="13"/>
+    <row r="757" ht="13"/>
+    <row r="758" ht="13"/>
+    <row r="759" ht="13"/>
+    <row r="760" ht="13"/>
+    <row r="761" ht="13"/>
+    <row r="762" ht="13"/>
+    <row r="763" ht="13"/>
+    <row r="764" ht="13"/>
+    <row r="765" ht="13"/>
+    <row r="766" ht="13"/>
+    <row r="767" ht="13"/>
+    <row r="768" ht="13"/>
+    <row r="769" ht="13"/>
+    <row r="770" ht="13"/>
+    <row r="771" ht="13"/>
+    <row r="772" ht="13"/>
+    <row r="773" ht="13"/>
+    <row r="774" ht="13"/>
+    <row r="775" ht="13"/>
+    <row r="776" ht="13"/>
+    <row r="777" ht="13"/>
+    <row r="778" ht="13"/>
+    <row r="779" ht="13"/>
+    <row r="780" ht="13"/>
+    <row r="781" ht="13"/>
+    <row r="782" ht="13"/>
+    <row r="783" ht="13"/>
+    <row r="784" ht="13"/>
+    <row r="785" ht="13"/>
+    <row r="786" ht="13"/>
+    <row r="787" ht="13"/>
+    <row r="788" ht="13"/>
+    <row r="789" ht="13"/>
+    <row r="790" ht="13"/>
+    <row r="791" ht="13"/>
+    <row r="792" ht="13"/>
+    <row r="793" ht="13"/>
+    <row r="794" ht="13"/>
+    <row r="795" ht="13"/>
+    <row r="796" ht="13"/>
+    <row r="797" ht="13"/>
+    <row r="798" ht="13"/>
+    <row r="799" ht="13"/>
+    <row r="800" ht="13"/>
+    <row r="801" ht="13"/>
+    <row r="802" ht="13"/>
+    <row r="803" ht="13"/>
+    <row r="804" ht="13"/>
+    <row r="805" ht="13"/>
+    <row r="806" ht="13"/>
+    <row r="807" ht="13"/>
+    <row r="808" ht="13"/>
+    <row r="809" ht="13"/>
+    <row r="810" ht="13"/>
+    <row r="811" ht="13"/>
+    <row r="812" ht="13"/>
+    <row r="813" ht="13"/>
+    <row r="814" ht="13"/>
+    <row r="815" ht="13"/>
+    <row r="816" ht="13"/>
+    <row r="817" ht="13"/>
+    <row r="818" ht="13"/>
+    <row r="819" ht="13"/>
+    <row r="820" ht="13"/>
+    <row r="821" ht="13"/>
+    <row r="822" ht="13"/>
+    <row r="823" ht="13"/>
+    <row r="824" ht="13"/>
+    <row r="825" ht="13"/>
+    <row r="826" ht="13"/>
+    <row r="827" ht="13"/>
+    <row r="828" ht="13"/>
+    <row r="829" ht="13"/>
+    <row r="830" ht="13"/>
+    <row r="831" ht="13"/>
+    <row r="832" ht="13"/>
+    <row r="833" ht="13"/>
+    <row r="834" ht="13"/>
+    <row r="835" ht="13"/>
+    <row r="836" ht="13"/>
+    <row r="837" ht="13"/>
+    <row r="838" ht="13"/>
+    <row r="839" ht="13"/>
+    <row r="840" ht="13"/>
+    <row r="841" ht="13"/>
+    <row r="842" ht="13"/>
+    <row r="843" ht="13"/>
+    <row r="844" ht="13"/>
+    <row r="845" ht="13"/>
+    <row r="846" ht="13"/>
+    <row r="847" ht="13"/>
+    <row r="848" ht="13"/>
+    <row r="849" ht="13"/>
+    <row r="850" ht="13"/>
+    <row r="851" ht="13"/>
+    <row r="852" ht="13"/>
+    <row r="853" ht="13"/>
+    <row r="854" ht="13"/>
+    <row r="855" ht="13"/>
+    <row r="856" ht="13"/>
+    <row r="857" ht="13"/>
+    <row r="858" ht="13"/>
+    <row r="859" ht="13"/>
+    <row r="860" ht="13"/>
+    <row r="861" ht="13"/>
+    <row r="862" ht="13"/>
+    <row r="863" ht="13"/>
+    <row r="864" ht="13"/>
+    <row r="865" ht="13"/>
+    <row r="866" ht="13"/>
+    <row r="867" ht="13"/>
+    <row r="868" ht="13"/>
+    <row r="869" ht="13"/>
+    <row r="870" ht="13"/>
+    <row r="871" ht="13"/>
+    <row r="872" ht="13"/>
+    <row r="873" ht="13"/>
+    <row r="874" ht="13"/>
+    <row r="875" ht="13"/>
+    <row r="876" ht="13"/>
+    <row r="877" ht="13"/>
+    <row r="878" ht="13"/>
+    <row r="879" ht="13"/>
+    <row r="880" ht="13"/>
+    <row r="881" ht="13"/>
+    <row r="882" ht="13"/>
+    <row r="883" ht="13"/>
+    <row r="884" ht="13"/>
+    <row r="885" ht="13"/>
+    <row r="886" ht="13"/>
+    <row r="887" ht="13"/>
+    <row r="888" ht="13"/>
+    <row r="889" ht="13"/>
+    <row r="890" ht="13"/>
+    <row r="891" ht="13"/>
+    <row r="892" ht="13"/>
+    <row r="893" ht="13"/>
+    <row r="894" ht="13"/>
+    <row r="895" ht="13"/>
+    <row r="896" ht="13"/>
+    <row r="897" ht="13"/>
+    <row r="898" ht="13"/>
+    <row r="899" ht="13"/>
+    <row r="900" ht="13"/>
+    <row r="901" ht="13"/>
+    <row r="902" ht="13"/>
+    <row r="903" ht="13"/>
+    <row r="904" ht="13"/>
+    <row r="905" ht="13"/>
+    <row r="906" ht="13"/>
+    <row r="907" ht="13"/>
+    <row r="908" ht="13"/>
+    <row r="909" ht="13"/>
+    <row r="910" ht="13"/>
+    <row r="911" ht="13"/>
+    <row r="912" ht="13"/>
+    <row r="913" ht="13"/>
+    <row r="914" ht="13"/>
+    <row r="915" ht="13"/>
+    <row r="916" ht="13"/>
+    <row r="917" ht="13"/>
+    <row r="918" ht="13"/>
+    <row r="919" ht="13"/>
+    <row r="920" ht="13"/>
+    <row r="921" ht="13"/>
+    <row r="922" ht="13"/>
+    <row r="923" ht="13"/>
+    <row r="924" ht="13"/>
+    <row r="925" ht="13"/>
+    <row r="926" ht="13"/>
+    <row r="927" ht="13"/>
+    <row r="928" ht="13"/>
+    <row r="929" ht="13"/>
+    <row r="930" ht="13"/>
+    <row r="931" ht="13"/>
+    <row r="932" ht="13"/>
+    <row r="933" ht="13"/>
+    <row r="934" ht="13"/>
+    <row r="935" ht="13"/>
+    <row r="936" ht="13"/>
+    <row r="937" ht="13"/>
+    <row r="938" ht="13"/>
+    <row r="939" ht="13"/>
+    <row r="940" ht="13"/>
+    <row r="941" ht="13"/>
+    <row r="942" ht="13"/>
+    <row r="943" ht="13"/>
+    <row r="944" ht="13"/>
+    <row r="945" ht="13"/>
+    <row r="946" ht="13"/>
+    <row r="947" ht="13"/>
+    <row r="948" ht="13"/>
+    <row r="949" ht="13"/>
+    <row r="950" ht="13"/>
+    <row r="951" ht="13"/>
+    <row r="952" ht="13"/>
+    <row r="953" ht="13"/>
+    <row r="954" ht="13"/>
+    <row r="955" ht="13"/>
+    <row r="956" ht="13"/>
+    <row r="957" ht="13"/>
+    <row r="958" ht="13"/>
+    <row r="959" ht="13"/>
+    <row r="960" ht="13"/>
+    <row r="961" ht="13"/>
+    <row r="962" ht="13"/>
+    <row r="963" ht="13"/>
+    <row r="964" ht="13"/>
+    <row r="965" ht="13"/>
+    <row r="966" ht="13"/>
+    <row r="967" ht="13"/>
+    <row r="968" ht="13"/>
+    <row r="969" ht="13"/>
+    <row r="970" ht="13"/>
+    <row r="971" ht="13"/>
+    <row r="972" ht="13"/>
+    <row r="973" ht="13"/>
+    <row r="974" ht="13"/>
+    <row r="975" ht="13"/>
+    <row r="976" ht="13"/>
+    <row r="977" ht="13"/>
+    <row r="978" ht="13"/>
+    <row r="979" ht="13"/>
+    <row r="980" ht="13"/>
+    <row r="981" ht="13"/>
+    <row r="982" ht="13"/>
+    <row r="983" ht="13"/>
+    <row r="984" ht="13"/>
+    <row r="985" ht="13"/>
+    <row r="986" ht="13"/>
+    <row r="987" ht="13"/>
+    <row r="988" ht="13"/>
+    <row r="989" ht="13"/>
+    <row r="990" ht="13"/>
+    <row r="991" ht="13"/>
+    <row r="992" ht="13"/>
+    <row r="993" ht="13"/>
+    <row r="994" ht="13"/>
+    <row r="995" ht="13"/>
+    <row r="996" ht="13"/>
+    <row r="997" ht="13"/>
+    <row r="998" ht="13"/>
+    <row r="999" ht="13"/>
   </sheetData>
-  <autoFilter ref="A1:Q115"/>
+  <autoFilter ref="A1:Q115" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <extLst>
@@ -5506,7 +5518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5514,7 +5526,7 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
@@ -5531,7 +5543,7 @@
     <col min="16" max="16" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14">
+    <row r="1" spans="1:16" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5581,7 +5593,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="14">
+    <row r="2" spans="1:16" ht="15">
       <c r="A2" s="2" t="s">
         <v>171</v>
       </c>
@@ -5607,7 +5619,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14">
+    <row r="3" spans="1:16" ht="15">
       <c r="A3" s="2" t="s">
         <v>171</v>
       </c>
@@ -5633,55 +5645,55 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="13">
+    <row r="4" spans="1:16" ht="14">
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:16" ht="13">
+    <row r="5" spans="1:16" ht="14">
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:16" ht="13">
+    <row r="6" spans="1:16" ht="14">
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:16" ht="13">
+    <row r="7" spans="1:16" ht="14">
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:16" ht="13">
+    <row r="8" spans="1:16" ht="14">
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:16" ht="13">
+    <row r="9" spans="1:16" ht="14">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:16" ht="13">
+    <row r="10" spans="1:16" ht="14">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:16" ht="13">
+    <row r="11" spans="1:16" ht="14">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:16" ht="13">
+    <row r="12" spans="1:16" ht="14">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:16" ht="13">
+    <row r="13" spans="1:16" ht="14">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:16" ht="13">
+    <row r="14" spans="1:16" ht="14">
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:16" ht="13">
+    <row r="15" spans="1:16" ht="14">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:16" ht="13">
+    <row r="16" spans="1:16" ht="14">
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="2:2" ht="13">
+    <row r="17" spans="2:2" ht="14">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:2" ht="13">
+    <row r="18" spans="2:2" ht="14">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="2:2" ht="13">
+    <row r="19" spans="2:2" ht="14">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:2" ht="13">
+    <row r="20" spans="2:2" ht="14">
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="2:2" ht="15.75" customHeight="1">
@@ -6284,786 +6296,786 @@
     <row r="220" spans="2:2" ht="15.75" customHeight="1">
       <c r="B220" s="4"/>
     </row>
-    <row r="221" spans="2:2" ht="12"/>
-    <row r="222" spans="2:2" ht="12"/>
-    <row r="223" spans="2:2" ht="12"/>
-    <row r="224" spans="2:2" ht="12"/>
-    <row r="225" ht="12"/>
-    <row r="226" ht="12"/>
-    <row r="227" ht="12"/>
-    <row r="228" ht="12"/>
-    <row r="229" ht="12"/>
-    <row r="230" ht="12"/>
-    <row r="231" ht="12"/>
-    <row r="232" ht="12"/>
-    <row r="233" ht="12"/>
-    <row r="234" ht="12"/>
-    <row r="235" ht="12"/>
-    <row r="236" ht="12"/>
-    <row r="237" ht="12"/>
-    <row r="238" ht="12"/>
-    <row r="239" ht="12"/>
-    <row r="240" ht="12"/>
-    <row r="241" ht="12"/>
-    <row r="242" ht="12"/>
-    <row r="243" ht="12"/>
-    <row r="244" ht="12"/>
-    <row r="245" ht="12"/>
-    <row r="246" ht="12"/>
-    <row r="247" ht="12"/>
-    <row r="248" ht="12"/>
-    <row r="249" ht="12"/>
-    <row r="250" ht="12"/>
-    <row r="251" ht="12"/>
-    <row r="252" ht="12"/>
-    <row r="253" ht="12"/>
-    <row r="254" ht="12"/>
-    <row r="255" ht="12"/>
-    <row r="256" ht="12"/>
-    <row r="257" ht="12"/>
-    <row r="258" ht="12"/>
-    <row r="259" ht="12"/>
-    <row r="260" ht="12"/>
-    <row r="261" ht="12"/>
-    <row r="262" ht="12"/>
-    <row r="263" ht="12"/>
-    <row r="264" ht="12"/>
-    <row r="265" ht="12"/>
-    <row r="266" ht="12"/>
-    <row r="267" ht="12"/>
-    <row r="268" ht="12"/>
-    <row r="269" ht="12"/>
-    <row r="270" ht="12"/>
-    <row r="271" ht="12"/>
-    <row r="272" ht="12"/>
-    <row r="273" ht="12"/>
-    <row r="274" ht="12"/>
-    <row r="275" ht="12"/>
-    <row r="276" ht="12"/>
-    <row r="277" ht="12"/>
-    <row r="278" ht="12"/>
-    <row r="279" ht="12"/>
-    <row r="280" ht="12"/>
-    <row r="281" ht="12"/>
-    <row r="282" ht="12"/>
-    <row r="283" ht="12"/>
-    <row r="284" ht="12"/>
-    <row r="285" ht="12"/>
-    <row r="286" ht="12"/>
-    <row r="287" ht="12"/>
-    <row r="288" ht="12"/>
-    <row r="289" ht="12"/>
-    <row r="290" ht="12"/>
-    <row r="291" ht="12"/>
-    <row r="292" ht="12"/>
-    <row r="293" ht="12"/>
-    <row r="294" ht="12"/>
-    <row r="295" ht="12"/>
-    <row r="296" ht="12"/>
-    <row r="297" ht="12"/>
-    <row r="298" ht="12"/>
-    <row r="299" ht="12"/>
-    <row r="300" ht="12"/>
-    <row r="301" ht="12"/>
-    <row r="302" ht="12"/>
-    <row r="303" ht="12"/>
-    <row r="304" ht="12"/>
-    <row r="305" ht="12"/>
-    <row r="306" ht="12"/>
-    <row r="307" ht="12"/>
-    <row r="308" ht="12"/>
-    <row r="309" ht="12"/>
-    <row r="310" ht="12"/>
-    <row r="311" ht="12"/>
-    <row r="312" ht="12"/>
-    <row r="313" ht="12"/>
-    <row r="314" ht="12"/>
-    <row r="315" ht="12"/>
-    <row r="316" ht="12"/>
-    <row r="317" ht="12"/>
-    <row r="318" ht="12"/>
-    <row r="319" ht="12"/>
-    <row r="320" ht="12"/>
-    <row r="321" ht="12"/>
-    <row r="322" ht="12"/>
-    <row r="323" ht="12"/>
-    <row r="324" ht="12"/>
-    <row r="325" ht="12"/>
-    <row r="326" ht="12"/>
-    <row r="327" ht="12"/>
-    <row r="328" ht="12"/>
-    <row r="329" ht="12"/>
-    <row r="330" ht="12"/>
-    <row r="331" ht="12"/>
-    <row r="332" ht="12"/>
-    <row r="333" ht="12"/>
-    <row r="334" ht="12"/>
-    <row r="335" ht="12"/>
-    <row r="336" ht="12"/>
-    <row r="337" ht="12"/>
-    <row r="338" ht="12"/>
-    <row r="339" ht="12"/>
-    <row r="340" ht="12"/>
-    <row r="341" ht="12"/>
-    <row r="342" ht="12"/>
-    <row r="343" ht="12"/>
-    <row r="344" ht="12"/>
-    <row r="345" ht="12"/>
-    <row r="346" ht="12"/>
-    <row r="347" ht="12"/>
-    <row r="348" ht="12"/>
-    <row r="349" ht="12"/>
-    <row r="350" ht="12"/>
-    <row r="351" ht="12"/>
-    <row r="352" ht="12"/>
-    <row r="353" ht="12"/>
-    <row r="354" ht="12"/>
-    <row r="355" ht="12"/>
-    <row r="356" ht="12"/>
-    <row r="357" ht="12"/>
-    <row r="358" ht="12"/>
-    <row r="359" ht="12"/>
-    <row r="360" ht="12"/>
-    <row r="361" ht="12"/>
-    <row r="362" ht="12"/>
-    <row r="363" ht="12"/>
-    <row r="364" ht="12"/>
-    <row r="365" ht="12"/>
-    <row r="366" ht="12"/>
-    <row r="367" ht="12"/>
-    <row r="368" ht="12"/>
-    <row r="369" ht="12"/>
-    <row r="370" ht="12"/>
-    <row r="371" ht="12"/>
-    <row r="372" ht="12"/>
-    <row r="373" ht="12"/>
-    <row r="374" ht="12"/>
-    <row r="375" ht="12"/>
-    <row r="376" ht="12"/>
-    <row r="377" ht="12"/>
-    <row r="378" ht="12"/>
-    <row r="379" ht="12"/>
-    <row r="380" ht="12"/>
-    <row r="381" ht="12"/>
-    <row r="382" ht="12"/>
-    <row r="383" ht="12"/>
-    <row r="384" ht="12"/>
-    <row r="385" ht="12"/>
-    <row r="386" ht="12"/>
-    <row r="387" ht="12"/>
-    <row r="388" ht="12"/>
-    <row r="389" ht="12"/>
-    <row r="390" ht="12"/>
-    <row r="391" ht="12"/>
-    <row r="392" ht="12"/>
-    <row r="393" ht="12"/>
-    <row r="394" ht="12"/>
-    <row r="395" ht="12"/>
-    <row r="396" ht="12"/>
-    <row r="397" ht="12"/>
-    <row r="398" ht="12"/>
-    <row r="399" ht="12"/>
-    <row r="400" ht="12"/>
-    <row r="401" ht="12"/>
-    <row r="402" ht="12"/>
-    <row r="403" ht="12"/>
-    <row r="404" ht="12"/>
-    <row r="405" ht="12"/>
-    <row r="406" ht="12"/>
-    <row r="407" ht="12"/>
-    <row r="408" ht="12"/>
-    <row r="409" ht="12"/>
-    <row r="410" ht="12"/>
-    <row r="411" ht="12"/>
-    <row r="412" ht="12"/>
-    <row r="413" ht="12"/>
-    <row r="414" ht="12"/>
-    <row r="415" ht="12"/>
-    <row r="416" ht="12"/>
-    <row r="417" ht="12"/>
-    <row r="418" ht="12"/>
-    <row r="419" ht="12"/>
-    <row r="420" ht="12"/>
-    <row r="421" ht="12"/>
-    <row r="422" ht="12"/>
-    <row r="423" ht="12"/>
-    <row r="424" ht="12"/>
-    <row r="425" ht="12"/>
-    <row r="426" ht="12"/>
-    <row r="427" ht="12"/>
-    <row r="428" ht="12"/>
-    <row r="429" ht="12"/>
-    <row r="430" ht="12"/>
-    <row r="431" ht="12"/>
-    <row r="432" ht="12"/>
-    <row r="433" ht="12"/>
-    <row r="434" ht="12"/>
-    <row r="435" ht="12"/>
-    <row r="436" ht="12"/>
-    <row r="437" ht="12"/>
-    <row r="438" ht="12"/>
-    <row r="439" ht="12"/>
-    <row r="440" ht="12"/>
-    <row r="441" ht="12"/>
-    <row r="442" ht="12"/>
-    <row r="443" ht="12"/>
-    <row r="444" ht="12"/>
-    <row r="445" ht="12"/>
-    <row r="446" ht="12"/>
-    <row r="447" ht="12"/>
-    <row r="448" ht="12"/>
-    <row r="449" ht="12"/>
-    <row r="450" ht="12"/>
-    <row r="451" ht="12"/>
-    <row r="452" ht="12"/>
-    <row r="453" ht="12"/>
-    <row r="454" ht="12"/>
-    <row r="455" ht="12"/>
-    <row r="456" ht="12"/>
-    <row r="457" ht="12"/>
-    <row r="458" ht="12"/>
-    <row r="459" ht="12"/>
-    <row r="460" ht="12"/>
-    <row r="461" ht="12"/>
-    <row r="462" ht="12"/>
-    <row r="463" ht="12"/>
-    <row r="464" ht="12"/>
-    <row r="465" ht="12"/>
-    <row r="466" ht="12"/>
-    <row r="467" ht="12"/>
-    <row r="468" ht="12"/>
-    <row r="469" ht="12"/>
-    <row r="470" ht="12"/>
-    <row r="471" ht="12"/>
-    <row r="472" ht="12"/>
-    <row r="473" ht="12"/>
-    <row r="474" ht="12"/>
-    <row r="475" ht="12"/>
-    <row r="476" ht="12"/>
-    <row r="477" ht="12"/>
-    <row r="478" ht="12"/>
-    <row r="479" ht="12"/>
-    <row r="480" ht="12"/>
-    <row r="481" ht="12"/>
-    <row r="482" ht="12"/>
-    <row r="483" ht="12"/>
-    <row r="484" ht="12"/>
-    <row r="485" ht="12"/>
-    <row r="486" ht="12"/>
-    <row r="487" ht="12"/>
-    <row r="488" ht="12"/>
-    <row r="489" ht="12"/>
-    <row r="490" ht="12"/>
-    <row r="491" ht="12"/>
-    <row r="492" ht="12"/>
-    <row r="493" ht="12"/>
-    <row r="494" ht="12"/>
-    <row r="495" ht="12"/>
-    <row r="496" ht="12"/>
-    <row r="497" ht="12"/>
-    <row r="498" ht="12"/>
-    <row r="499" ht="12"/>
-    <row r="500" ht="12"/>
-    <row r="501" ht="12"/>
-    <row r="502" ht="12"/>
-    <row r="503" ht="12"/>
-    <row r="504" ht="12"/>
-    <row r="505" ht="12"/>
-    <row r="506" ht="12"/>
-    <row r="507" ht="12"/>
-    <row r="508" ht="12"/>
-    <row r="509" ht="12"/>
-    <row r="510" ht="12"/>
-    <row r="511" ht="12"/>
-    <row r="512" ht="12"/>
-    <row r="513" ht="12"/>
-    <row r="514" ht="12"/>
-    <row r="515" ht="12"/>
-    <row r="516" ht="12"/>
-    <row r="517" ht="12"/>
-    <row r="518" ht="12"/>
-    <row r="519" ht="12"/>
-    <row r="520" ht="12"/>
-    <row r="521" ht="12"/>
-    <row r="522" ht="12"/>
-    <row r="523" ht="12"/>
-    <row r="524" ht="12"/>
-    <row r="525" ht="12"/>
-    <row r="526" ht="12"/>
-    <row r="527" ht="12"/>
-    <row r="528" ht="12"/>
-    <row r="529" ht="12"/>
-    <row r="530" ht="12"/>
-    <row r="531" ht="12"/>
-    <row r="532" ht="12"/>
-    <row r="533" ht="12"/>
-    <row r="534" ht="12"/>
-    <row r="535" ht="12"/>
-    <row r="536" ht="12"/>
-    <row r="537" ht="12"/>
-    <row r="538" ht="12"/>
-    <row r="539" ht="12"/>
-    <row r="540" ht="12"/>
-    <row r="541" ht="12"/>
-    <row r="542" ht="12"/>
-    <row r="543" ht="12"/>
-    <row r="544" ht="12"/>
-    <row r="545" ht="12"/>
-    <row r="546" ht="12"/>
-    <row r="547" ht="12"/>
-    <row r="548" ht="12"/>
-    <row r="549" ht="12"/>
-    <row r="550" ht="12"/>
-    <row r="551" ht="12"/>
-    <row r="552" ht="12"/>
-    <row r="553" ht="12"/>
-    <row r="554" ht="12"/>
-    <row r="555" ht="12"/>
-    <row r="556" ht="12"/>
-    <row r="557" ht="12"/>
-    <row r="558" ht="12"/>
-    <row r="559" ht="12"/>
-    <row r="560" ht="12"/>
-    <row r="561" ht="12"/>
-    <row r="562" ht="12"/>
-    <row r="563" ht="12"/>
-    <row r="564" ht="12"/>
-    <row r="565" ht="12"/>
-    <row r="566" ht="12"/>
-    <row r="567" ht="12"/>
-    <row r="568" ht="12"/>
-    <row r="569" ht="12"/>
-    <row r="570" ht="12"/>
-    <row r="571" ht="12"/>
-    <row r="572" ht="12"/>
-    <row r="573" ht="12"/>
-    <row r="574" ht="12"/>
-    <row r="575" ht="12"/>
-    <row r="576" ht="12"/>
-    <row r="577" ht="12"/>
-    <row r="578" ht="12"/>
-    <row r="579" ht="12"/>
-    <row r="580" ht="12"/>
-    <row r="581" ht="12"/>
-    <row r="582" ht="12"/>
-    <row r="583" ht="12"/>
-    <row r="584" ht="12"/>
-    <row r="585" ht="12"/>
-    <row r="586" ht="12"/>
-    <row r="587" ht="12"/>
-    <row r="588" ht="12"/>
-    <row r="589" ht="12"/>
-    <row r="590" ht="12"/>
-    <row r="591" ht="12"/>
-    <row r="592" ht="12"/>
-    <row r="593" ht="12"/>
-    <row r="594" ht="12"/>
-    <row r="595" ht="12"/>
-    <row r="596" ht="12"/>
-    <row r="597" ht="12"/>
-    <row r="598" ht="12"/>
-    <row r="599" ht="12"/>
-    <row r="600" ht="12"/>
-    <row r="601" ht="12"/>
-    <row r="602" ht="12"/>
-    <row r="603" ht="12"/>
-    <row r="604" ht="12"/>
-    <row r="605" ht="12"/>
-    <row r="606" ht="12"/>
-    <row r="607" ht="12"/>
-    <row r="608" ht="12"/>
-    <row r="609" ht="12"/>
-    <row r="610" ht="12"/>
-    <row r="611" ht="12"/>
-    <row r="612" ht="12"/>
-    <row r="613" ht="12"/>
-    <row r="614" ht="12"/>
-    <row r="615" ht="12"/>
-    <row r="616" ht="12"/>
-    <row r="617" ht="12"/>
-    <row r="618" ht="12"/>
-    <row r="619" ht="12"/>
-    <row r="620" ht="12"/>
-    <row r="621" ht="12"/>
-    <row r="622" ht="12"/>
-    <row r="623" ht="12"/>
-    <row r="624" ht="12"/>
-    <row r="625" ht="12"/>
-    <row r="626" ht="12"/>
-    <row r="627" ht="12"/>
-    <row r="628" ht="12"/>
-    <row r="629" ht="12"/>
-    <row r="630" ht="12"/>
-    <row r="631" ht="12"/>
-    <row r="632" ht="12"/>
-    <row r="633" ht="12"/>
-    <row r="634" ht="12"/>
-    <row r="635" ht="12"/>
-    <row r="636" ht="12"/>
-    <row r="637" ht="12"/>
-    <row r="638" ht="12"/>
-    <row r="639" ht="12"/>
-    <row r="640" ht="12"/>
-    <row r="641" ht="12"/>
-    <row r="642" ht="12"/>
-    <row r="643" ht="12"/>
-    <row r="644" ht="12"/>
-    <row r="645" ht="12"/>
-    <row r="646" ht="12"/>
-    <row r="647" ht="12"/>
-    <row r="648" ht="12"/>
-    <row r="649" ht="12"/>
-    <row r="650" ht="12"/>
-    <row r="651" ht="12"/>
-    <row r="652" ht="12"/>
-    <row r="653" ht="12"/>
-    <row r="654" ht="12"/>
-    <row r="655" ht="12"/>
-    <row r="656" ht="12"/>
-    <row r="657" ht="12"/>
-    <row r="658" ht="12"/>
-    <row r="659" ht="12"/>
-    <row r="660" ht="12"/>
-    <row r="661" ht="12"/>
-    <row r="662" ht="12"/>
-    <row r="663" ht="12"/>
-    <row r="664" ht="12"/>
-    <row r="665" ht="12"/>
-    <row r="666" ht="12"/>
-    <row r="667" ht="12"/>
-    <row r="668" ht="12"/>
-    <row r="669" ht="12"/>
-    <row r="670" ht="12"/>
-    <row r="671" ht="12"/>
-    <row r="672" ht="12"/>
-    <row r="673" ht="12"/>
-    <row r="674" ht="12"/>
-    <row r="675" ht="12"/>
-    <row r="676" ht="12"/>
-    <row r="677" ht="12"/>
-    <row r="678" ht="12"/>
-    <row r="679" ht="12"/>
-    <row r="680" ht="12"/>
-    <row r="681" ht="12"/>
-    <row r="682" ht="12"/>
-    <row r="683" ht="12"/>
-    <row r="684" ht="12"/>
-    <row r="685" ht="12"/>
-    <row r="686" ht="12"/>
-    <row r="687" ht="12"/>
-    <row r="688" ht="12"/>
-    <row r="689" ht="12"/>
-    <row r="690" ht="12"/>
-    <row r="691" ht="12"/>
-    <row r="692" ht="12"/>
-    <row r="693" ht="12"/>
-    <row r="694" ht="12"/>
-    <row r="695" ht="12"/>
-    <row r="696" ht="12"/>
-    <row r="697" ht="12"/>
-    <row r="698" ht="12"/>
-    <row r="699" ht="12"/>
-    <row r="700" ht="12"/>
-    <row r="701" ht="12"/>
-    <row r="702" ht="12"/>
-    <row r="703" ht="12"/>
-    <row r="704" ht="12"/>
-    <row r="705" ht="12"/>
-    <row r="706" ht="12"/>
-    <row r="707" ht="12"/>
-    <row r="708" ht="12"/>
-    <row r="709" ht="12"/>
-    <row r="710" ht="12"/>
-    <row r="711" ht="12"/>
-    <row r="712" ht="12"/>
-    <row r="713" ht="12"/>
-    <row r="714" ht="12"/>
-    <row r="715" ht="12"/>
-    <row r="716" ht="12"/>
-    <row r="717" ht="12"/>
-    <row r="718" ht="12"/>
-    <row r="719" ht="12"/>
-    <row r="720" ht="12"/>
-    <row r="721" ht="12"/>
-    <row r="722" ht="12"/>
-    <row r="723" ht="12"/>
-    <row r="724" ht="12"/>
-    <row r="725" ht="12"/>
-    <row r="726" ht="12"/>
-    <row r="727" ht="12"/>
-    <row r="728" ht="12"/>
-    <row r="729" ht="12"/>
-    <row r="730" ht="12"/>
-    <row r="731" ht="12"/>
-    <row r="732" ht="12"/>
-    <row r="733" ht="12"/>
-    <row r="734" ht="12"/>
-    <row r="735" ht="12"/>
-    <row r="736" ht="12"/>
-    <row r="737" ht="12"/>
-    <row r="738" ht="12"/>
-    <row r="739" ht="12"/>
-    <row r="740" ht="12"/>
-    <row r="741" ht="12"/>
-    <row r="742" ht="12"/>
-    <row r="743" ht="12"/>
-    <row r="744" ht="12"/>
-    <row r="745" ht="12"/>
-    <row r="746" ht="12"/>
-    <row r="747" ht="12"/>
-    <row r="748" ht="12"/>
-    <row r="749" ht="12"/>
-    <row r="750" ht="12"/>
-    <row r="751" ht="12"/>
-    <row r="752" ht="12"/>
-    <row r="753" ht="12"/>
-    <row r="754" ht="12"/>
-    <row r="755" ht="12"/>
-    <row r="756" ht="12"/>
-    <row r="757" ht="12"/>
-    <row r="758" ht="12"/>
-    <row r="759" ht="12"/>
-    <row r="760" ht="12"/>
-    <row r="761" ht="12"/>
-    <row r="762" ht="12"/>
-    <row r="763" ht="12"/>
-    <row r="764" ht="12"/>
-    <row r="765" ht="12"/>
-    <row r="766" ht="12"/>
-    <row r="767" ht="12"/>
-    <row r="768" ht="12"/>
-    <row r="769" ht="12"/>
-    <row r="770" ht="12"/>
-    <row r="771" ht="12"/>
-    <row r="772" ht="12"/>
-    <row r="773" ht="12"/>
-    <row r="774" ht="12"/>
-    <row r="775" ht="12"/>
-    <row r="776" ht="12"/>
-    <row r="777" ht="12"/>
-    <row r="778" ht="12"/>
-    <row r="779" ht="12"/>
-    <row r="780" ht="12"/>
-    <row r="781" ht="12"/>
-    <row r="782" ht="12"/>
-    <row r="783" ht="12"/>
-    <row r="784" ht="12"/>
-    <row r="785" ht="12"/>
-    <row r="786" ht="12"/>
-    <row r="787" ht="12"/>
-    <row r="788" ht="12"/>
-    <row r="789" ht="12"/>
-    <row r="790" ht="12"/>
-    <row r="791" ht="12"/>
-    <row r="792" ht="12"/>
-    <row r="793" ht="12"/>
-    <row r="794" ht="12"/>
-    <row r="795" ht="12"/>
-    <row r="796" ht="12"/>
-    <row r="797" ht="12"/>
-    <row r="798" ht="12"/>
-    <row r="799" ht="12"/>
-    <row r="800" ht="12"/>
-    <row r="801" ht="12"/>
-    <row r="802" ht="12"/>
-    <row r="803" ht="12"/>
-    <row r="804" ht="12"/>
-    <row r="805" ht="12"/>
-    <row r="806" ht="12"/>
-    <row r="807" ht="12"/>
-    <row r="808" ht="12"/>
-    <row r="809" ht="12"/>
-    <row r="810" ht="12"/>
-    <row r="811" ht="12"/>
-    <row r="812" ht="12"/>
-    <row r="813" ht="12"/>
-    <row r="814" ht="12"/>
-    <row r="815" ht="12"/>
-    <row r="816" ht="12"/>
-    <row r="817" ht="12"/>
-    <row r="818" ht="12"/>
-    <row r="819" ht="12"/>
-    <row r="820" ht="12"/>
-    <row r="821" ht="12"/>
-    <row r="822" ht="12"/>
-    <row r="823" ht="12"/>
-    <row r="824" ht="12"/>
-    <row r="825" ht="12"/>
-    <row r="826" ht="12"/>
-    <row r="827" ht="12"/>
-    <row r="828" ht="12"/>
-    <row r="829" ht="12"/>
-    <row r="830" ht="12"/>
-    <row r="831" ht="12"/>
-    <row r="832" ht="12"/>
-    <row r="833" ht="12"/>
-    <row r="834" ht="12"/>
-    <row r="835" ht="12"/>
-    <row r="836" ht="12"/>
-    <row r="837" ht="12"/>
-    <row r="838" ht="12"/>
-    <row r="839" ht="12"/>
-    <row r="840" ht="12"/>
-    <row r="841" ht="12"/>
-    <row r="842" ht="12"/>
-    <row r="843" ht="12"/>
-    <row r="844" ht="12"/>
-    <row r="845" ht="12"/>
-    <row r="846" ht="12"/>
-    <row r="847" ht="12"/>
-    <row r="848" ht="12"/>
-    <row r="849" ht="12"/>
-    <row r="850" ht="12"/>
-    <row r="851" ht="12"/>
-    <row r="852" ht="12"/>
-    <row r="853" ht="12"/>
-    <row r="854" ht="12"/>
-    <row r="855" ht="12"/>
-    <row r="856" ht="12"/>
-    <row r="857" ht="12"/>
-    <row r="858" ht="12"/>
-    <row r="859" ht="12"/>
-    <row r="860" ht="12"/>
-    <row r="861" ht="12"/>
-    <row r="862" ht="12"/>
-    <row r="863" ht="12"/>
-    <row r="864" ht="12"/>
-    <row r="865" ht="12"/>
-    <row r="866" ht="12"/>
-    <row r="867" ht="12"/>
-    <row r="868" ht="12"/>
-    <row r="869" ht="12"/>
-    <row r="870" ht="12"/>
-    <row r="871" ht="12"/>
-    <row r="872" ht="12"/>
-    <row r="873" ht="12"/>
-    <row r="874" ht="12"/>
-    <row r="875" ht="12"/>
-    <row r="876" ht="12"/>
-    <row r="877" ht="12"/>
-    <row r="878" ht="12"/>
-    <row r="879" ht="12"/>
-    <row r="880" ht="12"/>
-    <row r="881" ht="12"/>
-    <row r="882" ht="12"/>
-    <row r="883" ht="12"/>
-    <row r="884" ht="12"/>
-    <row r="885" ht="12"/>
-    <row r="886" ht="12"/>
-    <row r="887" ht="12"/>
-    <row r="888" ht="12"/>
-    <row r="889" ht="12"/>
-    <row r="890" ht="12"/>
-    <row r="891" ht="12"/>
-    <row r="892" ht="12"/>
-    <row r="893" ht="12"/>
-    <row r="894" ht="12"/>
-    <row r="895" ht="12"/>
-    <row r="896" ht="12"/>
-    <row r="897" ht="12"/>
-    <row r="898" ht="12"/>
-    <row r="899" ht="12"/>
-    <row r="900" ht="12"/>
-    <row r="901" ht="12"/>
-    <row r="902" ht="12"/>
-    <row r="903" ht="12"/>
-    <row r="904" ht="12"/>
-    <row r="905" ht="12"/>
-    <row r="906" ht="12"/>
-    <row r="907" ht="12"/>
-    <row r="908" ht="12"/>
-    <row r="909" ht="12"/>
-    <row r="910" ht="12"/>
-    <row r="911" ht="12"/>
-    <row r="912" ht="12"/>
-    <row r="913" ht="12"/>
-    <row r="914" ht="12"/>
-    <row r="915" ht="12"/>
-    <row r="916" ht="12"/>
-    <row r="917" ht="12"/>
-    <row r="918" ht="12"/>
-    <row r="919" ht="12"/>
-    <row r="920" ht="12"/>
-    <row r="921" ht="12"/>
-    <row r="922" ht="12"/>
-    <row r="923" ht="12"/>
-    <row r="924" ht="12"/>
-    <row r="925" ht="12"/>
-    <row r="926" ht="12"/>
-    <row r="927" ht="12"/>
-    <row r="928" ht="12"/>
-    <row r="929" ht="12"/>
-    <row r="930" ht="12"/>
-    <row r="931" ht="12"/>
-    <row r="932" ht="12"/>
-    <row r="933" ht="12"/>
-    <row r="934" ht="12"/>
-    <row r="935" ht="12"/>
-    <row r="936" ht="12"/>
-    <row r="937" ht="12"/>
-    <row r="938" ht="12"/>
-    <row r="939" ht="12"/>
-    <row r="940" ht="12"/>
-    <row r="941" ht="12"/>
-    <row r="942" ht="12"/>
-    <row r="943" ht="12"/>
-    <row r="944" ht="12"/>
-    <row r="945" ht="12"/>
-    <row r="946" ht="12"/>
-    <row r="947" ht="12"/>
-    <row r="948" ht="12"/>
-    <row r="949" ht="12"/>
-    <row r="950" ht="12"/>
-    <row r="951" ht="12"/>
-    <row r="952" ht="12"/>
-    <row r="953" ht="12"/>
-    <row r="954" ht="12"/>
-    <row r="955" ht="12"/>
-    <row r="956" ht="12"/>
-    <row r="957" ht="12"/>
-    <row r="958" ht="12"/>
-    <row r="959" ht="12"/>
-    <row r="960" ht="12"/>
-    <row r="961" ht="12"/>
-    <row r="962" ht="12"/>
-    <row r="963" ht="12"/>
-    <row r="964" ht="12"/>
-    <row r="965" ht="12"/>
-    <row r="966" ht="12"/>
-    <row r="967" ht="12"/>
-    <row r="968" ht="12"/>
-    <row r="969" ht="12"/>
-    <row r="970" ht="12"/>
-    <row r="971" ht="12"/>
-    <row r="972" ht="12"/>
-    <row r="973" ht="12"/>
-    <row r="974" ht="12"/>
-    <row r="975" ht="12"/>
-    <row r="976" ht="12"/>
-    <row r="977" ht="12"/>
-    <row r="978" ht="12"/>
-    <row r="979" ht="12"/>
-    <row r="980" ht="12"/>
-    <row r="981" ht="12"/>
-    <row r="982" ht="12"/>
-    <row r="983" ht="12"/>
-    <row r="984" ht="12"/>
-    <row r="985" ht="12"/>
-    <row r="986" ht="12"/>
-    <row r="987" ht="12"/>
-    <row r="988" ht="12"/>
-    <row r="989" ht="12"/>
-    <row r="990" ht="12"/>
-    <row r="991" ht="12"/>
-    <row r="992" ht="12"/>
-    <row r="993" ht="12"/>
-    <row r="994" ht="12"/>
-    <row r="995" ht="12"/>
-    <row r="996" ht="12"/>
-    <row r="997" ht="12"/>
-    <row r="998" ht="12"/>
-    <row r="999" ht="12"/>
-    <row r="1000" ht="12"/>
+    <row r="221" spans="2:2" ht="13"/>
+    <row r="222" spans="2:2" ht="13"/>
+    <row r="223" spans="2:2" ht="13"/>
+    <row r="224" spans="2:2" ht="13"/>
+    <row r="225" ht="13"/>
+    <row r="226" ht="13"/>
+    <row r="227" ht="13"/>
+    <row r="228" ht="13"/>
+    <row r="229" ht="13"/>
+    <row r="230" ht="13"/>
+    <row r="231" ht="13"/>
+    <row r="232" ht="13"/>
+    <row r="233" ht="13"/>
+    <row r="234" ht="13"/>
+    <row r="235" ht="13"/>
+    <row r="236" ht="13"/>
+    <row r="237" ht="13"/>
+    <row r="238" ht="13"/>
+    <row r="239" ht="13"/>
+    <row r="240" ht="13"/>
+    <row r="241" ht="13"/>
+    <row r="242" ht="13"/>
+    <row r="243" ht="13"/>
+    <row r="244" ht="13"/>
+    <row r="245" ht="13"/>
+    <row r="246" ht="13"/>
+    <row r="247" ht="13"/>
+    <row r="248" ht="13"/>
+    <row r="249" ht="13"/>
+    <row r="250" ht="13"/>
+    <row r="251" ht="13"/>
+    <row r="252" ht="13"/>
+    <row r="253" ht="13"/>
+    <row r="254" ht="13"/>
+    <row r="255" ht="13"/>
+    <row r="256" ht="13"/>
+    <row r="257" ht="13"/>
+    <row r="258" ht="13"/>
+    <row r="259" ht="13"/>
+    <row r="260" ht="13"/>
+    <row r="261" ht="13"/>
+    <row r="262" ht="13"/>
+    <row r="263" ht="13"/>
+    <row r="264" ht="13"/>
+    <row r="265" ht="13"/>
+    <row r="266" ht="13"/>
+    <row r="267" ht="13"/>
+    <row r="268" ht="13"/>
+    <row r="269" ht="13"/>
+    <row r="270" ht="13"/>
+    <row r="271" ht="13"/>
+    <row r="272" ht="13"/>
+    <row r="273" ht="13"/>
+    <row r="274" ht="13"/>
+    <row r="275" ht="13"/>
+    <row r="276" ht="13"/>
+    <row r="277" ht="13"/>
+    <row r="278" ht="13"/>
+    <row r="279" ht="13"/>
+    <row r="280" ht="13"/>
+    <row r="281" ht="13"/>
+    <row r="282" ht="13"/>
+    <row r="283" ht="13"/>
+    <row r="284" ht="13"/>
+    <row r="285" ht="13"/>
+    <row r="286" ht="13"/>
+    <row r="287" ht="13"/>
+    <row r="288" ht="13"/>
+    <row r="289" ht="13"/>
+    <row r="290" ht="13"/>
+    <row r="291" ht="13"/>
+    <row r="292" ht="13"/>
+    <row r="293" ht="13"/>
+    <row r="294" ht="13"/>
+    <row r="295" ht="13"/>
+    <row r="296" ht="13"/>
+    <row r="297" ht="13"/>
+    <row r="298" ht="13"/>
+    <row r="299" ht="13"/>
+    <row r="300" ht="13"/>
+    <row r="301" ht="13"/>
+    <row r="302" ht="13"/>
+    <row r="303" ht="13"/>
+    <row r="304" ht="13"/>
+    <row r="305" ht="13"/>
+    <row r="306" ht="13"/>
+    <row r="307" ht="13"/>
+    <row r="308" ht="13"/>
+    <row r="309" ht="13"/>
+    <row r="310" ht="13"/>
+    <row r="311" ht="13"/>
+    <row r="312" ht="13"/>
+    <row r="313" ht="13"/>
+    <row r="314" ht="13"/>
+    <row r="315" ht="13"/>
+    <row r="316" ht="13"/>
+    <row r="317" ht="13"/>
+    <row r="318" ht="13"/>
+    <row r="319" ht="13"/>
+    <row r="320" ht="13"/>
+    <row r="321" ht="13"/>
+    <row r="322" ht="13"/>
+    <row r="323" ht="13"/>
+    <row r="324" ht="13"/>
+    <row r="325" ht="13"/>
+    <row r="326" ht="13"/>
+    <row r="327" ht="13"/>
+    <row r="328" ht="13"/>
+    <row r="329" ht="13"/>
+    <row r="330" ht="13"/>
+    <row r="331" ht="13"/>
+    <row r="332" ht="13"/>
+    <row r="333" ht="13"/>
+    <row r="334" ht="13"/>
+    <row r="335" ht="13"/>
+    <row r="336" ht="13"/>
+    <row r="337" ht="13"/>
+    <row r="338" ht="13"/>
+    <row r="339" ht="13"/>
+    <row r="340" ht="13"/>
+    <row r="341" ht="13"/>
+    <row r="342" ht="13"/>
+    <row r="343" ht="13"/>
+    <row r="344" ht="13"/>
+    <row r="345" ht="13"/>
+    <row r="346" ht="13"/>
+    <row r="347" ht="13"/>
+    <row r="348" ht="13"/>
+    <row r="349" ht="13"/>
+    <row r="350" ht="13"/>
+    <row r="351" ht="13"/>
+    <row r="352" ht="13"/>
+    <row r="353" ht="13"/>
+    <row r="354" ht="13"/>
+    <row r="355" ht="13"/>
+    <row r="356" ht="13"/>
+    <row r="357" ht="13"/>
+    <row r="358" ht="13"/>
+    <row r="359" ht="13"/>
+    <row r="360" ht="13"/>
+    <row r="361" ht="13"/>
+    <row r="362" ht="13"/>
+    <row r="363" ht="13"/>
+    <row r="364" ht="13"/>
+    <row r="365" ht="13"/>
+    <row r="366" ht="13"/>
+    <row r="367" ht="13"/>
+    <row r="368" ht="13"/>
+    <row r="369" ht="13"/>
+    <row r="370" ht="13"/>
+    <row r="371" ht="13"/>
+    <row r="372" ht="13"/>
+    <row r="373" ht="13"/>
+    <row r="374" ht="13"/>
+    <row r="375" ht="13"/>
+    <row r="376" ht="13"/>
+    <row r="377" ht="13"/>
+    <row r="378" ht="13"/>
+    <row r="379" ht="13"/>
+    <row r="380" ht="13"/>
+    <row r="381" ht="13"/>
+    <row r="382" ht="13"/>
+    <row r="383" ht="13"/>
+    <row r="384" ht="13"/>
+    <row r="385" ht="13"/>
+    <row r="386" ht="13"/>
+    <row r="387" ht="13"/>
+    <row r="388" ht="13"/>
+    <row r="389" ht="13"/>
+    <row r="390" ht="13"/>
+    <row r="391" ht="13"/>
+    <row r="392" ht="13"/>
+    <row r="393" ht="13"/>
+    <row r="394" ht="13"/>
+    <row r="395" ht="13"/>
+    <row r="396" ht="13"/>
+    <row r="397" ht="13"/>
+    <row r="398" ht="13"/>
+    <row r="399" ht="13"/>
+    <row r="400" ht="13"/>
+    <row r="401" ht="13"/>
+    <row r="402" ht="13"/>
+    <row r="403" ht="13"/>
+    <row r="404" ht="13"/>
+    <row r="405" ht="13"/>
+    <row r="406" ht="13"/>
+    <row r="407" ht="13"/>
+    <row r="408" ht="13"/>
+    <row r="409" ht="13"/>
+    <row r="410" ht="13"/>
+    <row r="411" ht="13"/>
+    <row r="412" ht="13"/>
+    <row r="413" ht="13"/>
+    <row r="414" ht="13"/>
+    <row r="415" ht="13"/>
+    <row r="416" ht="13"/>
+    <row r="417" ht="13"/>
+    <row r="418" ht="13"/>
+    <row r="419" ht="13"/>
+    <row r="420" ht="13"/>
+    <row r="421" ht="13"/>
+    <row r="422" ht="13"/>
+    <row r="423" ht="13"/>
+    <row r="424" ht="13"/>
+    <row r="425" ht="13"/>
+    <row r="426" ht="13"/>
+    <row r="427" ht="13"/>
+    <row r="428" ht="13"/>
+    <row r="429" ht="13"/>
+    <row r="430" ht="13"/>
+    <row r="431" ht="13"/>
+    <row r="432" ht="13"/>
+    <row r="433" ht="13"/>
+    <row r="434" ht="13"/>
+    <row r="435" ht="13"/>
+    <row r="436" ht="13"/>
+    <row r="437" ht="13"/>
+    <row r="438" ht="13"/>
+    <row r="439" ht="13"/>
+    <row r="440" ht="13"/>
+    <row r="441" ht="13"/>
+    <row r="442" ht="13"/>
+    <row r="443" ht="13"/>
+    <row r="444" ht="13"/>
+    <row r="445" ht="13"/>
+    <row r="446" ht="13"/>
+    <row r="447" ht="13"/>
+    <row r="448" ht="13"/>
+    <row r="449" ht="13"/>
+    <row r="450" ht="13"/>
+    <row r="451" ht="13"/>
+    <row r="452" ht="13"/>
+    <row r="453" ht="13"/>
+    <row r="454" ht="13"/>
+    <row r="455" ht="13"/>
+    <row r="456" ht="13"/>
+    <row r="457" ht="13"/>
+    <row r="458" ht="13"/>
+    <row r="459" ht="13"/>
+    <row r="460" ht="13"/>
+    <row r="461" ht="13"/>
+    <row r="462" ht="13"/>
+    <row r="463" ht="13"/>
+    <row r="464" ht="13"/>
+    <row r="465" ht="13"/>
+    <row r="466" ht="13"/>
+    <row r="467" ht="13"/>
+    <row r="468" ht="13"/>
+    <row r="469" ht="13"/>
+    <row r="470" ht="13"/>
+    <row r="471" ht="13"/>
+    <row r="472" ht="13"/>
+    <row r="473" ht="13"/>
+    <row r="474" ht="13"/>
+    <row r="475" ht="13"/>
+    <row r="476" ht="13"/>
+    <row r="477" ht="13"/>
+    <row r="478" ht="13"/>
+    <row r="479" ht="13"/>
+    <row r="480" ht="13"/>
+    <row r="481" ht="13"/>
+    <row r="482" ht="13"/>
+    <row r="483" ht="13"/>
+    <row r="484" ht="13"/>
+    <row r="485" ht="13"/>
+    <row r="486" ht="13"/>
+    <row r="487" ht="13"/>
+    <row r="488" ht="13"/>
+    <row r="489" ht="13"/>
+    <row r="490" ht="13"/>
+    <row r="491" ht="13"/>
+    <row r="492" ht="13"/>
+    <row r="493" ht="13"/>
+    <row r="494" ht="13"/>
+    <row r="495" ht="13"/>
+    <row r="496" ht="13"/>
+    <row r="497" ht="13"/>
+    <row r="498" ht="13"/>
+    <row r="499" ht="13"/>
+    <row r="500" ht="13"/>
+    <row r="501" ht="13"/>
+    <row r="502" ht="13"/>
+    <row r="503" ht="13"/>
+    <row r="504" ht="13"/>
+    <row r="505" ht="13"/>
+    <row r="506" ht="13"/>
+    <row r="507" ht="13"/>
+    <row r="508" ht="13"/>
+    <row r="509" ht="13"/>
+    <row r="510" ht="13"/>
+    <row r="511" ht="13"/>
+    <row r="512" ht="13"/>
+    <row r="513" ht="13"/>
+    <row r="514" ht="13"/>
+    <row r="515" ht="13"/>
+    <row r="516" ht="13"/>
+    <row r="517" ht="13"/>
+    <row r="518" ht="13"/>
+    <row r="519" ht="13"/>
+    <row r="520" ht="13"/>
+    <row r="521" ht="13"/>
+    <row r="522" ht="13"/>
+    <row r="523" ht="13"/>
+    <row r="524" ht="13"/>
+    <row r="525" ht="13"/>
+    <row r="526" ht="13"/>
+    <row r="527" ht="13"/>
+    <row r="528" ht="13"/>
+    <row r="529" ht="13"/>
+    <row r="530" ht="13"/>
+    <row r="531" ht="13"/>
+    <row r="532" ht="13"/>
+    <row r="533" ht="13"/>
+    <row r="534" ht="13"/>
+    <row r="535" ht="13"/>
+    <row r="536" ht="13"/>
+    <row r="537" ht="13"/>
+    <row r="538" ht="13"/>
+    <row r="539" ht="13"/>
+    <row r="540" ht="13"/>
+    <row r="541" ht="13"/>
+    <row r="542" ht="13"/>
+    <row r="543" ht="13"/>
+    <row r="544" ht="13"/>
+    <row r="545" ht="13"/>
+    <row r="546" ht="13"/>
+    <row r="547" ht="13"/>
+    <row r="548" ht="13"/>
+    <row r="549" ht="13"/>
+    <row r="550" ht="13"/>
+    <row r="551" ht="13"/>
+    <row r="552" ht="13"/>
+    <row r="553" ht="13"/>
+    <row r="554" ht="13"/>
+    <row r="555" ht="13"/>
+    <row r="556" ht="13"/>
+    <row r="557" ht="13"/>
+    <row r="558" ht="13"/>
+    <row r="559" ht="13"/>
+    <row r="560" ht="13"/>
+    <row r="561" ht="13"/>
+    <row r="562" ht="13"/>
+    <row r="563" ht="13"/>
+    <row r="564" ht="13"/>
+    <row r="565" ht="13"/>
+    <row r="566" ht="13"/>
+    <row r="567" ht="13"/>
+    <row r="568" ht="13"/>
+    <row r="569" ht="13"/>
+    <row r="570" ht="13"/>
+    <row r="571" ht="13"/>
+    <row r="572" ht="13"/>
+    <row r="573" ht="13"/>
+    <row r="574" ht="13"/>
+    <row r="575" ht="13"/>
+    <row r="576" ht="13"/>
+    <row r="577" ht="13"/>
+    <row r="578" ht="13"/>
+    <row r="579" ht="13"/>
+    <row r="580" ht="13"/>
+    <row r="581" ht="13"/>
+    <row r="582" ht="13"/>
+    <row r="583" ht="13"/>
+    <row r="584" ht="13"/>
+    <row r="585" ht="13"/>
+    <row r="586" ht="13"/>
+    <row r="587" ht="13"/>
+    <row r="588" ht="13"/>
+    <row r="589" ht="13"/>
+    <row r="590" ht="13"/>
+    <row r="591" ht="13"/>
+    <row r="592" ht="13"/>
+    <row r="593" ht="13"/>
+    <row r="594" ht="13"/>
+    <row r="595" ht="13"/>
+    <row r="596" ht="13"/>
+    <row r="597" ht="13"/>
+    <row r="598" ht="13"/>
+    <row r="599" ht="13"/>
+    <row r="600" ht="13"/>
+    <row r="601" ht="13"/>
+    <row r="602" ht="13"/>
+    <row r="603" ht="13"/>
+    <row r="604" ht="13"/>
+    <row r="605" ht="13"/>
+    <row r="606" ht="13"/>
+    <row r="607" ht="13"/>
+    <row r="608" ht="13"/>
+    <row r="609" ht="13"/>
+    <row r="610" ht="13"/>
+    <row r="611" ht="13"/>
+    <row r="612" ht="13"/>
+    <row r="613" ht="13"/>
+    <row r="614" ht="13"/>
+    <row r="615" ht="13"/>
+    <row r="616" ht="13"/>
+    <row r="617" ht="13"/>
+    <row r="618" ht="13"/>
+    <row r="619" ht="13"/>
+    <row r="620" ht="13"/>
+    <row r="621" ht="13"/>
+    <row r="622" ht="13"/>
+    <row r="623" ht="13"/>
+    <row r="624" ht="13"/>
+    <row r="625" ht="13"/>
+    <row r="626" ht="13"/>
+    <row r="627" ht="13"/>
+    <row r="628" ht="13"/>
+    <row r="629" ht="13"/>
+    <row r="630" ht="13"/>
+    <row r="631" ht="13"/>
+    <row r="632" ht="13"/>
+    <row r="633" ht="13"/>
+    <row r="634" ht="13"/>
+    <row r="635" ht="13"/>
+    <row r="636" ht="13"/>
+    <row r="637" ht="13"/>
+    <row r="638" ht="13"/>
+    <row r="639" ht="13"/>
+    <row r="640" ht="13"/>
+    <row r="641" ht="13"/>
+    <row r="642" ht="13"/>
+    <row r="643" ht="13"/>
+    <row r="644" ht="13"/>
+    <row r="645" ht="13"/>
+    <row r="646" ht="13"/>
+    <row r="647" ht="13"/>
+    <row r="648" ht="13"/>
+    <row r="649" ht="13"/>
+    <row r="650" ht="13"/>
+    <row r="651" ht="13"/>
+    <row r="652" ht="13"/>
+    <row r="653" ht="13"/>
+    <row r="654" ht="13"/>
+    <row r="655" ht="13"/>
+    <row r="656" ht="13"/>
+    <row r="657" ht="13"/>
+    <row r="658" ht="13"/>
+    <row r="659" ht="13"/>
+    <row r="660" ht="13"/>
+    <row r="661" ht="13"/>
+    <row r="662" ht="13"/>
+    <row r="663" ht="13"/>
+    <row r="664" ht="13"/>
+    <row r="665" ht="13"/>
+    <row r="666" ht="13"/>
+    <row r="667" ht="13"/>
+    <row r="668" ht="13"/>
+    <row r="669" ht="13"/>
+    <row r="670" ht="13"/>
+    <row r="671" ht="13"/>
+    <row r="672" ht="13"/>
+    <row r="673" ht="13"/>
+    <row r="674" ht="13"/>
+    <row r="675" ht="13"/>
+    <row r="676" ht="13"/>
+    <row r="677" ht="13"/>
+    <row r="678" ht="13"/>
+    <row r="679" ht="13"/>
+    <row r="680" ht="13"/>
+    <row r="681" ht="13"/>
+    <row r="682" ht="13"/>
+    <row r="683" ht="13"/>
+    <row r="684" ht="13"/>
+    <row r="685" ht="13"/>
+    <row r="686" ht="13"/>
+    <row r="687" ht="13"/>
+    <row r="688" ht="13"/>
+    <row r="689" ht="13"/>
+    <row r="690" ht="13"/>
+    <row r="691" ht="13"/>
+    <row r="692" ht="13"/>
+    <row r="693" ht="13"/>
+    <row r="694" ht="13"/>
+    <row r="695" ht="13"/>
+    <row r="696" ht="13"/>
+    <row r="697" ht="13"/>
+    <row r="698" ht="13"/>
+    <row r="699" ht="13"/>
+    <row r="700" ht="13"/>
+    <row r="701" ht="13"/>
+    <row r="702" ht="13"/>
+    <row r="703" ht="13"/>
+    <row r="704" ht="13"/>
+    <row r="705" ht="13"/>
+    <row r="706" ht="13"/>
+    <row r="707" ht="13"/>
+    <row r="708" ht="13"/>
+    <row r="709" ht="13"/>
+    <row r="710" ht="13"/>
+    <row r="711" ht="13"/>
+    <row r="712" ht="13"/>
+    <row r="713" ht="13"/>
+    <row r="714" ht="13"/>
+    <row r="715" ht="13"/>
+    <row r="716" ht="13"/>
+    <row r="717" ht="13"/>
+    <row r="718" ht="13"/>
+    <row r="719" ht="13"/>
+    <row r="720" ht="13"/>
+    <row r="721" ht="13"/>
+    <row r="722" ht="13"/>
+    <row r="723" ht="13"/>
+    <row r="724" ht="13"/>
+    <row r="725" ht="13"/>
+    <row r="726" ht="13"/>
+    <row r="727" ht="13"/>
+    <row r="728" ht="13"/>
+    <row r="729" ht="13"/>
+    <row r="730" ht="13"/>
+    <row r="731" ht="13"/>
+    <row r="732" ht="13"/>
+    <row r="733" ht="13"/>
+    <row r="734" ht="13"/>
+    <row r="735" ht="13"/>
+    <row r="736" ht="13"/>
+    <row r="737" ht="13"/>
+    <row r="738" ht="13"/>
+    <row r="739" ht="13"/>
+    <row r="740" ht="13"/>
+    <row r="741" ht="13"/>
+    <row r="742" ht="13"/>
+    <row r="743" ht="13"/>
+    <row r="744" ht="13"/>
+    <row r="745" ht="13"/>
+    <row r="746" ht="13"/>
+    <row r="747" ht="13"/>
+    <row r="748" ht="13"/>
+    <row r="749" ht="13"/>
+    <row r="750" ht="13"/>
+    <row r="751" ht="13"/>
+    <row r="752" ht="13"/>
+    <row r="753" ht="13"/>
+    <row r="754" ht="13"/>
+    <row r="755" ht="13"/>
+    <row r="756" ht="13"/>
+    <row r="757" ht="13"/>
+    <row r="758" ht="13"/>
+    <row r="759" ht="13"/>
+    <row r="760" ht="13"/>
+    <row r="761" ht="13"/>
+    <row r="762" ht="13"/>
+    <row r="763" ht="13"/>
+    <row r="764" ht="13"/>
+    <row r="765" ht="13"/>
+    <row r="766" ht="13"/>
+    <row r="767" ht="13"/>
+    <row r="768" ht="13"/>
+    <row r="769" ht="13"/>
+    <row r="770" ht="13"/>
+    <row r="771" ht="13"/>
+    <row r="772" ht="13"/>
+    <row r="773" ht="13"/>
+    <row r="774" ht="13"/>
+    <row r="775" ht="13"/>
+    <row r="776" ht="13"/>
+    <row r="777" ht="13"/>
+    <row r="778" ht="13"/>
+    <row r="779" ht="13"/>
+    <row r="780" ht="13"/>
+    <row r="781" ht="13"/>
+    <row r="782" ht="13"/>
+    <row r="783" ht="13"/>
+    <row r="784" ht="13"/>
+    <row r="785" ht="13"/>
+    <row r="786" ht="13"/>
+    <row r="787" ht="13"/>
+    <row r="788" ht="13"/>
+    <row r="789" ht="13"/>
+    <row r="790" ht="13"/>
+    <row r="791" ht="13"/>
+    <row r="792" ht="13"/>
+    <row r="793" ht="13"/>
+    <row r="794" ht="13"/>
+    <row r="795" ht="13"/>
+    <row r="796" ht="13"/>
+    <row r="797" ht="13"/>
+    <row r="798" ht="13"/>
+    <row r="799" ht="13"/>
+    <row r="800" ht="13"/>
+    <row r="801" ht="13"/>
+    <row r="802" ht="13"/>
+    <row r="803" ht="13"/>
+    <row r="804" ht="13"/>
+    <row r="805" ht="13"/>
+    <row r="806" ht="13"/>
+    <row r="807" ht="13"/>
+    <row r="808" ht="13"/>
+    <row r="809" ht="13"/>
+    <row r="810" ht="13"/>
+    <row r="811" ht="13"/>
+    <row r="812" ht="13"/>
+    <row r="813" ht="13"/>
+    <row r="814" ht="13"/>
+    <row r="815" ht="13"/>
+    <row r="816" ht="13"/>
+    <row r="817" ht="13"/>
+    <row r="818" ht="13"/>
+    <row r="819" ht="13"/>
+    <row r="820" ht="13"/>
+    <row r="821" ht="13"/>
+    <row r="822" ht="13"/>
+    <row r="823" ht="13"/>
+    <row r="824" ht="13"/>
+    <row r="825" ht="13"/>
+    <row r="826" ht="13"/>
+    <row r="827" ht="13"/>
+    <row r="828" ht="13"/>
+    <row r="829" ht="13"/>
+    <row r="830" ht="13"/>
+    <row r="831" ht="13"/>
+    <row r="832" ht="13"/>
+    <row r="833" ht="13"/>
+    <row r="834" ht="13"/>
+    <row r="835" ht="13"/>
+    <row r="836" ht="13"/>
+    <row r="837" ht="13"/>
+    <row r="838" ht="13"/>
+    <row r="839" ht="13"/>
+    <row r="840" ht="13"/>
+    <row r="841" ht="13"/>
+    <row r="842" ht="13"/>
+    <row r="843" ht="13"/>
+    <row r="844" ht="13"/>
+    <row r="845" ht="13"/>
+    <row r="846" ht="13"/>
+    <row r="847" ht="13"/>
+    <row r="848" ht="13"/>
+    <row r="849" ht="13"/>
+    <row r="850" ht="13"/>
+    <row r="851" ht="13"/>
+    <row r="852" ht="13"/>
+    <row r="853" ht="13"/>
+    <row r="854" ht="13"/>
+    <row r="855" ht="13"/>
+    <row r="856" ht="13"/>
+    <row r="857" ht="13"/>
+    <row r="858" ht="13"/>
+    <row r="859" ht="13"/>
+    <row r="860" ht="13"/>
+    <row r="861" ht="13"/>
+    <row r="862" ht="13"/>
+    <row r="863" ht="13"/>
+    <row r="864" ht="13"/>
+    <row r="865" ht="13"/>
+    <row r="866" ht="13"/>
+    <row r="867" ht="13"/>
+    <row r="868" ht="13"/>
+    <row r="869" ht="13"/>
+    <row r="870" ht="13"/>
+    <row r="871" ht="13"/>
+    <row r="872" ht="13"/>
+    <row r="873" ht="13"/>
+    <row r="874" ht="13"/>
+    <row r="875" ht="13"/>
+    <row r="876" ht="13"/>
+    <row r="877" ht="13"/>
+    <row r="878" ht="13"/>
+    <row r="879" ht="13"/>
+    <row r="880" ht="13"/>
+    <row r="881" ht="13"/>
+    <row r="882" ht="13"/>
+    <row r="883" ht="13"/>
+    <row r="884" ht="13"/>
+    <row r="885" ht="13"/>
+    <row r="886" ht="13"/>
+    <row r="887" ht="13"/>
+    <row r="888" ht="13"/>
+    <row r="889" ht="13"/>
+    <row r="890" ht="13"/>
+    <row r="891" ht="13"/>
+    <row r="892" ht="13"/>
+    <row r="893" ht="13"/>
+    <row r="894" ht="13"/>
+    <row r="895" ht="13"/>
+    <row r="896" ht="13"/>
+    <row r="897" ht="13"/>
+    <row r="898" ht="13"/>
+    <row r="899" ht="13"/>
+    <row r="900" ht="13"/>
+    <row r="901" ht="13"/>
+    <row r="902" ht="13"/>
+    <row r="903" ht="13"/>
+    <row r="904" ht="13"/>
+    <row r="905" ht="13"/>
+    <row r="906" ht="13"/>
+    <row r="907" ht="13"/>
+    <row r="908" ht="13"/>
+    <row r="909" ht="13"/>
+    <row r="910" ht="13"/>
+    <row r="911" ht="13"/>
+    <row r="912" ht="13"/>
+    <row r="913" ht="13"/>
+    <row r="914" ht="13"/>
+    <row r="915" ht="13"/>
+    <row r="916" ht="13"/>
+    <row r="917" ht="13"/>
+    <row r="918" ht="13"/>
+    <row r="919" ht="13"/>
+    <row r="920" ht="13"/>
+    <row r="921" ht="13"/>
+    <row r="922" ht="13"/>
+    <row r="923" ht="13"/>
+    <row r="924" ht="13"/>
+    <row r="925" ht="13"/>
+    <row r="926" ht="13"/>
+    <row r="927" ht="13"/>
+    <row r="928" ht="13"/>
+    <row r="929" ht="13"/>
+    <row r="930" ht="13"/>
+    <row r="931" ht="13"/>
+    <row r="932" ht="13"/>
+    <row r="933" ht="13"/>
+    <row r="934" ht="13"/>
+    <row r="935" ht="13"/>
+    <row r="936" ht="13"/>
+    <row r="937" ht="13"/>
+    <row r="938" ht="13"/>
+    <row r="939" ht="13"/>
+    <row r="940" ht="13"/>
+    <row r="941" ht="13"/>
+    <row r="942" ht="13"/>
+    <row r="943" ht="13"/>
+    <row r="944" ht="13"/>
+    <row r="945" ht="13"/>
+    <row r="946" ht="13"/>
+    <row r="947" ht="13"/>
+    <row r="948" ht="13"/>
+    <row r="949" ht="13"/>
+    <row r="950" ht="13"/>
+    <row r="951" ht="13"/>
+    <row r="952" ht="13"/>
+    <row r="953" ht="13"/>
+    <row r="954" ht="13"/>
+    <row r="955" ht="13"/>
+    <row r="956" ht="13"/>
+    <row r="957" ht="13"/>
+    <row r="958" ht="13"/>
+    <row r="959" ht="13"/>
+    <row r="960" ht="13"/>
+    <row r="961" ht="13"/>
+    <row r="962" ht="13"/>
+    <row r="963" ht="13"/>
+    <row r="964" ht="13"/>
+    <row r="965" ht="13"/>
+    <row r="966" ht="13"/>
+    <row r="967" ht="13"/>
+    <row r="968" ht="13"/>
+    <row r="969" ht="13"/>
+    <row r="970" ht="13"/>
+    <row r="971" ht="13"/>
+    <row r="972" ht="13"/>
+    <row r="973" ht="13"/>
+    <row r="974" ht="13"/>
+    <row r="975" ht="13"/>
+    <row r="976" ht="13"/>
+    <row r="977" ht="13"/>
+    <row r="978" ht="13"/>
+    <row r="979" ht="13"/>
+    <row r="980" ht="13"/>
+    <row r="981" ht="13"/>
+    <row r="982" ht="13"/>
+    <row r="983" ht="13"/>
+    <row r="984" ht="13"/>
+    <row r="985" ht="13"/>
+    <row r="986" ht="13"/>
+    <row r="987" ht="13"/>
+    <row r="988" ht="13"/>
+    <row r="989" ht="13"/>
+    <row r="990" ht="13"/>
+    <row r="991" ht="13"/>
+    <row r="992" ht="13"/>
+    <row r="993" ht="13"/>
+    <row r="994" ht="13"/>
+    <row r="995" ht="13"/>
+    <row r="996" ht="13"/>
+    <row r="997" ht="13"/>
+    <row r="998" ht="13"/>
+    <row r="999" ht="13"/>
+    <row r="1000" ht="13"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -7076,15 +7088,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
@@ -7106,7 +7118,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" ht="14">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -7118,7 +7130,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" ht="14">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -7130,7 +7142,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="14">
       <c r="A4" s="18">
         <v>26</v>
       </c>
@@ -7142,7 +7154,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="14">
       <c r="A5" s="18">
         <v>40</v>
       </c>
@@ -7154,7 +7166,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="14">
       <c r="A6" s="18">
         <v>41</v>
       </c>
@@ -7166,7 +7178,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="14">
       <c r="A7" s="20">
         <v>43</v>
       </c>
@@ -7178,7 +7190,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="14">
       <c r="A8" s="20">
         <v>45</v>
       </c>
@@ -7190,40 +7202,40 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13">
+    <row r="9" spans="1:4" ht="14">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="13">
+    <row r="10" spans="1:4" ht="14">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="13">
+    <row r="11" spans="1:4" ht="14">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="13">
+    <row r="12" spans="1:4" ht="14">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="13">
+    <row r="13" spans="1:4" ht="14">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="13">
+    <row r="14" spans="1:4" ht="14">
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="13">
+    <row r="15" spans="1:4" ht="14">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="13">
+    <row r="16" spans="1:4" ht="14">
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="2:2" ht="13">
+    <row r="17" spans="2:2" ht="14">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:2" ht="13">
+    <row r="18" spans="2:2" ht="14">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="2:2" ht="13">
+    <row r="19" spans="2:2" ht="14">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:2" ht="13">
+    <row r="20" spans="2:2" ht="14">
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="2:2" ht="15.75" customHeight="1">
@@ -7826,786 +7838,786 @@
     <row r="220" spans="2:2" ht="15.75" customHeight="1">
       <c r="B220" s="4"/>
     </row>
-    <row r="221" spans="2:2" ht="12"/>
-    <row r="222" spans="2:2" ht="12"/>
-    <row r="223" spans="2:2" ht="12"/>
-    <row r="224" spans="2:2" ht="12"/>
-    <row r="225" ht="12"/>
-    <row r="226" ht="12"/>
-    <row r="227" ht="12"/>
-    <row r="228" ht="12"/>
-    <row r="229" ht="12"/>
-    <row r="230" ht="12"/>
-    <row r="231" ht="12"/>
-    <row r="232" ht="12"/>
-    <row r="233" ht="12"/>
-    <row r="234" ht="12"/>
-    <row r="235" ht="12"/>
-    <row r="236" ht="12"/>
-    <row r="237" ht="12"/>
-    <row r="238" ht="12"/>
-    <row r="239" ht="12"/>
-    <row r="240" ht="12"/>
-    <row r="241" ht="12"/>
-    <row r="242" ht="12"/>
-    <row r="243" ht="12"/>
-    <row r="244" ht="12"/>
-    <row r="245" ht="12"/>
-    <row r="246" ht="12"/>
-    <row r="247" ht="12"/>
-    <row r="248" ht="12"/>
-    <row r="249" ht="12"/>
-    <row r="250" ht="12"/>
-    <row r="251" ht="12"/>
-    <row r="252" ht="12"/>
-    <row r="253" ht="12"/>
-    <row r="254" ht="12"/>
-    <row r="255" ht="12"/>
-    <row r="256" ht="12"/>
-    <row r="257" ht="12"/>
-    <row r="258" ht="12"/>
-    <row r="259" ht="12"/>
-    <row r="260" ht="12"/>
-    <row r="261" ht="12"/>
-    <row r="262" ht="12"/>
-    <row r="263" ht="12"/>
-    <row r="264" ht="12"/>
-    <row r="265" ht="12"/>
-    <row r="266" ht="12"/>
-    <row r="267" ht="12"/>
-    <row r="268" ht="12"/>
-    <row r="269" ht="12"/>
-    <row r="270" ht="12"/>
-    <row r="271" ht="12"/>
-    <row r="272" ht="12"/>
-    <row r="273" ht="12"/>
-    <row r="274" ht="12"/>
-    <row r="275" ht="12"/>
-    <row r="276" ht="12"/>
-    <row r="277" ht="12"/>
-    <row r="278" ht="12"/>
-    <row r="279" ht="12"/>
-    <row r="280" ht="12"/>
-    <row r="281" ht="12"/>
-    <row r="282" ht="12"/>
-    <row r="283" ht="12"/>
-    <row r="284" ht="12"/>
-    <row r="285" ht="12"/>
-    <row r="286" ht="12"/>
-    <row r="287" ht="12"/>
-    <row r="288" ht="12"/>
-    <row r="289" ht="12"/>
-    <row r="290" ht="12"/>
-    <row r="291" ht="12"/>
-    <row r="292" ht="12"/>
-    <row r="293" ht="12"/>
-    <row r="294" ht="12"/>
-    <row r="295" ht="12"/>
-    <row r="296" ht="12"/>
-    <row r="297" ht="12"/>
-    <row r="298" ht="12"/>
-    <row r="299" ht="12"/>
-    <row r="300" ht="12"/>
-    <row r="301" ht="12"/>
-    <row r="302" ht="12"/>
-    <row r="303" ht="12"/>
-    <row r="304" ht="12"/>
-    <row r="305" ht="12"/>
-    <row r="306" ht="12"/>
-    <row r="307" ht="12"/>
-    <row r="308" ht="12"/>
-    <row r="309" ht="12"/>
-    <row r="310" ht="12"/>
-    <row r="311" ht="12"/>
-    <row r="312" ht="12"/>
-    <row r="313" ht="12"/>
-    <row r="314" ht="12"/>
-    <row r="315" ht="12"/>
-    <row r="316" ht="12"/>
-    <row r="317" ht="12"/>
-    <row r="318" ht="12"/>
-    <row r="319" ht="12"/>
-    <row r="320" ht="12"/>
-    <row r="321" ht="12"/>
-    <row r="322" ht="12"/>
-    <row r="323" ht="12"/>
-    <row r="324" ht="12"/>
-    <row r="325" ht="12"/>
-    <row r="326" ht="12"/>
-    <row r="327" ht="12"/>
-    <row r="328" ht="12"/>
-    <row r="329" ht="12"/>
-    <row r="330" ht="12"/>
-    <row r="331" ht="12"/>
-    <row r="332" ht="12"/>
-    <row r="333" ht="12"/>
-    <row r="334" ht="12"/>
-    <row r="335" ht="12"/>
-    <row r="336" ht="12"/>
-    <row r="337" ht="12"/>
-    <row r="338" ht="12"/>
-    <row r="339" ht="12"/>
-    <row r="340" ht="12"/>
-    <row r="341" ht="12"/>
-    <row r="342" ht="12"/>
-    <row r="343" ht="12"/>
-    <row r="344" ht="12"/>
-    <row r="345" ht="12"/>
-    <row r="346" ht="12"/>
-    <row r="347" ht="12"/>
-    <row r="348" ht="12"/>
-    <row r="349" ht="12"/>
-    <row r="350" ht="12"/>
-    <row r="351" ht="12"/>
-    <row r="352" ht="12"/>
-    <row r="353" ht="12"/>
-    <row r="354" ht="12"/>
-    <row r="355" ht="12"/>
-    <row r="356" ht="12"/>
-    <row r="357" ht="12"/>
-    <row r="358" ht="12"/>
-    <row r="359" ht="12"/>
-    <row r="360" ht="12"/>
-    <row r="361" ht="12"/>
-    <row r="362" ht="12"/>
-    <row r="363" ht="12"/>
-    <row r="364" ht="12"/>
-    <row r="365" ht="12"/>
-    <row r="366" ht="12"/>
-    <row r="367" ht="12"/>
-    <row r="368" ht="12"/>
-    <row r="369" ht="12"/>
-    <row r="370" ht="12"/>
-    <row r="371" ht="12"/>
-    <row r="372" ht="12"/>
-    <row r="373" ht="12"/>
-    <row r="374" ht="12"/>
-    <row r="375" ht="12"/>
-    <row r="376" ht="12"/>
-    <row r="377" ht="12"/>
-    <row r="378" ht="12"/>
-    <row r="379" ht="12"/>
-    <row r="380" ht="12"/>
-    <row r="381" ht="12"/>
-    <row r="382" ht="12"/>
-    <row r="383" ht="12"/>
-    <row r="384" ht="12"/>
-    <row r="385" ht="12"/>
-    <row r="386" ht="12"/>
-    <row r="387" ht="12"/>
-    <row r="388" ht="12"/>
-    <row r="389" ht="12"/>
-    <row r="390" ht="12"/>
-    <row r="391" ht="12"/>
-    <row r="392" ht="12"/>
-    <row r="393" ht="12"/>
-    <row r="394" ht="12"/>
-    <row r="395" ht="12"/>
-    <row r="396" ht="12"/>
-    <row r="397" ht="12"/>
-    <row r="398" ht="12"/>
-    <row r="399" ht="12"/>
-    <row r="400" ht="12"/>
-    <row r="401" ht="12"/>
-    <row r="402" ht="12"/>
-    <row r="403" ht="12"/>
-    <row r="404" ht="12"/>
-    <row r="405" ht="12"/>
-    <row r="406" ht="12"/>
-    <row r="407" ht="12"/>
-    <row r="408" ht="12"/>
-    <row r="409" ht="12"/>
-    <row r="410" ht="12"/>
-    <row r="411" ht="12"/>
-    <row r="412" ht="12"/>
-    <row r="413" ht="12"/>
-    <row r="414" ht="12"/>
-    <row r="415" ht="12"/>
-    <row r="416" ht="12"/>
-    <row r="417" ht="12"/>
-    <row r="418" ht="12"/>
-    <row r="419" ht="12"/>
-    <row r="420" ht="12"/>
-    <row r="421" ht="12"/>
-    <row r="422" ht="12"/>
-    <row r="423" ht="12"/>
-    <row r="424" ht="12"/>
-    <row r="425" ht="12"/>
-    <row r="426" ht="12"/>
-    <row r="427" ht="12"/>
-    <row r="428" ht="12"/>
-    <row r="429" ht="12"/>
-    <row r="430" ht="12"/>
-    <row r="431" ht="12"/>
-    <row r="432" ht="12"/>
-    <row r="433" ht="12"/>
-    <row r="434" ht="12"/>
-    <row r="435" ht="12"/>
-    <row r="436" ht="12"/>
-    <row r="437" ht="12"/>
-    <row r="438" ht="12"/>
-    <row r="439" ht="12"/>
-    <row r="440" ht="12"/>
-    <row r="441" ht="12"/>
-    <row r="442" ht="12"/>
-    <row r="443" ht="12"/>
-    <row r="444" ht="12"/>
-    <row r="445" ht="12"/>
-    <row r="446" ht="12"/>
-    <row r="447" ht="12"/>
-    <row r="448" ht="12"/>
-    <row r="449" ht="12"/>
-    <row r="450" ht="12"/>
-    <row r="451" ht="12"/>
-    <row r="452" ht="12"/>
-    <row r="453" ht="12"/>
-    <row r="454" ht="12"/>
-    <row r="455" ht="12"/>
-    <row r="456" ht="12"/>
-    <row r="457" ht="12"/>
-    <row r="458" ht="12"/>
-    <row r="459" ht="12"/>
-    <row r="460" ht="12"/>
-    <row r="461" ht="12"/>
-    <row r="462" ht="12"/>
-    <row r="463" ht="12"/>
-    <row r="464" ht="12"/>
-    <row r="465" ht="12"/>
-    <row r="466" ht="12"/>
-    <row r="467" ht="12"/>
-    <row r="468" ht="12"/>
-    <row r="469" ht="12"/>
-    <row r="470" ht="12"/>
-    <row r="471" ht="12"/>
-    <row r="472" ht="12"/>
-    <row r="473" ht="12"/>
-    <row r="474" ht="12"/>
-    <row r="475" ht="12"/>
-    <row r="476" ht="12"/>
-    <row r="477" ht="12"/>
-    <row r="478" ht="12"/>
-    <row r="479" ht="12"/>
-    <row r="480" ht="12"/>
-    <row r="481" ht="12"/>
-    <row r="482" ht="12"/>
-    <row r="483" ht="12"/>
-    <row r="484" ht="12"/>
-    <row r="485" ht="12"/>
-    <row r="486" ht="12"/>
-    <row r="487" ht="12"/>
-    <row r="488" ht="12"/>
-    <row r="489" ht="12"/>
-    <row r="490" ht="12"/>
-    <row r="491" ht="12"/>
-    <row r="492" ht="12"/>
-    <row r="493" ht="12"/>
-    <row r="494" ht="12"/>
-    <row r="495" ht="12"/>
-    <row r="496" ht="12"/>
-    <row r="497" ht="12"/>
-    <row r="498" ht="12"/>
-    <row r="499" ht="12"/>
-    <row r="500" ht="12"/>
-    <row r="501" ht="12"/>
-    <row r="502" ht="12"/>
-    <row r="503" ht="12"/>
-    <row r="504" ht="12"/>
-    <row r="505" ht="12"/>
-    <row r="506" ht="12"/>
-    <row r="507" ht="12"/>
-    <row r="508" ht="12"/>
-    <row r="509" ht="12"/>
-    <row r="510" ht="12"/>
-    <row r="511" ht="12"/>
-    <row r="512" ht="12"/>
-    <row r="513" ht="12"/>
-    <row r="514" ht="12"/>
-    <row r="515" ht="12"/>
-    <row r="516" ht="12"/>
-    <row r="517" ht="12"/>
-    <row r="518" ht="12"/>
-    <row r="519" ht="12"/>
-    <row r="520" ht="12"/>
-    <row r="521" ht="12"/>
-    <row r="522" ht="12"/>
-    <row r="523" ht="12"/>
-    <row r="524" ht="12"/>
-    <row r="525" ht="12"/>
-    <row r="526" ht="12"/>
-    <row r="527" ht="12"/>
-    <row r="528" ht="12"/>
-    <row r="529" ht="12"/>
-    <row r="530" ht="12"/>
-    <row r="531" ht="12"/>
-    <row r="532" ht="12"/>
-    <row r="533" ht="12"/>
-    <row r="534" ht="12"/>
-    <row r="535" ht="12"/>
-    <row r="536" ht="12"/>
-    <row r="537" ht="12"/>
-    <row r="538" ht="12"/>
-    <row r="539" ht="12"/>
-    <row r="540" ht="12"/>
-    <row r="541" ht="12"/>
-    <row r="542" ht="12"/>
-    <row r="543" ht="12"/>
-    <row r="544" ht="12"/>
-    <row r="545" ht="12"/>
-    <row r="546" ht="12"/>
-    <row r="547" ht="12"/>
-    <row r="548" ht="12"/>
-    <row r="549" ht="12"/>
-    <row r="550" ht="12"/>
-    <row r="551" ht="12"/>
-    <row r="552" ht="12"/>
-    <row r="553" ht="12"/>
-    <row r="554" ht="12"/>
-    <row r="555" ht="12"/>
-    <row r="556" ht="12"/>
-    <row r="557" ht="12"/>
-    <row r="558" ht="12"/>
-    <row r="559" ht="12"/>
-    <row r="560" ht="12"/>
-    <row r="561" ht="12"/>
-    <row r="562" ht="12"/>
-    <row r="563" ht="12"/>
-    <row r="564" ht="12"/>
-    <row r="565" ht="12"/>
-    <row r="566" ht="12"/>
-    <row r="567" ht="12"/>
-    <row r="568" ht="12"/>
-    <row r="569" ht="12"/>
-    <row r="570" ht="12"/>
-    <row r="571" ht="12"/>
-    <row r="572" ht="12"/>
-    <row r="573" ht="12"/>
-    <row r="574" ht="12"/>
-    <row r="575" ht="12"/>
-    <row r="576" ht="12"/>
-    <row r="577" ht="12"/>
-    <row r="578" ht="12"/>
-    <row r="579" ht="12"/>
-    <row r="580" ht="12"/>
-    <row r="581" ht="12"/>
-    <row r="582" ht="12"/>
-    <row r="583" ht="12"/>
-    <row r="584" ht="12"/>
-    <row r="585" ht="12"/>
-    <row r="586" ht="12"/>
-    <row r="587" ht="12"/>
-    <row r="588" ht="12"/>
-    <row r="589" ht="12"/>
-    <row r="590" ht="12"/>
-    <row r="591" ht="12"/>
-    <row r="592" ht="12"/>
-    <row r="593" ht="12"/>
-    <row r="594" ht="12"/>
-    <row r="595" ht="12"/>
-    <row r="596" ht="12"/>
-    <row r="597" ht="12"/>
-    <row r="598" ht="12"/>
-    <row r="599" ht="12"/>
-    <row r="600" ht="12"/>
-    <row r="601" ht="12"/>
-    <row r="602" ht="12"/>
-    <row r="603" ht="12"/>
-    <row r="604" ht="12"/>
-    <row r="605" ht="12"/>
-    <row r="606" ht="12"/>
-    <row r="607" ht="12"/>
-    <row r="608" ht="12"/>
-    <row r="609" ht="12"/>
-    <row r="610" ht="12"/>
-    <row r="611" ht="12"/>
-    <row r="612" ht="12"/>
-    <row r="613" ht="12"/>
-    <row r="614" ht="12"/>
-    <row r="615" ht="12"/>
-    <row r="616" ht="12"/>
-    <row r="617" ht="12"/>
-    <row r="618" ht="12"/>
-    <row r="619" ht="12"/>
-    <row r="620" ht="12"/>
-    <row r="621" ht="12"/>
-    <row r="622" ht="12"/>
-    <row r="623" ht="12"/>
-    <row r="624" ht="12"/>
-    <row r="625" ht="12"/>
-    <row r="626" ht="12"/>
-    <row r="627" ht="12"/>
-    <row r="628" ht="12"/>
-    <row r="629" ht="12"/>
-    <row r="630" ht="12"/>
-    <row r="631" ht="12"/>
-    <row r="632" ht="12"/>
-    <row r="633" ht="12"/>
-    <row r="634" ht="12"/>
-    <row r="635" ht="12"/>
-    <row r="636" ht="12"/>
-    <row r="637" ht="12"/>
-    <row r="638" ht="12"/>
-    <row r="639" ht="12"/>
-    <row r="640" ht="12"/>
-    <row r="641" ht="12"/>
-    <row r="642" ht="12"/>
-    <row r="643" ht="12"/>
-    <row r="644" ht="12"/>
-    <row r="645" ht="12"/>
-    <row r="646" ht="12"/>
-    <row r="647" ht="12"/>
-    <row r="648" ht="12"/>
-    <row r="649" ht="12"/>
-    <row r="650" ht="12"/>
-    <row r="651" ht="12"/>
-    <row r="652" ht="12"/>
-    <row r="653" ht="12"/>
-    <row r="654" ht="12"/>
-    <row r="655" ht="12"/>
-    <row r="656" ht="12"/>
-    <row r="657" ht="12"/>
-    <row r="658" ht="12"/>
-    <row r="659" ht="12"/>
-    <row r="660" ht="12"/>
-    <row r="661" ht="12"/>
-    <row r="662" ht="12"/>
-    <row r="663" ht="12"/>
-    <row r="664" ht="12"/>
-    <row r="665" ht="12"/>
-    <row r="666" ht="12"/>
-    <row r="667" ht="12"/>
-    <row r="668" ht="12"/>
-    <row r="669" ht="12"/>
-    <row r="670" ht="12"/>
-    <row r="671" ht="12"/>
-    <row r="672" ht="12"/>
-    <row r="673" ht="12"/>
-    <row r="674" ht="12"/>
-    <row r="675" ht="12"/>
-    <row r="676" ht="12"/>
-    <row r="677" ht="12"/>
-    <row r="678" ht="12"/>
-    <row r="679" ht="12"/>
-    <row r="680" ht="12"/>
-    <row r="681" ht="12"/>
-    <row r="682" ht="12"/>
-    <row r="683" ht="12"/>
-    <row r="684" ht="12"/>
-    <row r="685" ht="12"/>
-    <row r="686" ht="12"/>
-    <row r="687" ht="12"/>
-    <row r="688" ht="12"/>
-    <row r="689" ht="12"/>
-    <row r="690" ht="12"/>
-    <row r="691" ht="12"/>
-    <row r="692" ht="12"/>
-    <row r="693" ht="12"/>
-    <row r="694" ht="12"/>
-    <row r="695" ht="12"/>
-    <row r="696" ht="12"/>
-    <row r="697" ht="12"/>
-    <row r="698" ht="12"/>
-    <row r="699" ht="12"/>
-    <row r="700" ht="12"/>
-    <row r="701" ht="12"/>
-    <row r="702" ht="12"/>
-    <row r="703" ht="12"/>
-    <row r="704" ht="12"/>
-    <row r="705" ht="12"/>
-    <row r="706" ht="12"/>
-    <row r="707" ht="12"/>
-    <row r="708" ht="12"/>
-    <row r="709" ht="12"/>
-    <row r="710" ht="12"/>
-    <row r="711" ht="12"/>
-    <row r="712" ht="12"/>
-    <row r="713" ht="12"/>
-    <row r="714" ht="12"/>
-    <row r="715" ht="12"/>
-    <row r="716" ht="12"/>
-    <row r="717" ht="12"/>
-    <row r="718" ht="12"/>
-    <row r="719" ht="12"/>
-    <row r="720" ht="12"/>
-    <row r="721" ht="12"/>
-    <row r="722" ht="12"/>
-    <row r="723" ht="12"/>
-    <row r="724" ht="12"/>
-    <row r="725" ht="12"/>
-    <row r="726" ht="12"/>
-    <row r="727" ht="12"/>
-    <row r="728" ht="12"/>
-    <row r="729" ht="12"/>
-    <row r="730" ht="12"/>
-    <row r="731" ht="12"/>
-    <row r="732" ht="12"/>
-    <row r="733" ht="12"/>
-    <row r="734" ht="12"/>
-    <row r="735" ht="12"/>
-    <row r="736" ht="12"/>
-    <row r="737" ht="12"/>
-    <row r="738" ht="12"/>
-    <row r="739" ht="12"/>
-    <row r="740" ht="12"/>
-    <row r="741" ht="12"/>
-    <row r="742" ht="12"/>
-    <row r="743" ht="12"/>
-    <row r="744" ht="12"/>
-    <row r="745" ht="12"/>
-    <row r="746" ht="12"/>
-    <row r="747" ht="12"/>
-    <row r="748" ht="12"/>
-    <row r="749" ht="12"/>
-    <row r="750" ht="12"/>
-    <row r="751" ht="12"/>
-    <row r="752" ht="12"/>
-    <row r="753" ht="12"/>
-    <row r="754" ht="12"/>
-    <row r="755" ht="12"/>
-    <row r="756" ht="12"/>
-    <row r="757" ht="12"/>
-    <row r="758" ht="12"/>
-    <row r="759" ht="12"/>
-    <row r="760" ht="12"/>
-    <row r="761" ht="12"/>
-    <row r="762" ht="12"/>
-    <row r="763" ht="12"/>
-    <row r="764" ht="12"/>
-    <row r="765" ht="12"/>
-    <row r="766" ht="12"/>
-    <row r="767" ht="12"/>
-    <row r="768" ht="12"/>
-    <row r="769" ht="12"/>
-    <row r="770" ht="12"/>
-    <row r="771" ht="12"/>
-    <row r="772" ht="12"/>
-    <row r="773" ht="12"/>
-    <row r="774" ht="12"/>
-    <row r="775" ht="12"/>
-    <row r="776" ht="12"/>
-    <row r="777" ht="12"/>
-    <row r="778" ht="12"/>
-    <row r="779" ht="12"/>
-    <row r="780" ht="12"/>
-    <row r="781" ht="12"/>
-    <row r="782" ht="12"/>
-    <row r="783" ht="12"/>
-    <row r="784" ht="12"/>
-    <row r="785" ht="12"/>
-    <row r="786" ht="12"/>
-    <row r="787" ht="12"/>
-    <row r="788" ht="12"/>
-    <row r="789" ht="12"/>
-    <row r="790" ht="12"/>
-    <row r="791" ht="12"/>
-    <row r="792" ht="12"/>
-    <row r="793" ht="12"/>
-    <row r="794" ht="12"/>
-    <row r="795" ht="12"/>
-    <row r="796" ht="12"/>
-    <row r="797" ht="12"/>
-    <row r="798" ht="12"/>
-    <row r="799" ht="12"/>
-    <row r="800" ht="12"/>
-    <row r="801" ht="12"/>
-    <row r="802" ht="12"/>
-    <row r="803" ht="12"/>
-    <row r="804" ht="12"/>
-    <row r="805" ht="12"/>
-    <row r="806" ht="12"/>
-    <row r="807" ht="12"/>
-    <row r="808" ht="12"/>
-    <row r="809" ht="12"/>
-    <row r="810" ht="12"/>
-    <row r="811" ht="12"/>
-    <row r="812" ht="12"/>
-    <row r="813" ht="12"/>
-    <row r="814" ht="12"/>
-    <row r="815" ht="12"/>
-    <row r="816" ht="12"/>
-    <row r="817" ht="12"/>
-    <row r="818" ht="12"/>
-    <row r="819" ht="12"/>
-    <row r="820" ht="12"/>
-    <row r="821" ht="12"/>
-    <row r="822" ht="12"/>
-    <row r="823" ht="12"/>
-    <row r="824" ht="12"/>
-    <row r="825" ht="12"/>
-    <row r="826" ht="12"/>
-    <row r="827" ht="12"/>
-    <row r="828" ht="12"/>
-    <row r="829" ht="12"/>
-    <row r="830" ht="12"/>
-    <row r="831" ht="12"/>
-    <row r="832" ht="12"/>
-    <row r="833" ht="12"/>
-    <row r="834" ht="12"/>
-    <row r="835" ht="12"/>
-    <row r="836" ht="12"/>
-    <row r="837" ht="12"/>
-    <row r="838" ht="12"/>
-    <row r="839" ht="12"/>
-    <row r="840" ht="12"/>
-    <row r="841" ht="12"/>
-    <row r="842" ht="12"/>
-    <row r="843" ht="12"/>
-    <row r="844" ht="12"/>
-    <row r="845" ht="12"/>
-    <row r="846" ht="12"/>
-    <row r="847" ht="12"/>
-    <row r="848" ht="12"/>
-    <row r="849" ht="12"/>
-    <row r="850" ht="12"/>
-    <row r="851" ht="12"/>
-    <row r="852" ht="12"/>
-    <row r="853" ht="12"/>
-    <row r="854" ht="12"/>
-    <row r="855" ht="12"/>
-    <row r="856" ht="12"/>
-    <row r="857" ht="12"/>
-    <row r="858" ht="12"/>
-    <row r="859" ht="12"/>
-    <row r="860" ht="12"/>
-    <row r="861" ht="12"/>
-    <row r="862" ht="12"/>
-    <row r="863" ht="12"/>
-    <row r="864" ht="12"/>
-    <row r="865" ht="12"/>
-    <row r="866" ht="12"/>
-    <row r="867" ht="12"/>
-    <row r="868" ht="12"/>
-    <row r="869" ht="12"/>
-    <row r="870" ht="12"/>
-    <row r="871" ht="12"/>
-    <row r="872" ht="12"/>
-    <row r="873" ht="12"/>
-    <row r="874" ht="12"/>
-    <row r="875" ht="12"/>
-    <row r="876" ht="12"/>
-    <row r="877" ht="12"/>
-    <row r="878" ht="12"/>
-    <row r="879" ht="12"/>
-    <row r="880" ht="12"/>
-    <row r="881" ht="12"/>
-    <row r="882" ht="12"/>
-    <row r="883" ht="12"/>
-    <row r="884" ht="12"/>
-    <row r="885" ht="12"/>
-    <row r="886" ht="12"/>
-    <row r="887" ht="12"/>
-    <row r="888" ht="12"/>
-    <row r="889" ht="12"/>
-    <row r="890" ht="12"/>
-    <row r="891" ht="12"/>
-    <row r="892" ht="12"/>
-    <row r="893" ht="12"/>
-    <row r="894" ht="12"/>
-    <row r="895" ht="12"/>
-    <row r="896" ht="12"/>
-    <row r="897" ht="12"/>
-    <row r="898" ht="12"/>
-    <row r="899" ht="12"/>
-    <row r="900" ht="12"/>
-    <row r="901" ht="12"/>
-    <row r="902" ht="12"/>
-    <row r="903" ht="12"/>
-    <row r="904" ht="12"/>
-    <row r="905" ht="12"/>
-    <row r="906" ht="12"/>
-    <row r="907" ht="12"/>
-    <row r="908" ht="12"/>
-    <row r="909" ht="12"/>
-    <row r="910" ht="12"/>
-    <row r="911" ht="12"/>
-    <row r="912" ht="12"/>
-    <row r="913" ht="12"/>
-    <row r="914" ht="12"/>
-    <row r="915" ht="12"/>
-    <row r="916" ht="12"/>
-    <row r="917" ht="12"/>
-    <row r="918" ht="12"/>
-    <row r="919" ht="12"/>
-    <row r="920" ht="12"/>
-    <row r="921" ht="12"/>
-    <row r="922" ht="12"/>
-    <row r="923" ht="12"/>
-    <row r="924" ht="12"/>
-    <row r="925" ht="12"/>
-    <row r="926" ht="12"/>
-    <row r="927" ht="12"/>
-    <row r="928" ht="12"/>
-    <row r="929" ht="12"/>
-    <row r="930" ht="12"/>
-    <row r="931" ht="12"/>
-    <row r="932" ht="12"/>
-    <row r="933" ht="12"/>
-    <row r="934" ht="12"/>
-    <row r="935" ht="12"/>
-    <row r="936" ht="12"/>
-    <row r="937" ht="12"/>
-    <row r="938" ht="12"/>
-    <row r="939" ht="12"/>
-    <row r="940" ht="12"/>
-    <row r="941" ht="12"/>
-    <row r="942" ht="12"/>
-    <row r="943" ht="12"/>
-    <row r="944" ht="12"/>
-    <row r="945" ht="12"/>
-    <row r="946" ht="12"/>
-    <row r="947" ht="12"/>
-    <row r="948" ht="12"/>
-    <row r="949" ht="12"/>
-    <row r="950" ht="12"/>
-    <row r="951" ht="12"/>
-    <row r="952" ht="12"/>
-    <row r="953" ht="12"/>
-    <row r="954" ht="12"/>
-    <row r="955" ht="12"/>
-    <row r="956" ht="12"/>
-    <row r="957" ht="12"/>
-    <row r="958" ht="12"/>
-    <row r="959" ht="12"/>
-    <row r="960" ht="12"/>
-    <row r="961" ht="12"/>
-    <row r="962" ht="12"/>
-    <row r="963" ht="12"/>
-    <row r="964" ht="12"/>
-    <row r="965" ht="12"/>
-    <row r="966" ht="12"/>
-    <row r="967" ht="12"/>
-    <row r="968" ht="12"/>
-    <row r="969" ht="12"/>
-    <row r="970" ht="12"/>
-    <row r="971" ht="12"/>
-    <row r="972" ht="12"/>
-    <row r="973" ht="12"/>
-    <row r="974" ht="12"/>
-    <row r="975" ht="12"/>
-    <row r="976" ht="12"/>
-    <row r="977" ht="12"/>
-    <row r="978" ht="12"/>
-    <row r="979" ht="12"/>
-    <row r="980" ht="12"/>
-    <row r="981" ht="12"/>
-    <row r="982" ht="12"/>
-    <row r="983" ht="12"/>
-    <row r="984" ht="12"/>
-    <row r="985" ht="12"/>
-    <row r="986" ht="12"/>
-    <row r="987" ht="12"/>
-    <row r="988" ht="12"/>
-    <row r="989" ht="12"/>
-    <row r="990" ht="12"/>
-    <row r="991" ht="12"/>
-    <row r="992" ht="12"/>
-    <row r="993" ht="12"/>
-    <row r="994" ht="12"/>
-    <row r="995" ht="12"/>
-    <row r="996" ht="12"/>
-    <row r="997" ht="12"/>
-    <row r="998" ht="12"/>
-    <row r="999" ht="12"/>
-    <row r="1000" ht="12"/>
+    <row r="221" spans="2:2" ht="13"/>
+    <row r="222" spans="2:2" ht="13"/>
+    <row r="223" spans="2:2" ht="13"/>
+    <row r="224" spans="2:2" ht="13"/>
+    <row r="225" ht="13"/>
+    <row r="226" ht="13"/>
+    <row r="227" ht="13"/>
+    <row r="228" ht="13"/>
+    <row r="229" ht="13"/>
+    <row r="230" ht="13"/>
+    <row r="231" ht="13"/>
+    <row r="232" ht="13"/>
+    <row r="233" ht="13"/>
+    <row r="234" ht="13"/>
+    <row r="235" ht="13"/>
+    <row r="236" ht="13"/>
+    <row r="237" ht="13"/>
+    <row r="238" ht="13"/>
+    <row r="239" ht="13"/>
+    <row r="240" ht="13"/>
+    <row r="241" ht="13"/>
+    <row r="242" ht="13"/>
+    <row r="243" ht="13"/>
+    <row r="244" ht="13"/>
+    <row r="245" ht="13"/>
+    <row r="246" ht="13"/>
+    <row r="247" ht="13"/>
+    <row r="248" ht="13"/>
+    <row r="249" ht="13"/>
+    <row r="250" ht="13"/>
+    <row r="251" ht="13"/>
+    <row r="252" ht="13"/>
+    <row r="253" ht="13"/>
+    <row r="254" ht="13"/>
+    <row r="255" ht="13"/>
+    <row r="256" ht="13"/>
+    <row r="257" ht="13"/>
+    <row r="258" ht="13"/>
+    <row r="259" ht="13"/>
+    <row r="260" ht="13"/>
+    <row r="261" ht="13"/>
+    <row r="262" ht="13"/>
+    <row r="263" ht="13"/>
+    <row r="264" ht="13"/>
+    <row r="265" ht="13"/>
+    <row r="266" ht="13"/>
+    <row r="267" ht="13"/>
+    <row r="268" ht="13"/>
+    <row r="269" ht="13"/>
+    <row r="270" ht="13"/>
+    <row r="271" ht="13"/>
+    <row r="272" ht="13"/>
+    <row r="273" ht="13"/>
+    <row r="274" ht="13"/>
+    <row r="275" ht="13"/>
+    <row r="276" ht="13"/>
+    <row r="277" ht="13"/>
+    <row r="278" ht="13"/>
+    <row r="279" ht="13"/>
+    <row r="280" ht="13"/>
+    <row r="281" ht="13"/>
+    <row r="282" ht="13"/>
+    <row r="283" ht="13"/>
+    <row r="284" ht="13"/>
+    <row r="285" ht="13"/>
+    <row r="286" ht="13"/>
+    <row r="287" ht="13"/>
+    <row r="288" ht="13"/>
+    <row r="289" ht="13"/>
+    <row r="290" ht="13"/>
+    <row r="291" ht="13"/>
+    <row r="292" ht="13"/>
+    <row r="293" ht="13"/>
+    <row r="294" ht="13"/>
+    <row r="295" ht="13"/>
+    <row r="296" ht="13"/>
+    <row r="297" ht="13"/>
+    <row r="298" ht="13"/>
+    <row r="299" ht="13"/>
+    <row r="300" ht="13"/>
+    <row r="301" ht="13"/>
+    <row r="302" ht="13"/>
+    <row r="303" ht="13"/>
+    <row r="304" ht="13"/>
+    <row r="305" ht="13"/>
+    <row r="306" ht="13"/>
+    <row r="307" ht="13"/>
+    <row r="308" ht="13"/>
+    <row r="309" ht="13"/>
+    <row r="310" ht="13"/>
+    <row r="311" ht="13"/>
+    <row r="312" ht="13"/>
+    <row r="313" ht="13"/>
+    <row r="314" ht="13"/>
+    <row r="315" ht="13"/>
+    <row r="316" ht="13"/>
+    <row r="317" ht="13"/>
+    <row r="318" ht="13"/>
+    <row r="319" ht="13"/>
+    <row r="320" ht="13"/>
+    <row r="321" ht="13"/>
+    <row r="322" ht="13"/>
+    <row r="323" ht="13"/>
+    <row r="324" ht="13"/>
+    <row r="325" ht="13"/>
+    <row r="326" ht="13"/>
+    <row r="327" ht="13"/>
+    <row r="328" ht="13"/>
+    <row r="329" ht="13"/>
+    <row r="330" ht="13"/>
+    <row r="331" ht="13"/>
+    <row r="332" ht="13"/>
+    <row r="333" ht="13"/>
+    <row r="334" ht="13"/>
+    <row r="335" ht="13"/>
+    <row r="336" ht="13"/>
+    <row r="337" ht="13"/>
+    <row r="338" ht="13"/>
+    <row r="339" ht="13"/>
+    <row r="340" ht="13"/>
+    <row r="341" ht="13"/>
+    <row r="342" ht="13"/>
+    <row r="343" ht="13"/>
+    <row r="344" ht="13"/>
+    <row r="345" ht="13"/>
+    <row r="346" ht="13"/>
+    <row r="347" ht="13"/>
+    <row r="348" ht="13"/>
+    <row r="349" ht="13"/>
+    <row r="350" ht="13"/>
+    <row r="351" ht="13"/>
+    <row r="352" ht="13"/>
+    <row r="353" ht="13"/>
+    <row r="354" ht="13"/>
+    <row r="355" ht="13"/>
+    <row r="356" ht="13"/>
+    <row r="357" ht="13"/>
+    <row r="358" ht="13"/>
+    <row r="359" ht="13"/>
+    <row r="360" ht="13"/>
+    <row r="361" ht="13"/>
+    <row r="362" ht="13"/>
+    <row r="363" ht="13"/>
+    <row r="364" ht="13"/>
+    <row r="365" ht="13"/>
+    <row r="366" ht="13"/>
+    <row r="367" ht="13"/>
+    <row r="368" ht="13"/>
+    <row r="369" ht="13"/>
+    <row r="370" ht="13"/>
+    <row r="371" ht="13"/>
+    <row r="372" ht="13"/>
+    <row r="373" ht="13"/>
+    <row r="374" ht="13"/>
+    <row r="375" ht="13"/>
+    <row r="376" ht="13"/>
+    <row r="377" ht="13"/>
+    <row r="378" ht="13"/>
+    <row r="379" ht="13"/>
+    <row r="380" ht="13"/>
+    <row r="381" ht="13"/>
+    <row r="382" ht="13"/>
+    <row r="383" ht="13"/>
+    <row r="384" ht="13"/>
+    <row r="385" ht="13"/>
+    <row r="386" ht="13"/>
+    <row r="387" ht="13"/>
+    <row r="388" ht="13"/>
+    <row r="389" ht="13"/>
+    <row r="390" ht="13"/>
+    <row r="391" ht="13"/>
+    <row r="392" ht="13"/>
+    <row r="393" ht="13"/>
+    <row r="394" ht="13"/>
+    <row r="395" ht="13"/>
+    <row r="396" ht="13"/>
+    <row r="397" ht="13"/>
+    <row r="398" ht="13"/>
+    <row r="399" ht="13"/>
+    <row r="400" ht="13"/>
+    <row r="401" ht="13"/>
+    <row r="402" ht="13"/>
+    <row r="403" ht="13"/>
+    <row r="404" ht="13"/>
+    <row r="405" ht="13"/>
+    <row r="406" ht="13"/>
+    <row r="407" ht="13"/>
+    <row r="408" ht="13"/>
+    <row r="409" ht="13"/>
+    <row r="410" ht="13"/>
+    <row r="411" ht="13"/>
+    <row r="412" ht="13"/>
+    <row r="413" ht="13"/>
+    <row r="414" ht="13"/>
+    <row r="415" ht="13"/>
+    <row r="416" ht="13"/>
+    <row r="417" ht="13"/>
+    <row r="418" ht="13"/>
+    <row r="419" ht="13"/>
+    <row r="420" ht="13"/>
+    <row r="421" ht="13"/>
+    <row r="422" ht="13"/>
+    <row r="423" ht="13"/>
+    <row r="424" ht="13"/>
+    <row r="425" ht="13"/>
+    <row r="426" ht="13"/>
+    <row r="427" ht="13"/>
+    <row r="428" ht="13"/>
+    <row r="429" ht="13"/>
+    <row r="430" ht="13"/>
+    <row r="431" ht="13"/>
+    <row r="432" ht="13"/>
+    <row r="433" ht="13"/>
+    <row r="434" ht="13"/>
+    <row r="435" ht="13"/>
+    <row r="436" ht="13"/>
+    <row r="437" ht="13"/>
+    <row r="438" ht="13"/>
+    <row r="439" ht="13"/>
+    <row r="440" ht="13"/>
+    <row r="441" ht="13"/>
+    <row r="442" ht="13"/>
+    <row r="443" ht="13"/>
+    <row r="444" ht="13"/>
+    <row r="445" ht="13"/>
+    <row r="446" ht="13"/>
+    <row r="447" ht="13"/>
+    <row r="448" ht="13"/>
+    <row r="449" ht="13"/>
+    <row r="450" ht="13"/>
+    <row r="451" ht="13"/>
+    <row r="452" ht="13"/>
+    <row r="453" ht="13"/>
+    <row r="454" ht="13"/>
+    <row r="455" ht="13"/>
+    <row r="456" ht="13"/>
+    <row r="457" ht="13"/>
+    <row r="458" ht="13"/>
+    <row r="459" ht="13"/>
+    <row r="460" ht="13"/>
+    <row r="461" ht="13"/>
+    <row r="462" ht="13"/>
+    <row r="463" ht="13"/>
+    <row r="464" ht="13"/>
+    <row r="465" ht="13"/>
+    <row r="466" ht="13"/>
+    <row r="467" ht="13"/>
+    <row r="468" ht="13"/>
+    <row r="469" ht="13"/>
+    <row r="470" ht="13"/>
+    <row r="471" ht="13"/>
+    <row r="472" ht="13"/>
+    <row r="473" ht="13"/>
+    <row r="474" ht="13"/>
+    <row r="475" ht="13"/>
+    <row r="476" ht="13"/>
+    <row r="477" ht="13"/>
+    <row r="478" ht="13"/>
+    <row r="479" ht="13"/>
+    <row r="480" ht="13"/>
+    <row r="481" ht="13"/>
+    <row r="482" ht="13"/>
+    <row r="483" ht="13"/>
+    <row r="484" ht="13"/>
+    <row r="485" ht="13"/>
+    <row r="486" ht="13"/>
+    <row r="487" ht="13"/>
+    <row r="488" ht="13"/>
+    <row r="489" ht="13"/>
+    <row r="490" ht="13"/>
+    <row r="491" ht="13"/>
+    <row r="492" ht="13"/>
+    <row r="493" ht="13"/>
+    <row r="494" ht="13"/>
+    <row r="495" ht="13"/>
+    <row r="496" ht="13"/>
+    <row r="497" ht="13"/>
+    <row r="498" ht="13"/>
+    <row r="499" ht="13"/>
+    <row r="500" ht="13"/>
+    <row r="501" ht="13"/>
+    <row r="502" ht="13"/>
+    <row r="503" ht="13"/>
+    <row r="504" ht="13"/>
+    <row r="505" ht="13"/>
+    <row r="506" ht="13"/>
+    <row r="507" ht="13"/>
+    <row r="508" ht="13"/>
+    <row r="509" ht="13"/>
+    <row r="510" ht="13"/>
+    <row r="511" ht="13"/>
+    <row r="512" ht="13"/>
+    <row r="513" ht="13"/>
+    <row r="514" ht="13"/>
+    <row r="515" ht="13"/>
+    <row r="516" ht="13"/>
+    <row r="517" ht="13"/>
+    <row r="518" ht="13"/>
+    <row r="519" ht="13"/>
+    <row r="520" ht="13"/>
+    <row r="521" ht="13"/>
+    <row r="522" ht="13"/>
+    <row r="523" ht="13"/>
+    <row r="524" ht="13"/>
+    <row r="525" ht="13"/>
+    <row r="526" ht="13"/>
+    <row r="527" ht="13"/>
+    <row r="528" ht="13"/>
+    <row r="529" ht="13"/>
+    <row r="530" ht="13"/>
+    <row r="531" ht="13"/>
+    <row r="532" ht="13"/>
+    <row r="533" ht="13"/>
+    <row r="534" ht="13"/>
+    <row r="535" ht="13"/>
+    <row r="536" ht="13"/>
+    <row r="537" ht="13"/>
+    <row r="538" ht="13"/>
+    <row r="539" ht="13"/>
+    <row r="540" ht="13"/>
+    <row r="541" ht="13"/>
+    <row r="542" ht="13"/>
+    <row r="543" ht="13"/>
+    <row r="544" ht="13"/>
+    <row r="545" ht="13"/>
+    <row r="546" ht="13"/>
+    <row r="547" ht="13"/>
+    <row r="548" ht="13"/>
+    <row r="549" ht="13"/>
+    <row r="550" ht="13"/>
+    <row r="551" ht="13"/>
+    <row r="552" ht="13"/>
+    <row r="553" ht="13"/>
+    <row r="554" ht="13"/>
+    <row r="555" ht="13"/>
+    <row r="556" ht="13"/>
+    <row r="557" ht="13"/>
+    <row r="558" ht="13"/>
+    <row r="559" ht="13"/>
+    <row r="560" ht="13"/>
+    <row r="561" ht="13"/>
+    <row r="562" ht="13"/>
+    <row r="563" ht="13"/>
+    <row r="564" ht="13"/>
+    <row r="565" ht="13"/>
+    <row r="566" ht="13"/>
+    <row r="567" ht="13"/>
+    <row r="568" ht="13"/>
+    <row r="569" ht="13"/>
+    <row r="570" ht="13"/>
+    <row r="571" ht="13"/>
+    <row r="572" ht="13"/>
+    <row r="573" ht="13"/>
+    <row r="574" ht="13"/>
+    <row r="575" ht="13"/>
+    <row r="576" ht="13"/>
+    <row r="577" ht="13"/>
+    <row r="578" ht="13"/>
+    <row r="579" ht="13"/>
+    <row r="580" ht="13"/>
+    <row r="581" ht="13"/>
+    <row r="582" ht="13"/>
+    <row r="583" ht="13"/>
+    <row r="584" ht="13"/>
+    <row r="585" ht="13"/>
+    <row r="586" ht="13"/>
+    <row r="587" ht="13"/>
+    <row r="588" ht="13"/>
+    <row r="589" ht="13"/>
+    <row r="590" ht="13"/>
+    <row r="591" ht="13"/>
+    <row r="592" ht="13"/>
+    <row r="593" ht="13"/>
+    <row r="594" ht="13"/>
+    <row r="595" ht="13"/>
+    <row r="596" ht="13"/>
+    <row r="597" ht="13"/>
+    <row r="598" ht="13"/>
+    <row r="599" ht="13"/>
+    <row r="600" ht="13"/>
+    <row r="601" ht="13"/>
+    <row r="602" ht="13"/>
+    <row r="603" ht="13"/>
+    <row r="604" ht="13"/>
+    <row r="605" ht="13"/>
+    <row r="606" ht="13"/>
+    <row r="607" ht="13"/>
+    <row r="608" ht="13"/>
+    <row r="609" ht="13"/>
+    <row r="610" ht="13"/>
+    <row r="611" ht="13"/>
+    <row r="612" ht="13"/>
+    <row r="613" ht="13"/>
+    <row r="614" ht="13"/>
+    <row r="615" ht="13"/>
+    <row r="616" ht="13"/>
+    <row r="617" ht="13"/>
+    <row r="618" ht="13"/>
+    <row r="619" ht="13"/>
+    <row r="620" ht="13"/>
+    <row r="621" ht="13"/>
+    <row r="622" ht="13"/>
+    <row r="623" ht="13"/>
+    <row r="624" ht="13"/>
+    <row r="625" ht="13"/>
+    <row r="626" ht="13"/>
+    <row r="627" ht="13"/>
+    <row r="628" ht="13"/>
+    <row r="629" ht="13"/>
+    <row r="630" ht="13"/>
+    <row r="631" ht="13"/>
+    <row r="632" ht="13"/>
+    <row r="633" ht="13"/>
+    <row r="634" ht="13"/>
+    <row r="635" ht="13"/>
+    <row r="636" ht="13"/>
+    <row r="637" ht="13"/>
+    <row r="638" ht="13"/>
+    <row r="639" ht="13"/>
+    <row r="640" ht="13"/>
+    <row r="641" ht="13"/>
+    <row r="642" ht="13"/>
+    <row r="643" ht="13"/>
+    <row r="644" ht="13"/>
+    <row r="645" ht="13"/>
+    <row r="646" ht="13"/>
+    <row r="647" ht="13"/>
+    <row r="648" ht="13"/>
+    <row r="649" ht="13"/>
+    <row r="650" ht="13"/>
+    <row r="651" ht="13"/>
+    <row r="652" ht="13"/>
+    <row r="653" ht="13"/>
+    <row r="654" ht="13"/>
+    <row r="655" ht="13"/>
+    <row r="656" ht="13"/>
+    <row r="657" ht="13"/>
+    <row r="658" ht="13"/>
+    <row r="659" ht="13"/>
+    <row r="660" ht="13"/>
+    <row r="661" ht="13"/>
+    <row r="662" ht="13"/>
+    <row r="663" ht="13"/>
+    <row r="664" ht="13"/>
+    <row r="665" ht="13"/>
+    <row r="666" ht="13"/>
+    <row r="667" ht="13"/>
+    <row r="668" ht="13"/>
+    <row r="669" ht="13"/>
+    <row r="670" ht="13"/>
+    <row r="671" ht="13"/>
+    <row r="672" ht="13"/>
+    <row r="673" ht="13"/>
+    <row r="674" ht="13"/>
+    <row r="675" ht="13"/>
+    <row r="676" ht="13"/>
+    <row r="677" ht="13"/>
+    <row r="678" ht="13"/>
+    <row r="679" ht="13"/>
+    <row r="680" ht="13"/>
+    <row r="681" ht="13"/>
+    <row r="682" ht="13"/>
+    <row r="683" ht="13"/>
+    <row r="684" ht="13"/>
+    <row r="685" ht="13"/>
+    <row r="686" ht="13"/>
+    <row r="687" ht="13"/>
+    <row r="688" ht="13"/>
+    <row r="689" ht="13"/>
+    <row r="690" ht="13"/>
+    <row r="691" ht="13"/>
+    <row r="692" ht="13"/>
+    <row r="693" ht="13"/>
+    <row r="694" ht="13"/>
+    <row r="695" ht="13"/>
+    <row r="696" ht="13"/>
+    <row r="697" ht="13"/>
+    <row r="698" ht="13"/>
+    <row r="699" ht="13"/>
+    <row r="700" ht="13"/>
+    <row r="701" ht="13"/>
+    <row r="702" ht="13"/>
+    <row r="703" ht="13"/>
+    <row r="704" ht="13"/>
+    <row r="705" ht="13"/>
+    <row r="706" ht="13"/>
+    <row r="707" ht="13"/>
+    <row r="708" ht="13"/>
+    <row r="709" ht="13"/>
+    <row r="710" ht="13"/>
+    <row r="711" ht="13"/>
+    <row r="712" ht="13"/>
+    <row r="713" ht="13"/>
+    <row r="714" ht="13"/>
+    <row r="715" ht="13"/>
+    <row r="716" ht="13"/>
+    <row r="717" ht="13"/>
+    <row r="718" ht="13"/>
+    <row r="719" ht="13"/>
+    <row r="720" ht="13"/>
+    <row r="721" ht="13"/>
+    <row r="722" ht="13"/>
+    <row r="723" ht="13"/>
+    <row r="724" ht="13"/>
+    <row r="725" ht="13"/>
+    <row r="726" ht="13"/>
+    <row r="727" ht="13"/>
+    <row r="728" ht="13"/>
+    <row r="729" ht="13"/>
+    <row r="730" ht="13"/>
+    <row r="731" ht="13"/>
+    <row r="732" ht="13"/>
+    <row r="733" ht="13"/>
+    <row r="734" ht="13"/>
+    <row r="735" ht="13"/>
+    <row r="736" ht="13"/>
+    <row r="737" ht="13"/>
+    <row r="738" ht="13"/>
+    <row r="739" ht="13"/>
+    <row r="740" ht="13"/>
+    <row r="741" ht="13"/>
+    <row r="742" ht="13"/>
+    <row r="743" ht="13"/>
+    <row r="744" ht="13"/>
+    <row r="745" ht="13"/>
+    <row r="746" ht="13"/>
+    <row r="747" ht="13"/>
+    <row r="748" ht="13"/>
+    <row r="749" ht="13"/>
+    <row r="750" ht="13"/>
+    <row r="751" ht="13"/>
+    <row r="752" ht="13"/>
+    <row r="753" ht="13"/>
+    <row r="754" ht="13"/>
+    <row r="755" ht="13"/>
+    <row r="756" ht="13"/>
+    <row r="757" ht="13"/>
+    <row r="758" ht="13"/>
+    <row r="759" ht="13"/>
+    <row r="760" ht="13"/>
+    <row r="761" ht="13"/>
+    <row r="762" ht="13"/>
+    <row r="763" ht="13"/>
+    <row r="764" ht="13"/>
+    <row r="765" ht="13"/>
+    <row r="766" ht="13"/>
+    <row r="767" ht="13"/>
+    <row r="768" ht="13"/>
+    <row r="769" ht="13"/>
+    <row r="770" ht="13"/>
+    <row r="771" ht="13"/>
+    <row r="772" ht="13"/>
+    <row r="773" ht="13"/>
+    <row r="774" ht="13"/>
+    <row r="775" ht="13"/>
+    <row r="776" ht="13"/>
+    <row r="777" ht="13"/>
+    <row r="778" ht="13"/>
+    <row r="779" ht="13"/>
+    <row r="780" ht="13"/>
+    <row r="781" ht="13"/>
+    <row r="782" ht="13"/>
+    <row r="783" ht="13"/>
+    <row r="784" ht="13"/>
+    <row r="785" ht="13"/>
+    <row r="786" ht="13"/>
+    <row r="787" ht="13"/>
+    <row r="788" ht="13"/>
+    <row r="789" ht="13"/>
+    <row r="790" ht="13"/>
+    <row r="791" ht="13"/>
+    <row r="792" ht="13"/>
+    <row r="793" ht="13"/>
+    <row r="794" ht="13"/>
+    <row r="795" ht="13"/>
+    <row r="796" ht="13"/>
+    <row r="797" ht="13"/>
+    <row r="798" ht="13"/>
+    <row r="799" ht="13"/>
+    <row r="800" ht="13"/>
+    <row r="801" ht="13"/>
+    <row r="802" ht="13"/>
+    <row r="803" ht="13"/>
+    <row r="804" ht="13"/>
+    <row r="805" ht="13"/>
+    <row r="806" ht="13"/>
+    <row r="807" ht="13"/>
+    <row r="808" ht="13"/>
+    <row r="809" ht="13"/>
+    <row r="810" ht="13"/>
+    <row r="811" ht="13"/>
+    <row r="812" ht="13"/>
+    <row r="813" ht="13"/>
+    <row r="814" ht="13"/>
+    <row r="815" ht="13"/>
+    <row r="816" ht="13"/>
+    <row r="817" ht="13"/>
+    <row r="818" ht="13"/>
+    <row r="819" ht="13"/>
+    <row r="820" ht="13"/>
+    <row r="821" ht="13"/>
+    <row r="822" ht="13"/>
+    <row r="823" ht="13"/>
+    <row r="824" ht="13"/>
+    <row r="825" ht="13"/>
+    <row r="826" ht="13"/>
+    <row r="827" ht="13"/>
+    <row r="828" ht="13"/>
+    <row r="829" ht="13"/>
+    <row r="830" ht="13"/>
+    <row r="831" ht="13"/>
+    <row r="832" ht="13"/>
+    <row r="833" ht="13"/>
+    <row r="834" ht="13"/>
+    <row r="835" ht="13"/>
+    <row r="836" ht="13"/>
+    <row r="837" ht="13"/>
+    <row r="838" ht="13"/>
+    <row r="839" ht="13"/>
+    <row r="840" ht="13"/>
+    <row r="841" ht="13"/>
+    <row r="842" ht="13"/>
+    <row r="843" ht="13"/>
+    <row r="844" ht="13"/>
+    <row r="845" ht="13"/>
+    <row r="846" ht="13"/>
+    <row r="847" ht="13"/>
+    <row r="848" ht="13"/>
+    <row r="849" ht="13"/>
+    <row r="850" ht="13"/>
+    <row r="851" ht="13"/>
+    <row r="852" ht="13"/>
+    <row r="853" ht="13"/>
+    <row r="854" ht="13"/>
+    <row r="855" ht="13"/>
+    <row r="856" ht="13"/>
+    <row r="857" ht="13"/>
+    <row r="858" ht="13"/>
+    <row r="859" ht="13"/>
+    <row r="860" ht="13"/>
+    <row r="861" ht="13"/>
+    <row r="862" ht="13"/>
+    <row r="863" ht="13"/>
+    <row r="864" ht="13"/>
+    <row r="865" ht="13"/>
+    <row r="866" ht="13"/>
+    <row r="867" ht="13"/>
+    <row r="868" ht="13"/>
+    <row r="869" ht="13"/>
+    <row r="870" ht="13"/>
+    <row r="871" ht="13"/>
+    <row r="872" ht="13"/>
+    <row r="873" ht="13"/>
+    <row r="874" ht="13"/>
+    <row r="875" ht="13"/>
+    <row r="876" ht="13"/>
+    <row r="877" ht="13"/>
+    <row r="878" ht="13"/>
+    <row r="879" ht="13"/>
+    <row r="880" ht="13"/>
+    <row r="881" ht="13"/>
+    <row r="882" ht="13"/>
+    <row r="883" ht="13"/>
+    <row r="884" ht="13"/>
+    <row r="885" ht="13"/>
+    <row r="886" ht="13"/>
+    <row r="887" ht="13"/>
+    <row r="888" ht="13"/>
+    <row r="889" ht="13"/>
+    <row r="890" ht="13"/>
+    <row r="891" ht="13"/>
+    <row r="892" ht="13"/>
+    <row r="893" ht="13"/>
+    <row r="894" ht="13"/>
+    <row r="895" ht="13"/>
+    <row r="896" ht="13"/>
+    <row r="897" ht="13"/>
+    <row r="898" ht="13"/>
+    <row r="899" ht="13"/>
+    <row r="900" ht="13"/>
+    <row r="901" ht="13"/>
+    <row r="902" ht="13"/>
+    <row r="903" ht="13"/>
+    <row r="904" ht="13"/>
+    <row r="905" ht="13"/>
+    <row r="906" ht="13"/>
+    <row r="907" ht="13"/>
+    <row r="908" ht="13"/>
+    <row r="909" ht="13"/>
+    <row r="910" ht="13"/>
+    <row r="911" ht="13"/>
+    <row r="912" ht="13"/>
+    <row r="913" ht="13"/>
+    <row r="914" ht="13"/>
+    <row r="915" ht="13"/>
+    <row r="916" ht="13"/>
+    <row r="917" ht="13"/>
+    <row r="918" ht="13"/>
+    <row r="919" ht="13"/>
+    <row r="920" ht="13"/>
+    <row r="921" ht="13"/>
+    <row r="922" ht="13"/>
+    <row r="923" ht="13"/>
+    <row r="924" ht="13"/>
+    <row r="925" ht="13"/>
+    <row r="926" ht="13"/>
+    <row r="927" ht="13"/>
+    <row r="928" ht="13"/>
+    <row r="929" ht="13"/>
+    <row r="930" ht="13"/>
+    <row r="931" ht="13"/>
+    <row r="932" ht="13"/>
+    <row r="933" ht="13"/>
+    <row r="934" ht="13"/>
+    <row r="935" ht="13"/>
+    <row r="936" ht="13"/>
+    <row r="937" ht="13"/>
+    <row r="938" ht="13"/>
+    <row r="939" ht="13"/>
+    <row r="940" ht="13"/>
+    <row r="941" ht="13"/>
+    <row r="942" ht="13"/>
+    <row r="943" ht="13"/>
+    <row r="944" ht="13"/>
+    <row r="945" ht="13"/>
+    <row r="946" ht="13"/>
+    <row r="947" ht="13"/>
+    <row r="948" ht="13"/>
+    <row r="949" ht="13"/>
+    <row r="950" ht="13"/>
+    <row r="951" ht="13"/>
+    <row r="952" ht="13"/>
+    <row r="953" ht="13"/>
+    <row r="954" ht="13"/>
+    <row r="955" ht="13"/>
+    <row r="956" ht="13"/>
+    <row r="957" ht="13"/>
+    <row r="958" ht="13"/>
+    <row r="959" ht="13"/>
+    <row r="960" ht="13"/>
+    <row r="961" ht="13"/>
+    <row r="962" ht="13"/>
+    <row r="963" ht="13"/>
+    <row r="964" ht="13"/>
+    <row r="965" ht="13"/>
+    <row r="966" ht="13"/>
+    <row r="967" ht="13"/>
+    <row r="968" ht="13"/>
+    <row r="969" ht="13"/>
+    <row r="970" ht="13"/>
+    <row r="971" ht="13"/>
+    <row r="972" ht="13"/>
+    <row r="973" ht="13"/>
+    <row r="974" ht="13"/>
+    <row r="975" ht="13"/>
+    <row r="976" ht="13"/>
+    <row r="977" ht="13"/>
+    <row r="978" ht="13"/>
+    <row r="979" ht="13"/>
+    <row r="980" ht="13"/>
+    <row r="981" ht="13"/>
+    <row r="982" ht="13"/>
+    <row r="983" ht="13"/>
+    <row r="984" ht="13"/>
+    <row r="985" ht="13"/>
+    <row r="986" ht="13"/>
+    <row r="987" ht="13"/>
+    <row r="988" ht="13"/>
+    <row r="989" ht="13"/>
+    <row r="990" ht="13"/>
+    <row r="991" ht="13"/>
+    <row r="992" ht="13"/>
+    <row r="993" ht="13"/>
+    <row r="994" ht="13"/>
+    <row r="995" ht="13"/>
+    <row r="996" ht="13"/>
+    <row r="997" ht="13"/>
+    <row r="998" ht="13"/>
+    <row r="999" ht="13"/>
+    <row r="1000" ht="13"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -8618,17 +8630,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
@@ -8650,7 +8662,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="23" t="s">
         <v>189</v>
       </c>
@@ -8662,7 +8674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14">
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="23" t="s">
         <v>191</v>
       </c>
@@ -8674,7 +8686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="14">
       <c r="A4" s="18" t="s">
         <v>214</v>
       </c>
@@ -8686,34 +8698,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13">
+    <row r="5" spans="1:4" ht="14">
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:4" ht="13">
+    <row r="6" spans="1:4" ht="14">
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="13">
+    <row r="7" spans="1:4" ht="14">
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:4" ht="13">
+    <row r="8" spans="1:4" ht="14">
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="13">
+    <row r="9" spans="1:4" ht="14">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="13">
+    <row r="10" spans="1:4" ht="14">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="13">
+    <row r="11" spans="1:4" ht="14">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="13">
+    <row r="12" spans="1:4" ht="14">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="13">
+    <row r="13" spans="1:4" ht="14">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="13">
+    <row r="14" spans="1:4" ht="14">
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
@@ -9316,786 +9328,786 @@
     <row r="214" spans="2:2" ht="15.75" customHeight="1">
       <c r="B214" s="4"/>
     </row>
-    <row r="215" spans="2:2" ht="12"/>
-    <row r="216" spans="2:2" ht="12"/>
-    <row r="217" spans="2:2" ht="12"/>
-    <row r="218" spans="2:2" ht="12"/>
-    <row r="219" spans="2:2" ht="12"/>
-    <row r="220" spans="2:2" ht="12"/>
-    <row r="221" spans="2:2" ht="12"/>
-    <row r="222" spans="2:2" ht="12"/>
-    <row r="223" spans="2:2" ht="12"/>
-    <row r="224" spans="2:2" ht="12"/>
-    <row r="225" ht="12"/>
-    <row r="226" ht="12"/>
-    <row r="227" ht="12"/>
-    <row r="228" ht="12"/>
-    <row r="229" ht="12"/>
-    <row r="230" ht="12"/>
-    <row r="231" ht="12"/>
-    <row r="232" ht="12"/>
-    <row r="233" ht="12"/>
-    <row r="234" ht="12"/>
-    <row r="235" ht="12"/>
-    <row r="236" ht="12"/>
-    <row r="237" ht="12"/>
-    <row r="238" ht="12"/>
-    <row r="239" ht="12"/>
-    <row r="240" ht="12"/>
-    <row r="241" ht="12"/>
-    <row r="242" ht="12"/>
-    <row r="243" ht="12"/>
-    <row r="244" ht="12"/>
-    <row r="245" ht="12"/>
-    <row r="246" ht="12"/>
-    <row r="247" ht="12"/>
-    <row r="248" ht="12"/>
-    <row r="249" ht="12"/>
-    <row r="250" ht="12"/>
-    <row r="251" ht="12"/>
-    <row r="252" ht="12"/>
-    <row r="253" ht="12"/>
-    <row r="254" ht="12"/>
-    <row r="255" ht="12"/>
-    <row r="256" ht="12"/>
-    <row r="257" ht="12"/>
-    <row r="258" ht="12"/>
-    <row r="259" ht="12"/>
-    <row r="260" ht="12"/>
-    <row r="261" ht="12"/>
-    <row r="262" ht="12"/>
-    <row r="263" ht="12"/>
-    <row r="264" ht="12"/>
-    <row r="265" ht="12"/>
-    <row r="266" ht="12"/>
-    <row r="267" ht="12"/>
-    <row r="268" ht="12"/>
-    <row r="269" ht="12"/>
-    <row r="270" ht="12"/>
-    <row r="271" ht="12"/>
-    <row r="272" ht="12"/>
-    <row r="273" ht="12"/>
-    <row r="274" ht="12"/>
-    <row r="275" ht="12"/>
-    <row r="276" ht="12"/>
-    <row r="277" ht="12"/>
-    <row r="278" ht="12"/>
-    <row r="279" ht="12"/>
-    <row r="280" ht="12"/>
-    <row r="281" ht="12"/>
-    <row r="282" ht="12"/>
-    <row r="283" ht="12"/>
-    <row r="284" ht="12"/>
-    <row r="285" ht="12"/>
-    <row r="286" ht="12"/>
-    <row r="287" ht="12"/>
-    <row r="288" ht="12"/>
-    <row r="289" ht="12"/>
-    <row r="290" ht="12"/>
-    <row r="291" ht="12"/>
-    <row r="292" ht="12"/>
-    <row r="293" ht="12"/>
-    <row r="294" ht="12"/>
-    <row r="295" ht="12"/>
-    <row r="296" ht="12"/>
-    <row r="297" ht="12"/>
-    <row r="298" ht="12"/>
-    <row r="299" ht="12"/>
-    <row r="300" ht="12"/>
-    <row r="301" ht="12"/>
-    <row r="302" ht="12"/>
-    <row r="303" ht="12"/>
-    <row r="304" ht="12"/>
-    <row r="305" ht="12"/>
-    <row r="306" ht="12"/>
-    <row r="307" ht="12"/>
-    <row r="308" ht="12"/>
-    <row r="309" ht="12"/>
-    <row r="310" ht="12"/>
-    <row r="311" ht="12"/>
-    <row r="312" ht="12"/>
-    <row r="313" ht="12"/>
-    <row r="314" ht="12"/>
-    <row r="315" ht="12"/>
-    <row r="316" ht="12"/>
-    <row r="317" ht="12"/>
-    <row r="318" ht="12"/>
-    <row r="319" ht="12"/>
-    <row r="320" ht="12"/>
-    <row r="321" ht="12"/>
-    <row r="322" ht="12"/>
-    <row r="323" ht="12"/>
-    <row r="324" ht="12"/>
-    <row r="325" ht="12"/>
-    <row r="326" ht="12"/>
-    <row r="327" ht="12"/>
-    <row r="328" ht="12"/>
-    <row r="329" ht="12"/>
-    <row r="330" ht="12"/>
-    <row r="331" ht="12"/>
-    <row r="332" ht="12"/>
-    <row r="333" ht="12"/>
-    <row r="334" ht="12"/>
-    <row r="335" ht="12"/>
-    <row r="336" ht="12"/>
-    <row r="337" ht="12"/>
-    <row r="338" ht="12"/>
-    <row r="339" ht="12"/>
-    <row r="340" ht="12"/>
-    <row r="341" ht="12"/>
-    <row r="342" ht="12"/>
-    <row r="343" ht="12"/>
-    <row r="344" ht="12"/>
-    <row r="345" ht="12"/>
-    <row r="346" ht="12"/>
-    <row r="347" ht="12"/>
-    <row r="348" ht="12"/>
-    <row r="349" ht="12"/>
-    <row r="350" ht="12"/>
-    <row r="351" ht="12"/>
-    <row r="352" ht="12"/>
-    <row r="353" ht="12"/>
-    <row r="354" ht="12"/>
-    <row r="355" ht="12"/>
-    <row r="356" ht="12"/>
-    <row r="357" ht="12"/>
-    <row r="358" ht="12"/>
-    <row r="359" ht="12"/>
-    <row r="360" ht="12"/>
-    <row r="361" ht="12"/>
-    <row r="362" ht="12"/>
-    <row r="363" ht="12"/>
-    <row r="364" ht="12"/>
-    <row r="365" ht="12"/>
-    <row r="366" ht="12"/>
-    <row r="367" ht="12"/>
-    <row r="368" ht="12"/>
-    <row r="369" ht="12"/>
-    <row r="370" ht="12"/>
-    <row r="371" ht="12"/>
-    <row r="372" ht="12"/>
-    <row r="373" ht="12"/>
-    <row r="374" ht="12"/>
-    <row r="375" ht="12"/>
-    <row r="376" ht="12"/>
-    <row r="377" ht="12"/>
-    <row r="378" ht="12"/>
-    <row r="379" ht="12"/>
-    <row r="380" ht="12"/>
-    <row r="381" ht="12"/>
-    <row r="382" ht="12"/>
-    <row r="383" ht="12"/>
-    <row r="384" ht="12"/>
-    <row r="385" ht="12"/>
-    <row r="386" ht="12"/>
-    <row r="387" ht="12"/>
-    <row r="388" ht="12"/>
-    <row r="389" ht="12"/>
-    <row r="390" ht="12"/>
-    <row r="391" ht="12"/>
-    <row r="392" ht="12"/>
-    <row r="393" ht="12"/>
-    <row r="394" ht="12"/>
-    <row r="395" ht="12"/>
-    <row r="396" ht="12"/>
-    <row r="397" ht="12"/>
-    <row r="398" ht="12"/>
-    <row r="399" ht="12"/>
-    <row r="400" ht="12"/>
-    <row r="401" ht="12"/>
-    <row r="402" ht="12"/>
-    <row r="403" ht="12"/>
-    <row r="404" ht="12"/>
-    <row r="405" ht="12"/>
-    <row r="406" ht="12"/>
-    <row r="407" ht="12"/>
-    <row r="408" ht="12"/>
-    <row r="409" ht="12"/>
-    <row r="410" ht="12"/>
-    <row r="411" ht="12"/>
-    <row r="412" ht="12"/>
-    <row r="413" ht="12"/>
-    <row r="414" ht="12"/>
-    <row r="415" ht="12"/>
-    <row r="416" ht="12"/>
-    <row r="417" ht="12"/>
-    <row r="418" ht="12"/>
-    <row r="419" ht="12"/>
-    <row r="420" ht="12"/>
-    <row r="421" ht="12"/>
-    <row r="422" ht="12"/>
-    <row r="423" ht="12"/>
-    <row r="424" ht="12"/>
-    <row r="425" ht="12"/>
-    <row r="426" ht="12"/>
-    <row r="427" ht="12"/>
-    <row r="428" ht="12"/>
-    <row r="429" ht="12"/>
-    <row r="430" ht="12"/>
-    <row r="431" ht="12"/>
-    <row r="432" ht="12"/>
-    <row r="433" ht="12"/>
-    <row r="434" ht="12"/>
-    <row r="435" ht="12"/>
-    <row r="436" ht="12"/>
-    <row r="437" ht="12"/>
-    <row r="438" ht="12"/>
-    <row r="439" ht="12"/>
-    <row r="440" ht="12"/>
-    <row r="441" ht="12"/>
-    <row r="442" ht="12"/>
-    <row r="443" ht="12"/>
-    <row r="444" ht="12"/>
-    <row r="445" ht="12"/>
-    <row r="446" ht="12"/>
-    <row r="447" ht="12"/>
-    <row r="448" ht="12"/>
-    <row r="449" ht="12"/>
-    <row r="450" ht="12"/>
-    <row r="451" ht="12"/>
-    <row r="452" ht="12"/>
-    <row r="453" ht="12"/>
-    <row r="454" ht="12"/>
-    <row r="455" ht="12"/>
-    <row r="456" ht="12"/>
-    <row r="457" ht="12"/>
-    <row r="458" ht="12"/>
-    <row r="459" ht="12"/>
-    <row r="460" ht="12"/>
-    <row r="461" ht="12"/>
-    <row r="462" ht="12"/>
-    <row r="463" ht="12"/>
-    <row r="464" ht="12"/>
-    <row r="465" ht="12"/>
-    <row r="466" ht="12"/>
-    <row r="467" ht="12"/>
-    <row r="468" ht="12"/>
-    <row r="469" ht="12"/>
-    <row r="470" ht="12"/>
-    <row r="471" ht="12"/>
-    <row r="472" ht="12"/>
-    <row r="473" ht="12"/>
-    <row r="474" ht="12"/>
-    <row r="475" ht="12"/>
-    <row r="476" ht="12"/>
-    <row r="477" ht="12"/>
-    <row r="478" ht="12"/>
-    <row r="479" ht="12"/>
-    <row r="480" ht="12"/>
-    <row r="481" ht="12"/>
-    <row r="482" ht="12"/>
-    <row r="483" ht="12"/>
-    <row r="484" ht="12"/>
-    <row r="485" ht="12"/>
-    <row r="486" ht="12"/>
-    <row r="487" ht="12"/>
-    <row r="488" ht="12"/>
-    <row r="489" ht="12"/>
-    <row r="490" ht="12"/>
-    <row r="491" ht="12"/>
-    <row r="492" ht="12"/>
-    <row r="493" ht="12"/>
-    <row r="494" ht="12"/>
-    <row r="495" ht="12"/>
-    <row r="496" ht="12"/>
-    <row r="497" ht="12"/>
-    <row r="498" ht="12"/>
-    <row r="499" ht="12"/>
-    <row r="500" ht="12"/>
-    <row r="501" ht="12"/>
-    <row r="502" ht="12"/>
-    <row r="503" ht="12"/>
-    <row r="504" ht="12"/>
-    <row r="505" ht="12"/>
-    <row r="506" ht="12"/>
-    <row r="507" ht="12"/>
-    <row r="508" ht="12"/>
-    <row r="509" ht="12"/>
-    <row r="510" ht="12"/>
-    <row r="511" ht="12"/>
-    <row r="512" ht="12"/>
-    <row r="513" ht="12"/>
-    <row r="514" ht="12"/>
-    <row r="515" ht="12"/>
-    <row r="516" ht="12"/>
-    <row r="517" ht="12"/>
-    <row r="518" ht="12"/>
-    <row r="519" ht="12"/>
-    <row r="520" ht="12"/>
-    <row r="521" ht="12"/>
-    <row r="522" ht="12"/>
-    <row r="523" ht="12"/>
-    <row r="524" ht="12"/>
-    <row r="525" ht="12"/>
-    <row r="526" ht="12"/>
-    <row r="527" ht="12"/>
-    <row r="528" ht="12"/>
-    <row r="529" ht="12"/>
-    <row r="530" ht="12"/>
-    <row r="531" ht="12"/>
-    <row r="532" ht="12"/>
-    <row r="533" ht="12"/>
-    <row r="534" ht="12"/>
-    <row r="535" ht="12"/>
-    <row r="536" ht="12"/>
-    <row r="537" ht="12"/>
-    <row r="538" ht="12"/>
-    <row r="539" ht="12"/>
-    <row r="540" ht="12"/>
-    <row r="541" ht="12"/>
-    <row r="542" ht="12"/>
-    <row r="543" ht="12"/>
-    <row r="544" ht="12"/>
-    <row r="545" ht="12"/>
-    <row r="546" ht="12"/>
-    <row r="547" ht="12"/>
-    <row r="548" ht="12"/>
-    <row r="549" ht="12"/>
-    <row r="550" ht="12"/>
-    <row r="551" ht="12"/>
-    <row r="552" ht="12"/>
-    <row r="553" ht="12"/>
-    <row r="554" ht="12"/>
-    <row r="555" ht="12"/>
-    <row r="556" ht="12"/>
-    <row r="557" ht="12"/>
-    <row r="558" ht="12"/>
-    <row r="559" ht="12"/>
-    <row r="560" ht="12"/>
-    <row r="561" ht="12"/>
-    <row r="562" ht="12"/>
-    <row r="563" ht="12"/>
-    <row r="564" ht="12"/>
-    <row r="565" ht="12"/>
-    <row r="566" ht="12"/>
-    <row r="567" ht="12"/>
-    <row r="568" ht="12"/>
-    <row r="569" ht="12"/>
-    <row r="570" ht="12"/>
-    <row r="571" ht="12"/>
-    <row r="572" ht="12"/>
-    <row r="573" ht="12"/>
-    <row r="574" ht="12"/>
-    <row r="575" ht="12"/>
-    <row r="576" ht="12"/>
-    <row r="577" ht="12"/>
-    <row r="578" ht="12"/>
-    <row r="579" ht="12"/>
-    <row r="580" ht="12"/>
-    <row r="581" ht="12"/>
-    <row r="582" ht="12"/>
-    <row r="583" ht="12"/>
-    <row r="584" ht="12"/>
-    <row r="585" ht="12"/>
-    <row r="586" ht="12"/>
-    <row r="587" ht="12"/>
-    <row r="588" ht="12"/>
-    <row r="589" ht="12"/>
-    <row r="590" ht="12"/>
-    <row r="591" ht="12"/>
-    <row r="592" ht="12"/>
-    <row r="593" ht="12"/>
-    <row r="594" ht="12"/>
-    <row r="595" ht="12"/>
-    <row r="596" ht="12"/>
-    <row r="597" ht="12"/>
-    <row r="598" ht="12"/>
-    <row r="599" ht="12"/>
-    <row r="600" ht="12"/>
-    <row r="601" ht="12"/>
-    <row r="602" ht="12"/>
-    <row r="603" ht="12"/>
-    <row r="604" ht="12"/>
-    <row r="605" ht="12"/>
-    <row r="606" ht="12"/>
-    <row r="607" ht="12"/>
-    <row r="608" ht="12"/>
-    <row r="609" ht="12"/>
-    <row r="610" ht="12"/>
-    <row r="611" ht="12"/>
-    <row r="612" ht="12"/>
-    <row r="613" ht="12"/>
-    <row r="614" ht="12"/>
-    <row r="615" ht="12"/>
-    <row r="616" ht="12"/>
-    <row r="617" ht="12"/>
-    <row r="618" ht="12"/>
-    <row r="619" ht="12"/>
-    <row r="620" ht="12"/>
-    <row r="621" ht="12"/>
-    <row r="622" ht="12"/>
-    <row r="623" ht="12"/>
-    <row r="624" ht="12"/>
-    <row r="625" ht="12"/>
-    <row r="626" ht="12"/>
-    <row r="627" ht="12"/>
-    <row r="628" ht="12"/>
-    <row r="629" ht="12"/>
-    <row r="630" ht="12"/>
-    <row r="631" ht="12"/>
-    <row r="632" ht="12"/>
-    <row r="633" ht="12"/>
-    <row r="634" ht="12"/>
-    <row r="635" ht="12"/>
-    <row r="636" ht="12"/>
-    <row r="637" ht="12"/>
-    <row r="638" ht="12"/>
-    <row r="639" ht="12"/>
-    <row r="640" ht="12"/>
-    <row r="641" ht="12"/>
-    <row r="642" ht="12"/>
-    <row r="643" ht="12"/>
-    <row r="644" ht="12"/>
-    <row r="645" ht="12"/>
-    <row r="646" ht="12"/>
-    <row r="647" ht="12"/>
-    <row r="648" ht="12"/>
-    <row r="649" ht="12"/>
-    <row r="650" ht="12"/>
-    <row r="651" ht="12"/>
-    <row r="652" ht="12"/>
-    <row r="653" ht="12"/>
-    <row r="654" ht="12"/>
-    <row r="655" ht="12"/>
-    <row r="656" ht="12"/>
-    <row r="657" ht="12"/>
-    <row r="658" ht="12"/>
-    <row r="659" ht="12"/>
-    <row r="660" ht="12"/>
-    <row r="661" ht="12"/>
-    <row r="662" ht="12"/>
-    <row r="663" ht="12"/>
-    <row r="664" ht="12"/>
-    <row r="665" ht="12"/>
-    <row r="666" ht="12"/>
-    <row r="667" ht="12"/>
-    <row r="668" ht="12"/>
-    <row r="669" ht="12"/>
-    <row r="670" ht="12"/>
-    <row r="671" ht="12"/>
-    <row r="672" ht="12"/>
-    <row r="673" ht="12"/>
-    <row r="674" ht="12"/>
-    <row r="675" ht="12"/>
-    <row r="676" ht="12"/>
-    <row r="677" ht="12"/>
-    <row r="678" ht="12"/>
-    <row r="679" ht="12"/>
-    <row r="680" ht="12"/>
-    <row r="681" ht="12"/>
-    <row r="682" ht="12"/>
-    <row r="683" ht="12"/>
-    <row r="684" ht="12"/>
-    <row r="685" ht="12"/>
-    <row r="686" ht="12"/>
-    <row r="687" ht="12"/>
-    <row r="688" ht="12"/>
-    <row r="689" ht="12"/>
-    <row r="690" ht="12"/>
-    <row r="691" ht="12"/>
-    <row r="692" ht="12"/>
-    <row r="693" ht="12"/>
-    <row r="694" ht="12"/>
-    <row r="695" ht="12"/>
-    <row r="696" ht="12"/>
-    <row r="697" ht="12"/>
-    <row r="698" ht="12"/>
-    <row r="699" ht="12"/>
-    <row r="700" ht="12"/>
-    <row r="701" ht="12"/>
-    <row r="702" ht="12"/>
-    <row r="703" ht="12"/>
-    <row r="704" ht="12"/>
-    <row r="705" ht="12"/>
-    <row r="706" ht="12"/>
-    <row r="707" ht="12"/>
-    <row r="708" ht="12"/>
-    <row r="709" ht="12"/>
-    <row r="710" ht="12"/>
-    <row r="711" ht="12"/>
-    <row r="712" ht="12"/>
-    <row r="713" ht="12"/>
-    <row r="714" ht="12"/>
-    <row r="715" ht="12"/>
-    <row r="716" ht="12"/>
-    <row r="717" ht="12"/>
-    <row r="718" ht="12"/>
-    <row r="719" ht="12"/>
-    <row r="720" ht="12"/>
-    <row r="721" ht="12"/>
-    <row r="722" ht="12"/>
-    <row r="723" ht="12"/>
-    <row r="724" ht="12"/>
-    <row r="725" ht="12"/>
-    <row r="726" ht="12"/>
-    <row r="727" ht="12"/>
-    <row r="728" ht="12"/>
-    <row r="729" ht="12"/>
-    <row r="730" ht="12"/>
-    <row r="731" ht="12"/>
-    <row r="732" ht="12"/>
-    <row r="733" ht="12"/>
-    <row r="734" ht="12"/>
-    <row r="735" ht="12"/>
-    <row r="736" ht="12"/>
-    <row r="737" ht="12"/>
-    <row r="738" ht="12"/>
-    <row r="739" ht="12"/>
-    <row r="740" ht="12"/>
-    <row r="741" ht="12"/>
-    <row r="742" ht="12"/>
-    <row r="743" ht="12"/>
-    <row r="744" ht="12"/>
-    <row r="745" ht="12"/>
-    <row r="746" ht="12"/>
-    <row r="747" ht="12"/>
-    <row r="748" ht="12"/>
-    <row r="749" ht="12"/>
-    <row r="750" ht="12"/>
-    <row r="751" ht="12"/>
-    <row r="752" ht="12"/>
-    <row r="753" ht="12"/>
-    <row r="754" ht="12"/>
-    <row r="755" ht="12"/>
-    <row r="756" ht="12"/>
-    <row r="757" ht="12"/>
-    <row r="758" ht="12"/>
-    <row r="759" ht="12"/>
-    <row r="760" ht="12"/>
-    <row r="761" ht="12"/>
-    <row r="762" ht="12"/>
-    <row r="763" ht="12"/>
-    <row r="764" ht="12"/>
-    <row r="765" ht="12"/>
-    <row r="766" ht="12"/>
-    <row r="767" ht="12"/>
-    <row r="768" ht="12"/>
-    <row r="769" ht="12"/>
-    <row r="770" ht="12"/>
-    <row r="771" ht="12"/>
-    <row r="772" ht="12"/>
-    <row r="773" ht="12"/>
-    <row r="774" ht="12"/>
-    <row r="775" ht="12"/>
-    <row r="776" ht="12"/>
-    <row r="777" ht="12"/>
-    <row r="778" ht="12"/>
-    <row r="779" ht="12"/>
-    <row r="780" ht="12"/>
-    <row r="781" ht="12"/>
-    <row r="782" ht="12"/>
-    <row r="783" ht="12"/>
-    <row r="784" ht="12"/>
-    <row r="785" ht="12"/>
-    <row r="786" ht="12"/>
-    <row r="787" ht="12"/>
-    <row r="788" ht="12"/>
-    <row r="789" ht="12"/>
-    <row r="790" ht="12"/>
-    <row r="791" ht="12"/>
-    <row r="792" ht="12"/>
-    <row r="793" ht="12"/>
-    <row r="794" ht="12"/>
-    <row r="795" ht="12"/>
-    <row r="796" ht="12"/>
-    <row r="797" ht="12"/>
-    <row r="798" ht="12"/>
-    <row r="799" ht="12"/>
-    <row r="800" ht="12"/>
-    <row r="801" ht="12"/>
-    <row r="802" ht="12"/>
-    <row r="803" ht="12"/>
-    <row r="804" ht="12"/>
-    <row r="805" ht="12"/>
-    <row r="806" ht="12"/>
-    <row r="807" ht="12"/>
-    <row r="808" ht="12"/>
-    <row r="809" ht="12"/>
-    <row r="810" ht="12"/>
-    <row r="811" ht="12"/>
-    <row r="812" ht="12"/>
-    <row r="813" ht="12"/>
-    <row r="814" ht="12"/>
-    <row r="815" ht="12"/>
-    <row r="816" ht="12"/>
-    <row r="817" ht="12"/>
-    <row r="818" ht="12"/>
-    <row r="819" ht="12"/>
-    <row r="820" ht="12"/>
-    <row r="821" ht="12"/>
-    <row r="822" ht="12"/>
-    <row r="823" ht="12"/>
-    <row r="824" ht="12"/>
-    <row r="825" ht="12"/>
-    <row r="826" ht="12"/>
-    <row r="827" ht="12"/>
-    <row r="828" ht="12"/>
-    <row r="829" ht="12"/>
-    <row r="830" ht="12"/>
-    <row r="831" ht="12"/>
-    <row r="832" ht="12"/>
-    <row r="833" ht="12"/>
-    <row r="834" ht="12"/>
-    <row r="835" ht="12"/>
-    <row r="836" ht="12"/>
-    <row r="837" ht="12"/>
-    <row r="838" ht="12"/>
-    <row r="839" ht="12"/>
-    <row r="840" ht="12"/>
-    <row r="841" ht="12"/>
-    <row r="842" ht="12"/>
-    <row r="843" ht="12"/>
-    <row r="844" ht="12"/>
-    <row r="845" ht="12"/>
-    <row r="846" ht="12"/>
-    <row r="847" ht="12"/>
-    <row r="848" ht="12"/>
-    <row r="849" ht="12"/>
-    <row r="850" ht="12"/>
-    <row r="851" ht="12"/>
-    <row r="852" ht="12"/>
-    <row r="853" ht="12"/>
-    <row r="854" ht="12"/>
-    <row r="855" ht="12"/>
-    <row r="856" ht="12"/>
-    <row r="857" ht="12"/>
-    <row r="858" ht="12"/>
-    <row r="859" ht="12"/>
-    <row r="860" ht="12"/>
-    <row r="861" ht="12"/>
-    <row r="862" ht="12"/>
-    <row r="863" ht="12"/>
-    <row r="864" ht="12"/>
-    <row r="865" ht="12"/>
-    <row r="866" ht="12"/>
-    <row r="867" ht="12"/>
-    <row r="868" ht="12"/>
-    <row r="869" ht="12"/>
-    <row r="870" ht="12"/>
-    <row r="871" ht="12"/>
-    <row r="872" ht="12"/>
-    <row r="873" ht="12"/>
-    <row r="874" ht="12"/>
-    <row r="875" ht="12"/>
-    <row r="876" ht="12"/>
-    <row r="877" ht="12"/>
-    <row r="878" ht="12"/>
-    <row r="879" ht="12"/>
-    <row r="880" ht="12"/>
-    <row r="881" ht="12"/>
-    <row r="882" ht="12"/>
-    <row r="883" ht="12"/>
-    <row r="884" ht="12"/>
-    <row r="885" ht="12"/>
-    <row r="886" ht="12"/>
-    <row r="887" ht="12"/>
-    <row r="888" ht="12"/>
-    <row r="889" ht="12"/>
-    <row r="890" ht="12"/>
-    <row r="891" ht="12"/>
-    <row r="892" ht="12"/>
-    <row r="893" ht="12"/>
-    <row r="894" ht="12"/>
-    <row r="895" ht="12"/>
-    <row r="896" ht="12"/>
-    <row r="897" ht="12"/>
-    <row r="898" ht="12"/>
-    <row r="899" ht="12"/>
-    <row r="900" ht="12"/>
-    <row r="901" ht="12"/>
-    <row r="902" ht="12"/>
-    <row r="903" ht="12"/>
-    <row r="904" ht="12"/>
-    <row r="905" ht="12"/>
-    <row r="906" ht="12"/>
-    <row r="907" ht="12"/>
-    <row r="908" ht="12"/>
-    <row r="909" ht="12"/>
-    <row r="910" ht="12"/>
-    <row r="911" ht="12"/>
-    <row r="912" ht="12"/>
-    <row r="913" ht="12"/>
-    <row r="914" ht="12"/>
-    <row r="915" ht="12"/>
-    <row r="916" ht="12"/>
-    <row r="917" ht="12"/>
-    <row r="918" ht="12"/>
-    <row r="919" ht="12"/>
-    <row r="920" ht="12"/>
-    <row r="921" ht="12"/>
-    <row r="922" ht="12"/>
-    <row r="923" ht="12"/>
-    <row r="924" ht="12"/>
-    <row r="925" ht="12"/>
-    <row r="926" ht="12"/>
-    <row r="927" ht="12"/>
-    <row r="928" ht="12"/>
-    <row r="929" ht="12"/>
-    <row r="930" ht="12"/>
-    <row r="931" ht="12"/>
-    <row r="932" ht="12"/>
-    <row r="933" ht="12"/>
-    <row r="934" ht="12"/>
-    <row r="935" ht="12"/>
-    <row r="936" ht="12"/>
-    <row r="937" ht="12"/>
-    <row r="938" ht="12"/>
-    <row r="939" ht="12"/>
-    <row r="940" ht="12"/>
-    <row r="941" ht="12"/>
-    <row r="942" ht="12"/>
-    <row r="943" ht="12"/>
-    <row r="944" ht="12"/>
-    <row r="945" ht="12"/>
-    <row r="946" ht="12"/>
-    <row r="947" ht="12"/>
-    <row r="948" ht="12"/>
-    <row r="949" ht="12"/>
-    <row r="950" ht="12"/>
-    <row r="951" ht="12"/>
-    <row r="952" ht="12"/>
-    <row r="953" ht="12"/>
-    <row r="954" ht="12"/>
-    <row r="955" ht="12"/>
-    <row r="956" ht="12"/>
-    <row r="957" ht="12"/>
-    <row r="958" ht="12"/>
-    <row r="959" ht="12"/>
-    <row r="960" ht="12"/>
-    <row r="961" ht="12"/>
-    <row r="962" ht="12"/>
-    <row r="963" ht="12"/>
-    <row r="964" ht="12"/>
-    <row r="965" ht="12"/>
-    <row r="966" ht="12"/>
-    <row r="967" ht="12"/>
-    <row r="968" ht="12"/>
-    <row r="969" ht="12"/>
-    <row r="970" ht="12"/>
-    <row r="971" ht="12"/>
-    <row r="972" ht="12"/>
-    <row r="973" ht="12"/>
-    <row r="974" ht="12"/>
-    <row r="975" ht="12"/>
-    <row r="976" ht="12"/>
-    <row r="977" ht="12"/>
-    <row r="978" ht="12"/>
-    <row r="979" ht="12"/>
-    <row r="980" ht="12"/>
-    <row r="981" ht="12"/>
-    <row r="982" ht="12"/>
-    <row r="983" ht="12"/>
-    <row r="984" ht="12"/>
-    <row r="985" ht="12"/>
-    <row r="986" ht="12"/>
-    <row r="987" ht="12"/>
-    <row r="988" ht="12"/>
-    <row r="989" ht="12"/>
-    <row r="990" ht="12"/>
-    <row r="991" ht="12"/>
-    <row r="992" ht="12"/>
-    <row r="993" ht="12"/>
-    <row r="994" ht="12"/>
+    <row r="215" spans="2:2" ht="13"/>
+    <row r="216" spans="2:2" ht="13"/>
+    <row r="217" spans="2:2" ht="13"/>
+    <row r="218" spans="2:2" ht="13"/>
+    <row r="219" spans="2:2" ht="13"/>
+    <row r="220" spans="2:2" ht="13"/>
+    <row r="221" spans="2:2" ht="13"/>
+    <row r="222" spans="2:2" ht="13"/>
+    <row r="223" spans="2:2" ht="13"/>
+    <row r="224" spans="2:2" ht="13"/>
+    <row r="225" ht="13"/>
+    <row r="226" ht="13"/>
+    <row r="227" ht="13"/>
+    <row r="228" ht="13"/>
+    <row r="229" ht="13"/>
+    <row r="230" ht="13"/>
+    <row r="231" ht="13"/>
+    <row r="232" ht="13"/>
+    <row r="233" ht="13"/>
+    <row r="234" ht="13"/>
+    <row r="235" ht="13"/>
+    <row r="236" ht="13"/>
+    <row r="237" ht="13"/>
+    <row r="238" ht="13"/>
+    <row r="239" ht="13"/>
+    <row r="240" ht="13"/>
+    <row r="241" ht="13"/>
+    <row r="242" ht="13"/>
+    <row r="243" ht="13"/>
+    <row r="244" ht="13"/>
+    <row r="245" ht="13"/>
+    <row r="246" ht="13"/>
+    <row r="247" ht="13"/>
+    <row r="248" ht="13"/>
+    <row r="249" ht="13"/>
+    <row r="250" ht="13"/>
+    <row r="251" ht="13"/>
+    <row r="252" ht="13"/>
+    <row r="253" ht="13"/>
+    <row r="254" ht="13"/>
+    <row r="255" ht="13"/>
+    <row r="256" ht="13"/>
+    <row r="257" ht="13"/>
+    <row r="258" ht="13"/>
+    <row r="259" ht="13"/>
+    <row r="260" ht="13"/>
+    <row r="261" ht="13"/>
+    <row r="262" ht="13"/>
+    <row r="263" ht="13"/>
+    <row r="264" ht="13"/>
+    <row r="265" ht="13"/>
+    <row r="266" ht="13"/>
+    <row r="267" ht="13"/>
+    <row r="268" ht="13"/>
+    <row r="269" ht="13"/>
+    <row r="270" ht="13"/>
+    <row r="271" ht="13"/>
+    <row r="272" ht="13"/>
+    <row r="273" ht="13"/>
+    <row r="274" ht="13"/>
+    <row r="275" ht="13"/>
+    <row r="276" ht="13"/>
+    <row r="277" ht="13"/>
+    <row r="278" ht="13"/>
+    <row r="279" ht="13"/>
+    <row r="280" ht="13"/>
+    <row r="281" ht="13"/>
+    <row r="282" ht="13"/>
+    <row r="283" ht="13"/>
+    <row r="284" ht="13"/>
+    <row r="285" ht="13"/>
+    <row r="286" ht="13"/>
+    <row r="287" ht="13"/>
+    <row r="288" ht="13"/>
+    <row r="289" ht="13"/>
+    <row r="290" ht="13"/>
+    <row r="291" ht="13"/>
+    <row r="292" ht="13"/>
+    <row r="293" ht="13"/>
+    <row r="294" ht="13"/>
+    <row r="295" ht="13"/>
+    <row r="296" ht="13"/>
+    <row r="297" ht="13"/>
+    <row r="298" ht="13"/>
+    <row r="299" ht="13"/>
+    <row r="300" ht="13"/>
+    <row r="301" ht="13"/>
+    <row r="302" ht="13"/>
+    <row r="303" ht="13"/>
+    <row r="304" ht="13"/>
+    <row r="305" ht="13"/>
+    <row r="306" ht="13"/>
+    <row r="307" ht="13"/>
+    <row r="308" ht="13"/>
+    <row r="309" ht="13"/>
+    <row r="310" ht="13"/>
+    <row r="311" ht="13"/>
+    <row r="312" ht="13"/>
+    <row r="313" ht="13"/>
+    <row r="314" ht="13"/>
+    <row r="315" ht="13"/>
+    <row r="316" ht="13"/>
+    <row r="317" ht="13"/>
+    <row r="318" ht="13"/>
+    <row r="319" ht="13"/>
+    <row r="320" ht="13"/>
+    <row r="321" ht="13"/>
+    <row r="322" ht="13"/>
+    <row r="323" ht="13"/>
+    <row r="324" ht="13"/>
+    <row r="325" ht="13"/>
+    <row r="326" ht="13"/>
+    <row r="327" ht="13"/>
+    <row r="328" ht="13"/>
+    <row r="329" ht="13"/>
+    <row r="330" ht="13"/>
+    <row r="331" ht="13"/>
+    <row r="332" ht="13"/>
+    <row r="333" ht="13"/>
+    <row r="334" ht="13"/>
+    <row r="335" ht="13"/>
+    <row r="336" ht="13"/>
+    <row r="337" ht="13"/>
+    <row r="338" ht="13"/>
+    <row r="339" ht="13"/>
+    <row r="340" ht="13"/>
+    <row r="341" ht="13"/>
+    <row r="342" ht="13"/>
+    <row r="343" ht="13"/>
+    <row r="344" ht="13"/>
+    <row r="345" ht="13"/>
+    <row r="346" ht="13"/>
+    <row r="347" ht="13"/>
+    <row r="348" ht="13"/>
+    <row r="349" ht="13"/>
+    <row r="350" ht="13"/>
+    <row r="351" ht="13"/>
+    <row r="352" ht="13"/>
+    <row r="353" ht="13"/>
+    <row r="354" ht="13"/>
+    <row r="355" ht="13"/>
+    <row r="356" ht="13"/>
+    <row r="357" ht="13"/>
+    <row r="358" ht="13"/>
+    <row r="359" ht="13"/>
+    <row r="360" ht="13"/>
+    <row r="361" ht="13"/>
+    <row r="362" ht="13"/>
+    <row r="363" ht="13"/>
+    <row r="364" ht="13"/>
+    <row r="365" ht="13"/>
+    <row r="366" ht="13"/>
+    <row r="367" ht="13"/>
+    <row r="368" ht="13"/>
+    <row r="369" ht="13"/>
+    <row r="370" ht="13"/>
+    <row r="371" ht="13"/>
+    <row r="372" ht="13"/>
+    <row r="373" ht="13"/>
+    <row r="374" ht="13"/>
+    <row r="375" ht="13"/>
+    <row r="376" ht="13"/>
+    <row r="377" ht="13"/>
+    <row r="378" ht="13"/>
+    <row r="379" ht="13"/>
+    <row r="380" ht="13"/>
+    <row r="381" ht="13"/>
+    <row r="382" ht="13"/>
+    <row r="383" ht="13"/>
+    <row r="384" ht="13"/>
+    <row r="385" ht="13"/>
+    <row r="386" ht="13"/>
+    <row r="387" ht="13"/>
+    <row r="388" ht="13"/>
+    <row r="389" ht="13"/>
+    <row r="390" ht="13"/>
+    <row r="391" ht="13"/>
+    <row r="392" ht="13"/>
+    <row r="393" ht="13"/>
+    <row r="394" ht="13"/>
+    <row r="395" ht="13"/>
+    <row r="396" ht="13"/>
+    <row r="397" ht="13"/>
+    <row r="398" ht="13"/>
+    <row r="399" ht="13"/>
+    <row r="400" ht="13"/>
+    <row r="401" ht="13"/>
+    <row r="402" ht="13"/>
+    <row r="403" ht="13"/>
+    <row r="404" ht="13"/>
+    <row r="405" ht="13"/>
+    <row r="406" ht="13"/>
+    <row r="407" ht="13"/>
+    <row r="408" ht="13"/>
+    <row r="409" ht="13"/>
+    <row r="410" ht="13"/>
+    <row r="411" ht="13"/>
+    <row r="412" ht="13"/>
+    <row r="413" ht="13"/>
+    <row r="414" ht="13"/>
+    <row r="415" ht="13"/>
+    <row r="416" ht="13"/>
+    <row r="417" ht="13"/>
+    <row r="418" ht="13"/>
+    <row r="419" ht="13"/>
+    <row r="420" ht="13"/>
+    <row r="421" ht="13"/>
+    <row r="422" ht="13"/>
+    <row r="423" ht="13"/>
+    <row r="424" ht="13"/>
+    <row r="425" ht="13"/>
+    <row r="426" ht="13"/>
+    <row r="427" ht="13"/>
+    <row r="428" ht="13"/>
+    <row r="429" ht="13"/>
+    <row r="430" ht="13"/>
+    <row r="431" ht="13"/>
+    <row r="432" ht="13"/>
+    <row r="433" ht="13"/>
+    <row r="434" ht="13"/>
+    <row r="435" ht="13"/>
+    <row r="436" ht="13"/>
+    <row r="437" ht="13"/>
+    <row r="438" ht="13"/>
+    <row r="439" ht="13"/>
+    <row r="440" ht="13"/>
+    <row r="441" ht="13"/>
+    <row r="442" ht="13"/>
+    <row r="443" ht="13"/>
+    <row r="444" ht="13"/>
+    <row r="445" ht="13"/>
+    <row r="446" ht="13"/>
+    <row r="447" ht="13"/>
+    <row r="448" ht="13"/>
+    <row r="449" ht="13"/>
+    <row r="450" ht="13"/>
+    <row r="451" ht="13"/>
+    <row r="452" ht="13"/>
+    <row r="453" ht="13"/>
+    <row r="454" ht="13"/>
+    <row r="455" ht="13"/>
+    <row r="456" ht="13"/>
+    <row r="457" ht="13"/>
+    <row r="458" ht="13"/>
+    <row r="459" ht="13"/>
+    <row r="460" ht="13"/>
+    <row r="461" ht="13"/>
+    <row r="462" ht="13"/>
+    <row r="463" ht="13"/>
+    <row r="464" ht="13"/>
+    <row r="465" ht="13"/>
+    <row r="466" ht="13"/>
+    <row r="467" ht="13"/>
+    <row r="468" ht="13"/>
+    <row r="469" ht="13"/>
+    <row r="470" ht="13"/>
+    <row r="471" ht="13"/>
+    <row r="472" ht="13"/>
+    <row r="473" ht="13"/>
+    <row r="474" ht="13"/>
+    <row r="475" ht="13"/>
+    <row r="476" ht="13"/>
+    <row r="477" ht="13"/>
+    <row r="478" ht="13"/>
+    <row r="479" ht="13"/>
+    <row r="480" ht="13"/>
+    <row r="481" ht="13"/>
+    <row r="482" ht="13"/>
+    <row r="483" ht="13"/>
+    <row r="484" ht="13"/>
+    <row r="485" ht="13"/>
+    <row r="486" ht="13"/>
+    <row r="487" ht="13"/>
+    <row r="488" ht="13"/>
+    <row r="489" ht="13"/>
+    <row r="490" ht="13"/>
+    <row r="491" ht="13"/>
+    <row r="492" ht="13"/>
+    <row r="493" ht="13"/>
+    <row r="494" ht="13"/>
+    <row r="495" ht="13"/>
+    <row r="496" ht="13"/>
+    <row r="497" ht="13"/>
+    <row r="498" ht="13"/>
+    <row r="499" ht="13"/>
+    <row r="500" ht="13"/>
+    <row r="501" ht="13"/>
+    <row r="502" ht="13"/>
+    <row r="503" ht="13"/>
+    <row r="504" ht="13"/>
+    <row r="505" ht="13"/>
+    <row r="506" ht="13"/>
+    <row r="507" ht="13"/>
+    <row r="508" ht="13"/>
+    <row r="509" ht="13"/>
+    <row r="510" ht="13"/>
+    <row r="511" ht="13"/>
+    <row r="512" ht="13"/>
+    <row r="513" ht="13"/>
+    <row r="514" ht="13"/>
+    <row r="515" ht="13"/>
+    <row r="516" ht="13"/>
+    <row r="517" ht="13"/>
+    <row r="518" ht="13"/>
+    <row r="519" ht="13"/>
+    <row r="520" ht="13"/>
+    <row r="521" ht="13"/>
+    <row r="522" ht="13"/>
+    <row r="523" ht="13"/>
+    <row r="524" ht="13"/>
+    <row r="525" ht="13"/>
+    <row r="526" ht="13"/>
+    <row r="527" ht="13"/>
+    <row r="528" ht="13"/>
+    <row r="529" ht="13"/>
+    <row r="530" ht="13"/>
+    <row r="531" ht="13"/>
+    <row r="532" ht="13"/>
+    <row r="533" ht="13"/>
+    <row r="534" ht="13"/>
+    <row r="535" ht="13"/>
+    <row r="536" ht="13"/>
+    <row r="537" ht="13"/>
+    <row r="538" ht="13"/>
+    <row r="539" ht="13"/>
+    <row r="540" ht="13"/>
+    <row r="541" ht="13"/>
+    <row r="542" ht="13"/>
+    <row r="543" ht="13"/>
+    <row r="544" ht="13"/>
+    <row r="545" ht="13"/>
+    <row r="546" ht="13"/>
+    <row r="547" ht="13"/>
+    <row r="548" ht="13"/>
+    <row r="549" ht="13"/>
+    <row r="550" ht="13"/>
+    <row r="551" ht="13"/>
+    <row r="552" ht="13"/>
+    <row r="553" ht="13"/>
+    <row r="554" ht="13"/>
+    <row r="555" ht="13"/>
+    <row r="556" ht="13"/>
+    <row r="557" ht="13"/>
+    <row r="558" ht="13"/>
+    <row r="559" ht="13"/>
+    <row r="560" ht="13"/>
+    <row r="561" ht="13"/>
+    <row r="562" ht="13"/>
+    <row r="563" ht="13"/>
+    <row r="564" ht="13"/>
+    <row r="565" ht="13"/>
+    <row r="566" ht="13"/>
+    <row r="567" ht="13"/>
+    <row r="568" ht="13"/>
+    <row r="569" ht="13"/>
+    <row r="570" ht="13"/>
+    <row r="571" ht="13"/>
+    <row r="572" ht="13"/>
+    <row r="573" ht="13"/>
+    <row r="574" ht="13"/>
+    <row r="575" ht="13"/>
+    <row r="576" ht="13"/>
+    <row r="577" ht="13"/>
+    <row r="578" ht="13"/>
+    <row r="579" ht="13"/>
+    <row r="580" ht="13"/>
+    <row r="581" ht="13"/>
+    <row r="582" ht="13"/>
+    <row r="583" ht="13"/>
+    <row r="584" ht="13"/>
+    <row r="585" ht="13"/>
+    <row r="586" ht="13"/>
+    <row r="587" ht="13"/>
+    <row r="588" ht="13"/>
+    <row r="589" ht="13"/>
+    <row r="590" ht="13"/>
+    <row r="591" ht="13"/>
+    <row r="592" ht="13"/>
+    <row r="593" ht="13"/>
+    <row r="594" ht="13"/>
+    <row r="595" ht="13"/>
+    <row r="596" ht="13"/>
+    <row r="597" ht="13"/>
+    <row r="598" ht="13"/>
+    <row r="599" ht="13"/>
+    <row r="600" ht="13"/>
+    <row r="601" ht="13"/>
+    <row r="602" ht="13"/>
+    <row r="603" ht="13"/>
+    <row r="604" ht="13"/>
+    <row r="605" ht="13"/>
+    <row r="606" ht="13"/>
+    <row r="607" ht="13"/>
+    <row r="608" ht="13"/>
+    <row r="609" ht="13"/>
+    <row r="610" ht="13"/>
+    <row r="611" ht="13"/>
+    <row r="612" ht="13"/>
+    <row r="613" ht="13"/>
+    <row r="614" ht="13"/>
+    <row r="615" ht="13"/>
+    <row r="616" ht="13"/>
+    <row r="617" ht="13"/>
+    <row r="618" ht="13"/>
+    <row r="619" ht="13"/>
+    <row r="620" ht="13"/>
+    <row r="621" ht="13"/>
+    <row r="622" ht="13"/>
+    <row r="623" ht="13"/>
+    <row r="624" ht="13"/>
+    <row r="625" ht="13"/>
+    <row r="626" ht="13"/>
+    <row r="627" ht="13"/>
+    <row r="628" ht="13"/>
+    <row r="629" ht="13"/>
+    <row r="630" ht="13"/>
+    <row r="631" ht="13"/>
+    <row r="632" ht="13"/>
+    <row r="633" ht="13"/>
+    <row r="634" ht="13"/>
+    <row r="635" ht="13"/>
+    <row r="636" ht="13"/>
+    <row r="637" ht="13"/>
+    <row r="638" ht="13"/>
+    <row r="639" ht="13"/>
+    <row r="640" ht="13"/>
+    <row r="641" ht="13"/>
+    <row r="642" ht="13"/>
+    <row r="643" ht="13"/>
+    <row r="644" ht="13"/>
+    <row r="645" ht="13"/>
+    <row r="646" ht="13"/>
+    <row r="647" ht="13"/>
+    <row r="648" ht="13"/>
+    <row r="649" ht="13"/>
+    <row r="650" ht="13"/>
+    <row r="651" ht="13"/>
+    <row r="652" ht="13"/>
+    <row r="653" ht="13"/>
+    <row r="654" ht="13"/>
+    <row r="655" ht="13"/>
+    <row r="656" ht="13"/>
+    <row r="657" ht="13"/>
+    <row r="658" ht="13"/>
+    <row r="659" ht="13"/>
+    <row r="660" ht="13"/>
+    <row r="661" ht="13"/>
+    <row r="662" ht="13"/>
+    <row r="663" ht="13"/>
+    <row r="664" ht="13"/>
+    <row r="665" ht="13"/>
+    <row r="666" ht="13"/>
+    <row r="667" ht="13"/>
+    <row r="668" ht="13"/>
+    <row r="669" ht="13"/>
+    <row r="670" ht="13"/>
+    <row r="671" ht="13"/>
+    <row r="672" ht="13"/>
+    <row r="673" ht="13"/>
+    <row r="674" ht="13"/>
+    <row r="675" ht="13"/>
+    <row r="676" ht="13"/>
+    <row r="677" ht="13"/>
+    <row r="678" ht="13"/>
+    <row r="679" ht="13"/>
+    <row r="680" ht="13"/>
+    <row r="681" ht="13"/>
+    <row r="682" ht="13"/>
+    <row r="683" ht="13"/>
+    <row r="684" ht="13"/>
+    <row r="685" ht="13"/>
+    <row r="686" ht="13"/>
+    <row r="687" ht="13"/>
+    <row r="688" ht="13"/>
+    <row r="689" ht="13"/>
+    <row r="690" ht="13"/>
+    <row r="691" ht="13"/>
+    <row r="692" ht="13"/>
+    <row r="693" ht="13"/>
+    <row r="694" ht="13"/>
+    <row r="695" ht="13"/>
+    <row r="696" ht="13"/>
+    <row r="697" ht="13"/>
+    <row r="698" ht="13"/>
+    <row r="699" ht="13"/>
+    <row r="700" ht="13"/>
+    <row r="701" ht="13"/>
+    <row r="702" ht="13"/>
+    <row r="703" ht="13"/>
+    <row r="704" ht="13"/>
+    <row r="705" ht="13"/>
+    <row r="706" ht="13"/>
+    <row r="707" ht="13"/>
+    <row r="708" ht="13"/>
+    <row r="709" ht="13"/>
+    <row r="710" ht="13"/>
+    <row r="711" ht="13"/>
+    <row r="712" ht="13"/>
+    <row r="713" ht="13"/>
+    <row r="714" ht="13"/>
+    <row r="715" ht="13"/>
+    <row r="716" ht="13"/>
+    <row r="717" ht="13"/>
+    <row r="718" ht="13"/>
+    <row r="719" ht="13"/>
+    <row r="720" ht="13"/>
+    <row r="721" ht="13"/>
+    <row r="722" ht="13"/>
+    <row r="723" ht="13"/>
+    <row r="724" ht="13"/>
+    <row r="725" ht="13"/>
+    <row r="726" ht="13"/>
+    <row r="727" ht="13"/>
+    <row r="728" ht="13"/>
+    <row r="729" ht="13"/>
+    <row r="730" ht="13"/>
+    <row r="731" ht="13"/>
+    <row r="732" ht="13"/>
+    <row r="733" ht="13"/>
+    <row r="734" ht="13"/>
+    <row r="735" ht="13"/>
+    <row r="736" ht="13"/>
+    <row r="737" ht="13"/>
+    <row r="738" ht="13"/>
+    <row r="739" ht="13"/>
+    <row r="740" ht="13"/>
+    <row r="741" ht="13"/>
+    <row r="742" ht="13"/>
+    <row r="743" ht="13"/>
+    <row r="744" ht="13"/>
+    <row r="745" ht="13"/>
+    <row r="746" ht="13"/>
+    <row r="747" ht="13"/>
+    <row r="748" ht="13"/>
+    <row r="749" ht="13"/>
+    <row r="750" ht="13"/>
+    <row r="751" ht="13"/>
+    <row r="752" ht="13"/>
+    <row r="753" ht="13"/>
+    <row r="754" ht="13"/>
+    <row r="755" ht="13"/>
+    <row r="756" ht="13"/>
+    <row r="757" ht="13"/>
+    <row r="758" ht="13"/>
+    <row r="759" ht="13"/>
+    <row r="760" ht="13"/>
+    <row r="761" ht="13"/>
+    <row r="762" ht="13"/>
+    <row r="763" ht="13"/>
+    <row r="764" ht="13"/>
+    <row r="765" ht="13"/>
+    <row r="766" ht="13"/>
+    <row r="767" ht="13"/>
+    <row r="768" ht="13"/>
+    <row r="769" ht="13"/>
+    <row r="770" ht="13"/>
+    <row r="771" ht="13"/>
+    <row r="772" ht="13"/>
+    <row r="773" ht="13"/>
+    <row r="774" ht="13"/>
+    <row r="775" ht="13"/>
+    <row r="776" ht="13"/>
+    <row r="777" ht="13"/>
+    <row r="778" ht="13"/>
+    <row r="779" ht="13"/>
+    <row r="780" ht="13"/>
+    <row r="781" ht="13"/>
+    <row r="782" ht="13"/>
+    <row r="783" ht="13"/>
+    <row r="784" ht="13"/>
+    <row r="785" ht="13"/>
+    <row r="786" ht="13"/>
+    <row r="787" ht="13"/>
+    <row r="788" ht="13"/>
+    <row r="789" ht="13"/>
+    <row r="790" ht="13"/>
+    <row r="791" ht="13"/>
+    <row r="792" ht="13"/>
+    <row r="793" ht="13"/>
+    <row r="794" ht="13"/>
+    <row r="795" ht="13"/>
+    <row r="796" ht="13"/>
+    <row r="797" ht="13"/>
+    <row r="798" ht="13"/>
+    <row r="799" ht="13"/>
+    <row r="800" ht="13"/>
+    <row r="801" ht="13"/>
+    <row r="802" ht="13"/>
+    <row r="803" ht="13"/>
+    <row r="804" ht="13"/>
+    <row r="805" ht="13"/>
+    <row r="806" ht="13"/>
+    <row r="807" ht="13"/>
+    <row r="808" ht="13"/>
+    <row r="809" ht="13"/>
+    <row r="810" ht="13"/>
+    <row r="811" ht="13"/>
+    <row r="812" ht="13"/>
+    <row r="813" ht="13"/>
+    <row r="814" ht="13"/>
+    <row r="815" ht="13"/>
+    <row r="816" ht="13"/>
+    <row r="817" ht="13"/>
+    <row r="818" ht="13"/>
+    <row r="819" ht="13"/>
+    <row r="820" ht="13"/>
+    <row r="821" ht="13"/>
+    <row r="822" ht="13"/>
+    <row r="823" ht="13"/>
+    <row r="824" ht="13"/>
+    <row r="825" ht="13"/>
+    <row r="826" ht="13"/>
+    <row r="827" ht="13"/>
+    <row r="828" ht="13"/>
+    <row r="829" ht="13"/>
+    <row r="830" ht="13"/>
+    <row r="831" ht="13"/>
+    <row r="832" ht="13"/>
+    <row r="833" ht="13"/>
+    <row r="834" ht="13"/>
+    <row r="835" ht="13"/>
+    <row r="836" ht="13"/>
+    <row r="837" ht="13"/>
+    <row r="838" ht="13"/>
+    <row r="839" ht="13"/>
+    <row r="840" ht="13"/>
+    <row r="841" ht="13"/>
+    <row r="842" ht="13"/>
+    <row r="843" ht="13"/>
+    <row r="844" ht="13"/>
+    <row r="845" ht="13"/>
+    <row r="846" ht="13"/>
+    <row r="847" ht="13"/>
+    <row r="848" ht="13"/>
+    <row r="849" ht="13"/>
+    <row r="850" ht="13"/>
+    <row r="851" ht="13"/>
+    <row r="852" ht="13"/>
+    <row r="853" ht="13"/>
+    <row r="854" ht="13"/>
+    <row r="855" ht="13"/>
+    <row r="856" ht="13"/>
+    <row r="857" ht="13"/>
+    <row r="858" ht="13"/>
+    <row r="859" ht="13"/>
+    <row r="860" ht="13"/>
+    <row r="861" ht="13"/>
+    <row r="862" ht="13"/>
+    <row r="863" ht="13"/>
+    <row r="864" ht="13"/>
+    <row r="865" ht="13"/>
+    <row r="866" ht="13"/>
+    <row r="867" ht="13"/>
+    <row r="868" ht="13"/>
+    <row r="869" ht="13"/>
+    <row r="870" ht="13"/>
+    <row r="871" ht="13"/>
+    <row r="872" ht="13"/>
+    <row r="873" ht="13"/>
+    <row r="874" ht="13"/>
+    <row r="875" ht="13"/>
+    <row r="876" ht="13"/>
+    <row r="877" ht="13"/>
+    <row r="878" ht="13"/>
+    <row r="879" ht="13"/>
+    <row r="880" ht="13"/>
+    <row r="881" ht="13"/>
+    <row r="882" ht="13"/>
+    <row r="883" ht="13"/>
+    <row r="884" ht="13"/>
+    <row r="885" ht="13"/>
+    <row r="886" ht="13"/>
+    <row r="887" ht="13"/>
+    <row r="888" ht="13"/>
+    <row r="889" ht="13"/>
+    <row r="890" ht="13"/>
+    <row r="891" ht="13"/>
+    <row r="892" ht="13"/>
+    <row r="893" ht="13"/>
+    <row r="894" ht="13"/>
+    <row r="895" ht="13"/>
+    <row r="896" ht="13"/>
+    <row r="897" ht="13"/>
+    <row r="898" ht="13"/>
+    <row r="899" ht="13"/>
+    <row r="900" ht="13"/>
+    <row r="901" ht="13"/>
+    <row r="902" ht="13"/>
+    <row r="903" ht="13"/>
+    <row r="904" ht="13"/>
+    <row r="905" ht="13"/>
+    <row r="906" ht="13"/>
+    <row r="907" ht="13"/>
+    <row r="908" ht="13"/>
+    <row r="909" ht="13"/>
+    <row r="910" ht="13"/>
+    <row r="911" ht="13"/>
+    <row r="912" ht="13"/>
+    <row r="913" ht="13"/>
+    <row r="914" ht="13"/>
+    <row r="915" ht="13"/>
+    <row r="916" ht="13"/>
+    <row r="917" ht="13"/>
+    <row r="918" ht="13"/>
+    <row r="919" ht="13"/>
+    <row r="920" ht="13"/>
+    <row r="921" ht="13"/>
+    <row r="922" ht="13"/>
+    <row r="923" ht="13"/>
+    <row r="924" ht="13"/>
+    <row r="925" ht="13"/>
+    <row r="926" ht="13"/>
+    <row r="927" ht="13"/>
+    <row r="928" ht="13"/>
+    <row r="929" ht="13"/>
+    <row r="930" ht="13"/>
+    <row r="931" ht="13"/>
+    <row r="932" ht="13"/>
+    <row r="933" ht="13"/>
+    <row r="934" ht="13"/>
+    <row r="935" ht="13"/>
+    <row r="936" ht="13"/>
+    <row r="937" ht="13"/>
+    <row r="938" ht="13"/>
+    <row r="939" ht="13"/>
+    <row r="940" ht="13"/>
+    <row r="941" ht="13"/>
+    <row r="942" ht="13"/>
+    <row r="943" ht="13"/>
+    <row r="944" ht="13"/>
+    <row r="945" ht="13"/>
+    <row r="946" ht="13"/>
+    <row r="947" ht="13"/>
+    <row r="948" ht="13"/>
+    <row r="949" ht="13"/>
+    <row r="950" ht="13"/>
+    <row r="951" ht="13"/>
+    <row r="952" ht="13"/>
+    <row r="953" ht="13"/>
+    <row r="954" ht="13"/>
+    <row r="955" ht="13"/>
+    <row r="956" ht="13"/>
+    <row r="957" ht="13"/>
+    <row r="958" ht="13"/>
+    <row r="959" ht="13"/>
+    <row r="960" ht="13"/>
+    <row r="961" ht="13"/>
+    <row r="962" ht="13"/>
+    <row r="963" ht="13"/>
+    <row r="964" ht="13"/>
+    <row r="965" ht="13"/>
+    <row r="966" ht="13"/>
+    <row r="967" ht="13"/>
+    <row r="968" ht="13"/>
+    <row r="969" ht="13"/>
+    <row r="970" ht="13"/>
+    <row r="971" ht="13"/>
+    <row r="972" ht="13"/>
+    <row r="973" ht="13"/>
+    <row r="974" ht="13"/>
+    <row r="975" ht="13"/>
+    <row r="976" ht="13"/>
+    <row r="977" ht="13"/>
+    <row r="978" ht="13"/>
+    <row r="979" ht="13"/>
+    <row r="980" ht="13"/>
+    <row r="981" ht="13"/>
+    <row r="982" ht="13"/>
+    <row r="983" ht="13"/>
+    <row r="984" ht="13"/>
+    <row r="985" ht="13"/>
+    <row r="986" ht="13"/>
+    <row r="987" ht="13"/>
+    <row r="988" ht="13"/>
+    <row r="989" ht="13"/>
+    <row r="990" ht="13"/>
+    <row r="991" ht="13"/>
+    <row r="992" ht="13"/>
+    <row r="993" ht="13"/>
+    <row r="994" ht="13"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -10108,15 +10120,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
@@ -10138,7 +10150,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" ht="14">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -10150,7 +10162,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" ht="14">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -10162,7 +10174,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="14">
       <c r="A4" s="18">
         <v>26</v>
       </c>
@@ -10174,7 +10186,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="14">
       <c r="A5" s="18">
         <v>40</v>
       </c>
@@ -10186,7 +10198,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="14">
       <c r="A6" s="20">
         <v>41</v>
       </c>
@@ -10198,7 +10210,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="14">
       <c r="A7" s="20">
         <v>43</v>
       </c>
@@ -10210,7 +10222,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="14">
       <c r="A8" s="20">
         <v>45</v>
       </c>
@@ -10222,40 +10234,40 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13">
+    <row r="9" spans="1:4" ht="14">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="13">
+    <row r="10" spans="1:4" ht="14">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="13">
+    <row r="11" spans="1:4" ht="14">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="13">
+    <row r="12" spans="1:4" ht="14">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="13">
+    <row r="13" spans="1:4" ht="14">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="13">
+    <row r="14" spans="1:4" ht="14">
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="13">
+    <row r="15" spans="1:4" ht="14">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="13">
+    <row r="16" spans="1:4" ht="14">
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="2:2" ht="13">
+    <row r="17" spans="2:2" ht="14">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:2" ht="13">
+    <row r="18" spans="2:2" ht="14">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="2:2" ht="13">
+    <row r="19" spans="2:2" ht="14">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:2" ht="13">
+    <row r="20" spans="2:2" ht="14">
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="2:2" ht="15.75" customHeight="1">
@@ -10858,786 +10870,786 @@
     <row r="220" spans="2:2" ht="15.75" customHeight="1">
       <c r="B220" s="4"/>
     </row>
-    <row r="221" spans="2:2" ht="12"/>
-    <row r="222" spans="2:2" ht="12"/>
-    <row r="223" spans="2:2" ht="12"/>
-    <row r="224" spans="2:2" ht="12"/>
-    <row r="225" ht="12"/>
-    <row r="226" ht="12"/>
-    <row r="227" ht="12"/>
-    <row r="228" ht="12"/>
-    <row r="229" ht="12"/>
-    <row r="230" ht="12"/>
-    <row r="231" ht="12"/>
-    <row r="232" ht="12"/>
-    <row r="233" ht="12"/>
-    <row r="234" ht="12"/>
-    <row r="235" ht="12"/>
-    <row r="236" ht="12"/>
-    <row r="237" ht="12"/>
-    <row r="238" ht="12"/>
-    <row r="239" ht="12"/>
-    <row r="240" ht="12"/>
-    <row r="241" ht="12"/>
-    <row r="242" ht="12"/>
-    <row r="243" ht="12"/>
-    <row r="244" ht="12"/>
-    <row r="245" ht="12"/>
-    <row r="246" ht="12"/>
-    <row r="247" ht="12"/>
-    <row r="248" ht="12"/>
-    <row r="249" ht="12"/>
-    <row r="250" ht="12"/>
-    <row r="251" ht="12"/>
-    <row r="252" ht="12"/>
-    <row r="253" ht="12"/>
-    <row r="254" ht="12"/>
-    <row r="255" ht="12"/>
-    <row r="256" ht="12"/>
-    <row r="257" ht="12"/>
-    <row r="258" ht="12"/>
-    <row r="259" ht="12"/>
-    <row r="260" ht="12"/>
-    <row r="261" ht="12"/>
-    <row r="262" ht="12"/>
-    <row r="263" ht="12"/>
-    <row r="264" ht="12"/>
-    <row r="265" ht="12"/>
-    <row r="266" ht="12"/>
-    <row r="267" ht="12"/>
-    <row r="268" ht="12"/>
-    <row r="269" ht="12"/>
-    <row r="270" ht="12"/>
-    <row r="271" ht="12"/>
-    <row r="272" ht="12"/>
-    <row r="273" ht="12"/>
-    <row r="274" ht="12"/>
-    <row r="275" ht="12"/>
-    <row r="276" ht="12"/>
-    <row r="277" ht="12"/>
-    <row r="278" ht="12"/>
-    <row r="279" ht="12"/>
-    <row r="280" ht="12"/>
-    <row r="281" ht="12"/>
-    <row r="282" ht="12"/>
-    <row r="283" ht="12"/>
-    <row r="284" ht="12"/>
-    <row r="285" ht="12"/>
-    <row r="286" ht="12"/>
-    <row r="287" ht="12"/>
-    <row r="288" ht="12"/>
-    <row r="289" ht="12"/>
-    <row r="290" ht="12"/>
-    <row r="291" ht="12"/>
-    <row r="292" ht="12"/>
-    <row r="293" ht="12"/>
-    <row r="294" ht="12"/>
-    <row r="295" ht="12"/>
-    <row r="296" ht="12"/>
-    <row r="297" ht="12"/>
-    <row r="298" ht="12"/>
-    <row r="299" ht="12"/>
-    <row r="300" ht="12"/>
-    <row r="301" ht="12"/>
-    <row r="302" ht="12"/>
-    <row r="303" ht="12"/>
-    <row r="304" ht="12"/>
-    <row r="305" ht="12"/>
-    <row r="306" ht="12"/>
-    <row r="307" ht="12"/>
-    <row r="308" ht="12"/>
-    <row r="309" ht="12"/>
-    <row r="310" ht="12"/>
-    <row r="311" ht="12"/>
-    <row r="312" ht="12"/>
-    <row r="313" ht="12"/>
-    <row r="314" ht="12"/>
-    <row r="315" ht="12"/>
-    <row r="316" ht="12"/>
-    <row r="317" ht="12"/>
-    <row r="318" ht="12"/>
-    <row r="319" ht="12"/>
-    <row r="320" ht="12"/>
-    <row r="321" ht="12"/>
-    <row r="322" ht="12"/>
-    <row r="323" ht="12"/>
-    <row r="324" ht="12"/>
-    <row r="325" ht="12"/>
-    <row r="326" ht="12"/>
-    <row r="327" ht="12"/>
-    <row r="328" ht="12"/>
-    <row r="329" ht="12"/>
-    <row r="330" ht="12"/>
-    <row r="331" ht="12"/>
-    <row r="332" ht="12"/>
-    <row r="333" ht="12"/>
-    <row r="334" ht="12"/>
-    <row r="335" ht="12"/>
-    <row r="336" ht="12"/>
-    <row r="337" ht="12"/>
-    <row r="338" ht="12"/>
-    <row r="339" ht="12"/>
-    <row r="340" ht="12"/>
-    <row r="341" ht="12"/>
-    <row r="342" ht="12"/>
-    <row r="343" ht="12"/>
-    <row r="344" ht="12"/>
-    <row r="345" ht="12"/>
-    <row r="346" ht="12"/>
-    <row r="347" ht="12"/>
-    <row r="348" ht="12"/>
-    <row r="349" ht="12"/>
-    <row r="350" ht="12"/>
-    <row r="351" ht="12"/>
-    <row r="352" ht="12"/>
-    <row r="353" ht="12"/>
-    <row r="354" ht="12"/>
-    <row r="355" ht="12"/>
-    <row r="356" ht="12"/>
-    <row r="357" ht="12"/>
-    <row r="358" ht="12"/>
-    <row r="359" ht="12"/>
-    <row r="360" ht="12"/>
-    <row r="361" ht="12"/>
-    <row r="362" ht="12"/>
-    <row r="363" ht="12"/>
-    <row r="364" ht="12"/>
-    <row r="365" ht="12"/>
-    <row r="366" ht="12"/>
-    <row r="367" ht="12"/>
-    <row r="368" ht="12"/>
-    <row r="369" ht="12"/>
-    <row r="370" ht="12"/>
-    <row r="371" ht="12"/>
-    <row r="372" ht="12"/>
-    <row r="373" ht="12"/>
-    <row r="374" ht="12"/>
-    <row r="375" ht="12"/>
-    <row r="376" ht="12"/>
-    <row r="377" ht="12"/>
-    <row r="378" ht="12"/>
-    <row r="379" ht="12"/>
-    <row r="380" ht="12"/>
-    <row r="381" ht="12"/>
-    <row r="382" ht="12"/>
-    <row r="383" ht="12"/>
-    <row r="384" ht="12"/>
-    <row r="385" ht="12"/>
-    <row r="386" ht="12"/>
-    <row r="387" ht="12"/>
-    <row r="388" ht="12"/>
-    <row r="389" ht="12"/>
-    <row r="390" ht="12"/>
-    <row r="391" ht="12"/>
-    <row r="392" ht="12"/>
-    <row r="393" ht="12"/>
-    <row r="394" ht="12"/>
-    <row r="395" ht="12"/>
-    <row r="396" ht="12"/>
-    <row r="397" ht="12"/>
-    <row r="398" ht="12"/>
-    <row r="399" ht="12"/>
-    <row r="400" ht="12"/>
-    <row r="401" ht="12"/>
-    <row r="402" ht="12"/>
-    <row r="403" ht="12"/>
-    <row r="404" ht="12"/>
-    <row r="405" ht="12"/>
-    <row r="406" ht="12"/>
-    <row r="407" ht="12"/>
-    <row r="408" ht="12"/>
-    <row r="409" ht="12"/>
-    <row r="410" ht="12"/>
-    <row r="411" ht="12"/>
-    <row r="412" ht="12"/>
-    <row r="413" ht="12"/>
-    <row r="414" ht="12"/>
-    <row r="415" ht="12"/>
-    <row r="416" ht="12"/>
-    <row r="417" ht="12"/>
-    <row r="418" ht="12"/>
-    <row r="419" ht="12"/>
-    <row r="420" ht="12"/>
-    <row r="421" ht="12"/>
-    <row r="422" ht="12"/>
-    <row r="423" ht="12"/>
-    <row r="424" ht="12"/>
-    <row r="425" ht="12"/>
-    <row r="426" ht="12"/>
-    <row r="427" ht="12"/>
-    <row r="428" ht="12"/>
-    <row r="429" ht="12"/>
-    <row r="430" ht="12"/>
-    <row r="431" ht="12"/>
-    <row r="432" ht="12"/>
-    <row r="433" ht="12"/>
-    <row r="434" ht="12"/>
-    <row r="435" ht="12"/>
-    <row r="436" ht="12"/>
-    <row r="437" ht="12"/>
-    <row r="438" ht="12"/>
-    <row r="439" ht="12"/>
-    <row r="440" ht="12"/>
-    <row r="441" ht="12"/>
-    <row r="442" ht="12"/>
-    <row r="443" ht="12"/>
-    <row r="444" ht="12"/>
-    <row r="445" ht="12"/>
-    <row r="446" ht="12"/>
-    <row r="447" ht="12"/>
-    <row r="448" ht="12"/>
-    <row r="449" ht="12"/>
-    <row r="450" ht="12"/>
-    <row r="451" ht="12"/>
-    <row r="452" ht="12"/>
-    <row r="453" ht="12"/>
-    <row r="454" ht="12"/>
-    <row r="455" ht="12"/>
-    <row r="456" ht="12"/>
-    <row r="457" ht="12"/>
-    <row r="458" ht="12"/>
-    <row r="459" ht="12"/>
-    <row r="460" ht="12"/>
-    <row r="461" ht="12"/>
-    <row r="462" ht="12"/>
-    <row r="463" ht="12"/>
-    <row r="464" ht="12"/>
-    <row r="465" ht="12"/>
-    <row r="466" ht="12"/>
-    <row r="467" ht="12"/>
-    <row r="468" ht="12"/>
-    <row r="469" ht="12"/>
-    <row r="470" ht="12"/>
-    <row r="471" ht="12"/>
-    <row r="472" ht="12"/>
-    <row r="473" ht="12"/>
-    <row r="474" ht="12"/>
-    <row r="475" ht="12"/>
-    <row r="476" ht="12"/>
-    <row r="477" ht="12"/>
-    <row r="478" ht="12"/>
-    <row r="479" ht="12"/>
-    <row r="480" ht="12"/>
-    <row r="481" ht="12"/>
-    <row r="482" ht="12"/>
-    <row r="483" ht="12"/>
-    <row r="484" ht="12"/>
-    <row r="485" ht="12"/>
-    <row r="486" ht="12"/>
-    <row r="487" ht="12"/>
-    <row r="488" ht="12"/>
-    <row r="489" ht="12"/>
-    <row r="490" ht="12"/>
-    <row r="491" ht="12"/>
-    <row r="492" ht="12"/>
-    <row r="493" ht="12"/>
-    <row r="494" ht="12"/>
-    <row r="495" ht="12"/>
-    <row r="496" ht="12"/>
-    <row r="497" ht="12"/>
-    <row r="498" ht="12"/>
-    <row r="499" ht="12"/>
-    <row r="500" ht="12"/>
-    <row r="501" ht="12"/>
-    <row r="502" ht="12"/>
-    <row r="503" ht="12"/>
-    <row r="504" ht="12"/>
-    <row r="505" ht="12"/>
-    <row r="506" ht="12"/>
-    <row r="507" ht="12"/>
-    <row r="508" ht="12"/>
-    <row r="509" ht="12"/>
-    <row r="510" ht="12"/>
-    <row r="511" ht="12"/>
-    <row r="512" ht="12"/>
-    <row r="513" ht="12"/>
-    <row r="514" ht="12"/>
-    <row r="515" ht="12"/>
-    <row r="516" ht="12"/>
-    <row r="517" ht="12"/>
-    <row r="518" ht="12"/>
-    <row r="519" ht="12"/>
-    <row r="520" ht="12"/>
-    <row r="521" ht="12"/>
-    <row r="522" ht="12"/>
-    <row r="523" ht="12"/>
-    <row r="524" ht="12"/>
-    <row r="525" ht="12"/>
-    <row r="526" ht="12"/>
-    <row r="527" ht="12"/>
-    <row r="528" ht="12"/>
-    <row r="529" ht="12"/>
-    <row r="530" ht="12"/>
-    <row r="531" ht="12"/>
-    <row r="532" ht="12"/>
-    <row r="533" ht="12"/>
-    <row r="534" ht="12"/>
-    <row r="535" ht="12"/>
-    <row r="536" ht="12"/>
-    <row r="537" ht="12"/>
-    <row r="538" ht="12"/>
-    <row r="539" ht="12"/>
-    <row r="540" ht="12"/>
-    <row r="541" ht="12"/>
-    <row r="542" ht="12"/>
-    <row r="543" ht="12"/>
-    <row r="544" ht="12"/>
-    <row r="545" ht="12"/>
-    <row r="546" ht="12"/>
-    <row r="547" ht="12"/>
-    <row r="548" ht="12"/>
-    <row r="549" ht="12"/>
-    <row r="550" ht="12"/>
-    <row r="551" ht="12"/>
-    <row r="552" ht="12"/>
-    <row r="553" ht="12"/>
-    <row r="554" ht="12"/>
-    <row r="555" ht="12"/>
-    <row r="556" ht="12"/>
-    <row r="557" ht="12"/>
-    <row r="558" ht="12"/>
-    <row r="559" ht="12"/>
-    <row r="560" ht="12"/>
-    <row r="561" ht="12"/>
-    <row r="562" ht="12"/>
-    <row r="563" ht="12"/>
-    <row r="564" ht="12"/>
-    <row r="565" ht="12"/>
-    <row r="566" ht="12"/>
-    <row r="567" ht="12"/>
-    <row r="568" ht="12"/>
-    <row r="569" ht="12"/>
-    <row r="570" ht="12"/>
-    <row r="571" ht="12"/>
-    <row r="572" ht="12"/>
-    <row r="573" ht="12"/>
-    <row r="574" ht="12"/>
-    <row r="575" ht="12"/>
-    <row r="576" ht="12"/>
-    <row r="577" ht="12"/>
-    <row r="578" ht="12"/>
-    <row r="579" ht="12"/>
-    <row r="580" ht="12"/>
-    <row r="581" ht="12"/>
-    <row r="582" ht="12"/>
-    <row r="583" ht="12"/>
-    <row r="584" ht="12"/>
-    <row r="585" ht="12"/>
-    <row r="586" ht="12"/>
-    <row r="587" ht="12"/>
-    <row r="588" ht="12"/>
-    <row r="589" ht="12"/>
-    <row r="590" ht="12"/>
-    <row r="591" ht="12"/>
-    <row r="592" ht="12"/>
-    <row r="593" ht="12"/>
-    <row r="594" ht="12"/>
-    <row r="595" ht="12"/>
-    <row r="596" ht="12"/>
-    <row r="597" ht="12"/>
-    <row r="598" ht="12"/>
-    <row r="599" ht="12"/>
-    <row r="600" ht="12"/>
-    <row r="601" ht="12"/>
-    <row r="602" ht="12"/>
-    <row r="603" ht="12"/>
-    <row r="604" ht="12"/>
-    <row r="605" ht="12"/>
-    <row r="606" ht="12"/>
-    <row r="607" ht="12"/>
-    <row r="608" ht="12"/>
-    <row r="609" ht="12"/>
-    <row r="610" ht="12"/>
-    <row r="611" ht="12"/>
-    <row r="612" ht="12"/>
-    <row r="613" ht="12"/>
-    <row r="614" ht="12"/>
-    <row r="615" ht="12"/>
-    <row r="616" ht="12"/>
-    <row r="617" ht="12"/>
-    <row r="618" ht="12"/>
-    <row r="619" ht="12"/>
-    <row r="620" ht="12"/>
-    <row r="621" ht="12"/>
-    <row r="622" ht="12"/>
-    <row r="623" ht="12"/>
-    <row r="624" ht="12"/>
-    <row r="625" ht="12"/>
-    <row r="626" ht="12"/>
-    <row r="627" ht="12"/>
-    <row r="628" ht="12"/>
-    <row r="629" ht="12"/>
-    <row r="630" ht="12"/>
-    <row r="631" ht="12"/>
-    <row r="632" ht="12"/>
-    <row r="633" ht="12"/>
-    <row r="634" ht="12"/>
-    <row r="635" ht="12"/>
-    <row r="636" ht="12"/>
-    <row r="637" ht="12"/>
-    <row r="638" ht="12"/>
-    <row r="639" ht="12"/>
-    <row r="640" ht="12"/>
-    <row r="641" ht="12"/>
-    <row r="642" ht="12"/>
-    <row r="643" ht="12"/>
-    <row r="644" ht="12"/>
-    <row r="645" ht="12"/>
-    <row r="646" ht="12"/>
-    <row r="647" ht="12"/>
-    <row r="648" ht="12"/>
-    <row r="649" ht="12"/>
-    <row r="650" ht="12"/>
-    <row r="651" ht="12"/>
-    <row r="652" ht="12"/>
-    <row r="653" ht="12"/>
-    <row r="654" ht="12"/>
-    <row r="655" ht="12"/>
-    <row r="656" ht="12"/>
-    <row r="657" ht="12"/>
-    <row r="658" ht="12"/>
-    <row r="659" ht="12"/>
-    <row r="660" ht="12"/>
-    <row r="661" ht="12"/>
-    <row r="662" ht="12"/>
-    <row r="663" ht="12"/>
-    <row r="664" ht="12"/>
-    <row r="665" ht="12"/>
-    <row r="666" ht="12"/>
-    <row r="667" ht="12"/>
-    <row r="668" ht="12"/>
-    <row r="669" ht="12"/>
-    <row r="670" ht="12"/>
-    <row r="671" ht="12"/>
-    <row r="672" ht="12"/>
-    <row r="673" ht="12"/>
-    <row r="674" ht="12"/>
-    <row r="675" ht="12"/>
-    <row r="676" ht="12"/>
-    <row r="677" ht="12"/>
-    <row r="678" ht="12"/>
-    <row r="679" ht="12"/>
-    <row r="680" ht="12"/>
-    <row r="681" ht="12"/>
-    <row r="682" ht="12"/>
-    <row r="683" ht="12"/>
-    <row r="684" ht="12"/>
-    <row r="685" ht="12"/>
-    <row r="686" ht="12"/>
-    <row r="687" ht="12"/>
-    <row r="688" ht="12"/>
-    <row r="689" ht="12"/>
-    <row r="690" ht="12"/>
-    <row r="691" ht="12"/>
-    <row r="692" ht="12"/>
-    <row r="693" ht="12"/>
-    <row r="694" ht="12"/>
-    <row r="695" ht="12"/>
-    <row r="696" ht="12"/>
-    <row r="697" ht="12"/>
-    <row r="698" ht="12"/>
-    <row r="699" ht="12"/>
-    <row r="700" ht="12"/>
-    <row r="701" ht="12"/>
-    <row r="702" ht="12"/>
-    <row r="703" ht="12"/>
-    <row r="704" ht="12"/>
-    <row r="705" ht="12"/>
-    <row r="706" ht="12"/>
-    <row r="707" ht="12"/>
-    <row r="708" ht="12"/>
-    <row r="709" ht="12"/>
-    <row r="710" ht="12"/>
-    <row r="711" ht="12"/>
-    <row r="712" ht="12"/>
-    <row r="713" ht="12"/>
-    <row r="714" ht="12"/>
-    <row r="715" ht="12"/>
-    <row r="716" ht="12"/>
-    <row r="717" ht="12"/>
-    <row r="718" ht="12"/>
-    <row r="719" ht="12"/>
-    <row r="720" ht="12"/>
-    <row r="721" ht="12"/>
-    <row r="722" ht="12"/>
-    <row r="723" ht="12"/>
-    <row r="724" ht="12"/>
-    <row r="725" ht="12"/>
-    <row r="726" ht="12"/>
-    <row r="727" ht="12"/>
-    <row r="728" ht="12"/>
-    <row r="729" ht="12"/>
-    <row r="730" ht="12"/>
-    <row r="731" ht="12"/>
-    <row r="732" ht="12"/>
-    <row r="733" ht="12"/>
-    <row r="734" ht="12"/>
-    <row r="735" ht="12"/>
-    <row r="736" ht="12"/>
-    <row r="737" ht="12"/>
-    <row r="738" ht="12"/>
-    <row r="739" ht="12"/>
-    <row r="740" ht="12"/>
-    <row r="741" ht="12"/>
-    <row r="742" ht="12"/>
-    <row r="743" ht="12"/>
-    <row r="744" ht="12"/>
-    <row r="745" ht="12"/>
-    <row r="746" ht="12"/>
-    <row r="747" ht="12"/>
-    <row r="748" ht="12"/>
-    <row r="749" ht="12"/>
-    <row r="750" ht="12"/>
-    <row r="751" ht="12"/>
-    <row r="752" ht="12"/>
-    <row r="753" ht="12"/>
-    <row r="754" ht="12"/>
-    <row r="755" ht="12"/>
-    <row r="756" ht="12"/>
-    <row r="757" ht="12"/>
-    <row r="758" ht="12"/>
-    <row r="759" ht="12"/>
-    <row r="760" ht="12"/>
-    <row r="761" ht="12"/>
-    <row r="762" ht="12"/>
-    <row r="763" ht="12"/>
-    <row r="764" ht="12"/>
-    <row r="765" ht="12"/>
-    <row r="766" ht="12"/>
-    <row r="767" ht="12"/>
-    <row r="768" ht="12"/>
-    <row r="769" ht="12"/>
-    <row r="770" ht="12"/>
-    <row r="771" ht="12"/>
-    <row r="772" ht="12"/>
-    <row r="773" ht="12"/>
-    <row r="774" ht="12"/>
-    <row r="775" ht="12"/>
-    <row r="776" ht="12"/>
-    <row r="777" ht="12"/>
-    <row r="778" ht="12"/>
-    <row r="779" ht="12"/>
-    <row r="780" ht="12"/>
-    <row r="781" ht="12"/>
-    <row r="782" ht="12"/>
-    <row r="783" ht="12"/>
-    <row r="784" ht="12"/>
-    <row r="785" ht="12"/>
-    <row r="786" ht="12"/>
-    <row r="787" ht="12"/>
-    <row r="788" ht="12"/>
-    <row r="789" ht="12"/>
-    <row r="790" ht="12"/>
-    <row r="791" ht="12"/>
-    <row r="792" ht="12"/>
-    <row r="793" ht="12"/>
-    <row r="794" ht="12"/>
-    <row r="795" ht="12"/>
-    <row r="796" ht="12"/>
-    <row r="797" ht="12"/>
-    <row r="798" ht="12"/>
-    <row r="799" ht="12"/>
-    <row r="800" ht="12"/>
-    <row r="801" ht="12"/>
-    <row r="802" ht="12"/>
-    <row r="803" ht="12"/>
-    <row r="804" ht="12"/>
-    <row r="805" ht="12"/>
-    <row r="806" ht="12"/>
-    <row r="807" ht="12"/>
-    <row r="808" ht="12"/>
-    <row r="809" ht="12"/>
-    <row r="810" ht="12"/>
-    <row r="811" ht="12"/>
-    <row r="812" ht="12"/>
-    <row r="813" ht="12"/>
-    <row r="814" ht="12"/>
-    <row r="815" ht="12"/>
-    <row r="816" ht="12"/>
-    <row r="817" ht="12"/>
-    <row r="818" ht="12"/>
-    <row r="819" ht="12"/>
-    <row r="820" ht="12"/>
-    <row r="821" ht="12"/>
-    <row r="822" ht="12"/>
-    <row r="823" ht="12"/>
-    <row r="824" ht="12"/>
-    <row r="825" ht="12"/>
-    <row r="826" ht="12"/>
-    <row r="827" ht="12"/>
-    <row r="828" ht="12"/>
-    <row r="829" ht="12"/>
-    <row r="830" ht="12"/>
-    <row r="831" ht="12"/>
-    <row r="832" ht="12"/>
-    <row r="833" ht="12"/>
-    <row r="834" ht="12"/>
-    <row r="835" ht="12"/>
-    <row r="836" ht="12"/>
-    <row r="837" ht="12"/>
-    <row r="838" ht="12"/>
-    <row r="839" ht="12"/>
-    <row r="840" ht="12"/>
-    <row r="841" ht="12"/>
-    <row r="842" ht="12"/>
-    <row r="843" ht="12"/>
-    <row r="844" ht="12"/>
-    <row r="845" ht="12"/>
-    <row r="846" ht="12"/>
-    <row r="847" ht="12"/>
-    <row r="848" ht="12"/>
-    <row r="849" ht="12"/>
-    <row r="850" ht="12"/>
-    <row r="851" ht="12"/>
-    <row r="852" ht="12"/>
-    <row r="853" ht="12"/>
-    <row r="854" ht="12"/>
-    <row r="855" ht="12"/>
-    <row r="856" ht="12"/>
-    <row r="857" ht="12"/>
-    <row r="858" ht="12"/>
-    <row r="859" ht="12"/>
-    <row r="860" ht="12"/>
-    <row r="861" ht="12"/>
-    <row r="862" ht="12"/>
-    <row r="863" ht="12"/>
-    <row r="864" ht="12"/>
-    <row r="865" ht="12"/>
-    <row r="866" ht="12"/>
-    <row r="867" ht="12"/>
-    <row r="868" ht="12"/>
-    <row r="869" ht="12"/>
-    <row r="870" ht="12"/>
-    <row r="871" ht="12"/>
-    <row r="872" ht="12"/>
-    <row r="873" ht="12"/>
-    <row r="874" ht="12"/>
-    <row r="875" ht="12"/>
-    <row r="876" ht="12"/>
-    <row r="877" ht="12"/>
-    <row r="878" ht="12"/>
-    <row r="879" ht="12"/>
-    <row r="880" ht="12"/>
-    <row r="881" ht="12"/>
-    <row r="882" ht="12"/>
-    <row r="883" ht="12"/>
-    <row r="884" ht="12"/>
-    <row r="885" ht="12"/>
-    <row r="886" ht="12"/>
-    <row r="887" ht="12"/>
-    <row r="888" ht="12"/>
-    <row r="889" ht="12"/>
-    <row r="890" ht="12"/>
-    <row r="891" ht="12"/>
-    <row r="892" ht="12"/>
-    <row r="893" ht="12"/>
-    <row r="894" ht="12"/>
-    <row r="895" ht="12"/>
-    <row r="896" ht="12"/>
-    <row r="897" ht="12"/>
-    <row r="898" ht="12"/>
-    <row r="899" ht="12"/>
-    <row r="900" ht="12"/>
-    <row r="901" ht="12"/>
-    <row r="902" ht="12"/>
-    <row r="903" ht="12"/>
-    <row r="904" ht="12"/>
-    <row r="905" ht="12"/>
-    <row r="906" ht="12"/>
-    <row r="907" ht="12"/>
-    <row r="908" ht="12"/>
-    <row r="909" ht="12"/>
-    <row r="910" ht="12"/>
-    <row r="911" ht="12"/>
-    <row r="912" ht="12"/>
-    <row r="913" ht="12"/>
-    <row r="914" ht="12"/>
-    <row r="915" ht="12"/>
-    <row r="916" ht="12"/>
-    <row r="917" ht="12"/>
-    <row r="918" ht="12"/>
-    <row r="919" ht="12"/>
-    <row r="920" ht="12"/>
-    <row r="921" ht="12"/>
-    <row r="922" ht="12"/>
-    <row r="923" ht="12"/>
-    <row r="924" ht="12"/>
-    <row r="925" ht="12"/>
-    <row r="926" ht="12"/>
-    <row r="927" ht="12"/>
-    <row r="928" ht="12"/>
-    <row r="929" ht="12"/>
-    <row r="930" ht="12"/>
-    <row r="931" ht="12"/>
-    <row r="932" ht="12"/>
-    <row r="933" ht="12"/>
-    <row r="934" ht="12"/>
-    <row r="935" ht="12"/>
-    <row r="936" ht="12"/>
-    <row r="937" ht="12"/>
-    <row r="938" ht="12"/>
-    <row r="939" ht="12"/>
-    <row r="940" ht="12"/>
-    <row r="941" ht="12"/>
-    <row r="942" ht="12"/>
-    <row r="943" ht="12"/>
-    <row r="944" ht="12"/>
-    <row r="945" ht="12"/>
-    <row r="946" ht="12"/>
-    <row r="947" ht="12"/>
-    <row r="948" ht="12"/>
-    <row r="949" ht="12"/>
-    <row r="950" ht="12"/>
-    <row r="951" ht="12"/>
-    <row r="952" ht="12"/>
-    <row r="953" ht="12"/>
-    <row r="954" ht="12"/>
-    <row r="955" ht="12"/>
-    <row r="956" ht="12"/>
-    <row r="957" ht="12"/>
-    <row r="958" ht="12"/>
-    <row r="959" ht="12"/>
-    <row r="960" ht="12"/>
-    <row r="961" ht="12"/>
-    <row r="962" ht="12"/>
-    <row r="963" ht="12"/>
-    <row r="964" ht="12"/>
-    <row r="965" ht="12"/>
-    <row r="966" ht="12"/>
-    <row r="967" ht="12"/>
-    <row r="968" ht="12"/>
-    <row r="969" ht="12"/>
-    <row r="970" ht="12"/>
-    <row r="971" ht="12"/>
-    <row r="972" ht="12"/>
-    <row r="973" ht="12"/>
-    <row r="974" ht="12"/>
-    <row r="975" ht="12"/>
-    <row r="976" ht="12"/>
-    <row r="977" ht="12"/>
-    <row r="978" ht="12"/>
-    <row r="979" ht="12"/>
-    <row r="980" ht="12"/>
-    <row r="981" ht="12"/>
-    <row r="982" ht="12"/>
-    <row r="983" ht="12"/>
-    <row r="984" ht="12"/>
-    <row r="985" ht="12"/>
-    <row r="986" ht="12"/>
-    <row r="987" ht="12"/>
-    <row r="988" ht="12"/>
-    <row r="989" ht="12"/>
-    <row r="990" ht="12"/>
-    <row r="991" ht="12"/>
-    <row r="992" ht="12"/>
-    <row r="993" ht="12"/>
-    <row r="994" ht="12"/>
-    <row r="995" ht="12"/>
-    <row r="996" ht="12"/>
-    <row r="997" ht="12"/>
-    <row r="998" ht="12"/>
-    <row r="999" ht="12"/>
-    <row r="1000" ht="12"/>
+    <row r="221" spans="2:2" ht="13"/>
+    <row r="222" spans="2:2" ht="13"/>
+    <row r="223" spans="2:2" ht="13"/>
+    <row r="224" spans="2:2" ht="13"/>
+    <row r="225" ht="13"/>
+    <row r="226" ht="13"/>
+    <row r="227" ht="13"/>
+    <row r="228" ht="13"/>
+    <row r="229" ht="13"/>
+    <row r="230" ht="13"/>
+    <row r="231" ht="13"/>
+    <row r="232" ht="13"/>
+    <row r="233" ht="13"/>
+    <row r="234" ht="13"/>
+    <row r="235" ht="13"/>
+    <row r="236" ht="13"/>
+    <row r="237" ht="13"/>
+    <row r="238" ht="13"/>
+    <row r="239" ht="13"/>
+    <row r="240" ht="13"/>
+    <row r="241" ht="13"/>
+    <row r="242" ht="13"/>
+    <row r="243" ht="13"/>
+    <row r="244" ht="13"/>
+    <row r="245" ht="13"/>
+    <row r="246" ht="13"/>
+    <row r="247" ht="13"/>
+    <row r="248" ht="13"/>
+    <row r="249" ht="13"/>
+    <row r="250" ht="13"/>
+    <row r="251" ht="13"/>
+    <row r="252" ht="13"/>
+    <row r="253" ht="13"/>
+    <row r="254" ht="13"/>
+    <row r="255" ht="13"/>
+    <row r="256" ht="13"/>
+    <row r="257" ht="13"/>
+    <row r="258" ht="13"/>
+    <row r="259" ht="13"/>
+    <row r="260" ht="13"/>
+    <row r="261" ht="13"/>
+    <row r="262" ht="13"/>
+    <row r="263" ht="13"/>
+    <row r="264" ht="13"/>
+    <row r="265" ht="13"/>
+    <row r="266" ht="13"/>
+    <row r="267" ht="13"/>
+    <row r="268" ht="13"/>
+    <row r="269" ht="13"/>
+    <row r="270" ht="13"/>
+    <row r="271" ht="13"/>
+    <row r="272" ht="13"/>
+    <row r="273" ht="13"/>
+    <row r="274" ht="13"/>
+    <row r="275" ht="13"/>
+    <row r="276" ht="13"/>
+    <row r="277" ht="13"/>
+    <row r="278" ht="13"/>
+    <row r="279" ht="13"/>
+    <row r="280" ht="13"/>
+    <row r="281" ht="13"/>
+    <row r="282" ht="13"/>
+    <row r="283" ht="13"/>
+    <row r="284" ht="13"/>
+    <row r="285" ht="13"/>
+    <row r="286" ht="13"/>
+    <row r="287" ht="13"/>
+    <row r="288" ht="13"/>
+    <row r="289" ht="13"/>
+    <row r="290" ht="13"/>
+    <row r="291" ht="13"/>
+    <row r="292" ht="13"/>
+    <row r="293" ht="13"/>
+    <row r="294" ht="13"/>
+    <row r="295" ht="13"/>
+    <row r="296" ht="13"/>
+    <row r="297" ht="13"/>
+    <row r="298" ht="13"/>
+    <row r="299" ht="13"/>
+    <row r="300" ht="13"/>
+    <row r="301" ht="13"/>
+    <row r="302" ht="13"/>
+    <row r="303" ht="13"/>
+    <row r="304" ht="13"/>
+    <row r="305" ht="13"/>
+    <row r="306" ht="13"/>
+    <row r="307" ht="13"/>
+    <row r="308" ht="13"/>
+    <row r="309" ht="13"/>
+    <row r="310" ht="13"/>
+    <row r="311" ht="13"/>
+    <row r="312" ht="13"/>
+    <row r="313" ht="13"/>
+    <row r="314" ht="13"/>
+    <row r="315" ht="13"/>
+    <row r="316" ht="13"/>
+    <row r="317" ht="13"/>
+    <row r="318" ht="13"/>
+    <row r="319" ht="13"/>
+    <row r="320" ht="13"/>
+    <row r="321" ht="13"/>
+    <row r="322" ht="13"/>
+    <row r="323" ht="13"/>
+    <row r="324" ht="13"/>
+    <row r="325" ht="13"/>
+    <row r="326" ht="13"/>
+    <row r="327" ht="13"/>
+    <row r="328" ht="13"/>
+    <row r="329" ht="13"/>
+    <row r="330" ht="13"/>
+    <row r="331" ht="13"/>
+    <row r="332" ht="13"/>
+    <row r="333" ht="13"/>
+    <row r="334" ht="13"/>
+    <row r="335" ht="13"/>
+    <row r="336" ht="13"/>
+    <row r="337" ht="13"/>
+    <row r="338" ht="13"/>
+    <row r="339" ht="13"/>
+    <row r="340" ht="13"/>
+    <row r="341" ht="13"/>
+    <row r="342" ht="13"/>
+    <row r="343" ht="13"/>
+    <row r="344" ht="13"/>
+    <row r="345" ht="13"/>
+    <row r="346" ht="13"/>
+    <row r="347" ht="13"/>
+    <row r="348" ht="13"/>
+    <row r="349" ht="13"/>
+    <row r="350" ht="13"/>
+    <row r="351" ht="13"/>
+    <row r="352" ht="13"/>
+    <row r="353" ht="13"/>
+    <row r="354" ht="13"/>
+    <row r="355" ht="13"/>
+    <row r="356" ht="13"/>
+    <row r="357" ht="13"/>
+    <row r="358" ht="13"/>
+    <row r="359" ht="13"/>
+    <row r="360" ht="13"/>
+    <row r="361" ht="13"/>
+    <row r="362" ht="13"/>
+    <row r="363" ht="13"/>
+    <row r="364" ht="13"/>
+    <row r="365" ht="13"/>
+    <row r="366" ht="13"/>
+    <row r="367" ht="13"/>
+    <row r="368" ht="13"/>
+    <row r="369" ht="13"/>
+    <row r="370" ht="13"/>
+    <row r="371" ht="13"/>
+    <row r="372" ht="13"/>
+    <row r="373" ht="13"/>
+    <row r="374" ht="13"/>
+    <row r="375" ht="13"/>
+    <row r="376" ht="13"/>
+    <row r="377" ht="13"/>
+    <row r="378" ht="13"/>
+    <row r="379" ht="13"/>
+    <row r="380" ht="13"/>
+    <row r="381" ht="13"/>
+    <row r="382" ht="13"/>
+    <row r="383" ht="13"/>
+    <row r="384" ht="13"/>
+    <row r="385" ht="13"/>
+    <row r="386" ht="13"/>
+    <row r="387" ht="13"/>
+    <row r="388" ht="13"/>
+    <row r="389" ht="13"/>
+    <row r="390" ht="13"/>
+    <row r="391" ht="13"/>
+    <row r="392" ht="13"/>
+    <row r="393" ht="13"/>
+    <row r="394" ht="13"/>
+    <row r="395" ht="13"/>
+    <row r="396" ht="13"/>
+    <row r="397" ht="13"/>
+    <row r="398" ht="13"/>
+    <row r="399" ht="13"/>
+    <row r="400" ht="13"/>
+    <row r="401" ht="13"/>
+    <row r="402" ht="13"/>
+    <row r="403" ht="13"/>
+    <row r="404" ht="13"/>
+    <row r="405" ht="13"/>
+    <row r="406" ht="13"/>
+    <row r="407" ht="13"/>
+    <row r="408" ht="13"/>
+    <row r="409" ht="13"/>
+    <row r="410" ht="13"/>
+    <row r="411" ht="13"/>
+    <row r="412" ht="13"/>
+    <row r="413" ht="13"/>
+    <row r="414" ht="13"/>
+    <row r="415" ht="13"/>
+    <row r="416" ht="13"/>
+    <row r="417" ht="13"/>
+    <row r="418" ht="13"/>
+    <row r="419" ht="13"/>
+    <row r="420" ht="13"/>
+    <row r="421" ht="13"/>
+    <row r="422" ht="13"/>
+    <row r="423" ht="13"/>
+    <row r="424" ht="13"/>
+    <row r="425" ht="13"/>
+    <row r="426" ht="13"/>
+    <row r="427" ht="13"/>
+    <row r="428" ht="13"/>
+    <row r="429" ht="13"/>
+    <row r="430" ht="13"/>
+    <row r="431" ht="13"/>
+    <row r="432" ht="13"/>
+    <row r="433" ht="13"/>
+    <row r="434" ht="13"/>
+    <row r="435" ht="13"/>
+    <row r="436" ht="13"/>
+    <row r="437" ht="13"/>
+    <row r="438" ht="13"/>
+    <row r="439" ht="13"/>
+    <row r="440" ht="13"/>
+    <row r="441" ht="13"/>
+    <row r="442" ht="13"/>
+    <row r="443" ht="13"/>
+    <row r="444" ht="13"/>
+    <row r="445" ht="13"/>
+    <row r="446" ht="13"/>
+    <row r="447" ht="13"/>
+    <row r="448" ht="13"/>
+    <row r="449" ht="13"/>
+    <row r="450" ht="13"/>
+    <row r="451" ht="13"/>
+    <row r="452" ht="13"/>
+    <row r="453" ht="13"/>
+    <row r="454" ht="13"/>
+    <row r="455" ht="13"/>
+    <row r="456" ht="13"/>
+    <row r="457" ht="13"/>
+    <row r="458" ht="13"/>
+    <row r="459" ht="13"/>
+    <row r="460" ht="13"/>
+    <row r="461" ht="13"/>
+    <row r="462" ht="13"/>
+    <row r="463" ht="13"/>
+    <row r="464" ht="13"/>
+    <row r="465" ht="13"/>
+    <row r="466" ht="13"/>
+    <row r="467" ht="13"/>
+    <row r="468" ht="13"/>
+    <row r="469" ht="13"/>
+    <row r="470" ht="13"/>
+    <row r="471" ht="13"/>
+    <row r="472" ht="13"/>
+    <row r="473" ht="13"/>
+    <row r="474" ht="13"/>
+    <row r="475" ht="13"/>
+    <row r="476" ht="13"/>
+    <row r="477" ht="13"/>
+    <row r="478" ht="13"/>
+    <row r="479" ht="13"/>
+    <row r="480" ht="13"/>
+    <row r="481" ht="13"/>
+    <row r="482" ht="13"/>
+    <row r="483" ht="13"/>
+    <row r="484" ht="13"/>
+    <row r="485" ht="13"/>
+    <row r="486" ht="13"/>
+    <row r="487" ht="13"/>
+    <row r="488" ht="13"/>
+    <row r="489" ht="13"/>
+    <row r="490" ht="13"/>
+    <row r="491" ht="13"/>
+    <row r="492" ht="13"/>
+    <row r="493" ht="13"/>
+    <row r="494" ht="13"/>
+    <row r="495" ht="13"/>
+    <row r="496" ht="13"/>
+    <row r="497" ht="13"/>
+    <row r="498" ht="13"/>
+    <row r="499" ht="13"/>
+    <row r="500" ht="13"/>
+    <row r="501" ht="13"/>
+    <row r="502" ht="13"/>
+    <row r="503" ht="13"/>
+    <row r="504" ht="13"/>
+    <row r="505" ht="13"/>
+    <row r="506" ht="13"/>
+    <row r="507" ht="13"/>
+    <row r="508" ht="13"/>
+    <row r="509" ht="13"/>
+    <row r="510" ht="13"/>
+    <row r="511" ht="13"/>
+    <row r="512" ht="13"/>
+    <row r="513" ht="13"/>
+    <row r="514" ht="13"/>
+    <row r="515" ht="13"/>
+    <row r="516" ht="13"/>
+    <row r="517" ht="13"/>
+    <row r="518" ht="13"/>
+    <row r="519" ht="13"/>
+    <row r="520" ht="13"/>
+    <row r="521" ht="13"/>
+    <row r="522" ht="13"/>
+    <row r="523" ht="13"/>
+    <row r="524" ht="13"/>
+    <row r="525" ht="13"/>
+    <row r="526" ht="13"/>
+    <row r="527" ht="13"/>
+    <row r="528" ht="13"/>
+    <row r="529" ht="13"/>
+    <row r="530" ht="13"/>
+    <row r="531" ht="13"/>
+    <row r="532" ht="13"/>
+    <row r="533" ht="13"/>
+    <row r="534" ht="13"/>
+    <row r="535" ht="13"/>
+    <row r="536" ht="13"/>
+    <row r="537" ht="13"/>
+    <row r="538" ht="13"/>
+    <row r="539" ht="13"/>
+    <row r="540" ht="13"/>
+    <row r="541" ht="13"/>
+    <row r="542" ht="13"/>
+    <row r="543" ht="13"/>
+    <row r="544" ht="13"/>
+    <row r="545" ht="13"/>
+    <row r="546" ht="13"/>
+    <row r="547" ht="13"/>
+    <row r="548" ht="13"/>
+    <row r="549" ht="13"/>
+    <row r="550" ht="13"/>
+    <row r="551" ht="13"/>
+    <row r="552" ht="13"/>
+    <row r="553" ht="13"/>
+    <row r="554" ht="13"/>
+    <row r="555" ht="13"/>
+    <row r="556" ht="13"/>
+    <row r="557" ht="13"/>
+    <row r="558" ht="13"/>
+    <row r="559" ht="13"/>
+    <row r="560" ht="13"/>
+    <row r="561" ht="13"/>
+    <row r="562" ht="13"/>
+    <row r="563" ht="13"/>
+    <row r="564" ht="13"/>
+    <row r="565" ht="13"/>
+    <row r="566" ht="13"/>
+    <row r="567" ht="13"/>
+    <row r="568" ht="13"/>
+    <row r="569" ht="13"/>
+    <row r="570" ht="13"/>
+    <row r="571" ht="13"/>
+    <row r="572" ht="13"/>
+    <row r="573" ht="13"/>
+    <row r="574" ht="13"/>
+    <row r="575" ht="13"/>
+    <row r="576" ht="13"/>
+    <row r="577" ht="13"/>
+    <row r="578" ht="13"/>
+    <row r="579" ht="13"/>
+    <row r="580" ht="13"/>
+    <row r="581" ht="13"/>
+    <row r="582" ht="13"/>
+    <row r="583" ht="13"/>
+    <row r="584" ht="13"/>
+    <row r="585" ht="13"/>
+    <row r="586" ht="13"/>
+    <row r="587" ht="13"/>
+    <row r="588" ht="13"/>
+    <row r="589" ht="13"/>
+    <row r="590" ht="13"/>
+    <row r="591" ht="13"/>
+    <row r="592" ht="13"/>
+    <row r="593" ht="13"/>
+    <row r="594" ht="13"/>
+    <row r="595" ht="13"/>
+    <row r="596" ht="13"/>
+    <row r="597" ht="13"/>
+    <row r="598" ht="13"/>
+    <row r="599" ht="13"/>
+    <row r="600" ht="13"/>
+    <row r="601" ht="13"/>
+    <row r="602" ht="13"/>
+    <row r="603" ht="13"/>
+    <row r="604" ht="13"/>
+    <row r="605" ht="13"/>
+    <row r="606" ht="13"/>
+    <row r="607" ht="13"/>
+    <row r="608" ht="13"/>
+    <row r="609" ht="13"/>
+    <row r="610" ht="13"/>
+    <row r="611" ht="13"/>
+    <row r="612" ht="13"/>
+    <row r="613" ht="13"/>
+    <row r="614" ht="13"/>
+    <row r="615" ht="13"/>
+    <row r="616" ht="13"/>
+    <row r="617" ht="13"/>
+    <row r="618" ht="13"/>
+    <row r="619" ht="13"/>
+    <row r="620" ht="13"/>
+    <row r="621" ht="13"/>
+    <row r="622" ht="13"/>
+    <row r="623" ht="13"/>
+    <row r="624" ht="13"/>
+    <row r="625" ht="13"/>
+    <row r="626" ht="13"/>
+    <row r="627" ht="13"/>
+    <row r="628" ht="13"/>
+    <row r="629" ht="13"/>
+    <row r="630" ht="13"/>
+    <row r="631" ht="13"/>
+    <row r="632" ht="13"/>
+    <row r="633" ht="13"/>
+    <row r="634" ht="13"/>
+    <row r="635" ht="13"/>
+    <row r="636" ht="13"/>
+    <row r="637" ht="13"/>
+    <row r="638" ht="13"/>
+    <row r="639" ht="13"/>
+    <row r="640" ht="13"/>
+    <row r="641" ht="13"/>
+    <row r="642" ht="13"/>
+    <row r="643" ht="13"/>
+    <row r="644" ht="13"/>
+    <row r="645" ht="13"/>
+    <row r="646" ht="13"/>
+    <row r="647" ht="13"/>
+    <row r="648" ht="13"/>
+    <row r="649" ht="13"/>
+    <row r="650" ht="13"/>
+    <row r="651" ht="13"/>
+    <row r="652" ht="13"/>
+    <row r="653" ht="13"/>
+    <row r="654" ht="13"/>
+    <row r="655" ht="13"/>
+    <row r="656" ht="13"/>
+    <row r="657" ht="13"/>
+    <row r="658" ht="13"/>
+    <row r="659" ht="13"/>
+    <row r="660" ht="13"/>
+    <row r="661" ht="13"/>
+    <row r="662" ht="13"/>
+    <row r="663" ht="13"/>
+    <row r="664" ht="13"/>
+    <row r="665" ht="13"/>
+    <row r="666" ht="13"/>
+    <row r="667" ht="13"/>
+    <row r="668" ht="13"/>
+    <row r="669" ht="13"/>
+    <row r="670" ht="13"/>
+    <row r="671" ht="13"/>
+    <row r="672" ht="13"/>
+    <row r="673" ht="13"/>
+    <row r="674" ht="13"/>
+    <row r="675" ht="13"/>
+    <row r="676" ht="13"/>
+    <row r="677" ht="13"/>
+    <row r="678" ht="13"/>
+    <row r="679" ht="13"/>
+    <row r="680" ht="13"/>
+    <row r="681" ht="13"/>
+    <row r="682" ht="13"/>
+    <row r="683" ht="13"/>
+    <row r="684" ht="13"/>
+    <row r="685" ht="13"/>
+    <row r="686" ht="13"/>
+    <row r="687" ht="13"/>
+    <row r="688" ht="13"/>
+    <row r="689" ht="13"/>
+    <row r="690" ht="13"/>
+    <row r="691" ht="13"/>
+    <row r="692" ht="13"/>
+    <row r="693" ht="13"/>
+    <row r="694" ht="13"/>
+    <row r="695" ht="13"/>
+    <row r="696" ht="13"/>
+    <row r="697" ht="13"/>
+    <row r="698" ht="13"/>
+    <row r="699" ht="13"/>
+    <row r="700" ht="13"/>
+    <row r="701" ht="13"/>
+    <row r="702" ht="13"/>
+    <row r="703" ht="13"/>
+    <row r="704" ht="13"/>
+    <row r="705" ht="13"/>
+    <row r="706" ht="13"/>
+    <row r="707" ht="13"/>
+    <row r="708" ht="13"/>
+    <row r="709" ht="13"/>
+    <row r="710" ht="13"/>
+    <row r="711" ht="13"/>
+    <row r="712" ht="13"/>
+    <row r="713" ht="13"/>
+    <row r="714" ht="13"/>
+    <row r="715" ht="13"/>
+    <row r="716" ht="13"/>
+    <row r="717" ht="13"/>
+    <row r="718" ht="13"/>
+    <row r="719" ht="13"/>
+    <row r="720" ht="13"/>
+    <row r="721" ht="13"/>
+    <row r="722" ht="13"/>
+    <row r="723" ht="13"/>
+    <row r="724" ht="13"/>
+    <row r="725" ht="13"/>
+    <row r="726" ht="13"/>
+    <row r="727" ht="13"/>
+    <row r="728" ht="13"/>
+    <row r="729" ht="13"/>
+    <row r="730" ht="13"/>
+    <row r="731" ht="13"/>
+    <row r="732" ht="13"/>
+    <row r="733" ht="13"/>
+    <row r="734" ht="13"/>
+    <row r="735" ht="13"/>
+    <row r="736" ht="13"/>
+    <row r="737" ht="13"/>
+    <row r="738" ht="13"/>
+    <row r="739" ht="13"/>
+    <row r="740" ht="13"/>
+    <row r="741" ht="13"/>
+    <row r="742" ht="13"/>
+    <row r="743" ht="13"/>
+    <row r="744" ht="13"/>
+    <row r="745" ht="13"/>
+    <row r="746" ht="13"/>
+    <row r="747" ht="13"/>
+    <row r="748" ht="13"/>
+    <row r="749" ht="13"/>
+    <row r="750" ht="13"/>
+    <row r="751" ht="13"/>
+    <row r="752" ht="13"/>
+    <row r="753" ht="13"/>
+    <row r="754" ht="13"/>
+    <row r="755" ht="13"/>
+    <row r="756" ht="13"/>
+    <row r="757" ht="13"/>
+    <row r="758" ht="13"/>
+    <row r="759" ht="13"/>
+    <row r="760" ht="13"/>
+    <row r="761" ht="13"/>
+    <row r="762" ht="13"/>
+    <row r="763" ht="13"/>
+    <row r="764" ht="13"/>
+    <row r="765" ht="13"/>
+    <row r="766" ht="13"/>
+    <row r="767" ht="13"/>
+    <row r="768" ht="13"/>
+    <row r="769" ht="13"/>
+    <row r="770" ht="13"/>
+    <row r="771" ht="13"/>
+    <row r="772" ht="13"/>
+    <row r="773" ht="13"/>
+    <row r="774" ht="13"/>
+    <row r="775" ht="13"/>
+    <row r="776" ht="13"/>
+    <row r="777" ht="13"/>
+    <row r="778" ht="13"/>
+    <row r="779" ht="13"/>
+    <row r="780" ht="13"/>
+    <row r="781" ht="13"/>
+    <row r="782" ht="13"/>
+    <row r="783" ht="13"/>
+    <row r="784" ht="13"/>
+    <row r="785" ht="13"/>
+    <row r="786" ht="13"/>
+    <row r="787" ht="13"/>
+    <row r="788" ht="13"/>
+    <row r="789" ht="13"/>
+    <row r="790" ht="13"/>
+    <row r="791" ht="13"/>
+    <row r="792" ht="13"/>
+    <row r="793" ht="13"/>
+    <row r="794" ht="13"/>
+    <row r="795" ht="13"/>
+    <row r="796" ht="13"/>
+    <row r="797" ht="13"/>
+    <row r="798" ht="13"/>
+    <row r="799" ht="13"/>
+    <row r="800" ht="13"/>
+    <row r="801" ht="13"/>
+    <row r="802" ht="13"/>
+    <row r="803" ht="13"/>
+    <row r="804" ht="13"/>
+    <row r="805" ht="13"/>
+    <row r="806" ht="13"/>
+    <row r="807" ht="13"/>
+    <row r="808" ht="13"/>
+    <row r="809" ht="13"/>
+    <row r="810" ht="13"/>
+    <row r="811" ht="13"/>
+    <row r="812" ht="13"/>
+    <row r="813" ht="13"/>
+    <row r="814" ht="13"/>
+    <row r="815" ht="13"/>
+    <row r="816" ht="13"/>
+    <row r="817" ht="13"/>
+    <row r="818" ht="13"/>
+    <row r="819" ht="13"/>
+    <row r="820" ht="13"/>
+    <row r="821" ht="13"/>
+    <row r="822" ht="13"/>
+    <row r="823" ht="13"/>
+    <row r="824" ht="13"/>
+    <row r="825" ht="13"/>
+    <row r="826" ht="13"/>
+    <row r="827" ht="13"/>
+    <row r="828" ht="13"/>
+    <row r="829" ht="13"/>
+    <row r="830" ht="13"/>
+    <row r="831" ht="13"/>
+    <row r="832" ht="13"/>
+    <row r="833" ht="13"/>
+    <row r="834" ht="13"/>
+    <row r="835" ht="13"/>
+    <row r="836" ht="13"/>
+    <row r="837" ht="13"/>
+    <row r="838" ht="13"/>
+    <row r="839" ht="13"/>
+    <row r="840" ht="13"/>
+    <row r="841" ht="13"/>
+    <row r="842" ht="13"/>
+    <row r="843" ht="13"/>
+    <row r="844" ht="13"/>
+    <row r="845" ht="13"/>
+    <row r="846" ht="13"/>
+    <row r="847" ht="13"/>
+    <row r="848" ht="13"/>
+    <row r="849" ht="13"/>
+    <row r="850" ht="13"/>
+    <row r="851" ht="13"/>
+    <row r="852" ht="13"/>
+    <row r="853" ht="13"/>
+    <row r="854" ht="13"/>
+    <row r="855" ht="13"/>
+    <row r="856" ht="13"/>
+    <row r="857" ht="13"/>
+    <row r="858" ht="13"/>
+    <row r="859" ht="13"/>
+    <row r="860" ht="13"/>
+    <row r="861" ht="13"/>
+    <row r="862" ht="13"/>
+    <row r="863" ht="13"/>
+    <row r="864" ht="13"/>
+    <row r="865" ht="13"/>
+    <row r="866" ht="13"/>
+    <row r="867" ht="13"/>
+    <row r="868" ht="13"/>
+    <row r="869" ht="13"/>
+    <row r="870" ht="13"/>
+    <row r="871" ht="13"/>
+    <row r="872" ht="13"/>
+    <row r="873" ht="13"/>
+    <row r="874" ht="13"/>
+    <row r="875" ht="13"/>
+    <row r="876" ht="13"/>
+    <row r="877" ht="13"/>
+    <row r="878" ht="13"/>
+    <row r="879" ht="13"/>
+    <row r="880" ht="13"/>
+    <row r="881" ht="13"/>
+    <row r="882" ht="13"/>
+    <row r="883" ht="13"/>
+    <row r="884" ht="13"/>
+    <row r="885" ht="13"/>
+    <row r="886" ht="13"/>
+    <row r="887" ht="13"/>
+    <row r="888" ht="13"/>
+    <row r="889" ht="13"/>
+    <row r="890" ht="13"/>
+    <row r="891" ht="13"/>
+    <row r="892" ht="13"/>
+    <row r="893" ht="13"/>
+    <row r="894" ht="13"/>
+    <row r="895" ht="13"/>
+    <row r="896" ht="13"/>
+    <row r="897" ht="13"/>
+    <row r="898" ht="13"/>
+    <row r="899" ht="13"/>
+    <row r="900" ht="13"/>
+    <row r="901" ht="13"/>
+    <row r="902" ht="13"/>
+    <row r="903" ht="13"/>
+    <row r="904" ht="13"/>
+    <row r="905" ht="13"/>
+    <row r="906" ht="13"/>
+    <row r="907" ht="13"/>
+    <row r="908" ht="13"/>
+    <row r="909" ht="13"/>
+    <row r="910" ht="13"/>
+    <row r="911" ht="13"/>
+    <row r="912" ht="13"/>
+    <row r="913" ht="13"/>
+    <row r="914" ht="13"/>
+    <row r="915" ht="13"/>
+    <row r="916" ht="13"/>
+    <row r="917" ht="13"/>
+    <row r="918" ht="13"/>
+    <row r="919" ht="13"/>
+    <row r="920" ht="13"/>
+    <row r="921" ht="13"/>
+    <row r="922" ht="13"/>
+    <row r="923" ht="13"/>
+    <row r="924" ht="13"/>
+    <row r="925" ht="13"/>
+    <row r="926" ht="13"/>
+    <row r="927" ht="13"/>
+    <row r="928" ht="13"/>
+    <row r="929" ht="13"/>
+    <row r="930" ht="13"/>
+    <row r="931" ht="13"/>
+    <row r="932" ht="13"/>
+    <row r="933" ht="13"/>
+    <row r="934" ht="13"/>
+    <row r="935" ht="13"/>
+    <row r="936" ht="13"/>
+    <row r="937" ht="13"/>
+    <row r="938" ht="13"/>
+    <row r="939" ht="13"/>
+    <row r="940" ht="13"/>
+    <row r="941" ht="13"/>
+    <row r="942" ht="13"/>
+    <row r="943" ht="13"/>
+    <row r="944" ht="13"/>
+    <row r="945" ht="13"/>
+    <row r="946" ht="13"/>
+    <row r="947" ht="13"/>
+    <row r="948" ht="13"/>
+    <row r="949" ht="13"/>
+    <row r="950" ht="13"/>
+    <row r="951" ht="13"/>
+    <row r="952" ht="13"/>
+    <row r="953" ht="13"/>
+    <row r="954" ht="13"/>
+    <row r="955" ht="13"/>
+    <row r="956" ht="13"/>
+    <row r="957" ht="13"/>
+    <row r="958" ht="13"/>
+    <row r="959" ht="13"/>
+    <row r="960" ht="13"/>
+    <row r="961" ht="13"/>
+    <row r="962" ht="13"/>
+    <row r="963" ht="13"/>
+    <row r="964" ht="13"/>
+    <row r="965" ht="13"/>
+    <row r="966" ht="13"/>
+    <row r="967" ht="13"/>
+    <row r="968" ht="13"/>
+    <row r="969" ht="13"/>
+    <row r="970" ht="13"/>
+    <row r="971" ht="13"/>
+    <row r="972" ht="13"/>
+    <row r="973" ht="13"/>
+    <row r="974" ht="13"/>
+    <row r="975" ht="13"/>
+    <row r="976" ht="13"/>
+    <row r="977" ht="13"/>
+    <row r="978" ht="13"/>
+    <row r="979" ht="13"/>
+    <row r="980" ht="13"/>
+    <row r="981" ht="13"/>
+    <row r="982" ht="13"/>
+    <row r="983" ht="13"/>
+    <row r="984" ht="13"/>
+    <row r="985" ht="13"/>
+    <row r="986" ht="13"/>
+    <row r="987" ht="13"/>
+    <row r="988" ht="13"/>
+    <row r="989" ht="13"/>
+    <row r="990" ht="13"/>
+    <row r="991" ht="13"/>
+    <row r="992" ht="13"/>
+    <row r="993" ht="13"/>
+    <row r="994" ht="13"/>
+    <row r="995" ht="13"/>
+    <row r="996" ht="13"/>
+    <row r="997" ht="13"/>
+    <row r="998" ht="13"/>
+    <row r="999" ht="13"/>
+    <row r="1000" ht="13"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
